--- a/lod_analysis/excels/albums_full.xlsx
+++ b/lod_analysis/excels/albums_full.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB3334-8068-4E94-90FF-68061062BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="albums_full.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="581">
   <si>
     <t>album_id</t>
   </si>
@@ -46,1244 +52,1724 @@
     <t>geonames_download_time</t>
   </si>
   <si>
-    <t>0e1WaSNDZnoPixaxDNdWo4</t>
-  </si>
-  <si>
-    <t>5AtTKLErRJPLZAOfPabe7m</t>
-  </si>
-  <si>
-    <t>754RY5WpZ2LTUZsk8kDBju</t>
-  </si>
-  <si>
-    <t>2CzkXD7h92NTeWu8seWhjt</t>
-  </si>
-  <si>
-    <t>4gxFqhVYU4wp1XDH1KiIo4</t>
-  </si>
-  <si>
-    <t>2QRU8jGOJHDMrCTPKIHVik</t>
-  </si>
-  <si>
-    <t>2fx7yIPvTcKk2AwlCexOKi</t>
-  </si>
-  <si>
-    <t>55tK4Ab7XHTOKkw0xDz3AA</t>
-  </si>
-  <si>
-    <t>2dL9Q5AtIv4Rw1L6lKcIUc</t>
-  </si>
-  <si>
-    <t>4aBbor9Sqi43RqUcc9g18G</t>
-  </si>
-  <si>
-    <t>4Lujxftn2mPfDJUd2nTk6U</t>
-  </si>
-  <si>
-    <t>0FZK97MXMm5mUQ8mtudjuK</t>
-  </si>
-  <si>
-    <t>5SSyCOE8tODWLeD70l1oyx</t>
-  </si>
-  <si>
-    <t>54Wb4l4sZxPGTkOIuRdeRi</t>
-  </si>
-  <si>
-    <t>4fSovBNtliN1OY3CXNDS16</t>
-  </si>
-  <si>
-    <t>6yJdQMlMkfYJFiSsL6764c</t>
-  </si>
-  <si>
-    <t>5LbHbwejgZXRZAgzVAjkhj</t>
-  </si>
-  <si>
-    <t>17GBjeSa10SoUukS9lJCTv</t>
-  </si>
-  <si>
-    <t>68pVw4aHEP73HmIufK0gvP</t>
-  </si>
-  <si>
-    <t>7969zwJB8p021EBcCUjsv9</t>
-  </si>
-  <si>
-    <t>2oJTYN8xPlbz6qURAPTzBa</t>
-  </si>
-  <si>
-    <t>0cn6MHyx4YuZauaB7Pb66o</t>
-  </si>
-  <si>
-    <t>4v0b8BdoRg3Laf873l9NBM</t>
-  </si>
-  <si>
-    <t>7fmOTYDQn9DIXCy1YDrl4S</t>
-  </si>
-  <si>
-    <t>70PgbB3WDDwNW9NRi35C7N</t>
-  </si>
-  <si>
-    <t>5OsKZSMhvAjBb47m8zakxI</t>
-  </si>
-  <si>
-    <t>0YkHsU3Mblh7jvNngbV20W</t>
-  </si>
-  <si>
-    <t>70TYHf7Is70KOY1sHl5Vlh</t>
-  </si>
-  <si>
-    <t>4rUru08MiWf8LD2jynZeS8</t>
-  </si>
-  <si>
-    <t>621DbTkvVR4lSa8KogGfwo</t>
-  </si>
-  <si>
-    <t>5oHxNjaes4htlqvUrqZGsz</t>
-  </si>
-  <si>
-    <t>3qFQ4XNQ15alZrAaj5oGJK</t>
-  </si>
-  <si>
-    <t>1yti3dRHxGWTNwfHbIGgJk</t>
-  </si>
-  <si>
-    <t>09asAAZJ7rXedp9J8wqvBR</t>
-  </si>
-  <si>
-    <t>4ZpfSlHwUXaL6kgFTL6hMk</t>
-  </si>
-  <si>
-    <t>1OCoLxZ0ThaNLObdcsO4yk</t>
-  </si>
-  <si>
-    <t>7wGLeeJt18EBjc181FP2cM</t>
-  </si>
-  <si>
-    <t>4PeRcYNYVB1mD4wemj5zld</t>
-  </si>
-  <si>
-    <t>399w1uaOvKhnkczdMMZYoy</t>
-  </si>
-  <si>
-    <t>10EVrtkAgTTc7rE61zk8nw</t>
-  </si>
-  <si>
-    <t>38pfSOHvxHqDWwDnjZ25U5</t>
-  </si>
-  <si>
-    <t>20DuURxVi2Sl6GutAomCBh</t>
-  </si>
-  <si>
-    <t>06GBUPJJk11dHKJ33jWmCc</t>
-  </si>
-  <si>
-    <t>5H9cH0ZFEwiJQFPCXiXzxd</t>
-  </si>
-  <si>
-    <t>6X6tLNtRw77Au4CDidCY0F</t>
-  </si>
-  <si>
-    <t>4ZDwEvXIKxWdwhAQK8ndBU</t>
-  </si>
-  <si>
-    <t>3smHEWBKoqDUFuJrV8BCg1</t>
-  </si>
-  <si>
-    <t>1v2HPkvT2fkf12SXzAdrNz</t>
-  </si>
-  <si>
-    <t>3gKI4SILp3XmJYhXctK8Hj</t>
-  </si>
-  <si>
-    <t>0ApKaazNHf0gzjAYZauexq</t>
-  </si>
-  <si>
-    <t>1YjxZhd158jSm2906JqzXF</t>
-  </si>
-  <si>
-    <t>4ZDBQSIDIZRUBOG2OHcN3T</t>
-  </si>
-  <si>
-    <t>4uNzDULQ9RAy0nxGaPbCDn</t>
-  </si>
-  <si>
-    <t>4vD8PvUW4UfSL9K4CspEzv</t>
-  </si>
-  <si>
-    <t>7vfuTRXIAYJz5Uc8SddnTr</t>
-  </si>
-  <si>
-    <t>5Idfe5SehEAZ9uyv9fSKu1</t>
-  </si>
-  <si>
-    <t>3Id3VUk9jSKBD1guNo1buF</t>
-  </si>
-  <si>
-    <t>6iJEtgHTEbVlSS5isIS71z</t>
-  </si>
-  <si>
-    <t>4rJu3hBFAUqIAQOlSStJzO</t>
-  </si>
-  <si>
-    <t>2MqYypIxDlwcPNc1T90fO2</t>
-  </si>
-  <si>
-    <t>2I0dLXQS51ClLPxY8GypuO</t>
-  </si>
-  <si>
-    <t>1amiX0yqQQ4ZeY6NajMwq4</t>
-  </si>
-  <si>
-    <t>3ntOXFMHUPIedU3l2QNE0n</t>
-  </si>
-  <si>
-    <t>2vFTIDhi10W1AdzL6GKpgO</t>
+    <t>1fyLNx6wxgDA59wFInnyup</t>
+  </si>
+  <si>
+    <t>2v9PjvIkQVnyQdtD1iQD7e</t>
+  </si>
+  <si>
+    <t>6koDBGMqurYl3EZnaxCF7N</t>
+  </si>
+  <si>
+    <t>4yrrPNjd9RcqnuDnoEhlER</t>
+  </si>
+  <si>
+    <t>1w5Idra65UuHmtB5Dx0Nxt</t>
+  </si>
+  <si>
+    <t>0uMIzWh1uEpHEBell4rlF8</t>
+  </si>
+  <si>
+    <t>2NRRQLuW6j3EsoWpIl2MR3</t>
+  </si>
+  <si>
+    <t>1FvdZ1oizXwF9bxogujoF0</t>
+  </si>
+  <si>
+    <t>17EANLCoErHdo9FpzMx25q</t>
+  </si>
+  <si>
+    <t>7j11BWRSLFBFUVR4EPG6WD</t>
+  </si>
+  <si>
+    <t>6j1k8wmYevBQURQjzl7tCt</t>
+  </si>
+  <si>
+    <t>2eidOWrCeH2sUMML9Ive4b</t>
+  </si>
+  <si>
+    <t>4X87hQ57jTYQTcYTaJWK5w</t>
+  </si>
+  <si>
+    <t>499LkyqISYrylHIGk2IkLx</t>
+  </si>
+  <si>
+    <t>1gB28ytYFQElaXngAfeYep</t>
+  </si>
+  <si>
+    <t>4E7bV0pzG0LciBSWTszra6</t>
+  </si>
+  <si>
+    <t>0ta5VdkJcpdVnNrn7g4cZe</t>
+  </si>
+  <si>
+    <t>2zE1YKY7Okj10Tjl09jjth</t>
+  </si>
+  <si>
+    <t>4hBTxv4QRPePXCFcEI7Vjp</t>
+  </si>
+  <si>
+    <t>5ebh0MxkqELmk50xHj2b4k</t>
+  </si>
+  <si>
+    <t>1rYXSHYaxxQ9HclnAeVhxv</t>
+  </si>
+  <si>
+    <t>1ne2D0NxoGyZd31gAM4HNd</t>
+  </si>
+  <si>
+    <t>3ly9T2L4pqTZijFgQssd3x</t>
+  </si>
+  <si>
+    <t>28q2N44ocJECgf8sbHEDfY</t>
+  </si>
+  <si>
+    <t>0gsiszk6JWYwAyGvaTTud4</t>
+  </si>
+  <si>
+    <t>43zbrwwFHh5e7cmDQomx8Z</t>
+  </si>
+  <si>
+    <t>7d3nOmFvL51roNElAdpi9d</t>
+  </si>
+  <si>
+    <t>3xmKWmqJFoXS22tePO3mgd</t>
+  </si>
+  <si>
+    <t>4p9dVvZDaZliSjTCbFRhJy</t>
+  </si>
+  <si>
+    <t>53zV9rZ5yfWgigsmuJtYpG</t>
+  </si>
+  <si>
+    <t>1BAmE3bdBnxej0umzyHQ5x</t>
+  </si>
+  <si>
+    <t>6s84u2TUpR3wdUv4NgKA2j</t>
+  </si>
+  <si>
+    <t>4DyMK9x2gnmRkRa16zHaEV</t>
+  </si>
+  <si>
+    <t>0kys2jaKAiDPfNBd4z7LAg</t>
+  </si>
+  <si>
+    <t>2nJYViXh2aERzlshmKLH43</t>
+  </si>
+  <si>
+    <t>0dD1SMOKBDV1qBadcovw30</t>
+  </si>
+  <si>
+    <t>59eUYETmE1zi31ESb3SUkI</t>
+  </si>
+  <si>
+    <t>4CgsfLFMXaJVXz0k2mHkVA</t>
+  </si>
+  <si>
+    <t>0nPBJGadOVJw8e0cem1aG5</t>
+  </si>
+  <si>
+    <t>7xl50xr9NDkd3i2kBbzsNZ</t>
+  </si>
+  <si>
+    <t>5I099NUhbRrXaxnxQagElv</t>
+  </si>
+  <si>
+    <t>0HogGfosAvj4tF3GTv2KIE</t>
+  </si>
+  <si>
+    <t>2R2SusHMCwhf0ed78ajJUM</t>
+  </si>
+  <si>
+    <t>0W7mquARagPr9V1N0nHYgK</t>
+  </si>
+  <si>
+    <t>1xC5ZY2CNi8t1GbYSRwoUm</t>
+  </si>
+  <si>
+    <t>42UJjk8i8L0De7lQtu7sqi</t>
+  </si>
+  <si>
+    <t>6LY3AerY6KNGOPsNPL63Kk</t>
+  </si>
+  <si>
+    <t>1eNx9ftNTcXWE3G0XSyl1S</t>
+  </si>
+  <si>
+    <t>2p9gK2BcdrloHNJwarc9gc</t>
+  </si>
+  <si>
+    <t>3vLaOYCNCzngDf8QdBg2V1</t>
+  </si>
+  <si>
+    <t>2tlTBLz2w52rpGCLBGyGw6</t>
+  </si>
+  <si>
+    <t>6J9fX2iXc9W7ILQUWvEhAx</t>
+  </si>
+  <si>
+    <t>03srSIJshSQQOh2vJ3uVZi</t>
+  </si>
+  <si>
+    <t>718KJ6VFOdcqCFCWykJKoG</t>
+  </si>
+  <si>
+    <t>7HlZFlk0jJq3Bb03AOyMTE</t>
+  </si>
+  <si>
+    <t>2xuoy4Qfrk9wlucZ8anDzE</t>
+  </si>
+  <si>
+    <t>6xQF1SfwVLRXTF1j5OZs5Y</t>
+  </si>
+  <si>
+    <t>4lBrDelXR6Sn0k54a7UWMz</t>
+  </si>
+  <si>
+    <t>3JSWZWeTHF4HDGt5Eozdy7</t>
   </si>
   <si>
     <t>0RySAmM6oDPGSE03X3dzi1</t>
   </si>
   <si>
-    <t>3LhnJMmYkizRwyHdw8y0Qr</t>
-  </si>
-  <si>
-    <t>0XanoL4BiRd52WeYfDWCkA</t>
-  </si>
-  <si>
-    <t>16ElbnOtY2UgGaPKoLfst4</t>
-  </si>
-  <si>
-    <t>5sHvTCk793vr9EkSKcD7IT</t>
-  </si>
-  <si>
-    <t>5eHk89PNorMd7e4wyxYiUV</t>
-  </si>
-  <si>
-    <t>5jp2GvFmxYbKge605mja3F</t>
-  </si>
-  <si>
-    <t>2iKF4kjA0YK0tLKwGTJ1j8</t>
-  </si>
-  <si>
-    <t>02w1xMzzdF2OJxTeh1basm</t>
-  </si>
-  <si>
-    <t>2Gq0ERke26yxdGuRvrqFTD</t>
-  </si>
-  <si>
-    <t>2tlTBLz2w52rpGCLBGyGw6</t>
-  </si>
-  <si>
-    <t>6OlCoydaNFUU7v1Xo5ZJPx</t>
-  </si>
-  <si>
-    <t>6PntFOrFJdHpXE9xzjhkyR</t>
-  </si>
-  <si>
-    <t>2pCfqddO9tLKRz3wzSNGsZ</t>
-  </si>
-  <si>
-    <t>72olNArm75vOycSziqIX9Y</t>
-  </si>
-  <si>
-    <t>5fKL7vMTXvhR9tov8Kqt3u</t>
-  </si>
-  <si>
-    <t>3ilXDEG0xiajK8AbqboeJz</t>
-  </si>
-  <si>
-    <t>22Vt5HrHpPtKb8yN90LRwM</t>
-  </si>
-  <si>
-    <t>3kXVjMeCZHDO0UzTxGps4t</t>
-  </si>
-  <si>
-    <t>6hPkbAV3ZXpGZBGUvL6jVM</t>
-  </si>
-  <si>
-    <t>4fygErqiNgFUic5hU42Z3E</t>
-  </si>
-  <si>
-    <t>2SmDuZSWtjukp9gkG2mcBQ</t>
-  </si>
-  <si>
-    <t>72wsQyk1EzDuXa7bRlHv1x</t>
-  </si>
-  <si>
-    <t>4KnWR76aRieR6QREuid3y7</t>
-  </si>
-  <si>
-    <t>5CmgNXCwdGuqn6EPzfb4Tq</t>
-  </si>
-  <si>
-    <t>2i6nd4FV6y7K9fln6eelmR</t>
-  </si>
-  <si>
-    <t>4XHIjbhjRmqWlosjj5rqSI</t>
-  </si>
-  <si>
-    <t>5tu3lWy5noRh9hGYq8obgk</t>
-  </si>
-  <si>
-    <t>3jUFrF74AqLhNhpiVUuLFi</t>
-  </si>
-  <si>
-    <t>6NrMjaGIZAKZLMzVnkNY4V</t>
-  </si>
-  <si>
-    <t>4ltnRU2rPIbK3RPdtQFAWm</t>
-  </si>
-  <si>
-    <t>3gqiTbYCXF9p10eUbfqRLj</t>
-  </si>
-  <si>
-    <t>2gJ6axVHAsQmmO6nslQRN1</t>
-  </si>
-  <si>
-    <t>3T4nMxe1j3LgnyqFimzlWg</t>
-  </si>
-  <si>
-    <t>5dR0fhE3oveLRSUMMQ3oRB</t>
-  </si>
-  <si>
-    <t>2TsCsy22SvMckza20MwOUr</t>
-  </si>
-  <si>
-    <t>POST HUMAN: SURVIVAL HORROR</t>
-  </si>
-  <si>
-    <t>Misery</t>
-  </si>
-  <si>
-    <t>We Are Not Your Kind</t>
-  </si>
-  <si>
-    <t>In Our Wake</t>
-  </si>
-  <si>
-    <t>Popular Monster</t>
-  </si>
-  <si>
-    <t>TRAUMA</t>
-  </si>
-  <si>
-    <t>Antisocialist</t>
-  </si>
-  <si>
-    <t>City of Evil</t>
-  </si>
-  <si>
-    <t>Slipknot (10th Anniversary Edition)</t>
-  </si>
-  <si>
-    <t>Nothing More</t>
-  </si>
-  <si>
-    <t>Got Your Six (Deluxe)</t>
-  </si>
-  <si>
-    <t>The Black Parade</t>
-  </si>
-  <si>
-    <t>Exhale</t>
-  </si>
-  <si>
-    <t>White Rabbit [Deluxe Edition]</t>
-  </si>
-  <si>
-    <t>The End Is Where We Begin</t>
-  </si>
-  <si>
-    <t>Phobia (Explicit Version)</t>
-  </si>
-  <si>
-    <t>Facelift</t>
-  </si>
-  <si>
-    <t>Tri-polar</t>
-  </si>
-  <si>
-    <t>Shallow Bay: The Best Of Breaking Benjamin (Explicit)</t>
-  </si>
-  <si>
-    <t>Threat to Survival</t>
-  </si>
-  <si>
-    <t>Good Times, Bad Times - Ten Years of Godsmack</t>
-  </si>
-  <si>
-    <t>Mezmerize</t>
-  </si>
-  <si>
-    <t>Modern Vintage</t>
-  </si>
-  <si>
-    <t>Lest We Forget - The Best Of</t>
-  </si>
-  <si>
-    <t>Saint Asonia</t>
-  </si>
-  <si>
-    <t>S.O.A.R</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>F.E.A.R.</t>
-  </si>
-  <si>
-    <t>The Connection</t>
-  </si>
-  <si>
-    <t>The Wrong Side Of Heaven And The Righteous Side Of Hell (Volume 1/Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Day One</t>
-  </si>
-  <si>
-    <t>Immortalized</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>Dark Before Dawn</t>
-  </si>
-  <si>
-    <t>Isolate And Medicate</t>
-  </si>
-  <si>
-    <t>Transmissions</t>
-  </si>
-  <si>
-    <t>Mister Asylum</t>
-  </si>
-  <si>
-    <t>The Sound of Madness</t>
-  </si>
-  <si>
-    <t>The Black</t>
-  </si>
-  <si>
-    <t>Polyester Zeal</t>
-  </si>
-  <si>
-    <t>Three Days Grace (Expanded Edition)</t>
-  </si>
-  <si>
-    <t>Blank Space</t>
-  </si>
-  <si>
-    <t>Isolate And Medicate (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>UNDEN!ABLE</t>
-  </si>
-  <si>
-    <t>War Is The Answer</t>
-  </si>
-  <si>
-    <t>One-X</t>
-  </si>
-  <si>
-    <t>Appeal To Reason</t>
-  </si>
-  <si>
-    <t>Feathers &amp; Flesh</t>
-  </si>
-  <si>
-    <t>The Wrong Side Of Heaven And The Righteous Side Of Hell (Volume 2)</t>
-  </si>
-  <si>
-    <t>.5: The Gray Chapter (Special Edition)</t>
-  </si>
-  <si>
-    <t>Venom (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Vol. 3: The Subliminal Verses</t>
-  </si>
-  <si>
-    <t>The Poison (Deluxe Version)</t>
-  </si>
-  <si>
-    <t>All Hope Is Gone</t>
-  </si>
-  <si>
-    <t>Nightmare</t>
-  </si>
-  <si>
-    <t>Overcome</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>As Daylight Dies (Special Edition)</t>
-  </si>
-  <si>
-    <t>Unleashed</t>
-  </si>
-  <si>
-    <t>Restoring Force: Full Circle</t>
-  </si>
-  <si>
-    <t>The Heroin Diaries Soundtrack</t>
-  </si>
-  <si>
-    <t>Transit Of Venus</t>
-  </si>
-  <si>
-    <t>End Of Silence</t>
-  </si>
-  <si>
-    <t>My Darkest Days</t>
+    <t>6w36pmMA5bxECalu5rxQAw</t>
+  </si>
+  <si>
+    <t>14rRGdr4K5UoaEFVw9jqBG</t>
+  </si>
+  <si>
+    <t>0Tnve4bDxyiBCRaj03qO8z</t>
+  </si>
+  <si>
+    <t>5IVJbSDDWbGjKbBczyifFl</t>
+  </si>
+  <si>
+    <t>0RhPpU4BvtF44qdvFnGQuh</t>
+  </si>
+  <si>
+    <t>1CwXS6MAz8Wo7K4TzW9iuR</t>
+  </si>
+  <si>
+    <t>2X8UOIkZQdcz2Hi5Ynt2uk</t>
+  </si>
+  <si>
+    <t>02Ird1pnGUdA6ruy87cxVa</t>
+  </si>
+  <si>
+    <t>1uFAUMUiDxxL59YZFlsou0</t>
+  </si>
+  <si>
+    <t>7skmxw0M4VQMZwY4lICAHl</t>
+  </si>
+  <si>
+    <t>6J84szYCnMfzEcvIcfWMFL</t>
+  </si>
+  <si>
+    <t>2BiHNvepMd4B0GefoCGmIq</t>
+  </si>
+  <si>
+    <t>2EVR73AnIDeYLxVDJIqObQ</t>
+  </si>
+  <si>
+    <t>5CTygC3aONv7l0klY4k3hc</t>
+  </si>
+  <si>
+    <t>0tGht9KBhk71vOJCHZzhVk</t>
+  </si>
+  <si>
+    <t>6DN7GcZF1HywzrkGN6Eeqk</t>
+  </si>
+  <si>
+    <t>6bNWz7bHK8M0xPfAPmFSRW</t>
+  </si>
+  <si>
+    <t>64Pv36CiG9rBcyvKnud02V</t>
+  </si>
+  <si>
+    <t>2bsemtYlVfVAQODavrDkS4</t>
+  </si>
+  <si>
+    <t>6cpOIdpPfGaazHsh5eYz0k</t>
+  </si>
+  <si>
+    <t>1TwNATuAqnNjTd5BSvFZlS</t>
+  </si>
+  <si>
+    <t>42G5ULkCRRl3crJMlg6eKd</t>
+  </si>
+  <si>
+    <t>0egRXi9lcYlIGJZ01SpYM3</t>
+  </si>
+  <si>
+    <t>0FRgdvEBohgk5trS7lEndW</t>
+  </si>
+  <si>
+    <t>1CsztoJYGwGURMCppulrOt</t>
+  </si>
+  <si>
+    <t>7ndqT6LH9o6YQ5uA7aT0St</t>
+  </si>
+  <si>
+    <t>6TTUtIFLwkgKJGrjoAbq8q</t>
+  </si>
+  <si>
+    <t>6iE4f7SmNoKRqm5yQBwyPl</t>
+  </si>
+  <si>
+    <t>65kIVEdb93smbnC7k4aie7</t>
+  </si>
+  <si>
+    <t>3QxX3NbWyLlLG6lP1xveL3</t>
+  </si>
+  <si>
+    <t>0dzqapIToiOhULGvzDKpXm</t>
+  </si>
+  <si>
+    <t>7pPGcOsBGole3gAgcBe35w</t>
+  </si>
+  <si>
+    <t>043vwbrz69dFkM7LL5bBo2</t>
+  </si>
+  <si>
+    <t>1K4t7Jv7DuolDWnFLxKxkd</t>
+  </si>
+  <si>
+    <t>7hkIf8sKiJKRjADB2xan74</t>
+  </si>
+  <si>
+    <t>15XNBzVWARPMlu0sEbfBjJ</t>
+  </si>
+  <si>
+    <t>00kOiUJakqkClL8Zthwa5W</t>
+  </si>
+  <si>
+    <t>44BtGGBJohrvoKVzmi1wij</t>
+  </si>
+  <si>
+    <t>3ifIxGNsG1XmLdoanRRIWB</t>
+  </si>
+  <si>
+    <t>1ZH5g1RDq3GY1OvyD0w0s2</t>
+  </si>
+  <si>
+    <t>Thank You</t>
+  </si>
+  <si>
+    <t>Bury The Hatchet</t>
+  </si>
+  <si>
+    <t>L.P.</t>
+  </si>
+  <si>
+    <t>Travelling Without Moving (Remastered)</t>
+  </si>
+  <si>
+    <t>The Very Best Of Sheryl Crow</t>
+  </si>
+  <si>
+    <t>Cloud Nine</t>
+  </si>
+  <si>
+    <t>Shake Your Money Maker</t>
+  </si>
+  <si>
+    <t>She's So Unusual</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Order In Decline</t>
+  </si>
+  <si>
+    <t>Jagged Little Pill (25th Anniversary Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>The Gambler (Music From The Motion Picture)</t>
+  </si>
+  <si>
+    <t>Even In The Quietest Moments</t>
+  </si>
+  <si>
+    <t>Just Supposin'</t>
+  </si>
+  <si>
+    <t>Bad Reputation (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>X&amp;Y</t>
+  </si>
+  <si>
+    <t>Achtung Baby (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>The Reason (15th Anniversary Deluxe)</t>
+  </si>
+  <si>
+    <t>blink-182</t>
+  </si>
+  <si>
+    <t>Billy Idol</t>
+  </si>
+  <si>
+    <t>Von Anfang An...Bis Jetzt !</t>
+  </si>
+  <si>
+    <t>Illuminate</t>
+  </si>
+  <si>
+    <t>Different Class</t>
+  </si>
+  <si>
+    <t>There Is Nothing Left To Lose</t>
+  </si>
+  <si>
+    <t>Follow The Leader</t>
+  </si>
+  <si>
+    <t>Road to Ruin (40th Anniversary Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Insomniac</t>
+  </si>
+  <si>
+    <t>Wheatus</t>
+  </si>
+  <si>
+    <t>My Head Is An Animal</t>
+  </si>
+  <si>
+    <t>PCD</t>
+  </si>
+  <si>
+    <t>Forever Young (Super Deluxe Edition; 2019 Remaster)</t>
+  </si>
+  <si>
+    <t>SOUR</t>
+  </si>
+  <si>
+    <t>Laundry Service</t>
+  </si>
+  <si>
+    <t>Some Hearts</t>
+  </si>
+  <si>
+    <t>Flowers - The Hits Collection</t>
+  </si>
+  <si>
+    <t>Lick It Up</t>
+  </si>
+  <si>
+    <t>Everything Is 4</t>
+  </si>
+  <si>
+    <t>Bump Ahead [Expanded]</t>
+  </si>
+  <si>
+    <t>Smack My Bitch Up</t>
+  </si>
+  <si>
+    <t>Stadium Arcadium</t>
+  </si>
+  <si>
+    <t>The Best Of 1990-2000</t>
+  </si>
+  <si>
+    <t>Break the Cycle</t>
+  </si>
+  <si>
+    <t>ALIVE</t>
+  </si>
+  <si>
+    <t>Hangin' Tough</t>
+  </si>
+  <si>
+    <t>Back Together</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>Born This Way (International Special Edition Version)</t>
+  </si>
+  <si>
+    <t>In the Meantime</t>
+  </si>
+  <si>
+    <t>death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>Uptown Special</t>
+  </si>
+  <si>
+    <t>Minutes to Midnight</t>
+  </si>
+  <si>
+    <t>Best Of Montell Jordan</t>
+  </si>
+  <si>
+    <t>Lullabies To Paralyze</t>
+  </si>
+  <si>
+    <t>Death To The Pixies</t>
+  </si>
+  <si>
+    <t>Life For Rent</t>
+  </si>
+  <si>
+    <t>Kylie</t>
+  </si>
+  <si>
+    <t>Alternative</t>
+  </si>
+  <si>
+    <t>Take My Breath</t>
+  </si>
+  <si>
+    <t>Good Girl Gone Bad: Reloaded</t>
   </si>
   <si>
     <t>Awake</t>
   </si>
   <si>
-    <t>Rise And Fall, Rage And Grace</t>
-  </si>
-  <si>
-    <t>Back Into Your System (Explicit Version)</t>
-  </si>
-  <si>
-    <t>Comatose</t>
-  </si>
-  <si>
-    <t>A Beautiful Lie</t>
-  </si>
-  <si>
-    <t>Come What(ever) May [Special Edition]</t>
-  </si>
-  <si>
-    <t>The Singles</t>
-  </si>
-  <si>
-    <t>Feeding The Wolves</t>
-  </si>
-  <si>
-    <t>Fallen</t>
-  </si>
-  <si>
-    <t>Endgame</t>
-  </si>
-  <si>
-    <t>Minutes to Midnight</t>
-  </si>
-  <si>
-    <t>This Is War</t>
-  </si>
-  <si>
-    <t>14 Shades of Grey</t>
-  </si>
-  <si>
-    <t>Them Vs. You Vs. Me (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Away From The Sun</t>
-  </si>
-  <si>
-    <t>Silver Side Up</t>
-  </si>
-  <si>
-    <t>Echoes, Silence, Patience &amp; Grace</t>
-  </si>
-  <si>
-    <t>Where Do We Go From Here</t>
-  </si>
-  <si>
-    <t>Hybrid Theory (Bonus Edition)</t>
-  </si>
-  <si>
-    <t>The Long Road</t>
-  </si>
-  <si>
-    <t>Extreme Behavior</t>
-  </si>
-  <si>
-    <t>Weathered</t>
-  </si>
-  <si>
-    <t>The Sound of Madness (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>The Best of Fuel</t>
-  </si>
-  <si>
-    <t>Make Yourself</t>
-  </si>
-  <si>
-    <t>LIVING THINGS</t>
-  </si>
-  <si>
-    <t>Onyx</t>
-  </si>
-  <si>
-    <t>Is There Anybody out There?</t>
-  </si>
-  <si>
-    <t>The End of Heartache (Special Edition)</t>
-  </si>
-  <si>
-    <t>Day Of The Dead</t>
-  </si>
-  <si>
-    <t>Endgame / Appeal To Reason / Siren Song Of The Counter Culture / The Sufferer &amp; The Witness</t>
-  </si>
-  <si>
-    <t>Everything You Want</t>
-  </si>
-  <si>
-    <t>A Casual Affair - The Best Of Tonic</t>
-  </si>
-  <si>
-    <t>Marcy Playground</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>6kNKUYGn6VNGsRoXmyoDPK</t>
-  </si>
-  <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>2CmaKO2zEGJ1NWpS1yfVGz</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>1caBfBEapzw8z2Qz9q0OaQ</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7FBcuc1gsnv6Y1nwFtNRCb</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>1d5wNTZ8WZYE5WuXXjug9w</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Highly Evolved</t>
+  </si>
+  <si>
+    <t>Girls, Girls, Girls</t>
+  </si>
+  <si>
+    <t>PopArt: The Hits</t>
+  </si>
+  <si>
+    <t>Cornerstone</t>
+  </si>
+  <si>
+    <t>Save Me, San Francisco (Golden Gate Edition)</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Under The Iron Sea</t>
+  </si>
+  <si>
+    <t>The Very Best Of 1990 - 1997</t>
+  </si>
+  <si>
+    <t>That's How You Know (feat. Kid Ink &amp; Bebe Rexha)</t>
+  </si>
+  <si>
+    <t>Doo-Wops &amp; Hooligans</t>
+  </si>
+  <si>
+    <t>Australian Rock Hits</t>
+  </si>
+  <si>
+    <t>Sixteen Stone (Remastered)</t>
+  </si>
+  <si>
+    <t>The Young and The Hopeless</t>
+  </si>
+  <si>
+    <t>Stereo Love</t>
+  </si>
+  <si>
+    <t>The Marshall Mathers LP2 (Deluxe)</t>
+  </si>
+  <si>
+    <t>12 Inches Of Snow</t>
+  </si>
+  <si>
+    <t>Bright Lights (Lights Re-pack / Bonus Version)</t>
+  </si>
+  <si>
+    <t>lovehatetragedy</t>
+  </si>
+  <si>
+    <t>Happy Nation</t>
+  </si>
+  <si>
+    <t>Only One Flo (Part 1)</t>
+  </si>
+  <si>
+    <t>Into The Great Wide Open</t>
+  </si>
+  <si>
+    <t>Think Tank</t>
+  </si>
+  <si>
+    <t>Chronicles</t>
+  </si>
+  <si>
+    <t>Fush Yu Mang (20th Anniversary Edition)</t>
+  </si>
+  <si>
+    <t>Best of Volume 1</t>
+  </si>
+  <si>
+    <t>Kollected - The Best Of Kula Shaker</t>
+  </si>
+  <si>
+    <t>New Year's Eve - NYE 2018/2019</t>
+  </si>
+  <si>
+    <t>Document - 25th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>Hypnotize</t>
+  </si>
+  <si>
+    <t>Stay Hungry</t>
+  </si>
+  <si>
+    <t>I Like How It Feels (Remixes)</t>
+  </si>
+  <si>
+    <t>Decode</t>
+  </si>
+  <si>
+    <t>Wild Planet</t>
+  </si>
+  <si>
+    <t>Actually</t>
+  </si>
+  <si>
+    <t>Tattoo You (2009 Re-Mastered)</t>
+  </si>
+  <si>
+    <t>Energique</t>
+  </si>
+  <si>
+    <t>Boom, Boom, Boom, Boom!!</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Combat Rock (Remastered)</t>
+  </si>
+  <si>
+    <t>2UazAtjfzqBF0Nho2awK4z</t>
+  </si>
+  <si>
+    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
+  </si>
+  <si>
+    <t>0gDg7FEsF4Y1jWddJJgcn4</t>
+  </si>
+  <si>
+    <t>6J7biCazzYhU3gM9j1wfid</t>
+  </si>
+  <si>
+    <t>4TKTii6gnOnUXQHyuo9JaD</t>
+  </si>
+  <si>
+    <t>23fqKkggKUBHNkbKtXEls4</t>
+  </si>
+  <si>
+    <t>5krkohEVJYw0qoB5VWwxaC</t>
+  </si>
+  <si>
+    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
+  </si>
+  <si>
+    <t>1yjAx9cww4f1QuAaN3dUI2</t>
+  </si>
+  <si>
+    <t>0qT79UgT5tY4yudH9VfsdT</t>
+  </si>
+  <si>
+    <t>6ogn9necmbUdCppmNnGOdi</t>
+  </si>
+  <si>
+    <t>36E7oYfz3LLRto6l2WmDcD</t>
+  </si>
+  <si>
+    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
+  </si>
+  <si>
+    <t>4gIdjgLlvgEOz7MexDZzpM</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>51Blml2LZPmy7TTiAg47vQ</t>
+  </si>
+  <si>
+    <t>2MqhkhX4npxDZ62ObR5ELO</t>
+  </si>
+  <si>
+    <t>6FBDaR13swtiWwGhX1WQsP</t>
+  </si>
+  <si>
+    <t>7lzordPuZEXxwt9aoVZYmG</t>
+  </si>
+  <si>
+    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
+  </si>
+  <si>
+    <t>7n2wHs1TKAczGzO7Dd2rGr</t>
+  </si>
+  <si>
+    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
+  </si>
+  <si>
+    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
+  </si>
+  <si>
+    <t>1co4F2pPNH8JjTutZkmgSm</t>
+  </si>
+  <si>
+    <t>7oPftvlwr6VrsViSDV7fJY</t>
+  </si>
+  <si>
+    <t>4mYFgEjpQT4IKOrjOUKyXu</t>
+  </si>
+  <si>
+    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
+  </si>
+  <si>
+    <t>6wPhSqRtPu1UhRCDX5yaDJ</t>
+  </si>
+  <si>
+    <t>0xliTEbFfy5HQHvsTknTkX</t>
+  </si>
+  <si>
+    <t>1McMsnEElThX1knmY4oliG</t>
+  </si>
+  <si>
+    <t>0EmeFodog0BfCgMzAIvKQp</t>
+  </si>
+  <si>
+    <t>4xFUf1FHVy696Q1JQZMTRj</t>
+  </si>
+  <si>
+    <t>26PDtWYDJ1KD0brukKsJH1</t>
+  </si>
+  <si>
+    <t>07XSN3sPlIlB2L2XNcTwJw</t>
+  </si>
+  <si>
+    <t>07YZf4WDAMNwqr4jfgOZ8y</t>
+  </si>
+  <si>
+    <t>5OfhOoKunSnuubxxRML8J3</t>
+  </si>
+  <si>
+    <t>4k1ELeJKT1ISyDv8JivPpB</t>
+  </si>
+  <si>
+    <t>0L8ExT028jH3ddEcZwqJJ5</t>
+  </si>
+  <si>
+    <t>5KDIH2gF0VpelTqyQS7udb</t>
+  </si>
+  <si>
+    <t>4Kxlr1PRlDKEB0ekOCyHgX</t>
+  </si>
+  <si>
+    <t>55qiaow2sDYtjqu1mwRua6</t>
+  </si>
+  <si>
+    <t>0ZrpamOxcZybMHGg1AYtHP</t>
+  </si>
+  <si>
+    <t>5Pwc4xIPtQLFEnJriah9YJ</t>
+  </si>
+  <si>
+    <t>1HY2Jd0NmPuamShAr6KMms</t>
+  </si>
+  <si>
+    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
+  </si>
+  <si>
+    <t>6bmlMHgSheBauioMgKv2tn</t>
+  </si>
+  <si>
+    <t>3hv9jJF3adDNsBSIQDqcjp</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>0iVrCROxeyon7MZUW3MfzT</t>
+  </si>
+  <si>
+    <t>4pejUc4iciQfgdX6OKulQn</t>
+  </si>
+  <si>
+    <t>6zvul52xwTWzilBZl6BUbT</t>
+  </si>
+  <si>
+    <t>2mpeljBig2IXLXRAFO9AAs</t>
+  </si>
+  <si>
+    <t>4RVnAU35WRWra6OZ3CbbMA</t>
+  </si>
+  <si>
+    <t>0TcYeHEK9sBtv7xPbKhzHz</t>
+  </si>
+  <si>
+    <t>1Xyo4u8uXC1ZmMpatF05PJ</t>
+  </si>
+  <si>
+    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
+  </si>
+  <si>
+    <t>49bzE5vRBRIota4qeHtQM8</t>
+  </si>
+  <si>
+    <t>06HL4z0CvFAxyc27GXpf02</t>
+  </si>
+  <si>
+    <t>7vkiEK5D7Gf0z4M1Va0CXD</t>
+  </si>
+  <si>
+    <t>0cc6vw3VN8YlIcvr1v7tBL</t>
+  </si>
+  <si>
+    <t>2ycnb8Er79LoH2AsR5ldjh</t>
+  </si>
+  <si>
+    <t>4salDzkGmfycRqNUbyBphh</t>
+  </si>
+  <si>
+    <t>3FUY2gzHeIiaesXtOAdB7A</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>53A0W3U0s8diEn9RhXQhVz</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>0awl5piYwO0CDTHEkCjUhn</t>
+  </si>
+  <si>
+    <t>0du5cEVh5yTK9QJze8zA0C</t>
+  </si>
+  <si>
+    <t>622HMYOaiqowUmcd5t3b7t</t>
+  </si>
+  <si>
+    <t>78SHxLdtysAXgywQ4vE0Oa</t>
+  </si>
+  <si>
+    <t>5aYyPjAsLj7UzANzdupwnS</t>
+  </si>
+  <si>
+    <t>6XwwFnewNgWp81MYMK8zLq</t>
+  </si>
+  <si>
+    <t>7dGJo4pcD2V6oG8kP0tJRR</t>
+  </si>
+  <si>
+    <t>3uZFBSsMiooimnprFL9jD1</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>4RddZ3iHvSpGV4dvATac9X</t>
+  </si>
+  <si>
+    <t>5ksRONqssB7BR161NTtJAm</t>
+  </si>
+  <si>
+    <t>0jnsk9HBra6NMjO2oANoPY</t>
+  </si>
+  <si>
+    <t>4tX2TplrkIP4v05BNC903e</t>
+  </si>
+  <si>
+    <t>7MhMgCo0Bl0Kukl93PZbYS</t>
+  </si>
+  <si>
+    <t>5gxynDEKwNDgxGJmJjZyte</t>
+  </si>
+  <si>
+    <t>2iEvnFsWxR0Syqu2JNopAd</t>
+  </si>
+  <si>
+    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
+  </si>
+  <si>
+    <t>6bGcpvHbRHg8s0wiNyIZK1</t>
+  </si>
+  <si>
+    <t>23zg3TcAtWQy7J6upgbUnj</t>
+  </si>
+  <si>
+    <t>4KWTAlx2RvbpseOGMEmROg</t>
   </si>
   <si>
     <t>5eAWCfyUhZtHHtBdNk56l1</t>
   </si>
   <si>
-    <t>3886aFez2HDLkio5tUzmP6</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>6Fwq3TDWpMhcL1KTKVQiI8</t>
-  </si>
-  <si>
-    <t>4olk2DDoPvzAJlJBonZFHk</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>4HrkLxQHZ5mgCtIVpiH5QX</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0kD8IT1CzF7js2XKM9lLLa</t>
-  </si>
-  <si>
-    <t>2pqd3HsfsvcBGtHvPOg6eg</t>
-  </si>
-  <si>
-    <t>01ZtptlLUxoAbJDrS9fTqX</t>
-  </si>
-  <si>
-    <t>4hxDvVq5t8ebPYPdBl1F9f</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>4tususHNaR68xdgLstlGBA</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>64g59lHsc4g2jMFokrKDGW</t>
-  </si>
-  <si>
-    <t>5LfGQac0EIXyAN8aUwmNAQ</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>0RqtSIYZmd4fiBKVFqyIqD</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0REMf7H0VP6DwfZ9MbuWph</t>
-  </si>
-  <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>6deZN1bslXzeGvOLaLMOIF</t>
-  </si>
-  <si>
-    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
-  </si>
-  <si>
-    <t>2Tkg8omOIsTL617yXVt26e</t>
-  </si>
-  <si>
-    <t>6BMhCQJYHxxKAeqYS1p5rY</t>
-  </si>
-  <si>
-    <t>43sZBwHjahUvgbx1WNIkIz</t>
-  </si>
-  <si>
-    <t>0EyuKHE1AeE9lWUF8mzKVp</t>
-  </si>
-  <si>
-    <t>3YcBF2ttyueytpXtEzn1Za</t>
-  </si>
-  <si>
-    <t>0lVlNsuGaOr9vMHCZIAKMt</t>
-  </si>
-  <si>
-    <t>0CEFCo8288kQU7mJi25s6E</t>
-  </si>
-  <si>
-    <t>6Hizgjo92FnMp8wGaRUNTn</t>
-  </si>
-  <si>
-    <t>6qXwLwTLdA44HYsA26vaNU</t>
-  </si>
-  <si>
-    <t>7AQzXO3NPNQsI7oNu5rC3r</t>
-  </si>
-  <si>
-    <t>0EdvGhlC1FkGItLOWQzG4J</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>The Amity Affliction</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Falling In Reverse</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Asking Alexandria</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>My Chemical Romance</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Egypt Central</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
+    <t>7b85ve82Sh36a3UAx74wut</t>
+  </si>
+  <si>
+    <t>7qG3b048QCHVRO5Pv1T5lw</t>
+  </si>
+  <si>
+    <t>74XFHRwlV6OrjEM0A2NCMF</t>
+  </si>
+  <si>
+    <t>3gdbcIdNypBsYNu3iiCjtN</t>
+  </si>
+  <si>
+    <t>22bE4uQ6baNwSHPVcDxLCe</t>
+  </si>
+  <si>
+    <t>07lbidCU8ZwtNCUrmaO0QU</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>3RGLhK1IP9jnYFH4BRFJBS</t>
+  </si>
+  <si>
+    <t>Stone Temple Pilots</t>
+  </si>
+  <si>
+    <t>The Cranberries</t>
+  </si>
+  <si>
+    <t>The Rembrandts</t>
+  </si>
+  <si>
+    <t>Jamiroquai</t>
+  </si>
+  <si>
+    <t>Sheryl Crow</t>
+  </si>
+  <si>
+    <t>Kygo</t>
+  </si>
+  <si>
+    <t>The Black Crowes</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Desireless</t>
+  </si>
+  <si>
+    <t>Sum 41</t>
+  </si>
+  <si>
+    <t>Alanis Morissette</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Supertramp</t>
+  </si>
+  <si>
+    <t>Status Quo</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Hoobastank</t>
+  </si>
+  <si>
+    <t>Peter Schilling</t>
+  </si>
+  <si>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Foo Fighters</t>
+  </si>
+  <si>
+    <t>Korn</t>
+  </si>
+  <si>
+    <t>Ramones</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>Of Monsters and Men</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>Alphaville</t>
+  </si>
+  <si>
+    <t>Olivia Rodrigo</t>
+  </si>
+  <si>
+    <t>Shakira</t>
+  </si>
+  <si>
+    <t>Carrie Underwood</t>
+  </si>
+  <si>
+    <t>Jennifer Paige</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Mr. Big</t>
+  </si>
+  <si>
+    <t>The Prodigy</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Staind</t>
+  </si>
+  <si>
+    <t>BIGBANG</t>
+  </si>
+  <si>
+    <t>New Kids On The Block</t>
+  </si>
+  <si>
+    <t>Robin Thicke</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Spacehog</t>
+  </si>
+  <si>
+    <t>Powfu</t>
+  </si>
+  <si>
+    <t>Mark Ronson</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Montell Jordan</t>
+  </si>
+  <si>
+    <t>Queens of the Stone Age</t>
+  </si>
+  <si>
+    <t>Pixies</t>
+  </si>
+  <si>
+    <t>Dido</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Chumbawamba</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Skillet</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>The Vines</t>
+  </si>
+  <si>
+    <t>Mötley Crüe</t>
+  </si>
+  <si>
+    <t>Pet Shop Boys</t>
+  </si>
+  <si>
+    <t>Styx</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>Keane</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>Nico &amp; Vinz</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Good Charlotte</t>
+  </si>
+  <si>
+    <t>Edward Maya</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Papa Roach</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>Tom Petty and the Heartbreakers</t>
+  </si>
+  <si>
+    <t>Blur</t>
+  </si>
+  <si>
+    <t>Steve Winwood</t>
+  </si>
+  <si>
+    <t>Smash Mouth</t>
+  </si>
+  <si>
+    <t>Van Halen</t>
+  </si>
+  <si>
+    <t>Kula Shaker</t>
+  </si>
+  <si>
+    <t>Usher</t>
+  </si>
+  <si>
+    <t>R.E.M.</t>
   </si>
   <si>
     <t>System Of A Down</t>
   </si>
   <si>
-    <t>Sixx:A.M.</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Devour the Day</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>From Ashes to New</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>STARSET</t>
-  </si>
-  <si>
-    <t>Highly Suspect</t>
-  </si>
-  <si>
-    <t>Red Sun Rising</t>
-  </si>
-  <si>
-    <t>HELLYEAH</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Of Mice &amp; Men</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>The Offspring</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Thirty Seconds To Mars</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>10 Years</t>
-  </si>
-  <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
-    <t>Foo Fighters</t>
-  </si>
-  <si>
-    <t>Pillar</t>
-  </si>
-  <si>
-    <t>Hinder</t>
-  </si>
-  <si>
-    <t>Creed</t>
-  </si>
-  <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>Incubus</t>
-  </si>
-  <si>
-    <t>Machine Head</t>
-  </si>
-  <si>
-    <t>Hollywood Undead</t>
-  </si>
-  <si>
-    <t>Vertical Horizon</t>
-  </si>
-  <si>
-    <t>Tonic</t>
-  </si>
-  <si>
-    <t>Sublime</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon’s first record after 2019’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;,&lt;/a&gt; &lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt; is part of a four EP project. The first record is the heaviest one and it brings back the style of the band’s first records. &lt;a href="https://musicfeeds.com.au/features/cyber-thrash-metal-10-things-you-need-to-know-about-bring-me-the-horizons-imminent-new-music-explosion-according-to-oli-sykes/" rel="noopener nofollow"&gt;As Oli Sykes said to &lt;em&gt;Music Feeds&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s kind of a mix, just like you’ve heard on &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; where it still feels bonkers in terms of jumping from genre to genre and sound to sound, but we’ve definitely took a little bit more influence from things we did quite a few years ago. […] Whereas now we’ve got something to be angry about, we’ve got something to be pissed about, we’ve got something to make violent music to.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The word “Posthuman” or “Post-human” is a word that originates from futurology that means a person or entity that exists in a state beyond what we know as a “human.” While the exact meaning of the word varies, it is generally considered to be a person who through either genetic manipulation or other biointerventionist measures, has the ability to remain healthy and active through an extended period of time that would not be considered normal by our current standards. Their cognitive powers, such as deductive thought or other intellectual capabilities, &lt;a href="https://www.newscientist.com/article/mg21829162-400-what-does-it-mean-to-be-posthuman/" rel="noopener nofollow"&gt;would far surpass those of a simple human.&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The idea behind &lt;em&gt;POST HUMAN&lt;/em&gt; is looking at how we’ve stepped out of evolution and the food chain. If we can do that, then we can take responsibility for what we’ve done to the planet and become something better than what humans are right now.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.nme.com/news/music/bring-me-the-horizon-parasite-eve-post-human-new-album-oli-sykes-interview-2694847" rel="noopener nofollow"&gt;Oli Sykes, &lt;em&gt;NME&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Every part of this project is sonically different and have a different message. This first album expresses all the anger inside people and is &lt;a href="https://www.nme.com/news/music/bring-me-the-horizon-parasite-eve-post-human-new-album-oli-sykes-interview-2694847" rel="noopener nofollow"&gt;“a recruitment record with battle songs,”&lt;/a&gt; as Oli explains:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;You know like on &lt;a href="https://en.wikipedia.org/wiki/The_Lord_of_the_Rings" rel="noopener nofollow"&gt;&lt;em&gt;Lord of the Rings&lt;/em&gt;&lt;/a&gt; where they all sing a song before battle, knowing that they might die but they’re going got persevere and see how it goes? We’re trying to embody that. This first record is about hope and anger and feels like the sonic equivalent of a riot. We’re inviting people to find the solution with us. It’s a demonstration to pull you in and get your back up. It’s a lot more aggressive than anything we’ve done for a while. The world doesn’t need light-hearted pop music right now—it needs anthems for anger. There’s so much to be pissed off about.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band needed a cyberpunk feeling to the album, so they decided to call Mick Gordon, &lt;a href="https://pt.wikipedia.org/wiki/Doom_Eternal" rel="noopener nofollow"&gt;&lt;em&gt;DOOM Eternal&lt;/em&gt;’s&lt;/a&gt; musical producer.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’ve been playing this one game called &lt;a href="https://pt.wikipedia.org/wiki/Doom_Eternal" rel="noopener nofollow"&gt;&lt;em&gt;DOOM Eternal&lt;/em&gt;&lt;/a&gt; and as I was playing it I absolutely fell in love with the soundtrack. It’s fucking crazy. It’s heavy as fuck. It’s got this kind of dystopian cyber-punky djent kind of fucking huge vibe. A guy called &lt;a href="https://genius.com/artists/Mick-gordon" rel="noopener" data-api_path="/artists/139289"&gt;Mick Gordon&lt;/a&gt; actually produced all this music. At first, when we were writing &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve”&lt;/a&gt; especially I was referencing a lot of this &lt;em&gt;DOOM&lt;/em&gt; game ‘cause I was playing it in the day and then me and Jordan would work at night and I was like using this as references because the sounds in there sound so huge and so hitting in a way I haven’t heard in any other metal music. And then it kind of dawned on me that like, you know, maybe this is the guy we’re looking for to collaborate with. So I hit him up. Amazingly, he got back to us and said he was a massive fan of the band and really loved what we did and would love to work with us. So I started talking to him, we got chatting, I told him my ideas and wrote him a bunch of notes and basically just left the song with him and he came back with a fucking sound library. […] So he added textures and tunings to the vocals and shit like that really kind of just pushes it further to make you feel what we are trying to get across. So yeah, he smashed it basically and I’m really stoked on how that turned out. I think we’re going to be working with him more on this record.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.youtube.com/watch?v=FDYiw1v0P98" rel="noopener nofollow"&gt;Oli Sykes, &lt;em&gt;BMTH Season 2&lt;/em&gt;’s “Mick Gordon”&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'Amy Love', 'url': 'https://genius.com/artists/Amy-love'}, {'name': 'Georgia South', 'url': 'https://genius.com/artists/Georgia-south'}, {'name': 'Jordan Fish', 'url': 'https://genius.com/artists/Jordan-fish'}, {'name': 'Lee Malia', 'url': 'https://genius.com/artists/Lee-malia'}, {'name': 'Matt Kean', 'url': 'https://genius.com/artists/Matt-kean'}, {'name': 'Matt Nicholls', 'url': 'https://genius.com/artists/Matt-nicholls'}, {'name': 'MK-Metal', 'url': 'https://genius.com/artists/Mk-metal'}, {'name': 'Oli Sykes', 'url': 'https://genius.com/artists/Oli-sykes'}, {'name': 'Petar Lyondev', 'url': 'https://genius.com/artists/Petar-lyondev'}, {'name': 'YUNGBLUD', 'url': 'https://genius.com/artists/Yungblud'}], 'labels': [{'name': 'Sony Music UK', 'url': 'https://genius.com/artists/Sony-music-uk'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-amity-affliction/Misery', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Misery&lt;/em&gt; is the sixth studio album by &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; / &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt; band &lt;a href="https://genius.com/artists/The-amity-affliction" rel="noopener" data-api_path="/artists/155325"&gt;The Amity Affliction&lt;/a&gt;, which will be released on 24 August 2018 on Roadrunner Records. It is the first album to feature Defeater drummer Joe Longobardi, taking over the roll after the bands longtime drummer Ryan Burt left the band in January of 2018 citing mental health issues.&lt;/p&gt;', 'producers': [{'name': 'Matt Squire', 'url': 'https://genius.com/artists/Matt-squire'}], 'writers': [{'name': 'Ahren Stringer', 'url': 'https://genius.com/artists/Ahren-stringer'}, {'name': 'Dan Brown (Amity)', 'url': 'https://genius.com/artists/Dan-brown-amity'}, {'name': 'Joel Birch', 'url': 'https://genius.com/artists/Joel-birch'}, {'name': 'Matt Squire', 'url': 'https://genius.com/artists/Matt-squire'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}, {'name': 'UNFD', 'url': 'https://genius.com/artists/Unfd'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/We-are-not-your-kind', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;We Are Not Your Kind&lt;/em&gt; is the sixth album from the Iowa-based heavy metal group &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt;. Released on August 9, 2019, &lt;em&gt;We Are Not Your Kind&lt;/em&gt; (which comes five years after &lt;a href="https://genius.com/albums/Slipknot/5-the-gray-chapter" rel="noopener" data-api_path="/albums/111406"&gt;&lt;em&gt;.5: The Gray Chapter&lt;/em&gt;&lt;/a&gt;) features the band diving deeper into more experimental approaches to their already-established heavy metal core.&lt;/p&gt;\n\n&lt;p&gt;Before its announcement, the band released &lt;a href="https://genius.com/Slipknot-all-out-life-lyrics" rel="noopener" data-api_path="/songs/4057550"&gt;“All Out Life,”&lt;/a&gt; leading people to assume it was the first single from the record. However, the song was not included in the album’s tracklist and &lt;a href="https://genius.com/Slipknot-unsainted-lyrics" rel="noopener" data-api_path="/songs/4558411"&gt;“Unsainted”&lt;/a&gt; became the first release from the record.&lt;/p&gt;\n\n&lt;p&gt;Guitarist &lt;a href="https://www.instagram.com/jamesroot/?hl=pt" rel="noopener nofollow"&gt;James Root said&lt;/a&gt;, in &lt;a href="https://www.rocksound.tv/news/read/slipknot-new-single-new-masks-album-we-are-not-your-kind-unsainted" rel="noopener nofollow"&gt;an interview&lt;/a&gt;, about the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This is the most time we’ve had to write a record, and work stuff out together. One of my inspirations this time around was those artists that recorded full-length albums—not just songs.  While the industry is moving toward singles, Slipknot wanted to make an album experience, front to back.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://www.instagram.com/mshawncrahan/?hl=pt" rel="noopener nofollow"&gt;Shawn Crahan&lt;/a&gt;, band’s percussionist, added his input, following the same line of thought as his bandmate:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;These days the art we are making comes with the highest reward, because it’s taken the most time. Almost four years to create this emotion and temperature, and the reward now is nothing short of salvation.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://heavymetalhill.com/2019/05/17/corey-taylor-and-alicia-doce-interview/" rel="noopener nofollow"&gt;Corey Taylor also said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;It is really dark, the music falls in between &lt;a href="https://genius.com/albums/Slipknot/Iowa" rel="noopener" data-api_path="/albums/37763"&gt;&lt;em&gt;Iowa&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses" rel="noopener" data-api_path="/albums/30814"&gt;&lt;em&gt;Vol. 3&lt;/em&gt;&lt;/a&gt;. It is experimental, but heavy as hell. It’s aggressive, but has tons of melodies. I think people are really going to dig it.&lt;/p&gt;\n\n&lt;p&gt;The crazy thing I have noticed over the last couple years I have seen a shift in the way people look at me. I thought having an opinion was something that was cool, and now I’m becoming a meme. I feel everyone is starting to turn on me, so I am using that to my advantage. I am like, alright you want a villain, I will give you a fucking villain. That is kind of where I am in my life, not giving a shit. I am basically saying, you don’t have to like me, but you are going to love me anyway.&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;Shortly before the album’s release, &lt;a href="https://genius.com/Slipknot-solway-firth-lyrics" rel="noopener" data-api_path="/songs/4558449"&gt;“Solway Firth”&lt;/a&gt; and &lt;a href="https://genius.com/Slipknot-birth-of-the-cruel-lyrics" rel="noopener" data-api_path="/songs/4558436"&gt;“Birth of the Cruel”&lt;/a&gt; were released as the album’s second and third singles, respectively.&lt;/p&gt;\n\n&lt;p&gt;The albums received universal acclaim, and so far, has a phenomenal &lt;a href="https://www.metacritic.com/music/we-are-not-your-kind/slipknot" rel="noopener nofollow"&gt;Metascore of 93&lt;/a&gt; based on 10 critic reviews. Many other &lt;a href="https://wallofsoundau.com/2019/08/08/slipknot-we-are-not-your-kind-album-review/" rel="noopener nofollow"&gt;sources&lt;/a&gt; have all given the album perfect (or &lt;a href="https://www.theguardian.com/music/2019/aug/09/slipknot-we-are-not-your-kind-review" rel="noopener nofollow"&gt;near-perfect&lt;/a&gt;) scores.&lt;/p&gt;', 'producers': [{'name': 'Greg Fidelman', 'url': 'https://genius.com/artists/Greg-fidelman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Alessandro Venturella', 'url': 'https://genius.com/artists/Alessandro-venturella'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jay Weinberg', 'url': 'https://genius.com/artists/Jay-weinberg'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Atreyu/In-our-wake', 'annotations': {'description': '', 'producers': [{'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'writers': [{'name': 'Aaron Gillespie', 'url': 'https://genius.com/artists/Aaron-gillespie'}, {'name': 'Alex Varkatzas', 'url': 'https://genius.com/artists/Alex-varkatzas'}, {'name': 'Atreyu', 'url': 'https://genius.com/artists/Atreyu'}, {'name': 'Brandon Saller', 'url': 'https://genius.com/artists/Brandon-saller'}, {'name': 'Dan Jacobs', 'url': 'https://genius.com/artists/Dan-jacobs'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Travis Miguel', 'url': 'https://genius.com/artists/Travis-miguel'}], 'labels': [{'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/I-prevail/Trauma', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;TRAUMA&lt;/i&gt; is the third album from the metalcore band I Prevail. The album was named &lt;i&gt;TRAUMA&lt;/i&gt; because the clean vocalist, &lt;a href="https://genius.com/artists/Brian-burkheiser" rel="noopener" data-api_path="/artists/1137411"&gt;Brian Burkheiser&lt;/a&gt; was diagnosed with a vocal polyp back in 2017, and he was contemplating on leaving the band before his full recovery after surgery.&lt;/p&gt;', 'producers': [{'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}], 'writers': [{'name': 'Bernard James Perry', 'url': 'https://genius.com/artists/Bernard-james-perry'}, {'name': 'Brian Burkheiser', 'url': 'https://genius.com/artists/Brian-burkheiser'}, {'name': 'David Pramik', 'url': 'https://genius.com/artists/David-pramik'}, {'name': 'Delaney Jane', 'url': 'https://genius.com/artists/Delaney-jane'}, {'name': 'Eric Vanlerberghe', 'url': 'https://genius.com/artists/Eric-vanlerberghe'}, {'name': 'Erik Ron', 'url': 'https://genius.com/artists/Erik-ron'}, {'name': 'John August Pregler', 'url': 'https://genius.com/artists/John-august-pregler'}, {'name': 'John Eberhard', 'url': 'https://genius.com/artists/John-eberhard'}, {'name': 'MYTH', 'url': 'https://genius.com/artists/Myth'}, {'name': 'Steve Menoian', 'url': 'https://genius.com/artists/Steve-menoian'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/City-of-evil', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold’s first true entrance into the mainstream following their break-out album &lt;em&gt;&lt;a href="https://genius.com/albums/Avenged-sevenfold/Waking-the-fallen" rel="noopener" data-api_path="/albums/39902"&gt;Waking the Fallen&lt;/a&gt;&lt;/em&gt;. It is also the bands first release through &lt;a href="http://www.warnerbrosrecords.com/" rel="noopener nofollow"&gt;Warner Bros. Records&lt;/a&gt;.&lt;br&gt;\nThe album features a lot less screaming than the band’s past albums and even features classical instruments such as the violin in some songs like “&lt;a href="https://genius.com/Avenged-sevenfold-strength-of-the-world-lyrics" rel="noopener" data-api_path="/songs/181104"&gt;Strength of the World&lt;/a&gt;”.&lt;br&gt;\nThe singles released from the album were “&lt;a href="https://genius.com/Avenged-sevenfold-beast-and-the-harlot-lyrics" rel="noopener" data-api_path="/songs/181096"&gt;Beast and the Harlot&lt;/a&gt;”, “&lt;a href="https://genius.com/Avenged-sevenfold-seize-the-day-lyrics" rel="noopener" data-api_path="/songs/225900"&gt;Seize the Day&lt;/a&gt;”, and “&lt;a href="https://genius.com/Avenged-sevenfold-bat-country-lyrics" rel="noopener" data-api_path="/songs/79515"&gt;Bat Country&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;“Beast and the Harlot” gained significant recognition from it’s feature in the widely popular game “&lt;a href="https://sv.wikipedia.org/wiki/Guitar_Hero_II" rel="noopener nofollow"&gt;Guitar Hero II&lt;/a&gt;”. And the song “&lt;a href="https://genius.com/Avenged-sevenfold-blinded-in-chains-lyrics" rel="noopener" data-api_path="/songs/229383"&gt;Blinded in Chains&lt;/a&gt;” is featured in the popular street racing game “&lt;a href="https://sv.wikipedia.org/wiki/Need_for_Speed:_Most_Wanted" rel="noopener nofollow"&gt;Need For Speed Most Wanted&lt;/a&gt;”&lt;/p&gt;', 'producers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}, {'name': 'Fred Archambault', 'url': 'https://genius.com/artists/Fred-archambault'}, {'name': 'Mudrock', 'url': 'https://genius.com/artists/Mudrock'}], 'writers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}, {'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'Jonathan Seward', 'url': 'https://genius.com/artists/Jonathan-seward'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/Got-your-six', 'annotations': {'description': '&lt;p&gt;This is the sixth studio album by American heavy metal band Five Finger Death Punch. It was released on September 4, 2015 on the Prospect Park label. The album sold 119,000 units to debut at No. 2 on the Billboard 200. The 114,000 in pure album sales made it the No. 1-selling album of the week and the band’s best sales week to date. “Got Your Six” is also their third consecutive set to debut at No. 2.&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/My-chemical-romance/The-black-parade', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Black Parade&lt;/em&gt; is the third album by American pop punk band My Chemical Romance. The concept album follows the fictional character “The Patient” through the end of his life and his death.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/my-chemical-romance-welcome-to-the-black-parade-lyrics" rel="noopener" data-api_path="/songs/133519"&gt;“Welcome to the Black Parade,”&lt;/a&gt; &lt;a href="https://genius.com/my-chemical-romance-famous-last-words-lyrics" rel="noopener" data-api_path="/songs/320174"&gt;“Famous Last Words,”&lt;/a&gt; &lt;a href="https://genius.com/my-chemical-romance-I-dont-love-you-lyrics" rel="noopener" data-api_path="/songs/320142"&gt;“I Don’t Love You,”&lt;/a&gt; and &lt;a href="https://genius.com/my-chemical-romance-teenagers-lyrics" rel="noopener" data-api_path="/songs/108282"&gt;“Teenagers”&lt;/a&gt; were released as singles, each earning a music video.&lt;/p&gt;\n\n&lt;p&gt;The album received a generally positive reception, being called “a rock and roll gem” by Ed Thompson of &lt;em&gt;IGN&lt;/em&gt;, and “one of the most cohesive, engaging rock records of 2006” by &lt;em&gt;Entertainment Weekly&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album debuted at #2 on the U.S. Billboard 200 and the U.K. Albums Chart. Over three million copies have been sold worldwide.&lt;/p&gt;\n\n&lt;p&gt;Guitarist Ray Toro &lt;a href="http://www.altpress.com/features/entry/youll_never_take_us_alive_the_ap_history_of_my_chemical_romance" rel="noopener nofollow"&gt;told &lt;em&gt;Alternative Press&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The intention was to make something that was classic, something timeless […] we wanted to make a record you could pass down."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The concept behind the album seems to be a polysemous story, built upon at least two parallel paths.&lt;br&gt;\n&lt;em&gt;The Patient’s&lt;/em&gt; journey through the disease and imminent death AND the band’s personal struggles (mostly lead singer Gerard’s).&lt;/p&gt;\n\n&lt;p&gt;It is no coincidence that all the songs are featured by seemingly disconnected verses which lack the typical continuity of a plot.&lt;br&gt;\nDespite being deliberately ambiguous, the almost inconclusive and delusional narration reflects the personality of &lt;em&gt;The Patient&lt;/em&gt; that, finding himself face to face with death, is overwhelmed by conflicting emotions.&lt;/p&gt;\n\n&lt;p&gt;The striking example can be seen in &lt;a href="https://genius.com/my-chemical-romance-welcome-to-the-black-parade-lyrics" rel="noopener" data-api_path="/songs/133519"&gt;“Welcome to the Black Parade”&lt;/a&gt;, where the lyrics not only allude to &lt;em&gt;The Patient&lt;/em&gt;’s death appearing in the form of a &lt;em&gt;Black Parade&lt;/em&gt;, but it also becomes an empathic anthem for the fanbase, known for its sensitivity towards topics such as depression, suicide and self-harm.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We’ll carry on&lt;br&gt;\nWe’ll carry on&lt;br&gt;\nAnd though you’re dead and gone, believe me&lt;br&gt;\nYour memory will carry on&lt;br&gt;\nWe’ll carry on&lt;br&gt;\nAnd in my heart I can’t contain it&lt;br&gt;\nThe anthem won’t explain it&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Trivia&lt;/em&gt;: the Swedish Progressive metal act Seventh Wonder have a song titled “The Black Parade”, which also deals with the afterlife. That song was released in 2008.&lt;/p&gt;', 'producers': [{'name': 'My Chemical Romance', 'url': 'https://genius.com/artists/My-chemical-romance'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bob Bryar', 'url': 'https://genius.com/artists/Bob-bryar'}, {'name': 'Frank Iero', 'url': 'https://genius.com/artists/Frank-iero'}, {'name': 'Gerard Way', 'url': 'https://genius.com/artists/Gerard-way'}, {'name': 'Mikey Way', 'url': 'https://genius.com/artists/Mikey-way'}, {'name': 'Ray Toro', 'url': 'https://genius.com/artists/Ray-toro'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Thousand-foot-krutch/Exhale', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;EXHALE&lt;/em&gt; is the sequel to &lt;em&gt;&lt;a href="https://genius.com/albums/Thousand-foot-krutch/Oxygen-inhale" rel="noopener" data-api_path="/albums/112054"&gt;OXYGEN:INHALE&lt;/a&gt;&lt;/em&gt; and their ninth album. This their third independent album. The album has been called the heavier side of its predecessor.&lt;/p&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'writers': [{'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Egypt-central/White-rabbit', 'annotations': {'description': '', 'producers': [{'name': 'Skidd Mills', 'url': 'https://genius.com/artists/Skidd-mills'}], 'writers': [{'name': 'Egypt Central', 'url': 'https://genius.com/artists/Egypt-central'}, {'name': 'John Falls', 'url': 'https://genius.com/artists/John-falls'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Thousand-foot-krutch/The-end-is-where-we-begin', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The End Is Where We Begin&lt;/em&gt; is Thousand Foot Krutch’s sixth studio album. The record summarizes everything they’ve been through as a band, and where they are now- the closing of one chapter and the beginning of another. Trevor McNevan &lt;a href="http://web.archive.org/web/20121107201713/http://www.thousandfootkrutch.com/index.php/bio" rel="noopener nofollow"&gt;once said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If I had to use one word to describe the sound of this record, I would say ‘uninhibited’. From the beginning, the architecture of this record was different from the others. I knew this one was something special when I felt the need to go back- back to just sitting on the bed with a guitar with no outside voices- and being inspired by just the simple possibilities. The past songs and records have always been honest- that’s something very true to our hearts as musicians and always will be- but this was something different. There’s something that happens when you turn the sound down and just listen. I’ll never forget those moments.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}], 'writers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Joel Bruyere', 'url': 'https://genius.com/artists/Joel-bruyere'}, {'name': 'Steve Augustine', 'url': 'https://genius.com/artists/Steve-augustine'}, {'name': 'Thousand Foot Krutch', 'url': 'https://genius.com/artists/Thousand-foot-krutch'}, {'name': 'Trevor McNevan', 'url': 'https://genius.com/artists/Trevor-mcnevan'}, {'name': 'Zac Maloy', 'url': 'https://genius.com/artists/Zac-maloy'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/Phobia', 'annotations': {'description': '&lt;p&gt;Phobia is the third studio album by Breaking Benjamin.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://genius.com/Breaking-benjamin-intro-lyrics" rel="noopener" data-api_path="/songs/79076"&gt;intro track&lt;/a&gt; features the sound effects of an airport, namely a flight attendant announcing standard safety procedures and the sound of an airplane making its ascent, alluding to Benjamin Burnley’s fear of flying, hence the inspiration for the album’s name: “Phobia”&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Aaron Fink', 'url': 'https://genius.com/artists/Aaron-fink'}, {'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Breaking Benjamin', 'url': 'https://genius.com/artists/Breaking-benjamin'}, {'name': 'Mark James Klepaski', 'url': 'https://genius.com/artists/Mark-james-klepaski'}, {'name': 'Mark Klepaski', 'url': 'https://genius.com/artists/Mark-klepaski'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alice-in-chains/Facelift', 'annotations': {'description': '', 'producers': [{'name': 'Dave Jerden', 'url': 'https://genius.com/artists/Dave-jerden'}], 'writers': [{'name': 'Jerry Cantrell', 'url': 'https://genius.com/artists/Jerry-cantrell'}, {'name': 'Layne Staley', 'url': 'https://genius.com/artists/Layne-staley'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sick-puppies/Tri-polar', 'annotations': {'description': '', 'producers': [{'name': 'Antonina Armato', 'url': 'https://genius.com/artists/Antonina-armato'}, {'name': 'Rock Mafia', 'url': 'https://genius.com/artists/Rock-mafia'}, {'name': 'Tim James', 'url': 'https://genius.com/artists/Tim-james'}], 'writers': [{'name': 'Antonina Armato', 'url': 'https://genius.com/artists/Antonina-armato'}, {'name': 'Emma Anzai', 'url': 'https://genius.com/artists/Emma-anzai'}, {'name': 'Emma Enzai', 'url': 'https://genius.com/artists/Emma-enzai'}, {'name': 'Shim', 'url': 'https://genius.com/artists/Shim'}, {'name': 'Tim James', 'url': 'https://genius.com/artists/Tim-james'}, {'name': 'Tim Price', 'url': 'https://genius.com/artists/Tim-price'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Shinedown/Threat-to-survival', 'annotations': {'description': '', 'producers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Pete Nappi', 'url': 'https://genius.com/artists/Pete-nappi'}, {'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Shinedown', 'url': 'https://genius.com/artists/Shinedown'}], 'writers': [{'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}, {'name': 'Carlo Colasacco', 'url': 'https://genius.com/artists/Carlo-colasacco'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'Eric Bass', 'url': 'https://genius.com/artists/Eric-bass'}, {'name': 'Ethan Thompson', 'url': 'https://genius.com/artists/Ethan-thompson'}, {'name': 'Jayson DeZuzio', 'url': 'https://genius.com/artists/Jayson-dezuzio'}, {'name': 'Pete Nappi', 'url': 'https://genius.com/artists/Pete-nappi'}, {'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Shinedown', 'url': 'https://genius.com/artists/Shinedown'}, {'name': 'Zach Myers', 'url': 'https://genius.com/artists/Zach-myers'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/System-of-a-down/Mezmerize', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Mezmerize&lt;/em&gt; is &lt;a href="https://genius.com/artists/System-of-a-down" rel="noopener" data-api_path="/artists/16259"&gt;System of a Down’s&lt;/a&gt; 4th studio album, released on May 17th, 2005, and it hit #1 on Billboard 200 that year. It’s the first half of the double album &lt;em&gt;Mezmerize/&lt;/em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt;, the band’s last release. It features &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.,”&lt;/a&gt; one of SOAD’s greatest hits.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e9ca2da3a908ea030cd89841d553efa8.1000x504x1.jpg" alt="" width="1000" height="504" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/34cedcc743f687e474d4fd1296ca2288.1000x499x1.jpg" alt="" width="1000" height="499" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sixx-am/Modern-vintage', 'annotations': {'description': '', 'producers': [{'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Marilyn-manson/Lest-we-forget-the-best-of', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lest We Forget: The Best Of&lt;/em&gt; is a greatest hits compilation album released in 2004 by Interscope Records. It was certified gold. The band supported the album with their Against All Gods Tour.&lt;/p&gt;\n\n&lt;p&gt;The album includes songs from 1994 – 2004, and one new song, a cover of Depeche Mode’s &lt;a href="https://genius.com/Depeche-mode-personal-jesus-lyrics" rel="noopener" data-api_path="/songs/1846"&gt;“Personal Jesus.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;A duet cover of &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me”&lt;/a&gt; by the The Human League was recorded with &lt;a href="https://genius.com/artists/Shirley-manson" rel="noopener" data-api_path="/artists/25893"&gt;Shirley Manson&lt;/a&gt; of the band Garbage, but the track wasn’t included on the album as neither singer felt it really showcased their talents. It has never been released anywhere.&lt;/p&gt;\n\n&lt;p&gt;The deluxe version of the album, which is now out of print, also included a DVD, with the majority of the band’s music videos, as well as “easter eggs” like the making of the &lt;em&gt;mOBSCENE&lt;/em&gt; video, the short film titled &lt;em&gt;Autopsy&lt;/em&gt; from Holy Wood, and the preformance version of the &lt;em&gt;Disposable Teens&lt;/em&gt; video.&lt;/p&gt;\n\n&lt;p&gt;Costumers who ordered the album from the official Marilyn Manson website also received a copy of the unedited and unreleased music video for &lt;em&gt;(s)AINT&lt;/em&gt;, which had been banned by the label.&lt;/p&gt;\n\n&lt;p&gt;The cover art is a watercolor painting of Manson’s titled &lt;em&gt;Experience is The Mistress of Fools&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ben Grosse', 'url': 'https://genius.com/artists/Ben-grosse'}, {'name': 'Charlie Clouser', 'url': 'https://genius.com/artists/Charlie-clouser'}, {'name': 'Dave Ogilvie', 'url': 'https://genius.com/artists/Dave-ogilvie'}, {'name': 'Dave Sardy', 'url': 'https://genius.com/artists/Dave-sardy'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Sean Beavan', 'url': 'https://genius.com/artists/Sean-beavan'}, {'name': 'Tim Sköld', 'url': 'https://genius.com/artists/Tim-skold'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}], 'writers': [{'name': 'Annie Lennox', 'url': 'https://genius.com/artists/Annie-lennox'}, {'name': 'Daisy  Berkowitz', 'url': 'https://genius.com/artists/Daisy-berkowitz'}, {'name': 'David A. Stewart', 'url': 'https://genius.com/artists/David-a-stewart'}, {'name': 'Ed Cobb', 'url': 'https://genius.com/artists/Ed-cobb'}, {'name': 'Gidget Gein', 'url': 'https://genius.com/artists/Gidget-gein'}, {'name': 'Jeordie White', 'url': 'https://genius.com/artists/Jeordie-white'}, {'name': 'John 5', 'url': 'https://genius.com/artists/John-5'}, {'name': 'John Lennon', 'url': 'https://genius.com/artists/John-lennon'}, {'name': 'Madonna Wayne Gacy', 'url': 'https://genius.com/artists/Madonna-wayne-gacy'}, {'name': 'Marilyn Manson', 'url': 'https://genius.com/artists/Marilyn-manson'}, {'name': 'Martin L. Gore', 'url': 'https://genius.com/artists/Martin-l-gore'}, {'name': 'Tim Sköld', 'url': 'https://genius.com/artists/Tim-skold'}, {'name': 'Trent Reznor', 'url': 'https://genius.com/artists/Trent-reznor'}, {'name': 'Zim Zum', 'url': 'https://genius.com/artists/Zim-zum'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Nothing Records', 'url': 'https://genius.com/artists/Nothing-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Saint-asonia/Saint-asonia', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Saint Asonia&lt;/i&gt; is the self-titled debut studio album by rock group Saint Asonia. First announced via YouTube through a &lt;a href="https://youtu.be/ooeWJGI-D3M" rel="noopener nofollow"&gt;teaser&lt;/a&gt; in early May 2015.&lt;/p&gt;\n\n&lt;p&gt;The first single &lt;a href="https://genius.com/Saint-asonia-better-place-lyrics" rel="noopener" data-api_path="/songs/2141227"&gt;“Better Place”&lt;/a&gt; was released on May 16, 2015. This also confirmed the group’s lineup, with Adam Gontier as the frontman, Mike Mushok being the guitarist, Corey Lowery as the bassist and Rich Beddoe as the drummer.&lt;/p&gt;\n\n&lt;p&gt;The album was released on July 31, 2015 through RCA Records. Gontier’s uncle Tom Duffy provided the bass tracks for some of the songs from the album, while Lowery was hired afterward. This is also the only studio album from the band to feature drummer Rich Beddoe before he confirmed his departure in 2017.&lt;/p&gt;\n\n&lt;p&gt;On November 23, 2015, the album was released in European countries with two additional tracks.&lt;/p&gt;', 'producers': [{'name': 'John “Jonny K” Karkazis', 'url': 'https://genius.com/artists/John-jonny-k-karkazis'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}, {'name': 'Saint Asonia', 'url': 'https://genius.com/artists/Saint-asonia'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Devour-the-day/S-o-a-r', 'annotations': {'description': '', 'producers': [{'name': 'Brett Gurewitz', 'url': 'https://genius.com/artists/Brett-gurewitz'}], 'writers': [{'name': 'Devour the Day', 'url': 'https://genius.com/artists/Devour-the-day'}, {'name': 'Rob Caggiano', 'url': 'https://genius.com/artists/Rob-caggiano'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Three-days-grace/Human', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Human&lt;/em&gt; is the fifth studio album from Canadian alt-rock band Three Days Grace. Released by RCA Records, &lt;em&gt;Human&lt;/em&gt; is the first album from the band that doesn’t feature former lead singer Adam Gontier, who left the band and was replaced by Matt Walst. Featuring hard-hitting tracks as &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-i-am-machine-lyrics" rel="noopener" data-api_path="/songs/528054"&gt;“I Am Machine”&lt;/a&gt;, the album debuted at No. 16 on the Billboard 200.&lt;/p&gt;', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Casey Marshall', 'url': 'https://genius.com/artists/Casey-marshall'}, {'name': 'Christopher George Miller', 'url': 'https://genius.com/artists/Christopher-george-miller'}, {'name': 'Doug Oliver', 'url': 'https://genius.com/artists/Doug-oliver'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'Johnny Andrews', 'url': 'https://genius.com/artists/Johnny-andrews'}, {'name': 'Mark Holman', 'url': 'https://genius.com/artists/Mark-holman'}, {'name': 'Marti Frederiksen', 'url': 'https://genius.com/artists/Marti-frederiksen'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Ted Bruner', 'url': 'https://genius.com/artists/Ted-bruner'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/F-e-a-r', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;F.E.A.R.&lt;/em&gt; (which stands for Face Everything And Rise) is the eighth studio album by Papa Roach released on January 27, 2015. Papa Roach changed up their process for the new album, going into the studio with no material created in advance. This led to a fresher, more immediate feel to the music, and much of the album has a harder edge to it this time around. The album saw the band experiment with different sounds such as electronic mixes of the song which led to mixed reviews. Regardless of some &lt;a href="https://www.sputnikmusic.com/review/65864/Papa-Roach-F.E.A.R./" rel="noopener nofollow"&gt;not so positive views on the album&lt;/a&gt; &lt;em&gt;F.E.A.R.&lt;/em&gt; sold 24,425 copies in the United States in its first week of release to land at position No. 15 on the Billboard 200 chart.&lt;/p&gt;', 'producers': [{'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Anthony Esperance', 'url': 'https://genius.com/artists/Anthony-esperance'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/The-connection', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Connection&lt;/em&gt; is the seventh studio album by California rock band Papa Roach. It was released on October 2, 2012 through Eleven Seven Music. Some tracks on the album return to the rap-style vocals of the band’s earlier works.&lt;/p&gt;\n\n&lt;p&gt;It sold 22,000 copies in the United States in its first week of release to land at position No. 17 on The Billboard 200 chart.&lt;/p&gt;', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}, {'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}, {'name': 'Tylias', 'url': 'https://genius.com/artists/Tylias'}], 'writers': [{'name': 'Anthony Esperance', 'url': 'https://genius.com/artists/Anthony-esperance'}, {'name': 'Bobby Huff', 'url': 'https://genius.com/artists/Bobby-huff'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}, {'name': 'Martin Johnson', 'url': 'https://genius.com/artists/Martin-johnson'}, {'name': 'Papa Roach', 'url': 'https://genius.com/artists/Papa-roach'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}, {'name': 'Tylias', 'url': 'https://genius.com/artists/Tylias'}], 'labels': [{'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/The-wrong-side-of-heaven-and-the-righteous-side-of-hell-volume-1', 'annotations': {'description': '&lt;p&gt;Back cover and tracklist:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/7e51d7dd1171d0172b9be7ffc238367f.760x600x1.jpg" alt="" width="760" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Product details:&lt;/p&gt;\n\n&lt;p&gt;Original Release Date: July 30, 2013&lt;br&gt;\nRelease Date: July 27, 2017&lt;br&gt;\nLabel: PROSPECT PARK&lt;br&gt;\nCopyright: ℗© 2013 PROSPECT PARK&lt;br&gt;\nTotal Length: 51:49&lt;br&gt;\nStyles: Hard Rock &amp;amp; Metal&lt;br&gt;\nGenre: Rock&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Bootsy Collins', 'url': 'https://genius.com/artists/Bootsy-collins'}, {'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'George Clinton', 'url': 'https://genius.com/artists/George-clinton'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'James Louis Mccants', 'url': 'https://genius.com/artists/James-louis-mccants'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Junie Morrison', 'url': 'https://genius.com/artists/Junie-morrison'}, {'name': 'LeRoy McCants', 'url': 'https://genius.com/artists/Leroy-mccants'}, {'name': 'LL Cool J', 'url': 'https://genius.com/artists/Ll-cool-j'}, {'name': 'Marlon Williams', 'url': 'https://genius.com/artists/Marlon-williams'}, {'name': 'Shock G', 'url': 'https://genius.com/artists/Shock-g'}, {'name': 'Sly Stone', 'url': 'https://genius.com/artists/Sly-stone'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/From-ashes-to-new/Day-one', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Day One&lt;/em&gt; is the debut studio album by American rock band &lt;a href="https://genius.com/artists/From-ashes-to-new" rel="noopener" data-api_path="/artists/128692"&gt;From Ashes to New&lt;/a&gt;. The album was released on February 26, 2016.&lt;/p&gt;', 'producers': [{'name': 'Grant McFarland', 'url': 'https://genius.com/artists/Grant-mcfarland'}], 'writers': [{'name': 'Branden Kreider', 'url': 'https://genius.com/artists/Branden-kreider'}, {'name': 'Chris Musser', 'url': 'https://genius.com/artists/Chris-musser'}, {'name': 'Deuce', 'url': 'https://genius.com/artists/Deuce'}, {'name': 'Lance Dowdle', 'url': 'https://genius.com/artists/Lance-dowdle'}, {'name': 'Matt Brandyberry', 'url': 'https://genius.com/artists/Matt-brandyberry'}, {'name': 'Tim D’onofrio', 'url': 'https://genius.com/artists/Tim-donofrio'}], 'labels': [{'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}, {'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Disturbed/Immortalized', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Immortalized&lt;/em&gt; is the sixth studio album by American heavy metal band &lt;a href="https://genius.com/artists/Disturbed" rel="noopener" data-api_path="/artists/28631"&gt;Disturbed&lt;/a&gt;. The album was released on August 21, 2015 by Reprise Records, and is Disturbed’s first studio album since &lt;em&gt;Asylum&lt;/em&gt; (2010), marking the longest gap between two studio albums in their career. It is also Disturbed’s first album since 2002’s &lt;em&gt;Believe&lt;/em&gt; to receive a Parental Advisory sticker, although studio albums released in the interim have contained some profanity.&lt;/p&gt;\n\n&lt;p&gt;With 98,000 copies sold in its first week, &lt;em&gt;Immortalized&lt;/em&gt; is Disturbed’s fifth consecutive number-one debut on the United States Billboard 200 chart. They are the third band in history to achieve this feat, after &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Four singles were made from this album: &lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;, &lt;a href="https://genius.com/Disturbed-the-light-lyrics" rel="noopener" data-api_path="/songs/2283112"&gt;The Light&lt;/a&gt;, &lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt; (a cover of the &lt;a href="https://genius.com/artists/Simon-and-garfunkel" rel="noopener" data-api_path="/artists/14688"&gt;Simon &amp;amp; Garfunkel&lt;/a&gt; song), and &lt;a href="https://genius.com/Disturbed-open-your-eyes-lyrics" rel="noopener" data-api_path="/songs/2283101"&gt;Open Your Eyes&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Dan Donegan', 'url': 'https://genius.com/artists/Dan-donegan'}, {'name': 'David Draiman', 'url': 'https://genius.com/artists/David-draiman'}, {'name': 'John Moyer', 'url': 'https://genius.com/artists/John-moyer'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Michael Wengren', 'url': 'https://genius.com/artists/Michael-wengren'}, {'name': 'Mike Wengren', 'url': 'https://genius.com/artists/Mike-wengren'}, {'name': 'Paul Simon', 'url': 'https://genius.com/artists/Paul-simon'}], 'labels': [{'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pop-evil/Up', 'annotations': {'description': '', 'producers': [{'name': 'Adam Kasper', 'url': 'https://genius.com/artists/Adam-kasper'}], 'writers': [{'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Dave Grahs', 'url': 'https://genius.com/artists/Dave-grahs'}, {'name': 'Jacob Bunton', 'url': 'https://genius.com/artists/Jacob-bunton'}, {'name': 'Joshua Marunde', 'url': 'https://genius.com/artists/Joshua-marunde'}, {'name': 'Leigh Kakaty', 'url': 'https://genius.com/artists/Leigh-kakaty'}, {'name': 'Matthew Di Rito', 'url': 'https://genius.com/artists/Matthew-di-rito'}, {'name': 'Nick Fuelling', 'url': 'https://genius.com/artists/Nick-fuelling'}, {'name': 'Shaun Lichtenstein', 'url': 'https://genius.com/artists/Shaun-lichtenstein'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Breaking-benjamin/Dark-before-dawn', 'annotations': {'description': '&lt;p&gt;&lt;i&gt;Dark Before Dawn&lt;/i&gt; is the fifth full-length studio album by American rock band Breaking Benjamin, released on 23rd June 2015 through Hollywood Records.&lt;/p&gt;\n\n&lt;p&gt;It is the band’s first album since their hiatus from early 2010 to late 2014, along with a different lineup alongside lead vocalist and rhythm guitarist Benjamin Burnley.&lt;/p&gt;\n\n&lt;p&gt;The album debuted at Number 1 on the Billboard 200, and earned them 141,000 album-equivalent units in its first week.&lt;/p&gt;\n\n&lt;p&gt;There are five singles on the album, which include &lt;a href="https://genius.com/Breaking-benjamin-failure-lyrics" rel="noopener" data-api_path="/songs/729854"&gt;“Failure”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-angels-fall-lyrics" rel="noopener" data-api_path="/songs/749892"&gt;“Angels Fall”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-defeated-lyrics" rel="noopener" data-api_path="/songs/2037979"&gt;“Defeated”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-ashes-of-eden-lyrics" rel="noopener" data-api_path="/songs/2142077"&gt;“Ashes of Eden”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-never-again-lyrics" rel="noopener" data-api_path="/songs/2149663"&gt;“Never Again”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}], 'writers': [{'name': 'Benjamin Burnley', 'url': 'https://genius.com/artists/Benjamin-burnley'}, {'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}, {'name': 'Keith Wallen', 'url': 'https://genius.com/artists/Keith-wallen'}], 'labels': [{'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Seether/Isolate-and-medicate', 'annotations': {'description': '&lt;p&gt;“Isolate and Medicate” is the sixth studio album by South African post-grunge band Seether. It was released on 1 July 2014 by The Bicycle Music Company, in association with Concord Music Group and Spinefarm Records. It is the first Seether album to be released on a vinyl LP.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dale Stewart', 'url': 'https://genius.com/artists/Dale-stewart'}, {'name': 'John Humphrey', 'url': 'https://genius.com/artists/John-humphrey'}, {'name': 'Shaun Morgan', 'url': 'https://genius.com/artists/Shaun-morgan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Starset/Transmissions', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Transmissions&lt;/em&gt; is the official debut studio album by American rock band &lt;a href="https://genius.com/artists/Starset" rel="noopener" data-api_path="/artists/253257"&gt;Starset&lt;/a&gt;. It was released on July 8, 2014.&lt;/p&gt;\n\n&lt;p&gt;3 singles were released to support this album; &lt;a href="https://genius.com/Starset-my-demons-lyrics" rel="noopener" data-api_path="/songs/562640"&gt;“My Demons”&lt;/a&gt;, &lt;a href="https://genius.com/Starset-carnivore-lyrics" rel="noopener" data-api_path="/songs/562633"&gt;“Carnivore”&lt;/a&gt;, and &lt;a href="https://genius.com/Starset-halo-lyrics" rel="noopener" data-api_path="/songs/1005056"&gt;“Halo”&lt;/a&gt;. They all charted in the top 20 of the US Billboard Mainstream Rock chart.&lt;/p&gt;\n\n&lt;p&gt;As of November 2016, the album has sold 79,000 copies in the United States according to Billboard. 250,000 overall in album sales, downloads, and streaming.&lt;/p&gt;', 'producers': [{'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'writers': [{'name': 'Alan Powell', 'url': 'https://genius.com/artists/Alan-powell'}, {'name': 'Dave Stovall', 'url': 'https://genius.com/artists/Dave-stovall'}, {'name': 'Dustin Bates', 'url': 'https://genius.com/artists/Dustin-bates'}, {'name': 'Joe Rickard', 'url': 'https://genius.com/artists/Joe-rickard'}, {'name': 'Josh Baker', 'url': 'https://genius.com/artists/Josh-baker'}, {'name': 'Logan Mader', 'url': 'https://genius.com/artists/Logan-mader'}, {'name': 'Mark Holman', 'url': 'https://genius.com/artists/Mark-holman'}, {'name': 'Paul Trust', 'url': 'https://genius.com/artists/Paul-trust'}, {'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}, {'name': 'Rob Hawkins', 'url': 'https://genius.com/artists/Rob-hawkins'}, {'name': 'Stephen Aiello', 'url': 'https://genius.com/artists/Stephen-aiello'}], 'labels': [{'name': 'Razor &amp; Tie', 'url': 'https://genius.com/artists/Razor-and-tie'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Highly-suspect/Mister-asylum', 'annotations': {'description': '&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/highly_suspect/status/577877447430967296"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;\n\n\n&lt;p&gt;&lt;/p&gt;\n\n\n\n\n&lt;blockquote&gt;&lt;p&gt;Highly Suspect gives their fans an album that does not pull any punches. Mister Asylum has ten tracks at forty intense minutes. With their first album under their belt, Highly Suspect is a band full of potential that is worth keeping an eye on. CrypticRock gives Highly Suspect’s Mister Asylum 4.5 out of 5 stars.&lt;br&gt;\n- &lt;a href="http://crypticrock.com/highly-suspect-mister-asylum-album-review/" rel="noopener nofollow"&gt;Cryptic Rock&lt;/a&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Joel Hamilton', 'url': 'https://genius.com/artists/Joel-hamilton'}], 'writers': [{'name': 'Highly Suspect', 'url': 'https://genius.com/artists/Highly-suspect'}, {'name': 'Johnny Stevens', 'url': 'https://genius.com/artists/Johnny-stevens'}, {'name': 'Richard Meyer', 'url': 'https://genius.com/artists/Richard-meyer'}, {'name': 'Rich Meyer', 'url': 'https://genius.com/artists/Rich-meyer'}, {'name': 'Ryan Meyer', 'url': 'https://genius.com/artists/Ryan-meyer'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Shinedown/The-sound-of-madness', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Sound of Madness&lt;/em&gt; is the third studio album by American rock band &lt;a href="https://genius.com/artists/Shinedown" rel="noopener" data-api_path="/artists/12997"&gt;Shinedown&lt;/a&gt;, released on June 24, 2008.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single, &lt;a href="https://genius.com/Shinedown-devour-lyrics" rel="noopener" data-api_path="/songs/201515"&gt;“Devour,”&lt;/a&gt; was released to radio on May 5, 2008.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The Sound of Madness&lt;/em&gt; received positive reviews, and went on to spend 120 consecutive weeks on the &lt;em&gt;Billboard 200&lt;/em&gt; chart starting from its June 24, 2008 release &amp;amp; ending in late October 2010. The album returned to the &lt;em&gt;Billboard 200&lt;/em&gt; chart after leaving it for two months &amp;amp; has now spent more than 134 weeks on the chart.&lt;/p&gt;', 'producers': [{'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Bobby Huff', 'url': 'https://genius.com/artists/Bobby-huff'}, {'name': 'Brent Smith', 'url': 'https://genius.com/artists/Brent-smith'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Tony Battaglia', 'url': 'https://genius.com/artists/Tony-battaglia'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Asking-alexandria/The-black', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Black&lt;/em&gt; is Asking Alexandria’s fourth studio album. The album was released on 25 March 2016, and marks the first album featuring former &lt;a href="https://genius.com/artists/Make-me-famous" rel="noopener" data-api_path="/artists/357441"&gt;Make Me Famous&lt;/a&gt; guitarist and &lt;a href="https://genius.com/artists/Down-and-dirty" rel="noopener" data-api_path="/artists/479369"&gt;Down &amp;amp; Dirty&lt;/a&gt; frontman &lt;a href="https://genius.com/artists/Denis-stoff" rel="noopener" data-api_path="/artists/324788"&gt;Denis Shaforostov&lt;/a&gt; as the band’s new lead vocalist, succeeding former frontman &lt;a href="https://genius.com/artists/Danny-worsnop" rel="noopener" data-api_path="/artists/66091"&gt;Danny Worsnop&lt;/a&gt; who departed for hard rock supergroup &lt;a href="https://genius.com/artists/We-are-harlot" rel="noopener" data-api_path="/artists/182095"&gt;We Are Harlot&lt;/a&gt;. It was proceeded by the singles &lt;a href="https://genius.com/Asking-alexandria-i-wont-give-in-lyrics" rel="noopener" data-api_path="/songs/1929771"&gt;“I Won’t Give In,”&lt;/a&gt; &lt;a href="https://genius.com/Asking-alexandria-undivided-lyrics" rel="noopener" data-api_path="/songs/2315490"&gt;“Undivided,”&lt;/a&gt; and the album’s eponymous track, &lt;a href="https://genius.com/Asking-alexandria-the-black-lyrics" rel="noopener" data-api_path="/songs/2416059"&gt;“The Black.”&lt;/a&gt; The first song on the album, &lt;a href="https://genius.com/Asking-alexandria-let-it-sleep-lyrics" rel="noopener" data-api_path="/songs/2434010"&gt;“Let It Sleep,”&lt;/a&gt; was released on 3 March 2016, with a music video for the track being released the following day.&lt;/p&gt;', 'producers': [{'name': 'Joey Sturgis', 'url': 'https://genius.com/artists/Joey-sturgis'}], 'writers': [{'name': 'Ben Bruce', 'url': 'https://genius.com/artists/Ben-bruce'}, {'name': 'Denis Stoff', 'url': 'https://genius.com/artists/Denis-stoff'}], 'labels': [{'name': 'Sumerian Records', 'url': 'https://genius.com/artists/Sumerian-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Red-sun-rising/Polyester-zeal', 'annotations': {'description': '', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Mike Protich', 'url': 'https://genius.com/artists/Mike-protich'}, {'name': 'Ryan Williams (Producer)', 'url': 'https://genius.com/artists/Ryan-williams-producer'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Three-days-grace/Three-days-grace', 'annotations': {'description': '', 'producers': [{'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Simon Wilcox', 'url': 'https://genius.com/artists/Simon-wilcox'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}, {'name': 'Zomba Recording Corporation', 'url': 'https://genius.com/artists/Zomba-recording-corporation'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Hellyeah/Unden-able', 'annotations': {'description': '', 'producers': [{'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [], 'labels': [{'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}, {'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/War-is-the-answer', 'annotations': {'description': '&lt;p&gt;War Is the Answer is the second studio album by Five Finger Death Punch. It was released on September 22, 2009 through Prospect Park Records. The album debuted at number 7 on the Billboard 200, selling approximately 44,000 copies in its first week. It is also their last album to feature bassist Matt Snell, who departed from the band in late 2010. War Is the Answer has been certified platinum in the U.S., with sales of 1,000,000, making it their best-selling album.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4a2c47f6cf1f951efbb52d207c4497ab.262x185x1.png" alt="" width="262" height="185" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}], 'writers': [{'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Matt Snell', 'url': 'https://genius.com/artists/Matt-snell'}, {'name': 'Paul Rodgers', 'url': 'https://genius.com/artists/Paul-rodgers'}, {'name': 'Simon Kirke', 'url': 'https://genius.com/artists/Simon-kirke'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}, {'name': 'Spinefarm Records', 'url': 'https://genius.com/artists/Spinefarm-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rise-against/Appeal-to-reason', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Appeal To Reason&lt;/em&gt; is the fifth studio album by American rock band Rise Against.&lt;/p&gt;\n\n&lt;p&gt;The album produced three singles, including “&lt;a href="https://genius.com/Rise-against-re-education-through-labor-lyrics" rel="noopener" data-api_path="/songs/64936"&gt;Re-Education (Through Labor)&lt;/a&gt;,” “&lt;a href="https://genius.com/Rise-against-audience-of-one-lyrics" rel="noopener" data-api_path="/songs/85019"&gt;Audience Of One&lt;/a&gt;,” and “&lt;a href="https://genius.com/Rise-against-savior-lyrics" rel="noopener" data-api_path="/songs/64353"&gt;Savior&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;A lot of the album deals with America’s political issues. On “&lt;a href="https://genius.com/Rise-against-kotov-syndrome-lyrics" rel="noopener" data-api_path="/songs/480150"&gt;Kotov Syndrome&lt;/a&gt;,” McIlrath shows his disgust with those in authority over America, and claims that while they &lt;em&gt;say&lt;/em&gt; they’re keeping the peace, they’re doing the exact opposite. On “&lt;a href="https://genius.com/Rise-against-hero-of-war-lyrics" rel="noopener" data-api_path="/songs/74607"&gt;Hero Of War&lt;/a&gt;,”—a song that was confused as the album’s third single—we hear the story of an Iraq war veteran looking back on his difficulties during the war. “&lt;a href="https://genius.com/Rise-against-collapse-post-amerika-lyrics" rel="noopener" data-api_path="/songs/384162"&gt;Collapse (Post-Amerika)&lt;/a&gt;” warns its listeners against global warming, and the impending end times of the world.&lt;/p&gt;\n\n&lt;p&gt;When discussing the album’s political theme, &lt;a href="http://www.artistdirect.com/nad/news/article/0,,4894898,00.html" rel="noopener nofollow"&gt;McIlrath told ARTISTdirect&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I hope for the day that there is nothing to sing about. I long to live in that world. But it’s not happening. The reason I started this band, and the reason I still do it, is that I still open a paper and say, “Holy Shit! Are you kidding me? Is this really happening? Are people voting for things like Proposition 8? Is this America? Are we still in Iraq and in a place that people think a white versus a black president is a big deal?” There is so much to address through music. There is plenty we need to learn from. One of these wars will teach us not to get into another one, because we have amnesia about the previous ones.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album reached number three on the U.S. &lt;em&gt;Billboard&lt;/em&gt; 200, and is the band’s second highest charting album today.&lt;/p&gt;', 'producers': [{'name': 'Bill Stevenson', 'url': 'https://genius.com/artists/Bill-stevenson'}, {'name': 'Jason Livermore', 'url': 'https://genius.com/artists/Jason-livermore'}], 'writers': [{'name': 'Brandon Barnes', 'url': 'https://genius.com/artists/Brandon-barnes'}, {'name': 'Joe Principe', 'url': 'https://genius.com/artists/Joe-principe'}, {'name': 'Joseph Principe', 'url': 'https://genius.com/artists/Joseph-principe'}, {'name': 'Tim McIlrath', 'url': 'https://genius.com/artists/Tim-mcilrath'}, {'name': 'Zach Blair', 'url': 'https://genius.com/artists/Zach-blair'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avatar/Feathers-flesh', 'annotations': {'description': '', 'producers': [{'name': 'Johannes Eckerström', 'url': 'https://genius.com/artists/Johannes-eckerstrom'}, {'name': 'Sylvia Massy', 'url': 'https://genius.com/artists/Sylvia-massy'}], 'writers': [{'name': 'Avatar', 'url': 'https://genius.com/artists/Avatar'}, {'name': 'Henrik Sandelin', 'url': 'https://genius.com/artists/Henrik-sandelin'}, {'name': 'Johannes Eckerström', 'url': 'https://genius.com/artists/Johannes-eckerstrom'}, {'name': 'John Alfredsson', 'url': 'https://genius.com/artists/John-alfredsson'}, {'name': 'Jonas “Kungen” Jarlsby', 'url': 'https://genius.com/artists/Jonas-kungen-jarlsby'}, {'name': 'Tim Öhrström', 'url': 'https://genius.com/artists/Tim-ohrstrom'}, {'name': 'Trey Parker', 'url': 'https://genius.com/artists/Trey-parker'}], 'labels': [{'name': 'Another Century Records', 'url': 'https://genius.com/artists/Another-century-records'}, {'name': '\u200beOne Music', 'url': 'https://genius.com/artists/Eone-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Five-finger-death-punch/The-wrong-side-of-heaven-and-the-righteous-side-of-hell-volume-2', 'annotations': {'description': '&lt;p&gt;Back cover &amp;amp; List:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/49b8b5cb249d584b3551380e8f9bb95e.1000x787x1.jpg" alt="" width="1000" height="787" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Five Finger Death Punch', 'url': 'https://genius.com/artists/Five-finger-death-punch'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Nikka Bling', 'url': 'https://genius.com/artists/Nikka-bling'}], 'writers': [{'name': 'Chris Kael', 'url': 'https://genius.com/artists/Chris-kael'}, {'name': 'Ivan Moody', 'url': 'https://genius.com/artists/Ivan-moody'}, {'name': 'Jason Hook', 'url': 'https://genius.com/artists/Jason-hook'}, {'name': 'Jeremy Spencer Heyde', 'url': 'https://genius.com/artists/Jeremy-spencer-heyde'}, {'name': 'Traditional English Folk', 'url': 'https://genius.com/artists/Traditional-english-folk'}, {'name': 'Zoltan Bathory', 'url': 'https://genius.com/artists/Zoltan-bathory'}], 'labels': [{'name': 'Prospect Park Records', 'url': 'https://genius.com/artists/Prospect-park-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/5-the-gray-chapter', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;.5 The Gray Chapter&lt;/em&gt; is &lt;a href="https://genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt;’s fifth studio album. It is their first album after a period of six years and the first album to not feature Paul Gray, who this album is a tribute to, and not to feature Joey Jordison. The album brings back the Slipknot sound of Vol 3: The Subliminal Verses and Iowa. The album was critically acclaimed and commercially successful and debuted at number one of the Billboard 200.&lt;/p&gt;', 'producers': [{'name': 'Greg Fidelman', 'url': 'https://genius.com/artists/Greg-fidelman'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Alessandro Venturella', 'url': 'https://genius.com/artists/Alessandro-venturella'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jay Weinberg', 'url': 'https://genius.com/artists/Jay-weinberg'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bullet-for-my-valentine/Venom', 'annotations': {'description': '', 'producers': [{'name': 'Carl Bown', 'url': 'https://genius.com/artists/Carl-bown'}, {'name': 'Carl Brown', 'url': 'https://genius.com/artists/Carl-brown'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}, {'name': 'Michael “Padge” Paget', 'url': 'https://genius.com/artists/Michael-padge-paget'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}, {'name': 'Eddie Clarke', 'url': 'https://genius.com/artists/Eddie-clarke'}, {'name': 'Jason “Jay” James', 'url': 'https://genius.com/artists/Jason-jay-james'}, {'name': 'Lemmy', 'url': 'https://genius.com/artists/Lemmy'}, {'name': 'Matt Tuck', 'url': 'https://genius.com/artists/Matt-tuck'}, {'name': 'Michael “Moose” Thomas', 'url': 'https://genius.com/artists/Michael-moose-thomas'}, {'name': 'Michael “Padge” Paget', 'url': 'https://genius.com/artists/Michael-padge-paget'}, {'name': 'Phil Taylor', 'url': 'https://genius.com/artists/Phil-taylor'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/Vol-3-the-subliminal-verses', 'annotations': {'description': '&lt;p&gt;In 2003, Slipknot moved into The Mansion to work on the album. Initially, the band was unproductive; Corey Taylor was drinking heavily. Nevertheless, they wrote more than enough material for a new album—the band’s first to incorporate more traditional, melodic song structures, guitar solos, and acoustic guitars.&lt;/p&gt;\n\n&lt;p&gt;The album received generally positive reviews. It peaked within the top ten in album sales across eleven countries, and went Platinum in the United States. The band also received the Grammy Award for Best Metal Performance for the song &lt;a href="https://genius.com/Slipknot-before-i-forget-lyrics" rel="noopener" data-api_path="/songs/134527"&gt;“Before I Forget.”&lt;/a&gt; Roadrunner Records have listed the music video for &lt;a href="https://genius.com/Slipknot-duality-lyrics" rel="noopener" data-api_path="/songs/186578"&gt;“Duality”&lt;/a&gt; as the best music video in Roadrunner history.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anders Colsefni', 'url': 'https://genius.com/artists/Anders-colsefni'}, {'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Josh Brainard', 'url': 'https://genius.com/artists/Josh-brainard'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bullet-for-my-valentine/The-poison', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Poison&lt;/em&gt; is the first album by Welsh metal band Bullet For My Valentine. It was released on October 3, 2005 (in the UK) via Visible Noise and Trustkill.&lt;/p&gt;\n\n&lt;p&gt;The deluxe edition of the album was released on June 12, 2007 and includes 4 bonus tracks, including a &lt;a href="https://genius.com/Bullet-for-my-valentine-welcome-home-sanitarium-lyrics" rel="noopener" data-api_path="/songs/424066"&gt;cover&lt;/a&gt; of &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica’s&lt;/a&gt; &lt;a href="https://genius.com/Metallica-welcome-home-sanitarium-lyrics" rel="noopener" data-api_path="/songs/68753"&gt;“Welcome Home (Sanitarium)”&lt;/a&gt; and an acoustic version of &lt;a href="https://genius.com/Bullet-for-my-valentine-tears-dont-fall-lyrics" rel="noopener" data-api_path="/songs/116173"&gt;“Tears Don’t Fall”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album features an appearance by symphonic metal band &lt;a href="https://genius.com/artists/Apocalyptica" rel="noopener" data-api_path="/artists/72937"&gt;Apocalyptica&lt;/a&gt; who helped compose the opening track, “Intro”, as well as provide the cellos.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Singles:&lt;/strong&gt;&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Bullet-for-my-valentine-4-words-to-choke-upon-lyrics" rel="noopener" data-api_path="/songs/742518"&gt;“4 Words (To Choke Upon)”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Bullet-for-my-valentine-suffocating-under-words-of-sorrow-what-can-i-do-lyrics" rel="noopener" data-api_path="/songs/424035"&gt;“Suffocating Under Words of Sorrow (What Can I Do)”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Bullet-for-my-valentine-all-these-things-i-hate-revolve-around-me-lyrics" rel="noopener" data-api_path="/songs/424041"&gt;“All These Things I Hate (Revolve Around Me)”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Bullet-for-my-valentine-tears-dont-fall-lyrics" rel="noopener" data-api_path="/songs/116173"&gt;“Tears Don’t Fall”&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Andy Sneap', 'url': 'https://genius.com/artists/Andy-sneap'}, {'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}, {'name': 'Colin Richardson', 'url': 'https://genius.com/artists/Colin-richardson'}], 'writers': [{'name': 'Bullet for My Valentine', 'url': 'https://genius.com/artists/Bullet-for-my-valentine'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Jason “Jay” James', 'url': 'https://genius.com/artists/Jason-jay-james'}, {'name': 'Kirk Hammett', 'url': 'https://genius.com/artists/Kirk-hammett'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}, {'name': 'Matthew Tuck', 'url': 'https://genius.com/artists/Matthew-tuck'}, {'name': 'Matt Tuck', 'url': 'https://genius.com/artists/Matt-tuck'}, {'name': 'Michael “Moose” Thomas', 'url': 'https://genius.com/artists/Michael-moose-thomas'}, {'name': 'Michael “Padge” Paget', 'url': 'https://genius.com/artists/Michael-padge-paget'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Slipknot/All-hope-is-gone', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;All Hope Is Gone&lt;/em&gt; is the fourth studio LP from Slipknot. It is also the final album to feature the late &lt;a href="http://en.wikipedia.org/wiki/Paul_Gray_%28American_musician%29" rel="noopener nofollow"&gt;Paul Gray&lt;/a&gt; on bass and former drummer Joey Jordison. It debuted at #1 on the Billboard 200 and also has been certified Platinum. The album also spawned 5 singles with “All Hope Is Gone,” “Psychosocial,” “Dead Memories,” “Sulfur,” and “Snuff.”&lt;/p&gt;\n\n&lt;p&gt;All Hope is Gone is also the only studio LP from Slipknot to be completely recorded in the band’s hometown of Iowa. Members of Slipknot have later gone on the record to offer mixed opinions on the album.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;That’s the only record… the only album done in Iowa, and it’s my least favorite. No tension, no pain, just efficiency. Able to go home, able to sleep… that’s not good. That’s not good for what we do.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.youtube.com/watch?v=A87KRoPR6Yg&amp;amp;t=18m22s" rel="noopener nofollow"&gt;Clown, Audibiography: Slipknot by Google Play&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s the least amount of time we spent on pre-production. Not one of my favorite records.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://www.youtube.com/watch?v=A87KRoPR6Yg&amp;amp;t=19m20s" rel="noopener nofollow"&gt;Jim Root, Audibiography: Slipknot by Google Play&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;However, not all members shared this opinion.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I have to say that the band is at its peak; everyone—I mean everyone—is now completely involved in the writing process, and it’s a beautiful thing.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="https://slipknot.fandom.com/wiki/All_Hope_Is_Gone" rel="noopener nofollow"&gt;Joey Jordison&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Chris Vrenna', 'url': 'https://genius.com/artists/Chris-vrenna'}, {'name': 'Clint Walsh', 'url': 'https://genius.com/artists/Clint-walsh'}, {'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}, {'name': 'Matt Sepanic', 'url': 'https://genius.com/artists/Matt-sepanic'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Slipknot', 'url': 'https://genius.com/artists/Slipknot'}], 'writers': [{'name': 'Chris Fehn', 'url': 'https://genius.com/artists/Chris-fehn'}, {'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Craig Jones', 'url': 'https://genius.com/artists/Craig-jones'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Joey Jordison', 'url': 'https://genius.com/artists/Joey-jordison'}, {'name': 'Mick Thomson', 'url': 'https://genius.com/artists/Mick-thomson'}, {'name': 'Paul Gray', 'url': 'https://genius.com/artists/Paul-gray'}, {'name': 'Shawn Crahan', 'url': 'https://genius.com/artists/Shawn-crahan'}, {'name': 'Sid Wilson', 'url': 'https://genius.com/artists/Sid-wilson'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Nightmare', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Nightmare&lt;/em&gt; is the fifth studio album of the heavy metal band &lt;a href="https://genius.com/artists/Avenged-sevenfold" rel="noopener" data-api_path="/artists/20710"&gt;Avenged Sevenfold&lt;/a&gt;. It was released July 26th, 2010.&lt;br&gt;\n&lt;a href="https://www.revolvermag.com/music/avenged-sevenfolds-nightmare-tragedy-and-triumph-behind-2010-no-1-album" rel="noopener nofollow"&gt;Originally&lt;/a&gt;, &lt;em&gt;Nightmare&lt;/em&gt; was supposed to be a long and adventurous album, with a dark story they were gonna take their fans on a journey – with the theme of the world’s state in subjects like economy, racism, schools and religion.&lt;/p&gt;\n\n&lt;p&gt;However, with the passing of the band’s drummer and best friend, Jimmy “The Rev” Sullivan, the album turned out differently. All the music for the album was done and demoed by mid December 2009, the lyrics was not done yet.&lt;/p&gt;\n\n&lt;p&gt;A few days after The Rev’s passing, Shadows pushes the band to finish the record they were doing. &lt;a href="https://www.revolvermag.com/music/avenged-sevenfolds-nightmare-tragedy-and-triumph-behind-2010-no-1-album" rel="noopener nofollow"&gt;On which Johhny Christ says&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;As we started to talk about it, we started to realize that we have a full record and a lot of these songs — I mean, Jimmy’s had a part in every song and a lot of the songs are 100 percent his. He probably wrote about 60 percent of this record, himself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band felt Jimmy had left them with a gift he wanted the world to hear, so they decided to finish the album.&lt;br&gt;\nFor the recording of the album, one of Jimmy’s idols – Mike Portnoy, ex-drummer for &lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt;, who had reached out to the band with his condolences, was chosen to do his drumming. And according to the band, he was probably the only one who could pull of Jimmy’s work.&lt;/p&gt;\n\n&lt;p&gt;The whole album serves as a tribute to Jimmy. The band did some changes to the stuff he had written before releasing it, but according to them it’s what Jimmy would have wanted, since he used to say to them:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Oh, I’ve got all these ideas, but I just can\'t… You guys Avenged-Sevenfoldify it.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;And they did.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'writers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}, {'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'Jonathan Seward', 'url': 'https://genius.com/artists/Jonathan-seward'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Rev', 'url': 'https://genius.com/artists/Rev'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/All-that-remains/Overcome', 'annotations': {'description': '', 'producers': [{'name': 'Jason Suecof', 'url': 'https://genius.com/artists/Jason-suecof'}], 'writers': [{'name': 'All That Remains', 'url': 'https://genius.com/artists/All-that-remains'}, {'name': 'Jason Costa', 'url': 'https://genius.com/artists/Jason-costa'}, {'name': 'Jeff Loomis', 'url': 'https://genius.com/artists/Jeff-loomis'}, {'name': 'Mike Martin (All That Remains)', 'url': 'https://genius.com/artists/Mike-martin-all-that-remains'}, {'name': 'Oli Herbert', 'url': 'https://genius.com/artists/Oli-herbert'}, {'name': 'Phil Labonte', 'url': 'https://genius.com/artists/Phil-labonte'}, {'name': 'Warrel Dane', 'url': 'https://genius.com/artists/Warrel-dane'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold’s self-titled fourth album, released on October 30th, 2007, is shown to be more experimental, with many features with many different instruments that are not typically found in the metal genre. Songs such as &lt;a href="https://genius.com/Avenged-sevenfold-dear-god-lyrics" rel="noopener" data-api_path="/songs/229221"&gt;“Dear God”&lt;/a&gt; are reminiscent of country love ballads, &lt;a href="https://genius.com/Avenged-sevenfold-a-little-piece-of-heaven-lyrics" rel="noopener" data-api_path="/songs/75240"&gt;“A Little Piece of Heaven”&lt;/a&gt; features a symphony, and &lt;a href="https://genius.com/Avenged-sevenfold-lost-lyrics" rel="noopener" data-api_path="/songs/75239"&gt;“Lost”&lt;/a&gt; even features some auto-tune.&lt;/p&gt;\n\n&lt;p&gt;The album is one of the bands most notable, with over 1,120,250 copies sold worldwide. Multiple music videos for the album’s singles even have a high view count on YouTube, with the “Dear God” video having over 86,500,000 views, making it the most viewed music video off the self-titled on the &lt;a href="https://www.youtube.com/user/avengedsevenfold" rel="noopener nofollow"&gt;official Avenged Sevenfold channel&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Avenged Sevenfold', 'url': 'https://genius.com/artists/Avenged-sevenfold'}], 'writers': [{'name': 'Jimmy “The Rev” Sullivan', 'url': 'https://genius.com/artists/Jimmy-the-rev-sullivan'}, {'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Killswitch-engage/As-daylight-dies', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;As Daylight Dies&lt;/em&gt; is Killswitch Engage’s fourth studio album, released through Roadrunner Records on November 21st, 2006.&lt;br&gt;\nThe album peaked at &lt;a href="https://www.billboard.com/music/killswitch-engage/chart-history" rel="noopener nofollow"&gt;#32 on the Billboard 200&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.revolvermag.com/music/attitude-over-perfection-killswitch-engage-talk-making-daylight-dies" rel="noopener nofollow"&gt;While making the record&lt;/a&gt; the band was fueled by cheap beer by producer and guitarist – Adam. He wanted to bring out the band’s attitude and let go of the perfection they were striving for with &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/The-end-of-heartache" rel="noopener" data-api_path="/albums/58373"&gt;The End Of Heartache&lt;/a&gt;&lt;/em&gt;.&lt;br&gt;\nOne of Adam’s quotes about making a record in the interview with Revolver:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It shouldn’t be science — it should be art.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album’s best know single – “&lt;a href="https://genius.com/Killswitch-engage-my-curse-lyrics" rel="noopener" data-api_path="/songs/366848"&gt;My Curse&lt;/a&gt;”, is featured in the video game &lt;em&gt;&lt;a href="https://sv.wikipedia.org/wiki/Guitar_Hero_III:_Legends_of_Rock" rel="noopener nofollow"&gt;Guitar Hero III: Legends of Rock&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}], 'writers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Dio', 'url': 'https://genius.com/artists/Dio'}, {'name': 'Howard Jones (Rock)', 'url': 'https://genius.com/artists/Howard-jones-rock'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Justin Foley', 'url': 'https://genius.com/artists/Justin-foley'}, {'name': 'Killswitch Engage', 'url': 'https://genius.com/artists/Killswitch-engage'}, {'name': 'Mike D’Antonio', 'url': 'https://genius.com/artists/Mike-dantonio'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Skillet/Unleashed', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Unleashed&lt;/em&gt; is Skillet’s 9th studio album  which was released August 5th, 2016. &lt;a href="https://genius.com/artists/John-cooper" rel="noopener" data-api_path="/artists/180422"&gt;John Cooper&lt;/a&gt; described the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wanted to make an album that could make people feel the music. I always aim to write songs to which people can relate, but this time I wanted to see not only how the songs would connect lyrically, but also how they’d connect musically.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;h3&gt;Unleashed Podcast:&lt;/h3&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/p532I_8qjnk?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Jerricho Scroggins', 'url': 'https://genius.com/artists/Jerricho-scroggins'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Seth Mosley', 'url': 'https://genius.com/artists/Seth-mosley'}, {'name': 'X O’Connor', 'url': 'https://genius.com/artists/X-oconnor'}], 'writers': [{'name': 'Jason Ingram', 'url': 'https://genius.com/artists/Jason-ingram'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Kane Churko', 'url': 'https://genius.com/artists/Kane-churko'}, {'name': 'Kevin Churko', 'url': 'https://genius.com/artists/Kevin-churko'}, {'name': 'Korey Cooper', 'url': 'https://genius.com/artists/Korey-cooper'}, {'name': 'Mia Fieldes', 'url': 'https://genius.com/artists/Mia-fieldes'}, {'name': 'Sam Tinnesz', 'url': 'https://genius.com/artists/Sam-tinnesz'}, {'name': 'Seth Mosley', 'url': 'https://genius.com/artists/Seth-mosley'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'BMG', 'url': 'https://genius.com/artists/Bmg'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Of-mice-and-men/Restoring-force-full-circle', 'annotations': {'description': '', 'producers': [{'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}], 'writers': [{'name': 'Aaron Pauley', 'url': 'https://genius.com/artists/Aaron-pauley'}, {'name': 'Alan Ashby', 'url': 'https://genius.com/artists/Alan-ashby'}, {'name': 'Austin Carlile', 'url': 'https://genius.com/artists/Austin-carlile'}, {'name': 'Phil Manansala', 'url': 'https://genius.com/artists/Phil-manansala'}, {'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}, {'name': 'Valentino Arteaga', 'url': 'https://genius.com/artists/Valentino-arteaga'}], 'labels': [{'name': 'Rise Records', 'url': 'https://genius.com/artists/Rise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sixx-am/The-heroin-diaries-soundtrack', 'annotations': {'description': '', 'producers': [{'name': 'Sixx:A.M.', 'url': 'https://genius.com/artists/Sixx-am'}], 'writers': [{'name': 'DJ Ashba', 'url': 'https://genius.com/artists/Dj-ashba'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}], 'labels': [{'name': 'Better Noise Music', 'url': 'https://genius.com/artists/Better-noise-music'}, {'name': 'Eleven Seven Music', 'url': 'https://genius.com/artists/Eleven-seven-music'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Three-days-grace/Transit-of-venus', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Transit of Venus&lt;/em&gt; represents a radical change for Three Days Grace. The album, featuring more contemplative tracks like &lt;a href="https://genius.com/Three-days-grace-unbreakable-heart-lyrics" rel="noopener" data-api_path="/songs/424811"&gt;“Unbreakable Heart”&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-happiness-lyrics" rel="noopener" data-api_path="/songs/361946"&gt;“Happiness”&lt;/a&gt;, has TDG going out of their comfort zone for a different, more electronic-inspired approach to their usual sound.&lt;/p&gt;\n\n&lt;p&gt;On June 5, 2012, the band announced the inspiration for their album title, the rare astrological phenomenon of Venus\' visible transit across the sun, which had occurred that day.&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Adam Gontier', 'url': 'https://genius.com/artists/Adam-gontier'}, {'name': 'Barry Stock', 'url': 'https://genius.com/artists/Barry-stock'}, {'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Brad Walst', 'url': 'https://genius.com/artists/Brad-walst'}, {'name': 'Chris Tompkins', 'url': 'https://genius.com/artists/Chris-tompkins'}, {'name': 'Chris Wallin', 'url': 'https://genius.com/artists/Chris-wallin'}, {'name': 'Craig Wiseman', 'url': 'https://genius.com/artists/Craig-wiseman'}, {'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Jaren Johnston', 'url': 'https://genius.com/artists/Jaren-johnston'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Rob Hawkins', 'url': 'https://genius.com/artists/Rob-hawkins'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Red/End-of-silence', 'annotations': {'description': '&lt;p&gt;The following tracklist is the 10th Anniversary Edition of &lt;strong&gt;&lt;em&gt;End of Silence&lt;/em&gt;&lt;/strong&gt; released June 3, 2016. All audio in the following songs (without music videos) contain the 2016 remastered versions of the &lt;em&gt;End of Silence&lt;/em&gt; songs, including acoustic remixes of ‘Breathe Into Me’ (found of the deluxe edition of &lt;em&gt;Release the Panic&lt;/em&gt;), ‘Lost’ (found of the deluxe version of &lt;em&gt;End of Silence&lt;/em&gt;), and a new acoustic version of Hide. Bonus tracks include a new song called ‘If I Break’ and a working instrumental demo called ‘Circles’.&lt;br&gt;\nThe original deluxe version included the acoustic version of ‘Lost’, and a DVD of Red performing some of their songs live, plus the music video for ‘Breathe Into Me’.&lt;/p&gt;', 'producers': [{'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'writers': [{'name': 'Anthony Armstrong', 'url': 'https://genius.com/artists/Anthony-armstrong'}, {'name': 'Bernie Herms', 'url': 'https://genius.com/artists/Bernie-herms'}, {'name': 'Blue Stahli', 'url': 'https://genius.com/artists/Blue-stahli'}, {'name': 'Chad Cates', 'url': 'https://genius.com/artists/Chad-cates'}, {'name': 'Jasen Rauch', 'url': 'https://genius.com/artists/Jasen-rauch'}, {'name': 'Jason McArthur', 'url': 'https://genius.com/artists/Jason-mcarthur'}, {'name': 'Mike Barnes', 'url': 'https://genius.com/artists/Mike-barnes'}, {'name': 'Randy Armstrong', 'url': 'https://genius.com/artists/Randy-armstrong'}, {'name': 'Rob Graves', 'url': 'https://genius.com/artists/Rob-graves'}], 'labels': [{'name': 'Essential Records', 'url': 'https://genius.com/artists/Essential-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/My-darkest-days/My-darkest-days', 'annotations': {'description': '', 'producers': [{'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}], 'writers': [{'name': 'Casey Marshall', 'url': 'https://genius.com/artists/Casey-marshall'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Dustin Moore', 'url': 'https://genius.com/artists/Dustin-moore'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'Harry Hess', 'url': 'https://genius.com/artists/Harry-hess'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Jamaal Sublett', 'url': 'https://genius.com/artists/Jamaal-sublett'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'John Taylor', 'url': 'https://genius.com/artists/John-taylor'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Matt Walsh', 'url': 'https://genius.com/artists/Matt-walsh'}, {'name': 'Matt Walst', 'url': 'https://genius.com/artists/Matt-walst'}, {'name': 'Mitch Allan', 'url': 'https://genius.com/artists/Mitch-allan'}, {'name': 'Neil Sanderson', 'url': 'https://genius.com/artists/Neil-sanderson'}, {'name': 'Nick Rhodes', 'url': 'https://genius.com/artists/Nick-rhodes'}, {'name': 'Simon Le Bon', 'url': 'https://genius.com/artists/Simon-le-bon'}, {'name': 'Ted Bruner', 'url': 'https://genius.com/artists/Ted-bruner'}, {'name': 'Warren Cuccurullo', 'url': 'https://genius.com/artists/Warren-cuccurullo'}], 'labels': []}}</t>
+    <t>Twisted Sister</t>
+  </si>
+  <si>
+    <t>Enrique Iglesias</t>
+  </si>
+  <si>
+    <t>Paramore</t>
+  </si>
+  <si>
+    <t>The B-52's</t>
+  </si>
+  <si>
+    <t>The Rolling Stones</t>
+  </si>
+  <si>
+    <t>Bizarre Inc</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>The Clash</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Stone-temple-pilots/Thank-you', 'annotations': {'description': '', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}, {'name': 'Dean DeLeo', 'url': 'https://genius.com/artists/Dean-deleo'}, {'name': 'Eric Kretz', 'url': 'https://genius.com/artists/Eric-kretz'}, {'name': 'Robert DeLeo', 'url': 'https://genius.com/artists/Robert-deleo'}, {'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}], 'writers': [{'name': 'Dean DeLeo', 'url': 'https://genius.com/artists/Dean-deleo'}, {'name': 'Eric Kretz', 'url': 'https://genius.com/artists/Eric-kretz'}, {'name': 'Robert DeLeo', 'url': 'https://genius.com/artists/Robert-deleo'}, {'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-cranberries/Bury-the-hatchet', 'annotations': {'description': '', 'producers': [{'name': 'Benedict Fenner', 'url': 'https://genius.com/artists/Benedict-fenner'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-rembrandts/L-p', 'annotations': {'description': '', 'producers': [{'name': 'David Crane', 'url': 'https://genius.com/artists/David-crane'}, {'name': 'Kevin Bright', 'url': 'https://genius.com/artists/Kevin-bright'}, {'name': 'Marta Kauffman', 'url': 'https://genius.com/artists/Marta-kauffman'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Danny Wilde', 'url': 'https://genius.com/artists/Danny-wilde'}, {'name': 'David Crane', 'url': 'https://genius.com/artists/David-crane'}, {'name': 'Marta Kauffman', 'url': 'https://genius.com/artists/Marta-kauffman'}, {'name': 'Michael Skloff', 'url': 'https://genius.com/artists/Michael-skloff'}, {'name': 'Phil Solem', 'url': 'https://genius.com/artists/Phil-solem'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sheryl-crow/The-very-best-of-sheryl-crow', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Very Best of Sheryl Crow&lt;/em&gt; is a greatest hits album by American singer-songwriter Sheryl Crow, first released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States.&lt;/p&gt;\n\n&lt;p&gt;The compilation features some of her biggest hits from her four previous albums &lt;a href="https://genius.com/albums/Sheryl-crow/Tuesday-night-music-club" rel="noopener" data-api_path="/albums/108147"&gt;&lt;em&gt;Tuesday Night Music Club&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/Sheryl-crow" rel="noopener" data-api_path="/albums/112320"&gt;&lt;em&gt;Sheryl Crow&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/The-globe-sessions" rel="noopener" data-api_path="/albums/118344"&gt;&lt;em&gt;The Globe Sessions&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Sheryl-crow/C-mon-c-mon" rel="noopener" data-api_path="/albums/110758"&gt;&lt;em&gt;C\'mon, C\'mon&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Brian MacLeod', 'url': 'https://genius.com/artists/Brian-macleod'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'David Ricketts', 'url': 'https://genius.com/artists/David-ricketts'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kygo/Cloud-nine', 'annotations': {'description': '&lt;p&gt;“Cloud Nine” is Kyrre Gørvell-Dahll (known as Kygo)’s highly anticipated debut album, set to be released on May 13th 2016.&lt;/p&gt;\n\n&lt;p&gt;The album is characterized by a “tropical” sound that make Kygo’s song interesting and peculiar, it helped him reach notoriety.&lt;/p&gt;', 'producers': [{'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Labrinth', 'url': 'https://genius.com/artists/Labrinth'}], 'writers': [{'name': 'Angus &amp; Julia Stone', 'url': 'https://genius.com/artists/Angus-and-julia-stone'}, {'name': 'Björn Yttling', 'url': 'https://genius.com/artists/Bjorn-yttling'}, {'name': 'Conrad Sewell', 'url': 'https://genius.com/artists/Conrad-sewell'}, {'name': 'Derek Fuhrmann', 'url': 'https://genius.com/artists/Derek-fuhrmann'}, {'name': '\u200b\u200bill Factor', 'url': 'https://genius.com/artists/Ill-factor'}, {'name': 'James Bay', 'url': 'https://genius.com/artists/James-bay'}, {'name': 'James Vincent McMorrow', 'url': 'https://genius.com/artists/James-vincent-mcmorrow'}, {'name': 'Jimmy Messer', 'url': 'https://genius.com/artists/Jimmy-messer'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Kodaline', 'url': 'https://genius.com/artists/Kodaline'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Kyle Kelso', 'url': 'https://genius.com/artists/Kyle-kelso'}, {'name': 'Labrinth', 'url': 'https://genius.com/artists/Labrinth'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Marli Harwood', 'url': 'https://genius.com/artists/Marli-harwood'}, {'name': 'Martijn Konijnenburg', 'url': 'https://genius.com/artists/Martijn-konijnenburg'}, {'name': 'Matt Corby', 'url': 'https://genius.com/artists/Matt-corby'}, {'name': 'Maty Noyes', 'url': 'https://genius.com/artists/Maty-noyes'}, {'name': 'Michael Harwood', 'url': 'https://genius.com/artists/Michael-harwood'}, {'name': 'Nasty Kutt', 'url': 'https://genius.com/artists/Nasty-kutt'}, {'name': 'Natalie Salter', 'url': 'https://genius.com/artists/Natalie-salter'}, {'name': 'Parson James', 'url': 'https://genius.com/artists/Parson-james'}, {'name': 'RHODES', 'url': 'https://genius.com/artists/Rhodes'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}, {'name': 'Tom Odell', 'url': 'https://genius.com/artists/Tom-odell'}, {'name': 'Will Heard', 'url': 'https://genius.com/artists/Will-heard'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-black-crowes/Shake-your-money-maker', 'annotations': {'description': '', 'producers': [{'name': 'George Drakoulias', 'url': 'https://genius.com/artists/George-drakoulias'}], 'writers': [{'name': 'Al Bell', 'url': 'https://genius.com/artists/Al-bell'}, {'name': 'Allen Jones', 'url': 'https://genius.com/artists/Allen-jones'}, {'name': 'Chris Robinson', 'url': 'https://genius.com/artists/Chris-robinson'}, {'name': 'Otis Redding', 'url': 'https://genius.com/artists/Otis-redding'}, {'name': 'Rich Robinson', 'url': 'https://genius.com/artists/Rich-robinson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Cyndi-lauper/Shes-so-unusual', 'annotations': {'description': '&lt;p&gt;She’s So Unusual is the debut studio album by American singer and songwriter Cyndi Lauper, released on October 14, 1983 by Portrait Records.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f3bf7d8494b9737363ba8df965c72119.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Six singles were released from the album, with “Girls Just Want to Have Fun” becoming a #1  worldwide hit and her first song to chart on the Billboard Hot 100. Time After Time, She Bop, All Through the Night, Money Changes Everything, When You Were Mine.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;She’s So Unusual&lt;/em&gt; peaked at number four on the Billboard 200 Chart. The album became one of the bestselling albums of 1984. It has since sold over 6 million copies in the United States, where it was certified six times platinum by the RIAA, which lists it as one of the Best Selling Albums of All Time. She’s So Unusual has sold over 16 million copies worldwide.&lt;/p&gt;', 'producers': [{'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}, {'name': 'William Wittman', 'url': 'https://genius.com/artists/William-wittman'}], 'writers': [{'name': 'Abner Silver', 'url': 'https://genius.com/artists/Abner-silver'}, {'name': 'Al Lewis', 'url': 'https://genius.com/artists/Al-lewis'}, {'name': 'Al Sherman', 'url': 'https://genius.com/artists/Al-sherman'}, {'name': 'Cyndi Lauper', 'url': 'https://genius.com/artists/Cyndi-lauper'}, {'name': 'Gary Corbett', 'url': 'https://genius.com/artists/Gary-corbett'}, {'name': 'Hasse Huss', 'url': 'https://genius.com/artists/Hasse-huss'}, {'name': 'John Turi', 'url': 'https://genius.com/artists/John-turi'}, {'name': 'Jules Shear', 'url': 'https://genius.com/artists/Jules-shear'}, {'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}, {'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}, {'name': 'Robert Hazard', 'url': 'https://genius.com/artists/Robert-hazard'}, {'name': 'Rob Hyman', 'url': 'https://genius.com/artists/Rob-hyman'}, {'name': 'Stephen Broughton Lunt', 'url': 'https://genius.com/artists/Stephen-broughton-lunt'}, {'name': 'Tom Gray', 'url': 'https://genius.com/artists/Tom-gray'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Desireless/Francois', 'annotations': {'description': '', 'producers': [{'name': 'Dominique Albert Dubois', 'url': 'https://genius.com/artists/Dominique-albert-dubois'}, {'name': 'Jean-Michel Rivat', 'url': 'https://genius.com/artists/Jean-michel-rivat'}], 'writers': [{'name': 'Jean-Michel Rivat', 'url': 'https://genius.com/artists/Jean-michel-rivat'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sum-41/Order-in-decline', 'annotations': {'description': '&lt;p&gt;The seventh studio album by the pop-punk veterans &lt;a href="https://genius.com/artists/Sum-41" rel="noopener" data-api_path="/artists/24908"&gt;Sum 41&lt;/a&gt; titled &lt;em&gt;Order In Decline&lt;/em&gt; bursts into the scene after three years of silence form the band. It is a heavy album full of lyrics of division, social turmoil, and hate.&lt;/p&gt;\n\n&lt;p&gt;The album is not politically charged, as one might come to believe. &lt;a href="https://consequenceofsound.net/2019/04/sum-41-new-album-order-in-decline-out-for-blood-single/" rel="noopener nofollow"&gt;Whibley said in an interview&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The last thing I wanted to do was write a social or political protest record, and Order In Decline is not that. It’s also very hard not to have feelings about everything that’s going on in the world.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The lead single for the record was &lt;a href="https://genius.com/Sum-41-out-for-blood-lyrics" rel="noopener" data-api_path="/songs/4497483"&gt;“Out for Blood”&lt;/a&gt;, released on April 23, 2019. The second single &lt;a href="https://genius.com/Sum-41-a-death-in-the-family-lyrics" rel="noopener" data-api_path="/songs/4497503"&gt;“A Death In The Family”&lt;/a&gt; was released on June 11, 2019.&lt;/p&gt;', 'producers': [{'name': 'Deryck Whibley', 'url': 'https://genius.com/artists/Deryck-whibley'}], 'writers': [{'name': 'Deryck Whibley', 'url': 'https://genius.com/artists/Deryck-whibley'}, {'name': 'Mike Green', 'url': 'https://genius.com/artists/Mike-green'}], 'labels': [{'name': 'Hopeless Records', 'url': 'https://genius.com/artists/Hopeless-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Alanis-morissette/Jagged-little-pill', 'annotations': {'description': '&lt;p&gt;Angry, unashamed, and cathartic, &lt;em&gt;Jagged Little Pill&lt;/em&gt; changed the music scene when it dropped in 1995. Carried by Alanis Morissette’s unique vocals and ability to simply express herself – through unbridled rage (as heard on “You Oughta Know”), hesitant romance (“Head Over Feet”), and 20s-something growing up (“You Learn”), the album spun off some of the most successful and recognizable songs from the 90s (“Ironic”) and remains a rock classic to this day.&lt;/p&gt;\n\n&lt;p&gt;The album earned Morissette seven total Grammy nominations (across three ceremonies), including four wins &lt;a href="https://www.grammy.com/grammys/awards/38th-annual-grammy-awards" rel="noopener nofollow"&gt;at the 38th Grammys&lt;/a&gt; for Album of the Year, Best Female Rock Performance, Best Rock Song, and Best Rock Album. &lt;a href="https://web.archive.org/web/20050615022717/https://www.cbc.ca/arts/music/alanis.html" rel="noopener nofollow"&gt;In a ten-year anniversary reflection of the album&lt;/a&gt;, the CBC remarked how the album marked the first time the no-apologies attitude of so many 90s female rock artists broke into the top 40, as well as credited the album for the rise of &lt;a href="https://genius.com/artists/Avril-lavigne" rel="noopener" data-api_path="/artists/2224"&gt;Avril Lavigne&lt;/a&gt; and &lt;a href="https://genius.com/artists/P-nk" rel="noopener" data-api_path="/artists/345"&gt;P!nk&lt;/a&gt;. &lt;em&gt;Jagged Little Pill&lt;/em&gt; also earned a spot on the &lt;em&gt;Rolling Stones&lt;/em&gt; &lt;a href="http://lyrics.wikia.com/wiki/LyricWiki:Lists/Rolling_Stone:_The_500_Greatest_Albums_of_All_Time" rel="noopener nofollow"&gt;original “500 Greatest Albums of All Time”&lt;/a&gt;, at spot 327. In 2019, it was announced that there is also &lt;a href="https://pitchfork.com/news/alanis-morissettes-jagged-little-pill-musical-coming-to-broadway/" rel="noopener nofollow"&gt;a musical adaptation&lt;/a&gt; of the album coming to Broadway.&lt;/p&gt;\n\n&lt;p&gt;In 2019, a &lt;a href="https://themuse.jezebel.com/jagged-little-pill-is-actually-very-bad-1833542975" rel="noopener nofollow"&gt;&lt;em&gt;Jezebel&lt;/em&gt; article&lt;/a&gt; calling the album “actually very bad” inspired &lt;a href="https://etcanada.com/news/434719/twitter-reacts-to-writer-arguing-alanis-morissettes-jagged-little-pill-is-actually-very-bad/" rel="noopener nofollow"&gt;an outpouring of support for the album&lt;/a&gt; and &lt;a href="https://variety.com/2019/music/news/alanis-morissettes-jagged-little-pill-defense-letters-to-cleo-kay-hanley-1203175891/" rel="noopener nofollow"&gt;a slew&lt;/a&gt; of &lt;a href="https://medium.com/@amandadeibert/jagged-little-pill-is-actually-very-good-1d487291f2ed" rel="noopener nofollow"&gt;think pieces&lt;/a&gt; on &lt;a href="https://www.newstatesman.com/culture/2019/03/25-years-alanis-morissette-s-jagged-little-pill-still-articulates-my-teenage-shame" rel="noopener nofollow"&gt;why it still matters.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}], 'writers': [{'name': 'Alanis Morissette', 'url': 'https://genius.com/artists/Alanis-morissette'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Supertramp/Even-in-the-quietest-moments', 'annotations': {'description': '', 'producers': [{'name': 'Supertramp', 'url': 'https://genius.com/artists/Supertramp'}], 'writers': [{'name': 'Rick Davies', 'url': 'https://genius.com/artists/Rick-davies'}, {'name': 'Roger Hodgson', 'url': 'https://genius.com/artists/Roger-hodgson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Status-quo/Just-supposin', 'annotations': {'description': '', 'producers': [{'name': 'John Eden', 'url': 'https://genius.com/artists/John-eden'}, {'name': 'Status Quo', 'url': 'https://genius.com/artists/Status-quo'}], 'writers': [{'name': 'Alan Lancaster', 'url': 'https://genius.com/artists/Alan-lancaster'}, {'name': 'Andy Bown', 'url': 'https://genius.com/artists/Andy-bown'}, {'name': 'Bernie Frost', 'url': 'https://genius.com/artists/Bernie-frost'}, {'name': 'Bob Young', 'url': 'https://genius.com/artists/Bob-young'}, {'name': 'Francis Rossi', 'url': 'https://genius.com/artists/Francis-rossi'}, {'name': 'John Coghlan', 'url': 'https://genius.com/artists/John-coghlan'}, {'name': 'Keith Lamb', 'url': 'https://genius.com/artists/Keith-lamb'}, {'name': 'Rick Parfitt', 'url': 'https://genius.com/artists/Rick-parfitt'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Joan-jett-and-the-blackhearts/Bad-reputation-music-from-the-original-motion-picture', 'annotations': {'description': '&lt;p&gt;This is the soundtrack to &lt;a href="https://www.badreputationfilm.com/" rel="noopener nofollow"&gt;Kevin Kerslake’s documentary&lt;/a&gt; about Joan Jett and her life and musical career.&lt;/p&gt;', 'producers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Glen Kolotkin', 'url': 'https://genius.com/artists/Glen-kolotkin'}, {'name': 'Joan Jett', 'url': 'https://genius.com/artists/Joan-jett'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Kim Fowley', 'url': 'https://genius.com/artists/Kim-fowley'}, {'name': 'Laura Jane Grace', 'url': 'https://genius.com/artists/Laura-jane-grace'}, {'name': 'Ric Browde', 'url': 'https://genius.com/artists/Ric-browde'}, {'name': 'Ritchie Cordell', 'url': 'https://genius.com/artists/Ritchie-cordell'}, {'name': 'Thom Panunzio', 'url': 'https://genius.com/artists/Thom-panunzio'}, {'name': 'Tim Green', 'url': 'https://genius.com/artists/Tim-green'}], 'writers': [{'name': 'Alan Merrill', 'url': 'https://genius.com/artists/Alan-merrill'}, {'name': 'Bill Ciprian', 'url': 'https://genius.com/artists/Bill-ciprian'}, {'name': 'Billy Karren', 'url': 'https://genius.com/artists/Billy-karren'}, {'name': 'Dave Alexander', 'url': 'https://genius.com/artists/Dave-alexander'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'FEA', 'url': 'https://genius.com/artists/Fea'}, {'name': 'Gary Glitter', 'url': 'https://genius.com/artists/Gary-glitter'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Jake Hooker', 'url': 'https://genius.com/artists/Jake-hooker'}, {'name': 'Joan Jett', 'url': 'https://genius.com/artists/Joan-jett'}, {'name': 'Kathi Wilcox', 'url': 'https://genius.com/artists/Kathi-wilcox'}, {'name': 'Kathleen Hanna', 'url': 'https://genius.com/artists/Kathleen-hanna'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Kim Fowley', 'url': 'https://genius.com/artists/Kim-fowley'}, {'name': 'Marty Kupersmith', 'url': 'https://genius.com/artists/Marty-kupersmith'}, {'name': 'Mike Leander', 'url': 'https://genius.com/artists/Mike-leander'}, {'name': 'Paul Westerberg', 'url': 'https://genius.com/artists/Paul-westerberg'}, {'name': 'Peter Lucia Jr.', 'url': 'https://genius.com/artists/Peter-lucia-jr'}, {'name': 'Ritchie Cordell', 'url': 'https://genius.com/artists/Ritchie-cordell'}, {'name': 'Ron Asheton', 'url': 'https://genius.com/artists/Ron-asheton'}, {'name': 'Scott Asheton', 'url': 'https://genius.com/artists/Scott-asheton'}, {'name': 'Tobi Vail', 'url': 'https://genius.com/artists/Tobi-vail'}, {'name': 'Tommy James', 'url': 'https://genius.com/artists/Tommy-james'}], 'labels': [{'name': 'Ariola Records', 'url': 'https://genius.com/artists/Ariola-records'}, {'name': 'Blackheart Records', 'url': 'https://genius.com/artists/Blackheart-records'}, {'name': 'Boardwalk Records', 'url': 'https://genius.com/artists/Boardwalk-records'}, {'name': 'DreamWorks Television', 'url': 'https://genius.com/artists/Dreamworks-television'}, {'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}, {'name': 'Shout! Factory \u200e', 'url': 'https://genius.com/artists/Shout-factory'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Coldplay/X-y', 'annotations': {'description': '&lt;p&gt;Coldplay’s &lt;em&gt;X&amp;amp;Y&lt;/em&gt; is the band’s third studio album, and first concept album. It revolves around a rocky relationship with its title being an analogy to the concept it pioneered – a “make amends” album, where the subjects of the album, &lt;em&gt;x&lt;/em&gt; and &lt;em&gt;y&lt;/em&gt;, try to put back together a relationship through the dialogue of poetry. Of course, &lt;em&gt;X&amp;amp;Y&lt;/em&gt;, especially in context of a broken relationship, &lt;a href="https://www.coldplaying.com/x10y-the-meaning-of-x-and-y-according-to-chris-martin/" rel="noopener nofollow"&gt;can mean anything, from the pessimistic to the optimistic&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;X and Y is the mathematical formula used when you don’t know the answer. But, it’s also like black and white, or hope and despair, or optimism and pessimism. Everywhere you look there’s a tension of opposites.&lt;/em&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Clocking in at 62 minutes, Coldplay’s longest album to date is a space rock, production-rich piece of gracious emotion, crossing many themes, such as communication, empathy, and the road to acceptance. The band’s most lyrically profund album has since found a spiritual successor in the moody &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;Ghost Stories&lt;/a&gt;&lt;/em&gt;, an album also focusing on a broken relationship.&lt;/p&gt;', 'producers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Coldplay', 'url': 'https://genius.com/artists/Coldplay'}, {'name': 'Danton Supple', 'url': 'https://genius.com/artists/Danton-supple'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Ken Nelson', 'url': 'https://genius.com/artists/Ken-nelson'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Emil Schult', 'url': 'https://genius.com/artists/Emil-schult'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Karl Bartos', 'url': 'https://genius.com/artists/Karl-bartos'}, {'name': 'Ralf Hütter', 'url': 'https://genius.com/artists/Ralf-hutter'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/U2/Achtung-baby', 'annotations': {'description': '&lt;p&gt;Designed and produced explicitly as “the sound of a band cutting down the Joshua Tree”, “Achtung Baby” was U2’s opening statement at the start of the 90s.&lt;/p&gt;\n\n&lt;p&gt;Rejecting the earnest rock and roll of their mega-hit “The Joshua Tree” and their 80s work in general, “Achtung Baby” created a new sound that would follow the band for the next three albums (Achtung Baby, Zooropa, and Pop). The band, and Bono in particular, rejected the folksy earnest image the band was known for at the time and embraced satire, sarcasm, irony and deconstructing the iconic rock star image. Embracing electronic dance music, the album presented itself as a rebuke of the past and the start of a new chapter of the band.&lt;/p&gt;\n\n&lt;p&gt;The album spawned several iconic hits (One, Mysterious Ways, Even Better Than the Real Thing) and the album’s track listings have become permanent live staples for the band (with Ultra Violet (Light My Way) and Love Is Blindness in particular becoming the default final song played live at concerts). “Until The End Of the World” was featured in the cult film “Until The End of the World”, by Wim Wenders. The tour supporting the album, the legendary Zoo TV world tour, saw Bono introduce his MacPhisto alter-ego: the devil as a lounge singer, Mirror Ball Man; a silver leisure suit TV evangelist who made prank calls to world leaders inbetween songs, and “The Fly”; a leather clad heroic rock star with wraparound sun glasses.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Hoobastank/The-reason', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Reason&lt;/em&gt; is the second studio album by American rock band Hoobastank, released on December 9, 2003 via Island Records. The album reached a &lt;a href="https://www.billboard.com/music/Hoobastank/chart-history/TLP" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #3 on the Billboard 200 chart, making it their highest peaking album, as well as their only top 10 on the chart.&lt;/p&gt;\n\n&lt;p&gt;A total of four singles were released from the album: &lt;a href="https://genius.com/Hoobastank-out-of-control-lyrics" rel="noopener" data-api_path="/songs/936544"&gt;“Out of Control”&lt;/a&gt;, &lt;a href="https://genius.com/Hoobastank-the-reason-lyrics" rel="noopener" data-api_path="/songs/173824"&gt;“The Reason”&lt;/a&gt;, &lt;a href="https://genius.com/Hoobastank-same-direction-lyrics" rel="noopener" data-api_path="/songs/1331985"&gt;“Same Direction”&lt;/a&gt;, and &lt;a href="https://genius.com/Hoobastank-disappear-lyrics" rel="noopener" data-api_path="/songs/1720758"&gt;“Disappear”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;“The Reason” became the most successful single from the album and of their career, reaching a &lt;a href="https://www.billboard.com/music/Hoobastank/chart-history/HSI" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #2, making it their highest peaking single to date in their career.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Dan Estrin', 'url': 'https://genius.com/artists/Dan-estrin'}, {'name': 'Daniel B Estrin', 'url': 'https://genius.com/artists/Daniel-b-estrin'}, {'name': 'Daniel Estren', 'url': 'https://genius.com/artists/Daniel-estren'}, {'name': 'Douglas Robb', 'url': 'https://genius.com/artists/Douglas-robb'}, {'name': 'Doug Robb', 'url': 'https://genius.com/artists/Doug-robb'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Billy-idol/Billy-idol', 'annotations': {'description': '', 'producers': [{'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}], 'writers': [{'name': 'Billy Idol', 'url': 'https://genius.com/artists/Billy-idol'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Philip Hawk', 'url': 'https://genius.com/artists/Philip-hawk'}, {'name': 'Steve Stevens', 'url': 'https://genius.com/artists/Steve-stevens'}, {'name': 'Tony James', 'url': 'https://genius.com/artists/Tony-james'}], 'labels': [{'name': 'BMG Chrysalis', 'url': 'https://genius.com/artists/Bmg-chrysalis'}, {'name': 'Chrysalis Records', 'url': 'https://genius.com/artists/Chrysalis-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Peter-schilling/Von-anfang-an-bis-jetzt-das-ultimativ-beste', 'annotations': {'description': '', 'producers': [{'name': 'Armin Sabol', 'url': 'https://genius.com/artists/Armin-sabol'}, {'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'writers': [{'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Shawn-mendes/Illuminate', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Illuminate&lt;/em&gt; is the sophomore album by singer &lt;a href="https://genius.com/artists/Shawn-mendes" rel="noopener" data-api_path="/artists/195029"&gt;Shawn Mendes&lt;/a&gt;. It was released on September 23 2016 through Island Records. The album &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/billboard-200/song/995020" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at #1 on the Billboard 200 with 145,000 equivalent album units.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single “&lt;a href="https://genius.com/Shawn-mendes-treat-you-better-lyrics" rel="noopener" data-api_path="/songs/2478138"&gt;Treat You Better&lt;/a&gt;” was released on June 3, 2016 and &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/hot-100/song/977241" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #6 on the Billboard 100. On October 18, 2016 the second single “&lt;a href="https://genius.com/Shawn-mendes-mercy-lyrics" rel="noopener" data-api_path="/songs/2811214"&gt;Mercy&lt;/a&gt;” was released and was serviced to the US top 40 radio stations. “&lt;a href="https://genius.com/Shawn-mendes-theres-nothing-holdin-me-back-lyrics" rel="noopener" data-api_path="/songs/3051803"&gt;There’s Nothing Holdin\' Me Back&lt;/a&gt;” was released as the album’s third and final single on April 20, 2017.&lt;/p&gt;', 'producers': [{'name': 'Andrew Maury', 'url': 'https://genius.com/artists/Andrew-maury'}, {'name': 'Dan Romer', 'url': 'https://genius.com/artists/Dan-romer'}, {'name': 'DJ Kyriakides', 'url': 'https://genius.com/artists/Dj-kyriakides'}, {'name': 'Jake Gosling', 'url': 'https://genius.com/artists/Jake-gosling'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}], 'writers': [{'name': 'Danny Parker', 'url': 'https://genius.com/artists/Danny-parker'}, {'name': 'Geoffrey Warburton', 'url': 'https://genius.com/artists/Geoffrey-warburton'}, {'name': 'Geoff Warburton', 'url': 'https://genius.com/artists/Geoff-warburton'}, {'name': 'Gustaf Thörn', 'url': 'https://genius.com/artists/Gustaf-thorn'}, {'name': 'Ido Zmishlany', 'url': 'https://genius.com/artists/Ido-zmishlany'}, {'name': 'Ilsey', 'url': 'https://genius.com/artists/Ilsey'}, {'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Scott Harris', 'url': 'https://genius.com/artists/Scott-harris'}, {'name': 'Shawn Mendes', 'url': 'https://genius.com/artists/Shawn-mendes'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'labels': [{'name': 'CYNUMG', 'url': 'https://genius.com/artists/Cynumg'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pulp/Different-class', 'annotations': {'description': '&lt;p&gt;This is the fifth album by Pulp. It was released in 1995, at the peak of the Britpop movement, and transformed them into an essential part of the British musical scene. This record received a stellar reception from critics, and it has grown to be recognised not only as one of the most iconic albums of Britpop, but as one of the best albums ever released. “Different Class” was awarded the Mercury Music Prize in 1996.&lt;/p&gt;\n\n&lt;p&gt;The album has a sleeve note which explains the title rather well : “Please understand – we don’t want no trouble. We just want the right to be different. That’s all.”&lt;/p&gt;', 'producers': [{'name': 'Anne Dudley', 'url': 'https://genius.com/artists/Anne-dudley'}, {'name': 'Chris Thomas', 'url': 'https://genius.com/artists/Chris-thomas'}], 'writers': [{'name': 'Candida Doyle', 'url': 'https://genius.com/artists/Candida-doyle'}, {'name': 'Jarvis Cocker', 'url': 'https://genius.com/artists/Jarvis-cocker'}, {'name': 'Mark Webber', 'url': 'https://genius.com/artists/Mark-webber'}, {'name': 'Nick Banks', 'url': 'https://genius.com/artists/Nick-banks'}, {'name': 'Russell Senior', 'url': 'https://genius.com/artists/Russell-senior'}, {'name': 'Steve Mackey', 'url': 'https://genius.com/artists/Steve-mackey'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Foo-fighters/There-is-nothing-left-to-lose', 'annotations': {'description': '&lt;p&gt;There Is Nothing Left to Lose is the third studio album by American rock band Foo Fighters, released November 2, 1999. The album marks the first appearance of drummer Taylor Hawkins, and is often seen as a departure from the band’s previous work, showcasing a softer, more experimental sound. In a 2006 interview, Dave Grohl states that the album is “totally based on melody” and that it “might be his favorite album that they’ve ever done.”&lt;/p&gt;\n\n&lt;p&gt;There Is Nothing Left to Lose won the Grammy Award for Best Rock Album in 2001, marking the group’s first ever Grammy Award.&lt;/p&gt;\n\n&lt;p&gt;Track 12th ‘Fraternity’ is featured in the Australian/Japanese mini LP limited edition&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c9d7e90fbccf2071f3ce8e6001eb6b8c.600x513x1.jpg" alt="" width="600" height="513" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Adam Kasper', 'url': 'https://genius.com/artists/Adam-kasper'}, {'name': 'Foo Fighters', 'url': 'https://genius.com/artists/Foo-fighters'}], 'writers': [{'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Korn/Follow-the-leader', 'annotations': {'description': '&lt;p&gt;In early 1998, Korn began work on their third album &lt;em&gt;Follow The Leader&lt;/em&gt; in an atmosphere &lt;a href="http://www.blabbermouth.net/news/korn-interviewed-by-u-k-s-scuzz-video/" rel="noopener nofollow"&gt;loaded with&lt;/a&gt; excessive alcohol, drugs and sex. Instead of using producer Ross Robinson as they’d done on their first two albums, the band chose Steve Thompson and Toby Wright and recorded at NRG Recording Studios in LA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Follow The Leader&lt;/em&gt;, featuring cover art by award-winning comic book artist Todd MacFarlane, debuted at #1 in the US on the strength of the band’s already-established following combined with the success of the new album’s lead single “Got The Life”. Despite the track only &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks/3" rel="noopener nofollow"&gt;reaching #15&lt;/a&gt; on the Rock Chart, it became so popular on MTV’s fan-fueled &lt;em&gt;Total Request Live&lt;/em&gt; that the channel eventually &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;forcibly retired it&lt;/a&gt; from the show.&lt;/p&gt;\n\n&lt;p&gt;The album’s second single “Freak On A Leash” surpassed its first single, &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;reaching #10&lt;/a&gt; on the Rock Chart. The track was &lt;a href="https://www.grammy.com/grammys/artists/korn" rel="noopener nofollow"&gt;nominated for a Grammy&lt;/a&gt; for Best Metal Performance that year and its video, featuring more artwork by MacFarlane, won for Best Short Form Music Video.&lt;/p&gt;\n\n&lt;p&gt;Both singles reached the top 30 &lt;a href="http://www.officialcharts.com/artist/355/korn/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and were &lt;a href="http://www.aria.com.au/pages/aria-charts-accreditations-singles-1999.htm" rel="noopener nofollow"&gt;certified gold in Australia&lt;/a&gt;, pushing the band into international stardom and moving them out of clubs and into packed arenas. Frontman Jonathan Davis &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;commented&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;(The album’s success) freaked everyone in the band out. We went through a crazy adjustment period. We used to be able to go out in the crowd and talk to people and suddenly I needed a bodyguard to go anywhere.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the fall of 1998, Korn set out on their first annual Family Values Tour with openers Limp Bizkit, Ice Cube, Rammstein, Incubus and Orgy. It is credited with helping &lt;em&gt;Follow The Leader&lt;/em&gt; reach 5x platinum in the US. As of 2016, the album had &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;sold over 14 million copies&lt;/a&gt; worldwide.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Cheech Marin', 'url': 'https://genius.com/artists/Cheech-marin'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}, {'name': 'Gaye Delorme', 'url': 'https://genius.com/artists/Gaye-delorme'}, {'name': 'Ice Cube', 'url': 'https://genius.com/artists/Ice-cube'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Slimkid3', 'url': 'https://genius.com/artists/Slimkid3'}, {'name': 'Tommy Chong', 'url': 'https://genius.com/artists/Tommy-chong'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ramones/Road-to-ruin', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;&lt;a href="https://genius.com/albums/The-ramones/Road-to-ruin" rel="noopener" data-api_path="/albums/27503"&gt;Road to Ruin&lt;/a&gt;&lt;/em&gt; is the fourth studio album by the American punk rock band &lt;a href="https://genius.com/artists/The-ramones" rel="noopener" data-api_path="/artists/765"&gt;The Ramones&lt;/a&gt;. It was released on September 21, 1978 through Sire Records. It was the first Ramones album to feature new drummer &lt;a href="https://genius.com/artists/Marky-ramone" rel="noopener" data-api_path="/artists/1009408"&gt;Marky Ramone&lt;/a&gt;, replacing founding member &lt;a href="https://genius.com/artists/Tommy-ramone" rel="noopener" data-api_path="/artists/78739"&gt;Tommy Ramone&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ed Stasium', 'url': 'https://genius.com/artists/Ed-stasium'}, {'name': 'Phil Spector', 'url': 'https://genius.com/artists/Phil-spector'}, {'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}], 'writers': [{'name': 'Dee Dee Ramone', 'url': 'https://genius.com/artists/Dee-dee-ramone'}, {'name': 'Jack Nitzsche', 'url': 'https://genius.com/artists/Jack-nitzsche'}, {'name': 'Joey Ramone', 'url': 'https://genius.com/artists/Joey-ramone'}, {'name': 'Johnny Ramone', 'url': 'https://genius.com/artists/Johnny-ramone'}, {'name': 'Marky Ramone', 'url': 'https://genius.com/artists/Marky-ramone'}, {'name': 'Ramones', 'url': 'https://genius.com/artists/Ramones'}, {'name': 'Sonny Bono', 'url': 'https://genius.com/artists/Sonny-bono'}, {'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}], 'labels': [{'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Green-day/Insomniac', 'annotations': {'description': '&lt;p&gt;Characterised by its darker lyricism and heavy, abrasive sound, &lt;em&gt;Insomniac&lt;/em&gt; is the fourth studio album by Green Day. Released on October 10 1995, the album was well received by fans and critics despite failing to match the great commercial success of its 1994 predecessor, &lt;a href="https://genius.com/albums/Green-day/Dookie" rel="noopener" data-api_path="/albums/14245"&gt;&lt;em&gt;Dookie&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Often regarded as Green Day’s darkest work, Armstrong’s lyricism is abundant with themes of frustration (&lt;a href="https://genius.com/Green-day-brat-lyrics" rel="noopener" data-api_path="/songs/337370"&gt;“Brat”&lt;/a&gt;), rejection (&lt;a href="https://genius.com/Green-day-stuck-with-me-lyrics" rel="noopener" data-api_path="/songs/382365"&gt;“Stuck With Me”&lt;/a&gt;), self-doubt (&lt;a href="https://genius.com/Green-day-armatage-shanks-lyrics" rel="noopener" data-api_path="/songs/361820"&gt;“Armatage Shanks”&lt;/a&gt;), panic attacks (&lt;a href="https://genius.com/Green-day-panic-song-lyrics" rel="noopener" data-api_path="/songs/383501"&gt;“Panic Song”&lt;/a&gt;), and explicit drug use (&lt;a href="https://genius.com/Green-day-geek-stink-breath-lyrics" rel="noopener" data-api_path="/songs/50647"&gt;“Geek Stink Breath”&lt;/a&gt;). A review by &lt;a href="http://rol.st/2cPzJkh" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; added:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The core message of &lt;em&gt;Insomniac&lt;/em&gt; — like all great punk records — is that redemption is possible only through cold-eyed realism, not trendy nihilism or bleak despair.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/bjaofficial/status/34349567428268032"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Wheatus/Wheatus', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Wheatus&lt;/em&gt; is the self-titled debut album of the band Wheatus, released mid-2000. Including the hit &lt;em&gt;Teenage Dirtbag&lt;/em&gt; which reached no. 2 on the UK charts, &lt;em&gt;Wheatus&lt;/em&gt; is possibly the band’s most popular album ever released.&lt;/p&gt;', 'producers': [{'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'Philip A. Jimenez', 'url': 'https://genius.com/artists/Philip-a-jimenez'}, {'name': 'Wheatus', 'url': 'https://genius.com/artists/Wheatus'}], 'writers': [{'name': 'Andy Bell', 'url': 'https://genius.com/artists/Andy-bell'}, {'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'David Thoener', 'url': 'https://genius.com/artists/David-thoener'}, {'name': 'Rich Liegey', 'url': 'https://genius.com/artists/Rich-liegey'}, {'name': 'Vince Clarke', 'url': 'https://genius.com/artists/Vince-clarke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt; is the debut studio album by Icelandic alternative folk band &lt;a href="https://genius.com/artists/Of-monsters-and-men" rel="noopener" data-api_path="/artists/18453"&gt;Of Monsters and Men&lt;/a&gt;, it was first released on Iceland through Record Records. By April 2012, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal-reissue" rel="noopener" data-api_path="/albums/15605"&gt;the album was reissued&lt;/a&gt; worldwide by Universal Music Group, with a new cover art, remastered versions of the songs and a different tracklist.&lt;/p&gt;\n\n&lt;p&gt;Each of the 14 tracks from both versions of the album has a lyric video of its own. Except for the “Mountain Sound” music video, all the music and lyric videos were produced and directed by Canadian duo &lt;a href="https://wwm.productions/" rel="noopener nofollow"&gt;WeWereMonkeys&lt;/a&gt;. The videos of the record were inspired by Nordic Mythologhy, WeWereMonkeys\' team even traveled to Iceland to study the country’s landscapes. The music video for “Little Talks” was &lt;a href="https://en.wikipedia.org/wiki/2012_MTV_Video_Music_Awards#Best_Art_Direction" rel="noopener nofollow"&gt;nominated at the 2012 MTV Video Music Awards&lt;/a&gt; for the “Best Art Direction” prize.&lt;/p&gt;\n\n&lt;p&gt;Three singles were released from the record: “Little Talks”, “Mountain Sound” (track absent from the original release) and “King And Lionheart”. “Little Talks”‘ huge success was the reason why the band signed with Universal: the single had sold a million copies in the US and &lt;a href="https://www.billboard.com/music/of-monsters-and-men/chart-history/HSI/song/714225" rel="noopener nofollow"&gt;peaked at #20&lt;/a&gt; on the Hot 100. In the UK and Ireland, the track “Dirty Paws” was released as the second single and “Six Weeks” as a promotional one.&lt;/p&gt;\n\n&lt;p&gt;The reissue of &lt;em&gt;My Head Is An Animal&lt;/em&gt; &lt;a href="https://www.billboard.com/charts/billboard-200/2012-04-21" rel="noopener nofollow"&gt;debuted and peaked at #6&lt;/a&gt; on the Billboard 200, being the best chart performance for an Icelandic musical artist in US history until then. In January 2014 the album achieved platinum certification in the US, and by 2015 it had sold 1.1 million copies in the country.&lt;/p&gt;', 'producers': [{'name': 'Aron Þór Arnarsson', 'url': 'https://genius.com/artists/Aron-or-arnarsson'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}, {'name': 'Of Monsters and Men', 'url': 'https://genius.com/artists/Of-monsters-and-men'}], 'writers': [{'name': 'Arnar Rósenkranz Hilmarsson', 'url': 'https://genius.com/artists/Arnar-rosenkranz-hilmarsson'}, {'name': 'Brynjar Leifsson', 'url': 'https://genius.com/artists/Brynjar-leifsson'}, {'name': 'Nanna Bryndís Hilmarsdóttir', 'url': 'https://genius.com/artists/Nanna-bryndis-hilmarsdottir'}, {'name': 'Ragnar Þórhallsson', 'url': 'https://genius.com/artists/Ragnar-orhallsson'}, {'name': 'Stephen Mann', 'url': 'https://genius.com/artists/Stephen-mann'}], 'labels': [{'name': 'Universal Records', 'url': 'https://genius.com/artists/Universal-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-pussycat-dolls/Pcd', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;PCD&lt;/em&gt; is the debut studio album by The Pussycat Dolls. The pop &amp;amp; R&amp;amp;B record discusses themes such as sex, feminism, and romance. The album was a massive commercial success, debuting at number five on the Billboard 200 and reached the top ten &lt;a href="https://en.wikipedia.org/wiki/PCD_%28album" rel="noopener nofollow"&gt;in Australia, Germany, and the United Kingdom.&lt;/a&gt; Six singles were released for the album, including hits such as “Don’t Cha”, “Stickwitu”, “Beep” and “Buttons”.&lt;br&gt;\nThe record has been certified double platinum by the RIAA and has sold nine million copies worldwide, becoming their best-selling album to date. It’s also the &lt;a href="https://en.wikipedia.org/wiki/List_of_best-selling_girl_groups#Worldwide_2" rel="noopener nofollow"&gt;eighth best-selling girl group album worldwide.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Avant', 'url': 'https://genius.com/artists/Avant'}, {'name': 'Big Tank', 'url': 'https://genius.com/artists/Big-tank'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'The Droyds', 'url': 'https://genius.com/artists/The-droyds'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Kwame (Producer)', 'url': 'https://genius.com/artists/Kwame-producer'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'Rich Harrison', 'url': 'https://genius.com/artists/Rich-harrison'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Sean Garrett', 'url': 'https://genius.com/artists/Sean-garrett'}, {'name': 'Siobhan Fahey', 'url': 'https://genius.com/artists/Siobhan-fahey'}, {'name': 'Steven Gallifrent', 'url': 'https://genius.com/artists/Steven-gallifrent'}, {'name': 'Tal Herzberg', 'url': 'https://genius.com/artists/Tal-herzberg'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Anthony Newley', 'url': 'https://genius.com/artists/Anthony-newley'}, {'name': 'Avant', 'url': 'https://genius.com/artists/Avant'}, {'name': 'Bob Crewe', 'url': 'https://genius.com/artists/Bob-crewe'}, {'name': 'Busta Rhymes', 'url': 'https://genius.com/artists/Busta-rhymes'}, {'name': 'Carl Sigman', 'url': 'https://genius.com/artists/Carl-sigman'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'Clare Kenny', 'url': 'https://genius.com/artists/Clare-kenny'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Eddie Holland', 'url': 'https://genius.com/artists/Eddie-holland'}, {'name': 'Franne Golde', 'url': 'https://genius.com/artists/Franne-golde'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Harold Clayton', 'url': 'https://genius.com/artists/Harold-clayton'}, {'name': 'Harold Faltermeyer', 'url': 'https://genius.com/artists/Harold-faltermeyer'}, {'name': 'Herbie Mann', 'url': 'https://genius.com/artists/Herbie-mann'}, {'name': 'Jason Perry', 'url': 'https://genius.com/artists/Jason-perry'}, {'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Kenny Nolan', 'url': 'https://genius.com/artists/Kenny-nolan'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Kwame (Producer)', 'url': 'https://genius.com/artists/Kwame-producer'}, {'name': 'Lamont Dozier', 'url': 'https://genius.com/artists/Lamont-dozier'}, {'name': 'Leslie Bricusse', 'url': 'https://genius.com/artists/Leslie-bricusse'}, {'name': 'Nicole Scherzinger', 'url': 'https://genius.com/artists/Nicole-scherzinger'}, {'name': 'Norman Gimbel', 'url': 'https://genius.com/artists/Norman-gimbel'}, {'name': 'Pablo Beltrán Ruiz', 'url': 'https://genius.com/artists/Pablo-beltran-ruiz'}, {'name': 'Pete Bellotte', 'url': 'https://genius.com/artists/Pete-bellotte'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'Rich Harrison', 'url': 'https://genius.com/artists/Rich-harrison'}, {'name': 'Robert Palmer', 'url': 'https://genius.com/artists/Robert-palmer'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Sean Garrett', 'url': 'https://genius.com/artists/Sean-garrett'}, {'name': 'Sigidi', 'url': 'https://genius.com/artists/Sigidi'}, {'name': 'Siobhan Fahey', 'url': 'https://genius.com/artists/Siobhan-fahey'}, {'name': 'Sir Mix-a-Lot', 'url': 'https://genius.com/artists/Sir-mix-a-lot'}, {'name': 'Six2', 'url': 'https://genius.com/artists/Six2'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Steven Gallifent', 'url': 'https://genius.com/artists/Steven-gallifent'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Will Blanchard', 'url': 'https://genius.com/artists/Will-blanchard'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Olivia-rodrigo/Sour', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;SOUR&lt;/em&gt; is the debut studio album by Olivia Rodrigo, released through &lt;a href="https://genius.com/artists/Geffen-records" rel="noopener" data-api_path="/artists/32167"&gt;Geffen Records&lt;/a&gt; and &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. Initially &lt;a href="https://i-d.vice.com/en_uk/article/pkdmz8/olivia-rodrigo-interview-about-drivers-license-taylor-swift-and-disney-hsmtmts" rel="noopener nofollow"&gt;envisioned&lt;/a&gt; as an EP, &lt;em&gt;SOUR&lt;/em&gt; was later expanded to a full-length album due to the breakout success of her debut single, &lt;a href="https://genius.com/Olivia-rodrigo-drivers-license-lyrics" rel="noopener" data-api_path="/songs/5795230"&gt;“drivers license,”&lt;/a&gt; released on January 8, 2021.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://variety.com/2021/music/news/olivia-rodrigo-new-single-deja-vu-1234942090/" rel="noopener nofollow"&gt;announcement&lt;/a&gt; of the album on April 1, 2021 also coincided with the release of her second single, &lt;a href="https://genius.com/Olivia-rodrigo-deja-vu-lyrics" rel="noopener" data-api_path="/songs/6649389"&gt;“deja vu.”&lt;/a&gt; On April 13, 2021, Olivia revealed the album’s title, cover art, and tracklist through an &lt;a href="https://www.instagram.com/p/CNnSB-7L80g/" rel="noopener nofollow"&gt;Instagram post.&lt;/a&gt; The third single, &lt;a href="https://genius.com/Olivia-rodrigo-good-4-u-lyrics" rel="noopener" data-api_path="/songs/6702232"&gt;“good 4 u,”&lt;/a&gt; was released on May 14, 2021, a week before the album’s full release.&lt;/p&gt;', 'producers': [{'name': 'Alexander 23', 'url': 'https://genius.com/artists/Alexander-23'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Jam City', 'url': 'https://genius.com/artists/Jam-city'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}], 'writers': [{'name': 'Casey Smith', 'url': 'https://genius.com/artists/Casey-smith'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Hayley Williams', 'url': 'https://genius.com/artists/Hayley-williams'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Josh Farro', 'url': 'https://genius.com/artists/Josh-farro'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}, {'name': 'St. Vincent', 'url': 'https://genius.com/artists/St-vincent'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Shakira/Laundry-service', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Laundry Service&lt;/em&gt; is the fifth studio album by Colombian singer and songwriter Shakira, released on November 13, 2001 via Epic Records. The album marks her English language album debut. Shakira barely knew English when she started writing the album, having to &lt;a href="http://faze.ca/shakira-cover-story-cultural-fusion/" rel="noopener nofollow"&gt;refer&lt;/a&gt; to rhyming dictionaries, English poetry, and authors like Leonard Cohen and Walt Whitman to help express her ideas and her feelings.&lt;/p&gt;\n\n&lt;p&gt;Shakira explained in an interview for the album the inspiration behind its title to Billboard in 2001:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The reason I named it &lt;em&gt;Laundry Service&lt;/em&gt; is because I’ve spent the year dedicated to my two great passions: love and music. Those two elements are like soap and water. It was a deep cleansing, almost like being reborn.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Brendan Buckley', 'url': 'https://genius.com/artists/Brendan-buckley'}, {'name': 'George Noriega', 'url': 'https://genius.com/artists/George-noriega'}, {'name': 'Javier Garza', 'url': 'https://genius.com/artists/Javier-garza'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Luis Fernando Ochoa', 'url': 'https://genius.com/artists/Luis-fernando-ochoa'}, {'name': 'Pablo Flores', 'url': 'https://genius.com/artists/Pablo-flores'}, {'name': 'Shakira', 'url': 'https://genius.com/artists/Shakira'}, {'name': 'Tim Mitchell', 'url': 'https://genius.com/artists/Tim-mitchell'}], 'writers': [{'name': 'Brendan Buckley', 'url': 'https://genius.com/artists/Brendan-buckley'}, {'name': 'George Noriega', 'url': 'https://genius.com/artists/George-noriega'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Gloria Estefan', 'url': 'https://genius.com/artists/Gloria-estefan'}, {'name': 'Javier Garza', 'url': 'https://genius.com/artists/Javier-garza'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Luis Fernando Ochoa', 'url': 'https://genius.com/artists/Luis-fernando-ochoa'}, {'name': 'Pablo Flores', 'url': 'https://genius.com/artists/Pablo-flores'}, {'name': 'Shakira', 'url': 'https://genius.com/artists/Shakira'}, {'name': 'Tim Mitchell', 'url': 'https://genius.com/artists/Tim-mitchell'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Carrie-underwood/Some-hearts', 'annotations': {'description': '&lt;p&gt;“Some Hearts” is the debut studio album by American country singer Carrie Underwood, released in the United States on November 15, 2005. In 2005, the same year of the album’s release, Underwood became the winner of the 4th season of American Idol, beating out fellow contestant, and runner up, &lt;a href="https://genius.com/artists/Bo-bice" rel="noopener" data-api_path="/artists/152332"&gt;Bo Bice&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During the first week of its release, the album &lt;a href="http://www.billboard.com/articles/news/60566/madonna-dances-straight-to-no-1" rel="noopener nofollow"&gt;debuted at number two&lt;/a&gt; on the Billboard 200, selling 315,000 copies in its first week of release. The album spent a total of 137 weeks on the Billboard 200 chart.&lt;/p&gt;\n\n&lt;p&gt;By October 24, 2016, the album, as reported by &lt;a href="http://tasteofcountry.com/carrie-underwood-some-hearts-biggest-selling-country-album-riaa/" rel="noopener nofollow"&gt;&lt;em&gt;TasteofCountry&lt;/em&gt;&lt;/a&gt;,  reached 8x Platinum (which equals 8 million copies) in sales, making it Underwood’s best selling album to date.&lt;/p&gt;', 'producers': [{'name': 'Dann Huff', 'url': 'https://genius.com/artists/Dann-huff'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Mark Bright', 'url': 'https://genius.com/artists/Mark-bright'}], 'writers': [{'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Ashley Gorley', 'url': 'https://genius.com/artists/Ashley-gorley'}, {'name': 'Brett James', 'url': 'https://genius.com/artists/Brett-james'}, {'name': 'Carrie Underwood', 'url': 'https://genius.com/artists/Carrie-underwood'}, {'name': 'Chris Tompkins', 'url': 'https://genius.com/artists/Chris-tompkins'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Gordie Sampson', 'url': 'https://genius.com/artists/Gordie-sampson'}, {'name': 'Greg Becker', 'url': 'https://genius.com/artists/Greg-becker'}, {'name': 'Hillary Lindsey', 'url': 'https://genius.com/artists/Hillary-lindsey'}, {'name': 'Jimmy Olander', 'url': 'https://genius.com/artists/Jimmy-olander'}, {'name': 'Josh Kear', 'url': 'https://genius.com/artists/Josh-kear'}, {'name': 'Kelley Lovelace', 'url': 'https://genius.com/artists/Kelley-lovelace'}, {'name': 'Marv Green', 'url': 'https://genius.com/artists/Marv-green'}, {'name': 'Melissa Peirce', 'url': 'https://genius.com/artists/Melissa-peirce'}, {'name': 'Morgane Hayes', 'url': 'https://genius.com/artists/Morgane-hayes'}, {'name': 'Neil Thrasher', 'url': 'https://genius.com/artists/Neil-thrasher'}, {'name': 'Pelle Nylén', 'url': 'https://genius.com/artists/Pelle-nylen'}, {'name': 'Rivers Rutherford', 'url': 'https://genius.com/artists/Rivers-rutherford'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Steve McEwan', 'url': 'https://genius.com/artists/Steve-mcewan'}, {'name': 'Steve Robson', 'url': 'https://genius.com/artists/Steve-robson'}, {'name': 'Trey Bruce', 'url': 'https://genius.com/artists/Trey-bruce'}, {'name': 'Troy Verges', 'url': 'https://genius.com/artists/Troy-verges'}, {'name': 'Wayne Hector', 'url': 'https://genius.com/artists/Wayne-hector'}, {'name': 'Wendell Mobley', 'url': 'https://genius.com/artists/Wendell-mobley'}], 'labels': [{'name': 'Arista Nashville', 'url': 'https://genius.com/artists/Arista-nashville'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Jennifer-paige/Flowers-the-hits-collection', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Flowers – The Hits Collection&lt;/em&gt; is the first and only greatest hits album from Jennifer Paige, released on May 8, 2003 via Hollywood Records.&lt;/p&gt;\n\n&lt;p&gt;The collection features songs from her 1998 &lt;a href="https://genius.com/albums/Jennifer-paige/Jennifer-paige" rel="noopener" data-api_path="/albums/193359"&gt;self-titled&lt;/a&gt; album and 2001’s &lt;a href="https://genius.com/albums/Jennifer-paige/Positively-somewhere" rel="noopener" data-api_path="/albums/280106"&gt;&lt;em&gt;Positively Somewhere&lt;/em&gt;&lt;/a&gt;. Also featured is a &lt;a href="https://genius.com/Jennifer-paige-saturday-girl-demo-version-lyrics" rel="noopener" data-api_path="/songs/5633959"&gt;demo version&lt;/a&gt; of &lt;a href="https://genius.com/Jennifer-paige-saturday-girl-lyrics" rel="noopener"&gt;“Saturday Girl”&lt;/a&gt; and a &lt;a href="https://genius.com/Jennifer-paige-crush-david-morales-radio-alt-intro-lyrics" rel="noopener" data-api_path="/songs/5633960"&gt;remix of “Crush”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Andy Goldmark', 'url': 'https://genius.com/artists/Andy-goldmark'}, {'name': 'Chance Scoggins', 'url': 'https://genius.com/artists/Chance-scoggins'}, {'name': 'Damian LeGassick', 'url': 'https://genius.com/artists/Damian-legassick'}, {'name': 'J.D. Martin', 'url': 'https://genius.com/artists/Jd-martin'}, {'name': 'Jimmy Bralower', 'url': 'https://genius.com/artists/Jimmy-bralower'}, {'name': 'Kim Bullard', 'url': 'https://genius.com/artists/Kim-bullard'}, {'name': 'Matt Bronleewe', 'url': 'https://genius.com/artists/Matt-bronleewe'}, {'name': 'Mick Guzauski', 'url': 'https://genius.com/artists/Mick-guzauski'}, {'name': 'Oliver Leiber', 'url': 'https://genius.com/artists/Oliver-leiber'}, {'name': 'Wayne Kirkpatrick', 'url': 'https://genius.com/artists/Wayne-kirkpatrick'}], 'writers': [{'name': 'Andy Goldmark', 'url': 'https://genius.com/artists/Andy-goldmark'}, {'name': 'Arnold Roman', 'url': 'https://genius.com/artists/Arnold-roman'}, {'name': 'Berny Cosgrove', 'url': 'https://genius.com/artists/Berny-cosgrove'}, {'name': 'Chance Scoggins', 'url': 'https://genius.com/artists/Chance-scoggins'}, {'name': 'Christopher Ward', 'url': 'https://genius.com/artists/Christopher-ward'}, {'name': 'Ian Matthews', 'url': 'https://genius.com/artists/Ian-matthews'}, {'name': 'J.D. Martin', 'url': 'https://genius.com/artists/Jd-martin'}, {'name': 'Jeffrey Bullard', 'url': 'https://genius.com/artists/Jeffrey-bullard'}, {'name': 'Jennifer Paige', 'url': 'https://genius.com/artists/Jennifer-paige'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Kevin Clark', 'url': 'https://genius.com/artists/Kevin-clark'}, {'name': 'Lars Halvor Jensen', 'url': 'https://genius.com/artists/Lars-halvor-jensen'}, {'name': 'Mark Mueller', 'url': 'https://genius.com/artists/Mark-mueller'}, {'name': 'Martin Michael Larsson', 'url': 'https://genius.com/artists/Martin-michael-larsson'}, {'name': 'Matt Bronleewe', 'url': 'https://genius.com/artists/Matt-bronleewe'}, {'name': 'Matt Stanfield', 'url': 'https://genius.com/artists/Matt-stanfield'}, {'name': 'Plumb', 'url': 'https://genius.com/artists/Plumb'}, {'name': 'Robert Beaty', 'url': 'https://genius.com/artists/Robert-beaty'}, {'name': 'Russ DeSalvo', 'url': 'https://genius.com/artists/Russ-desalvo'}, {'name': 'Steve Booker', 'url': 'https://genius.com/artists/Steve-booker'}, {'name': 'Trina Harmon', 'url': 'https://genius.com/artists/Trina-harmon'}, {'name': 'Wayne Kirkpatrick', 'url': 'https://genius.com/artists/Wayne-kirkpatrick'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kiss/Lick-it-up', 'annotations': {'description': '&lt;p&gt;The first album to feature KISS without their distinctive makeup, &lt;em&gt;Lick It Up&lt;/em&gt; is most notable for its &lt;a href="https://genius.com/Kiss-lick-it-up-lyrics" rel="noopener" data-api_path="/songs/326629"&gt;title track&lt;/a&gt;, which helped the band to return to prominence following several disappointing albums. It was also the only album to officially credit &lt;a href="https://genius.com/artists/Vinnie-vincent" rel="noopener" data-api_path="/artists/380185"&gt;Vinnie Vincent&lt;/a&gt; as lead guitarist; he appears as co-writer on nearly every song on the LP.&lt;/p&gt;', 'producers': [{'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Michael James Jackson', 'url': 'https://genius.com/artists/Michael-james-jackson'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'writers': [{'name': 'Eric Carr', 'url': 'https://genius.com/artists/Eric-carr'}, {'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}, {'name': 'Vinnie Vincent', 'url': 'https://genius.com/artists/Vinnie-vincent'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Jason-derulo/Everything-is-4', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Everything Is 4&lt;/em&gt; is the fourth studio album by American singer Jason Derulo. The album was released in the US on June 2, 2015 by Beluga Heights Records and Warner Bros. Records. The lead single “Want to Want Me”, which reached number one in six countries, was released on March 9, 2015. The album is a follow-up to Derulo’s previous studio album, &lt;em&gt;Tattoos&lt;/em&gt; (2013) in the international market and &lt;em&gt;Talk Dirty&lt;/em&gt; (2014) in the United States.&lt;/p&gt;', 'producers': [{'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Cook Classics', 'url': 'https://genius.com/artists/Cook-classics'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Hitmaka', 'url': 'https://genius.com/artists/Hitmaka'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'MAG', 'url': 'https://genius.com/artists/Mag'}, {'name': 'Matoma', 'url': 'https://genius.com/artists/Matoma'}, {'name': 'The MeKanics', 'url': 'https://genius.com/artists/The-mekanics'}, {'name': 'Mr. Collipark', 'url': 'https://genius.com/artists/Mr-collipark'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'OAK', 'url': 'https://genius.com/artists/Oak'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Wallpaper.', 'url': 'https://genius.com/artists/Wallpaper'}], 'writers': [{'name': 'A1', 'url': 'https://genius.com/artists/A1'}, {'name': 'Arin Ray', 'url': 'https://genius.com/artists/Arin-ray'}, {'name': 'Ben Shapiro', 'url': 'https://genius.com/artists/Ben-shapiro'}, {'name': 'BJ Mekk', 'url': 'https://genius.com/artists/Bj-mekk'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'David Ritz', 'url': 'https://genius.com/artists/David-ritz'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Foreign Teck', 'url': 'https://genius.com/artists/Foreign-teck'}, {'name': 'Hitmaka', 'url': 'https://genius.com/artists/Hitmaka'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'James Roston', 'url': 'https://genius.com/artists/James-roston'}, {'name': 'Jason Derulo', 'url': 'https://genius.com/artists/Jason-derulo'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'Jordan Hollywood', 'url': 'https://genius.com/artists/Jordan-hollywood'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Lindy Robbins', 'url': 'https://genius.com/artists/Lindy-robbins'}, {'name': 'Lyrica Anderson', 'url': 'https://genius.com/artists/Lyrica-anderson'}, {'name': 'Marcella Araica', 'url': 'https://genius.com/artists/Marcella-araica'}, {'name': 'MarcLo', 'url': 'https://genius.com/artists/Marclo'}, {'name': 'Marvin Gaye', 'url': 'https://genius.com/artists/Marvin-gaye'}, {'name': 'Meghan Trainor', 'url': 'https://genius.com/artists/Meghan-trainor'}, {'name': 'Mitch Allan', 'url': 'https://genius.com/artists/Mitch-allan'}, {'name': 'OAK', 'url': 'https://genius.com/artists/Oak'}, {'name': 'Odell Brown', 'url': 'https://genius.com/artists/Odell-brown'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Ricky Reed', 'url': 'https://genius.com/artists/Ricky-reed'}, {'name': 'Ross Golan', 'url': 'https://genius.com/artists/Ross-golan'}, {'name': 'Sam Martin', 'url': 'https://genius.com/artists/Sam-martin'}, {'name': 'Sean Douglas', 'url': 'https://genius.com/artists/Sean-douglas'}, {'name': 'Shy Carter', 'url': 'https://genius.com/artists/Shy-carter'}, {'name': 'Sonny Alves', 'url': 'https://genius.com/artists/Sonny-alves'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Tayla Parx', 'url': 'https://genius.com/artists/Tayla-parx'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Mr-big/Bump-ahead', 'annotations': {'description': '', 'producers': [{'name': 'Kevin Elson', 'url': 'https://genius.com/artists/Kevin-elson'}], 'writers': [{'name': 'Andy Fraser', 'url': 'https://genius.com/artists/Andy-fraser'}, {'name': 'Billy Sheehan', 'url': 'https://genius.com/artists/Billy-sheehan'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'Eric Martin', 'url': 'https://genius.com/artists/Eric-martin'}, {'name': 'Pat Torpey', 'url': 'https://genius.com/artists/Pat-torpey'}, {'name': 'Paul Gilbert', 'url': 'https://genius.com/artists/Paul-gilbert'}, {'name': 'Paul Kossoff', 'url': 'https://genius.com/artists/Paul-kossoff'}, {'name': 'Paul Rodgers', 'url': 'https://genius.com/artists/Paul-rodgers'}, {'name': 'Simon Kirke', 'url': 'https://genius.com/artists/Simon-kirke'}, {'name': 'Tony Fanucchi', 'url': 'https://genius.com/artists/Tony-fanucchi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-prodigy/Smack-my-bitch-up', 'annotations': {'description': '', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Ced-Gee', 'url': 'https://genius.com/artists/Ced-gee'}, {'name': 'DJ Moe Love', 'url': 'https://genius.com/artists/Dj-moe-love'}, {'name': 'Kool Keith', 'url': 'https://genius.com/artists/Kool-keith'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'TR Love', 'url': 'https://genius.com/artists/Tr-love'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/Stadium-arcadium', 'annotations': {'description': '&lt;p&gt;The Red Hot Chili Peppers\' ninth studio album, &lt;em&gt;Stadium Arcadium&lt;/em&gt;, was originally conceived as a trilogy before being condensed into a double album (consisting in &lt;em&gt;Jupiter&lt;/em&gt; and &lt;em&gt;Mars&lt;/em&gt;). It was also significant for being the band’s &lt;a href="https://www.billboard.com/music/Red-Hot-Chili-Peppers/chart-history/TLP" rel="noopener nofollow"&gt;first number one album in the U.S.&lt;/a&gt;, as well as the last to be recorded with guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt;, as he left to focus on his solo career, being replaced by his friend frequent collaborator &lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt;, and then re-joined the group again at the end of 2019.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/08270bc38bd66503747458f3a76cad41.554x280x1.jpg" alt="" width="554" height="280" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Notably, &lt;em&gt;Stadium Arcadium&lt;/em&gt; integrates several musical styles from throughout the band’s career, including their signature funk sound. For Frusciante, this stylistic change was mainly influenced by progressive rock group &lt;a href="https://genius.com/artists/The-mars-volta" rel="noopener" data-api_path="/artists/6427"&gt;The Mars Volta&lt;/a&gt;, and generated him greater recognition from critics. As well as this, the writing process generated a much more collaborative relationship between bassist Flea and Frusciante.&lt;/p&gt;\n\n&lt;p&gt;On the album’s &lt;a href="http://www.rollingstone.com/music/features/tattooed-love-boys-20060615?page=8" rel="noopener nofollow"&gt;musical and lyrical themes&lt;/a&gt;, Kiedis spoke of the band’s various relationships at the time of its creation:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Love and women, pregnancies and marriages, relationship struggles – those are real and profound influences on this record. And it’s great because it wasn’t just me writing about the fact that I’m in love. It was everybody in the band. We were brimming with energy based on falling in love.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Five singles were released from the 5x Grammy Award-winning album: &lt;a href="https://genius.com/Red-hot-chili-peppers-dani-california-lyrics" rel="noopener" data-api_path="/songs/55581"&gt;“Dani California,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-tell-me-baby-lyrics" rel="noopener" data-api_path="/songs/198785"&gt;“Tell Me Baby,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-snow-hey-oh-lyrics" rel="noopener" data-api_path="/songs/54294"&gt;“Snow (Hey Oh),”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-desecration-smile-lyrics" rel="noopener" data-api_path="/songs/242863"&gt;“Desecration Smile”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-hump-de-bump-lyrics" rel="noopener" data-api_path="/songs/57199"&gt;“Hump de Bump”&lt;/a&gt;. Out-takes from the album were also released as part of a B-Sides collection, named &lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Venus" rel="noopener" data-api_path="/albums/33561"&gt;&lt;em&gt;Venus&lt;/em&gt;&lt;/a&gt; – 37 of the 38 songs recorded for the album have been released to date.&lt;/p&gt;\n\n&lt;p&gt;According to frontman Anthony Kiedis, the title reflected the album’s increased “variety and verve compared to its predecessors,” as each member of the group “played their part and expressed their creativity to the max.”&lt;/p&gt;\n\n&lt;p&gt;Graphic designer Storm Thorgerson was &lt;a href="https://www.theguardian.com/music/gallery/2009/may/20/storm-thorgerson-album-artwork" rel="noopener nofollow"&gt;originally invited&lt;/a&gt; to create the cover artwork, providing &lt;a href="http://www.feelnumb.com/2016/05/09/red-hot-chili-peppers-rejected-storm-thorgensen-cover-artwork-stadium-arcadium/" rel="noopener nofollow"&gt;three variants which were ultimately rejected&lt;/a&gt;. He later criticized the band’s final choice of artwork as being derivative and a poor representation of their colorful and endlessly inventive music.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}, {'name': 'John Frusciante', 'url': 'https://genius.com/artists/John-frusciante'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/U2/The-best-of-1980-1990', 'annotations': {'description': '', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'St. Francis Xavier', 'url': 'https://genius.com/artists/St-francis-xavier'}, {'name': 'Tony Visconti', 'url': 'https://genius.com/artists/Tony-visconti'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Alex North', 'url': 'https://genius.com/artists/Alex-north'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Buzz Cason', 'url': 'https://genius.com/artists/Buzz-cason'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Hy Zaret', 'url': 'https://genius.com/artists/Hy-zaret'}, {'name': 'Ivan Král', 'url': 'https://genius.com/artists/Ivan-kral'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Mac Gayden', 'url': 'https://genius.com/artists/Mac-gayden'}, {'name': 'Patti Smith', 'url': 'https://genius.com/artists/Patti-smith'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Staind/Break-the-cycle', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Break the Cycle&lt;/em&gt; is the third studio album of the American rock band Staind, released through Elektra Entertainment and Flip Records in 2001. It is Staind’s most successful album to date and was the album that broke them into the mainstream. It was a huge international success for the band, as it spent 3 weeks at number 1 position in the U.S. album charts and many weeks in the top 10 album charts of The Billboard 200, the UK and New Zealand. It sold at least 4 million copies in the US.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}, {'name': 'Johnny April', 'url': 'https://genius.com/artists/Johnny-april'}, {'name': 'Jon Wysocki', 'url': 'https://genius.com/artists/Jon-wysocki'}, {'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bigbang/Special-edition-still-alive', 'annotations': {'description': '', 'producers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}], 'writers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}, {'name': 'T.O.P', 'url': 'https://genius.com/artists/Top'}], 'labels': [{'name': 'YG Entertainment (YG엔터테인먼트)', 'url': 'https://genius.com/artists/Yg-entertainment-yg'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/New-kids-on-the-block/Hangin-tough', 'annotations': {'description': '&lt;p&gt;The second album by New Kids On The Block. This was their first successful album and it became a worldwide hit.&lt;/p&gt;', 'producers': [{'name': 'Maurice Starr', 'url': 'https://genius.com/artists/Maurice-starr'}], 'writers': [{'name': 'Donnie Wahlberg', 'url': 'https://genius.com/artists/Donnie-wahlberg'}, {'name': 'Eban Kelly', 'url': 'https://genius.com/artists/Eban-kelly'}, {'name': 'Jimmy Randolph', 'url': 'https://genius.com/artists/Jimmy-randolph'}, {'name': 'Jordan Knight', 'url': 'https://genius.com/artists/Jordan-knight'}, {'name': 'Maurice Starr', 'url': 'https://genius.com/artists/Maurice-starr'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Onerepublic/Native', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Native&lt;/em&gt; is the third studio album by American pop-rock band OneRepublic, released via Interscope. The album was originally intended to be released late 2012, but was pushed back to the following year since it was not finished. &lt;em&gt;Native&lt;/em&gt; was released March 22, 2013. The redux of the album was released January 1, 2014 and is generally accepted as the definitive version of the album.&lt;/p&gt;\n\n&lt;p&gt;Sonically, the album takes influences from genres such as gospel, blues, folk, electronic, and of course, pop and rock. These influences significantly assist the blissfully optimistic and anti-materialistic themes seen throughout the album.&lt;/p&gt;\n\n&lt;p&gt;The first single off of &lt;em&gt;Native&lt;/em&gt; was the gospel influenced “&lt;a href="https://genius.com/Onerepublic-feel-again-lyrics" rel="noopener" data-api_path="/songs/235015"&gt;Feel Again&lt;/a&gt;” which peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/755912" rel="noopener nofollow"&gt;#36&lt;/a&gt; on the Billboard Hot 100. The song was labeled as a ‘promotional single’ after the album was pushed back. The official lead single was “&lt;a href="https://genius.com/Onerepublic-if-i-lose-myself-lyrics" rel="noopener" data-api_path="/songs/243082"&gt;If I Lose Myself&lt;/a&gt;” which peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/768908" rel="noopener nofollow"&gt;#74&lt;/a&gt;. The next single, “&lt;a href="https://genius.com/Onerepublic-counting-stars-lyrics" rel="noopener" data-api_path="/songs/145495"&gt;Counting Stars&lt;/a&gt;”, would prove to be the most popular song on the album charting at #1 around the world and &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/777781" rel="noopener nofollow"&gt;#2&lt;/a&gt; on the Billboard Hot 100. By 2018, the song had been certified diamond in the U.S alone. The fifth single “&lt;a href="https://genius.com/Onerepublic-something-i-need-lyrics" rel="noopener" data-api_path="/songs/158328"&gt;Something I Need&lt;/a&gt;” was only moderately successful on the charts for the band, but was a &lt;a href="https://www.officialcharts.com/search/singles/something-i-need/" rel="noopener nofollow"&gt;#1&lt;/a&gt; hit in the UK for X-Factor winner, Ben Haenow. The fifth single “&lt;a href="https://genius.com/Onerepublic-love-runs-out-lyrics%22%20%28which%20was%20included%20on%20the%20re-release%20/%20redux%20of%20the%20album" rel="noopener"&gt;Love Runs Out&lt;/a&gt; was another huge hit for the band. It peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/840607" rel="noopener nofollow"&gt;#15&lt;/a&gt; on the Billboard Hot 100 and &lt;a href="https://www.officialcharts.com/search/singles/love-runs-out/" rel="noopener nofollow"&gt;#3&lt;/a&gt; in the UK. The final single from &lt;em&gt;Native&lt;/em&gt; was the awe-inspiring ”&lt;a href="https://genius.com/Onerepublic-i-lived-lyrics" rel="noopener" data-api_path="/songs/147690"&gt;I Lived&lt;/a&gt;“ which was &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/777782" rel="noopener nofollow"&gt;very successful&lt;/a&gt; as well.&lt;/p&gt;\n\n&lt;p&gt;The album received positive reviews from critics and is considered by many to be OneRepublic’s greatest body of work. It is also the band’s highest selling album. As by August 2015, it had sold over 4.5 million albums worldwide.&lt;/p&gt;\n\n&lt;p&gt;However, the album was definitely a slow burner in terms of commercial success. It wasn’t until the album’s third single “&lt;a href="https://genius.com/Onerepublic-counting-stars-lyrics" rel="noopener" data-api_path="/songs/145495"&gt;Counting Stars&lt;/a&gt;” that the album really blew up in popularity. Ryan Tedder had this to say about the subject:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“The goal was, ‘lets make the biggest and best album we’ve ever made.’ From day one that was the goal. I thought we had swung and missed for 9 months. The fact that it did actually end up exploding was a surprise. The fact that it worked wasn’t a surprise, but the fact that we had a 9 month false start was the surprising thing.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Alesso', 'url': 'https://genius.com/artists/Alesso'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Cassius', 'url': 'https://genius.com/artists/Cassius'}, {'name': 'Drew Brown', 'url': 'https://genius.com/artists/Drew-brown'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}], 'writers': [{'name': 'Alesso', 'url': 'https://genius.com/artists/Alesso'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boom Bass', 'url': 'https://genius.com/artists/Boom-bass'}, {'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Drew Brown', 'url': 'https://genius.com/artists/Drew-brown'}, {'name': 'Eddie Fisher (OneRepublic)', 'url': 'https://genius.com/artists/Eddie-fisher-onerepublic'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Philippe Zdar', 'url': 'https://genius.com/artists/Philippe-zdar'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}, {'name': 'Zach Filkins', 'url': 'https://genius.com/artists/Zach-filkins'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Lady-gaga/Born-this-way', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Born This Way&lt;/em&gt; is the second studio album by American singer Lady Gaga, released via Interscope Records on May 23, 2011. The album became Gaga’s first number-one album and the highest first-week sales since 2005.&lt;/p&gt;\n\n&lt;p&gt;Four of the album’s singles: &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, &lt;a href="https://genius.com/Lady-gaga-judas-lyrics" rel="noopener" data-api_path="/songs/49011"&gt;“Judas”&lt;/a&gt;, &lt;a href="https://genius.com/Lady-gaga-the-edge-of-glory-lyrics" rel="noopener" data-api_path="/songs/49946"&gt;“The Edge of Glory”&lt;/a&gt;, and &lt;a href="https://genius.com/Lady-gaga-you-and-i-lyrics" rel="noopener" data-api_path="/songs/80398"&gt;“You and I”&lt;/a&gt; peaked within in the top ten of the Billboard Hot 100 chart, where the single &lt;a href="https://genius.com/Lady-gaga-marry-the-night-lyrics" rel="noopener" data-api_path="/songs/50125"&gt;“Marry the Night”&lt;/a&gt; peaked at number twenty-nine. “Born This Way” became Gaga’s third number one single overall, and became her first number one single from &lt;em&gt;Born This Way&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8497475/lady-gaga-sales-streams-ariana-grande-ask-billboard" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;, as of February 10, 2019, &lt;em&gt;Born This Way&lt;/em&gt; has sold a total of 2.4M copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Brian Lee', 'url': 'https://genius.com/artists/Brian-lee'}, {'name': 'Cheche Alara', 'url': 'https://genius.com/artists/Cheche-alara'}, {'name': 'Clinton Sparks', 'url': 'https://genius.com/artists/Clinton-sparks'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Mark-ronson/Uptown-special', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Uptown Special&lt;/em&gt; will be remembered for one of the all time great pop singles, &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; featuring Bruno Mars. Ronson’s sound isn’t always so maximalist, and the record revels in its more understated tones and melodies, hugely informed by 70’s Jazz and 80’s Disco.&lt;/p&gt;\n\n&lt;p&gt;But you can’t deny the pull of a genuine classic single. The album was helped to number 5 on the &lt;em&gt;US Billboard 200&lt;/em&gt;, easily Mark’s most successful US release. It’s also the first time he’d struck number 1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Ronson &lt;a href="http://www.spin.com/g00/2015/01/mark-ronson-uptown-special-funk-bruno-mars-interview/?i10c.referrer=https%3A%2F%2Fwww.google.com.au%2F" rel="noopener nofollow"&gt;told &lt;em&gt;Spin&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I always come back to: Stevie Wonder, Chaka Khan, great late-’70s, early-’80s R&amp;amp;B.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Boys Noize', 'url': 'https://genius.com/artists/Boys-noize'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Riton', 'url': 'https://genius.com/artists/Riton'}], 'writers': [{'name': 'Alex Greenwald', 'url': 'https://genius.com/artists/Alex-greenwald'}, {'name': 'Andrew Wyatt', 'url': 'https://genius.com/artists/Andrew-wyatt'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Charlie Wilson', 'url': 'https://genius.com/artists/Charlie-wilson'}, {'name': 'Chris Vatalaro', 'url': 'https://genius.com/artists/Chris-vatalaro'}, {'name': 'Devon Gallaspy', 'url': 'https://genius.com/artists/Devon-gallaspy'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Kevin Parker', 'url': 'https://genius.com/artists/Kevin-parker'}, {'name': 'Kurupt', 'url': 'https://genius.com/artists/Kurupt'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Michael Chabon', 'url': 'https://genius.com/artists/Michael-chabon'}, {'name': 'Mystikal', 'url': 'https://genius.com/artists/Mystikal'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Nick Movshon', 'url': 'https://genius.com/artists/Nick-movshon'}, {'name': 'Pal Joey', 'url': 'https://genius.com/artists/Pal-joey'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Robert Wilson (The Gap Band)', 'url': 'https://genius.com/artists/Robert-wilson-the-gap-band'}, {'name': 'Ronnie Wilson', 'url': 'https://genius.com/artists/Ronnie-wilson'}, {'name': 'Rudy Taylor', 'url': 'https://genius.com/artists/Rudy-taylor'}, {'name': 'Rufus Wainwright', 'url': 'https://genius.com/artists/Rufus-wainwright'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Thomas Brenneck', 'url': 'https://genius.com/artists/Thomas-brenneck'}, {'name': 'Trinidad James', 'url': 'https://genius.com/artists/Trinidad-james'}, {'name': 'Warren\xa0G', 'url': 'https://genius.com/artists/Warren-g'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Linkin-park/Minutes-to-midnight', 'annotations': {'description': '', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Queens-of-the-stone-age/Lullabies-to-paralyze', 'annotations': {'description': '&lt;p&gt;Featuring a brand new lineup, QOTSA’s &lt;em&gt;Lullabies to Paralyze&lt;/em&gt; takes on a darker sound, living up to its eery title. The name of the album derives from a line off &lt;a href="https://genius.com/Queens-of-the-stone-age-mosquito-song-lyrics" rel="noopener" data-api_path="/songs/207666"&gt;“Mosquito Song,”&lt;/a&gt; from their &lt;a href="https://genius.com/albums/Queens-of-the-stone-age/Songs-for-the-deaf" rel="noopener" data-api_path="/albums/22240"&gt;&lt;em&gt;Songs for the Deaf&lt;/em&gt;&lt;/a&gt; album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Where will you run?&lt;br&gt;\nWhere will you hide?&lt;br&gt;\nLullabies&lt;br&gt;\nTo paralyze&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After bassist and back-up vocalist &lt;a href="https://genius.com/artists/Nick-oliveri" rel="noopener" data-api_path="/artists/377540"&gt;Nick Oliveri&lt;/a&gt; was fired from the band, Homme took it upon himself to find a fresh new roster for his fifth full length LP.&lt;/p&gt;\n\n&lt;p&gt;The album received generally positive reviews, although slightly less than its acclaimed predecessor. &lt;em&gt;Lullabies to Paralyze&lt;/em&gt; &lt;a href="https://www.billboard.com/music/queens-of-the-stone-age/chart-history/top-album-sales" rel="noopener nofollow"&gt;peaked at #5 on the Billboard hot 200&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Joe Barresi', 'url': 'https://genius.com/artists/Joe-barresi'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}], 'writers': [{'name': 'Alain Johannes', 'url': 'https://genius.com/artists/Alain-johannes'}, {'name': 'Joey Castillo', 'url': 'https://genius.com/artists/Joey-castillo'}, {'name': 'Josh Freese', 'url': 'https://genius.com/artists/Josh-freese'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}, {'name': 'Mark Lanegan', 'url': 'https://genius.com/artists/Mark-lanegan'}, {'name': 'Troy Van Leeuwen', 'url': 'https://genius.com/artists/Troy-van-leeuwen'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pixies/Death-to-the-pixies', 'annotations': {'description': '', 'producers': [{'name': 'Gary Smith', 'url': 'https://genius.com/artists/Gary-smith'}, {'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}, {'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}, {'name': 'Frosty Horton', 'url': 'https://genius.com/artists/Frosty-horton'}, {'name': 'Kim Deal', 'url': 'https://genius.com/artists/Kim-deal'}, {'name': 'Steve Hoffman', 'url': 'https://genius.com/artists/Steve-hoffman'}], 'labels': [{'name': 'Rough Trade Records', 'url': 'https://genius.com/artists/Rough-trade-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Dido/Life-for-rent', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Life for Rent&lt;/em&gt; is the second studio album by English singer and songwriter Dido, released on September 29, 2003 via Arista Records. The album marked her first album in four years since the release of 1999’s widely &lt;a href="https://books.google.com/books?id=dxAEAAAAMBAJ&amp;amp;pg=PA46#v=onepage&amp;amp;q&amp;amp;f=false" rel="noopener nofollow"&gt;successful&lt;/a&gt; debut album &lt;a href="https://genius.com/albums/Dido/No-angel" rel="noopener" data-api_path="/albums/28144"&gt;&lt;em&gt;No Angel&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Dido-white-flag-lyrics" rel="noopener" data-api_path="/songs/209352"&gt;“White Flag”&lt;/a&gt;, was released as the lead single from the album. The single was a massive success worldwide, peaking within the top 30 on different charts. &lt;a href="https://genius.com/Dido-life-for-rent-lyrics" rel="noopener" data-api_path="/songs/1882935"&gt;“Life for Rent”&lt;/a&gt;, &lt;a href="https://genius.com/Dido-dont-leave-home-lyrics" rel="noopener" data-api_path="/songs/1882982"&gt;“Don’t Leave Home”&lt;/a&gt;, and &lt;a href="https://genius.com/Dido-sand-in-my-shoes-lyrics" rel="noopener" data-api_path="/songs/1882996"&gt;“Sand in My Shoes”&lt;/a&gt; were released as the second, third, and fourth single, respectively.&lt;/p&gt;', 'producers': [{'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Mike Hedges', 'url': 'https://genius.com/artists/Mike-hedges'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}], 'writers': [{'name': 'Aubrey Nunn', 'url': 'https://genius.com/artists/Aubrey-nunn'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Mark Bates', 'url': 'https://genius.com/artists/Mark-bates'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kylie-minogue/Ultimate-kylie', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Ultimate Kylie&lt;/em&gt; is the first greatest hits Kylie released under her contract with Parlophone. The compilation was released in many different formats including a two-disc edition and a deluxe double disc with a bonus DVD. A separate compilation DVD with the same name, was released to accompany the audio versions.&lt;/p&gt;\n\n&lt;p&gt;The album includes two new tracks; its lead single, &lt;a href="https://genius.com/Kylie-minogue-i-believe-in-you-lyrics" rel="noopener" data-api_path="/songs/425413"&gt;“I Believe in You”&lt;/a&gt;, and the second single, &lt;a href="https://genius.com/Kylie-minogue-giving-you-up-lyrics" rel="noopener" data-api_path="/songs/425360"&gt;“Giving You Up”&lt;/a&gt;. A third track, &lt;a href="https://genius.com/Kylie-minogue-made-of-glass-lyrics" rel="noopener" data-api_path="/songs/486204"&gt;“Made of Glass”&lt;/a&gt;, was recorded for the album but not used; it was included on the physical releases of “Giving You Up”.&lt;/p&gt;\n\n&lt;p&gt;The first of the two discs features fifteen singles from her time under PWL, with the other six being omitted. The second disc features eighteen singles spanning from her fifth studio album to &lt;a href="https://genius.com/albums/Kylie-minogue/Body-language" rel="noopener" data-api_path="/albums/29021"&gt;&lt;em&gt;Body Language&lt;/em&gt;&lt;/a&gt;, plus “I Believe in You”, “Giving You Up” and &lt;a href="https://genius.com/Nick-cave-and-the-bad-seeds-where-the-wild-roses-grow-lyrics" rel="noopener" data-api_path="/songs/381463"&gt;“Where the Wild Roses Grow”&lt;/a&gt;. From this period of ten years, five singles were omitted.&lt;/p&gt;\n\n&lt;p&gt;The Japanese edition of the album included &lt;a href="https://genius.com/Kylie-minogue-turn-it-into-love-lyrics" rel="noopener" data-api_path="/songs/424739"&gt;“Turn It into Love”&lt;/a&gt;, which was released as a single in that region, along with the Chemical Brothers Remix of &lt;a href="https://genius.com/Kylie-minogue-slow-lyrics" rel="noopener" data-api_path="/songs/418883"&gt;“Slow”&lt;/a&gt; and “Can’t Get &lt;a href="https://genius.com/New-order-blue-monday-lyrics" rel="noopener" data-api_path="/songs/116281"&gt;Blue Monday&lt;/a&gt; Out of My Head”. The German edition replaced &lt;a href="https://genius.com/Kylie-minogue-please-stay-lyrics" rel="noopener" data-api_path="/songs/425276"&gt;“Please Stay”&lt;/a&gt; with &lt;a href="https://genius.com/Kylie-minogue-your-disco-needs-you-lyrics" rel="noopener" data-api_path="/songs/425262"&gt;“Your Disco Needs You”&lt;/a&gt;. The DVD featured the music videos for every single on the compilation, with the exception of “Giving You Up” which hadn’t been filmed yet, with an addition of Kylie’s performance of “Can’t Get Blue Monday Out of My Head” at the 2002 Brit Awards&lt;/p&gt;\n\n&lt;p&gt;The music video for &lt;a href="https://genius.com/Kylie-minogue-dancing-queen-live-lyrics" rel="noopener" data-api_path="/songs/425380"&gt;“Dancing Queen”&lt;/a&gt; was added as a bonus track to the digital edition of the album.&lt;/p&gt;', 'producers': [{'name': 'Babydaddy', 'url': 'https://genius.com/artists/Babydaddy'}, {'name': 'Brian Higgins', 'url': 'https://genius.com/artists/Brian-higgins'}, {'name': 'Brothers in Rhythm', 'url': 'https://genius.com/artists/Brothers-in-rhythm'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Dave Ball', 'url': 'https://genius.com/artists/Dave-ball'}, {'name': 'DNA', 'url': 'https://genius.com/artists/Dna'}, {'name': 'Graham Stack', 'url': 'https://genius.com/artists/Graham-stack'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Ian Curnow', 'url': 'https://genius.com/artists/Ian-curnow'}, {'name': 'Ingo Vauk', 'url': 'https://genius.com/artists/Ingo-vauk'}, {'name': 'Jake Shears', 'url': 'https://genius.com/artists/Jake-shears'}, {'name': 'Jimmy Harry', 'url': 'https://genius.com/artists/Jimmy-harry'}, {'name': 'Johnny Douglas', 'url': 'https://genius.com/artists/Johnny-douglas'}, {'name': 'Julian Gallagher', 'url': 'https://genius.com/artists/Julian-gallagher'}, {'name': 'Kylie Minogue', 'url': 'https://genius.com/artists/Kylie-minogue'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Mike Spencer', 'url': 'https://genius.com/artists/Mike-spencer'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Nick Cave &amp; The Bad Seeds', 'url': 'https://genius.com/artists/Nick-cave-and-the-bad-seeds'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}, {'name': 'Phil Harding', 'url': 'https://genius.com/artists/Phil-harding'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}, {'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Sunnyroads', 'url': 'https://genius.com/artists/Sunnyroads'}, {'name': 'Victor Van Vugt', 'url': 'https://genius.com/artists/Victor-van-vugt'}, {'name': 'Xenomania', 'url': 'https://genius.com/artists/Xenomania'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}], 'writers': [{'name': 'Al Lewis', 'url': 'https://genius.com/artists/Al-lewis'}, {'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Babydaddy', 'url': 'https://genius.com/artists/Babydaddy'}, {'name': 'Brian Higgins', 'url': 'https://genius.com/artists/Brian-higgins'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Brian Rawling', 'url': 'https://genius.com/artists/Brian-rawling'}, {'name': 'Carole King', 'url': 'https://genius.com/artists/Carole-king'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Claydes Smith', 'url': 'https://genius.com/artists/Claydes-smith'}, {'name': 'Dan Carey', 'url': 'https://genius.com/artists/Dan-carey'}, {'name': 'Dave Ball', 'url': 'https://genius.com/artists/Dave-ball'}, {'name': 'Dave Seaman', 'url': 'https://genius.com/artists/Dave-seaman'}, {'name': 'Dennis “D.T.” Thomas', 'url': 'https://genius.com/artists/Dennis-dt-thomas'}, {'name': 'Dinky Bingham', 'url': 'https://genius.com/artists/Dinky-bingham'}, {'name': 'Donna Johnson', 'url': 'https://genius.com/artists/Donna-johnson'}, {'name': 'Earl Eugene Toon Jr.', 'url': 'https://genius.com/artists/Earl-eugene-toon-jr'}, {'name': 'Eddie Holland', 'url': 'https://genius.com/artists/Eddie-holland'}, {'name': 'Edward Barton', 'url': 'https://genius.com/artists/Edward-barton'}, {'name': 'Emilíana Torrini', 'url': 'https://genius.com/artists/Emiliana-torrini'}, {'name': 'Eumir Deodato', 'url': 'https://genius.com/artists/Eumir-deodato'}, {'name': 'George Brown', 'url': 'https://genius.com/artists/George-brown'}, {'name': 'Gerry Goffin', 'url': 'https://genius.com/artists/Gerry-goffin'}, {'name': 'Graham Stack', 'url': 'https://genius.com/artists/Graham-stack'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Holland-Dozier-Holland', 'url': 'https://genius.com/artists/Holland-dozier-holland'}, {'name': 'Ingo Vauk', 'url': 'https://genius.com/artists/Ingo-vauk'}, {'name': 'Ira Shickman', 'url': 'https://genius.com/artists/Ira-shickman'}, {'name': 'Jake Shears', 'url': 'https://genius.com/artists/Jake-shears'}, {'name': 'James “J.T.” Taylor', 'url': 'https://genius.com/artists/James-jt-taylor'}, {'name': 'Jazzi P.', 'url': 'https://genius.com/artists/Jazzi-p'}, {'name': 'Jimmy Harry', 'url': 'https://genius.com/artists/Jimmy-harry'}, {'name': 'Johnny Douglas', 'url': 'https://genius.com/artists/Johnny-douglas'}, {'name': 'John Themis', 'url': 'https://genius.com/artists/John-themis'}, {'name': 'Julian Gallagher', 'url': 'https://genius.com/artists/Julian-gallagher'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Karen Poole', 'url': 'https://genius.com/artists/Karen-poole'}, {'name': 'Khalis Bayyan', 'url': 'https://genius.com/artists/Khalis-bayyan'}, {'name': 'Kylie Minogue', 'url': 'https://genius.com/artists/Kylie-minogue'}, {'name': 'Lamont Dozier', 'url': 'https://genius.com/artists/Lamont-dozier'}, {'name': 'Lisa Cowling', 'url': 'https://genius.com/artists/Lisa-cowling'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Martin Harrington', 'url': 'https://genius.com/artists/Martin-harrington'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Miranda Cooper', 'url': 'https://genius.com/artists/Miranda-cooper'}, {'name': 'Nick Cave', 'url': 'https://genius.com/artists/Nick-cave'}, {'name': 'Nick Coler', 'url': 'https://genius.com/artists/Nick-coler'}, {'name': 'Paula Abdul', 'url': 'https://genius.com/artists/Paula-abdul'}, {'name': 'Paul Woods', 'url': 'https://genius.com/artists/Paul-woods'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Robert “Kool” Bell', 'url': 'https://genius.com/artists/Robert-kool-bell'}, {'name': 'Robert Spike Mickens', 'url': 'https://genius.com/artists/Robert-spike-mickens'}, {'name': 'Ron Dunbar', 'url': 'https://genius.com/artists/Ron-dunbar'}, {'name': 'Steve Anderson [Brothers In Rhythm]', 'url': 'https://genius.com/artists/Steve-anderson-brothers-in-rhythm'}, {'name': 'Steve Torch', 'url': 'https://genius.com/artists/Steve-torch'}, {'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Sylvester Bradford', 'url': 'https://genius.com/artists/Sylvester-bradford'}, {'name': 'Tim Powell', 'url': 'https://genius.com/artists/Tim-powell'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'EMI Music Marketing', 'url': 'https://genius.com/artists/Emi-music-marketing'}, {'name': 'Mushroom Records', 'url': 'https://genius.com/artists/Mushroom-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'PWL', 'url': 'https://genius.com/artists/Pwl'}, {'name': 'PWL Records Ltd.', 'url': 'https://genius.com/artists/Pwl-records-ltd'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-weeknd/Take-my-breath-single', 'annotations': {'description': '', 'producers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'writers': [{'name': 'Belly', 'url': 'https://genius.com/artists/Belly'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'XO Records', 'url': 'https://genius.com/artists/Xo-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rihanna/Good-girl-gone-bad-reloaded', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Good Girl Gone Bad: Reloaded&lt;/em&gt; is the reissue of Rihanna’s third studio album &lt;a href="https://genius.com/albums/Rihanna/Good-girl-gone-bad" rel="noopener" data-api_path="/albums/6513"&gt;&lt;em&gt;Good Girl Gone Bad&lt;/em&gt;&lt;/a&gt;. It was first released digitally in selected countries on June 2, 2008 before it was officially released in the US on June 17, 2008.&lt;/p&gt;\n\n&lt;p&gt;The re-issue featured three new songs: &lt;a href="https://genius.com/Rihanna-disturbia-lyrics" rel="noopener" data-api_path="/songs/110417"&gt;“Disturbia,”&lt;/a&gt; &lt;a href="https://genius.com/Rihanna-take-a-bow-lyrics" rel="noopener" data-api_path="/songs/58062"&gt;“Take a Bow,”&lt;/a&gt; and &lt;a href="https://genius.com/Maroon-5-if-i-never-see-your-face-again-remix-lyrics" rel="noopener" data-api_path="/songs/155696"&gt;“If I Never See Your Face Again”&lt;/a&gt; with Maroon 5. Both “Take a Bow” and “Disturbia” reached #1 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Carl Sturken', 'url': 'https://genius.com/artists/Carl-sturken'}, {'name': 'Evan Rogers', 'url': 'https://genius.com/artists/Evan-rogers'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'Makeba Riddick', 'url': 'https://genius.com/artists/Makeba-riddick'}, {'name': 'Mark Endert', 'url': 'https://genius.com/artists/Mark-endert'}, {'name': 'Mark “Spike” Stent', 'url': 'https://genius.com/artists/Mark-spike-stent'}, {'name': 'Maroon 5', 'url': 'https://genius.com/artists/Maroon-5'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Neo Da Matrix', 'url': 'https://genius.com/artists/Neo-da-matrix'}, {'name': 'Ne-Yo', 'url': 'https://genius.com/artists/Ne-yo'}, {'name': 'Shea Taylor', 'url': 'https://genius.com/artists/Shea-taylor'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'writers': [{'name': 'Adam Levine', 'url': 'https://genius.com/artists/Adam-levine'}, {'name': 'Andre Merritt', 'url': 'https://genius.com/artists/Andre-merritt'}, {'name': 'Bernard Sumner', 'url': 'https://genius.com/artists/Bernard-sumner'}, {'name': 'Brian Gold', 'url': 'https://genius.com/artists/Brian-gold'}, {'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Carl Sturken', 'url': 'https://genius.com/artists/Carl-sturken'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}, {'name': 'Clifton Dillon', 'url': 'https://genius.com/artists/Clifton-dillon'}, {'name': 'Evan Rogers', 'url': 'https://genius.com/artists/Evan-rogers'}, {'name': 'Frankie Storm', 'url': 'https://genius.com/artists/Frankie-storm'}, {'name': 'Gillian Gilbert', 'url': 'https://genius.com/artists/Gillian-gilbert'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'James Valentine', 'url': 'https://genius.com/artists/James-valentine'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'Lene Marlin', 'url': 'https://genius.com/artists/Lene-marlin'}, {'name': 'Mad Cobra', 'url': 'https://genius.com/artists/Mad-cobra'}, {'name': 'Makeba Riddick', 'url': 'https://genius.com/artists/Makeba-riddick'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Mikkel Storleer Eriksen', 'url': 'https://genius.com/artists/Mikkel-storleer-eriksen'}, {'name': 'Neo Da Matrix', 'url': 'https://genius.com/artists/Neo-da-matrix'}, {'name': 'Ne-Yo', 'url': 'https://genius.com/artists/Ne-yo'}, {'name': 'Peter Hook', 'url': 'https://genius.com/artists/Peter-hook'}, {'name': 'Rob Allen', 'url': 'https://genius.com/artists/Rob-allen'}, {'name': 'Shea Taylor', 'url': 'https://genius.com/artists/Shea-taylor'}, {'name': 'Sly Dunbar', 'url': 'https://genius.com/artists/Sly-dunbar'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Stephen Morris', 'url': 'https://genius.com/artists/Stephen-morris'}, {'name': 'The-Dream', 'url': 'https://genius.com/artists/The-dream'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tor Erik Hermansen', 'url': 'https://genius.com/artists/Tor-erik-hermansen'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Skillet/Awake', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Korey Cooper', 'url': 'https://genius.com/artists/Korey-cooper'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/The-offspring/Rise-and-fall-rage-and-grace', 'annotations': {'description': '', 'producers': [{'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}], 'writers': [{'name': 'Dexter Holland', 'url': 'https://genius.com/artists/Dexter-holland'}, {'name': 'Rikk Agnew', 'url': 'https://genius.com/artists/Rikk-agnew'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Saliva/Back-into-your-system', 'annotations': {'description': '&lt;p&gt;Back into Your System is the third studio album by Saliva. It reached #19 on Billboard 200 and was certified Gold by the RIAA since release.&lt;/p&gt;\n\n&lt;p&gt;Back into Your System spawned its first single, “Always” in late 2002 and reached #51 on the Billboard Hot 100 and #1 on the Modern Rock Tracks chart. Its second single was “Rest In Pieces” making several Billboard charts in 2003 and their third single “Raise Up” reached #29 on Mainstream Rock chart.&lt;/p&gt;', 'producers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}], 'writers': [{'name': 'Bob Marlette', 'url': 'https://genius.com/artists/Bob-marlette'}, {'name': 'Chris D’Abaldo', 'url': 'https://genius.com/artists/Chris-dabaldo'}, {'name': 'Chris Marlette', 'url': 'https://genius.com/artists/Chris-marlette'}, {'name': 'Dave Novotny', 'url': 'https://genius.com/artists/Dave-novotny'}, {'name': 'David Novotny', 'url': 'https://genius.com/artists/David-novotny'}, {'name': 'James Michael', 'url': 'https://genius.com/artists/James-michael'}, {'name': 'Josey Scott', 'url': 'https://genius.com/artists/Josey-scott'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}, {'name': 'Paul Crosby', 'url': 'https://genius.com/artists/Paul-crosby'}, {'name': 'Wayne Swinny', 'url': 'https://genius.com/artists/Wayne-swinny'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Skillet/Comatose', 'annotations': {'description': '&lt;p&gt;Comatose is the sixth studio album by American Christian rock band Skillet. This album continues their previous album’s trend of downplaying the keyboard elements that were prominent in previous releases in favor of more orchestral elements and distorted guitars. Comatose was certified gold by the Recording Industry Association of America (RIAA) on November 3, 2009, their first record to do so, and has since gone platinum, selling over 1,000,000 copies as of May 20, 2016.&lt;/p&gt;\n\n&lt;p&gt;A &lt;a href="https://genius.com/albums/Skillet/Comatose-deluxe-edition" rel="noopener" data-api_path="/albums/642866"&gt;deluxe edition&lt;/a&gt; of Comatose was released in stores on December 26, 2007, and a &lt;a href="https://genius.com/albums/Skillet/Comatose-comes-alive" rel="noopener" data-api_path="/albums/143507"&gt;live DVD&lt;/a&gt; of their headlining tour in support of the record was released on October 21, 2008.&lt;/p&gt;\n\n&lt;p&gt;On December 6, 2007, the album received a Grammy Award nomination for Best Rock or Rap Gospel Album. The album was also nominated for a Dove Award for Rock Album of the Year at the 38th GMA Dove Awards.&lt;/p&gt;', 'producers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Thirty-seconds-to-mars/A-beautiful-lie', 'annotations': {'description': '', 'producers': [{'name': 'Brian Virtue', 'url': 'https://genius.com/artists/Brian-virtue'}, {'name': 'Jared Leto', 'url': 'https://genius.com/artists/Jared-leto'}, {'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Björk', 'url': 'https://genius.com/artists/Bjork'}, {'name': 'Jared Leto', 'url': 'https://genius.com/artists/Jared-leto'}, {'name': 'Matt Wachter', 'url': 'https://genius.com/artists/Matt-wachter'}, {'name': 'Pitty', 'url': 'https://genius.com/artists/Pitty'}, {'name': 'Shannon Leto', 'url': 'https://genius.com/artists/Shannon-leto'}, {'name': 'Tomo Miličević', 'url': 'https://genius.com/artists/Tomo-milicevic'}], 'labels': [{'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Stone-sour/Come-what-ever-may', 'annotations': {'description': '', 'producers': [{'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Josh Rand', 'url': 'https://genius.com/artists/Josh-rand'}, {'name': 'Shawn Economaki', 'url': 'https://genius.com/artists/Shawn-economaki'}, {'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Staind/The-singles-1996-2006', 'annotations': {'description': '&lt;p&gt;The Singles: 1996–2006 is a compilation album by American rock band Staind, which was released through their current record label Atlantic Records in the UK on November 13, 2006, and in the US on November 14, 2006. A companion DVD, called Staind: The Videos, was released on the same date.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/b5606f5e292acf20c598e7c4fb1b9699.1000x1000x1.png" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'David Bottrill', 'url': 'https://genius.com/artists/David-bottrill'}, {'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}, {'name': 'Staind', 'url': 'https://genius.com/artists/Staind'}, {'name': 'Terry Date', 'url': 'https://genius.com/artists/Terry-date'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}, {'name': 'Johnny April', 'url': 'https://genius.com/artists/Johnny-april'}, {'name': 'Jon Wysocki', 'url': 'https://genius.com/artists/Jon-wysocki'}, {'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/10-years/Feeding-the-wolves', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Feeding The Wolves&lt;/em&gt; is 10 Years\' fifth studio album. It was the band’s first album without founding guitarist Matt Wantland. The album peaked at #17 on the Billboard 200. It was preceded by its lead single “Shoot It Out”, which hit #6 on the Rock Chart. Two more singles followed – “Fix Me” and “Now Is The Time”.&lt;/p&gt;\n\n&lt;p&gt;Frontman Jesse Hasek &lt;a href="https://backstageaxxess.com/2012/09/jesse-hasek-10-years-interview/" rel="noopener nofollow"&gt;later explained&lt;/a&gt; the album’s title was inspired by their struggle with their record label at the time:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;[Leaving Universal Music] was sort of an agreement on both sides. They wanted something different out of us than we wanted to be … just kind of trying to keep up with the mainstream junk, per se. Our last album was called &lt;em&gt;Feeding the Wolves&lt;/em&gt; because it was the first time we really felt like that we had to compromise more than we wanted to. Like, it got uncomfortable. It got to a point where I just told myself I couldn’t do that anymore. Music means too much to me for me to sit and have somebody try to co-write music or try to, you know, have outside cooks come into the kitchen.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': '10 Years', 'url': 'https://genius.com/artists/10-years'}, {'name': 'Brian Vodinh', 'url': 'https://genius.com/artists/Brian-vodinh'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Jesse Hasek', 'url': 'https://genius.com/artists/Jesse-hasek'}, {'name': 'Lewis Cosby', 'url': 'https://genius.com/artists/Lewis-cosby'}, {'name': 'Ryan “Tater” Johnson', 'url': 'https://genius.com/artists/Ryan-tater-johnson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Evanescence/Fallen', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Fallen&lt;/em&gt; is the debut studio album by &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;, released on 4 March 2003.&lt;/p&gt;\n\n&lt;p&gt;Frontwoman Amy Lee stated:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We’ve all fallen, but at the same time we’re not broken. There is the hint that we are going to get up again.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The songs deal with “longing, sadness, solitude, anger, and pain” as pointed out by Amy Lee in a &lt;a href="http://galeria.evanescence.com.br/displayimage.php?album=1500&amp;amp;pos=2" rel="noopener nofollow"&gt;&lt;em&gt;Rock Sound&lt;/em&gt; interview&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Amy told on Evanescence’s &lt;a href="https://web.archive.org/web/20030202045622/http://evanescence.com/bio/index.html" rel="noopener nofollow"&gt;bio&lt;/a&gt; on their website in early 2003:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The point of this whole record and band is to let people know that they’re not alone in dealing with bad feelings or pain or anything that they go through. That’s life and that’s human. They’re not alone, and we’re going through it, too.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album has sold over 17 million copies worldwide and contains hits like &lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;“Bring Me to Life”&lt;/a&gt; and &lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;“My Immortal”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For its 10th anniversary, the band released a limited edition purple vinyl version of &lt;em&gt;Fallen&lt;/em&gt;, including three B-sides: &lt;a href="https://genius.com/Evanescence-farther-away-lyrics" rel="noopener" data-api_path="/songs/218564"&gt;“Farther Away”&lt;/a&gt;, &lt;a href="https://genius.com/Evanescence-missing-lyrics" rel="noopener" data-api_path="/songs/218571"&gt;“Missing”&lt;/a&gt;, and &lt;a href="https://genius.com/Evanescence-breathe-no-more-lyrics" rel="noopener" data-api_path="/songs/186397"&gt;“Breathe No More”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'Dave Fortman', 'url': 'https://genius.com/artists/Dave-fortman'}], 'writers': [{'name': 'Amy Lee', 'url': 'https://genius.com/artists/Amy-lee'}, {'name': 'Ben Moody', 'url': 'https://genius.com/artists/Ben-moody'}, {'name': 'David Hodges', 'url': 'https://genius.com/artists/David-hodges'}, {'name': 'John LeCompt', 'url': 'https://genius.com/artists/John-lecompt'}, {'name': 'Rocky Gray', 'url': 'https://genius.com/artists/Rocky-gray'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}, {'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rise-against/Endgame', 'annotations': {'description': '&lt;p&gt;For &lt;em&gt;Endgame&lt;/em&gt;, the sixth studio album by Rise Against, the band went straight to the studio after the end of their &lt;a href="https://genius.com/albums/Rise-against/Appeal-to-reason" rel="noopener" data-api_path="/albums/14371"&gt;&lt;em&gt;Appeal To Reason&lt;/em&gt;&lt;/a&gt; tour to record the album. The first single, &lt;a href="https://genius.com/Rise-against-help-is-on-the-way-lyrics" rel="noopener" data-api_path="/songs/73739"&gt;“Help Is on the Way”&lt;/a&gt; debuted on radio on January 17, 2011, and the full album dropped on March 15, 2011.&lt;/p&gt;\n\n&lt;p&gt;The album’s main theme is ‘the end of humankind as we know it’; several songs pinpoint world events and politics such as &lt;a href="https://genius.com/2156258" rel="noopener" data-api_path="/referents/2156258"&gt;Hurricane Katrina&lt;/a&gt;, &lt;a href="https://genius.com/Rise-against-make-it-stop-septembers-children-lyrics" rel="noopener" data-api_path="/songs/77720"&gt;LGBTQ teen suicides&lt;/a&gt;, and the &lt;a href="https://genius.com/1992227" rel="noopener" data-api_path="/referents/1992227"&gt;Deepwater Horizon oil spill&lt;/a&gt;. The record is meant to be an inspiration for the younger generation to take action in this world; &lt;a href="https://en.wikipedia.org/wiki/Endgame_%28Rise_Against_album" rel="noopener nofollow"&gt;according to Tim McIlrath&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Endgame&lt;/em&gt; was a way to talk about the world in a different way than we have before. It is talking about the world from the perspective that it’s too late to recycle. It’s too late to drive a hybrid. It’s too late to decide whether you believe in global warming or not because global warming has devoured the planet.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Regardless of the grim post-apocalyptic world the record foresees, the album actually takes on a positive view, and most of the songs were written from the perspective of &lt;a href="https://en.wikipedia.org/wiki/Endgame_%28Rise_Against_album" rel="noopener nofollow"&gt;“What if the place on the other side of this transition is a place we’d all rather be living in?”&lt;/a&gt; or as an anthem to stand up against the oppression.&lt;/p&gt;\n\n&lt;p&gt;The album reached number two on the Billboard 200 and it has been certified platinum by the MC, gold by the BVMI, and gold by the ARIA.&lt;/p&gt;\n\n&lt;p&gt;Its two other singles were &lt;a href="https://genius.com/Rise-against-make-it-stop-septembers-children-lyrics" rel="noopener" data-api_path="/songs/77720"&gt;“September Children (Make It Stop)”&lt;/a&gt; released on May 30, 2011, and &lt;a href="https://genius.com/Rise-against-satellite-lyrics" rel="noopener" data-api_path="/songs/77726"&gt;“Satellite”&lt;/a&gt;, released on November 1, 2011.&lt;/p&gt;', 'producers': [{'name': 'Bill Stevenson', 'url': 'https://genius.com/artists/Bill-stevenson'}, {'name': 'Jason Livermore', 'url': 'https://genius.com/artists/Jason-livermore'}], 'writers': [{'name': 'Brandon Barnes', 'url': 'https://genius.com/artists/Brandon-barnes'}, {'name': 'Joe Principe', 'url': 'https://genius.com/artists/Joe-principe'}, {'name': 'Joseph Principe', 'url': 'https://genius.com/artists/Joseph-principe'}, {'name': 'Rise Against', 'url': 'https://genius.com/artists/Rise-against'}, {'name': 'Tim McIlrath', 'url': 'https://genius.com/artists/Tim-mcilrath'}, {'name': 'Zach Blair', 'url': 'https://genius.com/artists/Zach-blair'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Minutes-to-midnight', 'annotations': {'description': '', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Thirty-seconds-to-mars/This-is-war', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;This is War&lt;/em&gt; is the violent, explosive and all-round spectacular third studio album by American alternative rock band &lt;a href="http://rock.genius.com/artists/30-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Continuing the forward-push hard rock sounds of &lt;a href="https://genius.com/albums/Thirty-Seconds-to-Mars/30-Seconds-to-Mars" rel="noopener" data-api_path="/albums/39698"&gt;&lt;em&gt;30 Seconds to Mars&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Thirty-Seconds-to-Mars/A-Beatuiful-Lie" rel="noopener"&gt;&lt;em&gt;A Beautiful Lie&lt;/em&gt;&lt;/a&gt;, this album introduced frontman Jared Leto’s now famous &lt;em&gt;&lt;a href="http://rock.genius.com/albums/Pink-floyd/The-wall" rel="noopener" data-api_path="/albums/14831"&gt;Wall&lt;/a&gt;&lt;/em&gt;-esque leadership of the Echelon, the band’s cult following. This factors in choirs and mass choruses, and lyrics that called the Echelon into social warfare.&lt;/p&gt;\n\n&lt;p&gt;The album has sold nearly four million copies worldwide, and it propelled the band through 300 shows in just two years (currently the longest run of live shows on a single album cycle).&lt;/p&gt;\n\n&lt;p&gt;Ironically, Thirty Seconds to Mars recorded their aptly titled album while embroiled in a &lt;a href="http://www.huffingtonpost.com/2013/11/21/30-seconds-to-mars-artifact_n_4317818.html/" rel="noopener nofollow"&gt;$30 million dollar lawsuit from label EMI&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This led to an exposure of the music industry in their documentary, &lt;a href="https://itunes.apple.com/us/movie/artifact/id740473912/" rel="noopener nofollow"&gt;&lt;em&gt;Artifact&lt;/em&gt;&lt;/a&gt;. The movie premiered at the 2012 Toronto International Film Festival and &lt;a href="http://www.rollingstone.com/movies/news/30-seconds-to-mars-documentary-wins-peoples-choice-award-in-toronto-20120918/" rel="noopener nofollow"&gt;won the BlackBerry People’s Choice Documentary Award&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Flood', 'url': 'https://genius.com/artists/Flood'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'Thirty Seconds to Mars', 'url': 'https://genius.com/artists/Thirty-seconds-to-mars'}], 'writers': [{'name': 'Jared Leto', 'url': 'https://genius.com/artists/Jared-leto'}, {'name': 'Shannon Leto', 'url': 'https://genius.com/artists/Shannon-leto'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Staind/14-shades-of-grey', 'annotations': {'description': '&lt;p&gt;14 Shades of Grey is the fourth studio album by American rock band Staind, released on May 20, 2003. The album continues to develop a post-grunge sound seen on the band’s previous album Break the Cycle, though the songs on 14 Shades of Grey have fewer pop hooks, focusing more on frontman Aaron Lewis’s emotions. It is the band’s last album to be released from Elektra Records.&lt;/p&gt;\n\n&lt;p&gt;The album featured four singles and debuted at No. 1 on the Billboard 200, with first week sales of 220,000 copies. By July 2003, 14 Shades of Grey had been certified gold then later platinum.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Finger-eleven/Them-vs-you-vs-me', 'annotations': {'description': '', 'producers': [{'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'James Black', 'url': 'https://genius.com/artists/James-black'}, {'name': 'Rich Beddoe', 'url': 'https://genius.com/artists/Rich-beddoe'}, {'name': 'Rick Jackett', 'url': 'https://genius.com/artists/Rick-jackett'}, {'name': 'Scott Anderson', 'url': 'https://genius.com/artists/Scott-anderson'}, {'name': 'Sean Anderson', 'url': 'https://genius.com/artists/Sean-anderson'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/3-doors-down/Away-from-the-sun', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/3-doors-down/Away-from-the-sun" rel="noopener" data-api_path="/albums/42669"&gt;&lt;em&gt;Away From the Sun&lt;/em&gt;&lt;/a&gt; is the second studio album from &lt;a href="https://genius.com/artists/3-doors-down" rel="noopener" data-api_path="/artists/66472"&gt;3 Doors Down&lt;/a&gt;. It features production from &lt;a href="http://en.wikipedia.org/wiki/Rick_Parashar" rel="noopener nofollow"&gt;Rick Parashar&lt;/a&gt; and guest production from &lt;a href="https://genius.com/artists/Rush" rel="noopener" data-api_path="/artists/4384"&gt;Rush&lt;/a&gt; lead guitarist &lt;a href="http://en.wikipedia.org/wiki/Alex_Lifeson" rel="noopener nofollow"&gt;Alex Lifeson&lt;/a&gt;. It has been certified 4x Platinum.&lt;/p&gt;\n\n&lt;p&gt;The album spawned four singles:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/3-doors-down-when-im-gone-lyrics" rel="noopener" data-api_path="/songs/206175"&gt;When I’m Gone&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/3-doors-down-away-from-the-sun-lyrics" rel="noopener" data-api_path="/songs/206180"&gt;Away From the Sun&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/3-doors-down-the-road-im-on-lyrics" rel="noopener" data-api_path="/songs/206183"&gt;The Road I’m On&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/3-doors-down-here-without-you-lyrics" rel="noopener" data-api_path="/songs/206194"&gt;Here Without You&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;', 'producers': [{'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': '3 Doors Down', 'url': 'https://genius.com/artists/3-doors-down'}, {'name': 'Brad Arnold', 'url': 'https://genius.com/artists/Brad-arnold'}, {'name': 'Bradley Kirk Arnold', 'url': 'https://genius.com/artists/Bradley-kirk-arnold'}, {'name': 'Chris Henderson', 'url': 'https://genius.com/artists/Chris-henderson'}, {'name': 'Christopher Lee Henderson', 'url': 'https://genius.com/artists/Christopher-lee-henderson'}, {'name': 'Matthew Darrick Roberts', 'url': 'https://genius.com/artists/Matthew-darrick-roberts'}, {'name': 'Matt Roberts', 'url': 'https://genius.com/artists/Matt-roberts'}, {'name': 'Todd Harrell', 'url': 'https://genius.com/artists/Todd-harrell'}], 'labels': [{'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Nickelback/Silver-side-up', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Silver Side Up&lt;/em&gt; is the third studio album by Canadian rock band Nickelback. The album was released on September 11, 2001 via &lt;a href="http://www.roadrunnerrecords.com/" rel="noopener nofollow"&gt;Roadrunner Records&lt;/a&gt;. &lt;em&gt;Silver Side Up&lt;/em&gt; is Nickelback’s only full length studio album to feature only ten songs on it’s tracklisting.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;How You Remind Me&lt;/em&gt; was released as the lead single from the album on August 21, 2001. The song was massively successful, reaching the &lt;a href="https://www.billboard.com/music/nickelback/chart-history/hot-100" rel="noopener nofollow"&gt;top spot&lt;/a&gt; on the Billboard Hot 100 chart. It would become their only number one Hot 100 single.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Too Bad&lt;/em&gt; and &lt;em&gt;Never Again&lt;/em&gt; were released as the second and third single after the success of “How You Remind Me”, though they did not match the massive success of the previous single.&lt;/p&gt;', 'producers': [{'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}, {'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}], 'labels': [{'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}, {'name': 'Self-Released', 'url': 'https://genius.com/artists/Self-released'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Foo-fighters/Echoes-silence-patience-grace', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Echoes, Silence, Patience &amp;amp; Grace&lt;/em&gt; is the sixth studio album by rock band &lt;a href="https://genius.com/artists/Foo-fighters" rel="noopener" data-api_path="/artists/17237"&gt;Foo Fighters&lt;/a&gt;, released on September 25, 2007 by &lt;a href="https://genius.com/artists/Rca-records" rel="noopener" data-api_path="/artists/154526"&gt;RCA Records&lt;/a&gt;. The album is noted for a blend of regular rock and acoustic rock tracks with shifting dynamics, which emerged from the variety of styles employed on the demos the band produced. It also marks the second time the band worked with producer &lt;a href="https://genius.com/artists/Gil-norton" rel="noopener" data-api_path="/artists/41186"&gt;Gil Norton&lt;/a&gt;, whom frontman &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl&lt;/a&gt; brought to fully explore the potential of his compositions and have a record that sounded different from their previous work. Grohl tried to focus on songs with messages that resonated on the audience, writing reflective lyrics which drew inspiration from the birth of his daughter.&lt;/p&gt;', 'producers': [{'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}], 'writers': [{'name': 'Chris Shiflett', 'url': 'https://genius.com/artists/Chris-shiflett'}, {'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pillar/Where-do-we-go-from-here', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Where Do We Go From Here&lt;/em&gt; is the the third studio album released by Pillar under the record label &lt;a href="https://genius.com/artists/Flicker-records" rel="noopener" data-api_path="/artists/2359510"&gt;Flicker Records&lt;/a&gt;. It received overall good ratings with reviews such as;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Definitely worth a listen&lt;br&gt;\n- Jesus Freak Hideout&lt;br&gt;\n&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Had some high spots, some low spots and a few in-betweens.&lt;br&gt;\n - About.com&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;b&gt;Accolades&lt;b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt;\n\n&lt;p&gt;Track #2 &lt;a href="https://genius.com/Pillar-bring-me-down-lyrics" rel="noopener" data-api_path="/songs/1600482"&gt;Bring Me Down&lt;/a&gt; was featured in the Major League Baseball video game MLB 2006 as well as the off-roading game &lt;a href="https://en.wikipedia.org/wiki/MX_vs._ATV_Unleashed" rel="noopener nofollow"&gt;MX vs ATV Unleashed&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Pillar-bring-me-down-lyrics" rel="noopener" data-api_path="/songs/1600482"&gt;Bring Me Down&lt;/a&gt; and &lt;a href="https://genius.com/Pillar-frontline-lyrics" rel="noopener" data-api_path="/songs/1686493"&gt;Frontline&lt;/a&gt; both reached #1 on the christian rock charts and the whole album reached No. 74 on the Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;In 2005 the album was nominated for the &lt;a href="https://doveawards.com/" rel="noopener nofollow"&gt;Dove Awards&lt;/a&gt; for rock album of the year&lt;/p&gt;', 'producers': [{'name': 'Pillar', 'url': 'https://genius.com/artists/Pillar'}, {'name': 'Travis Wyrick', 'url': 'https://genius.com/artists/Travis-wyrick'}], 'writers': [{'name': 'Pillar', 'url': 'https://genius.com/artists/Pillar'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Hybrid-theory', 'annotations': {'description': '&lt;p&gt;Considered by various critics as a staple of &lt;a href="https://en.wikipedia.org/wiki/Nu_metal" rel="noopener nofollow"&gt;nu-metal&lt;/a&gt;, Linkin Park’s 2000 full-length debut &lt;em&gt;Hybrid Theory&lt;/em&gt; seamlessly blends raw hip-hop with an alternative sound, and &lt;a href="http://www.billboard.com/charts/billboard-200/2002-01-12" rel="noopener nofollow"&gt;obtained the number-two spot on the Billboard Hot 100&lt;/a&gt; and peaked within the top-ten of several countries. Named after the &lt;a href="https://genius.com/Linkin-park/Hybrid-theory-ep" rel="noopener"&gt;&lt;em&gt;Hybrid Theory EP&lt;/em&gt;&lt;/a&gt;, the Agoura Hills band’s underground sound is heavily used as an influence throughout the fourteen-track project.&lt;/p&gt;\n\n&lt;p&gt;The album was recorded during the spring and summer of 2000 at &lt;a href="https://en.wikipedia.org/wiki/NRG_Recording_Studios" rel="noopener nofollow"&gt;NRG Studios&lt;/a&gt;. Additionally, the project was led by four singles: &lt;a href="https://genius.com/Linkin-park-one-step-closer-lyrics" rel="noopener" data-api_path="/songs/72377"&gt;“One Step Closer”&lt;/a&gt;, &lt;a href="https://genius.com/Linkin-park-crawling-lyrics" rel="noopener" data-api_path="/songs/72379"&gt;“Crawling”&lt;/a&gt;, &lt;a href="https://genius.com/Linkin-park-papercut-lyrics" rel="noopener" data-api_path="/songs/67584"&gt;“Papercut”&lt;/a&gt;, and &lt;a href="https://genius.com/Linkin-park-in-the-end-lyrics" rel="noopener" data-api_path="/songs/49719"&gt;“In the End”&lt;/a&gt;. Inspired by bands such as &lt;a href="https://genius.com/artists/Depeche-mode" rel="noopener" data-api_path="/artists/943"&gt;Depeche Mode&lt;/a&gt;, &lt;a href="https://genius.com/artists/Deftones" rel="noopener" data-api_path="/artists/14195"&gt;Deftones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stone-temple-pilots" rel="noopener" data-api_path="/artists/32087"&gt;Stone Temple Pilots&lt;/a&gt;, &lt;a href="https://genius.com/artists/U2" rel="noopener" data-api_path="/artists/23895"&gt;U2&lt;/a&gt;, and even the rap group &lt;a href="https://genius.com/artists/The-roots" rel="noopener" data-api_path="/artists/244"&gt;The Roots&lt;/a&gt;, its lyrical content touches on themes that lead singer &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennigton&lt;/a&gt; experienced throughout his childhood: child neglect, drug and alcohol abuse, paranoia, and the divorce of his parents.&lt;/p&gt;\n\n&lt;p&gt;Linkin Park’s debut album &lt;a href="https://web.archive.org/web/20141020174352/http://www.downloadfestival.co.uk/news/linkin-park-announced-saturday-headliner-fall-out-boy-main-support" rel="noopener nofollow"&gt;has sold over 30 million copies worldwide as of 2014&lt;/a&gt;, and has not only found success through its fans; it was listed in Robert Dimery’s &lt;a href="https://en.wikipedia.org/wiki/1001_Albums_You_Must_Hear_Before_You_Die" rel="noopener nofollow"&gt;&lt;em&gt;1001 Albums You Must Hear Before You Die&lt;/em&gt;&lt;/a&gt; and &lt;a href="http://www.newsweek.com/chester-bennington-linkin-park-hybrid-639964" rel="noopener nofollow"&gt;was nominated for Best Rock Album at the 44th Grammys in 2002&lt;/a&gt;. All of its songs were remixed and re-released on Linkin Park’s 2002 album &lt;a href="https://genius.com/Linkin-park/Reanimation" rel="noopener"&gt;&lt;em&gt;Reanimation&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the Japan and special edition releases, two bonus B-sides were released as an incentive to purchase those editions: “&lt;a href="https://genius.com/Linkin-park-my-december-lyrics" rel="noopener" data-api_path="/songs/194721"&gt;My December&lt;/a&gt;” and “&lt;a href="https://genius.com/Linkin-park-high-voltage-mike-shinoda-remix-lyrics" rel="noopener" data-api_path="/songs/31954"&gt;High Voltage&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'David Farrell', 'url': 'https://genius.com/artists/David-farrell'}, {'name': 'Dust Brothers', 'url': 'https://genius.com/artists/Dust-brothers'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mark Wakefield', 'url': 'https://genius.com/artists/Mark-wakefield'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Nickelback/The-long-road', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Long Road&lt;/em&gt; is the fourth full-length studio album by Canadian rock band Nickelback, released on September 23, 2003 via &lt;a href="http://www.roadrunnerrecords.com/" rel="noopener nofollow"&gt;Roadrunner Records&lt;/a&gt;. The album was &lt;a href="https://www.mixonline.com/recording/studio-nickelback-364996" rel="noopener nofollow"&gt;officially recorded at&lt;/a&gt; the famous famed Greenhouse Studios in Vancouver, British Columbia.&lt;/p&gt;\n\n&lt;p&gt;The album reached an &lt;a href="https://www.billboard.com/music/nickelback/chart-history/billboard-200" rel="noopener nofollow"&gt;official peak&lt;/a&gt; of number six  on the Billboard 200 on October 11th, 2003, less than half a month after the album’s release. By April 13th, 2011, the album has sold a total of &lt;a href="https://web.archive.org/web/20110418064608/http://new.music.yahoo.com/blogs/chart_watch/74351/week-ending-april-10-2011-albums-adele-is-everywhere/" rel="noopener nofollow"&gt;5,528,000 copies&lt;/a&gt; in the United States.&lt;/p&gt;', 'producers': [{'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Bernie Taupin', 'url': 'https://genius.com/artists/Bernie-taupin'}, {'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Elton John', 'url': 'https://genius.com/artists/Elton-john'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}, {'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Hinder/Extreme-behavior', 'annotations': {'description': "&lt;p&gt;Arguably the biggest rock and roll success story of ‘05/'06, Hinder’s debut album would go triple platinum off the back of the megahit “Lips of an Angel,” despite wall-to-wall negative reviews. Additional singles such as “Get Stoned,” “How Long,” “Better Than Me,” and “Homecoming Queen” all became rock radio hits.&lt;/p&gt;", 'producers': [{'name': 'Austin John', 'url': 'https://genius.com/artists/Austin-john'}, {'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}], 'writers': [{'name': 'Austin John', 'url': 'https://genius.com/artists/Austin-john'}, {'name': 'Austin Winkler', 'url': 'https://genius.com/artists/Austin-winkler'}, {'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Cody Hanson', 'url': 'https://genius.com/artists/Cody-hanson'}, {'name': 'Hinder', 'url': 'https://genius.com/artists/Hinder'}, {'name': 'Joe Garvey', 'url': 'https://genius.com/artists/Joe-garvey'}, {'name': 'Joey Moi', 'url': 'https://genius.com/artists/Joey-moi'}, {'name': 'Mark King', 'url': 'https://genius.com/artists/Mark-king'}, {'name': 'Mike Rodden', 'url': 'https://genius.com/artists/Mike-rodden'}, {'name': 'Austin John', 'url': 'https://genius.com/artists/Austin-john'}, {'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Cody Hanson', 'url': 'https://genius.com/artists/Cody-hanson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Creed/Weathered', 'annotations': {'description': '', 'producers': [{'name': 'Creed', 'url': 'https://genius.com/artists/Creed'}, {'name': 'John Kurzweg', 'url': 'https://genius.com/artists/John-kurzweg'}, {'name': 'Kirk Kelsey', 'url': 'https://genius.com/artists/Kirk-kelsey'}], 'writers': [{'name': 'Mark Tremonti', 'url': 'https://genius.com/artists/Mark-tremonti'}, {'name': 'Scott Stapp', 'url': 'https://genius.com/artists/Scott-stapp'}], 'labels': [{'name': 'Wind-up Records', 'url': 'https://genius.com/artists/Wind-up-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Fuel/The-best-of-fuel', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Best of Fuel&lt;/em&gt; is the first compilation album by American rock band Fuel, released on December 13, 2005, via Epic Records. The album features songs from their first three studio albums: &lt;a href="https://genius.com/albums/Fuel/Sunburn" rel="noopener" data-api_path="/albums/186020"&gt;&lt;em&gt;Sunburn&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Fuel/Something-like-human" rel="noopener" data-api_path="/albums/165706"&gt;&lt;em&gt;Something Like Human&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Fuel/Natural-selection" rel="noopener" data-api_path="/albums/207401"&gt;&lt;em&gt;Natural Selection&lt;/em&gt;&lt;/a&gt;. Commercially, the album did not appear on any Billboard charts.&lt;/p&gt;', 'producers': [{'name': 'Ben Grosse', 'url': 'https://genius.com/artists/Ben-grosse'}, {'name': 'Carl Bell', 'url': 'https://genius.com/artists/Carl-bell'}, {'name': 'Michael Beinhorn', 'url': 'https://genius.com/artists/Michael-beinhorn'}, {'name': 'Steven Haigler', 'url': 'https://genius.com/artists/Steven-haigler'}], 'writers': [{'name': 'Carl Bell', 'url': 'https://genius.com/artists/Carl-bell'}], 'labels': [{'name': '550 Music', 'url': 'https://genius.com/artists/550-music'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Incubus/Make-yourself', 'annotations': {'description': '&lt;p&gt;Incubus\' third studio album, &lt;em&gt;Make Yourself&lt;/em&gt; is arguably the band’s most well known album in their entire catalog and most commercially successful too, thanks to their song, &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The record is most notable for the band’s shift in sound towards an accessible, radio friendly sound, turning away from their funk metal origins of their first two projects, &lt;a href="https://genius.com/albums/Incubus/Fungus-amongus" rel="noopener" data-api_path="/albums/24589"&gt;Fungus Amongus&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/S-c-i-e-n-c-e" rel="noopener" data-api_path="/albums/42111"&gt;S.C.I.E.N.C.E.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Incubus', 'url': 'https://genius.com/artists/Incubus'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Alex Katunich', 'url': 'https://genius.com/artists/Alex-katunich'}, {'name': 'Brandon Boyd', 'url': 'https://genius.com/artists/Brandon-boyd'}, {'name': 'Chris Kilmore', 'url': 'https://genius.com/artists/Chris-kilmore'}, {'name': 'Incubus', 'url': 'https://genius.com/artists/Incubus'}, {'name': 'José Pasillas', 'url': 'https://genius.com/artists/Jose-pasillas'}, {'name': 'Mike Einziger', 'url': 'https://genius.com/artists/Mike-einziger'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Living-things', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://wiki.lpassociation.com/index.php?title=Living_Things" rel="noopener nofollow"&gt;Living Things&lt;/a&gt; is the fifth studio album released by Linkin Park. It was released under Warner Bros. Records and Machine Shop Recordings on June 20, 2012, in Japan and throughout the rest of the world during the following week. Production was handled by Mike Shinoda and Rick Rubin, who both co-produced Minutes to Midnight in 2007, and A Thousand Suns in 2010.&lt;br&gt;\nThe band states that Living Things combines elements from their previous four studio albums to create a new sound. They also stated that they finally felt they were in “familiar territory” and “comfortable in [their] own skin” after years of experimentation that resulted in their two previous studio albums, “Minutes to Midnight” and “A Thousand Suns”.[3][4][5] “Living Things” was chosen as the album’s title because of the numerous personal topics on the album.[6]&lt;br&gt;\nThe lead single for the album, “Burn It Down”, was sent to radio and released to digital music retailers on April 16, 2012. “Living Things” debuted at number one on Billboard 200 with sales of 223,000 copies in the United States in its opening week. The second single for the album, “Lost in the Echo”, was released on October 19, 2012. The third single for the album, “Castle of Glass”, was released in its physical format on February 1, 2013, and digitally to iTunes on March 22, 2013. The album has sold 2.5 million copies worldwide as of December 2013.&lt;/p&gt;', 'producers': [{'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}, {'name': 'Warner Bros. Records Inc. for the U.S.', 'url': 'https://genius.com/artists/Warner-bros-records-inc-for-the-us'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pop-evil/Onyx', 'annotations': {'description': '', 'producers': [{'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}], 'writers': [{'name': 'Chachi Riot', 'url': 'https://genius.com/artists/Chachi-riot'}, {'name': 'Christine Connolly', 'url': 'https://genius.com/artists/Christine-connolly'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Dave Grahs', 'url': 'https://genius.com/artists/Dave-grahs'}, {'name': 'Johnny K', 'url': 'https://genius.com/artists/Johnny-k'}, {'name': 'Leigh Kakaty', 'url': 'https://genius.com/artists/Leigh-kakaty'}, {'name': 'Matthew Di Rito', 'url': 'https://genius.com/artists/Matthew-di-rito'}, {'name': 'Michael Lichtenstein', 'url': 'https://genius.com/artists/Michael-lichtenstein'}, {'name': 'Nick Fuelling', 'url': 'https://genius.com/artists/Nick-fuelling'}, {'name': 'Scott Stevens', 'url': 'https://genius.com/artists/Scott-stevens'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Killswitch-engage/The-end-of-heartache', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The End of Heartache&lt;/em&gt; was recorded December 15, 2003 – January 29, 2004 at Zing Studios in Westfield, MA and released on May 11, 2004 through Roadrunner Records. It is the first album to feature lead vocalist Howard Jones. It is also the first album to feature Adam Dutkiewicz as the lead guitarist rather than the drummer, Justin Foley also from Blood Has Been Shed joined the bands as the drummer also making his first recording on this album.&lt;/p&gt;\n\n&lt;p&gt;The first recording was the song “When Darkness Falls” appearing on the soundtrack to the 2003 horror film Freddy vs. Jason.&lt;/p&gt;\n\n&lt;p&gt;The title track was nominated for Best Metal Performance for the 47th Annual Grammy Awards.&lt;/p&gt;\n\n&lt;p&gt;In 2005, a special edition of the album was released which contained 6 additional tracks.&lt;br&gt;\nThe album was certified Gold by the RIAA on December 7, 2007.&lt;/p&gt;', 'producers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}], 'writers': [{'name': 'Adam Dutkiewicz', 'url': 'https://genius.com/artists/Adam-dutkiewicz'}, {'name': 'Howard Jones (Rock)', 'url': 'https://genius.com/artists/Howard-jones-rock'}, {'name': 'Joel Stroetzel', 'url': 'https://genius.com/artists/Joel-stroetzel'}, {'name': 'Killswitch Engage', 'url': 'https://genius.com/artists/Killswitch-engage'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Hollywood-undead/Day-of-the-dead', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Day of the Dead&lt;/strong&gt; is the fourth studio album released by &lt;a href="https://genius.com/artists/Hollywood-undead" rel="noopener" data-api_path="/artists/2071"&gt;Hollywood Undead&lt;/a&gt;. It was released on March 31, 2015. It sold 29,787 copies on its debut week.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Reggie Edwards from thefrontrowreport.com gave the album 9.5 out of a total 10 mentioning that Hollywood Undead have completely outdone themselves yet again. He also mentioned that &lt;strong&gt;Day of the Dead&lt;/strong&gt; is the perfect encapsulating of the band’s entire career. Finally, he said: “When this record releases, it’s best for you to just welcome in this new chapter of Hollywood Undead’s career because it’s a damn impressive one and it’s time to enter into the Day of the Dead, you can’t escape it if you wanted to.”&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;This is the first album by the band where the lead single has the same title as the album.&lt;/p&gt;\n\n&lt;p&gt;This is the third album which has references to its title in song lyrics.&lt;br&gt;\nFrom &lt;a href="https://genius.com/Hollywood-undead-been-to-hell-lyrics" rel="noopener" data-api_path="/songs/50753"&gt;&lt;em&gt;Been to Hell&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/artists/Charlie-scene" rel="noopener" data-api_path="/artists/637970"&gt;Charlie Scene&lt;/a&gt; raps “I’m the reason you came here, I’m the &lt;a href="https://genius.com/albums/Hollywood-undead/American-tragedy" rel="noopener" data-api_path="/albums/10809"&gt;&lt;strong&gt;American Tragedy&lt;/strong&gt;&lt;/a&gt;”.&lt;br&gt;\nFrom &lt;a href="https://genius.com/Hollywood-undead-glory-lyrics" rel="noopener" data-api_path="/songs/61757"&gt;&lt;em&gt;Glory&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/artists/Johnny-3-tears" rel="noopener" data-api_path="/artists/413080"&gt;Johnny 3 Tears&lt;/a&gt; raps “If you don’t, we’ll live to see/One last act of tragedy,” referencing the album title &lt;strong&gt;American Tragedy&lt;/strong&gt;.&lt;br&gt;\n&lt;a href="https://genius.com/Hollywood-undead-from-the-ground-lyrics" rel="noopener" data-api_path="/songs/110033"&gt;&lt;em&gt;From the Ground&lt;/em&gt;&lt;/a&gt; references the title of the album, &lt;a href="https://genius.com/albums/Hollywood-undead/Notes-from-the-underground" rel="noopener" data-api_path="/albums/23727"&gt;&lt;strong&gt;Notes from the Underground&lt;/strong&gt;&lt;/a&gt;.&lt;br&gt;\nFrom &lt;a href="https://genius.com/Hollywood-undead-day-of-the-dead-lyrics" rel="noopener" data-api_path="/songs/543678"&gt;&lt;em&gt;Day of the Dead&lt;/em&gt;&lt;/a&gt;, the chorus has the name of the album screamed multiple times.&lt;/p&gt;\n\n&lt;p&gt;Day of the Dead is also an English translation of “Día De Los Muertos”, a Mexican holiday similar to Halloween. However, the holiday wasn’t the influence.&lt;/p&gt;', 'producers': [{'name': 'Charlie Scene', 'url': 'https://genius.com/artists/Charlie-scene'}, {'name': 'Danny Lohner', 'url': 'https://genius.com/artists/Danny-lohner'}, {'name': 'Griffin Boice', 'url': 'https://genius.com/artists/Griffin-boice'}, {'name': 'J-Dog', 'url': 'https://genius.com/artists/J-dog'}, {'name': 'Matt Squire', 'url': 'https://genius.com/artists/Matt-squire'}, {'name': 'Sean Gould', 'url': 'https://genius.com/artists/Sean-gould'}], 'writers': [{'name': 'Charlie Scene', 'url': 'https://genius.com/artists/Charlie-scene'}, {'name': 'Daniel “Danny” Murillo', 'url': 'https://genius.com/artists/Daniel-danny-murillo'}, {'name': 'Funny Man', 'url': 'https://genius.com/artists/Funny-man'}, {'name': 'Griffin Boice', 'url': 'https://genius.com/artists/Griffin-boice'}, {'name': 'J-Dog', 'url': 'https://genius.com/artists/J-dog'}, {'name': 'Johnny 3 Tears', 'url': 'https://genius.com/artists/Johnny-3-tears'}, {'name': 'Magic Eyes', 'url': 'https://genius.com/artists/Magic-eyes'}, {'name': 'Sean Gould', 'url': 'https://genius.com/artists/Sean-gould'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Vertical-horizon/Everything-you-want', 'annotations': {'description': '', 'producers': [{'name': 'Ben Grosse', 'url': 'https://genius.com/artists/Ben-grosse'}, {'name': 'David Bendeth', 'url': 'https://genius.com/artists/David-bendeth'}, {'name': 'Mark Endert', 'url': 'https://genius.com/artists/Mark-endert'}, {'name': 'Matt Scannell', 'url': 'https://genius.com/artists/Matt-scannell'}], 'writers': [{'name': 'Keith Kane', 'url': 'https://genius.com/artists/Keith-kane'}, {'name': 'Matthew Scannell', 'url': 'https://genius.com/artists/Matthew-scannell'}, {'name': 'Matt Scannell', 'url': 'https://genius.com/artists/Matt-scannell'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Marcy-playground/Marcy-playground', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Marcy Playground&lt;/em&gt; is the debut self-titled album by Marcy Playground, released on February 25, 1997 via EMI Records. It is also their most successful album to date and their only album to chart on the US Billboard 200 with its &lt;a href="https://www.billboard.com/music/Marcy-Playground/chart-history/TLP" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #21.&lt;/p&gt;\n\n&lt;p&gt;The lead single from the album, &lt;a href="https://genius.com/Marcy-playground-sex-and-candy-lyrics" rel="noopener" data-api_path="/songs/73742"&gt;“Sex and Candy”&lt;/a&gt;, is their most popular song to date, charting as high as #8 on the Billboard Hot 100 chart. The song also &lt;a href="https://www.billboard.com/articles/columns/rock/7640665/1997-alternative-rock-songs-turning-20-2017" rel="noopener nofollow"&gt;spent&lt;/a&gt; a then record breaking 15 weeks at number one on Billboard Modern Rock Tracks chart.&lt;/p&gt;\n\n&lt;p&gt;The singles &lt;a href="https://genius.com/Marcy-playground-poppies-lyrics" rel="noopener" data-api_path="/songs/232320"&gt;“Poppies”&lt;/a&gt;, &lt;a href="https://genius.com/Marcy-playground-saint-joe-on-the-school-bus-lyrics" rel="noopener" data-api_path="/songs/1758495"&gt;“Saint Joe on the School Bus”&lt;/a&gt;, and &lt;a href="https://genius.com/Marcy-playground-sherry-fraser-lyrics" rel="noopener" data-api_path="/songs/2174318"&gt;“Sherry Fraser”&lt;/a&gt; were also released from the album, but did not have the same success as “Sex and Candy”.&lt;/p&gt;', 'producers': [{'name': 'Jared Kotler', 'url': 'https://genius.com/artists/Jared-kotler'}, {'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}], 'writers': [{'name': 'John Wozniak', 'url': 'https://genius.com/artists/John-wozniak'}, {'name': 'Sherry Fraser', 'url': 'https://genius.com/artists/Sherry-fraser'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sublime/Gold', 'annotations': {'description': '', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}, {'name': 'Elephant Levitation', 'url': 'https://genius.com/artists/Elephant-levitation'}, {'name': 'Michael “Miguel” Happoldt', 'url': 'https://genius.com/artists/Michael-miguel-happoldt'}, {'name': 'Paul Leary', 'url': 'https://genius.com/artists/Paul-leary'}, {'name': 'Sublime', 'url': 'https://genius.com/artists/Sublime'}], 'writers': [{'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Barrington Levy', 'url': 'https://genius.com/artists/Barrington-levy'}, {'name': 'Bradley Nowell', 'url': 'https://genius.com/artists/Bradley-nowell'}, {'name': 'Brent Dowe', 'url': 'https://genius.com/artists/Brent-dowe'}, {'name': 'Bud Gaugh', 'url': 'https://genius.com/artists/Bud-gaugh'}, {'name': 'Chris Kay', 'url': 'https://genius.com/artists/Chris-kay'}, {'name': 'DuBose Heyward', 'url': 'https://genius.com/artists/Dubose-heyward'}, {'name': 'Eric Wilson', 'url': 'https://genius.com/artists/Eric-wilson'}, {'name': 'Floyd Gaugh', 'url': 'https://genius.com/artists/Floyd-gaugh'}, {'name': 'Frank Farian', 'url': 'https://genius.com/artists/Frank-farian'}, {'name': 'George Gershwin', 'url': 'https://genius.com/artists/George-gershwin'}, {'name': 'George Reyam', 'url': 'https://genius.com/artists/George-reyam'}, {'name': 'Geto Boys', 'url': 'https://genius.com/artists/Geto-boys'}, {'name': 'Greg Graffin', 'url': 'https://genius.com/artists/Greg-graffin'}, {'name': 'Half Pint', 'url': 'https://genius.com/artists/Half-pint'}, {'name': 'Ira Gershwin', 'url': 'https://genius.com/artists/Ira-gershwin'}, {'name': 'Jerry Garcia', 'url': 'https://genius.com/artists/Jerry-garcia'}, {'name': 'Joe Higgs', 'url': 'https://genius.com/artists/Joe-higgs'}, {'name': 'KRS-One', 'url': 'https://genius.com/artists/Krs-one'}, {'name': 'Linton Kwesi Johnson', 'url': 'https://genius.com/artists/Linton-kwesi-johnson'}, {'name': 'Lloyd McDonald', 'url': 'https://genius.com/artists/Lloyd-mcdonald'}, {'name': 'Marshall Goodman', 'url': 'https://genius.com/artists/Marshall-goodman'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'Michael Kay', 'url': 'https://genius.com/artists/Michael-kay'}, {'name': 'Michael “Miguel” Happoldt', 'url': 'https://genius.com/artists/Michael-miguel-happoldt'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Robert Hunter', 'url': 'https://genius.com/artists/Robert-hunter'}, {'name': 'Sublime', 'url': 'https://genius.com/artists/Sublime'}, {'name': 'Toots Hibbert', 'url': 'https://genius.com/artists/Toots-hibbert'}, {'name': 'Trevor McNaughton', 'url': 'https://genius.com/artists/Trevor-mcnaughton'}, {'name': 'Winston Matthews', 'url': 'https://genius.com/artists/Winston-matthews'}], 'labels': [{'name': 'MCA Records', 'url': 'https://genius.com/artists/Mca-records'}, {'name': 'Skunk Records', 'url': 'https://genius.com/artists/Skunk-records'}]}}</t>
+    <t>{'url': 'https://genius.com/albums/Taylor-swift/1989', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;1989&lt;/em&gt; was Swift’s official entrance to the pop music scene, and it cemented her status as a musical titan. It was the &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6304536/official-taylor-swifts-1989-debuts-with-1287-million-sold-in" rel="noopener nofollow"&gt;only album of 2014&lt;/a&gt; to sell over a million copies in its first week, and spent &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6398442/taylor-swift-1989-fifth-week-no-1-billboard-200" rel="noopener nofollow"&gt;five non-consecutive weeks&lt;/a&gt; at #1.&lt;/p&gt;\n\n&lt;p&gt;After her 2012 record &lt;a href="https://genius.com/albums/taylor-swift/red" rel="noopener" data-api_path="/albums/22453"&gt;&lt;em&gt;Red&lt;/em&gt;&lt;/a&gt; didn’t win the Grammy for Album Of The Year, Swift stepped back and decided she may have a better chance if she changed her sound. That night, she &lt;a href="http://www.billboard.com/articles/columns/pop-shop/6722714/taylor-swift-cried-after-losing-album-of-the-year-grammy-interview" rel="noopener nofollow"&gt;vowed to go in a completely different direction&lt;/a&gt; in hopes that her next album would win the award — and &lt;a href="https://web.archive.org/web/20160221180634/http://www.theguardian.com/music/2016/feb/15/grammy-awards-2016-the-main-nominees" rel="noopener nofollow"&gt;it did&lt;/a&gt;, making Swift both the &lt;a href="https://web.archive.org/web/20160301073145/http://www.billboard.com/articles/news/grammys/6882510/taylor-swift-grammy-album-of-the-year-win-multiple" rel="noopener nofollow"&gt;first woman&lt;/a&gt; to win the award twice and the first to win it for two genres, since her 2008 record, &lt;a href="https://genius.com/albums/taylor-swift/fearless" rel="noopener" data-api_path="/albums/12731"&gt;&lt;em&gt;Fearless&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://www.youtube.com/watch?v=v5e0eAhpC00" rel="noopener nofollow"&gt;won&lt;/a&gt; in 2010.&lt;/p&gt;\n\n&lt;p&gt;Swift foreshadowed her new pop sound with 2013’s &lt;a href="https://genius.com/taylor-swift-sweeter-than-fiction-lyrics" rel="noopener" data-api_path="/songs/241562"&gt;“Sweeter Than Fiction,”&lt;/a&gt; her first collaboration with &lt;a href="https://genius.com/artists/jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt;, who became a crucial part of her pop career. He produced &lt;a href="https://genius.com/Taylor-swift-out-of-the-woods-lyrics" rel="noopener" data-api_path="/songs/539592"&gt;“Out of the Woods,”&lt;/a&gt; &lt;a href="https://genius.com/Taylor-swift-i-wish-you-would-lyrics" rel="noopener" data-api_path="/songs/551092"&gt;“I Wish You Would,”&lt;/a&gt; and deluxe track &lt;a href="https://genius.com/Taylor-swift-you-are-in-love-lyrics" rel="noopener" data-api_path="/songs/551103"&gt;“You Are In Love,”&lt;/a&gt; which Swift even wrote about his relationship with &lt;a href="https://genius.com/artists/lena-dunham" rel="noopener" data-api_path="/artists/37087"&gt;Lena Dunham&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Swift kicked off the &lt;em&gt;1989&lt;/em&gt; era with a &lt;a href="https://www.youtube.com/watch?v=JedrC-rHMw8" rel="noopener nofollow"&gt;livestream&lt;/a&gt; and the release of lead single &lt;a href="https://genius.com/taylor-swift-shake-it-off-lyrics" rel="noopener" data-api_path="/songs/499725"&gt;“Shake It Off,”&lt;/a&gt; which became one of her biggest hits and earned Swift her &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Taylor+Swift&amp;amp;ti=Shake+It+Off#search_section" rel="noopener nofollow"&gt;first diamond single&lt;/a&gt; by March 2020.&lt;/p&gt;\n\n&lt;p&gt;Swift went on to release &lt;a href="https://genius.com/taylor-swift-blank-space-lyrics" rel="noopener" data-api_path="/songs/542389"&gt;“Blank Space,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-style-lyrics" rel="noopener" data-api_path="/songs/542390"&gt;“Style,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-bad-blood-lyrics" rel="noopener" data-api_path="/songs/551262"&gt;“Bad Blood,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-wildest-dreams-lyrics" rel="noopener" data-api_path="/songs/551256"&gt;“Wildest Dreams,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-out-of-the-woods-lyrics" rel="noopener" data-api_path="/songs/539592"&gt;“Out Of The Woods,”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-new-romantics-lyrics" rel="noopener" data-api_path="/songs/552892"&gt;“New Romantics”&lt;/a&gt; as singles. In addition, &lt;a href="https://genius.com/taylor-swift-welcome-to-new-York-lyrics" rel="noopener" data-api_path="/songs/540670"&gt;“Welcome To New York”&lt;/a&gt; was &lt;a href="http://www.cnbc.com/2014/12/20/-love-affair.html" rel="noopener nofollow"&gt;used in tourism ads&lt;/a&gt; for the city that served as the track’s inspiration.&lt;/p&gt;\n\n&lt;p&gt;In addition to the standard, 13-song album, Swift teamed up with &lt;a href="http://target.com/" rel="noopener nofollow"&gt;Target&lt;/a&gt; for an extended &lt;a href="https://genius.com/albums/Taylor-swift/1989-deluxe" rel="noopener" data-api_path="/albums/621286"&gt;deluxe release&lt;/a&gt;, featuring three new songs and three voice memos from her writing sessions. A karaoke version of the album was also released for both the &lt;a href="https://music.apple.com/us/album/taylor-swift-karaoke-1989/1440935508" rel="noopener nofollow"&gt;standard&lt;/a&gt; and the &lt;a href="https://music.apple.com/bf/album/taylor-swift-karaoke-1989-deluxe/1446743614" rel="noopener nofollow"&gt;deluxe&lt;/a&gt; edition.&lt;/p&gt;\n\n&lt;p&gt;In May 2015, Swift kicked off the album’s &lt;a href="https://genius.com/taylor-swift-1989-tour-Setlist-annotated" rel="noopener" data-api_path="/songs/2439212"&gt;tour&lt;/a&gt;, sponsored by American Express. It became the &lt;a href="http://www.ibtimes.com/taylor-swift-did-something-2015-no-female-musician-has-ever-done-2257441" rel="noopener nofollow"&gt;highest-grossing U.S. tour&lt;/a&gt; of all time, earning over $250 million, and Swift later &lt;a href="https://www.billboard.com/biz/articles/news/touring/8489131/taylor-swift-closes-reputation-stadium-tour-with-345-million" rel="noopener nofollow"&gt;broke her own record&lt;/a&gt; with 2018’s &lt;a href="https://genius.com/albums/taylor-swift/reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt; Stadium Tour.&lt;/p&gt;', 'producers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Imogen Heap', 'url': 'https://genius.com/artists/Imogen-heap'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Mattman &amp; Robin', 'url': 'https://genius.com/artists/Mattman-and-robin'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nathan Chapman', 'url': 'https://genius.com/artists/Nathan-chapman'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'writers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Imogen Heap', 'url': 'https://genius.com/artists/Imogen-heap'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'labels': [{'name': 'Big Machine Records', 'url': 'https://genius.com/artists/Big-machine-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-vines/Highly-evolved', 'annotations': {'description': '', 'producers': [{'name': 'Rob Schnapf', 'url': 'https://genius.com/artists/Rob-schnapf'}], 'writers': [{'name': 'Craig Nicholls', 'url': 'https://genius.com/artists/Craig-nicholls'}, {'name': 'Dave Olliffe', 'url': 'https://genius.com/artists/Dave-olliffe'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Motley-crue/Girls-girls-girls', 'annotations': {'description': '&lt;p&gt;Girls, Girls, Girls is the fourth album released by the legendary rock group. &lt;a href="https://youtu.be/JjL1Jnnph_g?t=25" rel="noopener nofollow"&gt;Nikki Sixx has stated in a 1987 interview that the album took four in a half months to record&lt;/a&gt;. The album was released May 15, 1987 and distributed through Elektra Records. This was also the first time the group would work with &lt;a href="https://en.wikipedia.org/wiki/Tom_Werman" rel="noopener nofollow"&gt;Tom Werman&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album released three singles &lt;a href="https://genius.com/Motley-crue-wild-side-lyrics" rel="noopener" data-api_path="/songs/399281"&gt;“Wild Side”&lt;/a&gt;, &lt;a href="https://genius.com/Motley-crue-girls-girls-girls-lyrics" rel="noopener" data-api_path="/songs/108070"&gt;“Girls, Girls, Girls”&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Motley-crue-youre-all-i-need-lyrics" rel="noopener" data-api_path="/songs/399398"&gt;“You’re All I Need\'&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Mick Mars', 'url': 'https://genius.com/artists/Mick-mars'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}, {'name': 'Tommy Lee', 'url': 'https://genius.com/artists/Tommy-lee'}, {'name': 'Vince Neil', 'url': 'https://genius.com/artists/Vince-neil'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Styx/Cornerstone', 'annotations': {'description': '', 'producers': [{'name': 'Chuck Panozzo', 'url': 'https://genius.com/artists/Chuck-panozzo'}, {'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'John Panozzo', 'url': 'https://genius.com/artists/John-panozzo'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'writers': [{'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Train/Save-me-san-francisco', 'annotations': {'description': '', 'producers': [{'name': 'David “Sluggo” Katz', 'url': 'https://genius.com/artists/David-sluggo-katz'}, {'name': 'Espionage', 'url': 'https://genius.com/artists/Espionage'}, {'name': 'Gregg Wattenberg', 'url': 'https://genius.com/artists/Gregg-wattenberg'}, {'name': 'Martin Terefe', 'url': 'https://genius.com/artists/Martin-terefe'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}, {'name': 'Sluggo', 'url': 'https://genius.com/artists/Sluggo'}], 'writers': [{'name': 'Amund Björklund', 'url': 'https://genius.com/artists/Amund-bjorklund'}, {'name': 'Dave Katz', 'url': 'https://genius.com/artists/Dave-katz'}, {'name': 'Espen Lind', 'url': 'https://genius.com/artists/Espen-lind'}, {'name': 'Gregg Wattenberg', 'url': 'https://genius.com/artists/Gregg-wattenberg'}, {'name': 'Jerry Becker', 'url': 'https://genius.com/artists/Jerry-becker'}, {'name': 'Jimmy Stafford', 'url': 'https://genius.com/artists/Jimmy-stafford'}, {'name': 'Kevin Griffin', 'url': 'https://genius.com/artists/Kevin-griffin'}, {'name': 'Luis Maldonado', 'url': 'https://genius.com/artists/Luis-maldonado'}, {'name': 'Pat Monahan', 'url': 'https://genius.com/artists/Pat-monahan'}, {'name': 'Patrick Monahan', 'url': 'https://genius.com/artists/Patrick-monahan'}, {'name': 'Patrick Simmons', 'url': 'https://genius.com/artists/Patrick-simmons'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}, {'name': 'Scott Underwood', 'url': 'https://genius.com/artists/Scott-underwood'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Michael-jackson/Scream', 'annotations': {'description': '&lt;p&gt;Titled after &lt;a href="https://genius.com/Michael-jackson-scream-lyrics" rel="noopener" data-api_path="/songs/108127"&gt;his hit collaboration with sister Janet&lt;/a&gt;, &lt;em&gt;Scream&lt;/em&gt; is a Halloween compilation album by &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, released on September 29, 2017.&lt;/p&gt;\n\n&lt;p&gt;Being a Halloween-themed compilation, it largely taps into the darker side of Jackson’s extensive discography, featuring well known hits like “This Place Hotel”, “Thriller” and the title track, and even lesser known tracks such as “Threatened” and “Ghosts”.&lt;/p&gt;\n\n&lt;p&gt;As a bonus, &lt;a href="https://genius.com/Michael-jackson-blood-on-the-dance-floor-x-dangerous-the-white-panda-mash-up-lyrics" rel="noopener" data-api_path="/songs/3226130"&gt;a mash up of “Dangerous” and “Blood on The Dancefloor”&lt;/a&gt; by White Panda is included to the album, and was released as a single to promote its release.&lt;/p&gt;', 'producers': [{'name': 'Curtis Anthony Nolen', 'url': 'https://genius.com/artists/Curtis-anthony-nolen'}, {'name': 'Jackie Jackson', 'url': 'https://genius.com/artists/Jackie-jackson'}, {'name': 'The Jacksons', 'url': 'https://genius.com/artists/The-jacksons'}, {'name': 'Janet Jackson', 'url': 'https://genius.com/artists/Janet-jackson'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Rockwell', 'url': 'https://genius.com/artists/Rockwell'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}, {'name': 'White Panda', 'url': 'https://genius.com/artists/White-panda'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Curtis Anthony Nolen', 'url': 'https://genius.com/artists/Curtis-anthony-nolen'}, {'name': 'Fred Jerkins III', 'url': 'https://genius.com/artists/Fred-jerkins-iii'}, {'name': 'Harvey Mason Jr.', 'url': 'https://genius.com/artists/Harvey-mason-jr'}, {'name': 'Jackie Jackson', 'url': 'https://genius.com/artists/Jackie-jackson'}, {'name': 'Janet Jackson', 'url': 'https://genius.com/artists/Janet-jackson'}, {'name': 'Jimmy Jam', 'url': 'https://genius.com/artists/Jimmy-jam'}, {'name': 'Kathy Wakefield', 'url': 'https://genius.com/artists/Kathy-wakefield'}, {'name': 'LaShawn Daniels', 'url': 'https://genius.com/artists/Lashawn-daniels'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Nora Payne', 'url': 'https://genius.com/artists/Nora-payne'}, {'name': 'The Notorious B.I.G.', 'url': 'https://genius.com/artists/The-notorious-big'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}, {'name': 'Rockwell', 'url': 'https://genius.com/artists/Rockwell'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Rod Temperton', 'url': 'https://genius.com/artists/Rod-temperton'}, {'name': 'See Subsong', 'url': 'https://genius.com/artists/See-subsong'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}, {'name': 'Terry Lewis', 'url': 'https://genius.com/artists/Terry-lewis'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'MJJ Music', 'url': 'https://genius.com/artists/Mjj-music'}, {'name': 'MJJ Productions', 'url': 'https://genius.com/artists/Mjj-productions'}, {'name': 'Motown Records', 'url': 'https://genius.com/artists/Motown-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Keane/Under-the-iron-sea', 'annotations': {'description': '', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}], 'writers': [{'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Good-charlotte/The-young-and-the-hopeless', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Young and the Hopeless&lt;/em&gt; is the second studio album by American rock band Good Charlotte, released on October 1, 2002 via Epic/Daylight Records. Commercially, the album &lt;a href="https://www.billboard.com/music/Good-Charlotte/chart-history/TLP" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #7 on the US Billboard 200, making it their first album to appear in the top 10.&lt;/p&gt;\n\n&lt;p&gt;A total of three official singles were released on the album: &lt;a href="https://genius.com/Good-charlotte-lifestyles-of-the-rich-and-famous-lyrics" rel="noopener" data-api_path="/songs/160025"&gt;“Lifestyles of the Rich &amp;amp; Famous”&lt;/a&gt;, &lt;a href="https://genius.com/Good-charlotte-the-anthem-lyrics" rel="noopener" data-api_path="/songs/150224"&gt;“The Anthem”&lt;/a&gt;, and &lt;a href="https://genius.com/Good-charlotte-girls-and-boys-lyrics" rel="noopener" data-api_path="/songs/396236"&gt;“Girls &amp;amp; Boys”&lt;/a&gt;. All singles &lt;a href="https://www.billboard.com/music/good-charlotte/chart-history/HSI" rel="noopener nofollow"&gt;peaked&lt;/a&gt; within the top 50 of the Billboard Hot 100 chart, at #20, #43, and #48, respectively.&lt;/p&gt;', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Benji Madden', 'url': 'https://genius.com/artists/Benji-madden'}, {'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}, {'name': 'Joel Madden', 'url': 'https://genius.com/artists/Joel-madden'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Edward-maya/The-stereo-love-show', 'annotations': {'description': '', 'producers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}], 'writers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}, {'name': 'Folk Adaptation', 'url': 'https://genius.com/artists/Folk-adaptation'}, {'name': 'Vika Jigulina', 'url': 'https://genius.com/artists/Vika-jigulina'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Eminem/The-marshall-mathers-lp2', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Marshall Mathers LP2&lt;/em&gt;, commonly abbreviated to &lt;em&gt;MMLP2&lt;/em&gt;, is the eighth studio album by Eminem, released on November 5, 2013.&lt;/p&gt;\n\n&lt;p&gt;The album is a sequel to Eminem’s most successful and arguably best album &lt;a href="https://genius.com/albums/Eminem/The-marshall-mathers-lp" rel="noopener" data-api_path="/albums/2873"&gt;&lt;em&gt;The Marshall Mathers LP&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album came in a critical time after his previous 3 albums: &lt;a href="https://genius.com/albums/Eminem/Recovery" rel="noopener" data-api_path="/albums/2876"&gt;&lt;em&gt;Recovery&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Eminem/Relapse" rel="noopener" data-api_path="/albums/2878"&gt;&lt;em&gt;Relapse&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Eminem/Encore" rel="noopener" data-api_path="/albums/2867"&gt;&lt;em&gt;Encore&lt;/em&gt;&lt;/a&gt; got mixed reviews by critics.&lt;br&gt;\nFortunately this album got mostly good reviews by critics who praised Eminem’s technical rapping abilities and production choices.&lt;/p&gt;\n\n&lt;p&gt;The album was named on multiple “Albums of the Year” year-end lists. It debuted at number one on the US Billboard 200 and had the second highest album sales of 2013, and won a Grammy for best rap album at the 57th Grammy Awards.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs have individual awards and accolades, including &lt;a href="https://genius.com/Eminem-survival-lyrics" rel="noopener" data-api_path="/songs/204622"&gt;“Survival”&lt;/a&gt; (featured in &lt;a href="http://hiphopdx.com/news/id.26169/title.activision-explains-eminem-partnership-for-call-of-duty-ghosts" rel="noopener nofollow"&gt;“Call of Duty: Ghosts”&lt;/a&gt;), &lt;a href="https://genius.com/Eminem-the-monster-lyrics" rel="noopener" data-api_path="/songs/235732"&gt;“The Monster”&lt;/a&gt; (received a Grammy award for Best Rap/Sung Collaboration) and &lt;a href="https://genius.com/Eminem-rap-god-lyrics" rel="noopener" data-api_path="/songs/235729"&gt;“Rap God”&lt;/a&gt; (Grammy for Best Rap Performance and holds the world record in the &lt;a href="http://www.guinnessworldrecords.com/news/2014/9/jennifer-lawrence-game-of-thrones-frozen-among-new-entertainment-record-holders-in-guinness-world-records-2015-book-60021/" rel="noopener nofollow"&gt;“Guinness World Records 2015 book”&lt;/a&gt; for “Most words in a hit single).&lt;/p&gt;', 'producers': [{'name': 'Aalias', 'url': 'https://genius.com/artists/Aalias'}, {'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'DJ Khalil', 'url': 'https://genius.com/artists/Dj-khalil'}, {'name': 'DVLP', 'url': 'https://genius.com/artists/Dvlp'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Frequency', 'url': 'https://genius.com/artists/Frequency'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'M-Phazes', 'url': 'https://genius.com/artists/M-phazes'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'S1', 'url': 'https://genius.com/artists/S1'}, {'name': 'Sid Roams', 'url': 'https://genius.com/artists/Sid-roams'}, {'name': 'STREETRUNNER', 'url': 'https://genius.com/artists/Streetrunner'}], 'writers': [{'name': 'Aalias', 'url': 'https://genius.com/artists/Aalias'}, {'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Arabian Prince', 'url': 'https://genius.com/artists/Arabian-prince'}, {'name': 'Art Neville', 'url': 'https://genius.com/artists/Art-neville'}, {'name': 'Bebe Rexha', 'url': 'https://genius.com/artists/Bebe-rexha'}, {'name': 'Billy Squier', 'url': 'https://genius.com/artists/Billy-squier'}, {'name': 'Chin Injeti', 'url': 'https://genius.com/artists/Chin-injeti'}, {'name': 'Clint Ballard', 'url': 'https://genius.com/artists/Clint-ballard'}, {'name': 'Coy Poe', 'url': 'https://genius.com/artists/Coy-poe'}, {'name': 'Crazy J', 'url': 'https://genius.com/artists/Crazy-j'}, {'name': 'Cyril Neville', 'url': 'https://genius.com/artists/Cyril-neville'}, {'name': 'Dania Maria Birks', 'url': 'https://genius.com/artists/Dania-maria-birks'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'DJ Khalil', 'url': 'https://genius.com/artists/Dj-khalil'}, {'name': 'Doug E. Fresh', 'url': 'https://genius.com/artists/Doug-e-fresh'}, {'name': 'DVLP', 'url': 'https://genius.com/artists/Dvlp'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Erik Alcock', 'url': 'https://genius.com/artists/Erik-alcock'}, {'name': 'Frequency', 'url': 'https://genius.com/artists/Frequency'}, {'name': 'George Porter Jr.', 'url': 'https://genius.com/artists/George-porter-jr'}, {'name': 'Gian Piero Reverberi', 'url': 'https://genius.com/artists/Gian-piero-reverberi'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jimmie Grier', 'url': 'https://genius.com/artists/Jimmie-grier'}, {'name': 'Joe Walsh', 'url': 'https://genius.com/artists/Joe-walsh'}, {'name': 'Joey Chavez', 'url': 'https://genius.com/artists/Joey-chavez'}, {'name': 'Jon Bellion', 'url': 'https://genius.com/artists/Jon-bellion'}, {'name': 'Joseph Modeliste', 'url': 'https://genius.com/artists/Joseph-modeliste'}, {'name': 'Kay Gee', 'url': 'https://genius.com/artists/Kay-gee'}, {'name': 'Kendrick Lamar', 'url': 'https://genius.com/artists/Kendrick-lamar'}, {'name': 'Laura Giordano', 'url': 'https://genius.com/artists/Laura-giordano'}, {'name': 'Leo Nocentelli', 'url': 'https://genius.com/artists/Leo-nocentelli'}, {'name': 'Liz Rodrigues', 'url': 'https://genius.com/artists/Liz-rodrigues'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Maki Athanasiou', 'url': 'https://genius.com/artists/Maki-athanasiou'}, {'name': 'Matthew DelGiorno', 'url': 'https://genius.com/artists/Matthew-delgiorno'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'MC JB', 'url': 'https://genius.com/artists/Mc-jb'}, {'name': 'Mike Aiello', 'url': 'https://genius.com/artists/Mike-aiello'}, {'name': 'Mike Strange', 'url': 'https://genius.com/artists/Mike-strange'}, {'name': 'M-Phazes', 'url': 'https://genius.com/artists/M-phazes'}, {'name': 'Nate Ruess', 'url': 'https://genius.com/artists/Nate-ruess'}, {'name': 'OG Rocker', 'url': 'https://genius.com/artists/Og-rocker'}, {'name': 'Pinky Tomlin', 'url': 'https://genius.com/artists/Pinky-tomlin'}, {'name': 'POLINA', 'url': 'https://genius.com/artists/Polina'}, {'name': 'Ransom', 'url': 'https://genius.com/artists/Ransom'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Rihanna', 'url': 'https://genius.com/artists/Rihanna'}, {'name': 'Rod Argent', 'url': 'https://genius.com/artists/Rod-argent'}, {'name': 'S1', 'url': 'https://genius.com/artists/S1'}, {'name': 'Sarah Jaffe', 'url': 'https://genius.com/artists/Sarah-jaffe'}, {'name': 'Schoolly D', 'url': 'https://genius.com/artists/Schoolly-d'}, {'name': 'Skylar Grey', 'url': 'https://genius.com/artists/Skylar-grey'}, {'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Stephen Hacker', 'url': 'https://genius.com/artists/Stephen-hacker'}, {'name': 'STREETRUNNER', 'url': 'https://genius.com/artists/Streetrunner'}, {'name': 'Tavish Graham', 'url': 'https://genius.com/artists/Tavish-graham'}, {'name': 'Treach', 'url': 'https://genius.com/artists/Treach'}, {'name': 'Vinny Venditto', 'url': 'https://genius.com/artists/Vinny-venditto'}, {'name': 'Vin Rock', 'url': 'https://genius.com/artists/Vin-rock'}, {'name': 'Walter Murphy', 'url': 'https://genius.com/artists/Walter-murphy'}, {'name': 'Wolfgang Düren', 'url': 'https://genius.com/artists/Wolfgang-duren'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Snow/12-inches-of-snow', 'annotations': {'description': '&lt;p&gt;12 Inches of Snow is the debut album by Canadian reggae musician Snow, released in 1993. Edmond Leary and MC Shan produced the entire album, apart from one track which was produced by John Ficarrotta. The album was produced shortly before Snow was imprisoned for a year on an assault charge. Upon his release from prison, his first single “Informer” became a chart topping hit. It later went on to become one of the largest-selling reggae records of all time.&lt;/p&gt;', 'producers': [{'name': 'DJ Marvin Prince', 'url': 'https://genius.com/artists/Dj-marvin-prince'}, {'name': 'John Ficarrotta', 'url': 'https://genius.com/artists/John-ficarrotta'}, {'name': 'MC Shan', 'url': 'https://genius.com/artists/Mc-shan'}], 'writers': [{'name': 'DJ Marvin Prince', 'url': 'https://genius.com/artists/Dj-marvin-prince'}, {'name': 'Edmond Leary', 'url': 'https://genius.com/artists/Edmond-leary'}, {'name': 'John Ficarrotta', 'url': 'https://genius.com/artists/John-ficarrotta'}, {'name': 'MC Shan', 'url': 'https://genius.com/artists/Mc-shan'}, {'name': 'Michael Grier', 'url': 'https://genius.com/artists/Michael-grier'}, {'name': 'Snow', 'url': 'https://genius.com/artists/Snow'}, {'name': 'Terri Moltke', 'url': 'https://genius.com/artists/Terri-moltke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ellie-goulding/Bright-lights', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lights&lt;/em&gt; was re-released on 29 November 2010 as &lt;em&gt;Bright Lights&lt;/em&gt;, including six brand-new tracks. It produced two additional singles, those being a cover of Elton John’s “Your Song” and “Lights”, which became Goulding’s biggest hit to date in the UK and US, respectively. Following the re-release, the album saw a surge in sales in both the UK and Ireland. On 8 March 2011, the album was released in the United States featuring three songs that were previously not available on the original version, but were included on the &lt;em&gt;Bright Lights&lt;/em&gt; reissue.&lt;/p&gt;', 'producers': [{'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Ben Lovett', 'url': 'https://genius.com/artists/Ben-lovett'}, {'name': 'FrankMusik', 'url': 'https://genius.com/artists/Frankmusik'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Fred Falke', 'url': 'https://genius.com/artists/Fred-falke'}, {'name': 'Liam Howe', 'url': 'https://genius.com/artists/Liam-howe'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Starsmith', 'url': 'https://genius.com/artists/Starsmith'}], 'writers': [{'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Bernie Taupin', 'url': 'https://genius.com/artists/Bernie-taupin'}, {'name': 'Crispin Hunt', 'url': 'https://genius.com/artists/Crispin-hunt'}, {'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Fred Falke', 'url': 'https://genius.com/artists/Fred-falke'}, {'name': 'John Fortis', 'url': 'https://genius.com/artists/John-fortis'}, {'name': 'Jonny Lattimer', 'url': 'https://genius.com/artists/Jonny-lattimer'}, {'name': 'Liam Howe', 'url': 'https://genius.com/artists/Liam-howe'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Rob Blake', 'url': 'https://genius.com/artists/Rob-blake'}, {'name': 'Starsmith', 'url': 'https://genius.com/artists/Starsmith'}], 'labels': [{'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Papa-roach/Lovehatetragedy', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lovehatetragedy&lt;/em&gt; is the third album by the rock band Papa Roach. It was released on June 18, 2002. The album failed to catch the success of the band’s previous album Infest.&lt;br&gt;\nThe album did not sell as well as its 2000 predecessor, Infest, selling more than 700,000 units, achieving gold certification in the U.S.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'David Buckner', 'url': 'https://genius.com/artists/David-buckner'}, {'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Mike Patton', 'url': 'https://genius.com/artists/Mike-patton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ace-of-base/Happy-nation', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Happy Nation&lt;/em&gt; is Ace Of Base’s debut album, first released in Scandinavia in late 1992. Its North American release did not come until November 1993 with a revised tracklist, artwork, and name: &lt;em&gt;The Sign&lt;/em&gt;&lt;/p&gt;', 'producers': [{'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': 'Douglas Carr', 'url': 'https://genius.com/artists/Douglas-carr'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'T.O.E.C.', 'url': 'https://genius.com/artists/Toec'}, {'name': 'Tommy Ekman', 'url': 'https://genius.com/artists/Tommy-ekman'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'writers': [{'name': 'Jonas Berg', 'url': 'https://genius.com/artists/Jonas-berg'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Flo-rida/Only-one-flo-part-1', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Only One Flo (Part 1)&lt;/em&gt; is the third studio album by American rapper Flo Rida, released on November 30, 2010, through Atlantic Records. Commerically, the album marks his least successful album release and his lowest album to appear on the Billboard 200 chart, only managing to &lt;a href="https://www.billboard.com/music/flo-rida/chart-history" rel="noopener nofollow"&gt;peak&lt;/a&gt; at #107.&lt;/p&gt;\n\n&lt;p&gt;The album saw a release of four singles: “Club Can’t Handle Me”, “Turn Around (5, 4, 3, 2, 1)”, “Who Dat Girl” and “Why You Up In Here”.&lt;/p&gt;', 'producers': [{'name': 'Antario “Tario” Holmes', 'url': 'https://genius.com/artists/Antario-tario-holmes'}, {'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}, {'name': 'Dada Life', 'url': 'https://genius.com/artists/Dada-life'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'Infinity', 'url': 'https://genius.com/artists/Infinity'}, {'name': 'Knobody', 'url': 'https://genius.com/artists/Knobody'}, {'name': 'Los Da Mystro', 'url': 'https://genius.com/artists/Los-da-mystro'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}], 'writers': [{'name': '2Pac', 'url': 'https://genius.com/artists/2pac'}, {'name': 'Antario “Tario” Holmes', 'url': 'https://genius.com/artists/Antario-tario-holmes'}, {'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}, {'name': 'Boris Blank', 'url': 'https://genius.com/artists/Boris-blank'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Carmen Michelle Key', 'url': 'https://genius.com/artists/Carmen-michelle-key'}, {'name': 'Chef Tone', 'url': 'https://genius.com/artists/Chef-tone'}, {'name': 'Claude Kelly', 'url': 'https://genius.com/artists/Claude-kelly'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'David Siegel', 'url': 'https://genius.com/artists/David-siegel'}, {'name': 'Dieter Meier', 'url': 'https://genius.com/artists/Dieter-meier'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'D.O.E. (Rapper)', 'url': 'https://genius.com/artists/Doe-rapper'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'George Kranz', 'url': 'https://genius.com/artists/George-kranz'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Gucci Mane', 'url': 'https://genius.com/artists/Gucci-mane'}, {'name': 'Hurt-M-Badd', 'url': 'https://genius.com/artists/Hurt-m-badd'}, {'name': 'Hussein Fatal', 'url': 'https://genius.com/artists/Hussein-fatal'}, {'name': 'Infinity', 'url': 'https://genius.com/artists/Infinity'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Jordan Lewis', 'url': 'https://genius.com/artists/Jordan-lewis'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Kastro', 'url': 'https://genius.com/artists/Kastro'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Knobody', 'url': 'https://genius.com/artists/Knobody'}, {'name': 'Los Da Mystro', 'url': 'https://genius.com/artists/Los-da-mystro'}, {'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Olle Cornéer', 'url': 'https://genius.com/artists/Olle-corneer'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Prince Ital Joe', 'url': 'https://genius.com/artists/Prince-ital-joe'}, {'name': 'Priscilla Polete', 'url': 'https://genius.com/artists/Priscilla-polete'}, {'name': 'Slade Da Monsta', 'url': 'https://genius.com/artists/Slade-da-monsta'}, {'name': 'Stefan Engblom', 'url': 'https://genius.com/artists/Stefan-engblom'}, {'name': 'Sydne George', 'url': 'https://genius.com/artists/Sydne-george'}, {'name': 'T-Minus', 'url': 'https://genius.com/artists/T-minus'}, {'name': 'Wayne Thomas', 'url': 'https://genius.com/artists/Wayne-thomas'}, {'name': 'Yaki Kadafi', 'url': 'https://genius.com/artists/Yaki-kadafi'}, {'name': 'Young Noble', 'url': 'https://genius.com/artists/Young-noble'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Tom-petty-and-the-heartbreakers/Into-the-great-wide-open', 'annotations': {'description': '&lt;p&gt;The eighth studio album by Tom Petty and The Heartbreakers was first released in July of 1991. “Learning to Fly” was released as a single a few months prior to the album’s release and spent six weeks atop the &lt;em&gt;Billboard&lt;/em&gt; Mainstream Rock Tracks Chart, Petty’s longest-running top single as of 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.rollingstone.com/contributor/parke-puterbaugh" rel="noopener nofollow"&gt;Park Puterbaugh&lt;/a&gt; of &lt;em&gt;Rolling Stone&lt;/em&gt; gave the album &lt;a href="http://www.rollingstone.com/music/albumreviews/into-the-great-wide-open-19910711" rel="noopener nofollow"&gt;4/5 stars,&lt;/a&gt; describing it as:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Employing spare, deceptively simple rhymes in attractive pop settings, Petty sings about the failings, compromises and existential emptiness that underlie the American dream as it staggers, violent and overfed, into the Nineties. His characters range from the compulsive materialists of “All the Wrong Reasons” to the rockin\', rollin\' Hollywood hotshots of “Into the Great Wide Open.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Into The Great Wide Open&lt;/em&gt; was the last Tom Petty and The Heartbreakers\' album recorded with MCA Records.&lt;/p&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Mike W. Campbell', 'url': 'https://genius.com/artists/Mike-w-campbell'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}], 'writers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Mike W. Campbell', 'url': 'https://genius.com/artists/Mike-w-campbell'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Blur/Think-tank', 'annotations': {'description': '&lt;p&gt;Think Tank is the seventh studio album by the English rock band Blur, released in May 2003. Continuing the jam-based studio constructions of the group’s previous album, 13 (1999), the album expanded on the use of sampled rhythm loops and brooding, heavy electronic sounds. There are also heavy influences from dance music, hip hop, dub, jazz, and African music, an indication of songwriter Damon Albarn’s expanding musical interests.&lt;/p&gt;', 'producers': [{'name': 'Ben Hillier', 'url': 'https://genius.com/artists/Ben-hillier'}, {'name': 'Blur', 'url': 'https://genius.com/artists/Blur'}, {'name': 'Fatboy Slim', 'url': 'https://genius.com/artists/Fatboy-slim'}, {'name': 'James Dring', 'url': 'https://genius.com/artists/James-dring'}, {'name': 'William Orbit', 'url': 'https://genius.com/artists/William-orbit'}], 'writers': [{'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}, {'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Dave Rowntree', 'url': 'https://genius.com/artists/Dave-rowntree'}, {'name': 'Graham Coxon', 'url': 'https://genius.com/artists/Graham-coxon'}, {'name': 'James Dring', 'url': 'https://genius.com/artists/James-dring'}, {'name': 'Mike Smith', 'url': 'https://genius.com/artists/Mike-smith'}, {'name': 'Phil Daniels', 'url': 'https://genius.com/artists/Phil-daniels'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Steve-winwood/Chronicles', 'annotations': {'description': '', 'producers': [{'name': 'Chris Blackwell', 'url': 'https://genius.com/artists/Chris-blackwell'}, {'name': 'Russ Titelman', 'url': 'https://genius.com/artists/Russ-titelman'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Tom Lord‐Alge', 'url': 'https://genius.com/artists/Tom-lordalge'}], 'writers': [{'name': 'Richard Thompson', 'url': 'https://genius.com/artists/Richard-thompson'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Vivian Stanshall', 'url': 'https://genius.com/artists/Vivian-stanshall'}, {'name': 'Will Jennings', 'url': 'https://genius.com/artists/Will-jennings'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Smash-mouth/Fush-yu-mang', 'annotations': {'description': '', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Greg Camp', 'url': 'https://genius.com/artists/Greg-camp'}, {'name': 'Jerry Goldstein', 'url': 'https://genius.com/artists/Jerry-goldstein'}, {'name': 'Kevin Coleman', 'url': 'https://genius.com/artists/Kevin-coleman'}, {'name': 'Paul De Lisle', 'url': 'https://genius.com/artists/Paul-de-lisle'}, {'name': 'Steve Harwell', 'url': 'https://genius.com/artists/Steve-harwell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rem/Document', 'annotations': {'description': '&lt;p&gt;According to Marcus Gray’s &lt;em&gt;It Crawled from the South&lt;/em&gt; (1996, 2nd ed.):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Document was recorded in four weeks in April 1987 in Nashville, and was produced by Scott Litt who would go on to produce the band’s albums through &lt;em&gt;New Adventures in Hi-Fi&lt;/em&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Rem-the-one-i-love-lyrics" rel="noopener" data-api_path="/songs/389271"&gt;The One I Love&lt;/a&gt;” became R.E.M.’s first bona fide hit, and &lt;em&gt;Document&lt;/em&gt; became their first million-selling album. On December 3, 1987, the band graced the cover of &lt;em&gt;Rolling Stone&lt;/em&gt;, with caption “America’s Best Rock N\' Roll Band”.&lt;/p&gt;\n\n&lt;p&gt;On the album cover, behind the camera is Michael Stipe. The cover has multiple exposures at different angles. Rotate it counter-clockwise, and you will see the black 1978 “Checker” Marathon taxi cab that Stipe drove. In the image it is parked in front of his Athens home.  Stipe also name-checks the “Checker” in the song “I Believe” on &lt;em&gt;Lifes Rich Pageant&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}, {'name': 'Bruce Gilbert', 'url': 'https://genius.com/artists/Bruce-gilbert'}, {'name': 'Colin Newman', 'url': 'https://genius.com/artists/Colin-newman'}, {'name': 'Graham Lewis', 'url': 'https://genius.com/artists/Graham-lewis'}, {'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}, {'name': 'Robert Gotobed', 'url': 'https://genius.com/artists/Robert-gotobed'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/System-of-a-down/Hypnotize', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Hypnotize&lt;/em&gt; is the fifth album and second half of the &lt;em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;Mezmerize&lt;/a&gt;/Hypnotize&lt;/em&gt; double album released by &lt;a href="https://genius.com/artists/System-of-a-down" rel="noopener" data-api_path="/artists/16259"&gt;System of a Down&lt;/a&gt;. It was released on November 22, 2005, through the record label, Columbia. The double album was recorded in two studios; The Mansion, and the Akademie Mathematique of Philosophical Sound Research. The double album debuted at #1 in the &lt;a href="https://genius.com/artists/Billboard" rel="noopener" data-api_path="/artists/34510"&gt;Billboard&lt;/a&gt; 200. &lt;em&gt;Hypnotize&lt;/em&gt; was the last album to release before System of a Down’s four-year hiatus from August 2006 to November 2010.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c4f4d3effcf359ed9d663df284aad2ff.1000x500x1.jpg" alt="" width="1000" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ea315636a61d7a64c49d480a06d8666d.1000x500x1.jpg" alt="" width="1000" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}, {'name': 'Shavo Odadjian', 'url': 'https://genius.com/artists/Shavo-odadjian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Twisted-sister/Stay-hungry', 'annotations': {'description': '&lt;p&gt;Twisted Sister’s previous album &lt;em&gt;You Can’t Stop Rock ‘N’ Roll&lt;/em&gt; is the band’s most successful album in the UK, but in the US, &lt;em&gt;Stay Hungry&lt;/em&gt; was their breakthrough album, reaching #15 and spawning the band’s only top 40 hit “We’re Not Gonna Take It”.&lt;/p&gt;\n\n&lt;p&gt;In the past, guitarist Jay Jay French was a contributing songwriter, but frontman Dee Snider made it his goal to take charge of songwriting. And he did exactly that on &lt;em&gt;Stay Hungry&lt;/em&gt;, writing the entire album himself – most of it in &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;one 45 minute writing session&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Stay Hungry&lt;/em&gt; took the band from touring clubs to performing in arenas and made the top 50 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=Stay+Hungry&amp;amp;cat=a" rel="noopener nofollow"&gt;six countries&lt;/a&gt; including the US and UK. Its lead single “We’re Not Gonna Take It” hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=We%27re+Not+Gonna+Take+It&amp;amp;cat=s" rel="noopener nofollow"&gt;#2 in New Zealand&lt;/a&gt; and #21 in the US. The song’s iconic video of rebellion-meets-slapstick became a staple on MTV in the mid-80s. The second single “I Wanna Rock” had a similar video and was a minor hit in the US.&lt;/p&gt;\n\n&lt;p&gt;The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=twisted+sister#search_section" rel="noopener nofollow"&gt;double Platinum&lt;/a&gt; in less than a year (eventually reaching 3x Platinum in 1995).&lt;/p&gt;\n\n&lt;p&gt;In 2004, &lt;a href="http://www.metalunderground.com/news/details.cfm?newsid=7886" rel="noopener nofollow"&gt;the band re-recorded&lt;/a&gt; the entire album and released it as &lt;em&gt;Still Hungry&lt;/em&gt;. In 2009, Rhino Records released a &lt;a href="https://www.discogs.com/Twisted-Sister-Stay-Hungry/release/3450037" rel="noopener nofollow"&gt;25th Anniversary Edition&lt;/a&gt; of the album including a full disc of previously unreleased studio sessions and demos from this era of the band.&lt;/p&gt;', 'producers': [{'name': 'Neidermeyer', 'url': 'https://genius.com/artists/Neidermeyer'}, {'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Dee Snider', 'url': 'https://genius.com/artists/Dee-snider'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Enrique-iglesias/I-like-how-it-feels-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Alex P', 'url': 'https://genius.com/artists/Alex-p'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Jump Smokers', 'url': 'https://genius.com/artists/Jump-smokers'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Sidney Samson', 'url': 'https://genius.com/artists/Sidney-samson'}, {'name': 'Vice', 'url': 'https://genius.com/artists/Vice'}], 'writers': [{'name': 'Adam Baptiste', 'url': 'https://genius.com/artists/Adam-baptiste'}, {'name': 'Alex P', 'url': 'https://genius.com/artists/Alex-p'}, {'name': 'Enrique Iglesias', 'url': 'https://genius.com/artists/Enrique-iglesias'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-b-52s/Wild-planet', 'annotations': {'description': '', 'producers': [{'name': "The B-52's", 'url': 'https://genius.com/artists/The-b-52s'}, {'name': 'Rhett Davies', 'url': 'https://genius.com/artists/Rhett-davies'}], 'writers': [{'name': 'Cindy Wilson', 'url': 'https://genius.com/artists/Cindy-wilson'}, {'name': 'Fred Schneider', 'url': 'https://genius.com/artists/Fred-schneider'}, {'name': 'Kate Pierson', 'url': 'https://genius.com/artists/Kate-pierson'}, {'name': 'Keith Strickland', 'url': 'https://genius.com/artists/Keith-strickland'}, {'name': "Ricky Wilson (B-52's)", 'url': 'https://genius.com/artists/Ricky-wilson-b-52s'}, {'name': 'Robert Waldrop', 'url': 'https://genius.com/artists/Robert-waldrop'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pet-shop-boys/Actually', 'annotations': {'description': '', 'producers': [{'name': 'Andy Richards', 'url': 'https://genius.com/artists/Andy-richards'}, {'name': 'David Jacob', 'url': 'https://genius.com/artists/David-jacob'}, {'name': 'Julian Mendelsohn', 'url': 'https://genius.com/artists/Julian-mendelsohn'}, {'name': 'Pet Shop Boys', 'url': 'https://genius.com/artists/Pet-shop-boys'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Stephen Hague', 'url': 'https://genius.com/artists/Stephen-hague'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Bobby O', 'url': 'https://genius.com/artists/Bobby-o'}, {'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Ennio Morricone', 'url': 'https://genius.com/artists/Ennio-morricone'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bizarre-inc/Energique', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Green-day/Warning', 'annotations': {'description': '&lt;p&gt;Continuing in a similar vein to &lt;a href="https://genius.com/albums/Green-day/Nimrod" rel="noopener" data-api_path="/albums/15861"&gt;&lt;em&gt;Nimrod&lt;/em&gt;&lt;/a&gt;, Green Day’s sixth studio album, &lt;em&gt;Warning&lt;/em&gt;, is notable for its departure from punk rock, and incorporation of acoustic, folk and pop elements.&lt;/p&gt;\n\n&lt;p&gt;In comparison to the band’s earlier work, the lyricism of &lt;em&gt;Warning&lt;/em&gt; saw frontman Billie Joe Armstrong experimenting with more optimistic and uplifting everyday topics. Additionally, the album features more explicitly political themes, as highlighted in &lt;a href="https://genius.com/Green-day-minority-lyrics" rel="noopener" data-api_path="/songs/90484"&gt;“Minority”&lt;/a&gt; and &lt;a href="https://genius.com/Green-day-warning-lyrics" rel="noopener" data-api_path="/songs/90163"&gt;“Warning”&lt;/a&gt;. Explaining this to &lt;a href="http://rol.st/2dhm9ZH" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt;, Armstrong said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When you start getting into your politics it’s like you have to be vulnerable and you have to be sort of sensitive. Because if it’s always like straight aggression all the time, there becomes no empathy for the stance that you’re taking. You’re not telling people to think, you’re telling them what to think.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Although it represented a slump in the band’s career upon its release, &lt;em&gt;Warning&lt;/em&gt; received generally positive reviews from critics who praised its songwriting and maturity. In his &lt;a href="http://bit.ly/1lEJHrO" rel="noopener nofollow"&gt;&lt;em&gt;AllMusic&lt;/em&gt; review&lt;/a&gt;, editor Stephen Thomas Erlewine commented that:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Warning may not be an innovative record per se, but it’s tremendously satisfying; it finds the band at a peak of songcraft and performance, doing it all without a trace of self-consciousness. It’s the first great pure pop album of the new millennium.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Thank_You_(Stone_Temple_Pilots_album)', 'album_name': 'Thank You (álbum de Stone Temple Pilots)', 'artist': 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'artist_name': 'Stone Temple Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Thank_You_(Stone_Temple_Pilots_album)', 'hometown': 'http://dbpedia.org/resource/San_Diego', 'released': '11 November 2003', 'producers': ['Stone Temple Pilots', "Brendan O'Brien"], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Army_of_Anyone', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Dean_DeLeo', 'http://dbpedia.org/resource/Doug_Grean', 'http://dbpedia.org/resource/Dry_Cell_(band)', 'http://dbpedia.org/resource/Eric_Kretz__Eric_Kretz__1', 'http://dbpedia.org/resource/Jeff_Gutt', 'http://dbpedia.org/resource/Joss_Stone', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Paul_Leary', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Robert_DeLeo', 'http://dbpedia.org/resource/Scott_Weiland', 'http://dbpedia.org/resource/Stephen_Shareaux', 'http://dbpedia.org/resource/Talk_Show_(band)', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Velvet_Revolver'], 'abstract': 'Thank You is a greatest hits collection released by the American alternative rock band Stone Temple Pilots on November 11, 2003 on Atlantic Records. The album has sold over 500,000 copies.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Bury_the_Hatchet_(album)', 'album_name': 'Bury the Hatchet', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/Bury_the_Hatchet_(album)', 'hometown': 'http://dbpedia.org/resource/Limerick', 'released': '19 April 1999', 'producers': ['Benedict Fenner'], 'awards': ['Gold', 'Platinum', 'Silver'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Jangle_pop'], 'related_artists': ['http://dbpedia.org/resource/Arkitekt', 'http://dbpedia.org/resource/D.A.R.K.', 'http://dbpedia.org/resource/Denny_DeMarchi', 'http://dbpedia.org/resource/Mono_Band__Mono_Band__1', 'http://dbpedia.org/resource/Noel_Hogan', 'http://dbpedia.org/resource/Steve_DeMarchi', 'http://dbpedia.org/resource/The_Hitchers_(Irish_band)'], 'abstract': 'Bury the Hatchet is the fourth studio album by Irish alternative rock band The Cranberries, released on 19 April 1999. In the US, the album had shipped 500,000 copies as of 2 June 1999, and received a gold certification. The album is the first album released by the band after their first hiatus, which began in September 1996. Dolores O\'Riordan had taken that time to heal from stress-induced diseases, and also had her first child, Taylor, during this period. This last fact influenced some of the tracks on the album, most notably "Animal Instinct" and "You and Me". The themes of the songs vary from maternity and children to divorce and child abuse.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/L.P._(The_Rembrandts_album)', 'album_name': 'L.P. (The Rembrandts album)', 'artist': 'http://dbpedia.org/resource/The_Rembrandts', 'artist_name': 'The Rembrandts', 'wiki': 'http://en.wikipedia.org/wiki/L.P._(The_Rembrandts_album)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '23 May 1995', 'producers': ['Don Smith'], 'writers': ['David Crane, Marta Kauffman, Michael Skloff, Allee Willis, Solem, Wilde', 'Solem, Wilde, Joe Laswell', 'Solem, Wilde, Mastelotto', 'Solem, Wilde, Pat Mastelotto', 'Solem, Wilde, Scott Miller'], 'related_artists': ['http://dbpedia.org/resource/Danny_Wilde_(musician)', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Pat_Mastelotto', "http://dbpedia.org/resource/The_Three_O'Clock"], 'abstract': 'L.P. (also titled The Rembrandts: L.P.) is the third album by the American pop rock duo The Rembrandts. It was released on East West Records on May 23, 1995. It is the duo\'s highest-charting album to date, reaching No. 23 on the Billboard 200 album chart in August 1995, and has been certified platinum. The fifteenth track (which was a "hidden track" on the original album release) is "I\'ll Be There for You", which was used as the theme song for the popular sitcom Friends.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Very_Best_of_Sheryl_Crow', 'album_name': 'The Very Best of Sheryl Crow', 'artist': 'http://dbpedia.org/resource/Sheryl_Crow', 'artist_name': 'Sheryl Crow', 'wiki': 'http://en.wikipedia.org/wiki/The_Very_Best_of_Sheryl_Crow', 'producers': ['http://dbpedia.org/resource/Bill_Bottrell', 'http://dbpedia.org/resource/Garth_Fundis', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/John_Shanks', 'http://dbpedia.org/resource/Kid_Rock', 'Sheryl Crow'], 'writers': ['http://dbpedia.org/resource/Bill_Bottrell', 'http://dbpedia.org/resource/Cat_Stevens', 'http://dbpedia.org/resource/David_Baerwald', 'http://dbpedia.org/resource/Kevin_Gilbert_(musician)', 'http://dbpedia.org/resource/Kid_Rock', 'http://dbpedia.org/resource/Sheryl_Crow', 'http://dbpedia.org/resource/Wyn_Cooper', 'Crow, Trott', 'Cooper, Crow, Baerwald, Bottrell, Gilbert', 'Crow, Shanks', 'Stevens', 'Crow, Jeff Trott', 'Crow, John Shanks', 'Crow, Bottrell, Baerwald, Gilbert, David Ricketts', 'Crow, Bottrell, Baerwald, Gilbert, MacLeod, Ricketts', 'Crow, MacLeod, Trott', 'Crow, Bottrell', 'Crow', 'Crow, Bottrell, Baerwald, Gilbert, Ricketts', 'Crow, Brian MacLeod, Trott'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Folk_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Audley_Freed', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bobby_Keys', "http://dbpedia.org/resource/Dave_O'Donnell", 'http://dbpedia.org/resource/David_Ricketts', 'http://dbpedia.org/resource/Doug_Grean', 'http://dbpedia.org/resource/Doyle_Bramhall_II__Doyle_Bramhall_II__1', 'http://dbpedia.org/resource/Ephraim_Owens', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Jay_Oliver', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jemimah_Puddleduck', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/Jon_Button', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Kid_Rock', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/Misty_Love', 'http://dbpedia.org/resource/Pepper_MaShay', 'http://dbpedia.org/resource/Peter_Stroud', 'http://dbpedia.org/resource/Reverend_Zen', 'http://dbpedia.org/resource/Scott_F._Crago', 'http://dbpedia.org/resource/Sierra_Noble', 'http://dbpedia.org/resource/Steve_Berlin', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Highwomen', 'http://dbpedia.org/resource/Todd_Wolfe', 'http://dbpedia.org/resource/Wendy_Melvoin', 'http://dbpedia.org/resource/Wire_Train'], 'abstract': 'The Very Best of Sheryl Crow is a greatest hits album by American singer-songwriter Sheryl Crow, released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States. The album was a commercial success, reaching No. 2 on both the UK Albums Chart and the Billboard 200, selling four million units in the US as of January 2008. The album also received a platinum accreditation by the International Federation of the Phonographic Industry for sales of over one million copies in Europe.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Cloud_Nine_(Kygo_album)', 'album_name': 'Cloud Nine (Kygo)', 'artist': 'http://dbpedia.org/resource/Kygo', 'artist_name': 'Kygo', 'wiki': 'http://en.wikipedia.org/wiki/Cloud_Nine_(Kygo_album)', 'hometown': 'http://dbpedia.org/resource/Bergen', 'released': '13 May 2016', 'producers': ['http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Mark_Ralph_(record_producer)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'writers': ['http://dbpedia.org/resource/John_Legend', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Mark_Williams_(singer)', 'http://dbpedia.org/resource/Marli_Harwood', 'http://dbpedia.org/resource/Maty_Noyes', 'http://dbpedia.org/resource/Parson_James', 'http://dbpedia.org/resource/Sia_(musician)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Deep_house', 'http://dbpedia.org/resource/Downtempo', 'http://dbpedia.org/resource/Tropical_house'], 'related_artists': ['http://dbpedia.org/resource/Alan_Walker_(music_producer)', 'http://dbpedia.org/resource/Avicii', 'http://dbpedia.org/resource/Chelsea_Cutler', 'http://dbpedia.org/resource/Coldplay', 'http://dbpedia.org/resource/Conrad_Sewell', 'http://dbpedia.org/resource/Daft_Punk', 'http://dbpedia.org/resource/Dillon_Francis', 'http://dbpedia.org/resource/Donna_Summer', 'http://dbpedia.org/resource/Ed_Sheeran', 'http://dbpedia.org/resource/Ella_Henderson', 'http://dbpedia.org/resource/Ellie_Goulding', 'http://dbpedia.org/resource/Imagine_Dragons', 'http://dbpedia.org/resource/James_Hersey', 'http://dbpedia.org/resource/Julia_Michaels', 'http://dbpedia.org/resource/Kodaline', 'http://dbpedia.org/resource/Maty_Noyes', 'http://dbpedia.org/resource/Miguel_(singer)', 'http://dbpedia.org/resource/OneRepublic', 'http://dbpedia.org/resource/Parson_James', 'http://dbpedia.org/resource/Rita_Ora', 'http://dbpedia.org/resource/Sandro_Cavazza', 'http://dbpedia.org/resource/Sasha_Alex_Sloan', 'http://dbpedia.org/resource/Selena_Gomez', 'http://dbpedia.org/resource/The_Chainsmokers', 'http://dbpedia.org/resource/The_Night_Game', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Tina_Turner', 'http://dbpedia.org/resource/Tyga', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Whitney_Houston', 'http://dbpedia.org/resource/Will_Heard', 'http://dbpedia.org/resource/Zak_Abel', 'http://dbpedia.org/resource/Zara_Larsson'], 'abstract': 'Cloud Nine is the debut studio album by Norwegian DJ and record producer Kygo and features the likes of Maty Noyes, Conrad Sewell, Parson James, Tom Odell, Foxes, Matt Corby, Rhodes, Will Heard, Julia Michaels, James Vincent McMorrow, Kodaline, Labrinth, John Legend and Angus &amp; Julia Stone. It was released on 13 May 2016 by Sony Music and Ultra Music.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Shake_Your_Money_Maker_(album)', 'album_name': 'Shake Your Money Maker (album)', 'artist': 'http://dbpedia.org/resource/The_Black_Crowes', 'artist_name': 'The Black Crowes', 'wiki': 'http://en.wikipedia.org/wiki/Shake_Your_Money_Maker_(album)', 'hometown': 'http://dbpedia.org/resource/Marietta,_Georgia', 'released': '13 February 1990', 'producers': ['http://dbpedia.org/resource/George_Drakoulias'], 'genres': ['Southern rock', 'blues rock', 'hard rock', 'rock and roll'], 'related_artists': ['http://dbpedia.org/resource/Adam_MacDougall_(musician)', 'http://dbpedia.org/resource/Andy_Hess', 'http://dbpedia.org/resource/Audley_Freed', 'http://dbpedia.org/resource/Bad_Company', 'http://dbpedia.org/resource/Brand_New_Immortals', 'http://dbpedia.org/resource/Chris_Robinson_Brotherhood', 'http://dbpedia.org/resource/Chuck_Leavell', 'http://dbpedia.org/resource/Cry_of_Love_(band)', 'http://dbpedia.org/resource/Earthless', 'http://dbpedia.org/resource/Eddie_Harsch', 'http://dbpedia.org/resource/Eric_%22Bobo%22_Correa__Eric_Bobo_Correa__1', "http://dbpedia.org/resource/Gov't_Mule", 'http://dbpedia.org/resource/Jackie_Greene', 'http://dbpedia.org/resource/Jeff_Cease', 'http://dbpedia.org/resource/Jimmy_Page', 'http://dbpedia.org/resource/Johnny_Colt', 'http://dbpedia.org/resource/L.E.O._(band)', 'http://dbpedia.org/resource/Luther_Dickinson', 'http://dbpedia.org/resource/Marc_Ford', 'http://dbpedia.org/resource/North_Mississippi_Allstars', 'http://dbpedia.org/resource/Paul_Stacey', 'http://dbpedia.org/resource/Phil_Lesh_and_Friends', 'http://dbpedia.org/resource/Rich_Robinson', 'http://dbpedia.org/resource/Rock_Star_Supernova', 'http://dbpedia.org/resource/Steve_Gorman', 'http://dbpedia.org/resource/Sven_Pipien', 'http://dbpedia.org/resource/The_Detroit_Cobras', 'http://dbpedia.org/resource/The_Magpie_Salute', 'http://dbpedia.org/resource/The_Rolling_Stones', 'http://dbpedia.org/resource/Trigger_Hippy'], 'abstract': 'Shake Your Money Maker (also stylized as The Black Crowes Present: $hake Your Money Maker) is the debut studio album by American rock band the Black Crowes, released on February 13, 1990 on Def American Recordings. It is the only album by the band to feature guitarist Jeff Cease. The album is named after a classic blues song written by Elmore James. The Black Crowes have played the song live many times over the years, but it is not included on this album. Shake Your Money Maker peaked at No. 4 on the Billboard 200, and two of its singles, "Hard to Handle" and "She Talks to Angels", reached No. 1 on the Mainstream Rock Tracks chart. "Jealous Again", "Twice As Hard" and "Seeing Things" were also charting singles in the United States. Shake Your Money Maker is the Black Crowes\' best selling album, having sold more than 5 million copies. On January 8, 2021, the Black Crowes announced that a 30th anniversary edition of the album would be released on February 26, 2021, containing the original album remastered in addition to three previously unreleased songs, outtakes, two demos from the Mr. Crowe\'s Garden era, and a live performance set recorded in 1990 at Center Stage in Atlanta. Previously unreleased track "Charming Mess" was released on the same day as the announcement.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/She's_So_Unusual", 'album_name': "She's So Unusual", 'artist': 'http://dbpedia.org/resource/Cyndi_Lauper', 'artist_name': 'Cyndi Lauper', 'wiki': "http://en.wikipedia.org/wiki/She's_So_Unusual", 'released': '14 October 1983', 'producers': ['Rick Chertoff', 'William Wittman'], 'writers': ['http://dbpedia.org/resource/Abner_Silver', 'http://dbpedia.org/resource/Al_Lewis_(lyricist)', 'http://dbpedia.org/resource/Al_Sherman', 'http://dbpedia.org/resource/Cinderella_(band)', 'http://dbpedia.org/resource/Jules_Shear', 'http://dbpedia.org/resource/Prince_(musician)', 'http://dbpedia.org/resource/Rick_Chertoff', 'http://dbpedia.org/resource/Robert_Hazard', 'http://dbpedia.org/resource/The_Brains', 'Lauper', 'Cyndi Lauper, Rob Hyman', 'Lauper, John Turi', 'Stephen Broughton Lunt', 'Lauper, Shear', 'Hasse Huss, Mikael Rickfors'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'new wave'], 'related_artists': ['http://dbpedia.org/resource/Blackjack_(American_band)', 'http://dbpedia.org/resource/David_Rosenthal_(musician)', 'http://dbpedia.org/resource/Erin_Hill', 'http://dbpedia.org/resource/Kate_Alexa', 'http://dbpedia.org/resource/Kleerup', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Robert_Hazard', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Scott_Bomar', 'http://dbpedia.org/resource/Skoota_Warner', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Hooters', 'http://dbpedia.org/resource/The_Peach_Kings', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'She\'s So Unusual is the debut studio album by American singer and songwriter Cyndi Lauper, released on October 14, 1983, by Portrait Records. The album was re-released in 2014 to commemorate its 30th anniversary, and was called She\'s So Unusual: A 30th Anniversary Celebration. The re-release contains demos and remixes of previously released material, as well as new artwork. In 1978, Lauper formed the band Blue Angel. The band soon signed a recording contract with Polydor Records; however, their debut album, Blue Angel, was a commercial failure. The band parted ways after firing their manager, who sued Lauper for $80,000 and forced her into bankruptcy. Lauper went on to sing in many New York night clubs, and caught the eye of David Wolf, who became her manager and subsequently got her signed to Portrait Records. Six singles were released from the album, with "Girls Just Want to Have Fun" becoming a worldwide hit and her first song to chart on the Billboard Hot 100. "Time After Time" became her first number-one hit on the chart and experienced similar success worldwide. Lauper found success with the next two singles as well, with both "She Bop" and "All Through the Night" peaking in the top five. This makes Lauper the first female singer to have four top five singles on the Hot 100 from one album. She\'s So Unusual was promoted by the Fun Tour throughout 1983 and 1984. The album is primarily new wave-based, with many of the songs being influenced by synthpop and pop rock. Upon its release, the album received positive reviews from music critics, who noted Lauper\'s unique vocals. Lauper earned several awards and accolades for the album, including two Grammy Awards at the 27th Grammy Awards, one of which was for Best New Artist. She\'s So Unusual peaked at number four on the Billboard 200 chart and stayed in the chart\'s top forty for 65 weeks. It has sold over 6 million copies in the United States and 16 million copies worldwide. This makes it Lauper\'s best-selling album to date and one of the best-selling albums of the 1980s. The album ranked at number 487 on Rolling Stone\'s list of The 500 Greatest Albums of All Time in 2003, maintaining that ranking in the 2012 update and shooting up to number 184 in the 2020 reboot of the list. It also ranked at #41 on Rolling Stone\'s list of Women Who Rock: The 50 Greatest Albums of All Time in 2012. In 2019, the album was selected by the Library of Congress for preservation in the National Recording Registry for being "culturally, historically, or aesthetically significant".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/François_(album)', 'album_name': 'François (album)', 'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/François_(album)', 'producers': ['http://dbpedia.org/resource/Jean_Michel_Rivat'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'François is the French-language debut album by Desireless, released in 1989 and re-released in 2001. The single "Voyage, voyage" was a chart topper in many European and Asian single charts.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Order_in_Decline', 'album_name': 'Order in Decline', 'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Order_in_Decline', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'released': '19 July 2019', 'producers': ['http://dbpedia.org/resource/Deryck_Whibley'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'punk rock', 'Heavy metal', 'melodic hardcore'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Order in Decline is the seventh studio album by Canadian rock band Sum 41. It was released on July 19, 2019, by Hopeless Records. The band released the lead single "Out for Blood" on April 24, 2019. The second single from the album, "A Death in the Family" was released on June 11, 2019. The band released the third single "Never There" on June 18, 2019. The fourth single "45 (A Matter of Time)" was released on July 8, 2019.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Jagged_Little_Pill', 'album_name': 'Jagged Little Pill', 'artist': 'http://dbpedia.org/resource/Alanis_Morissette', 'artist_name': 'Alanis Morissette', 'wiki': 'http://en.wikipedia.org/wiki/Jagged_Little_Pill', 'released': '13 June 1995', 'producers': ['http://dbpedia.org/resource/Glen_Ballard'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['*Alternative rock', '*pop rock', '*post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Boyd_Tinsley', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Matt_Laug', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Peter_Freeman_(musician)', 'http://dbpedia.org/resource/Remy_Zero', 'http://dbpedia.org/resource/Richard_F._W._Davis', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Tim_Thorney', 'http://dbpedia.org/resource/Zac_Rae'], 'abstract': 'Jagged Little Pill is the third studio album by Canadian singer Alanis Morissette, released on June 13, 1995, through Maverick. It was her first album to be released worldwide. It marked a stylistic departure from the dance-pop sound of her first two albums, Alanis (1991) and Now Is the Time (1992). Morissette began work on the album after moving from her hometown Ottawa to Toronto; she made little progress until she traveled to Los Angeles, where she met producer Glen Ballard. Morissette and Ballard had an instant connection and began co-writing and experimenting with sounds. The experimentation resulted in an alternative rock album that takes influence from post-grunge and pop rock, and features guitars, keyboards, drum machines, and harmonica. The lyrics touch upon themes of aggression and unsuccessful relationships, while Ballard introduced a pop sensibility to Morissette\'s angst. The title of the album is taken from the first verses of the song "You Learn". Jagged Little Pill was a commercial success, topping the charts in thirteen countries. With sales of over 33 million copies worldwide, it is one of the best-selling albums of all time and made Morissette the first Canadian to achieve double diamond sales. Jagged Little Pill was nominated for nine Grammy Awards, winning five, including Album of the Year, making the 21-year-old Morissette, at the time, the youngest artist to win the top honor. Rolling Stone ranked Jagged Little Pill at No. 69 on its 2020 list of "The 500 Greatest Albums of All Time". The album has been re-released twice: on October 30, 2015, in a 2-disc deluxe edition and a 4-disc collector\'s edition commemorating its 20th anniversary; and on June 26, 2020, in a 25th anniversary deluxe edition. An acoustic re-recording of the album was released on June 13, 2005, to mark its 10th anniversary. A musical stage production based on the album premiered at the American Repertory Theater in Cambridge on May 5, 2018; it transferred to Broadway the following year, and was nominated for 15 Tony Awards including Best Musical. A world tour celebrating the 25th anniversary of Jagged Little Pill began in early 2020 but was postponed due to the COVID-19 pandemic.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Even_in_the_Quietest_Moments...', 'album_name': 'Even in the Quietest Moments …', 'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Even_in_the_Quietest_Moments...', 'hometown': 'http://dbpedia.org/resource/London', 'released': '10 April 1977', 'producers': ['http://dbpedia.org/resource/Supertramp'], 'writers': ['Davies', 'Hodgson', 'Rick Davies', 'Roger Hodgson'], 'awards': ['Gold', 'Platinum', 'Silver'], 'genres': ['http://dbpedia.org/resource/Progressive_rock'], 'related_artists': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Scott_Page', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/The_Alan_Bown_Set'], 'abstract': 'Even in the Quietest Moments... is the fifth album by the English rock band Supertramp, released in April 1977. It was recorded mainly at Caribou Ranch Studios in Colorado with overdubs, vocals, and mixing completed at The Record Plant in Los Angeles. This was Supertramp\'s first album to use engineer Peter Henderson, who would work with the band for their next three albums as well. Even in the Quietest Moments… reached number 16 on the Billboard Pop Albums Chart in 1977 and within a few months of release became Supertramp\'s first Gold (500,000 copies or more) selling album in the US. In addition, "Give a Little Bit" became a US Top 20 single and reached number 29 on the UK Singles Chart. While "Give a Little Bit" was the big hit, both "Fool\'s Overture" and the title track also got a fair amount of FM album-rock play. In 1978, Even in the Quietest Moments… was ranked 63rd in The World Critic Lists, which recognised the 200 greatest albums of all time as voted for by notable rock critics and DJs.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Just_Supposin'", 'album_name': "Just Supposin'", 'artist': 'http://dbpedia.org/resource/Status_Quo_(band)', 'artist_name': 'Status Quo', 'wiki': "http://en.wikipedia.org/wiki/Just_Supposin'", 'hometown': 'http://dbpedia.org/resource/London', 'released': '17 October 1980', 'producers': ['John Eden', 'Status Quo'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Boogie_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/New_wave_music'], 'related_artists': ['http://dbpedia.org/resource/Alan_Lancaster', 'http://dbpedia.org/resource/Andy_Bown', 'http://dbpedia.org/resource/Bob_Young_(musician)', 'http://dbpedia.org/resource/Climax_Blues_Band', 'http://dbpedia.org/resource/Francis_Rossi', 'http://dbpedia.org/resource/Geraint_Watkins', 'http://dbpedia.org/resource/Jeff_Rich', 'http://dbpedia.org/resource/John_Coghlan_(drummer)', 'http://dbpedia.org/resource/John_Edwards_(musician)', 'http://dbpedia.org/resource/Judas_Jump', 'http://dbpedia.org/resource/Kane_Roberts', 'http://dbpedia.org/resource/Matt_Letley', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Pete_Kircher', 'http://dbpedia.org/resource/Richie_Malone', 'http://dbpedia.org/resource/Rick_Parfitt', 'http://dbpedia.org/resource/Roy_Lynes', 'http://dbpedia.org/resource/Stretch_(band)', 'http://dbpedia.org/resource/The_Herd_(British_band)', 'http://dbpedia.org/resource/The_Party_Boys'], 'abstract': 'Just Supposin\' is the thirteenth album by Status Quo. Co-produced by the group and John Eden, it was recorded at Windmill Lane Studios, Dublin. Released on 17 October 1980, it entered the UK albums chart at number 4. Three tracks were issued as singles the same year, "What You\'re Proposing", and a double A-side, "Lies"/"Don\'t Drive My Car". At the end of 1981 an edited version of another track, the uncharacteristic ballad "Rock \'n\' Roll", appeared as a single after the release of Quo\'s subsequent album Never Too Late. It was a prolific recording session, which included enough material for Never Too Late, released only five months later. "Over the Edge" was co-written by bass player Alan Lancaster and Keith Lamb, lead singer of British bands The Case, Sleepy Talk and Mr. Toad, and founder and lead singer of Australia\'s successful glam rock band Hush. The cover art work features the launch phase of a UGM-84 Harpoon submarine missile.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/X&amp;Y', 'album_name': 'X&amp;Y', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/X&amp;Y', 'hometown': 'http://dbpedia.org/resource/London', 'released': '06 June 2005', 'producers': ['Coldplay', 'Ken Nelson', 'Danton Supple'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Ambient_music', 'http://dbpedia.org/resource/Space_rock'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Black_Submarine', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Danton_Supple', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Faultline_(musician)', 'http://dbpedia.org/resource/Federico_Vindver', 'http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Richard_Ashcroft', 'http://dbpedia.org/resource/Rik_Simpson', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_Undeserving', 'http://dbpedia.org/resource/We_Are_King'], 'abstract': 'X&amp;Y is the third studio album by the British rock band Coldplay. It was released on 6 June 2005 by Parlophone in the United Kingdom, and a day later by Capitol Records in the United States. The album was produced by Coldplay and producer Danton Supple. It is noted for its troubled and urgent development, with producer Ken Nelson having originally been tasked with producing much of the album; however, many songs written during his sessions were discarded owing to the band\'s dissatisfaction with them. The album\'s cover art is a combination of colours and blocks, which is a representation of the Baudot code. The album contains twelve tracks and an additional hidden track, "Til Kingdom Come". It is omitted from the track listing on the album sleeve, but listed as "+" on the disc label and inside the album booklet. It was originally planned for American country star Johnny Cash to record it with lead singer Chris Martin, but Cash died before he was able to do so. The song "Talk" appeared in the track listing, although after it leaked online in early 2005 it was thought to have been downgraded to a B-side for the album\'s subsequent single releases. X&amp;Y was released after a considerable amount of global anticipation. Overall reaction to the album was generally positive, though some critics cited it as being inferior to its predecessors. It was a significant commercial success, reaching the top spot of many charts worldwide, including the United Kingdom and United States, being Coldplay\'s first album to top the US chart. With accumulated sales of 8.3 million units in 2005 alone, X&amp;Y was the best-selling music album released in 2005. The album has sold over 13 million copies worldwide. It spawned the singles "Speed of Sound", "Fix You", "Talk", "The Hardest Part", "What If", and "White Shadows".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Achtung_Baby', 'album_name': 'Achtung Baby', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/Achtung_Baby', 'hometown': 'http://dbpedia.org/resource/Dublin', 'released': '18 November 1991', 'producers': ['Daniel Lanois', 'Brian Eno'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Bagatelle_(band)', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Dik_Evans', 'http://dbpedia.org/resource/Florence_and_the_Machine', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Josh_Garza', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_McGuinness', 'http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Sikter', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Mighty_Manatees', 'http://dbpedia.org/resource/Vinnie_Kilduff', 'http://dbpedia.org/resource/Virgin_Prunes'], 'abstract': 'Achtung Baby (/ˈæktʊŋ/) is the seventh studio album by Irish rock band U2. It was produced by Daniel Lanois and Brian Eno, and was released on 18 November 1991 on Island Records. After criticism of their 1988 release Rattle and Hum, U2 shifted their direction to incorporate influences from alternative rock, industrial music, and electronic dance music into their sound. Thematically, Achtung Baby is darker, more introspective, and at times more flippant than their previous work. The album and the subsequent multimedia-intensive Zoo TV Tour were central to the group\'s 1990s reinvention, by which they abandoned their earnest public image for a more lighthearted and self-deprecating one. Seeking inspiration from German reunification, U2 began recording Achtung Baby at Berlin\'s Hansa Studios in October 1990. The sessions were fraught with conflict, as the band argued over their musical direction and the quality of their material. After tension and slow progress nearly prompted the group to disband, they made a breakthrough with the improvised writing of the song "One". Morale and productivity improved during subsequent recording sessions in Dublin, where the album was completed in 1991. To confound the public\'s expectations of the band and their music, U2 chose the record\'s facetious title and colourful multi-image sleeve. Achtung Baby is one of U2\'s most successful records; it received favourable reviews and debuted at number one on the US Billboard 200 Top Albums, while topping the charts in many other countries. Five songs were released as commercial singles, all of which were chart successes, including "One", "Mysterious Ways", and "The Fly". The album has sold 18 million copies worldwide and won a Grammy Award in 1993 for Best Rock Performance by a Duo or Group with Vocal. Achtung Baby has since been acclaimed by writers and music critics as one of the greatest albums of all time. The record was reissued in October 2011 for its 20th anniversary, and again in November 2021 for its 30th anniversary.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Reason_(Hoobastank_album)', 'album_name': 'The Reason (Hoobastank album)', 'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/The_Reason_(Hoobastank_album)', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'released': '09 December 2003', 'producers': ['http://dbpedia.org/resource/Howard_Benson'], 'awards': ['Gold', 'Platinum'], 'genres': ['Post-grunge', 'alternative rock', 'alternative metal'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'The Reason is the second studio album by American rock band Hoobastank, released on December 9, 2003 by Island Records. Produced by Howard Benson, it was the band\'s last album to feature bassist Markku Lappaleinen prior to his departure in 2005. Despite receiving mixed reviews from critics, The Reason peaked at number three on the US Billboard 200 and was eventually certified double platinum by the Recording Industry Association of America; currently, it has sold over 2.3 million copies in the United States alone. Four singles were released from the album: "Out of Control", the title track, "Same Direction", and "Disappear".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Billy_Idol_discography', 'album_name': 'Billy Idol discography', 'artist': 'http://dbpedia.org/resource/Billy_Idol', 'artist_name': 'Billy Idol', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Idol_discography', 'related_artists': ['http://dbpedia.org/resource/Billy_Morrison', 'http://dbpedia.org/resource/Bozzio_Levin_Stevens', 'http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Deadland_Ritual', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Durga_McBroom', 'http://dbpedia.org/resource/Frankie_Banali', 'http://dbpedia.org/resource/Harry_Slash_&amp;_The_Slashtones', 'http://dbpedia.org/resource/Jack_Waldman', 'http://dbpedia.org/resource/Jennifer_Blakeman', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/Phil_Soussan', 'http://dbpedia.org/resource/Steve_Stevens', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/Terry_Chimes', 'http://dbpedia.org/resource/Thommy_Price'], 'abstract': 'The discography of Billy Idol, his solo recordings post-Generation X, consists of eight studio albums, one live album, five compilation albums, two extended plays, and 37 singles.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Illuminate_(Shawn_Mendes_album)', 'album_name': 'Illuminate', 'artist': 'http://dbpedia.org/resource/Shawn_Mendes', 'artist_name': 'Shawn Mendes', 'wiki': 'http://en.wikipedia.org/wiki/Illuminate_(Shawn_Mendes_album)', 'released': '23 September 2016', 'producers': ['*Jake Gosling', '*Teddy Geiger', '*Andrew Maury', '*Dan Romer', '*Daylight', '*Laleh Pourkarim', '*Scott Harris'], 'writers': ['http://dbpedia.org/resource/Danny_Parker_(songwriter)', 'http://dbpedia.org/resource/Geoff_Warburton', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/Kid_Harpoon', 'http://dbpedia.org/resource/Laleh_(singer)', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Shawn_Mendes', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'Zubin Thakkar', 'Geiger', 'Zmishlany', 'Warburton', 'Gustaf Thörn', 'Parker', 'Mendes', 'Harris', 'Juber'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['*Pop', '*rock', '*blues'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Maury', 'http://dbpedia.org/resource/Brockhampton_(band)', 'http://dbpedia.org/resource/Dan_Kanter', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Jack_&amp;_Jack', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/James_TW', 'http://dbpedia.org/resource/Joe_LaPorta', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_Vamps_(British_band)', 'http://dbpedia.org/resource/William_Singe', 'http://dbpedia.org/resource/Zac_Brown_Band'], 'abstract': 'Illuminate is the second studio album by Canadian singer and songwriter Shawn Mendes. It was released on September 23, 2016, through Island Records and Universal Music Group. Musically, the album contains music genres pop, rock and blues. The album debuted atop the US Billboard 200 and the Canadian Albums Chart. It was preceded by the lead single "Treat You Better", which reached the top 10 on the Billboard Hot 100. This album was supported by the Illuminate World Tour, which began in March 2017.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Different_Class', 'album_name': 'Different Class', 'artist': 'http://dbpedia.org/resource/Pulp_(band)', 'artist_name': 'Pulp', 'wiki': 'http://en.wikipedia.org/wiki/Different_Class', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'released': '30 October 1995', 'producers': ['http://dbpedia.org/resource/Chris_Thomas_(record_producer)'], 'awards': ['Platinum'], 'genres': ['Britpop', 'art rock'], 'related_artists': ['http://dbpedia.org/resource/Artery_(band)', 'http://dbpedia.org/resource/Beyond_the_Pale_(Jarv_Is_album)', 'http://dbpedia.org/resource/Candida_Doyle', 'http://dbpedia.org/resource/Chris_Thomas_(record_producer)', 'http://dbpedia.org/resource/Ed_Buller', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Jarvis_Cocker', 'http://dbpedia.org/resource/Johnny_Dean', 'http://dbpedia.org/resource/Leo_Abrahams', 'http://dbpedia.org/resource/Longpigs', 'http://dbpedia.org/resource/Relaxed_Muscle', 'http://dbpedia.org/resource/Richard_Hawley__Richard_Hawley__1', 'http://dbpedia.org/resource/Russell_Senior', 'http://dbpedia.org/resource/Scott_Walker_(singer)', 'http://dbpedia.org/resource/Siiiii', 'http://dbpedia.org/resource/Steve_Mackey', 'http://dbpedia.org/resource/Venini'], 'abstract': 'Different Class (released in Japan as Common People) is the fifth studio album by English rock band Pulp, released on 30 October 1995 by Island Records. The album was a critical and commercial success, entering the UK Albums Chart at number one and winning the 1996 Mercury Music Prize. It has been certified four times platinum, and had sold 1.33 million copies in the United Kingdom as of 2020. In 2013, NME ranked the album at number six in its list of the 500 greatest albums of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/There_Is_Nothing_Left_to_Lose', 'album_name': 'There is Nothing Left to Lose', 'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/There_Is_Nothing_Left_to_Lose', 'hometown': 'http://dbpedia.org/resource/Seattle', 'released': '02 November 1999', 'producers': ['*Foo Fighters', '*Adam Kasper'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Alternative rock', '*progressive rock', '*post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Bob_Mould', 'http://dbpedia.org/resource/Brandon_Bell_(recording_engineer)', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/DYS_(band)', 'http://dbpedia.org/resource/Drew_Hester', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Franz_Stahl', 'http://dbpedia.org/resource/Fred_Schneider', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/Joe_Walsh', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Me_First_and_the_Gimme_Gimmes', 'http://dbpedia.org/resource/Mike_Watt', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/No_Use_for_a_Name', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Petra_Haden', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Rick_Nielsen', 'http://dbpedia.org/resource/Ryan_Hadlock', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Skeeter_Thompson', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Taylor_Hawkins_and_the_Coattail_Riders', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Fire_Theft', 'http://dbpedia.org/resource/The_Jealous_Sound', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/William_Goldsmith'], 'abstract': 'There Is Nothing Left to Lose is the third studio album by American rock band Foo Fighters, released on November 2, 1999, through Roswell and RCA Records. It marked the first appearance of drummer Taylor Hawkins, and is often seen as a departure from the band\'s previous work, showcasing a softer, more experimental sound. Dave Grohl has stated that the album was "totally based on melody" and that it might be "[his] favorite album that [they\'ve] ever done." There Is Nothing Left to Lose won the Grammy Award for Best Rock Album in 2001, marking the band\'s first ever Grammy win. The band would go on to win the Grammy for Best Rock Album for three of their next four studio releases (One by One; Echoes, Silence, Patience &amp; Grace; and Wasting Light). There Is Nothing Left to Lose is Foo Fighters\'s first album to be entirely released and marketed by RCA Records since their departure from Capitol Records after release of The Colour and the Shape two years earlier. Their two previous studio albums, originally distributed by Capitol, were since then distributed by RCA.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Follow_the_Leader_(Korn_album)', 'album_name': 'Follow the Leader (álbum de Korn)', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Follow_the_Leader_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'released': '18 August 1998', 'producers': ['http://dbpedia.org/resource/Steve_Thompson_(musician)', 'http://dbpedia.org/resource/Toby_Wright'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Adema', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Brian_Welch__Brian_Welch__1', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/David_Silveria', 'http://dbpedia.org/resource/Deadly_Apples', 'http://dbpedia.org/resource/Derrick_Green', 'http://dbpedia.org/resource/Destroid', 'http://dbpedia.org/resource/Dimmu_Borgir', 'http://dbpedia.org/resource/Fashion_Bomb', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/L.A.P.D._(band)', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Mass_Hysteria_(band)', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Mike_Bordin', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Orgy_(band)', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu', 'http://dbpedia.org/resource/Rob_Patterson', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Ryan_Martinie', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shane_Gibson_(musician)', 'http://dbpedia.org/resource/Sunflower_Dead', 'http://dbpedia.org/resource/Terry_Bozzio', 'http://dbpedia.org/resource/The_Matrix_(team)', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Wesley_Geer', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Follow the Leader (stylized as FOLLOW The LEADEЯ) is the third studio album by American nu metal band Korn. The album was released on August 18, 1998, through Immortal/Epic. This was their first album not produced by Ross Robinson. Instead, it was produced by Steve Thompson and Toby Wright. The album peaked at number one on four charts, including the Billboard 200 with 268,000 units sold in its first week of release, Follow the Leader is considered by members of Korn to be the band\'s most commercially–successful album, being certified five-times Platinum by the RIAA. Its singles "Got the Life", and "Freak on a Leash", both charted on more than three charts, and their music videos are considered to be the first music videos retired from MTV, most notably the MTV show Total Request Live. The album generally received positive reviews by critics and sold around 14 million copies worldwide. Korn was praised by AllMusic saying the album is "an effective follow-up to their first two alt-metal landmarks." The Family Values Tour promoted the album, along with its five singles. The song "Freak on a Leash" was nominated for nine MTV Video Music Awards, and won for the Best Rock Video award, as well as Best Editing. The music video for "Freak on a Leash" won Best Short Form Music Video at the 2000 Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Insomniac_(Green_Day_album)', 'album_name': 'Insomniac', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Insomniac_(Green_Day_album)', 'released': '10 October 1995', 'producers': ['Green Day', 'Rob Cavallo'], 'awards': ['Gold', 'Platinum'], 'genres': ['Punk rock', 'pop punk'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Cometbus', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bill_Schneider_(musician)', 'http://dbpedia.org/resource/Billie_Joe_Armstrong', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Campino_(singer)', 'http://dbpedia.org/resource/Catfish_and_the_Bottlemen', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Faber_Drive', 'http://dbpedia.org/resource/Foxboro_Hot_Tubs', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Isocracy_(band)', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jason_White_(musician)', 'http://dbpedia.org/resource/Jesse_Malin', 'http://dbpedia.org/resource/John_Kiffmeyer', 'http://dbpedia.org/resource/Mike_Dirnt', 'http://dbpedia.org/resource/Pinhead_Gunpowder', 'http://dbpedia.org/resource/Rancid_(band)', 'http://dbpedia.org/resource/Screeching_Weasel', 'http://dbpedia.org/resource/Seaweed_(band)', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Sprung_Monkey', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/The_Big_Cats', 'http://dbpedia.org/resource/The_Influents', 'http://dbpedia.org/resource/The_Interrupters_(band)', 'http://dbpedia.org/resource/The_Lookouts', 'http://dbpedia.org/resource/The_Network', 'http://dbpedia.org/resource/Tré_Cool'], 'abstract': 'Insomniac is the fourth studio album by American rock band Green Day, released on October 10, 1995, by Reprise Records. It was recorded at Hyde Street in San Francisco, and the band prioritized high-energy takes during the recording sessions. Released as the follow-up to the band\'s multi-platinum breakthrough Dookie, Insomniac featured a heavier and more “punk” sound, and bleaker lyrics than its predecessor. Lyrically, the album discusses themes such as alienation, anxiety, boredom, and drug use. Insomniac also served as a reaction to many early fans who had turned their backs on the band after it achieved mainstream success with Dookie. The album received generally positive reviews from critics, who praised frontman Billie Joe Armstrong\'s songwriting and sarcastic sense of humor. Four songs were released as singles, "Geek Stink Breath", "Stuck with Me", "Brain Stew / Jaded", and "Walking Contradiction". Though it peaked at number 2 on the Billboard 200 chart and was certified 2× Platinum by the Recording Industry Association of America in 1996, Insomniac did not have the sales endurance of its predecessor Dookie, largely due to its slightly darker lyrical tone and its heavier and more abrasive sound. Insomniac has sold over 2,100,000 copies in the United States as of 2012. The album was reissued on vinyl on May 12, 2009. In 2021, a deluxe version of the album was released for its 25th anniversary, including previously unreleased live tracks.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Wheatus_discography', 'album_name': 'Wheatus discography', 'artist': 'http://dbpedia.org/resource/Wheatus', 'artist_name': 'Wheatus', 'wiki': 'http://en.wikipedia.org/wiki/Wheatus_discography', 'hometown': 'http://dbpedia.org/resource/United_States', 'related_artists': ['http://dbpedia.org/resource/Math_the_Band', 'http://dbpedia.org/resource/Math_the_Band__Math_the_Band__1', 'http://dbpedia.org/resource/The_Hipstones'], 'abstract': 'The discography of Wheatus, an American rock band, consists of five studio albums, two EPs and eight singles.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/My_Head_Is_an_Animal', 'album_name': 'My Head Is an Animal', 'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/My_Head_Is_an_Animal', 'hometown': 'http://dbpedia.org/resource/Iceland', 'producers': ['Of Monsters and Men', 'Aron Arnarsson', 'Jacquire King'], 'writers': ['Nanna Bryndís Hilmarsdóttir', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson, Brynjar Leifsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Brynjar Leifsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Hilmarsson, Árni Guðjónsson, Brynjar Leifsson, Kristján Páll Kristjánsson', 'Ragnar Þórhallsson', 'Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock'], 'related_artists': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'http://dbpedia.org/resource/Totemo'], 'abstract': 'My Head Is an Animal is the debut studio album by the Icelandic indie folk band Of Monsters and Men, released through Record Records in Iceland on 20 September 2011. After their success, topping the Icelandic charts with their debut single, "Little Talks", the band signed with Universal Music Group and the album was released internationally through Republic Records on 3 April 2012. The title of the album comes from the second line in "Dirty Paws".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/PCD_(album)', 'album_name': 'PCD (album)', 'artist': 'http://dbpedia.org/resource/The_Pussycat_Dolls', 'artist_name': 'The Pussycat Dolls', 'wiki': 'http://en.wikipedia.org/wiki/PCD_(album)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '12 September 2005', 'producers': ['*Polow da Don', '*Kara DioGuardi', '*The Droyds', '*Siobhan Fahey', '*Ron Fair', '*Steven Gallifent', '*Sean Garrett', '*CeeLo Green', '*Kwamé "K1MiL"', '*Timbaland', '*will.i.am', '*Greg Wells'], 'writers': ['http://dbpedia.org/resource/Anthony_Newley', 'http://dbpedia.org/resource/Bob_Crewe', 'http://dbpedia.org/resource/Brian_Holland', 'http://dbpedia.org/resource/Busta_Rhymes', 'http://dbpedia.org/resource/Carl_Sigman', 'http://dbpedia.org/resource/CeeLo_Green', 'http://dbpedia.org/resource/Clare_Kenny', 'http://dbpedia.org/resource/Diane_Warren', 'http://dbpedia.org/resource/Ed_Cobb', 'http://dbpedia.org/resource/Eddie_Holland', 'http://dbpedia.org/resource/Franne_Golde', 'http://dbpedia.org/resource/Greg_Wells', 'http://dbpedia.org/resource/Harold_Faltermeyer', 'http://dbpedia.org/resource/Herbie_Mann', 'http://dbpedia.org/resource/Jason_Perry_(singer)', 'http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Kara_DioGuardi', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Keith_Forsey', 'http://dbpedia.org/resource/Kenny_Nolan', 'http://dbpedia.org/resource/Keri_Hilson', 'http://dbpedia.org/resource/Kwamé', 'http://dbpedia.org/resource/Lamont_Dozier', 'http://dbpedia.org/resource/Leslie_Bricusse', 'http://dbpedia.org/resource/Nicole_Scherzinger', 'http://dbpedia.org/resource/Norman_Gimbel', 'http://dbpedia.org/resource/Pablo_Beltrán_Ruiz', 'http://dbpedia.org/resource/Pete_Bellotte', 'http://dbpedia.org/resource/Polow_da_Don', 'http://dbpedia.org/resource/Rich_Harrison', 'http://dbpedia.org/resource/Sean_Garrett', 'http://dbpedia.org/resource/Siobhan_Fahey', 'http://dbpedia.org/resource/Sir_Mix-a-Lot', 'http://dbpedia.org/resource/Timbaland', 'http://dbpedia.org/resource/Will.i.am', 'Ruiz', 'Gimbel', 'Palmer', 'Vanessa Brown', 'Forsey', 'Fahey', 'Scherzinger', 'Jones', 'Garrett', 'Hilson', 'Sigidi', 'Steven Gallifent', 'Kenny', 'Blanchard', 'Avant', 'Robert Palmer', 'Will Blanchard', 'Craig Longmiles', 'Gallifent', 'Wells', 'Harold Clayton', 'Livingston', 'Ray', 'Perry', 'Smith', 'Golde', 'DioGuardi', 'Bellotte', 'Faltermeyer', 'Callaway'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Pop', '*dance-pop', '*R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Asia_Nitollano', 'http://dbpedia.org/resource/Bernard_Fowler', 'http://dbpedia.org/resource/Carmit_Bachar', 'http://dbpedia.org/resource/Darryl_Jones', 'http://dbpedia.org/resource/Dave_Audé', "http://dbpedia.org/resource/Eden's_Crush", 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Her_Majesty_&amp;_the_Wolves', 'http://dbpedia.org/resource/Jessica_Sutta', 'http://dbpedia.org/resource/Jonas_Jeberg', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kasia_Moś', 'http://dbpedia.org/resource/Kaya_Jones', 'http://dbpedia.org/resource/Kherington_Payne', 'http://dbpedia.org/resource/Lisa_Fischer', 'http://dbpedia.org/resource/Melody_Thornton__Melody_Thornton__1', 'http://dbpedia.org/resource/Melvin_LaThomas_Brimm', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Paradiso_Girls', 'http://dbpedia.org/resource/Peter_Mokran', 'http://dbpedia.org/resource/Ron_Fair', 'http://dbpedia.org/resource/Sasha_Allen', 'http://dbpedia.org/resource/Sisely_Treasure', 'http://dbpedia.org/resource/Sudha_Kheterpal', 'http://dbpedia.org/resource/Wayne_Hector'], 'abstract': 'PCD is the debut studio album by American girl group The Pussycat Dolls, released on September 12, 2005, by A&amp;M Records. In 1993, the Pussycat Dolls was created as a burlesque troupe by choreographer Robin Antin. After attracting media attention, Antin struck a joint venture with Interscope Records to develop the Pussycat Dolls into a brand, with Jimmy Iovine assigning the project to Ron Fair. As one of the executive producers Fair produced the majority of the album and collaborated with producers like Kwamé, Polow da Don and Rich Harrison. The music style of PCD was described as pop/R&amp;B and urban dance-pop. Lyrically the album incorporates sexual innuendo and explores the themes of feminism and romance. It features guest vocals from rappers Busta Rhymes, Timbaland and will.i.am. PCD received mixed reviews from contemporary music critics who were favorable towards the selection of dance-pop songs but criticized the album\'s ballads and covers, feeling it contradicted the group\'s sexual image. PCD exceeded industry expectations and became a commercial success, reaching the summit in New Zealand and peaking in the top-ten in Australia, Germany, the Netherlands and Switzerland. In the United States, it peaked at number five on the Billboard 200 selling nearly three million copies and currently stands as fourth best-selling album by a girl group in the United Kingdom (with sales of 1.3 million copies) where it reached number eight on the UK Albums Chart. The first four singles from PCD—"Don\'t Cha", "Stickwitu", "Beep" and "Buttons"—were commercially successful topping the charts in various countries including New Zealand where all four of them reached atop the singles chart. Subsequent singles, "I Don\'t Need a Man" and "Wait a Minute", were less successful. Promotion includes radio appearances, print interviews, and live performances of its songs in various television shows such as the 2005 MTV Europe Music Awards and the American Music Awards of 2006. In conjunction with these appearances, the Pussycat Dolls extensively toured the album in a combination of headlining and supporting shows until 2007.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Laundry_Service', 'album_name': 'Laundry Service: Washed and Dried', 'artist': 'http://dbpedia.org/resource/Shakira', 'artist_name': 'Shakira', 'wiki': 'http://en.wikipedia.org/wiki/Laundry_Service', 'released': '13 November 2001', 'producers': ['http://dbpedia.org/resource/Lester_Mendez', 'http://dbpedia.org/resource/Tim_Mitchell', 'Emilio Estefan', 'Shakira', 'George Noriega', 'Pablo Floresi', 'Javier Garza', 'Brendan Buckley', 'Luis F. Ochoa'], 'writers': ['http://dbpedia.org/resource/Shakira'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Alejandro_Sanz', 'http://dbpedia.org/resource/Anuel_AA', 'http://dbpedia.org/resource/Aranza', 'http://dbpedia.org/resource/Carlos_Vives', 'http://dbpedia.org/resource/Dan_Warner_(musician)', 'http://dbpedia.org/resource/Daniela_Andrade', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Domino_Saints', 'http://dbpedia.org/resource/Edgar_Barrera', 'http://dbpedia.org/resource/El_Cata', 'http://dbpedia.org/resource/Eshraque_%22iSHi%22_Mughal', 'http://dbpedia.org/resource/Freshlyground', 'http://dbpedia.org/resource/Garrett_Gardner', 'http://dbpedia.org/resource/George_Noriega', 'http://dbpedia.org/resource/John_Hill_(record_producer)__John_Hill__1', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Jon_Button', 'http://dbpedia.org/resource/Jonathan_Mover', 'http://dbpedia.org/resource/Jorge_Drexler', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kristen_Merlin', 'http://dbpedia.org/resource/Luis_Conte', 'http://dbpedia.org/resource/Luis_Fernando_Ochoa', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Pablo_Flores', 'http://dbpedia.org/resource/Pablo_Manavello', 'http://dbpedia.org/resource/Salva_(music_producer)', 'http://dbpedia.org/resource/Sasha_Allen', 'http://dbpedia.org/resource/Sebastian_Krys', 'http://dbpedia.org/resource/Surianne'], 'abstract': 'Laundry Service (Spanish: Servicio de Lavandería) is the fifth studio album and first English language album by Colombian singer and songwriter Shakira, globally released on 13 November 2001 by Epic Records. It is her first album to be primarily recorded in English. After the release of her fourth studio album Dónde Están los Ladrones?, which became a success in Latin America, Spain and the Latin community in the United States, Shakira was encouraged by American singer Gloria Estefan to record songs in English as she believed the singer had the potential to crossover into the English-language pop market. Shakira was initially hesitant to undertake the project, but later decided to learn English well enough to be able to write songs in the language herself. The title of the album was chosen to reflect Shakira\'s views on love and music. It was also released as Servicio de Lavandería in Hispanic regions in January 2002. Musically, Laundry Service is primarily a pop rock record but it also experiments with a variety of other musical styles, including Andean music, dance-pop, Middle Eastern music, rock and roll and tango music. The lyrical theme of the album is mostly based around love and romance. Every song on the album was written and produced by Shakira under the guidance of Emilio Estefan. Six singles were released from the album. The lead single "Whenever, Wherever" became an international success and reached number one on record charts of countries like Australia, Austria, France, Germany, Italy and Spain. Follow-up single "Underneath Your Clothes" repeated its success, topping the charts of Australia, Austria, and Belgium. Both singles charted inside the top ten in the United Kingdom and United States. The third single "Objection (Tango)" became a top ten hit in most countries around the world. Spanish-language singles "Te Dejo Madrid" and "Que Me Quedes Tú" performed well in Hispanic regions, becoming hits in Spain and on the Latin record charts in the United States, respectively. "The One" was a moderate commercial success and became the last single to be released from Laundry Service. To promote the album, Shakira embarked on her Tour of the Mongoose between 2002 and 2003. It was her first major worldwide tour and visited numerous countries and cities. Upon its release, Laundry Service received favourable to mixed reviews from music critics. Many critics complimented Shakira\'s incorporation of different musical styles in the production and her originality, while some critics argued that the album sounded too generic. Shakira\'s vocal talent also attracted praise. Laundry Service topped the charts of countries including Australia, Austria, Belgium, Canada and Switzerland, while reaching the top five in other countries like Argentina, France, Germany, Spain and the United Kingdom. In the United States, Laundry Service peaked at number three on the Billboard 200 chart. The album received numerous record certifications in various countries, including sextuple platinum in Australia, quintuple in Canada, Spain and Switzerland. It was also certified multi-platinum in the United Kingdom and the United States, proving to be a successful crossover for Shakira. Globally, Laundry Service was the seventh best-selling album in 2002. The album sold around 13 million copies making it one of the best-selling albums of the 21st century. The album is listed at number 172 of the "Definitive 200" by the Rock and Roll Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Some_Hearts', 'album_name': 'Some Hearts', 'artist': 'http://dbpedia.org/resource/Carrie_Underwood', 'artist_name': 'Carrie Underwood', 'wiki': 'http://en.wikipedia.org/wiki/Some_Hearts', 'released': '15 November 2005', 'producers': ['http://dbpedia.org/resource/Dann_Huff', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Mark_Bright_(record_producer)'], 'writers': ['http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Angelo_Petraglia', 'http://dbpedia.org/resource/Ashley_Gorley', 'http://dbpedia.org/resource/Brett_James', 'http://dbpedia.org/resource/Carrie_Underwood', 'http://dbpedia.org/resource/Chris_Tompkins', 'http://dbpedia.org/resource/Diamond_Rio', 'http://dbpedia.org/resource/Diane_Warren', 'http://dbpedia.org/resource/Gordie_Sampson', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Josh_Kear', 'http://dbpedia.org/resource/Kelley_Lovelace', 'http://dbpedia.org/resource/Marv_Green', 'http://dbpedia.org/resource/Melissa_Peirce', 'http://dbpedia.org/resource/Morgane_Stapleton', 'http://dbpedia.org/resource/Neil_Thrasher', 'http://dbpedia.org/resource/Rivers_Rutherford', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Steve_McEwan', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Trey_Bruce', 'http://dbpedia.org/resource/Troy_Verges', 'http://dbpedia.org/resource/Wayne_Hector', 'http://dbpedia.org/resource/Wendell_Mobley', 'Lindsey', 'Greg Becker', 'Petraglia', 'Warren', 'Robson', 'Pelle Nyhlén'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Country_pop'], 'related_artists': ['http://dbpedia.org/resource/Aimee_Mayo', 'http://dbpedia.org/resource/Ashley_Gorley', 'http://dbpedia.org/resource/Chris_Tompkins', 'http://dbpedia.org/resource/Gordie_Sampson', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Josh_Kear', 'http://dbpedia.org/resource/Katrina_Elam', 'http://dbpedia.org/resource/Luke_Laird', 'http://dbpedia.org/resource/Mark_Bright_(record_producer)', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Fuller', 'http://dbpedia.org/resource/Sons_of_Sylvia', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Zach_Crowell'], 'abstract': 'Some Hearts is the debut studio album by American singer and songwriter Carrie Underwood, released in the United States on November 15, 2005, by Arista Nashville. The album contains the number one country singles "Jesus, Take the Wheel", "Don\'t Forget to Remember Me", "Wasted", and "Before He Cheats". The North American version contains the Billboard Hot 100 number one single, "Inside Your Heaven", as a bonus track. Bolstered by the success of its singles, Some Hearts became the best-selling album of 2006 in all genres in the United States. The album was also the best-selling country album in the United States of both 2006 and 2007, making Underwood the first female artist in Billboard history to earn back-to-back honors for Top Country Album. Additionally, it was the best-selling female country album of 2005, 2006 and 2007. Some Hearts has since been certified 9x platinum by the Recording Industry Association of America (RIAA), and is the fastest-selling debut country album in the history of the Nielsen SoundScan era, the best-selling solo female debut album in country music history, the best-selling country album of the last 10 years, and the best-selling album by an American Idol alumni in the U.S. It was listed as one of the 100 best-selling albums of all time by the RIAA in 2009. Some Hearts has since sold over 7.45 million copies in the U.S. and over nine million worldwide. In December 2009, Billboard announced that the album was the biggest-selling country album of the decade, as well as the fourteenth biggest-selling album of any genre. The album and its songs were praised by music critics. It led Underwood to win three Grammy Awards: Best New Artist in 2007 and twice Best Female Country Vocal Performance—for "Jesus, Take the Wheel", in 2007, and for "Before He Cheats", in 2008. Additionally, Some Hearts won Album of the Year at the 2007 Academy of Country Music Awards, while "Jesus, Take the Wheel" and "Before He Cheats" both won Single of the Year at the 2006 Academy of Country Music Awards and 2007 Country Music Association Awards, respectively.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Flowers_(Jennifer_Paige_album)', 'album_name': 'Flowers (The Hits Collection)', 'artist': 'http://dbpedia.org/resource/Jennifer_Paige', 'artist_name': 'Jennifer Paige', 'wiki': 'http://en.wikipedia.org/wiki/Flowers_(Jennifer_Paige_album)', 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Torsten_Stenzel'], 'abstract': 'Flowers (The Hits Collection) is a greatest hits album of American pop singer Jennifer Paige released by her former record label Hollywood Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lick_It_Up', 'album_name': 'Lick It Up', 'artist': 'http://dbpedia.org/resource/Kiss_(band)', 'artist_name': 'Kiss', 'wiki': 'http://en.wikipedia.org/wiki/Lick_It_Up', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'released': '23 September 1983', 'producers': ['http://dbpedia.org/resource/Gene_Simmons', 'http://dbpedia.org/resource/Paul_Stanley', 'Michael James Jackson'], 'writers': ['http://dbpedia.org/resource/Paul_Stanley', 'http://dbpedia.org/resource/Vinnie_Vincent', 'Stanley, Vincent', 'Simmons, Vincent', 'Eric Carr, Stanley, Simmons, Vincent', 'Gene Simmons, Vincent', 'Simmons'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Heavy metal', '*hard rock', '*glam metal'], 'related_artists': ['http://dbpedia.org/resource/Ace_Frehley', 'http://dbpedia.org/resource/Adam_Bomb', 'http://dbpedia.org/resource/Adam_Mitchell_(songwriter)', 'http://dbpedia.org/resource/Allan_Schwartzberg', 'http://dbpedia.org/resource/Anton_Fig', 'http://dbpedia.org/resource/Balance_(band)', "http://dbpedia.org/resource/Black_'n_Blue", 'http://dbpedia.org/resource/Blackjack_(American_band)', 'http://dbpedia.org/resource/Bob_Ezrin', 'http://dbpedia.org/resource/Bob_Kulick', 'http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Bruce_Kulick', 'http://dbpedia.org/resource/Chelsea_(American_band)', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Dick_Wagner', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Eric_Carr', 'http://dbpedia.org/resource/Eric_Knight_(musician)', 'http://dbpedia.org/resource/Eric_Singer', 'http://dbpedia.org/resource/Eric_Singer_Project', 'http://dbpedia.org/resource/Flipp', "http://dbpedia.org/resource/Frehley's_Comet", 'http://dbpedia.org/resource/Gene_Simmons__Gene_Simmons__1', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/Kevin_Valentine', 'http://dbpedia.org/resource/Kim_Fowley', 'http://dbpedia.org/resource/Levi_and_the_Rockats', 'http://dbpedia.org/resource/Mark_St._John', 'http://dbpedia.org/resource/Michael_Ray_(guitarist)', 'http://dbpedia.org/resource/Momoiro_Clover_Z', 'http://dbpedia.org/resource/New_England_(band)', 'http://dbpedia.org/resource/Paul_Stanley', 'http://dbpedia.org/resource/Peter_Criss', 'http://dbpedia.org/resource/Robben_Ford', 'http://dbpedia.org/resource/Sean_Delaney_(musician)', 'http://dbpedia.org/resource/Spider_(American_band)', 'http://dbpedia.org/resource/Stephen_Coronel', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/Tommy_Thayer', 'http://dbpedia.org/resource/Union_(band)__Union__1', 'http://dbpedia.org/resource/Vinnie_Vincent', 'http://dbpedia.org/resource/Vinnie_Vincent_Invasion', 'http://dbpedia.org/resource/White_Tiger_(band)', 'http://dbpedia.org/resource/Wicked_Lester'], 'abstract': 'Lick It Up is the 11th studio album by American rock band Kiss. Before its 1983 release, the band members appeared on MTV without their trademark make-up. It was the first public appearance without make-up by the band, and their first for Mercury Records, where they had been signed following their departure from Casablanca Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Everything_Is_4', 'album_name': 'Everything Is 4', 'artist': 'http://dbpedia.org/resource/Jason_Derulo', 'artist_name': 'Jason Derulo', 'wiki': 'http://en.wikipedia.org/wiki/Everything_Is_4', 'released': '29 May 2015', 'producers': ['Ian Kirkpatrick', 'Charlie Puth', 'Ricky Reed', 'The Monsters and the Strangerz', 'Cook Classics', 'Mr. Collipark', 'Hitmaka', 'Foreign Teck', 'Dreamstate', 'Johan Carlsson', 'Matoma', 'Mag', 'Pop &amp; Oak', 'The Starr Island Group', 'Nathaniel "Danja" Hills', 'Heston Valley', 'Sonny Alves'], 'writers': ['Alexander “Xplicit” Izquierdo', 'Andrew "Pop" Wansel', 'Arin Ray', 'BJ Mekk', 'Charlie Puth', 'Christian Ward', 'Christopher Maurice Brown', 'David Brook', 'David Ritz', 'Desrouleaux', 'Douglas', 'Eric Frederic', 'Evigan', 'Floyd Bentley', 'Floyd Hills', 'Ian Kirkpatrick', 'James Roston', 'Jason Desrouleaux', 'Jason Evigan', 'Johan Carlsson', 'Jordan Hollywood', 'Julia Michaels', 'Kirkpatrick', 'Lindy Robbins', 'Lyrica Anderson', 'Marcella Araica', 'Marcus Lomax', 'Martin', 'Marvin Gaye', 'Meghan Trainor', 'Michael Crooms', 'Michael Hernandez', 'Mitch Allan', 'Odell Brown', 'Puth', 'Rico Evans', 'Robbins', 'Ross Golan', 'Samuel Martin', 'Sean Douglas', 'Shy Carter', 'Sonny Alves', 'Stefan Johnson', 'Taylor Parks', 'Warren "Oak" Felder', 'Will Lobban-Bean'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'R&amp;B', 'dance'], 'related_artists': ['http://dbpedia.org/resource/Alex_James_(songwriter)__Alex_James__1', 'http://dbpedia.org/resource/Auburn_(singer)', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Britt_Lightning', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Dinavon_Bythwood', 'http://dbpedia.org/resource/DripReport', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Emanuel_Kiriakou', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/JT_Roach', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jawsh_685', 'http://dbpedia.org/resource/Joe_London', 'http://dbpedia.org/resource/Jonas_Jeberg', 'http://dbpedia.org/resource/Jordan_Kyle', 'http://dbpedia.org/resource/Joshua_%22J.D.%22_Walker', 'http://dbpedia.org/resource/Lindy_Robbins', 'http://dbpedia.org/resource/Matt_Prime', 'http://dbpedia.org/resource/Mims_(rapper)', 'http://dbpedia.org/resource/Molly_Sandén', 'http://dbpedia.org/resource/Nuka_(beat_maker)', 'http://dbpedia.org/resource/Phil_Greiss', 'http://dbpedia.org/resource/Quratulain_Balouch', 'http://dbpedia.org/resource/Ricky_Reed', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Sidney_Swift', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/Smash_David', 'http://dbpedia.org/resource/Sofía_Reyes', 'http://dbpedia.org/resource/Stevie_Hoang', 'http://dbpedia.org/resource/Tesher', 'http://dbpedia.org/resource/The_Fliptones', 'http://dbpedia.org/resource/Thomas_Troelsen'], 'abstract': 'Everything Is 4 is the fourth studio album by American singer Jason Derulo. It was released on May 29, 2015, by Beluga Heights Records and Warner Bros. Records. The lead single "Want to Want Me" which reached number one in six countries, was released on March 9, 2015. The album is a follow-up to Derulo\'s previous studio album, Tattoos (2013) in the international market and Talk Dirty (2014) in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Bump_Ahead', 'album_name': 'Bump Ahead', 'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Bump_Ahead', 'hometown': 'http://dbpedia.org/resource/California', 'released': '19 July 1993', 'producers': ['Kevin Elson'], 'writers': ['http://dbpedia.org/resource/Andy_Fraser', 'http://dbpedia.org/resource/Paul_Kossoff', 'http://dbpedia.org/resource/Paul_Rodgers', 'http://dbpedia.org/resource/Simon_Kirke', 'Martin, André Pessis', 'Torpey, Gilbert, Sheehan', 'Martin, Gilbert, Fanucchi, Torpey', 'Cat Stevens', 'Fraser, Rodgers, Kossoff, Kirke', 'Gilbert', 'Martin, Pessis, Torpey, Sheehan, Gilbert', 'Martin, Spiro, Pessis', 'Sheehan, Gilbert, Torpey', 'Paul Gilbert, Billy Sheehan, Pat Torpey, Eric Martin, Tony Fanucchi', 'Gilbert, Sheehan', 'Martin, Mark Spiro, Pessis', 'Gilbert, Torpey, Pessis, Sheehan'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/G3_(tour)', 'http://dbpedia.org/resource/Impellitteri', 'http://dbpedia.org/resource/Matt_Starr', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Paul_Gilbert', 'http://dbpedia.org/resource/Racer_X_(band)', 'http://dbpedia.org/resource/Richie_Kotzen', 'http://dbpedia.org/resource/Sons_of_Apollo', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/The_Winery_Dogs', 'http://dbpedia.org/resource/Willie_Basse'], 'abstract': 'Bump Ahead is the third studio album by the American hard rock band Mr. Big. It was released in 1993 by Atlantic.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Stadium_Arcadium', 'album_name': 'Stadium Arcadium', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Stadium_Arcadium', 'hometown': 'http://dbpedia.org/resource/California', 'released': '09 May 2006', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_rock'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Ataxia_(band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Chad_Smith', "http://dbpedia.org/resource/Chad_Smith's_Bombastic_Meatbats", 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Deconstruction_(band)', 'http://dbpedia.org/resource/Dot_Hacker', 'http://dbpedia.org/resource/Eleven_(band)', 'http://dbpedia.org/resource/Fear_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/John_Frusciante', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Kristen_Vigard', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Marcel_Rodríguez-López', 'http://dbpedia.org/resource/Mauro_Refosco', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Omar_Rodríguez-López', 'http://dbpedia.org/resource/Ryan_Hewitt_(record_producer)', 'http://dbpedia.org/resource/The_Bicycle_Thief_(band)__The_Bicycle_Thief__1', 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/The_Panic_Channel', 'http://dbpedia.org/resource/The_Weirdos', 'http://dbpedia.org/resource/Thelonious_Monster', 'http://dbpedia.org/resource/Tree_(musician)', 'http://dbpedia.org/resource/Warpaint_(band)', 'http://dbpedia.org/resource/Weapon_of_Choice_(band)', 'http://dbpedia.org/resource/What_Is_This%3F', 'http://dbpedia.org/resource/Zavalaz'], 'abstract': 'Stadium Arcadium is the ninth studio album by American rock band Red Hot Chili Peppers. It was released on May 9, 2006, on Warner Bros. Records. It produced five singles: "Dani California", "Tell Me Baby", "Snow (Hey Oh)", "Desecration Smile" and "Hump de Bump", along with the first-ever fan-made music video for the song "Charlie". In the United States, Stadium Arcadium became the band\'s first number-one album. Stadium Arcadium was originally scheduled to be a trilogy of albums each released six months apart, but was eventually condensed into a double album. It was the group\'s last to feature guitarist John Frusciante before his departure in 2009 and return in 2019. The album was praised for integrating musical styles from several aspects of the band\'s career. The album gained the band seven Grammy Award nominations in 2007 including an award for Best Rock Album and one for Best Boxed or Special Limited Edition Package. Winning five out of seven Grammy Awards, it was the most nominations that the band had garnered in its 24-year career. Rolling Stone has included the album on its list of Best Albums of the 2000s. Kiedis attributed the album\'s success to less abrasive dynamics within the band, saying that the band\'s "chemistry, when it comes to writing, is better than ever. There was always a struggle to dominate lyrically. But we are now confident enough in who we are, so everybody feels more comfortable contributing more and more valuable, quality stuff."'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Best_of_1990–2000', 'album_name': 'The Best of 1990-2000', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/The_Best_of_1990–2000', 'hometown': 'http://dbpedia.org/resource/Dublin', 'released': '02 December 2002', 'producers': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Bono', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Flood_(producer)', 'http://dbpedia.org/resource/Howie_B', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_Barrett', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/William_Orbit', "Ned O'Hanlon"], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Bagatelle_(band)', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Dik_Evans', 'http://dbpedia.org/resource/Florence_and_the_Machine', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Josh_Garza', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_McGuinness', 'http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Sikter', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Mighty_Manatees', 'http://dbpedia.org/resource/Vinnie_Kilduff', 'http://dbpedia.org/resource/Virgin_Prunes'], 'abstract': 'The Best of 1990–2000 is the second greatest hits album by Irish rock band U2. It was released on 5 November 2002 through Island Records and Interscope Records. It was issued as both a single-disc CD compilation and as a multi-disc compilation called The Best of 1990–2000 &amp; B-Sides, which included a second disc of 14 B-sides released between 1990 and 2000 and a bonus DVD. A video album of the same name was later released in December 2002. The Best of 1990–2000 contained two newly recorded tracks, "Electrical Storm" and "The Hands That Built America"; the former was released as a single, while the latter was released on the soundtrack to Gangs of New York. The compilation also includes "new mixes" of several songs, as well the tracks "Hold Me, Thrill Me, Kiss Me, Kill Me" (a non-album single from 1995) and "Miss Sarajevo" (which was originally credited to Passengers and also released as a single in 1995). The album charted at number one in 13 countries and was the twelfth-best-selling album of 2002, according to the International Federation of the Phonographic Industry.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Break_the_Cycle', 'album_name': 'Break the Cycle', 'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Break_the_Cycle', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '08 May 2001', 'producers': ['http://dbpedia.org/resource/Josh_Abraham'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'Post-grunge', 'nu metal'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': "Break the Cycle is the third studio album by American rock band Staind, released through Elektra Entertainment and Flip Records in 2001. It is Staind's most successful album to date, and was the album that broke them into the mainstream. It was a huge international success for the band, as it spent three weeks at number one position in the U.S. album charts and many weeks in the top 10 album charts of the Billboard 200, the UK and New Zealand. It sold at least 4 million copies in 2001. The album was certified 5x platinum by the RIAA."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Alive_(Big_Bang_album)', 'album_name': 'Alive (Big Bang album)', 'artist': 'http://dbpedia.org/resource/Big_Bang_(band)', 'artist_name': 'BIGBANG', 'wiki': 'http://en.wikipedia.org/wiki/Alive_(Big_Bang_album)', 'hometown': 'http://dbpedia.org/resource/South_Korea', 'released': '28 March 2012', 'producers': ['http://dbpedia.org/resource/G-Dragon', 'http://dbpedia.org/resource/Teddy_Park', 'Yang Hyun-suk', 'Max Matsuura'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/2NE1', 'http://dbpedia.org/resource/Daishi_Dance', 'http://dbpedia.org/resource/GD_&amp;_TOP', 'http://dbpedia.org/resource/GD_X_Taeyang', 'http://dbpedia.org/resource/YG_Entertainment'], 'abstract': 'Alive is the fourth Japanese studio album (sixth overall) by South Korean boy band Big Bang. It was released on March 28, 2012 including 10 songs: 4 Japanese versions, 2 new songs and 4 songs already released in Korean from the EP of same name. The album is the first release of the group under the label YGEX, a partnership between the Korean agency YG Entertainment with the Japanese label Avex Trax. The album was re-released on June 20 under the name "Alive -Monster Edition-". It included 9 songs of the Alive original album, 1 Japanese version and 2 songs released in Korean.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Hangin'_Tough", 'album_name': "Hangin' Tough", 'artist': 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'artist_name': 'New Kids On The Block', 'wiki': "http://en.wikipedia.org/wiki/Hangin'_Tough", 'hometown': 'http://dbpedia.org/resource/Dorchester,_Boston', 'released': '12 August 1988', 'producers': ['http://dbpedia.org/resource/Maurice_Starr'], 'writers': ['http://dbpedia.org/resource/Donnie_Wahlberg', 'http://dbpedia.org/resource/Maurice_Starr', 'http://dbpedia.org/resource/Naughty_by_Nature', 'http://dbpedia.org/resource/Stevie_Wonder', 'D. Wahlberg', 'Abney', 'Michael Jones', 'Eric Andrew Hall', 'Marcella Brailsford', 'Terence Abney', 'Jensen', 'Starr', 'Brailsford', 'Hagen Dierks', 'Patrick Francois Arondel', 'Lars Halvor Jensen', 'Gist', 'Cito Crandle', 'Addaryll Wilson'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/98_Degrees', 'http://dbpedia.org/resource/Backstreet_Boys', 'http://dbpedia.org/resource/Boyz_II_Men', 'http://dbpedia.org/resource/Debbie_Gibson', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Marky_Mark_and_the_Funky_Bunch', 'http://dbpedia.org/resource/Maurice_Starr', 'http://dbpedia.org/resource/NKOTBSB', 'http://dbpedia.org/resource/Naughty_by_Nature', 'http://dbpedia.org/resource/Ne-Yo', 'http://dbpedia.org/resource/New_Edition', 'http://dbpedia.org/resource/Nick_&amp;_Knight', 'http://dbpedia.org/resource/Salt-N-Pepa', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_Pussycat_Dolls', 'http://dbpedia.org/resource/Tiffany_Darwish', 'http://dbpedia.org/resource/Upper_Street_(group)'], 'abstract': 'Hangin\' Tough is the second studio album by American boy band New Kids on the Block, released on August 12, 1988, by Columbia Records. It is widely regarded as the breakthrough album of the group\'s career, gaining positive reviews for their musical transition from bubblegum pop to urban contemporary, blended with popular rock music. Originally the group\'s label had already planned to end their contract when their first album in 1986 garnered little commercial and critical attention which nearly led to their breakup. However, Maurice Starr, the group\'s producer, diligently persuaded the label to let them record for a second album. Hangin\' Tough led the group to success due to the emergence of their music to radio airplay and creation of music videos for each released single, showcasing the group\'s visual appeal. Their popularity was eventually built as they made TV appearances and embarked on promotional tours. By the end of 1989, the album topped on the US Billboard 200 charts, while it peaked at number two on the Canadian Albums Chart that year and the UK Albums Chart the following year. The album has a home-media video release entitled New Kids on the Block: Hangin\' Tough which is a documented musical film about the group\'s biographical career, released in 1989. It also contains a series of music videos, live performances, and exclusive interviews from the group and their fans. The album and film received accolades: two American Music Awards and at least one Grammy Award nomination. With sales of more than 14 million copies worldwide to date, Hangin\' Tough became the group\'s best-selling album and it was certified diamond in Canada by the Canadian Recording Industry Association (CRIA) with sales of more than one million units, while 8× platinum in the U.S. by the Recording Industry Association of America (RIAA), making it the country\'s second best-selling album of 1989, behind Bobby Brown\'s Don\'t Be Cruel. The album spawned five commercial singles: "Please Don\'t Go Girl", "You Got It (The Right Stuff)", "I\'ll Be Loving You (Forever)", "Hangin\' Tough", and "Cover Girl". All were top-ten hits on the Billboard Hot 100 chart, making them the first teen act to gain such chart success. An album titled "More Hangin\' Tough", which included remixed and instrumental versions of the album songs was released in Japan. Following the release of the 30th Anniversary Edition of the album in 2019, which contains remixes of previous singles plus three newly recorded songs, the album re-entered the US Billboard 200 chart at number 18.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Native_(album)', 'album_name': 'Native (album)', 'artist': 'http://dbpedia.org/resource/OneRepublic', 'artist_name': 'OneRepublic', 'wiki': 'http://en.wikipedia.org/wiki/Native_(album)', 'hometown': 'http://dbpedia.org/resource/Colorado_Springs,_Colorado', 'released': '25 March 2013', 'producers': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brent_Kutzle', 'http://dbpedia.org/resource/Cassius_(band)', 'http://dbpedia.org/resource/Drew_Brown_(musician)', 'http://dbpedia.org/resource/Emile_Haynie', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Ryan_Tedder', 'Tyler Sam Johnson'], 'writers': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brent_Kutzle', 'http://dbpedia.org/resource/Cassius_(band)', 'http://dbpedia.org/resource/Drew_Brown_(musician)', 'http://dbpedia.org/resource/Eddie_Fisher_(drummer)', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)', 'http://dbpedia.org/resource/Zach_Filkins', 'Tedder', 'Johnson', 'Zancanella', 'Boombass', 'Filkins', 'Bhasker', 'Fisher', 'Zdar', 'Brown', 'Blanco', 'Kutzle'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Alesso', 'http://dbpedia.org/resource/Greg_Wells', 'http://dbpedia.org/resource/Leona_Lewis', 'http://dbpedia.org/resource/Logic_(rapper)', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Peter_Gabriel', 'http://dbpedia.org/resource/Timbaland'], 'abstract': 'Native is the third studio album by American rock band OneRepublic. It was released on March 22, 2013 in Germany and Ireland, March 25 worldwide except North America, and March 26 in North America. The album was originally planned to be released at the end of 2012 with the lead single being "Feel Again", which was released on August 27, 2012. However, due to the album not being completed at the time, it was pushed back to early 2013. "Feel Again" was later branded as a promotional single, and on January 8, 2013, "If I Lose Myself" was released as the lead single for the album. The most successful single was the second single "Counting Stars", which peaked at number two on the Billboard Hot 100, becoming their highest-charting hit since "Apologize" also peaked there in 2007. It has also become their biggest hit in the United Kingdom—it topped the charts there for two non-consecutive weeks—and has charted within the top ten in nine countries, including top five placements in Australia, Germany, Ireland and New Zealand. The album\'s fourth single, "Something I Need", has since been certified 3× Platinum in Australia and Gold in New Zealand, peaking in the top 5 in both countries. Fifth single "Love Runs Out" charted in the top 5 in thirteen countries, including the United Kingdom, whilst the sixth and final single "I Lived" was a minor success. The album received positive reviews from critics. It charted in the top 20 in eleven countries worldwide. It has been certified Platinum in the United States, Australia and the United Kingdom.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Born_This_Way:_The_Remix', 'album_name': 'Born This Way: The Remix', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Born_This_Way:_The_Remix', 'released': '18 November 2011', 'producers': ['http://dbpedia.org/resource/Cheche_Alara', 'http://dbpedia.org/resource/DJ_Aqeel', 'http://dbpedia.org/resource/DJ_White_Shadow', 'http://dbpedia.org/resource/Fernando_Garibay', 'http://dbpedia.org/resource/Foster_the_People', 'http://dbpedia.org/resource/Goldfrapp', 'http://dbpedia.org/resource/Hurts', 'http://dbpedia.org/resource/Illangelo', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Joseph_Mount', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Metronomy', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Röyksopp', 'http://dbpedia.org/resource/Sultan_&amp;_Shepard', 'http://dbpedia.org/resource/Svein_Berge', 'http://dbpedia.org/resource/The_Horrors', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Torbjørn_Brundtland', 'http://dbpedia.org/resource/Twin_Shadow', 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'http://dbpedia.org/resource/Wild_Beasts', 'http://dbpedia.org/resource/Zedd', 'Mark Taylor', 'Guéna LG', 'Gregori Klosman'], 'awards': ['Gold'], 'genres': ['Electronic', 'dance'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': "Born This Way: The Remix is the second remix album by American singer Lady Gaga, released on November 18, 2011 by Interscope. This album contains remixes of multiple songs from Gaga's second studio album, Born This Way. It was also released as part of the Born This Way: The Collection, a special edition release including the 17-track version of Gaga's second studio album and a DVD release of the HBO concert special Lady Gaga Presents the Monster Ball Tour: At Madison Square Garden. Most of the remixes had been available in the remix EPs released alongside each single from Born This Way. Musically, the album is an electronic and dance record; there are also influences of Europop, techno and dubstep within the composition. Critics gave mixed reviews for the album, with their general complaint being that the release was unnecessary. Most of them, however, complimented The Weeknd, Twin Shadow and Guéna LG's remixes. It earned an overall score of 57 out of 100, on review aggregator site Metacritic. Commercially, Born This Way: The Remix achieved minor success, entering the charts in ten countries. Its highest peak position was attained in Japan, where it reached number 14. It also peaked at number 105 on the Billboard 200 chart in the United States."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Uptown_Special', 'album_name': 'Uptown Special', 'artist': 'http://dbpedia.org/resource/Mark_Ronson', 'artist_name': 'Mark Ronson', 'wiki': 'http://en.wikipedia.org/wiki/Uptown_Special', 'released': '13 January 2015', 'producers': ['http://dbpedia.org/resource/Boys_Noize', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/DJ_Zinc', 'http://dbpedia.org/resource/Emile_Haynie', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Riton_(musician)', 'http://dbpedia.org/resource/Totally_Enormous_Extinct_Dinosaurs'], 'writers': ['http://dbpedia.org/resource/Andrew_Wyatt', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/Charlie_Wilson_(singer)', 'http://dbpedia.org/resource/Homer_Steinweiss', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Kevin_Parker_(musician)', 'http://dbpedia.org/resource/Lonnie_Simmons', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Michael_Chabon', 'http://dbpedia.org/resource/Mystikal', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Rufus_Wainwright', 'http://dbpedia.org/resource/Thomas_Brenneck', 'http://dbpedia.org/resource/Trinidad_James', 'Chris Vatalaro', 'Haynie', 'Brody Brown', 'Rudolph Taylor', 'Bhasker', 'Mars', 'Ronnie Wilson', 'Chabon', 'Movshon', 'Ronson', 'Alex Greenwald', 'Devon Gallaspy', 'Parker', 'Lawrence', 'Robert Wilson'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/Alex_Greenwald', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Angel_Olsen', 'http://dbpedia.org/resource/Best_Kept_Secret_(production_team)', 'http://dbpedia.org/resource/Big_Kap', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Dave_McCabe', 'http://dbpedia.org/resource/Doc_Brown_(rapper)', 'http://dbpedia.org/resource/Domino_Kirke', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Homer_Steinweiss', 'http://dbpedia.org/resource/Jarami', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jordan_Galland', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Picard_Brothers', 'http://dbpedia.org/resource/Q-Tip_(musician)', 'http://dbpedia.org/resource/Raissa_(Malaysian-British_singer)', 'http://dbpedia.org/resource/Rhymefest', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Rose_Elinor_Dougall', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sharon_Jones_&amp;_the_Dap-Kings', 'http://dbpedia.org/resource/SugaRush_Beat_Company', 'http://dbpedia.org/resource/The_Brand_New_Heavies', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/Thomas_Brenneck', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Victor_Axelrod', 'http://dbpedia.org/resource/Wale_(rapper)', 'http://dbpedia.org/resource/Zowie'], 'abstract': "Uptown Special is the fourth studio album by English record producer Mark Ronson. The album was released on 13 January 2015 in the US and 19 January 2015 in the UK. It is his first album in nearly five years, following Record Collection (2010) and his first solo album since Version (2007). Ronson dedicated the album to the late Amy Winehouse. Uptown Special became Ronson's first number one on the UK Albums Chart (with his previous two albums charting at number two), and reached number two on the Australian ARIA Albums Chart and number five on the US Billboard 200."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Minutes_to_Midnight_(Linkin_Park_album)', 'album_name': 'Minutes to Midnight', 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Minutes_to_Midnight_(Linkin_Park_album)', 'released': '14 May 2007', 'producers': ['http://dbpedia.org/resource/Mike_Shinoda', 'Rick Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['Alternative rock', 'alternative metal'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Minutes to Midnight is the third studio album by American rock band Linkin Park, released on May 14, 2007, through Warner Bros. Records. The album was produced by Mike Shinoda and Rick Rubin, and first album not produced by Don Gilmore, who had produced the band\'s two previous albums. Minutes to Midnight was the band\'s follow-up album to Meteora (2003) and features a shift in the group\'s musical direction. For the band, the album marks a beginning of deviation from their signature nu metal sound. Minutes to Midnight takes its title from the Doomsday Clock. It is also the band\'s first full-length album to carry a Parental Advisory label. Linkin Park started working on their third studio album in 2003, taking a break to tour in support of Meteora in 2004. In this time period, the band formed numerous side projects; Mike Shinoda formed his hip hop side project Fort Minor, while Chester Bennington formed Dead by Sunrise, both of which caused the album to be shelved temporarily. The band returned to work on the record afterward, taking on a different musical direction than the 2003 sessions while working with producer Rick Rubin. The album\'s completion was delayed several times for unknown reasons. Eventually, "What I\'ve Done" was chosen as the album\'s lead single in April 2007, with the album seeing release in North America on May 15, 2007. The album debuted at number one in the US Billboard 200 and in 15 other countries, including the United Kingdom and Canada. In the United States, the album had the biggest first week sales of 2007 at the time, with 623,000 albums sold, going on to be certified fourfold platinum in the United States. It was also certified double platinum in New Zealand, Italy, Ireland, and Australia and certified platinum in Canada, France, Switzerland and in the UK. It has sold more than four million copies in the US and 20 million copies worldwide. It was ranked number 154 on Billboard\'s Hot 200 Albums of the Decade. But despite its commercial success, Minutes to Midnight received mixed reviews from critics. Rolling Stone magazine, however, named it the twenty-fifth best album of 2007.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lullabies_to_Paralyze', 'album_name': 'Lullabies to Paralyze', 'artist': 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'artist_name': 'Queens of the Stone Age', 'wiki': 'http://en.wikipedia.org/wiki/Lullabies_to_Paralyze', 'hometown': 'http://dbpedia.org/resource/Palm_Desert,_California', 'released': '21 March 2005', 'producers': ['http://dbpedia.org/resource/Joe_Barresi', 'http://dbpedia.org/resource/Josh_Homme'], 'writers': ['Homme, Van Leeuwen, Castillo, Lanegan', 'Homme, Van Leeuwen, Josh Freese, Castillo, Alain Johannes', 'Joshua Homme, Troy Van Leeuwen, Joey Castillo, Mark Lanegan'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Stoner_rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_North', 'http://dbpedia.org/resource/Alain_Johannes', 'http://dbpedia.org/resource/Alfredo_Hernández', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Beaver_(band)', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Blast_(American_band)', 'http://dbpedia.org/resource/Brody_Dalle', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Goss', 'http://dbpedia.org/resource/Creature_with_the_Atom_Brain_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Dave_Catching', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Dwarves_(band)', 'http://dbpedia.org/resource/Eagles_of_Death_Metal', 'http://dbpedia.org/resource/Eleven_(band)', 'http://dbpedia.org/resource/Enemy_(American_band)', 'http://dbpedia.org/resource/Failure_(band)', 'http://dbpedia.org/resource/Fififf_Teeners', 'http://dbpedia.org/resource/Gone_Is_Gone', 'http://dbpedia.org/resource/Goon_Moon', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/James_Lavelle__James_Lavelle__1', 'http://dbpedia.org/resource/Jesse_Hughes_(musician)', 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/John_McBain_(musician)', 'http://dbpedia.org/resource/Jon_Theodore', 'http://dbpedia.org/resource/Jubilee_(band)', 'http://dbpedia.org/resource/Kyuss', 'http://dbpedia.org/resource/Mark_Lanegan', 'http://dbpedia.org/resource/Masters_of_Reality', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Matt_Sweeney', 'http://dbpedia.org/resource/Michael_Shuman', 'http://dbpedia.org/resource/Mike_Johnson_(bassist)', 'http://dbpedia.org/resource/Mini_Mansions', 'http://dbpedia.org/resource/Molly_McGuire', 'http://dbpedia.org/resource/Mondo_Generator', 'http://dbpedia.org/resource/Natasha_Shneider', 'http://dbpedia.org/resource/Nick_Oliveri', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Paz_Lenchantin', 'http://dbpedia.org/resource/Peter_Stahl', 'http://dbpedia.org/resource/Roxy_Saint', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Shirley_Manson', 'http://dbpedia.org/resource/Snake_River_Conspiracy', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Spinnerette', 'http://dbpedia.org/resource/Sugartooth', 'http://dbpedia.org/resource/Sweet_Apple', 'http://dbpedia.org/resource/Sweethead', 'http://dbpedia.org/resource/The_Dead_Weather', 'http://dbpedia.org/resource/The_Desert_Sessions', 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/The_Waxwings', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Troy_Van_Leeuwen', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Vista_Chino', 'http://dbpedia.org/resource/Wasted_Youth_(American_band)', 'http://dbpedia.org/resource/We_Fell_to_Earth', 'http://dbpedia.org/resource/Wellwater_Conspiracy', 'http://dbpedia.org/resource/Wendy_Rae_Fowler', 'http://dbpedia.org/resource/Wires_on_Fire', 'http://dbpedia.org/resource/Zilch_(band)'], 'abstract': "Lullabies to Paralyze is the fourth studio album by American rock band Queens of the Stone Age, released on March 21, 2005. The album debuted at #5 on the Billboard 200, and sold 97,000 copies in America during its first week of release, eventually topping over 342,000 copies as of March, 2007 according to Nielsen Soundscan. The album has been certified gold in the UK, where it has sold over 100,000 units. It is also the band's first album to be released after bassist Nick Oliveri was fired from the band. Singer/guitarist Josh Homme and singer Mark Lanegan are the only members from the previous album, Songs for the Deaf, to play on this album and it is the first album to feature drummer Joey Castillo and guitarist Troy Van Leeuwen."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Life_for_Rent', 'album_name': 'Life for Rent', 'artist': 'http://dbpedia.org/resource/Dido_(singer)', 'artist_name': 'Dido', 'wiki': 'http://en.wikipedia.org/wiki/Life_for_Rent', 'released': '29 September 2003', 'producers': ['http://dbpedia.org/resource/Dido_(singer)', 'http://dbpedia.org/resource/Mike_Hedges', 'http://dbpedia.org/resource/Rollo_Armstrong'], 'writers': ['http://dbpedia.org/resource/Aubrey_Nunn', 'http://dbpedia.org/resource/Lester_Mendez', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Rollo_Armstrong', 'Mark Bates', 'R. Armstrong', 'D. Armstrong', 'Nowels', 'John "Pnut" Harrison', 'Dido Armstrong'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Folk-pop'], 'related_artists': ['http://dbpedia.org/resource/Citizen_Cope', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Dusted_(British_band)', 'http://dbpedia.org/resource/Eminem', 'http://dbpedia.org/resource/Faithless', 'http://dbpedia.org/resource/KK_(composer,_producer)', 'http://dbpedia.org/resource/Kendrick_Lamar', 'http://dbpedia.org/resource/Pascal_Gabriel', 'http://dbpedia.org/resource/Rollo_Armstrong', 'http://dbpedia.org/resource/Sister_Bliss', 'http://dbpedia.org/resource/Skinny_(band)'], 'abstract': 'Life for Rent is the second studio album by English singer Dido, released by Arista Records on 29 September 2003. The album was produced by Rollo Armstrong and American songwriter Rick Nowels. Work on the album began in mid-2002. It was certified 9× Platinum by the BPI, and sold over 12 million copies worldwide, making it the fourth best-selling album worldwide of 2003. The album became the seventh best-selling album of the 2000s in the UK, making Dido the only singer to have two albums in the Top 10 list. As of 2015 Life for Rent is the 34th best-selling album in UK chart history. In 2019 it was listed the 15th best-selling album of the 21st century in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Kylie_(album)', 'album_name': 'Kylie', 'artist': 'http://dbpedia.org/resource/Kylie_Minogue', 'artist_name': 'Kylie Minogue', 'wiki': 'http://en.wikipedia.org/wiki/Kylie_(album)', 'released': '04 July 1988', 'producers': ['http://dbpedia.org/resource/Stock_Aitken_Waterman'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Bubblegum_music', 'http://dbpedia.org/resource/Dance-pop'], 'related_artists': ['http://dbpedia.org/resource/Amy_Wadge', 'http://dbpedia.org/resource/Autumn_Rowe', 'http://dbpedia.org/resource/Ayak_Thiik', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Christophe_Willem', 'http://dbpedia.org/resource/Cliff_Masterson', 'http://dbpedia.org/resource/DNA_(duo)', "http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Emilíana_Torrini', 'http://dbpedia.org/resource/Flawless_(dance_troupe)', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Gary_Nuttall', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/Graham_Stack_(record_producer)', "http://dbpedia.org/resource/Jamie_O'Neal", 'http://dbpedia.org/resource/Jonas_Quant', 'http://dbpedia.org/resource/Joshua_%22J.D.%22_Walker', 'http://dbpedia.org/resource/Keith_Washington', 'http://dbpedia.org/resource/Kim_Sozzi', 'http://dbpedia.org/resource/Leon_Jackson', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marco_Sabiu', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Mim_Grey', 'http://dbpedia.org/resource/Miranda_Cooper', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nervo_(DJs)', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Pascal_Gabriel', 'http://dbpedia.org/resource/Pauline_Bennett', 'http://dbpedia.org/resource/Phil_Spalding', 'http://dbpedia.org/resource/Rob_Davis_(musician)', 'http://dbpedia.org/resource/Samuel_Dixon', 'http://dbpedia.org/resource/Scissor_Sisters', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Taio_Cruz', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Zoo_Brazil'], 'abstract': 'Kylie is the debut studio album by Australian recording artist Kylie Minogue, released on 4 July 1988 by Mushroom Records. Minogue had established herself as a child actress before signing to the record label in early 1987. The success of her debut single, "Locomotion", resulted in her working with Stock, Aitken and Waterman, who produced the album and wrote nine of its ten tracks. Their recording sessions, which started in September 1987 and took place in London and Melbourne, coincided with Minogue filming for the soap opera Neighbours. Musically, Kylie is a bubblegum pop and dance-pop album. It received mixed reviews from music critics who criticized its dated production. It was a commercial success, peaking at number one in the United Kingdom for six weeks and becoming the fifth highest-selling album of the decade. It peaked at number two in her native Australia, while reaching the top ten in Germany, Norway, and Switzerland. Kylie was re-issued in 1988 as The Kylie Collection, and in 2015 when it returned to the UK Albums Chart. The album has sold over five million copies worldwide. Six singles were released Kylie. "I Should Be So Lucky" reached number one in Australia and the United Kingdom, the first for any artist. The subsequent singles—"Got to Be Certain", the re-recorded "The Loco-Motion", and "Je ne sais pas pourquoi" all peaked in the top two on the UK Singles Chart. "It\'s No Secret" was her third top-forty single on the Billboard Hot 100, while "Turn It into Love" was released exclusively in Japan. The album\'s commercial success helped Minogue establish herself as an international teen idol and launch her recording career.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Good_Girl_Gone_Bad:_Reloaded', 'album_name': 'Good Girl Gone Bad: Reloaded', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Good_Girl_Gone_Bad:_Reloaded', 'released': '02 June 2008', 'producers': ['http://dbpedia.org/resource/Brian_Kennedy_(record_producer)', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Justin_Timberlake', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Makeba_Riddick', 'http://dbpedia.org/resource/Mark_Endert', 'http://dbpedia.org/resource/Maroon_5', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Ne-Yo', 'http://dbpedia.org/resource/Neo_da_Matrix', 'http://dbpedia.org/resource/Shea_Taylor', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/The-Dream', 'http://dbpedia.org/resource/Timbaland', 'http://dbpedia.org/resource/Tricky_Stewart', 'Hannon Lane'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'dance-pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Adam_Blackstone', 'http://dbpedia.org/resource/Adam_Ross_(musician)', 'http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Allen_Ritter', 'http://dbpedia.org/resource/Bibi_Bourelly', 'http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Carl_Restivo', 'http://dbpedia.org/resource/Carl_Sturken_and_Evan_Rogers', 'http://dbpedia.org/resource/Charlie_Vox', 'http://dbpedia.org/resource/Chase_&amp;_Status', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Chuck_Harmony', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Congorock', 'http://dbpedia.org/resource/Cover_Drive', 'http://dbpedia.org/resource/Craig_Bauer', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dwane_Husbands', 'http://dbpedia.org/resource/Eskeerdo', 'http://dbpedia.org/resource/Ester_Dean', 'http://dbpedia.org/resource/Fred_Ball_(producer)', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hal_Linton', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/John_Hill_(record_producer)__John_Hill__1', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/KeyLiza', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Mikky_Ekko', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Paul_Oakenfold', 'http://dbpedia.org/resource/Rob._A!', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Salva_(music_producer)', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Sistanova', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/Stevie_Blacke'], 'abstract': 'Good Girl Gone Bad: Reloaded is the reissue of Barbadian singer Rihanna\'s third studio album Good Girl Gone Bad (2007). It was first released digitally in selected countries on June 2, 2008, by Def Jam Recordings and SRP Records. Launched to mark the first anniversary of the original album, Good Girl Gone Bad: Reloaded features three newly recorded songs and a DVD showing exclusive behind-the-scenes footage of Rihanna\'s worldwide tour, the Good Girl Gone Bad Tour (2007–2009). For the new material, she worked with past collaborators Ne-Yo, Stargate, and C. "Tricky" Stewart, as well as Brian Kennedy, Mark Endert, Mike Elizondo, Mark "Spike" Stent and Maroon 5. Good Girl Gone Bad: Reloaded received generally positive reviews from music critics, who praised the sound and production of the newly added material. However, other critics felt that the album was not worthy of re-release with only three new songs. Among other awards and achievements, the reissue\'s songs earned two Grammy nominations at the 2009 ceremony; "Disturbia" was nominated for Best Dance Recording, while "If I Never See Your Face Again" received a nomination for Best Pop Collaboration with Vocals. Following its release, the reissue helped Good Girl Gone Bad re-enter several national charts. Good Girl Gone Bad: Reloaded sold 63,000 copies in its first week and helped the original album peak at number seven on the US Billboard 200 chart. The reissue charted in New Zealand and peaked at number four; it was certified platinum by the Recording Industry Association of New Zealand (RIANZ), denoting shipments of over 15,000 copies. Good Girl Gone Bad: Reloaded was promoted with four singles, including the US number-one hits "Take a Bow" and "Disturbia", and "If I Never See Your Face Again", which featured Maroon 5. To further promote the album, Rihanna performed songs from the reissue on several television programs and award ceremonies including FNMTV and the 2008 MTV Video Music Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Awake_and_Remixed_EP', 'album_name': 'Awake and Remixed - EP', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Awake_and_Remixed_EP', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'released': '22 March 2011', 'writers': ['Cooper, Gavin Brown', 'Cooper, Howes', 'Cooper, Korey Cooper', 'John Cooper, Brian Howes'], 'genres': ['http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Electronica'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Awake and Remixed EP is the EP album from the Christian rock band Skillet. All songs are remixed versions from their previous album, Awake. It was released on March 22, 2011 and debuted at No. 98 on the Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/1989_(Taylor_Swift_album)', 'album_name': '1989 (album)', 'artist': 'http://dbpedia.org/resource/Taylor_Swift', 'artist_name': 'Taylor Swift', 'wiki': 'http://en.wikipedia.org/wiki/1989_(Taylor_Swift_album)', 'released': '27 October 2014', 'producers': ['Max Martin', 'Taylor Swift', 'Shellback', 'Jack Antonoff', 'Ryan Tedder', 'Noel Zancanella', 'Ali Payami', 'Nathan Chapman', 'Imogen Heap', 'Mattman &amp; Robin'], 'writers': ['http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Imogen_Heap', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Max_Martin', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Taylor_Swift', 'Martin', 'Swift', 'Antonoff', 'Tedder'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Dessner', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Big_Red_Machine_(band)', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Cautious_Clay', 'http://dbpedia.org/resource/Chad_Lefkowitz-Brown', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Eric_Darken', 'http://dbpedia.org/resource/Gary_Lightbody', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jennifer_Nettles', 'http://dbpedia.org/resource/Jimmy_Napes', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Jonathan_Yudkin', 'http://dbpedia.org/resource/Justin_Vernon', 'http://dbpedia.org/resource/Kristian_Bush', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Mattias_Bylund', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nick_Buda', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Phoebe_Bridgers__Phoebe_Bridgers__1', "http://dbpedia.org/resource/Please_Don't_Destroy", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Robert_Ellis_Orrall', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Shea_Fisher', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Sugarland', 'http://dbpedia.org/resource/The_National_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': '1989 is the fifth studio album by American singer-songwriter Taylor Swift. It was released on October 27, 2014, by Big Machine Records. Following the release of her genre-spanning fourth studio album Red (2012), noted for its pop hooks and electronic accents, the media questioned the validity of Swift\'s status as a country artist. Inspired by 1980s synth-pop to create a record that shifted her sound and image from country to mainstream pop, Swift enlisted Max Martin as co-executive producer, and titled her fifth album after her birth year as a symbolic rebirth of her artistry. The album\'s synth-pop sound is characterized by heavy synthesizers, programmed drums, and processed backing vocals. Swift wrote the songs inspired by her personal relationships, which had been a trademark of her songwriting. The songs on 1989 express lighthearted perspectives, departing from her previous hostile attitude towards failed romance. Swift and Big Machine promoted the album extensively through product endorsements, television, radio appearances and social media. They pulled 1989 from free streaming services such as Spotify, prompting an industry discourse on the impact of streaming on music sales. After the album\'s release, Swift embarked on the 1989 World Tour, which was the highest-grossing tour of 2015. The album was supported by seven singles, including three US Billboard Hot 100 number ones: "Shake It Off", "Blank Space", and "Bad Blood". Critics praised Swift\'s songwriting in 1989 for offering emotional engagement that they found uncommon in the mainstream pop scene. Meanwhile, the synth-pop production raised questions regarding Swift\'s authenticity as a lyricist. The album appeared on several publications\' lists of the best albums of the 2010s and featured in Rolling Stone\'s 2020 revision of their 500 Greatest Albums of All Time. At the 58th Grammy Awards in 2016, 1989 won Album of the Year and Best Pop Vocal Album, making Swift the first female solo artist to win Album of the Year twice. 1989 was a commercial success. In the US, Swift became the first artist to have three albums each sell over one million copies within their first week of release. The album spent 11 weeks atop the Billboard 200 and received a ninefold platinum certification from the Recording Industry Association of America (RIAA). It also earned multi-platinum certifications in Australia, Canada, and the UK, and has sold over 10 million pure copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Highly_Evolved', 'album_name': 'Highly Evolved', 'artist': 'http://dbpedia.org/resource/The_Vines_(band)', 'artist_name': 'The Vines', 'wiki': 'http://en.wikipedia.org/wiki/Highly_Evolved', 'hometown': 'http://dbpedia.org/resource/Sydney', 'released': '14 July 2002', 'producers': ['http://dbpedia.org/resource/Rob_Schnapf'], 'writers': ['Dave Olliffe', 'Nicholls'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Garage_punk_(fusion_genre)', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/Andy_Kent', 'http://dbpedia.org/resource/Brad_Heald', 'http://dbpedia.org/resource/Craig_Nicholls', 'http://dbpedia.org/resource/David_Olliffe', 'http://dbpedia.org/resource/Dune_Rats', 'http://dbpedia.org/resource/Hamish_Rosser', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Red_Riders', 'http://dbpedia.org/resource/Ryan_Griffiths_(guitarist)', 'http://dbpedia.org/resource/The_Red_Sun_Band', 'http://dbpedia.org/resource/Wolfmother'], 'abstract': 'Highly Evolved is the debut studio album by Australian alternative rock band The Vines. It was released on 14 July 2002 on Capitol Records. Produced by Rob Schnapf, known for his collaboration with Tom Rothrock on Elliott Smith\'s albums Either/Or, XO, and Figure 8, Highly Evolved was an immensely popular debut, part of a trend towards garage rock revival bands known as much for the relentless hype from the UK music press as for their music; The Vines were frequently compared to Nirvana. The debut single, "Highly Evolved", was chosen as Single of the Week by influential British music magazine NME. The magazine also voted it the 2nd best album of the year in 2002. The album was also included in the book 1001 Albums You Must Hear Before You Die. In October 2010, it was listed in the book 100 Best Australian Albums.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Girls,_Girls,_Girls_(Mötley_Crüe_album)', 'album_name': 'Girls, Girls, Girls', 'artist': 'http://dbpedia.org/resource/Mötley_Crüe', 'artist_name': 'Mötley Crüe', 'wiki': 'http://en.wikipedia.org/wiki/Girls,_Girls,_Girls_(Mötley_Crüe_album)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '15 May 1987', 'producers': ['http://dbpedia.org/resource/Tom_Werman'], 'genres': ['Glam metal', 'arena rock', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/58_(band)', 'http://dbpedia.org/resource/Angora_(band)', 'http://dbpedia.org/resource/Brides_of_Destruction', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Dave_Amato', 'http://dbpedia.org/resource/Eric_Singer_Project', 'http://dbpedia.org/resource/Hanoi_Rocks', 'http://dbpedia.org/resource/John_Corabi', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/L.A._Guns', 'http://dbpedia.org/resource/London_(heavy_metal_band)', 'http://dbpedia.org/resource/Methods_of_Mayhem', 'http://dbpedia.org/resource/Mick_Mars', 'http://dbpedia.org/resource/Mike_Clink', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Nikki_Sixx', 'http://dbpedia.org/resource/Randy_Castillo', 'http://dbpedia.org/resource/Rock_Star_Supernova', 'http://dbpedia.org/resource/Samantha_Maloney', 'http://dbpedia.org/resource/Sister_(band)', 'http://dbpedia.org/resource/Sixx:A.M.', 'http://dbpedia.org/resource/Stas_Namin', 'http://dbpedia.org/resource/Stephen_Shareaux', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_Jada_Kings', 'http://dbpedia.org/resource/The_Scream_(band)', 'http://dbpedia.org/resource/Union_(band)__Union__1', 'http://dbpedia.org/resource/Vicky_Hamilton', 'http://dbpedia.org/resource/Vince_Neil', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Girls, Girls, Girls is the fourth studio album by American heavy metal band Mötley Crüe, released on May 15, 1987. The album contains the hit singles "Girls, Girls, Girls", "You\'re All I Need", and the MTV favorite "Wild Side". It was the band\'s final collaboration with producer Tom Werman, who had produced the band\'s two previous albums, Shout at the Devil and Theatre of Pain. Like those albums, Girls, Girls, Girls would achieve quadruple platinum status, selling over 4 million copies and reaching number two on the Billboard 200. The album marked a change to a blues-rock influenced sound, which was met with positive reception.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/PopArt:_The_Hits', 'album_name': 'PopArt: The Hits', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/PopArt:_The_Hits', 'hometown': 'http://dbpedia.org/resource/London', 'released': '24 November 2003', 'producers': ['Pet Shop Boys'], 'related_artists': ['http://dbpedia.org/resource/Adam_F', 'http://dbpedia.org/resource/Andy_Richards', 'http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Arthur_Baker_(musician)', 'http://dbpedia.org/resource/Blue_Weaver', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/Bobby_Orlando', 'http://dbpedia.org/resource/Chris_Lowe', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Cicero', 'http://dbpedia.org/resource/Dusty_Springfield', 'http://dbpedia.org/resource/Electronic_(band)', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Ennio_Morricone', 'http://dbpedia.org/resource/Example_(musician)', 'http://dbpedia.org/resource/Haydn_Bendall', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Morten_Harket', 'http://dbpedia.org/resource/Neil_Tennant', 'http://dbpedia.org/resource/Pete_Burns', 'http://dbpedia.org/resource/Philip_Oakey', 'http://dbpedia.org/resource/Prayers_(duo)', 'http://dbpedia.org/resource/Robbie_Williams', 'http://dbpedia.org/resource/Sam_Taylor-Johnson', 'http://dbpedia.org/resource/Simon_Hill_(musician)', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Stuart_Price', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Sylvia_Mason-James', 'http://dbpedia.org/resource/Take_That', 'http://dbpedia.org/resource/The_Imogen_Styles', 'http://dbpedia.org/resource/The_Killers', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Virgil_Howe', 'http://dbpedia.org/resource/Years_&amp;_Years', 'http://dbpedia.org/resource/Yoad_Nevo'], 'abstract': 'PopArt: The Hits is a greatest hits album by English synth-pop duo Pet Shop Boys. It was released on 24 November 2003 by Parlophone. The album consists of Pet Shop Boys\' top 20 UK singles along with two new tracks, "Miracles" and "Flamboyant", which were also released as singles.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Cornerstone_(Styx_album)', 'album_name': 'Cornerstone (Styx)', 'artist': 'http://dbpedia.org/resource/Styx_(band)', 'artist_name': 'Styx', 'wiki': 'http://en.wikipedia.org/wiki/Cornerstone_(Styx_album)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '19 October 1979', 'producers': ['http://dbpedia.org/resource/Styx_(band)'], 'writers': ['DeYoung', 'DeYoung, Shaw', 'Shaw', 'Shaw, DeYoung', 'Young'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/7th_Heaven_(band)', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Chuck_Panozzo', 'http://dbpedia.org/resource/Damn_Yankees_(band)', 'http://dbpedia.org/resource/Dennis_DeYoung', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Glen_Burtnik', 'http://dbpedia.org/resource/James_Young_(American_musician)', 'http://dbpedia.org/resource/John_Curulewski', 'http://dbpedia.org/resource/John_Panozzo', 'http://dbpedia.org/resource/Lawrence_Gowan', 'http://dbpedia.org/resource/REO_Speedwagon', 'http://dbpedia.org/resource/Ricky_Phillips', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Shaw_Blades', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Babys', 'http://dbpedia.org/resource/The_Orchestra_(band)', 'http://dbpedia.org/resource/Todd_Sucherman', 'http://dbpedia.org/resource/Tommy_Shaw', 'http://dbpedia.org/resource/Zon_(band)'], 'abstract': 'Cornerstone is the ninth studio album by the American rock band Styx, released in 1979. Styx\'s third straight multi-platinum selling album, Cornerstone was Styx\'s first album to earn a Grammy nomination, which was for Best Rock Performance by a Duo or Group. Like the four previous Styx albums, the band produced the album themselves. Styx recorded the album at Pumpkin Studios in Oak Lawn, Illinois. Cornerstone is best known for including the group\'s only #1 Billboard Hot 100 Single, the power ballad "Babe". The album also includes the folk rock song "Boat on the River", which was a hit in Europe, though it failed to chart in the United States. Cornerstone became Styx\'s first US Top 5 album, peaking at #2 on the Billboard album chart.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Save_Me,_San_Francisco', 'album_name': 'Save Me, San Francisco', 'artist': 'http://dbpedia.org/resource/Train_(band)', 'artist_name': 'Train', 'wiki': 'http://en.wikipedia.org/wiki/Save_Me,_San_Francisco', 'hometown': 'http://dbpedia.org/resource/United_States', 'released': '26 October 2009', 'producers': ['http://dbpedia.org/resource/Bill_Szymczyk', 'http://dbpedia.org/resource/Espionage_(production_team)', 'http://dbpedia.org/resource/Gregg_Wattenberg', 'http://dbpedia.org/resource/Martin_Terefe', 'http://dbpedia.org/resource/S*A*M_and_Sluggo'], 'writers': ['http://dbpedia.org/resource/Dave_Katz_(songwriter)', 'http://dbpedia.org/resource/Jay-Z', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Pat_Monahan', 'http://dbpedia.org/resource/Sam_Hollander', 'http://dbpedia.org/resource/The-Dream', 'http://dbpedia.org/resource/Tricky_Stewart', 'Monahan, Espen Lind, Amund Bjørklund', 'Monahan, Butch Walker', 'Monahan, Ryan Tedder', 'Monahan, Sacha Skarbek', 'Monahan', 'Monahan, Lind, Bjørklund', 'Monahan, Underwood, Stafford, Charlie Colin, Rob Hotchkiss', 'Monahan, Jerry Becker, Luis Maldonado', 'Monahan, Underwood', 'Monahan, Kevin Griffin, Patrick Simmons', 'Monahan, Wattenberg', 'Monahan, Bjørklund, Lind, Geir Hvidsten', 'Monahan, Wattenberg, Jimmy Stafford, Scott Underwood'], 'awards': ['Platinum'], 'genres': ['Rock', 'pop rock', 'roots rock'], 'related_artists': ['http://dbpedia.org/resource/Brand_New_Immortals', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Charlie_Colin', 'http://dbpedia.org/resource/Charlie_Gillingham', 'http://dbpedia.org/resource/Days_of_the_New', 'http://dbpedia.org/resource/Foreigner_(band)', 'http://dbpedia.org/resource/Johnny_Colt', 'http://dbpedia.org/resource/Kevin_Sucher', 'http://dbpedia.org/resource/Mark_Evitts', 'http://dbpedia.org/resource/Pat_Monahan', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/The_Family_Crest', 'http://dbpedia.org/resource/The_Side_Deal', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Wayland_(band)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'abstract': 'Save Me, San Francisco is California rock band Train\'s fifth studio album and the first of two albums recorded as a three-piece. It was released on October 26, 2009, through Columbia Records. The album was certified Platinum by the Recording Industry Association of America on April 7, 2021. The album\'s first single, "Hey, Soul Sister", which marked a return to the group\'s folk-rock roots, was released to digital retailers on August 11, 2009. The single has since become Train\'s fourth career Top 40 hit on the Billboard Hot 100 and second career top 10 hit, reaching number three 26 weeks after it was released. It is also the band\'s highest-peaking single to date in their native United States, as well as Canada, Australia, the Netherlands and New Zealand. The follow-up single, "If It\'s Love", became Train\'s fourth-career chart-topping single on the Adult Top 40 and peaking at #34 on the Billboard Hot 100. "Marry Me" was released on October 25 as the third single from the record — it debuted on the Billboard Hot 100 at #95 and has reached #34. "Save Me, San Francisco" was released on April 25, 2011 as the fifth single from the record, and peaked at #75 on the Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Scream_(Michael_Jackson_album)', 'album_name': 'Scream (마이클 잭슨의 음반)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Scream_(Michael_Jackson_album)', 'released': '29 September 2017', 'producers': ['http://dbpedia.org/resource/Jackie_Jackson', 'http://dbpedia.org/resource/Janet_Jackson', 'http://dbpedia.org/resource/Jimmy_Jam_and_Terry_Lewis', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Quincy_Jones', 'http://dbpedia.org/resource/Rockwell_(musician)', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_Jackson_5', 'Curtis Anthony Nolen'], 'writers': ['http://dbpedia.org/resource/Jackie_Jackson', 'http://dbpedia.org/resource/Kathleen_Wakefield', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Rod_Temperton', '1.0', 'Kennedy Gordy'], 'related_artists': ['http://dbpedia.org/resource/3T', 'http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Anthony_Marinelli', 'http://dbpedia.org/resource/Bozzio_Levin_Stevens', 'http://dbpedia.org/resource/Brad_Buxer', 'http://dbpedia.org/resource/Brownstone_(group)', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Bruce_Swedien', 'http://dbpedia.org/resource/Bryan_Loren', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Chris_Mosdell', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/Dan_Warner_(musician)', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/David_Williams_(guitarist)', 'http://dbpedia.org/resource/Deadland_Ritual', 'http://dbpedia.org/resource/Dorian_Holley', 'http://dbpedia.org/resource/Eritza_Laues', 'http://dbpedia.org/resource/Fatman_Scoop', 'http://dbpedia.org/resource/Fire_Island_(duo)', 'http://dbpedia.org/resource/Freddie_Washington_(bassist)', 'http://dbpedia.org/resource/Gary_Grant_(musician)', 'http://dbpedia.org/resource/Geary_Lanier_Faggett', 'http://dbpedia.org/resource/Greg_Howe', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Holland–Dozier–Holland', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jason_Bonham', 'http://dbpedia.org/resource/Jean_Johnson_(singer)', 'http://dbpedia.org/resource/Jeff_Porcaro', 'http://dbpedia.org/resource/Jennifer_Batten', 'http://dbpedia.org/resource/Jerry_Hey', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/John_Bettis', 'http://dbpedia.org/resource/John_Robinson_(drummer)', 'http://dbpedia.org/resource/Judith_Hill', 'http://dbpedia.org/resource/KC_Porter', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Love_to_Infinity', 'http://dbpedia.org/resource/Maurice_Joshua', 'http://dbpedia.org/resource/Men_of_Vizion', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/Nicci_Gilbert', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Nocera_(singer)', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Omer_Bhatti', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Pattie_Howard', 'http://dbpedia.org/resource/Paul_Jackson_Jr.', 'http://dbpedia.org/resource/Peter_Mokran', 'http://dbpedia.org/resource/René_Moore', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Rod_Temperton', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Siedah_Garrett', 'http://dbpedia.org/resource/Simon_Franglen', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/Susaye_Greene', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_McCrarys', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Tommy_Organ', 'http://dbpedia.org/resource/Toto_(band)', 'http://dbpedia.org/resource/Wah_Wah_Watson', 'http://dbpedia.org/resource/Wessel_Oltheten'], 'abstract': "Scream is a compilation album by American singer-songwriter Michael Jackson, released on September 29, 2017. The album compiles songs around a Halloween theme. It is the eleventh release by Sony and/or Motown since Jackson's death on June 25, 2009."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Under_the_Iron_Sea', 'album_name': 'Under the Iron Sea', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Under_the_Iron_Sea', 'released': '12 June 2006', 'producers': ['*Andy Green', '*Keane'], 'awards': ['Gold', 'Platinum'], 'related_artists': ['http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Dominic_Scott', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Jesse_Quin_&amp;_The_Mets', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin', 'http://dbpedia.org/resource/Zulu_Winter'], 'abstract': 'Under the Iron Sea is the second studio album by the English rock band Keane, released on 12 June 2006. During its first week on sale in the UK, the album opened at number one, selling 222,297 copies according to figures from the Official Chart Company. In the United States, the album debuted at number four on the Billboard 200, selling 75,000 copies in its first week there. Since its release, the album has sold over three million copies worldwide. The band describes Under the Iron Sea as a progression from Hopes and Fears with electronic influences, and as a "sinister fairytale-world-gone-wrong".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Very_Best_of_1990–1997', 'album_name': 'The Very Best of 1990–1997', 'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/The_Very_Best_of_1990–1997', 'hometown': 'http://dbpedia.org/resource/Sweden', 'released': '30 June 1997', 'related_artists': ['http://dbpedia.org/resource/Charly_Boy', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/Dekumzy', 'http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Haddaway', 'http://dbpedia.org/resource/Jose_Chameleone', 'http://dbpedia.org/resource/Kikki_Danielsson', 'http://dbpedia.org/resource/Leila_K', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Sash!', 'http://dbpedia.org/resource/Swingfly'], 'abstract': 'The Very Best Of 1990–1997 is a compilation album by Sweden-based Nigerian artist Dr. Alban released on 30 June 1997'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Doo-Wops_&amp;_Hooligans', 'album_name': 'Doo-Wops &amp; Hooligans', 'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/Doo-Wops_&amp;_Hooligans', 'released': '04 October 2010', 'producers': ['The Smeezingtons', 'Needlz', 'Supa Dups'], 'writers': ['http://dbpedia.org/resource/Andrew_Wyatt', 'http://dbpedia.org/resource/B.o.B', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/Claude_Kelly', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/John_Wicks_(drummer)', "http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Kaveh_Rastegar', 'http://dbpedia.org/resource/Mike_Caren', 'http://dbpedia.org/resource/Needlz', 'http://dbpedia.org/resource/Patrick_Stump', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/Supa_Dups', 'Albert Winkler', 'Chin-quee', 'Mars, Lawrence, Levine, Brown, Caren, Stump, Rastegar, Wicks, Ruzumna, Lopez, Simmons, Jr.', 'Mars, Lawrence, Levine', 'Chin', 'Damian Marley', 'Ari Levine', 'Mars, Lawrence, Levine, Brown, Kelly, Wyatt', 'Joshua Lopez', 'Jeremy Ruzumna', 'Mars, Lawrence, Levine, Winkler, Bhasker', 'Mars, Lawrence, Levine, Walton, Cain', 'Mars', 'Mitchum Chin', 'Brown', 'Levine', 'Lawrence'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['Pop', 'reggae pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Alex_Hepburn', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/CLMD', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Graham_Marsh_(producer)', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Jamareo_Artis', 'http://dbpedia.org/resource/Laze_&amp;_Royal', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/The_Green_(band)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Doo-Wops &amp; Hooligans is the debut studio album by American singer-songwriter Bruno Mars. It was released on October 4, 2010, by Atlantic and Elektra Records. After the release of the EP It\'s Better If You Don\'t Understand (2010), Mars\'s writing and production team, the Smeezingtons, began working on the album with Needlz, Supa Dups and Jeff Bhasker as producers. Doo-Wops &amp; Hooligans draws on a variety of influences. Lyrically, the album visualizes carefree optimism along with failed relationships, pain and loneliness. It was promoted primarily through the Doo-Wops &amp; Hooligans Tour (2010–2012) and a co-headline tour with Janelle Monáe, called Hooligans in Wondaland Tour (2011), along with a number of television appearances. The album title was chosen to reflect simplicity and appeal to males and females. On September 24, 2010, the album was made available before its official release. Nevertheless, it became a commercial success, topping the charts in Canada, Germany, Ireland, the Netherlands, Switzerland and the United Kingdom. It peaked at number three on the Billboard 200 albums chart in the United States and was 2011\'s second-bestselling album in New Zealand, the third-bestselling record in the United Kingdom and Australia (with UK sales of 1.2 million copies), and the fourth-bestselling album in Germany and Switzerland. The album has sold over 2.62 million copies in the United States as of 2017 and by 2020 had already sold 15.51 million copies worldwide. The first two singles from Doo-Wops &amp; Hooligans—"Just the Way You Are" and "Grenade"—were successful internationally, topping the charts in the United States, Australia, Canada, New Zealand and the United Kingdom. Subsequent singles "The Lazy Song" and "Marry You" were commercial successes as well, reaching the top 10 in over 10 countries; "The Lazy Song" topped the charts in the United Kingdom and Denmark. "Talking to the Moon" and "Count On Me" had a limited release, and "Liquor Store Blues" (featuring Damian Marley) and "Somewhere in Brooklyn" were promotional singles. The album received generally favorable reviews from music critics, who praised the album\'s similarity to the work of American artists Michael Jackson and Jason Mraz, although others felt that the album tried too hard to appeal to all groups. Doo-Wops &amp; Hooligans received five nominations for the 54th Grammy Awards, including Album of the Year, Best Pop Vocal Album and Record of the Year and Song of the Year for the single "Grenade". The album was also nominated for Best Album/Pop Rock International at the 2012 Swiss Music Awards. In 2010, About.com\'s Bill Lamb and Rolling Stone\'s Jody Rosen called Doo-Wops &amp; Hooligans one of the year\'s best debut albums.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Young_and_the_Hopeless', 'album_name': 'The Young and the Hopeless', 'artist': 'http://dbpedia.org/resource/Good_Charlotte', 'artist_name': 'Good Charlotte', 'wiki': 'http://en.wikipedia.org/wiki/The_Young_and_the_Hopeless', 'hometown': 'http://dbpedia.org/resource/Waldorf,_Maryland', 'released': '01 October 2002', 'producers': ['http://dbpedia.org/resource/Eric_Valentine'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop-punk'], 'related_artists': ['http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Lola_Ray__Lola_Ray__1', 'http://dbpedia.org/resource/Mest', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'http://dbpedia.org/resource/Rockie_Fresh', 'http://dbpedia.org/resource/The_Madden_Brothers', 'http://dbpedia.org/resource/This_Century', 'http://dbpedia.org/resource/Wakefield_(band)'], 'abstract': 'The Young and the Hopeless is the second studio album by American rock band Good Charlotte. Following the release of their self-titled debut album (2000), the band met producer Eric Valentine and engaged him for their next album. Sessions lasted from February to May 2002; Josh Freese of the Vandals served as a session drummer. Almost all of the songs on the album were written by Benji and Joel Madden but two tracks were co-written with Valentine and Goldfinger frontman John Feldmann. Drummer Chris Wilson joined the band, prior to the release of "Lifestyles of the Rich &amp; Famous" in September. On October 1, 2002, The Young and the Hopeless was released by Epic and Daylight Records. It was promoted with a support slot for No Doubt before the group embarked on their own headlining US tour, with subsequent shows of Japan, Europe, Australia and New Zealand in the following months. "The Anthem" was released as a single in February 2003 prior to the band co-headlining the Honda Civic Tour with New Found Glory between April and June. "Girls &amp; Boys" was released as a single in July. From September to November, the band embarked on a headlining US arena tour, during which they made music videos for "Hold On" and "The Young &amp; the Hopeless", the former was first released to alternative rock radio, and later as a joint single, with "The Young &amp; the Hopeless", in January 2004. The Young and the Hopeless received generally mixed reviews from music critics, who made comments about the songs\' clichéd lyrics. The album was a major commercial success, being certified three times platinum by the Recording Industry Association of America (RIAA). Three of the album\'s singles—"Lifestyles of the Rich &amp; Famous", "The Anthem", and "Girls &amp; Boys"—crossed over from modern rock radio to pop radio. Outside the US, the album charted within the top 20 in New Zealand, Sweden, Australia, the UK, and Austria, and reached lower positions in Japan, Germany, Switzerland, France, and the Netherlands. It was certified platinum by the Australian Recording Industry Association (ARIA) and by the British Phonographic Industry (BPI), as well as two times platinum by Music Canada (MC). The album and "Lifestyles of the Rich &amp; Famous" were nominated for several awards, with the latter winning the Kerrang! Award for Best Single. The album appeared on best-of lists by Rock Sound and Rolling Stone, and earned the Classic Album Award at the Alternative Press Music Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/12_Inches_of_Snow', 'album_name': '12 Inches of Snow', 'artist': 'http://dbpedia.org/resource/Snow_(musician)', 'artist_name': 'Snow', 'wiki': 'http://en.wikipedia.org/wiki/12_Inches_of_Snow', 'released': '19 January 1993', 'producers': ['http://dbpedia.org/resource/MC_Shan', 'Edmond Leary', 'John Ficarrotta'], 'writers': ["Darrin O'Brien, Marvin Prince", "Ficarrotta, O'Brien"], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Hurby_Azor', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/MC_Shan'], 'abstract': '12 Inches of Snow is the debut album by Canadian reggae musician Snow, released in 1993. Edmond Leary and MC Shan produced the entire album, apart from one track which was produced by John Ficarrotta. The album was produced shortly before Snow was imprisoned for a year on an assault charge. Upon his release from prison, his first single "Informer" became a chart topping hit. It later went on to become one of the largest-selling reggae records of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lovehatetragedy', 'album_name': 'Lovehatetragedy', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Lovehatetragedy', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'released': '18 June 2002', 'producers': ["http://dbpedia.org/resource/Brendan_O'Brien_(record_producer)"], 'writers': ['http://dbpedia.org/resource/Black_Francis', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Mike_Patton', 'Buckner', 'Horton', 'Dave Buckner', 'Shaddix', 'Jerry Horton', 'Esperance', 'Tobin Esperance'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Lovehatetragedy is the third and second major label studio album by the American rock band Papa Roach. It was released on June 18, 2002.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Happy_Nation', 'album_name': 'Happy Nation', 'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Happy_Nation', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'released': '02 November 1992', 'producers': ['http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Jonas_Berggren', 'http://dbpedia.org/resource/Ulf_Ekberg', 'Johnny Lindén', 'T.O.E.C.'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'related_artists': ['http://dbpedia.org/resource/Clara_Mae', 'http://dbpedia.org/resource/Jenny_Berggren', 'http://dbpedia.org/resource/Jonas_Berggren', 'http://dbpedia.org/resource/Linn_Berggren', 'http://dbpedia.org/resource/Mia_Rose', 'http://dbpedia.org/resource/Ulf_Ekberg'], 'abstract': 'Happy Nation is the debut studio album by Swedish pop group Ace of Base. It was initially released in Denmark on 2 November 1992 by Mega Records. During development of the record, the group was heavily influenced by a Jamaican reggae band residing in a nearby studio. For a release in North America, Japan and some Latin American countries, the album was retitled The Sign with a heavily revised track listing and three new tracks. To coincide with this, Happy Nation was reissued with the new tracks in other territories as Happy Nation (U.S. Version). In 1995, Guinness Book of World Records named the LP the best-selling debut studio effort in music history, at more than 19 million copies sold worldwide. By 1998, Happy Nation/The Sign had sold approximately 21 million units including 9 million in the US alone. Happy Nation/The Sign is one of the best-selling albums of all time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Only_One_Flo_(Part_1)', 'album_name': 'Only One Flo (Part 1)', 'artist': 'http://dbpedia.org/resource/Flo_Rida', 'artist_name': 'Flo Rida', 'wiki': 'http://en.wikipedia.org/wiki/Only_One_Flo_(Part_1)', 'released': '30 November 2010', 'producers': ['http://dbpedia.org/resource/Axwell', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Boi-1da', 'http://dbpedia.org/resource/Carlos_McKinney', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/Dada_Life', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Ester_Dean', 'http://dbpedia.org/resource/Knobody', 'http://dbpedia.org/resource/Mike_Caren', 'Antario "Tario" Holmes', 'Slade', 'Frédéric Riesterer', 'Wayne-O', 'Infinity'], 'writers': ['Dillard,  Lukasz Gottwald, Claude Kelly, Benjamin Levin, Bruno Mars, Philip Lawrence', 'Dillard, Carlos McKinney, Tony Scales', 'Dillard, David Guetta, Frédéric Riesterer, Caren, Key, Kasia Livingston, Giorgio Tuinfort', 'Dillard, Jerome Foster, Marcus Slade, Sydne George, Wayne Thomas, Radric Davis, Chris Bridges', 'Dillard, Jordan Suecof, John "D.O.E." Maultsby, Carmen Key, Antario Dion Holmes, Rufus Lee Copper, Katari T. Cox, Yafeu A. Fula, Joseph Paquette, Tupac Shakur, Bruce Washington, Tyron J. Wrice', 'Dillard, Justin Franks, Priscilla Polete, Josh Thomas, Xplicit, Olle Cornéer, Stefan Engblom, George Kranz, Boris Blank, Dieter Meier, The Monsters &amp; The Strangerz', 'Dillard, Matthew Samuels, Julian Bunetta, Ester Dean, Tyler Williams, Jordan Lewis', 'Dillard, Mike Caren, David Siegel', 'Tramar Dillard, Axwell, Mike Caren, Kevin Rudolf, Jacob Kasher'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Hip_house'], 'related_artists': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Brianna_Perry', 'http://dbpedia.org/resource/Brisco_(rapper)', 'http://dbpedia.org/resource/Carolina_Márquez', 'http://dbpedia.org/resource/Casely', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/DJ_Laz', 'http://dbpedia.org/resource/DJ_Montay', 'http://dbpedia.org/resource/Exile_(Japanese_band)', 'http://dbpedia.org/resource/Far_East_Movement', 'http://dbpedia.org/resource/Fresh_Kid_Ice', 'http://dbpedia.org/resource/Georgi_Kay', 'http://dbpedia.org/resource/Git_Fresh', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/J_Rand', 'http://dbpedia.org/resource/JayFrance', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Jean_Marie_(DJ)', 'http://dbpedia.org/resource/Kesha', 'http://dbpedia.org/resource/Lookas', 'http://dbpedia.org/resource/Maddi_Madd', 'http://dbpedia.org/resource/Marc_Mysterio', 'http://dbpedia.org/resource/Natalie_La_Rose', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Sage_the_Gemini', 'http://dbpedia.org/resource/Sean_Kingston', 'http://dbpedia.org/resource/Sebastian_Kole', 'http://dbpedia.org/resource/Senhit_(singer)', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/T-Pain', 'http://dbpedia.org/resource/T_Lopez', 'http://dbpedia.org/resource/Tal_(singer)', 'http://dbpedia.org/resource/Thomas_Troelsen', 'http://dbpedia.org/resource/Tyler_Medeiros'], 'abstract': 'Only One Flo (Part 1) is the third studio album by American rapper Flo Rida, which was released on November 30, 2010, through Atlantic Records, and his own label Poe Boy Entertainment. The album was preceded by the singles "Club Can\'t Handle Me", and "Turn Around (5, 4, 3, 2, 1)" which were released in June and November 2010, respectively. The album received mixed reviews from critics, and peaked at number 107 on the Billboard 200, selling 11,000 copies in its first week in the US. It is currently his least successful release. It is also considerably short for a studio album, with 8 tracks which total up to less than 30 minutes.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Into_the_Great_Wide_Open', 'album_name': 'Into the Great Wide Open', 'artist': 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers', 'artist_name': 'Tom Petty and the Heartbreakers', 'wiki': 'http://en.wikipedia.org/wiki/Into_the_Great_Wide_Open', 'released': '02 July 1991', 'producers': ['http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Tom_Petty'], 'writers': ['Petty', 'Petty, Campbell, Lynne', 'Petty, Mike Campbell, Lynne'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Heartland_rock'], 'related_artists': ['http://dbpedia.org/resource/Benmont_Tench', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Curt_Bisquera', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)', 'http://dbpedia.org/resource/Denny_Cordell', 'http://dbpedia.org/resource/Howie_Epstein', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Mudcrutch', 'http://dbpedia.org/resource/Phil_Jones_(musician)', 'http://dbpedia.org/resource/Phil_Seymour', 'http://dbpedia.org/resource/Ron_Blair', 'http://dbpedia.org/resource/Scott_Thurston', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Motels', 'http://dbpedia.org/resource/The_New_Order_(band)', 'http://dbpedia.org/resource/The_Rangehoods', 'http://dbpedia.org/resource/Works_Progress_Administration_(band)'], 'abstract': 'Into the Great Wide Open is the eighth studio album by American rock band Tom Petty and the Heartbreakers, released in July 1991. The album was the band\'s last with MCA Records. The album was the second Petty produced with Jeff Lynne after the success of Full Moon Fever. The first single, "Learning to Fly", became the band\'s joint longest-running No. 1 single (along with "The Waiting" from 1981\'s Hard Promises) on Billboard\'s Mainstream Rock Tracks chart, spending six weeks at the top spot. The second single, "Out in the Cold", also made No. 1 on the Mainstream Rock chart, albeit for two weeks. The music video for the title song stars Johnny Depp as "Eddie", who moves to Los Angeles as a teenager to seek rock stardom, along with Gabrielle Anwar, Faye Dunaway, Matt LeBlanc, Terence Trent D\'Arby and Chynna Phillips.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Think_Tank_(Blur_album)', 'album_name': 'Think Tank (album)', 'artist': 'http://dbpedia.org/resource/Blur_(band)', 'artist_name': 'Blur', 'wiki': 'http://en.wikipedia.org/wiki/Think_Tank_(Blur_album)', 'released': '05 May 2003', 'producers': ['Ben Hillier', 'Norman Cook', 'William Orbit', 'Blur'], 'writers': ['Albarn, Coxon, James, Rowntree', 'Albarn, James Dring, James, Rowntree', 'Albarn, James, Rowntree, Mike Smith', 'Lyrics: Albarn, Coxon. Music: Albarn, Coxon, James, Rowntree'], 'awards': ['Gold'], 'genres': ['Art rock', 'electronic', 'world'], 'related_artists': ['http://dbpedia.org/resource/Alex_James_(musician)', 'http://dbpedia.org/resource/Bad_Lieutenant_(band)', 'http://dbpedia.org/resource/Cara_Tivey', 'http://dbpedia.org/resource/DRC_Music', 'http://dbpedia.org/resource/DRC_Music__DRC_Music__1', 'http://dbpedia.org/resource/Dave_Rowntree', 'http://dbpedia.org/resource/Demon_Strings', 'http://dbpedia.org/resource/Fat_Les', 'http://dbpedia.org/resource/George_Shilling', 'http://dbpedia.org/resource/Gorillaz', 'http://dbpedia.org/resource/Graham_Coxon', 'http://dbpedia.org/resource/Me_Me_Me_(band)', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Rocket_Juice_&amp;_the_Moon', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Simon_Tong', 'http://dbpedia.org/resource/TJ_Davis', 'http://dbpedia.org/resource/The_Ailerons', 'http://dbpedia.org/resource/The_Good,_the_Bad_&amp;_the_Queen', 'http://dbpedia.org/resource/WigWam_(duo)'], 'abstract': 'Think Tank is the seventh studio album by the English rock band Blur, released on 5 May 2003. Continuing the jam-based studio constructions of the group\'s previous album, 13 (1999), the album expanded on the use of sampled rhythm loops and brooding, heavy electronic sounds. There are also heavy influences from dance music, hip hop, dub, jazz, and African music, an indication of songwriter Damon Albarn\'s expanding musical interests. Recording sessions started in November 2001, taking place in London, Morocco and Devon, and finished a year later. The album\'s primary producer was Ben Hillier with additional production by Norman Cook (Fatboy Slim), and William Orbit. At the start of the sessions, guitarist Graham Coxon had been in rehab for alcoholism. After he re-joined, relationships between him and the other members became strained. After initial recording sessions, Coxon left, leaving little of his presence on the finished album. This is the only Blur album to not feature Coxon as a full-time member; he returned to the band for their next album The Magic Whip (2015). Think Tank is a loose concept album, which Albarn has stated is about "love and politics". Albarn, a pacifist, had spoken out against the invasion of Afghanistan and, after Western nations threatened to invade Iraq, took part in the widespread protests against the war. Anti-war themes are recurrent in the album as well as in associated artwork and promotional videos. After leaking onto the internet in March, Think Tank was released on 5 May 2003 and entered the UK Albums Chart at number one, making it Blur\'s fifth consecutive studio album to reach the top spot. The album was later certified Gold. Think Tank also reached the top 20 in many other countries, including Austria, Switzerland, Germany, Norway and Japan. It was their highest charting album in the United States, reaching number 56 on the Billboard 200. The album produced three singles, which charted at number 5, number 18 and number 22 respectively on the UK Singles Chart. After the album was released, Blur announced a world tour with Simon Tong filling in for Coxon.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Chronicles_(Steve_Winwood_album)', 'album_name': 'Chronicles (Steve Winwood)', 'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Chronicles_(Steve_Winwood_album)', 'released': '09 October 1987', 'producers': ['Steve Winwood', 'Tom Lord-Alge'], 'genres': ['Rock', 'blue-eyed soul', 'Pop'], 'related_artists': ['http://dbpedia.org/resource/Billy_Joel', 'http://dbpedia.org/resource/Blind_Faith', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Craig_Van_Tilbury', 'http://dbpedia.org/resource/Eric_Clapton', 'http://dbpedia.org/resource/George_Shilling', 'http://dbpedia.org/resource/Gigi_Gonaway', "http://dbpedia.org/resource/Ginger_Baker's_Air_Force", 'http://dbpedia.org/resource/Hollie_Farris', 'http://dbpedia.org/resource/James_Hooker_(musician)', 'http://dbpedia.org/resource/Jim_Capaldi', 'http://dbpedia.org/resource/Jimi_Hendrix', 'http://dbpedia.org/resource/José_Neto_(musician)', 'http://dbpedia.org/resource/Junior_Marvin__Junior_Marvin__1', 'http://dbpedia.org/resource/Michael_Shrieve', 'http://dbpedia.org/resource/Muff_Winwood', 'http://dbpedia.org/resource/Phil_Collins', 'http://dbpedia.org/resource/Ruby_Turner', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Spencer_Davis_Group', 'http://dbpedia.org/resource/Traffic_(band)', 'http://dbpedia.org/resource/Will_Jennings'], 'abstract': 'Chronicles is the first compilation album by Steve Winwood as a solo artist. The album contains some of his major hits up to this point and new remixes produced by Tom Lord-Alge, who had helped commercialize Winwood\'s sound on his previous album Back in the High Life. One track, "Valerie", was originally released as a single for Winwood\'s 1982 album, Talking Back to the Night. Despite the original single being a commercial flop, the remix of the song included in this album peaked at No. 9 on the US charts and No. 19 in the UK. The album peaked at No. 26 on the Billboard 200 album chart and No. 12 in the UK. It was his last release with Island Records, before his departure to Virgin Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Fush_Yu_Mang', 'album_name': 'Fush Yu Mang', 'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': 'http://en.wikipedia.org/wiki/Fush_Yu_Mang', 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'released': '08 July 1997', 'producers': ['http://dbpedia.org/resource/Eric_Valentine'], 'writers': ['http://dbpedia.org/resource/Charles_Miller_(musician)', 'http://dbpedia.org/resource/Harold_Ray_Brown', 'http://dbpedia.org/resource/Howard_E._Scott', 'http://dbpedia.org/resource/Lee_Oskar', 'http://dbpedia.org/resource/Lonnie_Jordan', 'http://dbpedia.org/resource/Mitch_Easter', 'Papa Dee Allen', 'B. B. Dickerson'], 'genres': ['http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Ska_punk'], 'related_artists': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Sean_Hurwitz', 'http://dbpedia.org/resource/Steve_Harwell', 'http://dbpedia.org/resource/Tripping_Daisy'], 'abstract': 'Fush Yu Mang is the debut studio album by the American rock band Smash Mouth, released on July 8, 1997 by Interscope Records. It includes their first major hit, "Walkin\' on the Sun", which was the last song to be added onto the album. The title of the album was taken from a line ("fuck you, man!") slurred by Al Pacino in Scarface. (One song, "Padrino", contains the line "I\'ll take any flick with Al Pacino".) On the cover of the album is the band in guitarist Greg Camp\'s 1962 Ford Falcon Squire wagon flying through space with an outstretched arm giving the finger. The title is written in a stylized, pseudo-Asian font. The album also features a cover of War\'s "Why Can\'t We Be Friends?". The initial release was given a Parental Advisory label, while later releases were not. An acoustic re-recording of Fush Yu Mang was planned in 2017 through PledgeMusic for the album\'s 20th anniversary, and was released on June 29, 2018.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Kollected_–_The_Best_Of', 'album_name': 'Kollected: The Best of Kula Shaker', 'artist': 'http://dbpedia.org/resource/Kula_Shaker', 'artist_name': 'Kula Shaker', 'wiki': 'http://en.wikipedia.org/wiki/Kollected_–_The_Best_Of', 'released': '16 December 2002', 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Alonza_Bevan', 'http://dbpedia.org/resource/Crispian_Mills', 'http://dbpedia.org/resource/Jay_Darlington', 'http://dbpedia.org/resource/Paul_Winterhart', 'http://dbpedia.org/resource/The_Jeevas'], 'abstract': 'Kollected – The Best Of is a 2002 compilation album by Kula Shaker; There are sixteen songs on the album: seven from their debut "K", four from "Peasants, Pigs &amp; Astronauts" and five non-album tracks.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Document_(album)', 'album_name': 'Document (album)', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Document_(album)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'released': '31 August 1987', 'producers': ['http://dbpedia.org/resource/Scott_Litt', 'R.E.M.'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/10,000_Maniacs', 'http://dbpedia.org/resource/Amanda_Brown_(musician)', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Big_High', 'http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Bill_Rieflin', 'http://dbpedia.org/resource/Buren_Fowler', 'http://dbpedia.org/resource/Don_Dixon_(musician)', 'http://dbpedia.org/resource/Dumptruck_(band)', 'http://dbpedia.org/resource/Dušan_Vranić', 'http://dbpedia.org/resource/Filthy_Friends', 'http://dbpedia.org/resource/Grant-Lee_Phillips', 'http://dbpedia.org/resource/Hindu_Love_Gods_(band)', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/John_Paul_Jones_(musician)', 'http://dbpedia.org/resource/Kate_Pierson', 'http://dbpedia.org/resource/Ken_Stringfellow', 'http://dbpedia.org/resource/Lenny_Kaye', 'http://dbpedia.org/resource/Magnapop', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Montanablue', 'http://dbpedia.org/resource/Nikki_Sudden', 'http://dbpedia.org/resource/One_(U2_song)', 'http://dbpedia.org/resource/Pete_Yorn', 'http://dbpedia.org/resource/Peter_Buck', 'http://dbpedia.org/resource/Robyn_Hitchcock', 'http://dbpedia.org/resource/Scott_McCaughey', 'http://dbpedia.org/resource/Tanzplagen', "http://dbpedia.org/resource/The_B-52's", 'http://dbpedia.org/resource/The_Baseball_Project', 'http://dbpedia.org/resource/The_Humans_(UK_band)', 'http://dbpedia.org/resource/The_Minus_5', 'http://dbpedia.org/resource/The_Orange_Humble_Band', 'http://dbpedia.org/resource/The_Troggs', "http://dbpedia.org/resource/The_dB's", 'http://dbpedia.org/resource/Tired_Pony', 'http://dbpedia.org/resource/Tuatara_(band)', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Warren_Zevon', 'http://dbpedia.org/resource/William_Lee_Self', 'http://dbpedia.org/resource/Đani_Pervan'], 'abstract': 'Document is the fifth studio album by American rock band R.E.M., released on August 31, 1987, by I.R.S. Records. It was the first album by the band to be produced by Scott Litt.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Hypnotize_(album)', 'album_name': 'Hypnotize', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Hypnotize_(album)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'released': '22 November 2005', 'producers': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Rick_Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': 'Hypnotize is the fifth and most recent studio album by Armenian-American heavy metal band System of a Down. It was released on November 22, 2005, six months after the release of its companion album Mezmerize. Mezmerize and Hypnotize both debuted at number #1 on the Billboard 200 albums chart, making the band one of the few to achieve this with two albums in the same year. Hypnotize was the last album System of a Down released before going on a four-year hiatus in 2006, and the band did not release new music for more than a decade, until late 2020 when they unexpectedly released two new songs.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Stay_Hungry_(album)', 'album_name': 'Stay Hungry', 'artist': 'http://dbpedia.org/resource/Twisted_Sister', 'artist_name': 'Twisted Sister', 'wiki': 'http://en.wikipedia.org/wiki/Stay_Hungry_(album)', 'hometown': 'http://dbpedia.org/resource/Ho-Ho-Kus,_New_Jersey', 'released': '10 May 1984', 'producers': ['http://dbpedia.org/resource/Tom_Werman'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/A._J._Pero', 'http://dbpedia.org/resource/Baptized_By_Fire_(band)', 'http://dbpedia.org/resource/Dee_Snider', 'http://dbpedia.org/resource/Desperado_(band)', 'http://dbpedia.org/resource/Eddie_Ojeda', 'http://dbpedia.org/resource/Extreme_(band)', 'http://dbpedia.org/resource/Jay_Jay_French', 'http://dbpedia.org/resource/Joey_Franco', 'http://dbpedia.org/resource/Lizzy_Borden_(band)', 'http://dbpedia.org/resource/Magellan_(band)', 'http://dbpedia.org/resource/Mark_Mendoza__Mark_Mendoza__1', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Scarecrow_(band)', 'http://dbpedia.org/resource/Stuart_Epps', 'http://dbpedia.org/resource/T.T._Quick', 'http://dbpedia.org/resource/Timothy_B._Schmit', 'http://dbpedia.org/resource/Toxik', "http://dbpedia.org/resource/Van_Helsing's_Curse", 'http://dbpedia.org/resource/Walt_Woodward_III', 'http://dbpedia.org/resource/Widowmaker_(American_band)'], 'abstract': 'Stay Hungry is the third studio album by American heavy metal band Twisted Sister. Released on May 10, 1984, the album includes the band\'s two most well-known songs, "We\'re Not Gonna Take It" and "I Wanna Rock". According to RIAA certification, Stay Hungry gained multi-platinum status with U.S. sales of more than 3,000,000 copies. Twisted Sister performed the song "Burn in Hell" during a cameo appearance in the 1985 film Pee-wee\'s Big Adventure. The song "Burn in Hell" was covered by black metal band Dimmu Borgir on Puritanical Euphoric Misanthropia. "We\'re Not Gonna Take It" was also covered by Bif Naked on the Ready to Rumble soundtrack. The two songs that comprise the Horror-Teria segment became the basis of Twisted Sister lead singer Dee Snider\'s 1998 film Strangeland, in which Captain Howdy was played by Snider himself. The "Captain Howdy" segment of the "Horror-Teria" suite would later be covered by the death metal group Broken Hope on their album Repulsive Conception and in 1999 by the Swedish heavy metal band Morgana Lefay on their Symphony of the Damned, Re-symphonised album. In 2004, the band re-recorded the tracks from this album and re-released them under the title Still Hungry. In 2009, the band played Stay Hungry in its entirety for the first time including songs never played live before, such as "Don\'t Let Me Down" and "Horror-Teria: Street Justice".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Actually', 'album_name': 'Actually', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/Actually', 'hometown': 'http://dbpedia.org/resource/London', 'released': '07 September 1987', 'producers': ['http://dbpedia.org/resource/Andy_Richards', 'http://dbpedia.org/resource/Julian_Mendelsohn', 'http://dbpedia.org/resource/Shep_Pettibone', 'http://dbpedia.org/resource/Stephen_Hague', 'Pet Shop Boys', 'David Jacob'], 'writers': ['http://dbpedia.org/resource/Johnny_Christopher', 'http://dbpedia.org/resource/Mark_James_(songwriter)', 'http://dbpedia.org/resource/Wayne_Carson', 'Tennant, Ennio Morricone, Lowe', 'Tennant, Lowe, Helena Springs', 'Carson, Christopher, James', 'Tennant, Lowe, Bobby Orlando', 'Lowe, Tennant, Allee Willis', 'Lowe, Tennant, Willis'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Cicero', 'http://dbpedia.org/resource/Dusty_Springfield', 'http://dbpedia.org/resource/Electronic_(band)', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Example_(musician)', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Morten_Harket', 'http://dbpedia.org/resource/Pete_Burns', 'http://dbpedia.org/resource/Philip_Oakey', 'http://dbpedia.org/resource/Robbie_Williams', 'http://dbpedia.org/resource/Sam_Taylor-Johnson', 'http://dbpedia.org/resource/Stuart_Price', 'http://dbpedia.org/resource/Sylvia_Mason-James', 'http://dbpedia.org/resource/Take_That', 'http://dbpedia.org/resource/The_Killers', 'http://dbpedia.org/resource/Years_&amp;_Years'], 'abstract': 'Actually (stylised as Pet Shop Boys, actually.) is the second studio album by English synth-pop duo Pet Shop Boys. It was released on 7 September 1987 by Parlophone in the United Kingdom and by EMI Manhattan in the United States and Canada. According to Neil Tennant and music historian Wayne Studer, Actually loosely critiques Thatcherism, the political zeitgeist of the 1980s, and was recorded in anticipation of Margaret Thatcher\'s re-election. Actually is featured in the 2005 musical reference book 1001 Albums You Must Hear Before You Die, and in 2006 Q magazine placed the album at number 22 in its list of the "40 Best Albums of the \'80s". In 2012, Slant Magazine listed the album at number 88 on its list of "Best Albums of the 1980s". In 2020, Rolling Stone placed it at No. 435 in its list of the 500 Greatest Albums of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Energique', 'album_name': 'Energique', 'artist': 'http://dbpedia.org/resource/Bizarre_Inc', 'artist_name': 'Bizarre Inc', 'wiki': 'http://en.wikipedia.org/wiki/Energique', 'hometown': 'http://dbpedia.org/resource/Stafford', 'producers': ['Alan Scott', 'Bizarre Inc', 'Eon'], 'genres': ['Techno', 'breakbeat hardcore', 'diva house', 'house', 'disco'], 'related_artists': ['http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Stevo_Pearce'], 'abstract': 'Energique is the second studio album by the English electronic music group Bizarre Inc, released on 1992. It features singles such as "Playing with Knives", "Plutonic", "I\'m Gonna Get You", "Took My Love" and "Love in Motion".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Warning_(Green_Day_album)', 'album_name': 'Warning (álbum de Green Day)', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Warning_(Green_Day_album)', 'released': '03 October 2000', 'producers': ['Green Day', 'Rob Cavallo'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop punk', 'alternative rock', 'folk punk', 'punk rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Cometbus', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bill_Schneider_(musician)', 'http://dbpedia.org/resource/Billie_Joe_Armstrong', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Campino_(singer)', 'http://dbpedia.org/resource/Catfish_and_the_Bottlemen', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Faber_Drive', 'http://dbpedia.org/resource/Foxboro_Hot_Tubs', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Isocracy_(band)', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jason_White_(musician)', 'http://dbpedia.org/resource/Jesse_Malin', 'http://dbpedia.org/resource/John_Kiffmeyer', 'http://dbpedia.org/resource/Mike_Dirnt', 'http://dbpedia.org/resource/Pinhead_Gunpowder', 'http://dbpedia.org/resource/Rancid_(band)', 'http://dbpedia.org/resource/Screeching_Weasel', 'http://dbpedia.org/resource/Seaweed_(band)', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Sprung_Monkey', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/The_Big_Cats', 'http://dbpedia.org/resource/The_Influents', 'http://dbpedia.org/resource/The_Interrupters_(band)', 'http://dbpedia.org/resource/The_Lookouts', 'http://dbpedia.org/resource/The_Network', 'http://dbpedia.org/resource/Tré_Cool'], 'abstract': "Warning (stylized as WARNING:) is the sixth studio album by American rock band Green Day, released on October 3, 2000, by Reprise Records. Building upon its predecessor Nimrod (1997), it eschewed the band's trademark sound and incorporated acoustic elements and pop and folk styles. Lyrically, the album contains more optimistic and inspirational themes in comparison to the band's earlier releases. Warning was also Green Day's first album since Kerplunk (1991) that was not produced by Rob Cavallo, although he did have a hand in its production and was credited as executive producer. Despite mixed criticism towards the band's stylistic change, the album received mostly positive reviews from critics, who praised vocalist/guitarist Billie Joe Armstrong's songwriting. Although it peaked at number four on the US Billboard 200, Warning represented the lowest commercial slump in Green Day's career, being their first album since signing to a major label not to achieve multi-platinum status. However, the album being leaked onto Napster three weeks before its release may have been a contributing factor to its low sales. The album has nonetheless been certified gold by the Recording Industry Association of America, and has sold over 1.2 million copies as of 2012. Worldwide it has sold 3.5 million copies."}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Diego', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Diego', 'place': 'http://sws.geonames.org/5391811/', 'postal_code': '92140', 'geo_link': 'http://www.geonames.org/5391811/san-diego.html', 'lat': '32.715', 'long': '-117.1625', 'population': '1307402'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bergen', 'country_code': 'NO', 'wiki': 'http://en.wikipedia.org/wiki/Bergen', 'place': 'http://sws.geonames.org/3161733/', 'geo_link': 'http://www.geonames.org/3161733/bergen.html', 'lat': '60.38944444444444', 'long': '5.33', 'population': '252051'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Marietta, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Marietta%2C_Georgia', 'place': 'http://sws.geonames.org/4207783/', 'postal_code': '30063', 'geo_link': 'http://www.geonames.org/4207783/marietta.html', 'lat': '33.95333333333333', 'long': '-84.54055555555556', 'population': '56579'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ajax, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ajax%2C_Ontario', 'place': 'http://sws.geonames.org/5882873/', 'geo_link': 'http://www.geonames.org/5882873/ajax.html', 'lat': '43.858333333333334', 'long': '-79.0363888888889', 'population': '90167'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'United States', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/United_States', 'place': 'http://sws.geonames.org/6252001/', 'geo_link': 'http://www.geonames.org/6252001/united-states.html', 'lat': '40.0', 'long': '-100.0', 'population': '310232863'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'South Korea', 'country_code': 'KR', 'wiki': 'http://ko.wikipedia.org/wiki/%EB%8C%80%ED%95%9C%EB%AF%BC%EA%B5%AD', 'place': 'http://sws.geonames.org/1835841/', 'geo_link': 'http://www.geonames.org/1835841/republic-of-korea.html', 'lat': '36.0', 'long': '128.0', 'population': '48422644'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dorchester, Boston', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dorchester%2C_Boston', 'place': 'http://sws.geonames.org/4934964/', 'geo_link': 'http://www.geonames.org/4934964/dorchester.html', 'lat': '42.31666666666667', 'long': '-71.05'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Colorado Springs, Colorado', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Colorado_Springs%2C_Colorado', 'place': 'http://sws.geonames.org/5417598/', 'postal_code': '80995', 'geo_link': 'http://www.geonames.org/5417598/colorado-springs.html', 'lat': '38.833333333333336', 'long': '-104.81666666666666', 'population': '416427'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Palm Desert, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Palm_Desert%2C_California', 'place': 'http://sws.geonames.org/5380626/', 'postal_code': '92260', 'geo_link': 'http://www.geonames.org/5380626/palm-desert.html', 'lat': '33.72222222222222', 'long': '-116.37444444444445', 'population': '48445'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Waldorf, Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waldorf%2C_Maryland', 'place': 'http://sws.geonames.org/4372599/', 'postal_code': '20603', 'geo_link': 'http://www.geonames.org/4372599/waldorf.html', 'lat': '38.64611111111111', 'long': '-76.89833333333333', 'population': '67752'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Athens, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Athens%2C_Georgia', 'place': 'http://sws.geonames.org/4180386/', 'postal_code': '30601', 'geo_link': 'http://www.geonames.org/4180386/athens.html', 'lat': '33.95', 'long': '-83.38333333333334', 'population': '116714'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ho-Ho-Kus, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ho-Ho-Kus%2C_New_Jersey', 'place': 'http://sws.geonames.org/5099129/', 'geo_link': 'http://www.geonames.org/5099129/ho-ho-kus.html', 'lat': '40.999485', 'long': '-74.096574', 'population': '4078'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stafford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Stafford', 'place': 'http://sws.geonames.org/2637142/', 'geo_link': 'http://www.geonames.org/2637142/stafford.html', 'lat': '52.8066', 'long': '-2.1171', 'population': '65290'}</t>
+  </si>
+  <si>
+    <t>{"url": "https://genius.com/albums/Pet-shop-boys/Popart-the-hits", "annotations": {"description": "", "producers": [{"name": "Adam F", "url": "https://genius.com/artists/Adam-f"}, {"name": "Andy Richards", "url": "https://genius.com/artists/Andy-richards"}, {"name": "Brothers in Rhythm", "url": "https://genius.com/artists/Brothers-in-rhythm"}, {"name": "Chris Lowe", "url": "https://genius.com/artists/Chris-lowe"}, {"name": "Chris Porter", "url": "https://genius.com/artists/Chris-porter"}, {"name": "Craig Armstrong", "url": "https://genius.com/artists/Craig-armstrong"}, {"name": "Dan Fresh", "url": "https://genius.com/artists/Dan-fresh"}, {"name": "Danny Tenaglia", "url": "https://genius.com/artists/Danny-tenaglia"}, {"name": "David Morales", "url": "https://genius.com/artists/David-morales"}, {"name": "Felix Gauder", "url": "https://genius.com/artists/Felix-gauder"}, {"name": "Harold Faltermeyer", "url": "https://genius.com/artists/Harold-faltermeyer"}, {"name": "Julian Mendelsohn", "url": "https://genius.com/artists/Julian-mendelsohn"}, {"name": "Lewis Martine\u00e9", "url": "https://genius.com/artists/Lewis-martinee"}, {"name": "Neil Tennant", "url": "https://genius.com/artists/Neil-tennant"}, {"name": "Pet Shop Boys", "url": "https://genius.com/artists/Pet-shop-boys"}, {"name": "Stephen Hague", "url": "https://genius.com/artists/Stephen-hague"}, {"name": "Stephen Lipson", "url": "https://genius.com/artists/Stephen-lipson"}, {"name": "Stuart Crichton", "url": "https://genius.com/artists/Stuart-crichton"}, {"name": "Tomcraft", "url": "https://genius.com/artists/Tomcraft"}, {"name": "Trevor Horn", "url": "https://genius.com/artists/Trevor-horn"}], "writers": [{"name": "Adam Clayton", "url": "https://genius.com/artists/Adam-clayton"}, {"name": "Adam F", "url": "https://genius.com/artists/Adam-f"}, {"name": "Adem\u00e1rio", "url": "https://genius.com/artists/Ademario"}, {"name": "Allee Willis", "url": "https://genius.com/artists/Allee-willis"}, {"name": "Bob Crewe", "url": "https://genius.com/artists/Bob-crewe"}, {"name": "Bob Gaudio", "url": "https://genius.com/artists/Bob-gaudio"}, {"name": "Bono", "url": "https://genius.com/artists/Bono"}, {"name": "Chris Lowe", "url": "https://genius.com/artists/Chris-lowe"}, {"name": "Dan Fresh", "url": "https://genius.com/artists/Dan-fresh"}, {"name": "The Edge (Guitarist)", "url": "https://genius.com/artists/The-edge-guitarist"}, {"name": "Henri Belolo", "url": "https://genius.com/artists/Henri-belolo"}, {"name": "Jacques Morali", "url": "https://genius.com/artists/Jacques-morali"}, {"name": "Johnny Christopher", "url": "https://genius.com/artists/Johnny-christopher"}, {"name": "Larry Mullen Jr.", "url": "https://genius.com/artists/Larry-mullen-jr"}, {"name": "Leonard Bernstein", "url": "https://genius.com/artists/Leonard-bernstein"}, {"name": "Mark James", "url": "https://genius.com/artists/Mark-james"}, {"name": "Marshall Jefferson", "url": "https://genius.com/artists/Marshall-jefferson"}, {"name": "Nego do Barbalho", "url": "https://genius.com/artists/Nego-do-barbalho"}, {"name": "Neil Tennant", "url": "https://genius.com/artists/Neil-tennant"}, {"name": "Paris Brightledge", "url": "https://genius.com/artists/Paris-brightledge"}, {"name": "Stephen Hague", "url": "https://genius.com/artists/Stephen-hague"}, {"name": "Stephen Sondheim", "url": "https://genius.com/artists/Stephen-sondheim"}, {"name": "Sterling Void", "url": "https://genius.com/artists/Sterling-void"}, {"name": "Victor Willis", "url": "https://genius.com/artists/Victor-willis"}, {"name": "Wayne Carson", "url": "https://genius.com/artists/Wayne-carson"}, {"name": "Wellington Epiderme Negra", "url": "https://genius.com/artists/Wellington-epiderme-negra"}], "labels": [{"name": "EMI (Label)", "url": "https://genius.com/artists/Emi-label"}, {"name": "Parlophone (Label)", "url": "https://genius.com/artists/Parlophone-label"}, {"name": "Parlophone Records", "url": "https://genius.com/artists/Parlophone-records"}, {"name": "Picture Music International", "url": "https://genius.com/artists/Picture-music-international"}]}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,15 +1828,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1392,7 +1886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1424,9 +1918,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1458,6 +1970,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1633,26 +2163,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="1" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +2207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1695,25 +2218,31 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>399</v>
+      </c>
+      <c r="G2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H2" t="s">
+        <v>547</v>
       </c>
       <c r="I2">
-        <v>0.8898265361785889</v>
+        <v>1.3746767044067381</v>
       </c>
       <c r="J2">
-        <v>0.1402959823608398</v>
+        <v>51.53565788269043</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>0.1093480587005615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1724,25 +2253,31 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3" t="s">
+        <v>548</v>
       </c>
       <c r="I3">
-        <v>1.314399003982544</v>
+        <v>1.202841520309448</v>
       </c>
       <c r="J3">
-        <v>31.7464816570282</v>
+        <v>30.54066014289856</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.12496232986450199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1753,25 +2288,31 @@
         <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" t="s">
+        <v>549</v>
       </c>
       <c r="I4">
-        <v>0.9236111640930176</v>
+        <v>0.98624253273010254</v>
       </c>
       <c r="J4">
-        <v>30.71702194213867</v>
+        <v>0.14034247398376459</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>6.2501430511474609E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1782,25 +2323,22 @@
         <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="I5">
-        <v>0.8820943832397461</v>
+        <v>0.53136229515075684</v>
       </c>
       <c r="J5">
-        <v>26.47088193893433</v>
+        <v>28.887036085128781</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1811,22 +2349,28 @@
         <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G6" t="s">
+        <v>480</v>
       </c>
       <c r="I6">
-        <v>0.4036931991577148</v>
+        <v>0.90588545799255371</v>
       </c>
       <c r="J6">
-        <v>26.1405622959137</v>
+        <v>31.105834484100338</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1837,25 +2381,31 @@
         <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>339</v>
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" t="s">
+        <v>550</v>
       </c>
       <c r="I7">
-        <v>0.8747994899749756</v>
+        <v>1.2340807914733889</v>
       </c>
       <c r="J7">
-        <v>26.0959677696228</v>
+        <v>31.604509353637699</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>9.3731880187988281E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1866,22 +2416,31 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>312</v>
+      </c>
+      <c r="F8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H8" t="s">
+        <v>551</v>
       </c>
       <c r="I8">
-        <v>0.4223127365112305</v>
+        <v>1.188885450363159</v>
       </c>
       <c r="J8">
-        <v>26.20913529396057</v>
+        <v>47.426447629928589</v>
       </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.1093919277191162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1892,25 +2451,28 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>405</v>
+      </c>
+      <c r="G9" t="s">
+        <v>483</v>
       </c>
       <c r="I9">
-        <v>0.9219605922698975</v>
+        <v>1.296567440032959</v>
       </c>
       <c r="J9">
-        <v>25.97867441177368</v>
+        <v>49.67695164680481</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1921,22 +2483,28 @@
         <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>314</v>
+      </c>
+      <c r="F10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" t="s">
+        <v>484</v>
       </c>
       <c r="I10">
-        <v>0.5311257839202881</v>
+        <v>1.0642721652984619</v>
       </c>
       <c r="J10">
-        <v>30.69582915306091</v>
+        <v>47.146130084991462</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1947,22 +2515,31 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>315</v>
+      </c>
+      <c r="F11" t="s">
+        <v>407</v>
+      </c>
+      <c r="G11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" t="s">
+        <v>552</v>
       </c>
       <c r="I11">
-        <v>0.484276294708252</v>
+        <v>1.1247322559356689</v>
       </c>
       <c r="J11">
-        <v>24.32451462745667</v>
+        <v>50.723499774932861</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.10934543609619141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1973,25 +2550,28 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>341</v>
+        <v>408</v>
+      </c>
+      <c r="G12" t="s">
+        <v>486</v>
       </c>
       <c r="I12">
-        <v>0.8907008171081543</v>
+        <v>1.874562740325928</v>
       </c>
       <c r="J12">
-        <v>26.19764494895935</v>
+        <v>30.792558908462521</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2002,25 +2582,22 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="I13">
-        <v>0.8435509204864502</v>
+        <v>0.46838831901550287</v>
       </c>
       <c r="J13">
-        <v>30.85504603385925</v>
+        <v>24.479600429534909</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2031,25 +2608,31 @@
         <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="F14" t="s">
-        <v>343</v>
+        <v>409</v>
+      </c>
+      <c r="G14" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" t="s">
+        <v>553</v>
       </c>
       <c r="I14">
-        <v>0.9060351848602295</v>
+        <v>1.4224879741668699</v>
       </c>
       <c r="J14">
-        <v>47.09889626502991</v>
+        <v>52.352291107177727</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.1249675750732422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2060,25 +2643,31 @@
         <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>344</v>
+        <v>410</v>
+      </c>
+      <c r="G15" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" t="s">
+        <v>553</v>
       </c>
       <c r="I15">
-        <v>0.9060349464416504</v>
+        <v>1.0779955387115481</v>
       </c>
       <c r="J15">
-        <v>21.65407061576843</v>
+        <v>28.790381908416752</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>0.1094815731048584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2089,25 +2678,25 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="I16">
-        <v>0.9997634887695312</v>
+        <v>1.4993612766265869</v>
       </c>
       <c r="J16">
-        <v>52.03843188285828</v>
+        <v>24.466491222381588</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2118,25 +2707,31 @@
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F17" t="s">
-        <v>346</v>
+        <v>412</v>
+      </c>
+      <c r="G17" t="s">
+        <v>489</v>
+      </c>
+      <c r="H17" t="s">
+        <v>553</v>
       </c>
       <c r="I17">
-        <v>0.8904159069061279</v>
+        <v>1.484025239944458</v>
       </c>
       <c r="J17">
-        <v>30.64999628067017</v>
+        <v>32.027065753936768</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.1093511581420898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2147,25 +2742,31 @@
         <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>413</v>
+      </c>
+      <c r="G18" t="s">
+        <v>490</v>
+      </c>
+      <c r="H18" t="s">
+        <v>554</v>
       </c>
       <c r="I18">
-        <v>0.8747553825378418</v>
+        <v>1.4528124332427981</v>
       </c>
       <c r="J18">
-        <v>31.13896250724792</v>
+        <v>51.835408210754387</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>9.3708992004394531E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2176,25 +2777,31 @@
         <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>348</v>
+        <v>414</v>
+      </c>
+      <c r="G19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H19" t="s">
+        <v>555</v>
       </c>
       <c r="I19">
-        <v>0.8591644763946533</v>
+        <v>1.6256241798400879</v>
       </c>
       <c r="J19">
-        <v>25.06000638008118</v>
+        <v>28.166614770889279</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>9.3943595886230469E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2205,22 +2812,22 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="I20">
-        <v>0.421771764755249</v>
+        <v>0.98438215255737305</v>
       </c>
       <c r="J20">
-        <v>27.13525032997131</v>
+        <v>22.24622273445129</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2231,25 +2838,28 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>349</v>
+        <v>415</v>
+      </c>
+      <c r="G21" t="s">
+        <v>492</v>
       </c>
       <c r="I21">
-        <v>0.8904170989990234</v>
+        <v>1.3275518417358401</v>
       </c>
       <c r="J21">
-        <v>28.9785532951355</v>
+        <v>31.934036254882809</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2260,22 +2870,25 @@
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>290</v>
+        <v>324</v>
+      </c>
+      <c r="F22" t="s">
+        <v>416</v>
       </c>
       <c r="I22">
-        <v>0.4063804149627686</v>
+        <v>0.92157626152038574</v>
       </c>
       <c r="J22">
-        <v>30.59195470809937</v>
+        <v>44.599832773208618</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2286,25 +2899,28 @@
         <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>350</v>
+        <v>417</v>
+      </c>
+      <c r="G23" t="s">
+        <v>493</v>
       </c>
       <c r="I23">
-        <v>6.873648405075073</v>
+        <v>1.5618810653686519</v>
       </c>
       <c r="J23">
-        <v>29.8855037689209</v>
+        <v>31.745623350143429</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2315,25 +2931,31 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>418</v>
+      </c>
+      <c r="G24" t="s">
+        <v>494</v>
+      </c>
+      <c r="H24" t="s">
+        <v>556</v>
       </c>
       <c r="I24">
-        <v>1.202849864959717</v>
+        <v>1.202807664871216</v>
       </c>
       <c r="J24">
-        <v>25.57278299331665</v>
+        <v>25.841701984405521</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.10934138298034669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2344,25 +2966,31 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>419</v>
+      </c>
+      <c r="G25" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" t="s">
+        <v>557</v>
       </c>
       <c r="I25">
-        <v>0.9843881130218506</v>
+        <v>1.2038159370422361</v>
       </c>
       <c r="J25">
-        <v>30.82161092758179</v>
+        <v>31.86838269233704</v>
       </c>
       <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.10935258865356449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2373,25 +3001,31 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>420</v>
+      </c>
+      <c r="G26" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" t="s">
+        <v>558</v>
       </c>
       <c r="I26">
-        <v>0.8906798362731934</v>
+        <v>0.95290088653564453</v>
       </c>
       <c r="J26">
-        <v>26.12404537200928</v>
+        <v>31.262624025344849</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.1247339248657227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2402,25 +3036,25 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E27" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="I27">
-        <v>0.9372859001159668</v>
+        <v>1.2808904647827151</v>
       </c>
       <c r="J27">
-        <v>25.24403524398804</v>
+        <v>29.009717702865601</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2431,25 +3065,28 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E28" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>422</v>
+      </c>
+      <c r="G28" t="s">
+        <v>497</v>
       </c>
       <c r="I28">
-        <v>0.8904173374176025</v>
+        <v>7.3266232013702393</v>
       </c>
       <c r="J28">
-        <v>31.98061490058899</v>
+        <v>30.32492113113403</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2460,25 +3097,31 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>356</v>
+        <v>423</v>
+      </c>
+      <c r="G29" t="s">
+        <v>498</v>
+      </c>
+      <c r="H29" t="s">
+        <v>559</v>
       </c>
       <c r="I29">
-        <v>0.906050443649292</v>
+        <v>1.1715965270996089</v>
       </c>
       <c r="J29">
-        <v>30.66563653945923</v>
+        <v>26.02593374252319</v>
       </c>
       <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>9.3906402587890625E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2489,25 +3132,31 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>357</v>
+        <v>424</v>
+      </c>
+      <c r="G30" t="s">
+        <v>499</v>
+      </c>
+      <c r="H30" t="s">
+        <v>560</v>
       </c>
       <c r="I30">
-        <v>0.8748307228088379</v>
+        <v>7.310776948928833</v>
       </c>
       <c r="J30">
-        <v>31.27813673019409</v>
+        <v>31.12173962593079</v>
       </c>
       <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.109356164932251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2518,25 +3167,31 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="F31" t="s">
-        <v>358</v>
+        <v>425</v>
+      </c>
+      <c r="G31" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" t="s">
+        <v>549</v>
       </c>
       <c r="I31">
-        <v>0.8903746604919434</v>
+        <v>1.6244320869445801</v>
       </c>
       <c r="J31">
-        <v>31.7591450214386</v>
+        <v>32.073625802993767</v>
       </c>
       <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.10938024520874021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2547,25 +3202,22 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="I32">
-        <v>0.9216611385345459</v>
+        <v>0.42153191566467291</v>
       </c>
       <c r="J32">
-        <v>22.24727082252502</v>
+        <v>23.620606899261471</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2576,25 +3228,25 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="I33">
-        <v>0.9060330390930176</v>
+        <v>1.671495914459229</v>
       </c>
       <c r="J33">
-        <v>25.90108251571655</v>
+        <v>47.084603071212769</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2605,25 +3257,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="F34" t="s">
-        <v>361</v>
+        <v>427</v>
+      </c>
+      <c r="G34" t="s">
+        <v>501</v>
       </c>
       <c r="I34">
-        <v>0.8591737747192383</v>
+        <v>1.6245772838592529</v>
       </c>
       <c r="J34">
-        <v>28.54271411895752</v>
+        <v>30.83749532699585</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2634,25 +3289,28 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="F35" t="s">
-        <v>362</v>
+        <v>428</v>
+      </c>
+      <c r="G35" t="s">
+        <v>502</v>
       </c>
       <c r="I35">
-        <v>0.9526596069335938</v>
+        <v>1.593587398529053</v>
       </c>
       <c r="J35">
-        <v>30.90145993232727</v>
+        <v>31.85456109046936</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2663,25 +3321,28 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>429</v>
+      </c>
+      <c r="G36" t="s">
+        <v>503</v>
       </c>
       <c r="I36">
-        <v>1.062258243560791</v>
+        <v>1.4396846294403081</v>
       </c>
       <c r="J36">
-        <v>25.82328104972839</v>
+        <v>26.025252819061279</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2692,25 +3353,31 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="F37" t="s">
-        <v>364</v>
+        <v>430</v>
+      </c>
+      <c r="G37" t="s">
+        <v>504</v>
+      </c>
+      <c r="H37" t="s">
+        <v>561</v>
       </c>
       <c r="I37">
-        <v>0.8904144763946533</v>
+        <v>1.0622456073760991</v>
       </c>
       <c r="J37">
-        <v>26.54379963874817</v>
+        <v>30.541241645812988</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.1249737739562988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2721,25 +3388,28 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="F38" t="s">
-        <v>365</v>
+        <v>431</v>
+      </c>
+      <c r="G38" t="s">
+        <v>505</v>
       </c>
       <c r="I38">
-        <v>0.8747694492340088</v>
+        <v>1.671478271484375</v>
       </c>
       <c r="J38">
-        <v>25.34017992019653</v>
+        <v>52.600523710250847</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2750,25 +3420,31 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>432</v>
+      </c>
+      <c r="G39" t="s">
+        <v>506</v>
+      </c>
+      <c r="H39" t="s">
+        <v>549</v>
       </c>
       <c r="I39">
-        <v>0.8591830730438232</v>
+        <v>1.109087228775024</v>
       </c>
       <c r="J39">
-        <v>46.19601321220398</v>
+        <v>0.1405906677246094</v>
       </c>
       <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>9.3754291534423828E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2779,25 +3455,25 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="I40">
-        <v>0.9216468334197998</v>
+        <v>1.1247315406799321</v>
       </c>
       <c r="J40">
-        <v>22.4198842048645</v>
+        <v>30.074964046478271</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2808,25 +3484,31 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>434</v>
+      </c>
+      <c r="G41" t="s">
+        <v>507</v>
+      </c>
+      <c r="H41" t="s">
+        <v>549</v>
       </c>
       <c r="I41">
-        <v>0.8747954368591309</v>
+        <v>1.4996464252471919</v>
       </c>
       <c r="J41">
-        <v>22.73001646995544</v>
+        <v>31.601642847061161</v>
       </c>
       <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.1096079349517822</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2837,25 +3519,31 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>435</v>
+      </c>
+      <c r="G42" t="s">
+        <v>508</v>
+      </c>
+      <c r="H42" t="s">
+        <v>554</v>
       </c>
       <c r="I42">
-        <v>0.9060149192810059</v>
+        <v>1.624470472335815</v>
       </c>
       <c r="J42">
-        <v>30.30855584144592</v>
+        <v>31.229580879211429</v>
       </c>
       <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.1093471050262451</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2866,22 +3554,31 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>342</v>
+      </c>
+      <c r="F43" t="s">
+        <v>436</v>
+      </c>
+      <c r="G43" t="s">
+        <v>509</v>
+      </c>
+      <c r="H43" t="s">
+        <v>562</v>
       </c>
       <c r="I43">
-        <v>0.4061558246612549</v>
+        <v>1.374667167663574</v>
       </c>
       <c r="J43">
-        <v>24.63871788978577</v>
+        <v>27.384946823120121</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.1249675750732422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2892,25 +3589,31 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="E44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>437</v>
+      </c>
+      <c r="G44" t="s">
+        <v>510</v>
+      </c>
+      <c r="H44" t="s">
+        <v>563</v>
       </c>
       <c r="I44">
-        <v>0.8278975486755371</v>
+        <v>1.249704122543335</v>
       </c>
       <c r="J44">
-        <v>0.1249675750732422</v>
+        <v>50.05288290977478</v>
       </c>
       <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.1249737739562988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2921,25 +3624,31 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E45" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>438</v>
+      </c>
+      <c r="G45" t="s">
+        <v>511</v>
+      </c>
+      <c r="H45" t="s">
+        <v>564</v>
       </c>
       <c r="I45">
-        <v>0.921656608581543</v>
+        <v>1.2340846061706541</v>
       </c>
       <c r="J45">
-        <v>50.58315753936768</v>
+        <v>31.322890758514401</v>
       </c>
       <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.1093490123748779</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2950,25 +3659,22 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="I46">
-        <v>0.9698221683502197</v>
+        <v>0.48426222801208502</v>
       </c>
       <c r="J46">
-        <v>41.80338072776794</v>
+        <v>27.947834730148319</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2979,22 +3685,31 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>346</v>
+      </c>
+      <c r="F47" t="s">
+        <v>439</v>
+      </c>
+      <c r="G47" t="s">
+        <v>512</v>
+      </c>
+      <c r="H47" t="s">
+        <v>565</v>
       </c>
       <c r="I47">
-        <v>0.4998767375946045</v>
+        <v>0.89017939567565918</v>
       </c>
       <c r="J47">
-        <v>31.6189591884613</v>
+        <v>30.911026477813721</v>
       </c>
       <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.10958337783813479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3005,25 +3720,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="F48" t="s">
-        <v>372</v>
+        <v>440</v>
+      </c>
+      <c r="G48" t="s">
+        <v>513</v>
       </c>
       <c r="I48">
-        <v>0.8904135227203369</v>
+        <v>1.858715772628784</v>
       </c>
       <c r="J48">
-        <v>29.00979447364807</v>
+        <v>0.1720588207244873</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3034,25 +3752,22 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>306</v>
-      </c>
-      <c r="F49" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="I49">
-        <v>0.8747937679290771</v>
+        <v>0.43739414215087891</v>
       </c>
       <c r="J49">
-        <v>21.95113658905029</v>
+        <v>26.98090648651123</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3063,25 +3778,22 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E50" t="s">
-        <v>282</v>
-      </c>
-      <c r="F50" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="I50">
-        <v>6.889775514602661</v>
+        <v>0.45301127433776861</v>
       </c>
       <c r="J50">
-        <v>44.39832520484924</v>
+        <v>49.08287787437439</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3092,25 +3804,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="F51" t="s">
-        <v>375</v>
+        <v>441</v>
+      </c>
+      <c r="G51" t="s">
+        <v>514</v>
       </c>
       <c r="I51">
-        <v>0.8435540199279785</v>
+        <v>0.92165589332580566</v>
       </c>
       <c r="J51">
-        <v>31.74374914169312</v>
+        <v>31.242971420288089</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3121,25 +3836,28 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="F52" t="s">
-        <v>376</v>
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>515</v>
       </c>
       <c r="I52">
-        <v>0.9060068130493164</v>
+        <v>1.6087486743927</v>
       </c>
       <c r="J52">
-        <v>27.82318711280823</v>
+        <v>53.50781774520874</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3150,25 +3868,22 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
-      </c>
-      <c r="F53" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="I53">
-        <v>0.8435647487640381</v>
+        <v>0.40591239929199219</v>
       </c>
       <c r="J53">
-        <v>27.29144930839539</v>
+        <v>24.83874869346619</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3179,25 +3894,31 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="F54" t="s">
-        <v>378</v>
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>516</v>
+      </c>
+      <c r="H54" t="s">
+        <v>566</v>
       </c>
       <c r="I54">
-        <v>1.499697923660278</v>
+        <v>1.4996933937072749</v>
       </c>
       <c r="J54">
-        <v>30.57351326942444</v>
+        <v>31.617752075195309</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>0.1249215602874756</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3208,25 +3929,25 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="I55">
-        <v>0.8279268741607666</v>
+        <v>13.293742418289179</v>
       </c>
       <c r="J55">
-        <v>31.55590415000916</v>
+        <v>40.97654128074646</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3237,25 +3958,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="F56" t="s">
-        <v>380</v>
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>517</v>
       </c>
       <c r="I56">
-        <v>0.8747932910919189</v>
+        <v>1.2968382835388179</v>
       </c>
       <c r="J56">
-        <v>49.17811584472656</v>
+        <v>31.07115912437439</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3266,25 +3990,28 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="F57" t="s">
-        <v>381</v>
+        <v>446</v>
+      </c>
+      <c r="G57" t="s">
+        <v>518</v>
       </c>
       <c r="I57">
-        <v>0.8601424694061279</v>
+        <v>2.0776653289794922</v>
       </c>
       <c r="J57">
-        <v>21.10603165626526</v>
+        <v>62.189377784728997</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3295,25 +4022,22 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
-      </c>
-      <c r="F58" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="I58">
-        <v>0.8748033046722412</v>
+        <v>0.39080381393432623</v>
       </c>
       <c r="J58">
-        <v>32.05595827102661</v>
+        <v>27.744021892547611</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3324,25 +4048,25 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="F59" t="s">
-        <v>383</v>
+        <v>447</v>
       </c>
       <c r="I59">
-        <v>0.9060750007629395</v>
+        <v>1.530853271484375</v>
       </c>
       <c r="J59">
-        <v>29.31049251556396</v>
+        <v>28.10440897941589</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3353,25 +4077,28 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>519</v>
       </c>
       <c r="I60">
-        <v>0.8748016357421875</v>
+        <v>1.81207275390625</v>
       </c>
       <c r="J60">
-        <v>31.41543626785278</v>
+        <v>31.96261382102966</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3382,25 +4109,31 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="F61" t="s">
-        <v>385</v>
+        <v>449</v>
+      </c>
+      <c r="G61" t="s">
+        <v>520</v>
+      </c>
+      <c r="H61" t="s">
+        <v>567</v>
       </c>
       <c r="I61">
-        <v>0.8747963905334473</v>
+        <v>2.9055607318878169</v>
       </c>
       <c r="J61">
-        <v>24.80819201469421</v>
+        <v>31.462316989898682</v>
       </c>
       <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>0.1093387603759766</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3411,25 +4144,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>292</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
-        <v>386</v>
+        <v>450</v>
+      </c>
+      <c r="G62" t="s">
+        <v>521</v>
       </c>
       <c r="I62">
-        <v>0.8748013973236084</v>
+        <v>1.56236720085144</v>
       </c>
       <c r="J62">
-        <v>29.85357403755188</v>
+        <v>31.776175022125241</v>
       </c>
       <c r="K62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3440,25 +4176,31 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="F63" t="s">
-        <v>387</v>
+        <v>451</v>
+      </c>
+      <c r="G63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H63" t="s">
+        <v>568</v>
       </c>
       <c r="I63">
-        <v>0.9060361385345459</v>
+        <v>1.171821594238281</v>
       </c>
       <c r="J63">
-        <v>31.59174990653992</v>
+        <v>30.278090000152591</v>
       </c>
       <c r="K63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0.1093928813934326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3469,25 +4211,31 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="F64" t="s">
-        <v>388</v>
+        <v>452</v>
+      </c>
+      <c r="G64" t="s">
+        <v>523</v>
+      </c>
+      <c r="H64" t="s">
+        <v>569</v>
       </c>
       <c r="I64">
-        <v>0.9060037136077881</v>
+        <v>1.2496933937072749</v>
       </c>
       <c r="J64">
-        <v>22.93310689926147</v>
+        <v>30.742892026901249</v>
       </c>
       <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>0.15620708465576169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3498,25 +4246,31 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="F65" t="s">
-        <v>389</v>
+        <v>580</v>
+      </c>
+      <c r="G65" t="s">
+        <v>524</v>
+      </c>
+      <c r="H65" t="s">
+        <v>553</v>
       </c>
       <c r="I65">
-        <v>0.9060471057891846</v>
+        <v>1.2596927840000001</v>
       </c>
       <c r="J65">
-        <v>27.99585676193237</v>
+        <v>27.326952457427979</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>9.3549251556396484E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3527,25 +4281,31 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="F66" t="s">
-        <v>390</v>
+        <v>453</v>
+      </c>
+      <c r="G66" t="s">
+        <v>525</v>
+      </c>
+      <c r="H66" t="s">
+        <v>570</v>
       </c>
       <c r="I66">
-        <v>6.951483011245728</v>
+        <v>1.109125137329102</v>
       </c>
       <c r="J66">
-        <v>29.97901821136475</v>
+        <v>30.39957070350647</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>9.4005107879638672E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3556,25 +4316,31 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="F67" t="s">
-        <v>391</v>
+        <v>454</v>
+      </c>
+      <c r="G67" t="s">
+        <v>526</v>
+      </c>
+      <c r="H67" t="s">
+        <v>559</v>
       </c>
       <c r="I67">
-        <v>0.9997560977935791</v>
+        <v>1.577753067016602</v>
       </c>
       <c r="J67">
-        <v>49.60302138328552</v>
+        <v>31.276524543762211</v>
       </c>
       <c r="K67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>9.4000339508056641E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3585,25 +4351,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="F68" t="s">
-        <v>392</v>
+        <v>455</v>
+      </c>
+      <c r="G68" t="s">
+        <v>527</v>
       </c>
       <c r="I68">
-        <v>1.124729871749878</v>
+        <v>2.343194961547852</v>
       </c>
       <c r="J68">
-        <v>32.11828756332397</v>
+        <v>30.995919227600101</v>
       </c>
       <c r="K68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3614,25 +4383,28 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="F69" t="s">
-        <v>393</v>
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>528</v>
       </c>
       <c r="I69">
-        <v>6.888957262039185</v>
+        <v>1.218464851379395</v>
       </c>
       <c r="J69">
-        <v>24.91705513000488</v>
+        <v>44.506902933120728</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3643,25 +4415,28 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" t="s">
-        <v>394</v>
+        <v>369</v>
+      </c>
+      <c r="G70" t="s">
+        <v>529</v>
+      </c>
+      <c r="H70" t="s">
+        <v>571</v>
       </c>
       <c r="I70">
-        <v>0.8747932910919189</v>
+        <v>0.42191815376281738</v>
       </c>
       <c r="J70">
-        <v>31.02799439430237</v>
+        <v>24.65178108215332</v>
       </c>
       <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>0.1248257160186768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3672,25 +4447,22 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>316</v>
-      </c>
-      <c r="F71" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="I71">
-        <v>0.968522310256958</v>
+        <v>0.43764305114746088</v>
       </c>
       <c r="J71">
-        <v>27.09049892425537</v>
+        <v>30.399816036224369</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3701,25 +4473,25 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
-      </c>
-      <c r="F72" t="s">
-        <v>396</v>
+        <v>371</v>
+      </c>
+      <c r="G72" t="s">
+        <v>530</v>
       </c>
       <c r="I72">
-        <v>0.9685206413269043</v>
+        <v>0.48422813415527338</v>
       </c>
       <c r="J72">
-        <v>23.10456442832947</v>
+        <v>30.682965517044071</v>
       </c>
       <c r="K72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3730,25 +4502,22 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
-      </c>
-      <c r="F73" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="I73">
-        <v>0.9999151229858398</v>
+        <v>0.39051985740661621</v>
       </c>
       <c r="J73">
-        <v>20.77618741989136</v>
+        <v>24.791951179504391</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3759,25 +4528,22 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>319</v>
-      </c>
-      <c r="F74" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I74">
-        <v>1.187271118164062</v>
+        <v>0.43739914894103998</v>
       </c>
       <c r="J74">
-        <v>31.2279965877533</v>
+        <v>23.703039884567261</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3788,25 +4554,31 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="E75" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="F75" t="s">
-        <v>399</v>
+        <v>457</v>
+      </c>
+      <c r="G75" t="s">
+        <v>531</v>
+      </c>
+      <c r="H75" t="s">
+        <v>572</v>
       </c>
       <c r="I75">
-        <v>1.234833240509033</v>
+        <v>1.343236923217773</v>
       </c>
       <c r="J75">
-        <v>31.69767570495605</v>
+        <v>22.72952938079834</v>
       </c>
       <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>9.3691349029541016E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3817,25 +4589,25 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="F76" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="I76">
-        <v>6.952316761016846</v>
+        <v>1.031004905700684</v>
       </c>
       <c r="J76">
-        <v>31.76103043556213</v>
+        <v>24.715205192565922</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3846,25 +4618,25 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
       <c r="F77" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="I77">
-        <v>1.405918121337891</v>
+        <v>1.936890125274658</v>
       </c>
       <c r="J77">
-        <v>31.91762208938599</v>
+        <v>23.682415246963501</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3875,25 +4647,28 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="F78" t="s">
-        <v>402</v>
+        <v>460</v>
+      </c>
+      <c r="G78" t="s">
+        <v>532</v>
       </c>
       <c r="I78">
-        <v>0.9060204029083252</v>
+        <v>7.1545581817626953</v>
       </c>
       <c r="J78">
-        <v>26.76249933242798</v>
+        <v>21.777078866958622</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3904,25 +4679,25 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="F79" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="I79">
-        <v>0.8281676769256592</v>
+        <v>1.2182984352111821</v>
       </c>
       <c r="J79">
-        <v>22.35632944107056</v>
+        <v>21.54391694068909</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3933,25 +4708,31 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="F80" t="s">
-        <v>404</v>
+        <v>462</v>
+      </c>
+      <c r="G80" t="s">
+        <v>533</v>
+      </c>
+      <c r="H80" t="s">
+        <v>573</v>
       </c>
       <c r="I80">
-        <v>0.9685218334197998</v>
+        <v>1.2497067451477051</v>
       </c>
       <c r="J80">
-        <v>26.82240295410156</v>
+        <v>51.30297327041626</v>
       </c>
       <c r="K80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>0.1093485355377197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3962,25 +4743,31 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="F81" t="s">
-        <v>405</v>
+        <v>463</v>
+      </c>
+      <c r="G81" t="s">
+        <v>534</v>
+      </c>
+      <c r="H81" t="s">
+        <v>574</v>
       </c>
       <c r="I81">
-        <v>0.9060389995574951</v>
+        <v>7.4984748363494873</v>
       </c>
       <c r="J81">
-        <v>31.38411784172058</v>
+        <v>25.57279372215271</v>
       </c>
       <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>9.3728303909301758E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3991,25 +4778,28 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
+        <v>381</v>
       </c>
       <c r="F82" t="s">
-        <v>406</v>
+        <v>464</v>
+      </c>
+      <c r="G82" t="s">
+        <v>535</v>
       </c>
       <c r="I82">
-        <v>0.9063129425048828</v>
+        <v>1.4684314727783201</v>
       </c>
       <c r="J82">
-        <v>30.82365584373474</v>
+        <v>30.262785673141479</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4020,25 +4810,28 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>382</v>
       </c>
       <c r="F83" t="s">
-        <v>407</v>
+        <v>465</v>
+      </c>
+      <c r="G83" t="s">
+        <v>536</v>
       </c>
       <c r="I83">
-        <v>0.8904094696044922</v>
+        <v>1.0623693466186519</v>
       </c>
       <c r="J83">
-        <v>22.18444752693176</v>
+        <v>27.652792930603031</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4046,28 +4839,31 @@
         <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="E84" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="F84" t="s">
-        <v>396</v>
+        <v>466</v>
+      </c>
+      <c r="G84" t="s">
+        <v>537</v>
       </c>
       <c r="I84">
-        <v>0.8591761589050293</v>
+        <v>1.2653284072875981</v>
       </c>
       <c r="J84">
-        <v>0.1249711513519287</v>
+        <v>32.133603811264038</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4075,28 +4871,31 @@
         <v>93</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="E85" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="F85" t="s">
-        <v>408</v>
+        <v>467</v>
+      </c>
+      <c r="G85" t="s">
+        <v>538</v>
       </c>
       <c r="I85">
-        <v>0.8593878746032715</v>
+        <v>1.218463182449341</v>
       </c>
       <c r="J85">
-        <v>30.24462103843689</v>
+        <v>27.97876667976379</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4104,28 +4903,34 @@
         <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="F86" t="s">
-        <v>409</v>
+        <v>468</v>
+      </c>
+      <c r="G86" t="s">
+        <v>539</v>
+      </c>
+      <c r="H86" t="s">
+        <v>575</v>
       </c>
       <c r="I86">
-        <v>0.95290207862854</v>
+        <v>0.99976491928100586</v>
       </c>
       <c r="J86">
-        <v>31.80635690689087</v>
+        <v>31.435308218002319</v>
       </c>
       <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>9.3730449676513672E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4133,28 +4938,25 @@
         <v>95</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>326</v>
-      </c>
-      <c r="F87" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="I87">
-        <v>1.249723672866821</v>
+        <v>0.42176342010498052</v>
       </c>
       <c r="J87">
-        <v>25.65285634994507</v>
+        <v>24.871458053588871</v>
       </c>
       <c r="K87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4162,28 +4964,28 @@
         <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>327</v>
-      </c>
-      <c r="F88" t="s">
-        <v>411</v>
+        <v>387</v>
+      </c>
+      <c r="G88" t="s">
+        <v>540</v>
       </c>
       <c r="I88">
-        <v>0.8904104232788086</v>
+        <v>0.42176461219787598</v>
       </c>
       <c r="J88">
-        <v>30.46379494667053</v>
+        <v>43.835090160369873</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4191,28 +4993,25 @@
         <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="I89">
-        <v>0.9373626708984375</v>
+        <v>6.4204587936401367</v>
       </c>
       <c r="J89">
-        <v>0.1403369903564453</v>
+        <v>25.152929067611691</v>
       </c>
       <c r="K89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4220,28 +5019,34 @@
         <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E90" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>469</v>
+      </c>
+      <c r="G90" t="s">
+        <v>541</v>
+      </c>
+      <c r="H90" t="s">
+        <v>576</v>
       </c>
       <c r="I90">
-        <v>0.9841432571411133</v>
+        <v>1.250307559967041</v>
       </c>
       <c r="J90">
-        <v>48.71103882789612</v>
+        <v>30.261774063110352</v>
       </c>
       <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>9.3909978866577148E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4249,28 +5054,34 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="E91" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="F91" t="s">
-        <v>413</v>
+        <v>470</v>
+      </c>
+      <c r="G91" t="s">
+        <v>542</v>
+      </c>
+      <c r="H91" t="s">
+        <v>577</v>
       </c>
       <c r="I91">
-        <v>1.234076738357544</v>
+        <v>0.90629315376281738</v>
       </c>
       <c r="J91">
-        <v>51.92841553688049</v>
+        <v>31.510603904724121</v>
       </c>
       <c r="K91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>0.109203577041626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4278,28 +5089,34 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>471</v>
+      </c>
+      <c r="G92" t="s">
+        <v>543</v>
+      </c>
+      <c r="H92" t="s">
+        <v>578</v>
       </c>
       <c r="I92">
-        <v>1.249918222427368</v>
+        <v>1.1715648174285891</v>
       </c>
       <c r="J92">
-        <v>51.94230771064758</v>
+        <v>28.556486368179321</v>
       </c>
       <c r="K92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>0.1096122264862061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4307,28 +5124,28 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="E93" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
       <c r="F93" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="I93">
-        <v>0.8591823577880859</v>
+        <v>3.2021970748901372</v>
       </c>
       <c r="J93">
-        <v>27.8399510383606</v>
+        <v>21.79518556594849</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4336,25 +5153,25 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="E94" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="I94">
-        <v>0.4530158042907715</v>
+        <v>0.46846318244934082</v>
       </c>
       <c r="J94">
-        <v>23.48235201835632</v>
+        <v>44.931560516357422</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4362,28 +5179,28 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="E95" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="F95" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="I95">
-        <v>0.8747670650482178</v>
+        <v>1.188946008682251</v>
       </c>
       <c r="J95">
-        <v>31.58815383911133</v>
+        <v>22.40213322639465</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4391,28 +5208,34 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E96" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="F96" t="s">
-        <v>417</v>
+        <v>474</v>
+      </c>
+      <c r="G96" t="s">
+        <v>544</v>
+      </c>
+      <c r="H96" t="s">
+        <v>553</v>
       </c>
       <c r="I96">
-        <v>0.9528994560241699</v>
+        <v>1.203100919723511</v>
       </c>
       <c r="J96">
-        <v>30.41565203666687</v>
+        <v>30.66538047790527</v>
       </c>
       <c r="K96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>0.1093490123748779</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4420,25 +5243,25 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="I97">
-        <v>0.4686160087585449</v>
+        <v>0.46863436698913569</v>
       </c>
       <c r="J97">
-        <v>28.94938778877258</v>
+        <v>28.935508251190189</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4446,28 +5269,34 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
       <c r="F98" t="s">
-        <v>418</v>
+        <v>475</v>
+      </c>
+      <c r="G98" t="s">
+        <v>545</v>
+      </c>
+      <c r="H98" t="s">
+        <v>579</v>
       </c>
       <c r="I98">
-        <v>0.8591804504394531</v>
+        <v>1.1246991157531741</v>
       </c>
       <c r="J98">
-        <v>25.04435157775879</v>
+        <v>23.947236061096191</v>
       </c>
       <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>9.3989133834838867E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4475,25 +5304,25 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
-        <v>333</v>
+        <v>397</v>
       </c>
       <c r="I99">
-        <v>0.4373950958251953</v>
+        <v>0.4373779296875</v>
       </c>
       <c r="J99">
-        <v>22.0138258934021</v>
+        <v>26.323610305786129</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4501,28 +5330,31 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="E100" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="F100" t="s">
-        <v>419</v>
+        <v>476</v>
+      </c>
+      <c r="G100" t="s">
+        <v>546</v>
       </c>
       <c r="I100">
-        <v>0.9060337543487549</v>
+        <v>1.483763694763184</v>
       </c>
       <c r="J100">
-        <v>45.30279016494751</v>
+        <v>53.099527597427368</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4530,22 +5362,19 @@
         <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="E101" t="s">
-        <v>334</v>
-      </c>
-      <c r="F101" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="I101">
-        <v>1.202830076217651</v>
+        <v>0.40592408180236822</v>
       </c>
       <c r="J101">
-        <v>23.37271451950073</v>
+        <v>25.85521388053894</v>
       </c>
       <c r="K101">
         <v>0</v>

--- a/lod_analysis/excels/albums_full.xlsx
+++ b/lod_analysis/excels/albums_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fabio\Basso\Università\5° Anno 2021-2022 (Magistrale AI)\Sistemi Informativi e Web Semantico\Progetto SIWS\Music World 2.0\lod_analysis\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB3334-8068-4E94-90FF-68061062BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C69D65-C4C3-4816-B15E-242248BA9F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="albums_full.xlsx" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="578">
   <si>
     <t>album_id</t>
   </si>
@@ -52,1717 +52,1708 @@
     <t>geonames_download_time</t>
   </si>
   <si>
+    <t>5UwIyIyFzkM7wKeGtRJPgB</t>
+  </si>
+  <si>
+    <t>2Pz8VAMiGc9UW1rrbBRDuO</t>
+  </si>
+  <si>
+    <t>5MzwGwnO9gkh0z6Nl4FF8h</t>
+  </si>
+  <si>
+    <t>3kTUIz5PEmQzn5WA1NGRoF</t>
+  </si>
+  <si>
+    <t>6it58NcwmKI9xz4xyJ9xNH</t>
+  </si>
+  <si>
+    <t>1mSZczipThBKvKtTIuOyzl</t>
+  </si>
+  <si>
+    <t>7r14xPWDHH2ao9gLrDxHMd</t>
+  </si>
+  <si>
+    <t>0ks45m1bsP2JsZpM5D2FFA</t>
+  </si>
+  <si>
+    <t>2xg7iIKoSqaDNpDbJnyCjY</t>
+  </si>
+  <si>
+    <t>0tGht9KBhk71vOJCHZzhVk</t>
+  </si>
+  <si>
+    <t>4OTAx9un4e6NfoHuVRiOrC</t>
+  </si>
+  <si>
+    <t>5cjJRrzeVRE79YXiTSCbVf</t>
+  </si>
+  <si>
+    <t>1fqibtpI0bwD73uQGeEnhn</t>
+  </si>
+  <si>
+    <t>4QkB5FT0hN3KWQeeF5Bih5</t>
+  </si>
+  <si>
+    <t>2bfvV9aRLN1BseXz4FbVnW</t>
+  </si>
+  <si>
+    <t>2p9gK2BcdrloHNJwarc9gc</t>
+  </si>
+  <si>
+    <t>5TMnKX3SaYXgYsmFuH8mxB</t>
+  </si>
+  <si>
+    <t>09qthhxzyVbqYPBZ5IBnH1</t>
+  </si>
+  <si>
+    <t>5R4nunnQpi3Kh2t5UeMxYS</t>
+  </si>
+  <si>
+    <t>3ilXDEG0xiajK8AbqboeJz</t>
+  </si>
+  <si>
+    <t>1jxLnjnpfQFoG0yDZivjYc</t>
+  </si>
+  <si>
+    <t>1cUnNrx2TxvrpwPRtvpGwn</t>
+  </si>
+  <si>
+    <t>1vmQ81rwrqlvHvfn0ep9kT</t>
+  </si>
+  <si>
+    <t>7eLwoxxWs6lfkVYJGkGNbk</t>
+  </si>
+  <si>
+    <t>1B7H7p6lXjynd6RlJyAyR9</t>
+  </si>
+  <si>
+    <t>1CEODgTmTwLyabvwd7HBty</t>
+  </si>
+  <si>
+    <t>3CKZeULkfgdFS8I9NObQnN</t>
+  </si>
+  <si>
+    <t>6mm1Skz3JE6AXneya9Nyiv</t>
+  </si>
+  <si>
+    <t>700MviIgFKNTldTXmOAFOr</t>
+  </si>
+  <si>
+    <t>6lqE05fiHWJVYYdMVJNj38</t>
+  </si>
+  <si>
+    <t>1GbtB4zTqAsyfZEsm1RZfx</t>
+  </si>
+  <si>
+    <t>4TaKGJaappn4hWMuLdwUEF</t>
+  </si>
+  <si>
+    <t>1XkGORuUX2QGOEIL4EbJKm</t>
+  </si>
+  <si>
+    <t>3ebyEGol0Abc7VAxYf7vEg</t>
+  </si>
+  <si>
+    <t>6rlTdXLpnOufwfL0SbWLDf</t>
+  </si>
+  <si>
+    <t>03RdxRparvZ2qgWFf1vGeD</t>
+  </si>
+  <si>
+    <t>71clfVkkopYLrgweVj2cow</t>
+  </si>
+  <si>
+    <t>1xv2tk1BfkAn2wHpIdmyqm</t>
+  </si>
+  <si>
     <t>1fyLNx6wxgDA59wFInnyup</t>
   </si>
   <si>
-    <t>2v9PjvIkQVnyQdtD1iQD7e</t>
-  </si>
-  <si>
-    <t>6koDBGMqurYl3EZnaxCF7N</t>
-  </si>
-  <si>
-    <t>4yrrPNjd9RcqnuDnoEhlER</t>
-  </si>
-  <si>
-    <t>1w5Idra65UuHmtB5Dx0Nxt</t>
-  </si>
-  <si>
-    <t>0uMIzWh1uEpHEBell4rlF8</t>
-  </si>
-  <si>
-    <t>2NRRQLuW6j3EsoWpIl2MR3</t>
-  </si>
-  <si>
-    <t>1FvdZ1oizXwF9bxogujoF0</t>
-  </si>
-  <si>
-    <t>17EANLCoErHdo9FpzMx25q</t>
-  </si>
-  <si>
-    <t>7j11BWRSLFBFUVR4EPG6WD</t>
-  </si>
-  <si>
-    <t>6j1k8wmYevBQURQjzl7tCt</t>
-  </si>
-  <si>
-    <t>2eidOWrCeH2sUMML9Ive4b</t>
-  </si>
-  <si>
-    <t>4X87hQ57jTYQTcYTaJWK5w</t>
-  </si>
-  <si>
-    <t>499LkyqISYrylHIGk2IkLx</t>
-  </si>
-  <si>
-    <t>1gB28ytYFQElaXngAfeYep</t>
-  </si>
-  <si>
-    <t>4E7bV0pzG0LciBSWTszra6</t>
-  </si>
-  <si>
-    <t>0ta5VdkJcpdVnNrn7g4cZe</t>
+    <t>1ne2D0NxoGyZd31gAM4HNd</t>
+  </si>
+  <si>
+    <t>3J8W9AOjQhnBLCX33m3atT</t>
+  </si>
+  <si>
+    <t>5218wVMa75jODZbM6oIa1j</t>
+  </si>
+  <si>
+    <t>0WSpHK6tinGHU4gvP8fHih</t>
+  </si>
+  <si>
+    <t>0TjgUvNEDN2PegfZVkoggi</t>
+  </si>
+  <si>
+    <t>4YimfceN1R0nOS9CefIFhm</t>
+  </si>
+  <si>
+    <t>5YlCHiZn44igfoWNFjP48v</t>
+  </si>
+  <si>
+    <t>6deiaArbeoqp1xPEGdEKp1</t>
+  </si>
+  <si>
+    <t>34hQFIwGTLf03BZQmGL0iy</t>
+  </si>
+  <si>
+    <t>2Kh43m04B1UkVcpcRa1Zug</t>
   </si>
   <si>
     <t>2zE1YKY7Okj10Tjl09jjth</t>
   </si>
   <si>
-    <t>4hBTxv4QRPePXCFcEI7Vjp</t>
-  </si>
-  <si>
-    <t>5ebh0MxkqELmk50xHj2b4k</t>
-  </si>
-  <si>
-    <t>1rYXSHYaxxQ9HclnAeVhxv</t>
-  </si>
-  <si>
-    <t>1ne2D0NxoGyZd31gAM4HNd</t>
-  </si>
-  <si>
-    <t>3ly9T2L4pqTZijFgQssd3x</t>
-  </si>
-  <si>
-    <t>28q2N44ocJECgf8sbHEDfY</t>
-  </si>
-  <si>
-    <t>0gsiszk6JWYwAyGvaTTud4</t>
-  </si>
-  <si>
-    <t>43zbrwwFHh5e7cmDQomx8Z</t>
-  </si>
-  <si>
-    <t>7d3nOmFvL51roNElAdpi9d</t>
-  </si>
-  <si>
-    <t>3xmKWmqJFoXS22tePO3mgd</t>
-  </si>
-  <si>
-    <t>4p9dVvZDaZliSjTCbFRhJy</t>
-  </si>
-  <si>
-    <t>53zV9rZ5yfWgigsmuJtYpG</t>
-  </si>
-  <si>
-    <t>1BAmE3bdBnxej0umzyHQ5x</t>
-  </si>
-  <si>
-    <t>6s84u2TUpR3wdUv4NgKA2j</t>
-  </si>
-  <si>
-    <t>4DyMK9x2gnmRkRa16zHaEV</t>
-  </si>
-  <si>
-    <t>0kys2jaKAiDPfNBd4z7LAg</t>
-  </si>
-  <si>
-    <t>2nJYViXh2aERzlshmKLH43</t>
-  </si>
-  <si>
-    <t>0dD1SMOKBDV1qBadcovw30</t>
-  </si>
-  <si>
-    <t>59eUYETmE1zi31ESb3SUkI</t>
-  </si>
-  <si>
-    <t>4CgsfLFMXaJVXz0k2mHkVA</t>
-  </si>
-  <si>
-    <t>0nPBJGadOVJw8e0cem1aG5</t>
+    <t>6VIiHu2RCwWo4151YCG7ND</t>
+  </si>
+  <si>
+    <t>2Pw51hAGvWpTA3AYl2WVuu</t>
+  </si>
+  <si>
+    <t>68enXe5XcJdciSDAZr0Alr</t>
+  </si>
+  <si>
+    <t>1uyF93NDsuRn4LqZIl3lyY</t>
+  </si>
+  <si>
+    <t>7dxKtc08dYeRVHt3p9CZJn</t>
+  </si>
+  <si>
+    <t>5yrouz3mmUWSsCufl1tLUJ</t>
+  </si>
+  <si>
+    <t>1vAEF8F0HoRFGiYOEeJXHW</t>
+  </si>
+  <si>
+    <t>0rVHRa6rcK9ECNDIvEHTSV</t>
+  </si>
+  <si>
+    <t>0zzrCTzvL4ZmR42xF46Afm</t>
+  </si>
+  <si>
+    <t>34y7m68F7rN9ou6m5GWohR</t>
+  </si>
+  <si>
+    <t>6LMC7ZuVNDUQ0tHpGKdd9K</t>
+  </si>
+  <si>
+    <t>4Vwy2RelnRLfsVsuCnJ2Lb</t>
+  </si>
+  <si>
+    <t>6TMZIKVazinI7I3yAQ1IwM</t>
+  </si>
+  <si>
+    <t>1zcm3UvHNHpseYOUfd0pna</t>
+  </si>
+  <si>
+    <t>6cdbsUYFysGXOh5fqWpIuR</t>
+  </si>
+  <si>
+    <t>0dZB8UHYsM7jKmm7ByzAVq</t>
+  </si>
+  <si>
+    <t>6lox5NV29L4QQmLuAvBXuP</t>
+  </si>
+  <si>
+    <t>40squs3MkwvdLQI8FJ9A6p</t>
+  </si>
+  <si>
+    <t>5CZR6ljD0x9fTiS4mh9wMp</t>
+  </si>
+  <si>
+    <t>2xXTqs2uDgtid7J4hnfzQL</t>
+  </si>
+  <si>
+    <t>2R2SusHMCwhf0ed78ajJUM</t>
+  </si>
+  <si>
+    <t>4lBrDelXR6Sn0k54a7UWMz</t>
+  </si>
+  <si>
+    <t>7DDzJCnzLdq6MhuRQlqx39</t>
+  </si>
+  <si>
+    <t>3jMUfZpBUTZOl91khbj4ic</t>
+  </si>
+  <si>
+    <t>2jnV6ytZOmt71iEC5xHEYz</t>
+  </si>
+  <si>
+    <t>1qJOmC60ez9RNWPg4ELMBW</t>
+  </si>
+  <si>
+    <t>2YBkamwn6VqpPO2wOfDVjS</t>
+  </si>
+  <si>
+    <t>2pkv3nrNrwtUdT8VNWwt5U</t>
+  </si>
+  <si>
+    <t>59RWOTMG259wspCYTvmW9x</t>
+  </si>
+  <si>
+    <t>2DmVNmERvg6j9jZQbelNKu</t>
+  </si>
+  <si>
+    <t>1BbtfepZFGgd58Ln2Rir8f</t>
+  </si>
+  <si>
+    <t>5sZeWcdXYHq9MbNDSOMqCP</t>
   </si>
   <si>
     <t>7xl50xr9NDkd3i2kBbzsNZ</t>
   </si>
   <si>
-    <t>5I099NUhbRrXaxnxQagElv</t>
-  </si>
-  <si>
-    <t>0HogGfosAvj4tF3GTv2KIE</t>
-  </si>
-  <si>
-    <t>2R2SusHMCwhf0ed78ajJUM</t>
-  </si>
-  <si>
-    <t>0W7mquARagPr9V1N0nHYgK</t>
-  </si>
-  <si>
-    <t>1xC5ZY2CNi8t1GbYSRwoUm</t>
-  </si>
-  <si>
-    <t>42UJjk8i8L0De7lQtu7sqi</t>
-  </si>
-  <si>
-    <t>6LY3AerY6KNGOPsNPL63Kk</t>
-  </si>
-  <si>
-    <t>1eNx9ftNTcXWE3G0XSyl1S</t>
-  </si>
-  <si>
-    <t>2p9gK2BcdrloHNJwarc9gc</t>
-  </si>
-  <si>
-    <t>3vLaOYCNCzngDf8QdBg2V1</t>
-  </si>
-  <si>
-    <t>2tlTBLz2w52rpGCLBGyGw6</t>
-  </si>
-  <si>
-    <t>6J9fX2iXc9W7ILQUWvEhAx</t>
-  </si>
-  <si>
-    <t>03srSIJshSQQOh2vJ3uVZi</t>
-  </si>
-  <si>
-    <t>718KJ6VFOdcqCFCWykJKoG</t>
-  </si>
-  <si>
-    <t>7HlZFlk0jJq3Bb03AOyMTE</t>
-  </si>
-  <si>
-    <t>2xuoy4Qfrk9wlucZ8anDzE</t>
-  </si>
-  <si>
-    <t>6xQF1SfwVLRXTF1j5OZs5Y</t>
-  </si>
-  <si>
-    <t>4lBrDelXR6Sn0k54a7UWMz</t>
-  </si>
-  <si>
-    <t>3JSWZWeTHF4HDGt5Eozdy7</t>
-  </si>
-  <si>
-    <t>0RySAmM6oDPGSE03X3dzi1</t>
-  </si>
-  <si>
-    <t>6w36pmMA5bxECalu5rxQAw</t>
-  </si>
-  <si>
-    <t>14rRGdr4K5UoaEFVw9jqBG</t>
-  </si>
-  <si>
-    <t>0Tnve4bDxyiBCRaj03qO8z</t>
-  </si>
-  <si>
-    <t>5IVJbSDDWbGjKbBczyifFl</t>
-  </si>
-  <si>
-    <t>0RhPpU4BvtF44qdvFnGQuh</t>
-  </si>
-  <si>
-    <t>1CwXS6MAz8Wo7K4TzW9iuR</t>
-  </si>
-  <si>
-    <t>2X8UOIkZQdcz2Hi5Ynt2uk</t>
-  </si>
-  <si>
-    <t>02Ird1pnGUdA6ruy87cxVa</t>
-  </si>
-  <si>
-    <t>1uFAUMUiDxxL59YZFlsou0</t>
-  </si>
-  <si>
-    <t>7skmxw0M4VQMZwY4lICAHl</t>
-  </si>
-  <si>
-    <t>6J84szYCnMfzEcvIcfWMFL</t>
-  </si>
-  <si>
-    <t>2BiHNvepMd4B0GefoCGmIq</t>
-  </si>
-  <si>
-    <t>2EVR73AnIDeYLxVDJIqObQ</t>
-  </si>
-  <si>
-    <t>5CTygC3aONv7l0klY4k3hc</t>
-  </si>
-  <si>
-    <t>0tGht9KBhk71vOJCHZzhVk</t>
-  </si>
-  <si>
-    <t>6DN7GcZF1HywzrkGN6Eeqk</t>
-  </si>
-  <si>
-    <t>6bNWz7bHK8M0xPfAPmFSRW</t>
-  </si>
-  <si>
-    <t>64Pv36CiG9rBcyvKnud02V</t>
-  </si>
-  <si>
-    <t>2bsemtYlVfVAQODavrDkS4</t>
-  </si>
-  <si>
-    <t>6cpOIdpPfGaazHsh5eYz0k</t>
-  </si>
-  <si>
-    <t>1TwNATuAqnNjTd5BSvFZlS</t>
-  </si>
-  <si>
-    <t>42G5ULkCRRl3crJMlg6eKd</t>
-  </si>
-  <si>
-    <t>0egRXi9lcYlIGJZ01SpYM3</t>
-  </si>
-  <si>
-    <t>0FRgdvEBohgk5trS7lEndW</t>
-  </si>
-  <si>
-    <t>1CsztoJYGwGURMCppulrOt</t>
-  </si>
-  <si>
-    <t>7ndqT6LH9o6YQ5uA7aT0St</t>
-  </si>
-  <si>
-    <t>6TTUtIFLwkgKJGrjoAbq8q</t>
-  </si>
-  <si>
-    <t>6iE4f7SmNoKRqm5yQBwyPl</t>
-  </si>
-  <si>
-    <t>65kIVEdb93smbnC7k4aie7</t>
-  </si>
-  <si>
-    <t>3QxX3NbWyLlLG6lP1xveL3</t>
-  </si>
-  <si>
-    <t>0dzqapIToiOhULGvzDKpXm</t>
-  </si>
-  <si>
-    <t>7pPGcOsBGole3gAgcBe35w</t>
-  </si>
-  <si>
-    <t>043vwbrz69dFkM7LL5bBo2</t>
-  </si>
-  <si>
-    <t>1K4t7Jv7DuolDWnFLxKxkd</t>
-  </si>
-  <si>
-    <t>7hkIf8sKiJKRjADB2xan74</t>
-  </si>
-  <si>
-    <t>15XNBzVWARPMlu0sEbfBjJ</t>
-  </si>
-  <si>
-    <t>00kOiUJakqkClL8Zthwa5W</t>
-  </si>
-  <si>
-    <t>44BtGGBJohrvoKVzmi1wij</t>
-  </si>
-  <si>
-    <t>3ifIxGNsG1XmLdoanRRIWB</t>
-  </si>
-  <si>
-    <t>1ZH5g1RDq3GY1OvyD0w0s2</t>
+    <t>33pt9HBdGlAbRGBHQgsZsU</t>
+  </si>
+  <si>
+    <t>2dIGnmEIy1WZIcZCFSj6i8</t>
+  </si>
+  <si>
+    <t>0J5rAGrSlzzROSezNoI6Ag</t>
+  </si>
+  <si>
+    <t>6yEuIwTQpciH1qtj7mP5GK</t>
+  </si>
+  <si>
+    <t>18XFe4CPBgVezXkxZP6rTb</t>
+  </si>
+  <si>
+    <t>5fKL7vMTXvhR9tov8Kqt3u</t>
+  </si>
+  <si>
+    <t>0Ia2c7KTHgiw9nphwouaUQ</t>
+  </si>
+  <si>
+    <t>0Zp2eVzR9FW6lKX05lRpcu</t>
+  </si>
+  <si>
+    <t>4Cm1wXjw6YCbkaiZZGNiZ1</t>
+  </si>
+  <si>
+    <t>6VsJamdhvYKcnpwHAKULI0</t>
+  </si>
+  <si>
+    <t>1vbpW28Od2ATmVyAZ0QZ3j</t>
+  </si>
+  <si>
+    <t>3x2jF7blR6bFHtk4MccsyJ</t>
+  </si>
+  <si>
+    <t>6Fr2rQkZ383FcMqFyT7yPr</t>
+  </si>
+  <si>
+    <t>1AXk7nf6pCqLRrfPVJbZEj</t>
+  </si>
+  <si>
+    <t>4nhb6v5uYS3sPCfkCXJxh5</t>
+  </si>
+  <si>
+    <t>7I7yoD3GPwYuQcuKS8ZQuM</t>
+  </si>
+  <si>
+    <t>7cJ4oRwyJ5BU1oj29AquOM</t>
+  </si>
+  <si>
+    <t>The Sign</t>
+  </si>
+  <si>
+    <t>Kill This Love</t>
+  </si>
+  <si>
+    <t>The Immaculate Collection</t>
+  </si>
+  <si>
+    <t>Rockihnroll</t>
+  </si>
+  <si>
+    <t>Love Song Dedications</t>
+  </si>
+  <si>
+    <t>The Best Of Pato Banton</t>
+  </si>
+  <si>
+    <t>Schizophonic</t>
+  </si>
+  <si>
+    <t>Hail to the King</t>
+  </si>
+  <si>
+    <t>Moving Pictures (2011 Remaster)</t>
+  </si>
+  <si>
+    <t>Stereo Love</t>
+  </si>
+  <si>
+    <t>Love In The Future (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Going to Hell</t>
+  </si>
+  <si>
+    <t>Transformers: Revenge Of The Fallen The Album</t>
+  </si>
+  <si>
+    <t>Don't Worry About Me</t>
+  </si>
+  <si>
+    <t>The Best of Branigan</t>
+  </si>
+  <si>
+    <t>death bed (coffee for your head)</t>
+  </si>
+  <si>
+    <t>Wonderful Wonderful (Deluxe)</t>
+  </si>
+  <si>
+    <t>Singles: EBX3</t>
+  </si>
+  <si>
+    <t>18 Greatest Hits</t>
+  </si>
+  <si>
+    <t>Echoes, Silence, Patience &amp; Grace</t>
+  </si>
+  <si>
+    <t>Rock DJ</t>
+  </si>
+  <si>
+    <t>(Rotten Apples) The Smashing Pumpkins Greatest Hits</t>
+  </si>
+  <si>
+    <t>No Limits</t>
+  </si>
+  <si>
+    <t>Wild Ones</t>
+  </si>
+  <si>
+    <t>The Very Best Of UB40</t>
+  </si>
+  <si>
+    <t>Viva La Vida or Death and All His Friends</t>
+  </si>
+  <si>
+    <t>Women of 90s Pop</t>
+  </si>
+  <si>
+    <t>Oracular Spectacular</t>
+  </si>
+  <si>
+    <t>Alone, Pt. II</t>
+  </si>
+  <si>
+    <t>The Best Damn Thing (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>A Night At The Opera (2011 Remaster)</t>
+  </si>
+  <si>
+    <t>Around the World</t>
+  </si>
+  <si>
+    <t>Favourite Worst Nightmare</t>
+  </si>
+  <si>
+    <t>Unplugged (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Trouble</t>
+  </si>
+  <si>
+    <t>Super Hits</t>
+  </si>
+  <si>
+    <t>Beautiful Girls</t>
+  </si>
+  <si>
+    <t>20th Century Masters: The Millennium Collection: Best Of Scorpions</t>
   </si>
   <si>
     <t>Thank You</t>
   </si>
   <si>
-    <t>Bury The Hatchet</t>
-  </si>
-  <si>
-    <t>L.P.</t>
-  </si>
-  <si>
-    <t>Travelling Without Moving (Remastered)</t>
-  </si>
-  <si>
-    <t>The Very Best Of Sheryl Crow</t>
-  </si>
-  <si>
-    <t>Cloud Nine</t>
-  </si>
-  <si>
-    <t>Shake Your Money Maker</t>
-  </si>
-  <si>
-    <t>She's So Unusual</t>
-  </si>
-  <si>
-    <t>François</t>
-  </si>
-  <si>
-    <t>Order In Decline</t>
-  </si>
-  <si>
-    <t>Jagged Little Pill (25th Anniversary Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>The Gambler (Music From The Motion Picture)</t>
-  </si>
-  <si>
-    <t>Even In The Quietest Moments</t>
-  </si>
-  <si>
-    <t>Just Supposin'</t>
-  </si>
-  <si>
-    <t>Bad Reputation (Expanded Edition)</t>
-  </si>
-  <si>
-    <t>X&amp;Y</t>
-  </si>
-  <si>
-    <t>Achtung Baby (Deluxe Edition)</t>
+    <t>Illuminate</t>
+  </si>
+  <si>
+    <t>Heathens</t>
+  </si>
+  <si>
+    <t>Read My Lips</t>
+  </si>
+  <si>
+    <t>The Best Of 1980 - 1990</t>
+  </si>
+  <si>
+    <t>TY.O (International Version)</t>
+  </si>
+  <si>
+    <t>Once Upon A Time (Super Deluxe)</t>
+  </si>
+  <si>
+    <t>In Your Room</t>
+  </si>
+  <si>
+    <t>By the Way (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>I Do Not Want What I Haven't Got</t>
+  </si>
+  <si>
+    <t>Metallica</t>
   </si>
   <si>
     <t>The Reason (15th Anniversary Deluxe)</t>
   </si>
   <si>
-    <t>blink-182</t>
-  </si>
-  <si>
-    <t>Billy Idol</t>
-  </si>
-  <si>
-    <t>Von Anfang An...Bis Jetzt !</t>
-  </si>
-  <si>
-    <t>Illuminate</t>
-  </si>
-  <si>
-    <t>Different Class</t>
-  </si>
-  <si>
-    <t>There Is Nothing Left To Lose</t>
-  </si>
-  <si>
-    <t>Follow The Leader</t>
-  </si>
-  <si>
-    <t>Road to Ruin (40th Anniversary Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Insomniac</t>
-  </si>
-  <si>
-    <t>Wheatus</t>
-  </si>
-  <si>
-    <t>My Head Is An Animal</t>
-  </si>
-  <si>
-    <t>PCD</t>
-  </si>
-  <si>
-    <t>Forever Young (Super Deluxe Edition; 2019 Remaster)</t>
-  </si>
-  <si>
-    <t>SOUR</t>
-  </si>
-  <si>
-    <t>Laundry Service</t>
-  </si>
-  <si>
-    <t>Some Hearts</t>
-  </si>
-  <si>
-    <t>Flowers - The Hits Collection</t>
-  </si>
-  <si>
-    <t>Lick It Up</t>
-  </si>
-  <si>
-    <t>Everything Is 4</t>
-  </si>
-  <si>
-    <t>Bump Ahead [Expanded]</t>
-  </si>
-  <si>
-    <t>Smack My Bitch Up</t>
+    <t>Pelican West Plus</t>
+  </si>
+  <si>
+    <t>4 (Expanded)</t>
+  </si>
+  <si>
+    <t>Manic</t>
+  </si>
+  <si>
+    <t>Infinity 2008</t>
+  </si>
+  <si>
+    <t>OK Computer</t>
+  </si>
+  <si>
+    <t>Still Got The Blues</t>
+  </si>
+  <si>
+    <t>Night Visions (Deluxe)</t>
+  </si>
+  <si>
+    <t>Born Free</t>
+  </si>
+  <si>
+    <t>Without Me</t>
+  </si>
+  <si>
+    <t>Love Angel Music Baby</t>
+  </si>
+  <si>
+    <t>Folie à Deux</t>
+  </si>
+  <si>
+    <t>The Boy Who Died Wolf</t>
+  </si>
+  <si>
+    <t>Brothers (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Breakfast In America (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Come What(ever) May [10th Anniversary Edition]</t>
+  </si>
+  <si>
+    <t>Velociraptor!</t>
+  </si>
+  <si>
+    <t>Hello, Anxiety</t>
+  </si>
+  <si>
+    <t>Only By The Night</t>
+  </si>
+  <si>
+    <t>Get Close (2007 Remaster)</t>
+  </si>
+  <si>
+    <t>ALIVE</t>
+  </si>
+  <si>
+    <t>Take My Breath</t>
+  </si>
+  <si>
+    <t>The Seeds Of Love (Super Deluxe)</t>
+  </si>
+  <si>
+    <t>Floored</t>
+  </si>
+  <si>
+    <t>Lust For Life</t>
+  </si>
+  <si>
+    <t>Eve 6</t>
+  </si>
+  <si>
+    <t>It's My Life</t>
+  </si>
+  <si>
+    <t>Up Your Alley</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>I Feel Love</t>
+  </si>
+  <si>
+    <t>Stereo-Typical: A's, B's &amp; Rarities</t>
+  </si>
+  <si>
+    <t>Platinum &amp; Gold Collection</t>
   </si>
   <si>
     <t>Stadium Arcadium</t>
   </si>
   <si>
-    <t>The Best Of 1990-2000</t>
-  </si>
-  <si>
-    <t>Break the Cycle</t>
-  </si>
-  <si>
-    <t>ALIVE</t>
-  </si>
-  <si>
-    <t>Hangin' Tough</t>
-  </si>
-  <si>
-    <t>Back Together</t>
-  </si>
-  <si>
-    <t>Native</t>
-  </si>
-  <si>
-    <t>Born This Way (International Special Edition Version)</t>
-  </si>
-  <si>
-    <t>In the Meantime</t>
-  </si>
-  <si>
-    <t>death bed (coffee for your head)</t>
-  </si>
-  <si>
-    <t>Uptown Special</t>
-  </si>
-  <si>
-    <t>Minutes to Midnight</t>
-  </si>
-  <si>
-    <t>Best Of Montell Jordan</t>
-  </si>
-  <si>
-    <t>Lullabies To Paralyze</t>
-  </si>
-  <si>
-    <t>Death To The Pixies</t>
-  </si>
-  <si>
-    <t>Life For Rent</t>
-  </si>
-  <si>
-    <t>Kylie</t>
-  </si>
-  <si>
-    <t>Alternative</t>
-  </si>
-  <si>
-    <t>Take My Breath</t>
-  </si>
-  <si>
-    <t>Good Girl Gone Bad: Reloaded</t>
-  </si>
-  <si>
-    <t>Awake</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>Highly Evolved</t>
-  </si>
-  <si>
-    <t>Girls, Girls, Girls</t>
-  </si>
-  <si>
-    <t>PopArt: The Hits</t>
-  </si>
-  <si>
-    <t>Cornerstone</t>
-  </si>
-  <si>
-    <t>Save Me, San Francisco (Golden Gate Edition)</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Under The Iron Sea</t>
-  </si>
-  <si>
-    <t>The Very Best Of 1990 - 1997</t>
-  </si>
-  <si>
-    <t>That's How You Know (feat. Kid Ink &amp; Bebe Rexha)</t>
-  </si>
-  <si>
-    <t>Doo-Wops &amp; Hooligans</t>
-  </si>
-  <si>
-    <t>Australian Rock Hits</t>
-  </si>
-  <si>
-    <t>Sixteen Stone (Remastered)</t>
-  </si>
-  <si>
-    <t>The Young and The Hopeless</t>
-  </si>
-  <si>
-    <t>Stereo Love</t>
-  </si>
-  <si>
-    <t>The Marshall Mathers LP2 (Deluxe)</t>
-  </si>
-  <si>
-    <t>12 Inches Of Snow</t>
-  </si>
-  <si>
-    <t>Bright Lights (Lights Re-pack / Bonus Version)</t>
-  </si>
-  <si>
-    <t>lovehatetragedy</t>
-  </si>
-  <si>
-    <t>Happy Nation</t>
-  </si>
-  <si>
-    <t>Only One Flo (Part 1)</t>
-  </si>
-  <si>
-    <t>Into The Great Wide Open</t>
-  </si>
-  <si>
-    <t>Think Tank</t>
-  </si>
-  <si>
-    <t>Chronicles</t>
-  </si>
-  <si>
-    <t>Fush Yu Mang (20th Anniversary Edition)</t>
-  </si>
-  <si>
-    <t>Best of Volume 1</t>
-  </si>
-  <si>
-    <t>Kollected - The Best Of Kula Shaker</t>
-  </si>
-  <si>
-    <t>New Year's Eve - NYE 2018/2019</t>
-  </si>
-  <si>
-    <t>Document - 25th Anniversary Edition</t>
-  </si>
-  <si>
-    <t>Hypnotize</t>
-  </si>
-  <si>
-    <t>Stay Hungry</t>
-  </si>
-  <si>
-    <t>I Like How It Feels (Remixes)</t>
-  </si>
-  <si>
-    <t>Decode</t>
-  </si>
-  <si>
-    <t>Wild Planet</t>
-  </si>
-  <si>
-    <t>Actually</t>
-  </si>
-  <si>
-    <t>Tattoo You (2009 Re-Mastered)</t>
-  </si>
-  <si>
-    <t>Energique</t>
-  </si>
-  <si>
-    <t>Boom, Boom, Boom, Boom!!</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>Combat Rock (Remastered)</t>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Plastic Beach</t>
+  </si>
+  <si>
+    <t>Films About Ghosts: The Best Of...</t>
+  </si>
+  <si>
+    <t>Out Of Time (25th Anniversary Edition)</t>
+  </si>
+  <si>
+    <t>The Score (Expanded Edition)</t>
+  </si>
+  <si>
+    <t>Silver Side Up</t>
+  </si>
+  <si>
+    <t>Amplified Heart (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Speak And Spell (Deluxe)</t>
+  </si>
+  <si>
+    <t>Hand On The Torch</t>
+  </si>
+  <si>
+    <t>Monkey Business</t>
+  </si>
+  <si>
+    <t>Prolonging the Magic</t>
+  </si>
+  <si>
+    <t>Spice</t>
+  </si>
+  <si>
+    <t>Purpose (Deluxe)</t>
+  </si>
+  <si>
+    <t>Razorlight</t>
+  </si>
+  <si>
+    <t>Serena Williams' Spontaneous Speed</t>
+  </si>
+  <si>
+    <t>Megalithic Symphony</t>
+  </si>
+  <si>
+    <t>I Disappear</t>
+  </si>
+  <si>
+    <t>5ksRONqssB7BR161NTtJAm</t>
+  </si>
+  <si>
+    <t>41MozSoPIsD1dJM0CLPjZF</t>
+  </si>
+  <si>
+    <t>6tbjWDEIzxoDsBA1FuhfPW</t>
+  </si>
+  <si>
+    <t>1Yyag4BRejtPxsKTrSkKDz</t>
+  </si>
+  <si>
+    <t>3cniTumSiUysiPWXapGx1i</t>
+  </si>
+  <si>
+    <t>0cpt0xebTXatYk3KvnrU9m</t>
+  </si>
+  <si>
+    <t>5orH1OWgjAYUX8sZ5gihTv</t>
+  </si>
+  <si>
+    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
+  </si>
+  <si>
+    <t>2Hkut4rAAyrQxRdof7FVJq</t>
+  </si>
+  <si>
+    <t>6XwwFnewNgWp81MYMK8zLq</t>
+  </si>
+  <si>
+    <t>5y2Xq6xcjJb2jVM54GHK3t</t>
+  </si>
+  <si>
+    <t>2R57sY41L9XvGPiIgHOaYq</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>7dxF7y4hlGFazdArMsxbEx</t>
+  </si>
+  <si>
+    <t>4463nfFMmK1cwAWBQDwT5e</t>
+  </si>
+  <si>
+    <t>6bmlMHgSheBauioMgKv2tn</t>
+  </si>
+  <si>
+    <t>0C0XlULifJtAgn6ZNCW2eu</t>
+  </si>
+  <si>
+    <t>0z5DFXmhT4ZNzWElsM7V89</t>
+  </si>
+  <si>
+    <t>646StQO8yxIiI3niu1OHnG</t>
+  </si>
+  <si>
+    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
+  </si>
+  <si>
+    <t>2HcwFjNelS49kFbfvMxQYw</t>
+  </si>
+  <si>
+    <t>40Yq4vzPs9VNUrIBG5Jr2i</t>
+  </si>
+  <si>
+    <t>18JD8DVlD1fakDAw7E9LFC</t>
+  </si>
+  <si>
+    <t>0jnsk9HBra6NMjO2oANoPY</t>
+  </si>
+  <si>
+    <t>69MEO1AADKg1IZrq2XLzo5</t>
+  </si>
+  <si>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>0Je74SitssvJg1w4Ra2EK7</t>
+  </si>
+  <si>
+    <t>0SwO7SWeDHJijQ3XNS7xEE</t>
+  </si>
+  <si>
+    <t>7vk5e3vY1uw9plTHJAMwjN</t>
+  </si>
+  <si>
+    <t>0p4nmQO2msCgU4IF37Wi3j</t>
+  </si>
+  <si>
+    <t>1dfeR4HaWDbWqFHLkxsg1d</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>6PAt558ZEZl0DmdXlnjMgD</t>
+  </si>
+  <si>
+    <t>0z4gvV4rjIZ9wHck67ucSV</t>
+  </si>
+  <si>
+    <t>0f3EsoviYnRKTkmayI3cux</t>
+  </si>
+  <si>
+    <t>6S0dmVVn4udvppDhZIWxCr</t>
+  </si>
+  <si>
+    <t>27T030eWyCQRmDyuvr1kxY</t>
   </si>
   <si>
     <t>2UazAtjfzqBF0Nho2awK4z</t>
   </si>
   <si>
-    <t>7t0rwkOPGlDPEhaOcVtOt9</t>
-  </si>
-  <si>
-    <t>0gDg7FEsF4Y1jWddJJgcn4</t>
-  </si>
-  <si>
-    <t>6J7biCazzYhU3gM9j1wfid</t>
-  </si>
-  <si>
-    <t>4TKTii6gnOnUXQHyuo9JaD</t>
-  </si>
-  <si>
-    <t>23fqKkggKUBHNkbKtXEls4</t>
-  </si>
-  <si>
-    <t>5krkohEVJYw0qoB5VWwxaC</t>
-  </si>
-  <si>
-    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
-  </si>
-  <si>
-    <t>1yjAx9cww4f1QuAaN3dUI2</t>
-  </si>
-  <si>
-    <t>0qT79UgT5tY4yudH9VfsdT</t>
-  </si>
-  <si>
-    <t>6ogn9necmbUdCppmNnGOdi</t>
-  </si>
-  <si>
-    <t>36E7oYfz3LLRto6l2WmDcD</t>
+    <t>7n2wHs1TKAczGzO7Dd2rGr</t>
+  </si>
+  <si>
+    <t>3YQKmKGau1PzlVlkL1iodx</t>
+  </si>
+  <si>
+    <t>2cBh5lVMg222FFuRU7EfDE</t>
+  </si>
+  <si>
+    <t>51Blml2LZPmy7TTiAg47vQ</t>
+  </si>
+  <si>
+    <t>6MF9fzBmfXghAz953czmBC</t>
+  </si>
+  <si>
+    <t>6hN9F0iuULZYWXppob22Aj</t>
+  </si>
+  <si>
+    <t>1G1mX30GpUJqOr1QU2eBSs</t>
+  </si>
+  <si>
+    <t>0L8ExT028jH3ddEcZwqJJ5</t>
+  </si>
+  <si>
+    <t>4sD9znwiVFx9cgRPZ42aQ1</t>
+  </si>
+  <si>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>2MqhkhX4npxDZ62ObR5ELO</t>
+  </si>
+  <si>
+    <t>6imyM8T1Xbe8v2iZe41dR7</t>
+  </si>
+  <si>
+    <t>6IRouO5mvvfcyxtPDKMYFN</t>
+  </si>
+  <si>
+    <t>26VFTg2z8YR0cCuwLzESi2</t>
+  </si>
+  <si>
+    <t>4ME85YvMUi1hdqhbind7gy</t>
+  </si>
+  <si>
+    <t>4Z8W4fKeB5YxbusRsdQVPb</t>
+  </si>
+  <si>
+    <t>23wr9RJZg0PmYvVFyNkQ4j</t>
+  </si>
+  <si>
+    <t>53XhwfbYqKCa1cC15pYq2q</t>
+  </si>
+  <si>
+    <t>7dOBabd5O4CvKrg4iriHTM</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>4UXqAaa6dQYAk18Lv7PEgX</t>
+  </si>
+  <si>
+    <t>2pqd3HsfsvcBGtHvPOg6eg</t>
+  </si>
+  <si>
+    <t>7mnBLXK823vNxN3UWB7Gfz</t>
   </si>
   <si>
     <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
   </si>
   <si>
-    <t>4gIdjgLlvgEOz7MexDZzpM</t>
+    <t>6m30rs1IQqnWqV5nKMpU7U</t>
+  </si>
+  <si>
+    <t>49qiE8dj4JuNdpYGRPdKbF</t>
+  </si>
+  <si>
+    <t>11wRdbnoYqRddKBrpHt4Ue</t>
+  </si>
+  <si>
+    <t>5mqguTgtaoCMNMZD6txCh6</t>
+  </si>
+  <si>
+    <t>2qk9voo8llSGYcZ6xrBzKx</t>
+  </si>
+  <si>
+    <t>0GByy3DcfbQwDvXGCWmzv9</t>
+  </si>
+  <si>
+    <t>4Kxlr1PRlDKEB0ekOCyHgX</t>
+  </si>
+  <si>
+    <t>1Xyo4u8uXC1ZmMpatF05PJ</t>
+  </si>
+  <si>
+    <t>4bthk9UfsYUYdcFyqxmSUU</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>33EUXrFKGjpUSGacqEHhU4</t>
+  </si>
+  <si>
+    <t>4Eqd24yS5YcxI8b6Xfuwr8</t>
+  </si>
+  <si>
+    <t>5XTxV2ifoYkmNb13Gb6cKz</t>
   </si>
   <si>
     <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
   </si>
   <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
-  </si>
-  <si>
-    <t>51Blml2LZPmy7TTiAg47vQ</t>
-  </si>
-  <si>
-    <t>2MqhkhX4npxDZ62ObR5ELO</t>
-  </si>
-  <si>
-    <t>6FBDaR13swtiWwGhX1WQsP</t>
-  </si>
-  <si>
-    <t>7lzordPuZEXxwt9aoVZYmG</t>
-  </si>
-  <si>
-    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
-  </si>
-  <si>
-    <t>7n2wHs1TKAczGzO7Dd2rGr</t>
-  </si>
-  <si>
-    <t>7jy3rLJdDQY21OgRLCZ9sD</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>1co4F2pPNH8JjTutZkmgSm</t>
-  </si>
-  <si>
-    <t>7oPftvlwr6VrsViSDV7fJY</t>
-  </si>
-  <si>
-    <t>4mYFgEjpQT4IKOrjOUKyXu</t>
-  </si>
-  <si>
-    <t>4dwdTW1Lfiq0cM8nBAqIIz</t>
-  </si>
-  <si>
-    <t>6wPhSqRtPu1UhRCDX5yaDJ</t>
-  </si>
-  <si>
-    <t>0xliTEbFfy5HQHvsTknTkX</t>
-  </si>
-  <si>
-    <t>1McMsnEElThX1knmY4oliG</t>
-  </si>
-  <si>
-    <t>0EmeFodog0BfCgMzAIvKQp</t>
-  </si>
-  <si>
-    <t>4xFUf1FHVy696Q1JQZMTRj</t>
-  </si>
-  <si>
-    <t>26PDtWYDJ1KD0brukKsJH1</t>
-  </si>
-  <si>
-    <t>07XSN3sPlIlB2L2XNcTwJw</t>
-  </si>
-  <si>
-    <t>07YZf4WDAMNwqr4jfgOZ8y</t>
-  </si>
-  <si>
-    <t>5OfhOoKunSnuubxxRML8J3</t>
-  </si>
-  <si>
-    <t>4k1ELeJKT1ISyDv8JivPpB</t>
-  </si>
-  <si>
-    <t>0L8ExT028jH3ddEcZwqJJ5</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>4Kxlr1PRlDKEB0ekOCyHgX</t>
-  </si>
-  <si>
-    <t>55qiaow2sDYtjqu1mwRua6</t>
-  </si>
-  <si>
-    <t>0ZrpamOxcZybMHGg1AYtHP</t>
-  </si>
-  <si>
-    <t>5Pwc4xIPtQLFEnJriah9YJ</t>
-  </si>
-  <si>
-    <t>1HY2Jd0NmPuamShAr6KMms</t>
-  </si>
-  <si>
-    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
-  </si>
-  <si>
-    <t>6bmlMHgSheBauioMgKv2tn</t>
-  </si>
-  <si>
-    <t>3hv9jJF3adDNsBSIQDqcjp</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>0iVrCROxeyon7MZUW3MfzT</t>
-  </si>
-  <si>
-    <t>4pejUc4iciQfgdX6OKulQn</t>
-  </si>
-  <si>
-    <t>6zvul52xwTWzilBZl6BUbT</t>
-  </si>
-  <si>
-    <t>2mpeljBig2IXLXRAFO9AAs</t>
-  </si>
-  <si>
-    <t>4RVnAU35WRWra6OZ3CbbMA</t>
-  </si>
-  <si>
-    <t>0TcYeHEK9sBtv7xPbKhzHz</t>
-  </si>
-  <si>
-    <t>1Xyo4u8uXC1ZmMpatF05PJ</t>
-  </si>
-  <si>
-    <t>5pKCCKE2ajJHZ9KAiaK11H</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>06HL4z0CvFAxyc27GXpf02</t>
-  </si>
-  <si>
-    <t>7vkiEK5D7Gf0z4M1Va0CXD</t>
-  </si>
-  <si>
-    <t>0cc6vw3VN8YlIcvr1v7tBL</t>
-  </si>
-  <si>
-    <t>2ycnb8Er79LoH2AsR5ldjh</t>
-  </si>
-  <si>
-    <t>4salDzkGmfycRqNUbyBphh</t>
-  </si>
-  <si>
-    <t>3FUY2gzHeIiaesXtOAdB7A</t>
-  </si>
-  <si>
-    <t>3fMbdgg4jU18AjLCKBhRSm</t>
-  </si>
-  <si>
-    <t>53A0W3U0s8diEn9RhXQhVz</t>
-  </si>
-  <si>
-    <t>6BkcAbUkfIBM4XudxieMq8</t>
-  </si>
-  <si>
-    <t>0awl5piYwO0CDTHEkCjUhn</t>
-  </si>
-  <si>
-    <t>0du5cEVh5yTK9QJze8zA0C</t>
-  </si>
-  <si>
-    <t>622HMYOaiqowUmcd5t3b7t</t>
-  </si>
-  <si>
-    <t>78SHxLdtysAXgywQ4vE0Oa</t>
-  </si>
-  <si>
-    <t>5aYyPjAsLj7UzANzdupwnS</t>
-  </si>
-  <si>
-    <t>6XwwFnewNgWp81MYMK8zLq</t>
-  </si>
-  <si>
-    <t>7dGJo4pcD2V6oG8kP0tJRR</t>
-  </si>
-  <si>
-    <t>3uZFBSsMiooimnprFL9jD1</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>5ksRONqssB7BR161NTtJAm</t>
-  </si>
-  <si>
-    <t>0jnsk9HBra6NMjO2oANoPY</t>
-  </si>
-  <si>
-    <t>4tX2TplrkIP4v05BNC903e</t>
-  </si>
-  <si>
-    <t>7MhMgCo0Bl0Kukl93PZbYS</t>
-  </si>
-  <si>
-    <t>5gxynDEKwNDgxGJmJjZyte</t>
-  </si>
-  <si>
-    <t>2iEvnFsWxR0Syqu2JNopAd</t>
-  </si>
-  <si>
-    <t>2cnMpRsOVqtPMfq7YiFE6K</t>
-  </si>
-  <si>
-    <t>6bGcpvHbRHg8s0wiNyIZK1</t>
-  </si>
-  <si>
-    <t>23zg3TcAtWQy7J6upgbUnj</t>
+    <t>5ApKaVHAStk5kAuyBW1wG8</t>
+  </si>
+  <si>
+    <t>2wY79sveU1sp5g7SokKOiI</t>
+  </si>
+  <si>
+    <t>6xnvNmSzmeOE1bLKnYXKW3</t>
+  </si>
+  <si>
+    <t>32lVGr0fSRGT6okLKHiP68</t>
+  </si>
+  <si>
+    <t>3AA28KZvwAUcZuOKwyblJQ</t>
+  </si>
+  <si>
+    <t>0vEsuISMWAKNctLlUAhSZC</t>
   </si>
   <si>
     <t>4KWTAlx2RvbpseOGMEmROg</t>
   </si>
   <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>7b85ve82Sh36a3UAx74wut</t>
-  </si>
-  <si>
-    <t>7qG3b048QCHVRO5Pv1T5lw</t>
-  </si>
-  <si>
-    <t>74XFHRwlV6OrjEM0A2NCMF</t>
-  </si>
-  <si>
-    <t>3gdbcIdNypBsYNu3iiCjtN</t>
-  </si>
-  <si>
-    <t>22bE4uQ6baNwSHPVcDxLCe</t>
-  </si>
-  <si>
-    <t>07lbidCU8ZwtNCUrmaO0QU</t>
-  </si>
-  <si>
-    <t>0cwmNvclzPd8mQnoHuIksj</t>
-  </si>
-  <si>
-    <t>3RGLhK1IP9jnYFH4BRFJBS</t>
+    <t>2WKdxPFRD7IqZvlIAvhMgY</t>
+  </si>
+  <si>
+    <t>6deZN1bslXzeGvOLaLMOIF</t>
+  </si>
+  <si>
+    <t>13ccXrK7AmXb4TddMkE7jy</t>
+  </si>
+  <si>
+    <t>762310PdDnwsDxAQxzQkfX</t>
+  </si>
+  <si>
+    <t>4LtIfuFeAamus9OOItuWDD</t>
+  </si>
+  <si>
+    <t>1yxSLGMDHlW21z4YXirZDS</t>
+  </si>
+  <si>
+    <t>6A43Djmhbe9100UwnI7epV</t>
+  </si>
+  <si>
+    <t>0uq5PttqEjj3IH1bzwcrXF</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>450iujbtN6XgiA9pv6fVZz</t>
+  </si>
+  <si>
+    <t>5ILrArfIV0tMURcHJN8Q07</t>
+  </si>
+  <si>
+    <t>4njdEjTnLfcGImKZu1iSrz</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>BLACKPINK</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>The Greg Kihn Band</t>
+  </si>
+  <si>
+    <t>Cutting Crew</t>
+  </si>
+  <si>
+    <t>Pato Banton</t>
+  </si>
+  <si>
+    <t>Geri Halliwell</t>
+  </si>
+  <si>
+    <t>Avenged Sevenfold</t>
+  </si>
+  <si>
+    <t>Rush</t>
+  </si>
+  <si>
+    <t>Edward Maya</t>
+  </si>
+  <si>
+    <t>John Legend</t>
+  </si>
+  <si>
+    <t>The Pretty Reckless</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Joey Ramone</t>
+  </si>
+  <si>
+    <t>Laura Branigan</t>
+  </si>
+  <si>
+    <t>Powfu</t>
+  </si>
+  <si>
+    <t>The Killers</t>
+  </si>
+  <si>
+    <t>Erasure</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Foo Fighters</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>The Smashing Pumpkins</t>
+  </si>
+  <si>
+    <t>2 Unlimited</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>UB40</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>4 Non Blondes</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Avril Lavigne</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Men At Work</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Scorpions</t>
   </si>
   <si>
     <t>Stone Temple Pilots</t>
   </si>
   <si>
-    <t>The Cranberries</t>
-  </si>
-  <si>
-    <t>The Rembrandts</t>
-  </si>
-  <si>
-    <t>Jamiroquai</t>
-  </si>
-  <si>
-    <t>Sheryl Crow</t>
-  </si>
-  <si>
-    <t>Kygo</t>
-  </si>
-  <si>
-    <t>The Black Crowes</t>
-  </si>
-  <si>
-    <t>Cyndi Lauper</t>
-  </si>
-  <si>
-    <t>Desireless</t>
-  </si>
-  <si>
-    <t>Sum 41</t>
-  </si>
-  <si>
-    <t>Alanis Morissette</t>
-  </si>
-  <si>
-    <t>Pulp</t>
+    <t>Shawn Mendes</t>
+  </si>
+  <si>
+    <t>Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>Sophie Ellis-Bextor</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Taio Cruz</t>
+  </si>
+  <si>
+    <t>Simple Minds</t>
+  </si>
+  <si>
+    <t>Yazoo</t>
+  </si>
+  <si>
+    <t>Red Hot Chili Peppers</t>
+  </si>
+  <si>
+    <t>Sinéad O'Connor</t>
+  </si>
+  <si>
+    <t>Hoobastank</t>
+  </si>
+  <si>
+    <t>Haircut 100</t>
+  </si>
+  <si>
+    <t>Foreigner</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>Guru Josh Project</t>
+  </si>
+  <si>
+    <t>Radiohead</t>
+  </si>
+  <si>
+    <t>Gary Moore</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Kid Rock</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>Highly Suspect</t>
+  </si>
+  <si>
+    <t>The Black Keys</t>
   </si>
   <si>
     <t>Supertramp</t>
   </si>
   <si>
-    <t>Status Quo</t>
+    <t>Ohio Players</t>
+  </si>
+  <si>
+    <t>Stone Sour</t>
+  </si>
+  <si>
+    <t>Kasabian</t>
+  </si>
+  <si>
+    <t>Phum Viphurit</t>
+  </si>
+  <si>
+    <t>Kings of Leon</t>
+  </si>
+  <si>
+    <t>Pretenders</t>
+  </si>
+  <si>
+    <t>BIGBANG</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
+    <t>Tears For Fears</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>Sash!</t>
   </si>
   <si>
     <t>Joan Jett &amp; The Blackhearts</t>
   </si>
   <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Hoobastank</t>
-  </si>
-  <si>
-    <t>Peter Schilling</t>
-  </si>
-  <si>
-    <t>Shawn Mendes</t>
-  </si>
-  <si>
-    <t>Foo Fighters</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Ramones</t>
-  </si>
-  <si>
-    <t>Green Day</t>
-  </si>
-  <si>
-    <t>Of Monsters and Men</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls</t>
-  </si>
-  <si>
-    <t>Alphaville</t>
-  </si>
-  <si>
-    <t>Olivia Rodrigo</t>
-  </si>
-  <si>
-    <t>Shakira</t>
-  </si>
-  <si>
-    <t>Carrie Underwood</t>
-  </si>
-  <si>
-    <t>Jennifer Paige</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
-  </si>
-  <si>
-    <t>Mr. Big</t>
-  </si>
-  <si>
-    <t>The Prodigy</t>
-  </si>
-  <si>
-    <t>Red Hot Chili Peppers</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>BIGBANG</t>
-  </si>
-  <si>
-    <t>New Kids On The Block</t>
-  </si>
-  <si>
-    <t>Robin Thicke</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Spacehog</t>
-  </si>
-  <si>
-    <t>Powfu</t>
-  </si>
-  <si>
-    <t>Mark Ronson</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Montell Jordan</t>
-  </si>
-  <si>
-    <t>Queens of the Stone Age</t>
-  </si>
-  <si>
-    <t>Pixies</t>
-  </si>
-  <si>
-    <t>Dido</t>
-  </si>
-  <si>
-    <t>Kylie Minogue</t>
-  </si>
-  <si>
-    <t>Chumbawamba</t>
-  </si>
-  <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>The Vines</t>
-  </si>
-  <si>
-    <t>Mötley Crüe</t>
-  </si>
-  <si>
-    <t>Pet Shop Boys</t>
-  </si>
-  <si>
-    <t>Styx</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Michael Jackson</t>
-  </si>
-  <si>
-    <t>Keane</t>
-  </si>
-  <si>
-    <t>Dr. Alban</t>
-  </si>
-  <si>
-    <t>Nico &amp; Vinz</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
-    <t>Good Charlotte</t>
-  </si>
-  <si>
-    <t>Edward Maya</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>Ace of Base</t>
-  </si>
-  <si>
-    <t>Flo Rida</t>
-  </si>
-  <si>
-    <t>Tom Petty and the Heartbreakers</t>
-  </si>
-  <si>
-    <t>Blur</t>
-  </si>
-  <si>
-    <t>Steve Winwood</t>
-  </si>
-  <si>
-    <t>Smash Mouth</t>
-  </si>
-  <si>
-    <t>Van Halen</t>
-  </si>
-  <si>
-    <t>Kula Shaker</t>
-  </si>
-  <si>
-    <t>Usher</t>
+    <t>Yazz</t>
+  </si>
+  <si>
+    <t>Sam Smith</t>
+  </si>
+  <si>
+    <t>The Specials</t>
+  </si>
+  <si>
+    <t>Taylor Dayne</t>
+  </si>
+  <si>
+    <t>Gorillaz</t>
+  </si>
+  <si>
+    <t>Counting Crows</t>
   </si>
   <si>
     <t>R.E.M.</t>
   </si>
   <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Twisted Sister</t>
-  </si>
-  <si>
-    <t>Enrique Iglesias</t>
-  </si>
-  <si>
-    <t>Paramore</t>
-  </si>
-  <si>
-    <t>The B-52's</t>
-  </si>
-  <si>
-    <t>The Rolling Stones</t>
-  </si>
-  <si>
-    <t>Bizarre Inc</t>
-  </si>
-  <si>
-    <t>Vengaboys</t>
-  </si>
-  <si>
-    <t>The Clash</t>
+    <t>Fugees</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>Everything But The Girl</t>
+  </si>
+  <si>
+    <t>Depeche Mode</t>
+  </si>
+  <si>
+    <t>Us3</t>
+  </si>
+  <si>
+    <t>Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>CAKE</t>
+  </si>
+  <si>
+    <t>Spice Girls</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Vanessa Carlton</t>
+  </si>
+  <si>
+    <t>AWOLNATION</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ace-of-base/The-sign', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Sign&lt;/em&gt; is the title of the North American release of &lt;a href="https://genius.com/artists/Ace-of-base" rel="noopener" data-api_path="/artists/39126"&gt;Ace of Base&lt;/a&gt;’s debut studio album &lt;em&gt;Happy Nation&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Happy Nation&lt;/em&gt; was released across Scandinavia on Christmas Eve 1992.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The Sign&lt;/em&gt; was released in North America on November 29, 1993.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The Sign&lt;/em&gt; is among the RIAA’s Top 100 Best-selling Albums of All Time.&lt;/p&gt;', 'producers': [{'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': 'Douglas Carr', 'url': 'https://genius.com/artists/Douglas-carr'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'Per Adebratt', 'url': 'https://genius.com/artists/Per-adebratt'}, {'name': 'T.O.E.C.', 'url': 'https://genius.com/artists/Toec'}, {'name': 'Tommy Ekman', 'url': 'https://genius.com/artists/Tommy-ekman'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'writers': [{'name': 'Albert Hammond', 'url': 'https://genius.com/artists/Albert-hammond'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Jenny Berggren', 'url': 'https://genius.com/artists/Jenny-berggren'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'Linn Berggren', 'url': 'https://genius.com/artists/Linn-berggren'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Blackpink/Kill-this-love-ep', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;KILL THIS LOVE&lt;/em&gt; is the second Korean EP by &lt;a href="https://genius.com/artists/Blackpink" rel="noopener" data-api_path="/artists/987404"&gt;BLACKPINK&lt;/a&gt;. It was released on April, 5, 2019, with the title track &lt;a href="https://genius.com/Blackpink-kill-this-love-lyrics" rel="noopener" data-api_path="/songs/4419431"&gt;“Kill This Love”&lt;/a&gt; being released at midnight globally (12AM(KST)) first, and then, other tracks. The song &lt;a href="https://genius.com/Blackpink-dont-know-what-to-do-lyrics" rel="noopener" data-api_path="/songs/4436511"&gt;“Don’t Know What To Do”&lt;/a&gt; is the EP’s sub-title track, and was used to promote the album along with the title track.&lt;/p&gt;\n\n&lt;p&gt;After almost a year of BLACKPINK’s last comeback with the mini-album &lt;a href="https://genius.com/albums/Blackpink/Square-up" rel="noopener" data-api_path="/albums/434217"&gt;&lt;em&gt;SQUARE  UP&lt;/em&gt;&lt;/a&gt;,  YG Entertainment released the first teaser of BLACKPINK’s new comeback, on March 25, 2019, posting on their official pages. The teaser features each member, &lt;a href="https://twitter.com/ygent_official/status/1109968203394875392" rel="noopener nofollow"&gt;Lisa&lt;/a&gt;, &lt;a href="https://twitter.com/ygent_official/status/1110338177510707200" rel="noopener nofollow"&gt;Jennie&lt;/a&gt;, &lt;a href="https://twitter.com/ygent_official/status/1110694217175584768" rel="noopener nofollow"&gt;Jisoo&lt;/a&gt; and &lt;a href="https://twitter.com/ygent_official/status/1111057269477642240" rel="noopener nofollow"&gt;Rosé&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On March, 27, 2019, YG Entertainment &lt;a href="https://entertain.v.daum.net/v/20190327092238021" rel="noopener nofollow"&gt;shared&lt;/a&gt; the official song description to the title track &lt;a href="https://genius.com/Blackpink-kill-this-love-lyrics" rel="noopener" data-api_path="/songs/4419431"&gt;“Kill This Love”&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The song revolves around lead/reed brass and drums which comes together with BLACKPINK’s overflowing charismatic rapping and vocals and is stronger than &lt;a href="https://genius.com/Blackpink-ddu-du-ddu-du-lyrics" rel="noopener" data-api_path="/songs/3762339"&gt;“뚜두뚜두 (DDU-DU DDU-DU)”&lt;/a&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;KILL THIS LOVE&lt;/em&gt; comes with &lt;a href="https://twitter.com/ygent_official/status/1113683024246218752" rel="noopener nofollow"&gt;two versions&lt;/a&gt;, the black and the pink version.&lt;/p&gt;', 'producers': [{'name': '24', 'url': 'https://genius.com/artists/24'}, {'name': 'Bekuh BOOM', 'url': 'https://genius.com/artists/Bekuh-boom'}, {'name': 'Lydia Paek', 'url': 'https://genius.com/artists/Lydia-paek'}, {'name': 'R.Tee', 'url': 'https://genius.com/artists/Rtee'}, {'name': '서원진 (Seo Wonjin)', 'url': 'https://genius.com/artists/Seo-wonjin'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}], 'writers': [{'name': 'Bekuh BOOM', 'url': 'https://genius.com/artists/Bekuh-boom'}, {'name': 'Brian Lee', 'url': 'https://genius.com/artists/Brian-lee'}, {'name': 'Danny Chung', 'url': 'https://genius.com/artists/Danny-chung'}, {'name': 'Masta Wu', 'url': 'https://genius.com/artists/Masta-wu'}, {'name': 'TAEO', 'url': 'https://genius.com/artists/Taeo'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Madonna/The-immaculate-collection', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Immaculate Collection&lt;/em&gt; is &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s first greatest hits album and her most sold record. Its title is a pun with &lt;a href="https://en.wikipedia.org/wiki/Immaculate_Conception" rel="noopener nofollow"&gt;The Immaculate Conception&lt;/a&gt;, the conception of the Virgin Mary without sin. In the album booklet, Madonna says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This album is dedicated to ‘&lt;em&gt;The Pope&lt;/em&gt;’, my divine inspiration.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album comes with 15 tracks from Madonna’s previous works, as well as two new songs that were released as singles: “&lt;a href="https://genius.com/Madonna-justify-my-love-lyrics" rel="noopener" data-api_path="/songs/318468"&gt;Justify My Love&lt;/a&gt;” and “&lt;a href="https://genius.com/Madonna-rescue-me-lyrics" rel="noopener" data-api_path="/songs/318558"&gt;Rescue Me&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;All tracks except the two singles were remixed by &lt;a href="https://genius.com/artists/Shep-pettibone" rel="noopener" data-api_path="/artists/60709"&gt;Shep Pettibone&lt;/a&gt;, Goh Hotoda and Michael Hutchinson through &lt;a href="https://en.wikipedia.org/wiki/QSound" rel="noopener nofollow"&gt;QSound&lt;/a&gt;, a then-new technology that gives recordings three-dimensional sound on standard stereo systems. It became the &lt;a href="https://worldradiohistory.com/Archive-Billboard/90s/1990/BB-1990-11-24.pdf#page=8" rel="noopener nofollow"&gt;first album ever released&lt;/a&gt; to feature that technology. On the process, &lt;a href="https://www.billboard.com/articles/columns/pop-shop/6575923/vogue-producer-shep-pettibone-interview" rel="noopener nofollow"&gt;Pettibone commented&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Well, actually some of the songs we changed up a bit, but most of the songs we kept in their original form. Like “Holiday”, “Lucky Star”, et cetera, et cetera, those were all the original productions. The remix was just really to create the Q Sound, and make the song kind of envelop you when you listened to it in a certain sweet spot in front of the speakers […] That wasn’t easy to do. But then again, that was one of those – you know, ‘Hurry up, this has to be out last week’. That was a rush rush job.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;With over &lt;a href="https://citygirlnetwork.com/magazine/madonnas-immaculate-collection" rel="noopener nofollow"&gt;31 million copies&lt;/a&gt; sold worldwide, &lt;em&gt;The Immaculate Collection&lt;/em&gt; is the best-selling compilation album by a solo artist and one of the best-selling albums of all time.&lt;/p&gt;', 'producers': [{'name': 'Jellybean', 'url': 'https://genius.com/artists/Jellybean'}, {'name': 'Lenny Kravitz', 'url': 'https://genius.com/artists/Lenny-kravitz'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Nile Rodgers', 'url': 'https://genius.com/artists/Nile-rodgers'}, {'name': 'Patrick Leonard', 'url': 'https://genius.com/artists/Patrick-leonard'}, {'name': 'Reggie Lucas', 'url': 'https://genius.com/artists/Reggie-lucas'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Stephen Bray', 'url': 'https://genius.com/artists/Stephen-bray'}], 'writers': [{'name': 'Billy Steinberg', 'url': 'https://genius.com/artists/Billy-steinberg'}, {'name': 'Brian Elliot', 'url': 'https://genius.com/artists/Brian-elliot'}, {'name': 'Bruce Gaitsch', 'url': 'https://genius.com/artists/Bruce-gaitsch'}, {'name': 'Curtis Hudson', 'url': 'https://genius.com/artists/Curtis-hudson'}, {'name': 'Gardner Cole', 'url': 'https://genius.com/artists/Gardner-cole'}, {'name': 'Ingrid Chavez', 'url': 'https://genius.com/artists/Ingrid-chavez'}, {'name': 'John Bettis', 'url': 'https://genius.com/artists/John-bettis'}, {'name': 'Jon Lind', 'url': 'https://genius.com/artists/Jon-lind'}, {'name': 'Lenny Kravitz', 'url': 'https://genius.com/artists/Lenny-kravitz'}, {'name': 'Lisa Stevens', 'url': 'https://genius.com/artists/Lisa-stevens'}, {'name': 'Madonna', 'url': 'https://genius.com/artists/Madonna'}, {'name': 'Patrick Leonard', 'url': 'https://genius.com/artists/Patrick-leonard'}, {'name': 'Peter Brown', 'url': 'https://genius.com/artists/Peter-brown'}, {'name': 'Peter Rafelson', 'url': 'https://genius.com/artists/Peter-rafelson'}, {'name': 'Reggie Lucas', 'url': 'https://genius.com/artists/Reggie-lucas'}, {'name': 'Robert Rans', 'url': 'https://genius.com/artists/Robert-rans'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Stephen Bray', 'url': 'https://genius.com/artists/Stephen-bray'}, {'name': 'Tom Kelly', 'url': 'https://genius.com/artists/Tom-kelly'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}, {'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Geri-halliwell/Schizophonic', 'annotations': {'description': '&lt;p&gt;The first solo album by the British singer Geri Halliwell after her departure from Spice Girls.&lt;/p&gt;', 'producers': [{'name': 'Absolute', 'url': 'https://genius.com/artists/Absolute'}], 'writers': [{'name': 'Andrew Watkins', 'url': 'https://genius.com/artists/Andrew-watkins'}, {'name': 'Geri Halliwell', 'url': 'https://genius.com/artists/Geri-halliwell'}, {'name': 'Paul Wilson', 'url': 'https://genius.com/artists/Paul-wilson'}, {'name': 'Tracy Ackerman', 'url': 'https://genius.com/artists/Tracy-ackerman'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Avenged-sevenfold/Hail-to-the-king', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Hail to the King&lt;/em&gt; is Avenged Sevenfold’s sixth studio album. It is also the first album without &lt;strong&gt;&lt;a href="https://genius.com/artists/Jimmy-the-rev-sullivan" rel="noopener" data-api_path="/artists/1097966"&gt;The Rev&lt;/a&gt;&lt;/strong&gt;, since he had recorded all of his parts for &lt;em&gt;&lt;a href="https://genius.com/albums/Avenged-sevenfold/Nightmare" rel="noopener" data-api_path="/albums/40808"&gt;Nightmare&lt;/a&gt;&lt;/em&gt; before passing away.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.billboard.com/charts/billboard-200/2013-09-14" rel="noopener nofollow"&gt;The album reached #1 on Billboard 200&lt;/a&gt; a couple of weeks after its release.&lt;/p&gt;', 'producers': [{'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'writers': [{'name': 'Johnny Christ', 'url': 'https://genius.com/artists/Johnny-christ'}, {'name': 'Mr. Shadow', 'url': 'https://genius.com/artists/Mr-shadow'}, {'name': 'M. Shadows', 'url': 'https://genius.com/artists/M-shadows'}, {'name': 'Synyster Gates', 'url': 'https://genius.com/artists/Synyster-gates'}, {'name': 'Zacky Vengeance', 'url': 'https://genius.com/artists/Zacky-vengeance'}], 'labels': [{'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rush/Moving-pictures', 'annotations': {'description': '&lt;p&gt;After going on a tour in the U.S., Canada, and the U.K. in support of &lt;em&gt;&lt;a href="https://genius.com/albums/Rush/Permanent-waves" rel="noopener" data-api_path="/albums/39667"&gt;Permanent Waves&lt;/a&gt;&lt;/em&gt;, the band wanted to work on a follow-up instead of a live album, which is what they were scheduled to do. The bulk of the instrumentals were written and composed during sound checks while on tour, with Peart writing the lyrics while in the studio. That album, titled &lt;em&gt;Moving Pictures&lt;/em&gt;, would become the band’s best selling album, and feature some of their most iconic songs including “&lt;a href="https://genius.com/Rush-tom-sawyer-lyrics" rel="noopener" data-api_path="/songs/73033"&gt;Tom Sawyer&lt;/a&gt;” and the instrumental track “&lt;a href="https://genius.com/Rush-yyz-lyrics" rel="noopener" data-api_path="/songs/142069"&gt;YYZ&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Rush', 'url': 'https://genius.com/artists/Rush'}, {'name': 'Terry Brown', 'url': 'https://genius.com/artists/Terry-brown'}], 'writers': [{'name': 'Alex Lifeson', 'url': 'https://genius.com/artists/Alex-lifeson'}, {'name': 'Geddy Lee', 'url': 'https://genius.com/artists/Geddy-lee'}, {'name': 'Neil Peart', 'url': 'https://genius.com/artists/Neil-peart'}, {'name': 'Pye Dubois', 'url': 'https://genius.com/artists/Pye-dubois'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Edward-maya/The-stereo-love-show', 'annotations': {'description': '', 'producers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}], 'writers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}, {'name': 'Folk Adaptation', 'url': 'https://genius.com/artists/Folk-adaptation'}, {'name': 'Vika Jigulina', 'url': 'https://genius.com/artists/Vika-jigulina'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/John-legend/Love-in-the-future', 'annotations': {'description': '&lt;p&gt;John Legend’s fourth album, &lt;em&gt;Love in the Future&lt;/em&gt;, follows his 2008 album &lt;a href="https://genius.com/albums/John-legend/Evolver" rel="noopener" data-api_path="/albums/13004"&gt;&lt;em&gt;Evolver&lt;/em&gt;&lt;/a&gt; and his 2010 joint album &lt;a href="https://genius.com/albums/John-legend-and-the-roots/Wake-up" rel="noopener" data-api_path="/albums/8819"&gt;&lt;em&gt;Wake Up!&lt;/em&gt;&lt;/a&gt; with &lt;a href="https://genius.com/artists/The-roots" rel="noopener" data-api_path="/artists/244"&gt;The Roots&lt;/a&gt;. The album also came months before his marriage to supermodel Chrissy Teigen, the inspiration for the album’s #1 pop single &lt;a href="https://genius.com/John-legend-all-of-me-lyrics" rel="noopener" data-api_path="/songs/200930"&gt;“All of Me”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Along with his soul pop tunes, John Legend worked with a few rappers on this project, getting Rick Ross for the album’s first single “Who Do We Think We Are” and singing over Q-Tip’s production on “Tomorrow”, all while working side by side with executive producer Kanye West to put the whole project together.&lt;/p&gt;\n\n&lt;p&gt;Along with the multi-platinum single “All of Me” and “Who Do We Think We Are”, “Made to Love” and “You &amp;amp; I (Nobody in the World)” were also released as singles. The album peaked at #4 on the Billboard 200 and #2 on the R&amp;amp;B/Hip-Hop Albums charts on its way to Gold status in the U.S. and achieving Platinum status internationally.&lt;/p&gt;', 'producers': [{'name': '88-Keys', 'url': 'https://genius.com/artists/88-keys'}, {'name': 'Ali Shaheed Muhammad', 'url': 'https://genius.com/artists/Ali-shaheed-muhammad'}, {'name': 'Bink!', 'url': 'https://genius.com/artists/Bink'}, {'name': 'BoogzDaBeast', 'url': 'https://genius.com/artists/Boogzdabeast'}, {'name': 'Dave Tozer', 'url': 'https://genius.com/artists/Dave-tozer'}, {'name': 'David L. Anderson II', 'url': 'https://genius.com/artists/David-l-anderson-ii'}, {'name': 'DJ Camper', 'url': 'https://genius.com/artists/Dj-camper'}, {'name': 'Doc McKinney', 'url': 'https://genius.com/artists/Doc-mckinney'}, {'name': 'Hit-Boy', 'url': 'https://genius.com/artists/Hit-boy'}, {'name': 'Da Internz', 'url': 'https://genius.com/artists/Da-internz'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}, {'name': 'Jon David Anderson', 'url': 'https://genius.com/artists/Jon-david-anderson'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Ken Lewis', 'url': 'https://genius.com/artists/Ken-lewis'}, {'name': 'Malay', 'url': 'https://genius.com/artists/Malay'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Nana Kwabena', 'url': 'https://genius.com/artists/Nana-kwabena'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Q-Tip', 'url': 'https://genius.com/artists/Q-tip'}, {'name': 'The Runners', 'url': 'https://genius.com/artists/The-runners'}, {'name': 'Travis Scott', 'url': 'https://genius.com/artists/Travis-scott'}, {'name': 'The Twilite Tone', 'url': 'https://genius.com/artists/The-twilite-tone'}], 'writers': [{'name': '88-Keys', 'url': 'https://genius.com/artists/88-keys'}, {'name': 'Ali Shaheed Muhammad', 'url': 'https://genius.com/artists/Ali-shaheed-muhammad'}, {'name': 'Allan Rich', 'url': 'https://genius.com/artists/Allan-rich'}, {'name': 'Andrew Horowitz', 'url': 'https://genius.com/artists/Andrew-horowitz'}, {'name': 'Andrew Hurr', 'url': 'https://genius.com/artists/Andrew-hurr'}, {'name': 'Billy Mann', 'url': 'https://genius.com/artists/Billy-mann'}, {'name': 'Bobby Caldwell', 'url': 'https://genius.com/artists/Bobby-caldwell'}, {'name': 'Bruce Malament', 'url': 'https://genius.com/artists/Bruce-malament'}, {'name': 'Carol Washington', 'url': 'https://genius.com/artists/Carol-washington'}, {'name': 'Dan Wilson', 'url': 'https://genius.com/artists/Dan-wilson'}, {'name': 'Dave Tozer', 'url': 'https://genius.com/artists/Dave-tozer'}, {'name': 'David L. Anderson II', 'url': 'https://genius.com/artists/David-l-anderson-ii'}, {'name': 'David Schuler', 'url': 'https://genius.com/artists/David-schuler'}, {'name': 'DJ Camper', 'url': 'https://genius.com/artists/Dj-camper'}, {'name': 'Doc McKinney', 'url': 'https://genius.com/artists/Doc-mckinney'}, {'name': 'Dr. John', 'url': 'https://genius.com/artists/Dr-john'}, {'name': 'Ed Townsend', 'url': 'https://genius.com/artists/Ed-townsend'}, {'name': 'Ernest Clark', 'url': 'https://genius.com/artists/Ernest-clark'}, {'name': 'Guordan Banks', 'url': 'https://genius.com/artists/Guordan-banks'}, {'name': 'Hit-Boy', 'url': 'https://genius.com/artists/Hit-boy'}, {'name': 'Ingrid Michaelson', 'url': 'https://genius.com/artists/Ingrid-michaelson'}, {'name': 'Da Internz', 'url': 'https://genius.com/artists/Da-internz'}, {'name': 'James Fauntleroy', 'url': 'https://genius.com/artists/James-fauntleroy'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jessy Wilson', 'url': 'https://genius.com/artists/Jessy-wilson'}, {'name': 'Joe Jonas', 'url': 'https://genius.com/artists/Joe-jonas'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}, {'name': 'Jon David Anderson', 'url': 'https://genius.com/artists/Jon-david-anderson'}, {'name': 'Joseph Broussard', 'url': 'https://genius.com/artists/Joseph-broussard'}, {'name': 'Justin Baron', 'url': 'https://genius.com/artists/Justin-baron'}, {'name': 'Kanye West', 'url': 'https://genius.com/artists/Kanye-west'}, {'name': 'Kevin Cossom', 'url': 'https://genius.com/artists/Kevin-cossom'}, {'name': 'Kimbra', 'url': 'https://genius.com/artists/Kimbra'}, {'name': 'Lenny Kravitz', 'url': 'https://genius.com/artists/Lenny-kravitz'}, {'name': 'Lil Louis', 'url': 'https://genius.com/artists/Lil-louis'}, {'name': 'Malay', 'url': 'https://genius.com/artists/Malay'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Marshall Jefferson', 'url': 'https://genius.com/artists/Marshall-jefferson'}, {'name': 'Marvin Gaye', 'url': 'https://genius.com/artists/Marvin-gaye'}, {'name': 'Mayne Zane', 'url': 'https://genius.com/artists/Mayne-zane'}, {'name': 'Nana Kwabena', 'url': 'https://genius.com/artists/Nana-kwabena'}, {'name': 'Norman Harris', 'url': 'https://genius.com/artists/Norman-harris'}, {'name': 'Patrick Moten', 'url': 'https://genius.com/artists/Patrick-moten'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Q-Tip', 'url': 'https://genius.com/artists/Q-tip'}, {'name': 'Ralph Williams', 'url': 'https://genius.com/artists/Ralph-williams'}, {'name': 'Rick Ross', 'url': 'https://genius.com/artists/Rick-ross'}, {'name': 'Robert Miller', 'url': 'https://genius.com/artists/Robert-miller'}, {'name': 'Rob Etheridge', 'url': 'https://genius.com/artists/Rob-etheridge'}, {'name': 'Roosevelt Harrell', 'url': 'https://genius.com/artists/Roosevelt-harrell'}, {'name': 'Sandra Sully', 'url': 'https://genius.com/artists/Sandra-sully'}, {'name': 'Sara Bareilles', 'url': 'https://genius.com/artists/Sara-bareilles'}, {'name': 'Seal', 'url': 'https://genius.com/artists/Seal'}, {'name': 'Toby Gad', 'url': 'https://genius.com/artists/Toby-gad'}, {'name': 'Travis Scott', 'url': 'https://genius.com/artists/Travis-scott'}, {'name': 'The Twilite Tone', 'url': 'https://genius.com/artists/The-twilite-tone'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'G.O.O.D. Music', 'url': 'https://genius.com/artists/Good-music'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-pretty-reckless/Going-to-hell', 'annotations': {'description': '', 'producers': [{'name': 'Kato Khandwala', 'url': 'https://genius.com/artists/Kato-khandwala'}], 'writers': [{'name': 'Ben Phillips', 'url': 'https://genius.com/artists/Ben-phillips'}, {'name': 'Kato Khandwala', 'url': 'https://genius.com/artists/Kato-khandwala'}, {'name': 'Taylor Momsen', 'url': 'https://genius.com/artists/Taylor-momsen'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Joey-ramone/Dont-worry-about-me', 'annotations': {'description': '', 'producers': [{'name': 'Daniel Rey', 'url': 'https://genius.com/artists/Daniel-rey'}], 'writers': [{'name': 'Bob Thiele', 'url': 'https://genius.com/artists/Bob-thiele'}, {'name': 'George David Weiss', 'url': 'https://genius.com/artists/George-david-weiss'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Laura-branigan/The-best-of-branigan', 'annotations': {'description': '', 'producers': [{'name': 'Billy Branigan', 'url': 'https://genius.com/artists/Billy-branigan'}, {'name': 'Brinsley Evans', 'url': 'https://genius.com/artists/Brinsley-evans'}, {'name': 'David Kershenbaum', 'url': 'https://genius.com/artists/David-kershenbaum'}, {'name': 'Greg Mathieson', 'url': 'https://genius.com/artists/Greg-mathieson'}, {'name': 'Jack White (Producer)', 'url': 'https://genius.com/artists/Jack-white-producer'}, {'name': 'Laura Branigan', 'url': 'https://genius.com/artists/Laura-branigan'}, {'name': 'Phil Ramone', 'url': 'https://genius.com/artists/Phil-ramone'}, {'name': 'Robbie Buchanan', 'url': 'https://genius.com/artists/Robbie-buchanan'}], 'writers': [{'name': 'Billy Branigan', 'url': 'https://genius.com/artists/Billy-branigan'}, {'name': 'Bruce Roberts', 'url': 'https://genius.com/artists/Bruce-roberts'}, {'name': 'Burton Collins', 'url': 'https://genius.com/artists/Burton-collins'}, {'name': 'Candy DeRouge', 'url': 'https://genius.com/artists/Candy-derouge'}, {'name': 'Chuck Cochran', 'url': 'https://genius.com/artists/Chuck-cochran'}, {'name': 'David Palmer', 'url': 'https://genius.com/artists/David-palmer'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Donna Summer', 'url': 'https://genius.com/artists/Donna-summer'}, {'name': 'Doug James', 'url': 'https://genius.com/artists/Doug-james'}, {'name': 'Giancarlo Bigazzi', 'url': 'https://genius.com/artists/Giancarlo-bigazzi'}, {'name': 'Gunther Mende', 'url': 'https://genius.com/artists/Gunther-mende'}, {'name': 'Jennifer Rush', 'url': 'https://genius.com/artists/Jennifer-rush'}, {'name': 'Karen Taylor-Good', 'url': 'https://genius.com/artists/Karen-taylor-good'}, {'name': 'Laura Branigan', 'url': 'https://genius.com/artists/Laura-branigan'}, {'name': 'Martine Clémenceau', 'url': 'https://genius.com/artists/Martine-clemenceau'}, {'name': 'Mary Susan Applegate', 'url': 'https://genius.com/artists/Mary-susan-applegate'}, {'name': 'Michael Bolton', 'url': 'https://genius.com/artists/Michael-bolton'}, {'name': 'Raf', 'url': 'https://genius.com/artists/Raf'}, {'name': 'Steve Piccolo', 'url': 'https://genius.com/artists/Steve-piccolo'}, {'name': 'Trevor Veitch', 'url': 'https://genius.com/artists/Trevor-veitch'}, {'name': 'Umberto Tozzi', 'url': 'https://genius.com/artists/Umberto-tozzi'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-killers/Wonderful-wonderful', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Wonderful Wonderful&lt;/em&gt; is the fifth studio album by American rock band The Killers. It was released September 22nd via Island Records, five years after their previous album, &lt;a href="https://genius.com/albums/The-killers/Battle-born" rel="noopener" data-api_path="/albums/19003"&gt;&lt;i&gt;Battle Born&lt;/i&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Brandon Flowers &lt;a href="http://ew.com/music/2017/06/22/the-killers-new-album-wonderful-wonderful/" rel="noopener nofollow"&gt;described the album&lt;/a&gt; to be about what it means to be a man.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In your head it’s about being tough and bringing home the bacon, but what I’ve come to find is it’s really more about empathy and compassion.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The lead single from the album, “&lt;a href="https://genius.com/The-killers-the-man-lyrics" rel="noopener" data-api_path="/songs/3118912"&gt;The Man&lt;/a&gt;,” was released on June 14th 2017.  On July 26th, the second single “&lt;a href="https://twitter.com/elliottsounds/status/890016716742373376" rel="noopener nofollow"&gt;Run for Cover&lt;/a&gt;” was released.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Duke Dumont', 'url': 'https://genius.com/artists/Duke-dumont'}, {'name': 'Erol Alkan', 'url': 'https://genius.com/artists/Erol-alkan'}, {'name': 'Jacknife Lee', 'url': 'https://genius.com/artists/Jacknife-lee'}, {'name': 'Stuart Price', 'url': 'https://genius.com/artists/Stuart-price'}], 'writers': [{'name': 'Alex Cameron', 'url': 'https://genius.com/artists/Alex-cameron'}, {'name': 'Bob Marley', 'url': 'https://genius.com/artists/Bob-marley'}, {'name': 'Brandon Flowers', 'url': 'https://genius.com/artists/Brandon-flowers'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Claydes Smith', 'url': 'https://genius.com/artists/Claydes-smith'}, {'name': 'Dave Keuning', 'url': 'https://genius.com/artists/Dave-keuning'}, {'name': 'Dennis Thomas', 'url': 'https://genius.com/artists/Dennis-thomas'}, {'name': 'Donald Boyce', 'url': 'https://genius.com/artists/Donald-boyce'}, {'name': 'Garret Lee', 'url': 'https://genius.com/artists/Garret-lee'}, {'name': 'George Brown', 'url': 'https://genius.com/artists/George-brown'}, {'name': 'Jacknife Lee', 'url': 'https://genius.com/artists/Jacknife-lee'}, {'name': 'Khalis Bayyan', 'url': 'https://genius.com/artists/Khalis-bayyan'}, {'name': 'Mark Stoermer', 'url': 'https://genius.com/artists/Mark-stoermer'}, {'name': 'Otha Nash', 'url': 'https://genius.com/artists/Otha-nash'}, {'name': 'Ricky West', 'url': 'https://genius.com/artists/Ricky-west'}, {'name': 'Robert “Kool” Bell', 'url': 'https://genius.com/artists/Robert-kool-bell'}, {'name': 'Robert Spike Mickens', 'url': 'https://genius.com/artists/Robert-spike-mickens'}, {'name': 'Ronnie Vannucci Jr.', 'url': 'https://genius.com/artists/Ronnie-vannucci-jr'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Stuart Price', 'url': 'https://genius.com/artists/Stuart-price'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Foo-fighters/Echoes-silence-patience-grace', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Echoes, Silence, Patience &amp;amp; Grace&lt;/em&gt; is the sixth studio album by rock band &lt;a href="https://genius.com/artists/Foo-fighters" rel="noopener" data-api_path="/artists/17237"&gt;Foo Fighters&lt;/a&gt;, released on September 25, 2007 by &lt;a href="https://genius.com/artists/Rca-records" rel="noopener" data-api_path="/artists/154526"&gt;RCA Records&lt;/a&gt;. The album is noted for a blend of regular rock and acoustic rock tracks with shifting dynamics, which emerged from the variety of styles employed on the demos the band produced. It also marks the second time the band worked with producer &lt;a href="https://genius.com/artists/Gil-norton" rel="noopener" data-api_path="/artists/41186"&gt;Gil Norton&lt;/a&gt;, whom frontman &lt;a href="https://genius.com/artists/Dave-grohl" rel="noopener" data-api_path="/artists/110465"&gt;Dave Grohl&lt;/a&gt; brought to fully explore the potential of his compositions and have a record that sounded different from their previous work. Grohl tried to focus on songs with messages that resonated on the audience, writing reflective lyrics which drew inspiration from the birth of his daughter.&lt;/p&gt;', 'producers': [{'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}], 'writers': [{'name': 'Chris Shiflett', 'url': 'https://genius.com/artists/Chris-shiflett'}, {'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Robbie-williams/Rock-dj-single', 'annotations': {'description': '', 'producers': [{'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}], 'writers': [{'name': 'Ekundayo Paris', 'url': 'https://genius.com/artists/Ekundayo-paris'}, {'name': 'Fil Eisler', 'url': 'https://genius.com/artists/Fil-eisler'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Kelvin Andrews', 'url': 'https://genius.com/artists/Kelvin-andrews'}, {'name': 'Nelson Pigford', 'url': 'https://genius.com/artists/Nelson-pigford'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-smashing-pumpkins/Rotten-apples-the-smashing-pumpkins-greatest-hits', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Rotten Apples&lt;/em&gt; is a compilation album from American alternative rock band, The Smashing Pumpkins. It was released in 2001, a year after The Smashing Pumpkins split, and features the track &lt;em&gt;Untitled,&lt;/em&gt; the final song recorded before their departure.&lt;/p&gt;', 'producers': [{'name': 'Alan Moulder', 'url': 'https://genius.com/artists/Alan-moulder'}, {'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}, {'name': 'Brad Wood', 'url': 'https://genius.com/artists/Brad-wood'}, {'name': 'Butch Vig', 'url': 'https://genius.com/artists/Butch-vig'}, {'name': 'Flood', 'url': 'https://genius.com/artists/Flood'}, {'name': 'Howard Willing', 'url': 'https://genius.com/artists/Howard-willing'}, {'name': 'Jeff Moleski', 'url': 'https://genius.com/artists/Jeff-moleski'}, {'name': 'Ted De Bono', 'url': 'https://genius.com/artists/Ted-de-bono'}], 'writers': [{'name': 'Billy Corgan', 'url': 'https://genius.com/artists/Billy-corgan'}, {'name': 'Stevie Nicks', 'url': 'https://genius.com/artists/Stevie-nicks'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/2-unlimited/No-limits', 'annotations': {'description': '', 'producers': [{'name': 'Wilde &amp; De Coster', 'url': 'https://genius.com/artists/Wilde-and-de-coster'}], 'writers': [{'name': 'Anita Doth', 'url': 'https://genius.com/artists/Anita-doth'}, {'name': 'Jean-Paul De Coster', 'url': 'https://genius.com/artists/Jean-paul-de-coster'}, {'name': 'Phil Wilde', 'url': 'https://genius.com/artists/Phil-wilde'}, {'name': 'Ray Slijngaard', 'url': 'https://genius.com/artists/Ray-slijngaard'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Flo-rida/Wild-ones', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Wild Ones&lt;/em&gt; is the fourth studio album by American rapper Flo Rida, released on July 3, 2012, via Atlantic Records. The album reached a &lt;a href="https://www.billboard.com/articles/news/481762/chris-browns-fortune-album-debuts-at-no-1-on-billboard-200" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #14 on the Billboard 200 chart, making it his first album to not appear in the top 10.&lt;/p&gt;\n\n&lt;p&gt;The album produced a total of four official singles: &lt;a href="https://genius.com/Flo-rida-good-feeling-lyrics" rel="noopener" data-api_path="/songs/55193"&gt;“Good Feeling”&lt;/a&gt;, &lt;a href="https://genius.com/Flo-rida-wild-ones-lyrics" rel="noopener" data-api_path="/songs/68266"&gt;“Wild Ones”&lt;/a&gt;, &lt;a href="https://genius.com/Flo-rida-whistle-lyrics" rel="noopener" data-api_path="/songs/72458"&gt;“Whistle”&lt;/a&gt;, and &lt;a href="https://genius.com/Flo-rida-i-cry-lyrics" rel="noopener" data-api_path="/songs/92170"&gt;“I Cry”&lt;/a&gt;. All the singles &lt;a href="https://www.billboard.com/music/Flo-Rida/chart-history/HSI" rel="noopener nofollow"&gt;peaked&lt;/a&gt; within the top 10 on the Billboard Hot 100 chart. Tracks &lt;a href="https://genius.com/Flo-rida-sweet-spot-lyrics" rel="noopener" data-api_path="/songs/80253"&gt;“Sweet Spot”&lt;/a&gt; and &lt;a href="https://genius.com/Flo-rida-let-it-roll-lyrics" rel="noopener" data-api_path="/songs/80254"&gt;“Let It Roll”&lt;/a&gt; were released as promotional singles from the album.&lt;/p&gt;', 'producers': [{'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Emily Wright', 'url': 'https://genius.com/artists/Emily-wright'}, {'name': 'Eric Goudy III', 'url': 'https://genius.com/artists/Eric-goudy-iii'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'The Futuristics', 'url': 'https://genius.com/artists/The-futuristics'}, {'name': 'Glass', 'url': 'https://genius.com/artists/Glass'}, {'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Love', 'url': 'https://genius.com/artists/Love'}, {'name': 'Maarten Hoogstraten', 'url': 'https://genius.com/artists/Maarten-hoogstraten'}, {'name': 'Medor', 'url': 'https://genius.com/artists/Medor'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Nius', 'url': 'https://genius.com/artists/Nius'}, {'name': 'Paul Bäumer', 'url': 'https://genius.com/artists/Paul-baumer'}, {'name': 'SoFLY', 'url': 'https://genius.com/artists/Sofly'}, {'name': 'SoFLY &amp; Nius', 'url': 'https://genius.com/artists/Sofly-and-nius'}], 'writers': [{'name': 'Aden Forte', 'url': 'https://genius.com/artists/Aden-forte'}, {'name': 'Ahmad', 'url': 'https://genius.com/artists/Ahmad'}, {'name': 'Alex Schwartz', 'url': 'https://genius.com/artists/Alex-schwartz'}, {'name': 'Antonio Mobley', 'url': 'https://genius.com/artists/Antonio-mobley'}, {'name': 'Arash Pournouri', 'url': 'https://genius.com/artists/Arash-pournouri'}, {'name': 'Arthur Pingrey', 'url': 'https://genius.com/artists/Arthur-pingrey'}, {'name': 'Avicii', 'url': 'https://genius.com/artists/Avicii'}, {'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': 'Ben Maddahi', 'url': 'https://genius.com/artists/Ben-maddahi'}, {'name': 'Brenda Russell', 'url': 'https://genius.com/artists/Brenda-russell'}, {'name': 'Breyan Isaac', 'url': 'https://genius.com/artists/Breyan-isaac'}, {'name': 'Bryan Adams', 'url': 'https://genius.com/artists/Bryan-adams'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'David Glass', 'url': 'https://genius.com/artists/David-glass'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Earl Hood', 'url': 'https://genius.com/artists/Earl-hood'}, {'name': 'Earl King', 'url': 'https://genius.com/artists/Earl-king'}, {'name': 'Eric Goudy II', 'url': 'https://genius.com/artists/Eric-goudy-ii'}, {'name': 'Etta James', 'url': 'https://genius.com/artists/Etta-james'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Georgi Kay', 'url': 'https://genius.com/artists/Georgi-kay'}, {'name': 'Ivan Gough', 'url': 'https://genius.com/artists/Ivan-gough'}, {'name': 'Jacob Luttrell', 'url': 'https://genius.com/artists/Jacob-luttrell'}, {'name': 'Jeffrey Hull', 'url': 'https://genius.com/artists/Jeffrey-hull'}, {'name': 'Joe Khajadourian', 'url': 'https://genius.com/artists/Joe-khajadourian'}, {'name': 'Jonita Daniels', 'url': 'https://genius.com/artists/Jonita-daniels'}, {'name': 'Josh Soon', 'url': 'https://genius.com/artists/Josh-soon'}, {'name': 'Jovi Hendrix', 'url': 'https://genius.com/artists/Jovi-hendrix'}, {'name': 'J. Ralph', 'url': 'https://genius.com/artists/J-ralph'}, {'name': 'Juletha Daniels', 'url': 'https://genius.com/artists/Juletha-daniels'}, {'name': 'Julie Frost', 'url': 'https://genius.com/artists/Julie-frost'}, {'name': 'Leroy Kirkland', 'url': 'https://genius.com/artists/Leroy-kirkland'}, {'name': 'Lil Wayne', 'url': 'https://genius.com/artists/Lil-wayne'}, {'name': 'Listenbee', 'url': 'https://genius.com/artists/Listenbee'}, {'name': 'Marcus Cooper', 'url': 'https://genius.com/artists/Marcus-cooper'}, {'name': 'Marcus Killian', 'url': 'https://genius.com/artists/Marcus-killian'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Niklaas Vogel-Kern', 'url': 'https://genius.com/artists/Niklaas-vogel-kern'}, {'name': 'Nius', 'url': 'https://genius.com/artists/Nius'}, {'name': 'Pearl Woods', 'url': 'https://genius.com/artists/Pearl-woods'}, {'name': 'Pierre Medor', 'url': 'https://genius.com/artists/Pierre-medor'}, {'name': 'Redfoo', 'url': 'https://genius.com/artists/Redfoo'}, {'name': 'Rico Love', 'url': 'https://genius.com/artists/Rico-love'}, {'name': 'Scott Cutler', 'url': 'https://genius.com/artists/Scott-cutler'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}, {'name': 'SoFLY', 'url': 'https://genius.com/artists/Sofly'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Poe Boy Music Group', 'url': 'https://genius.com/artists/Poe-boy-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Coldplay/Viva-la-vida-or-death-and-all-his-friends', 'annotations': {'description': '&lt;p&gt;The fourth studio album of Coldplay, released June 2008, and debuting at number 1 on the &lt;em&gt;US Billboard 200&lt;/em&gt;. In fact, it made it to number 1 in twenty three separate countries, on its way to selling 11 million copies worldwide.  This was helped by the huge smash hit singles &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva La Vida,”&lt;/a&gt; &lt;a href="https://genius.com/Coldplay-lovers-in-japan-lyrics" rel="noopener" data-api_path="/songs/77991"&gt;“Lovers In Japan,”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-lost-lyrics" rel="noopener" data-api_path="/songs/78578"&gt;“Lost.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In Spanish, the phrase translates to “Long Live Life,” and the theme of the record settles closely to this statement. The lyrics trace lead singer Chris Martin’s journey across the globe, both through love and his physical footprint. “Lovers In Japan,” &lt;a href="https://genius.com/Coldplay-chinese-sleep-chant-lyrics" rel="noopener" data-api_path="/songs/78836"&gt;“Chinese Sleep Chant”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-cemeteries-of-london-lyrics" rel="noopener" data-api_path="/songs/78838"&gt;“Cemeteries of London”&lt;/a&gt; all make use of geographic locations, while the opening track &lt;a href="https://genius.com/Coldplay-life-in-technicolor-lyrics" rel="noopener" data-api_path="/songs/436577"&gt;“Life in Technicolor”&lt;/a&gt; is basically a blueprint for the ensuing songs and albums in Coldplay’s career.&lt;/p&gt;\n\n&lt;p&gt;Legend &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; was on hand for the production, and all of the songs were written by the Coldplay members. A “tour edition DVD” was released alongisde the record, which included videos for all five singles.&lt;/p&gt;\n\n&lt;p&gt;Coldplay weren’t coy on the meanings behind each track, providing &lt;a href="http://www.mtv.com/news/1589032/coldplay-give-track-by-track-tour-of-viva-la-vida-explain-handclaps-tack-pianos-and-the-number-42/" rel="noopener nofollow"&gt;&lt;em&gt;MTV&lt;/em&gt;&lt;/a&gt; with a track-by-track break down of the record. In a &lt;a href="https://www.youtube.com/watch?v=ru8iY_sIHf0" rel="noopener nofollow"&gt;&lt;em&gt;CBC&lt;/em&gt; interview Chris says:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The sound of this record to me is the sound of Guy, Will and Jonny taking back the glory. Which makes me very happy. We reached the stage where we thought we can’t get much bigger so we had to get better. Quality over quantity, we need to practise a bit and improve.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The title of the album is, interestingly enough, inspired by an artwork of the same name by Frida Kahlo, whom Chris Martin adores. The painting of watermelons was discovered by the band in Mexico in early 2007, and found great admiration by the group.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Markus Dravs', 'url': 'https://genius.com/artists/Markus-dravs'}, {'name': 'Rik Simpson', 'url': 'https://genius.com/artists/Rik-simpson'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jon Hopkins', 'url': 'https://genius.com/artists/Jon-hopkins'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Mgmt/Oracular-spectacular', 'annotations': {'description': '&lt;p&gt;Not a lot of debut albums sound as ambitious as they are polished. With MGMT’s &lt;em&gt;Oracular Spectacular&lt;/em&gt;, the duo abandon polished sounds for a more indie, electronic and pop rock sound distinct from anything else.&lt;/p&gt;', 'producers': [{'name': 'Dave Fridmann', 'url': 'https://genius.com/artists/Dave-fridmann'}, {'name': 'MGMT', 'url': 'https://genius.com/artists/Mgmt'}], 'writers': [{'name': 'Andrew VanWyngarden', 'url': 'https://genius.com/artists/Andrew-vanwyngarden'}, {'name': 'Ben Goldwasser', 'url': 'https://genius.com/artists/Ben-goldwasser'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'RED Ink Records', 'url': 'https://genius.com/artists/Red-ink-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Alan-walker-and-ava-max/Alone-pt-ii-remixes', 'annotations': {'description': '&lt;p&gt;Alone, Pt II (Remixes) are a group of remixes by different artists, including&lt;br&gt;\n&lt;a href="https://genius.com/artists/Retrovision" rel="noopener" data-api_path="/artists/1016923"&gt;Retrovision&lt;/a&gt;, &lt;a href="https://genius.com/artists/Da-tweekaz" rel="noopener" data-api_path="/artists/389116"&gt;Da Tweekaz&lt;/a&gt;, &lt;a href="https://genius.com/artists/Toby-romeo" rel="noopener" data-api_path="/artists/1851276"&gt;Toby Romeo&lt;/a&gt;, &lt;a href="https://genius.com/artists/Niviro" rel="noopener" data-api_path="/artists/1409451"&gt;NIVIRO&lt;/a&gt;, &lt;a href="https://genius.com/artists/Alex-skrindo" rel="noopener" data-api_path="/artists/1052456"&gt;Alex Skrindo&lt;/a&gt; / &lt;a href="https://genius.com/artists/Sebastian-wibe" rel="noopener" data-api_path="/artists/1491451"&gt;Sebastian Wibe&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mio" rel="noopener" data-api_path="/artists/379780"&gt;MIO&lt;/a&gt; and &lt;a href="https://genius.com/artists/Rugged" rel="noopener" data-api_path="/artists/3177"&gt;Rugged&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They are remixes of &lt;a href="https://genius.com/Alan-walker-and-ava-max-alone-pt-ii-lyrics" rel="noopener" data-api_path="/songs/5123075"&gt;“Alone, P t II"&lt;/a&gt; by the artists &lt;a href="https://genius.com/artists/Ava-max" rel="noopener" data-api_path="/artists/1189492"&gt;Ava Max&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alan-walker" rel="noopener" data-api_path="/artists/456537"&gt;Alan Walker&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Alex Skrindo', 'url': 'https://genius.com/artists/Alex-skrindo'}, {'name': 'MIO.', 'url': 'https://genius.com/artists/Mio'}, {'name': 'NIVIRO', 'url': 'https://genius.com/artists/Niviro'}, {'name': 'Retrovision', 'url': 'https://genius.com/artists/Retrovision'}, {'name': 'Rugged', 'url': 'https://genius.com/artists/Rugged'}, {'name': 'Sebastian Wibe', 'url': 'https://genius.com/artists/Sebastian-wibe'}, {'name': 'Toby Romeo', 'url': 'https://genius.com/artists/Toby-romeo'}, {'name': 'Da Tweekaz', 'url': 'https://genius.com/artists/Da-tweekaz'}], 'writers': [{'name': 'Alan Walker', 'url': 'https://genius.com/artists/Alan-walker'}, {'name': 'Alexander Pavelich', 'url': 'https://genius.com/artists/Alexander-pavelich'}, {'name': 'Ava Max', 'url': 'https://genius.com/artists/Ava-max'}, {'name': 'Big Fred', 'url': 'https://genius.com/artists/Big-fred'}, {'name': 'Carl Hovind', 'url': 'https://genius.com/artists/Carl-hovind'}, {'name': 'Dag Holtan-Hartwig', 'url': 'https://genius.com/artists/Dag-holtan-hartwig'}, {'name': 'Erik Smaaland', 'url': 'https://genius.com/artists/Erik-smaaland'}, {'name': 'Gunnar Greve Pettersen', 'url': 'https://genius.com/artists/Gunnar-greve-pettersen'}, {'name': 'Halvor Folstad', 'url': 'https://genius.com/artists/Halvor-folstad'}, {'name': 'Marcus Arnbekk', 'url': 'https://genius.com/artists/Marcus-arnbekk'}, {'name': 'Moa Pettersson Hammar', 'url': 'https://genius.com/artists/Moa-pettersson-hammar'}, {'name': 'Vinni', 'url': 'https://genius.com/artists/Vinni'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Avril-lavigne/The-best-damn-thing', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Best Damn Thing&lt;/em&gt; is the third studio album by singer-songwriter Avril Lavigne, released on April 11, 2007 via RCA Records. Unlike her other albums, the album is more alternative rock and punk pop-rock driven. The album &lt;a href="http://www.billboard.com/articles/news/1052570/lavignes-new-thing-debuts-atop-billboard-200" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at number one on the US Billboard 200 album chart, with sales of 289,000 copies during its first week of release.&lt;/p&gt;\n\n&lt;p&gt;Though not promoted as a single from the album, &lt;a href="https://genius.com/Avril-lavigne-keep-holding-on-lyrics" rel="noopener" data-api_path="/songs/199018"&gt;“Keep Holding On”&lt;/a&gt; was released on November 27, 2006, as the theme song to help promote the 2006 film, &lt;a href="https://www.imdb.com/title/tt0449010/" rel="noopener nofollow"&gt;&lt;em&gt;Eragon&lt;/em&gt;&lt;/a&gt;. The song peaked at #17 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;A total of four singles were officially released from the album. &lt;a href="https://genius.com/Avril-lavigne-girlfriend-lyrics" rel="noopener" data-api_path="/songs/96005"&gt;“Girlfriend”&lt;/a&gt; became the lead single from the album, released on February 27, 2007. Commercially, it became Lavigne’s most successful single on the Hot 100, &lt;a href="https://www.billboard.com/artist/Avril-Lavigne/chart-history/HSI" rel="noopener nofollow"&gt;reaching&lt;/a&gt; the top of the chart, making it Lavigne’s first single to reach number one in the United States.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Avril-lavigne-when-youre-gone-lyrics" rel="noopener" data-api_path="/songs/198992"&gt;“When You’re Gone”&lt;/a&gt; became the album’s second single, with its release on June 19, 2007. The song became a top 30 hit, &lt;a href="https://www.billboard.com/artist/Avril-Lavigne/chart-history/HSI" rel="noopener nofollow"&gt;peaking&lt;/a&gt; at #24 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Avril-lavigne-hot-lyrics" rel="noopener" data-api_path="/songs/198998"&gt;“Hot”&lt;/a&gt; was released as the third second single on October 2, 2007. The song didn’t match the previous single’s success, only peaking at #95 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Avril-lavigne-the-best-damn-thing-lyrics" rel="noopener" data-api_path="/songs/198989"&gt;“The Best Damn Thing”&lt;/a&gt; was released as the fourth and final single on June 21, 2008. Though the single had no physical release in North America, it &lt;a href="https://www.billboard.com/artist/avril-lavigne/chart-history/hbu/" rel="noopener nofollow"&gt;charted&lt;/a&gt; at number seven on the US Billboard Bubbling Under Hot 100 Singles chart.&lt;/p&gt;', 'producers': [{'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}, {'name': 'Deryck Whibley', 'url': 'https://genius.com/artists/Deryck-whibley'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Matt Beckley', 'url': 'https://genius.com/artists/Matt-beckley'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}], 'writers': [{'name': 'Avril Lavigne', 'url': 'https://genius.com/artists/Avril-lavigne'}, {'name': 'Butch Walker', 'url': 'https://genius.com/artists/Butch-walker'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Evan Taubenfeld', 'url': 'https://genius.com/artists/Evan-taubenfeld'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Queen/A-night-at-the-opera', 'annotations': {'description': '&lt;p&gt;The general consensus: &lt;a href="https://genius.com/artists/Queen" rel="noopener" data-api_path="/artists/563"&gt;Queen&lt;/a&gt;’s 4th studio album, “A Night At The Opera” is their magnum opus. It’s not Queen’s biggest-selling LP; that distinction would result from 1977’s &lt;a href="https://genius.com/albums/Queen/News-of-the-world" rel="noopener" data-api_path="/albums/12093"&gt;&lt;em&gt;News of the World&lt;/em&gt;&lt;/a&gt; unless “Queen’s Greatest Hits” counts, one of the world’s best-sellers, period.&lt;/p&gt;\n\n&lt;p&gt;Of course, it is &lt;a href="https://genius.com/artists/Freddie-mercury" rel="noopener" data-api_path="/artists/60493"&gt;Freddie Mercury&lt;/a&gt;’s song, “&lt;a href="https://genius.com/Queen-bohemian-rhapsody-lyrics" rel="noopener" data-api_path="/songs/1063"&gt;Bohemian Rhapsody&lt;/a&gt;“ that has broken its share of records during its 43-year-history as of late 2018, upon the release of the biopic of the same name.   The epic song put the “opera” in “A Night at the Opera”, sorta.  It’s mock-opera, thus its high drama is seriously comedic, like a scene from a comedy movie, “Wayne’s World”.  Of course, "A Night at the Opera”’s moniker was lifted from the 1935 Marx Brothers comedy movie classic (let’s call it “Opera”, moving along …).&lt;/p&gt;\n\n&lt;p&gt;Commercially, given its musicality, “Opera” was a major risk.  The final deliverable left UK EMI execs nervous; it was the result of an unprecedented financial gamble.  Too many of this eclectic set of songs failed to “rock”, or pop-out, commercially speaking (or hearing).  Relief arrived in record time, despite the executive decision (or indecision) to not relieve, or release, as a single, the six-minute song of languid balladry to rhapsodic sections, etc., etc. (and so obviously too weird, and radio-unfriendly, right?).   It didn’t stop certain turntables from turning (or 45 RPM’s from pressing).  Why?  The band’s unflinching insistence came with proactive harmonic actions, from invoking the right manager (before), the right muse (during production), and the right, or perfect, DJ (the advance vinyl product, delivered in person, just in case it was a “go”, and it did, through the airwaves).&lt;/p&gt;\n\n&lt;p&gt;Rewinding to before “Opera” began,  &lt;a href="https://genius.com/artists/Freddie-mercury" rel="noopener" data-api_path="/artists/60493"&gt;Mercury&lt;/a&gt; convinced a busy &lt;a href="https://genius.com/artists/John-reid" rel="noopener" data-api_path="/artists/1719433"&gt;John Reid&lt;/a&gt;, &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;’s manager, to also manage Queen, after a bitter (legal) battle to exit from their prior “deal” was a done deal, leaving the band nervous, remaining in debt-sunk poverty (despite the lucrative worldwide success of album #3, &lt;a href="https://genius.com/albums/Queen/Sheer-heart-attack" rel="noopener" data-api_path="/albums/17350"&gt;&lt;em&gt;Sheer Heart Attack&lt;/em&gt;&lt;/a&gt;? Yes, precisely).&lt;br&gt;\nJohn Reid simply told the band to record their best music ever,  without money-worries.  Their creative flow led to unprecedented levels of cash-flow in servicing their creative musicianship.&lt;br&gt;\n “Opera” became the most expensive album ever recorded (until 1978 made the record with the more costly &lt;a href="https://genius.com/artists/Fleetwood-mac" rel="noopener" data-api_path="/artists/2579"&gt;Fleetwood Mac&lt;/a&gt; record, &lt;a href="https://genius.com/albums/Fleetwood-mac/Tusk" rel="noopener" data-api_path="/albums/92658"&gt;&lt;em&gt;Tusk&lt;/em&gt;&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;To (w)rap a Bo(w) around this writ, let’s close with a quip from Galileo himself (allegedly, given the song’s character references),  &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;Dr. Brian May&lt;/a&gt;, who eventually earned his Ph.D. in Astronomy (or actually, in Astrophysics).  During a 1990 BBC Radio 2 interview, &lt;a href="https://genius.com/artists/Brian-may" rel="noopener" data-api_path="/artists/16631"&gt;May&lt;/a&gt; provided a &lt;a href="https://www.revolvy.com/page/A-Night-at-the-Opera-%28Queen-album%29/" rel="noopener nofollow"&gt;&lt;em&gt;brief quote about album #4 aptly summarizing the above&lt;/em&gt;&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;For A Night at the Opera we sort of returned [to the] Queen II philosophy. We had our confidence because we had a hit. We had a kind of almost desperation about us too because we were totally bankrupt at that point. You know, we had made hit records but we hadn’t had any of the money back and if the A Night at the Opera hadn’t been a huge success I think we would have just disappeared under the ocean someplace. So we were making this album knowing it was live or die …each of us individually wanted to realize our potential as writers and producers and everything …&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Queen', 'url': 'https://genius.com/artists/Queen'}, {'name': 'Roy Thomas Baker', 'url': 'https://genius.com/artists/Roy-thomas-baker'}], 'writers': [{'name': 'Brian May', 'url': 'https://genius.com/artists/Brian-may'}, {'name': 'Freddie Mercury', 'url': 'https://genius.com/artists/Freddie-mercury'}, {'name': 'John Deacon', 'url': 'https://genius.com/artists/John-deacon'}, {'name': 'Roger Taylor', 'url': 'https://genius.com/artists/Roger-taylor'}, {'name': 'Traditional', 'url': 'https://genius.com/artists/Traditional'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}, {'name': 'EMI UK', 'url': 'https://genius.com/artists/Emi-uk'}, {'name': 'Hollywood Records', 'url': 'https://genius.com/artists/Hollywood-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; is Arctic Monkeys\' second studio album, and a follow up to the grimy, uncut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt;. The album was an ambitious step forward from their debut, with much cleaner sounds and tighter hooks. The melodies are reminiscent of influences from &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-smiths" rel="noopener" data-api_path="/artists/16669"&gt;The Smiths&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Frontman Alex Turner explained the album title &lt;a href="https://www.uncut.co.uk/features/alex-turner-q-a-42884/" rel="noopener nofollow"&gt;during an interview for UNCUT&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This time it’s from a lyric in one of the songs. I’ve been finding it hard to describe, actually. But there’s a lyric in the ’D is for Dangerous\' song, and it seemed to tick all the boxes for what we were after in a title. As far as concerns what is your favourite worst nightmare, I think I’d describe it by saying it’s like someone with a gambling addiction – they get something out of it, but they know it’s bad for them. But in the song it’s more to do with… a woman.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the same interview, he described the recording process:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;The recording of the first one was a swift thing, because we had all the songs and the order and everything all planned. We’d also played all of those songs live, and we’d had some of them for a year, even then. With these songs, we hadn’t played the before recording them – we’ve played them at three gigs so far, six of the ones off the record and one B-side.&lt;/p&gt;\n\n&lt;p&gt;We spent a bit more time, because we’re a bit more into sounds – there’d be bits, or guitar sounds that we liked, and wanted to do bits like that. The drum sounds we wanted to get sounding really fat. We did a session with [producers] James Ford and Mike Crossley on the last record and got on really well, and wanted to do something else – all year round I was thinking, ‘I want to try with them two…’. They were very involved in getting the sounds.&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt; &lt;a href="https://www.billboard.com/music/arctic-monkeys/chart-history/billboard-200/song/527331" rel="noopener nofollow"&gt;peaked at #7&lt;/a&gt; on the Billboard 200, about three weeks after its initial release. The LP stayed on the chart for 8 weeks.&lt;/p&gt;', 'producers': [{'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Mike Crossey', 'url': 'https://genius.com/artists/Mike-crossey'}], 'writers': [{'name': 'Alex Turner', 'url': 'https://genius.com/artists/Alex-turner'}, {'name': 'Johanna Bennett', 'url': 'https://genius.com/artists/Johanna-bennett'}, {'name': 'Jon McClure', 'url': 'https://genius.com/artists/Jon-mcclure'}], 'labels': [{'name': 'Domino Recording Company', 'url': 'https://genius.com/artists/Domino-recording-company'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Eric-clapton/Unplugged', 'annotations': {'description': '&lt;p&gt;In 1992, &lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Eric Clapton&lt;/a&gt; went acoustic for an &lt;a href="https://genius.com/artists/Mtv-unplugged" rel="noopener" data-api_path="/artists/42091"&gt;MTV Unplugged&lt;/a&gt; session. The resulting set became one of the biggest albums of his career, as well as a GRAMMY winner for the heartfelt tribute to his late son, “&lt;a href="https://genius.com/Eric-clapton-tears-in-heaven-acoustic-live-lyrics" rel="noopener" data-api_path="/songs/130391"&gt;Tears in Heaven&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Clapton&lt;/a&gt; does have a band backing him here. It plays in an way that complements the album’s low-key nature.&lt;/p&gt;\n\n&lt;p&gt;Aside from “&lt;a href="https://genius.com/Eric-clapton-tears-in-heaven-acoustic-live-lyrics" rel="noopener" data-api_path="/songs/130391"&gt;Tears in Heaven&lt;/a&gt;” the album includes an acoustic version of “&lt;a href="https://genius.com/Eric-clapton-layla-acoustic-live-lyrics" rel="noopener" data-api_path="/songs/333419"&gt;Layla&lt;/a&gt;” and &lt;a href="https://genius.com/artists/Bo-diddley" rel="noopener" data-api_path="/artists/133941"&gt;Bo Diddley&lt;/a&gt;’s “&lt;a href="https://genius.com/Eric-clapton-before-you-accuse-me-acoustic-live-lyrics" rel="noopener" data-api_path="/songs/3187729"&gt;Before You Accuse Me&lt;/a&gt;”.&lt;/p&gt;', 'producers': [{'name': 'Russ Titelman', 'url': 'https://genius.com/artists/Russ-titelman'}], 'writers': [{'name': 'Big Bill Broonzy', 'url': 'https://genius.com/artists/Big-bill-broonzy'}, {'name': 'Bo Diddley', 'url': 'https://genius.com/artists/Bo-diddley'}, {'name': 'Doc Watson', 'url': 'https://genius.com/artists/Doc-watson'}, {'name': 'Eric Clapton', 'url': 'https://genius.com/artists/Eric-clapton'}, {'name': 'Jerry Lynn Williams', 'url': 'https://genius.com/artists/Jerry-lynn-williams'}, {'name': 'Jesse Fuller', 'url': 'https://genius.com/artists/Jesse-fuller'}, {'name': 'Jim Gordon', 'url': 'https://genius.com/artists/Jim-gordon'}, {'name': 'Jimmy Cox', 'url': 'https://genius.com/artists/Jimmy-cox'}, {'name': 'Lead Belly', 'url': 'https://genius.com/artists/Lead-belly'}, {'name': 'Muddy Waters', 'url': 'https://genius.com/artists/Muddy-waters'}, {'name': 'Robert Cray', 'url': 'https://genius.com/artists/Robert-cray'}, {'name': 'Robert Johnson', 'url': 'https://genius.com/artists/Robert-johnson'}, {'name': 'Traditional', 'url': 'https://genius.com/artists/Traditional'}, {'name': 'Will Jennings', 'url': 'https://genius.com/artists/Will-jennings'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Akon/Trouble', 'annotations': {'description': '&lt;p&gt;Trouble is the debut album by the Senegalese-American singer Akon, released in 2004. The album contains Akon’s first worldwide hit single, “Lonely”. The deluxe edition was released in 2005 and contains a second disc with 10 bonus tracks.&lt;/p&gt;\n\n&lt;ol&gt;\n&lt;li&gt;“Locked Up”&lt;/li&gt;\n&lt;li&gt;“Trouble Nobody”&lt;/li&gt;\n&lt;li&gt;“Belly Dancer (Bananza)”&lt;/li&gt;\n&lt;li&gt;“Gangsta” (with Daddy T, Picklehead &amp;amp; Devyne)&lt;/li&gt;\n&lt;li&gt;“Ghetto”&lt;/li&gt;\n&lt;li&gt;“Pot of Gold”&lt;/li&gt;\n&lt;li&gt;“Show Out”&lt;/li&gt;\n&lt;li&gt;“Lonely”&lt;/li&gt;\n&lt;li&gt;“When The Time’s Right”&lt;/li&gt;\n&lt;li&gt;“Journey”&lt;/li&gt;\n&lt;li&gt;“Don’t Let Up”&lt;/li&gt;\n&lt;li&gt;“Easy Road”&lt;/li&gt;\n&lt;li&gt;“Locked Up (Remix)” (with Styles P)&lt;/li&gt;\n&lt;/ol&gt;', 'producers': [{'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Benny-D', 'url': 'https://genius.com/artists/Benny-d'}, {'name': 'Disco D', 'url': 'https://genius.com/artists/Disco-d'}, {'name': 'Knobody', 'url': 'https://genius.com/artists/Knobody'}, {'name': 'Shakim Williams', 'url': 'https://genius.com/artists/Shakim-williams'}, {'name': 'Shawn Williams', 'url': 'https://genius.com/artists/Shawn-williams'}], 'writers': [{'name': 'Akon', 'url': 'https://genius.com/artists/Akon'}, {'name': 'Anthony Lawson', 'url': 'https://genius.com/artists/Anthony-lawson'}, {'name': 'Beanie Sigel', 'url': 'https://genius.com/artists/Beanie-sigel'}, {'name': 'Benny-D', 'url': 'https://genius.com/artists/Benny-d'}, {'name': 'Bobby Vinton', 'url': 'https://genius.com/artists/Bobby-vinton'}, {'name': 'Bryan Boylai', 'url': 'https://genius.com/artists/Bryan-boylai'}, {'name': 'Clifton ‘’Jiggs’’ Chase', 'url': 'https://genius.com/artists/Clifton-jiggs-chase'}, {'name': 'Derrick Stephens', 'url': 'https://genius.com/artists/Derrick-stephens'}, {'name': 'Duke Bootee', 'url': 'https://genius.com/artists/Duke-bootee'}, {'name': 'Gene Allen', 'url': 'https://genius.com/artists/Gene-allen'}, {'name': 'Grandmaster Melle Mel', 'url': 'https://genius.com/artists/Grandmaster-melle-mel'}, {'name': 'James Tarver', 'url': 'https://genius.com/artists/James-tarver'}, {'name': 'Jonathan Mann', 'url': 'https://genius.com/artists/Jonathan-mann'}, {'name': 'Lynval Golding', 'url': 'https://genius.com/artists/Lynval-golding'}, {'name': 'Neville Staple', 'url': 'https://genius.com/artists/Neville-staple'}, {'name': 'Redinho', 'url': 'https://genius.com/artists/Redinho'}, {'name': 'Shakim Williams', 'url': 'https://genius.com/artists/Shakim-williams'}, {'name': 'Shawn Williams', 'url': 'https://genius.com/artists/Shawn-williams'}, {'name': 'Styles P', 'url': 'https://genius.com/artists/Styles-p'}, {'name': 'Sylvia Robinson', 'url': 'https://genius.com/artists/Sylvia-robinson'}, {'name': 'Terence Hall', 'url': 'https://genius.com/artists/Terence-hall'}, {'name': 'Torrey Pettigrew', 'url': 'https://genius.com/artists/Torrey-pettigrew'}], 'labels': [{'name': 'SRC Records', 'url': 'https://genius.com/artists/Src-records'}, {'name': 'Street Records Corporation', 'url': 'https://genius.com/artists/Street-records-corporation'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}, {'name': 'Universal Records', 'url': 'https://genius.com/artists/Universal-records'}, {'name': 'UpFront Records', 'url': 'https://genius.com/artists/Upfront-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sean-kingston/Beautiful-girls-ep', 'annotations': {'description': '', 'producers': [{'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}], 'writers': [{'name': 'Ben E. King', 'url': 'https://genius.com/artists/Ben-e-king'}, {'name': 'Boosie Badazz', 'url': 'https://genius.com/artists/Boosie-badazz'}, {'name': 'Fabolous', 'url': 'https://genius.com/artists/Fabolous'}, {'name': 'Jerry Leiber', 'url': 'https://genius.com/artists/Jerry-leiber'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Kisean Anderson', 'url': 'https://genius.com/artists/Kisean-anderson'}, {'name': 'Michael Stoller', 'url': 'https://genius.com/artists/Michael-stoller'}, {'name': 'Mike Stoller', 'url': 'https://genius.com/artists/Mike-stoller'}, {'name': 'Peter Harrison', 'url': 'https://genius.com/artists/Peter-harrison'}, {'name': 'Sean Kingston', 'url': 'https://genius.com/artists/Sean-kingston'}, {'name': 'Sly Pyper', 'url': 'https://genius.com/artists/Sly-pyper'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Stone-temple-pilots/Thank-you', 'annotations': {'description': '', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}, {'name': 'Dean DeLeo', 'url': 'https://genius.com/artists/Dean-deleo'}, {'name': 'Eric Kretz', 'url': 'https://genius.com/artists/Eric-kretz'}, {'name': 'Robert DeLeo', 'url': 'https://genius.com/artists/Robert-deleo'}, {'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}], 'writers': [{'name': 'Dean DeLeo', 'url': 'https://genius.com/artists/Dean-deleo'}, {'name': 'Eric Kretz', 'url': 'https://genius.com/artists/Eric-kretz'}, {'name': 'Robert DeLeo', 'url': 'https://genius.com/artists/Robert-deleo'}, {'name': 'Scott Weiland', 'url': 'https://genius.com/artists/Scott-weiland'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/The-cranberries/Bury-the-hatchet', 'annotations': {'description': '', 'producers': [{'name': 'Benedict Fenner', 'url': 'https://genius.com/artists/Benedict-fenner'}], 'writers': [{'name': 'Dolores O’Riordan', 'url': 'https://genius.com/artists/Dolores-oriordan'}, {'name': 'Noel Hogan', 'url': 'https://genius.com/artists/Noel-hogan'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-rembrandts/L-p', 'annotations': {'description': '', 'producers': [{'name': 'David Crane', 'url': 'https://genius.com/artists/David-crane'}, {'name': 'Kevin Bright', 'url': 'https://genius.com/artists/Kevin-bright'}, {'name': 'Marta Kauffman', 'url': 'https://genius.com/artists/Marta-kauffman'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Danny Wilde', 'url': 'https://genius.com/artists/Danny-wilde'}, {'name': 'David Crane', 'url': 'https://genius.com/artists/David-crane'}, {'name': 'Marta Kauffman', 'url': 'https://genius.com/artists/Marta-kauffman'}, {'name': 'Michael Skloff', 'url': 'https://genius.com/artists/Michael-skloff'}, {'name': 'Phil Solem', 'url': 'https://genius.com/artists/Phil-solem'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sheryl-crow/The-very-best-of-sheryl-crow', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Very Best of Sheryl Crow&lt;/em&gt; is a greatest hits album by American singer-songwriter Sheryl Crow, first released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States.&lt;/p&gt;\n\n&lt;p&gt;The compilation features some of her biggest hits from her four previous albums &lt;a href="https://genius.com/albums/Sheryl-crow/Tuesday-night-music-club" rel="noopener" data-api_path="/albums/108147"&gt;&lt;em&gt;Tuesday Night Music Club&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/Sheryl-crow" rel="noopener" data-api_path="/albums/112320"&gt;&lt;em&gt;Sheryl Crow&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Sheryl-crow/The-globe-sessions" rel="noopener" data-api_path="/albums/118344"&gt;&lt;em&gt;The Globe Sessions&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Sheryl-crow/C-mon-c-mon" rel="noopener" data-api_path="/albums/110758"&gt;&lt;em&gt;C\'mon, C\'mon&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Brian MacLeod', 'url': 'https://genius.com/artists/Brian-macleod'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'David Baerwald', 'url': 'https://genius.com/artists/David-baerwald'}, {'name': 'David Ricketts', 'url': 'https://genius.com/artists/David-ricketts'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'John Shanks', 'url': 'https://genius.com/artists/John-shanks'}, {'name': 'Kevin Gilbert', 'url': 'https://genius.com/artists/Kevin-gilbert'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Sheryl Crow', 'url': 'https://genius.com/artists/Sheryl-crow'}, {'name': 'Wyn Cooper', 'url': 'https://genius.com/artists/Wyn-cooper'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kygo/Cloud-nine', 'annotations': {'description': '&lt;p&gt;“Cloud Nine” is Kyrre Gørvell-Dahll (known as Kygo)’s highly anticipated debut album, set to be released on May 13th 2016.&lt;/p&gt;\n\n&lt;p&gt;The album is characterized by a “tropical” sound that make Kygo’s song interesting and peculiar, it helped him reach notoriety.&lt;/p&gt;', 'producers': [{'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Labrinth', 'url': 'https://genius.com/artists/Labrinth'}], 'writers': [{'name': 'Angus &amp; Julia Stone', 'url': 'https://genius.com/artists/Angus-and-julia-stone'}, {'name': 'Björn Yttling', 'url': 'https://genius.com/artists/Bjorn-yttling'}, {'name': 'Conrad Sewell', 'url': 'https://genius.com/artists/Conrad-sewell'}, {'name': 'Derek Fuhrmann', 'url': 'https://genius.com/artists/Derek-fuhrmann'}, {'name': '\u200b\u200bill Factor', 'url': 'https://genius.com/artists/Ill-factor'}, {'name': 'James Bay', 'url': 'https://genius.com/artists/James-bay'}, {'name': 'James Vincent McMorrow', 'url': 'https://genius.com/artists/James-vincent-mcmorrow'}, {'name': 'Jimmy Messer', 'url': 'https://genius.com/artists/Jimmy-messer'}, {'name': 'John Legend', 'url': 'https://genius.com/artists/John-legend'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Kodaline', 'url': 'https://genius.com/artists/Kodaline'}, {'name': 'Kygo', 'url': 'https://genius.com/artists/Kygo'}, {'name': 'Kyle Kelso', 'url': 'https://genius.com/artists/Kyle-kelso'}, {'name': 'Labrinth', 'url': 'https://genius.com/artists/Labrinth'}, {'name': 'Mark Williams', 'url': 'https://genius.com/artists/Mark-williams'}, {'name': 'Marli Harwood', 'url': 'https://genius.com/artists/Marli-harwood'}, {'name': 'Martijn Konijnenburg', 'url': 'https://genius.com/artists/Martijn-konijnenburg'}, {'name': 'Matt Corby', 'url': 'https://genius.com/artists/Matt-corby'}, {'name': 'Maty Noyes', 'url': 'https://genius.com/artists/Maty-noyes'}, {'name': 'Michael Harwood', 'url': 'https://genius.com/artists/Michael-harwood'}, {'name': 'Nasty Kutt', 'url': 'https://genius.com/artists/Nasty-kutt'}, {'name': 'Natalie Salter', 'url': 'https://genius.com/artists/Natalie-salter'}, {'name': 'Parson James', 'url': 'https://genius.com/artists/Parson-james'}, {'name': 'RHODES', 'url': 'https://genius.com/artists/Rhodes'}, {'name': 'Sia', 'url': 'https://genius.com/artists/Sia'}, {'name': 'Tom Odell', 'url': 'https://genius.com/artists/Tom-odell'}, {'name': 'Will Heard', 'url': 'https://genius.com/artists/Will-heard'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-black-crowes/Shake-your-money-maker', 'annotations': {'description': '', 'producers': [{'name': 'George Drakoulias', 'url': 'https://genius.com/artists/George-drakoulias'}], 'writers': [{'name': 'Al Bell', 'url': 'https://genius.com/artists/Al-bell'}, {'name': 'Allen Jones', 'url': 'https://genius.com/artists/Allen-jones'}, {'name': 'Chris Robinson', 'url': 'https://genius.com/artists/Chris-robinson'}, {'name': 'Otis Redding', 'url': 'https://genius.com/artists/Otis-redding'}, {'name': 'Rich Robinson', 'url': 'https://genius.com/artists/Rich-robinson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Cyndi-lauper/Shes-so-unusual', 'annotations': {'description': '&lt;p&gt;She’s So Unusual is the debut studio album by American singer and songwriter Cyndi Lauper, released on October 14, 1983 by Portrait Records.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f3bf7d8494b9737363ba8df965c72119.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Six singles were released from the album, with “Girls Just Want to Have Fun” becoming a #1  worldwide hit and her first song to chart on the Billboard Hot 100. Time After Time, She Bop, All Through the Night, Money Changes Everything, When You Were Mine.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;She’s So Unusual&lt;/em&gt; peaked at number four on the Billboard 200 Chart. The album became one of the bestselling albums of 1984. It has since sold over 6 million copies in the United States, where it was certified six times platinum by the RIAA, which lists it as one of the Best Selling Albums of All Time. She’s So Unusual has sold over 16 million copies worldwide.&lt;/p&gt;', 'producers': [{'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}, {'name': 'William Wittman', 'url': 'https://genius.com/artists/William-wittman'}], 'writers': [{'name': 'Abner Silver', 'url': 'https://genius.com/artists/Abner-silver'}, {'name': 'Al Lewis', 'url': 'https://genius.com/artists/Al-lewis'}, {'name': 'Al Sherman', 'url': 'https://genius.com/artists/Al-sherman'}, {'name': 'Cyndi Lauper', 'url': 'https://genius.com/artists/Cyndi-lauper'}, {'name': 'Gary Corbett', 'url': 'https://genius.com/artists/Gary-corbett'}, {'name': 'Hasse Huss', 'url': 'https://genius.com/artists/Hasse-huss'}, {'name': 'John Turi', 'url': 'https://genius.com/artists/John-turi'}, {'name': 'Jules Shear', 'url': 'https://genius.com/artists/Jules-shear'}, {'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}, {'name': 'Rick Chertoff', 'url': 'https://genius.com/artists/Rick-chertoff'}, {'name': 'Robert Hazard', 'url': 'https://genius.com/artists/Robert-hazard'}, {'name': 'Rob Hyman', 'url': 'https://genius.com/artists/Rob-hyman'}, {'name': 'Stephen Broughton Lunt', 'url': 'https://genius.com/artists/Stephen-broughton-lunt'}, {'name': 'Tom Gray', 'url': 'https://genius.com/artists/Tom-gray'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Desireless/Francois', 'annotations': {'description': '', 'producers': [{'name': 'Dominique Albert Dubois', 'url': 'https://genius.com/artists/Dominique-albert-dubois'}, {'name': 'Jean-Michel Rivat', 'url': 'https://genius.com/artists/Jean-michel-rivat'}], 'writers': [{'name': 'Jean-Michel Rivat', 'url': 'https://genius.com/artists/Jean-michel-rivat'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Sum-41/Order-in-decline', 'annotations': {'description': '&lt;p&gt;The seventh studio album by the pop-punk veterans &lt;a href="https://genius.com/artists/Sum-41" rel="noopener" data-api_path="/artists/24908"&gt;Sum 41&lt;/a&gt; titled &lt;em&gt;Order In Decline&lt;/em&gt; bursts into the scene after three years of silence form the band. It is a heavy album full of lyrics of division, social turmoil, and hate.&lt;/p&gt;\n\n&lt;p&gt;The album is not politically charged, as one might come to believe. &lt;a href="https://consequenceofsound.net/2019/04/sum-41-new-album-order-in-decline-out-for-blood-single/" rel="noopener nofollow"&gt;Whibley said in an interview&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The last thing I wanted to do was write a social or political protest record, and Order In Decline is not that. It’s also very hard not to have feelings about everything that’s going on in the world.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The lead single for the record was &lt;a href="https://genius.com/Sum-41-out-for-blood-lyrics" rel="noopener" data-api_path="/songs/4497483"&gt;“Out for Blood”&lt;/a&gt;, released on April 23, 2019. The second single &lt;a href="https://genius.com/Sum-41-a-death-in-the-family-lyrics" rel="noopener" data-api_path="/songs/4497503"&gt;“A Death In The Family”&lt;/a&gt; was released on June 11, 2019.&lt;/p&gt;', 'producers': [{'name': 'Deryck Whibley', 'url': 'https://genius.com/artists/Deryck-whibley'}], 'writers': [{'name': 'Deryck Whibley', 'url': 'https://genius.com/artists/Deryck-whibley'}, {'name': 'Mike Green', 'url': 'https://genius.com/artists/Mike-green'}], 'labels': [{'name': 'Hopeless Records', 'url': 'https://genius.com/artists/Hopeless-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Alanis-morissette/Jagged-little-pill', 'annotations': {'description': '&lt;p&gt;Angry, unashamed, and cathartic, &lt;em&gt;Jagged Little Pill&lt;/em&gt; changed the music scene when it dropped in 1995. Carried by Alanis Morissette’s unique vocals and ability to simply express herself – through unbridled rage (as heard on “You Oughta Know”), hesitant romance (“Head Over Feet”), and 20s-something growing up (“You Learn”), the album spun off some of the most successful and recognizable songs from the 90s (“Ironic”) and remains a rock classic to this day.&lt;/p&gt;\n\n&lt;p&gt;The album earned Morissette seven total Grammy nominations (across three ceremonies), including four wins &lt;a href="https://www.grammy.com/grammys/awards/38th-annual-grammy-awards" rel="noopener nofollow"&gt;at the 38th Grammys&lt;/a&gt; for Album of the Year, Best Female Rock Performance, Best Rock Song, and Best Rock Album. &lt;a href="https://web.archive.org/web/20050615022717/https://www.cbc.ca/arts/music/alanis.html" rel="noopener nofollow"&gt;In a ten-year anniversary reflection of the album&lt;/a&gt;, the CBC remarked how the album marked the first time the no-apologies attitude of so many 90s female rock artists broke into the top 40, as well as credited the album for the rise of &lt;a href="https://genius.com/artists/Avril-lavigne" rel="noopener" data-api_path="/artists/2224"&gt;Avril Lavigne&lt;/a&gt; and &lt;a href="https://genius.com/artists/P-nk" rel="noopener" data-api_path="/artists/345"&gt;P!nk&lt;/a&gt;. &lt;em&gt;Jagged Little Pill&lt;/em&gt; also earned a spot on the &lt;em&gt;Rolling Stones&lt;/em&gt; &lt;a href="http://lyrics.wikia.com/wiki/LyricWiki:Lists/Rolling_Stone:_The_500_Greatest_Albums_of_All_Time" rel="noopener nofollow"&gt;original “500 Greatest Albums of All Time”&lt;/a&gt;, at spot 327. In 2019, it was announced that there is also &lt;a href="https://pitchfork.com/news/alanis-morissettes-jagged-little-pill-musical-coming-to-broadway/" rel="noopener nofollow"&gt;a musical adaptation&lt;/a&gt; of the album coming to Broadway.&lt;/p&gt;\n\n&lt;p&gt;In 2019, a &lt;a href="https://themuse.jezebel.com/jagged-little-pill-is-actually-very-bad-1833542975" rel="noopener nofollow"&gt;&lt;em&gt;Jezebel&lt;/em&gt; article&lt;/a&gt; calling the album “actually very bad” inspired &lt;a href="https://etcanada.com/news/434719/twitter-reacts-to-writer-arguing-alanis-morissettes-jagged-little-pill-is-actually-very-bad/" rel="noopener nofollow"&gt;an outpouring of support for the album&lt;/a&gt; and &lt;a href="https://variety.com/2019/music/news/alanis-morissettes-jagged-little-pill-defense-letters-to-cleo-kay-hanley-1203175891/" rel="noopener nofollow"&gt;a slew&lt;/a&gt; of &lt;a href="https://medium.com/@amandadeibert/jagged-little-pill-is-actually-very-good-1d487291f2ed" rel="noopener nofollow"&gt;think pieces&lt;/a&gt; on &lt;a href="https://www.newstatesman.com/culture/2019/03/25-years-alanis-morissette-s-jagged-little-pill-still-articulates-my-teenage-shame" rel="noopener nofollow"&gt;why it still matters.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}], 'writers': [{'name': 'Alanis Morissette', 'url': 'https://genius.com/artists/Alanis-morissette'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'Reprise Records', 'url': 'https://genius.com/artists/Reprise-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Supertramp/Even-in-the-quietest-moments', 'annotations': {'description': '', 'producers': [{'name': 'Supertramp', 'url': 'https://genius.com/artists/Supertramp'}], 'writers': [{'name': 'Rick Davies', 'url': 'https://genius.com/artists/Rick-davies'}, {'name': 'Roger Hodgson', 'url': 'https://genius.com/artists/Roger-hodgson'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Status-quo/Just-supposin', 'annotations': {'description': '', 'producers': [{'name': 'John Eden', 'url': 'https://genius.com/artists/John-eden'}, {'name': 'Status Quo', 'url': 'https://genius.com/artists/Status-quo'}], 'writers': [{'name': 'Alan Lancaster', 'url': 'https://genius.com/artists/Alan-lancaster'}, {'name': 'Andy Bown', 'url': 'https://genius.com/artists/Andy-bown'}, {'name': 'Bernie Frost', 'url': 'https://genius.com/artists/Bernie-frost'}, {'name': 'Bob Young', 'url': 'https://genius.com/artists/Bob-young'}, {'name': 'Francis Rossi', 'url': 'https://genius.com/artists/Francis-rossi'}, {'name': 'John Coghlan', 'url': 'https://genius.com/artists/John-coghlan'}, {'name': 'Keith Lamb', 'url': 'https://genius.com/artists/Keith-lamb'}, {'name': 'Rick Parfitt', 'url': 'https://genius.com/artists/Rick-parfitt'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Joan-jett-and-the-blackhearts/Bad-reputation-music-from-the-original-motion-picture', 'annotations': {'description': '&lt;p&gt;This is the soundtrack to &lt;a href="https://www.badreputationfilm.com/" rel="noopener nofollow"&gt;Kevin Kerslake’s documentary&lt;/a&gt; about Joan Jett and her life and musical career.&lt;/p&gt;', 'producers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Glen Kolotkin', 'url': 'https://genius.com/artists/Glen-kolotkin'}, {'name': 'Joan Jett', 'url': 'https://genius.com/artists/Joan-jett'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Kim Fowley', 'url': 'https://genius.com/artists/Kim-fowley'}, {'name': 'Laura Jane Grace', 'url': 'https://genius.com/artists/Laura-jane-grace'}, {'name': 'Ric Browde', 'url': 'https://genius.com/artists/Ric-browde'}, {'name': 'Ritchie Cordell', 'url': 'https://genius.com/artists/Ritchie-cordell'}, {'name': 'Thom Panunzio', 'url': 'https://genius.com/artists/Thom-panunzio'}, {'name': 'Tim Green', 'url': 'https://genius.com/artists/Tim-green'}], 'writers': [{'name': 'Alan Merrill', 'url': 'https://genius.com/artists/Alan-merrill'}, {'name': 'Bill Ciprian', 'url': 'https://genius.com/artists/Bill-ciprian'}, {'name': 'Billy Karren', 'url': 'https://genius.com/artists/Billy-karren'}, {'name': 'Dave Alexander', 'url': 'https://genius.com/artists/Dave-alexander'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'FEA', 'url': 'https://genius.com/artists/Fea'}, {'name': 'Gary Glitter', 'url': 'https://genius.com/artists/Gary-glitter'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Jake Hooker', 'url': 'https://genius.com/artists/Jake-hooker'}, {'name': 'Joan Jett', 'url': 'https://genius.com/artists/Joan-jett'}, {'name': 'Kathi Wilcox', 'url': 'https://genius.com/artists/Kathi-wilcox'}, {'name': 'Kathleen Hanna', 'url': 'https://genius.com/artists/Kathleen-hanna'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Kim Fowley', 'url': 'https://genius.com/artists/Kim-fowley'}, {'name': 'Marty Kupersmith', 'url': 'https://genius.com/artists/Marty-kupersmith'}, {'name': 'Mike Leander', 'url': 'https://genius.com/artists/Mike-leander'}, {'name': 'Paul Westerberg', 'url': 'https://genius.com/artists/Paul-westerberg'}, {'name': 'Peter Lucia Jr.', 'url': 'https://genius.com/artists/Peter-lucia-jr'}, {'name': 'Ritchie Cordell', 'url': 'https://genius.com/artists/Ritchie-cordell'}, {'name': 'Ron Asheton', 'url': 'https://genius.com/artists/Ron-asheton'}, {'name': 'Scott Asheton', 'url': 'https://genius.com/artists/Scott-asheton'}, {'name': 'Tobi Vail', 'url': 'https://genius.com/artists/Tobi-vail'}, {'name': 'Tommy James', 'url': 'https://genius.com/artists/Tommy-james'}], 'labels': [{'name': 'Ariola Records', 'url': 'https://genius.com/artists/Ariola-records'}, {'name': 'Blackheart Records', 'url': 'https://genius.com/artists/Blackheart-records'}, {'name': 'Boardwalk Records', 'url': 'https://genius.com/artists/Boardwalk-records'}, {'name': 'DreamWorks Television', 'url': 'https://genius.com/artists/Dreamworks-television'}, {'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}, {'name': 'Shout! Factory \u200e', 'url': 'https://genius.com/artists/Shout-factory'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Coldplay/X-y', 'annotations': {'description': '&lt;p&gt;Coldplay’s &lt;em&gt;X&amp;amp;Y&lt;/em&gt; is the band’s third studio album, and first concept album. It revolves around a rocky relationship with its title being an analogy to the concept it pioneered – a “make amends” album, where the subjects of the album, &lt;em&gt;x&lt;/em&gt; and &lt;em&gt;y&lt;/em&gt;, try to put back together a relationship through the dialogue of poetry. Of course, &lt;em&gt;X&amp;amp;Y&lt;/em&gt;, especially in context of a broken relationship, &lt;a href="https://www.coldplaying.com/x10y-the-meaning-of-x-and-y-according-to-chris-martin/" rel="noopener nofollow"&gt;can mean anything, from the pessimistic to the optimistic&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;X and Y is the mathematical formula used when you don’t know the answer. But, it’s also like black and white, or hope and despair, or optimism and pessimism. Everywhere you look there’s a tension of opposites.&lt;/em&gt;&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Clocking in at 62 minutes, Coldplay’s longest album to date is a space rock, production-rich piece of gracious emotion, crossing many themes, such as communication, empathy, and the road to acceptance. The band’s most lyrically profund album has since found a spiritual successor in the moody &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;Ghost Stories&lt;/a&gt;&lt;/em&gt;, an album also focusing on a broken relationship.&lt;/p&gt;', 'producers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Coldplay', 'url': 'https://genius.com/artists/Coldplay'}, {'name': 'Danton Supple', 'url': 'https://genius.com/artists/Danton-supple'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Ken Nelson', 'url': 'https://genius.com/artists/Ken-nelson'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'writers': [{'name': 'Chris Martin', 'url': 'https://genius.com/artists/Chris-martin'}, {'name': 'Emil Schult', 'url': 'https://genius.com/artists/Emil-schult'}, {'name': 'Guy Berryman', 'url': 'https://genius.com/artists/Guy-berryman'}, {'name': 'Jonny Buckland', 'url': 'https://genius.com/artists/Jonny-buckland'}, {'name': 'Karl Bartos', 'url': 'https://genius.com/artists/Karl-bartos'}, {'name': 'Ralf Hütter', 'url': 'https://genius.com/artists/Ralf-hutter'}, {'name': 'Will Champion', 'url': 'https://genius.com/artists/Will-champion'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/U2/Achtung-baby', 'annotations': {'description': '&lt;p&gt;Designed and produced explicitly as “the sound of a band cutting down the Joshua Tree”, “Achtung Baby” was U2’s opening statement at the start of the 90s.&lt;/p&gt;\n\n&lt;p&gt;Rejecting the earnest rock and roll of their mega-hit “The Joshua Tree” and their 80s work in general, “Achtung Baby” created a new sound that would follow the band for the next three albums (Achtung Baby, Zooropa, and Pop). The band, and Bono in particular, rejected the folksy earnest image the band was known for at the time and embraced satire, sarcasm, irony and deconstructing the iconic rock star image. Embracing electronic dance music, the album presented itself as a rebuke of the past and the start of a new chapter of the band.&lt;/p&gt;\n\n&lt;p&gt;The album spawned several iconic hits (One, Mysterious Ways, Even Better Than the Real Thing) and the album’s track listings have become permanent live staples for the band (with Ultra Violet (Light My Way) and Love Is Blindness in particular becoming the default final song played live at concerts). “Until The End Of the World” was featured in the cult film “Until The End of the World”, by Wim Wenders. The tour supporting the album, the legendary Zoo TV world tour, saw Bono introduce his MacPhisto alter-ego: the devil as a lounge singer, Mirror Ball Man; a silver leisure suit TV evangelist who made prank calls to world leaders inbetween songs, and “The Fly”; a leather clad heroic rock star with wraparound sun glasses.&lt;/p&gt;', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/albums/Shawn-mendes/Illuminate', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Illuminate&lt;/em&gt; is the sophomore album by singer &lt;a href="https://genius.com/artists/Shawn-mendes" rel="noopener" data-api_path="/artists/195029"&gt;Shawn Mendes&lt;/a&gt;. It was released on September 23 2016 through Island Records. The album &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/billboard-200/song/995020" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at #1 on the Billboard 200 with 145,000 equivalent album units.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single “&lt;a href="https://genius.com/Shawn-mendes-treat-you-better-lyrics" rel="noopener" data-api_path="/songs/2478138"&gt;Treat You Better&lt;/a&gt;” was released on June 3, 2016 and &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/hot-100/song/977241" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #6 on the Billboard 100. On October 18, 2016 the second single “&lt;a href="https://genius.com/Shawn-mendes-mercy-lyrics" rel="noopener" data-api_path="/songs/2811214"&gt;Mercy&lt;/a&gt;” was released and was serviced to the US top 40 radio stations. “&lt;a href="https://genius.com/Shawn-mendes-theres-nothing-holdin-me-back-lyrics" rel="noopener" data-api_path="/songs/3051803"&gt;There’s Nothing Holdin\' Me Back&lt;/a&gt;” was released as the album’s third and final single on April 20, 2017.&lt;/p&gt;', 'producers': [{'name': 'Andrew Maury', 'url': 'https://genius.com/artists/Andrew-maury'}, {'name': 'Dan Romer', 'url': 'https://genius.com/artists/Dan-romer'}, {'name': 'DJ Kyriakides', 'url': 'https://genius.com/artists/Dj-kyriakides'}, {'name': 'Jake Gosling', 'url': 'https://genius.com/artists/Jake-gosling'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}], 'writers': [{'name': 'Danny Parker', 'url': 'https://genius.com/artists/Danny-parker'}, {'name': 'Geoffrey Warburton', 'url': 'https://genius.com/artists/Geoffrey-warburton'}, {'name': 'Geoff Warburton', 'url': 'https://genius.com/artists/Geoff-warburton'}, {'name': 'Gustaf Thörn', 'url': 'https://genius.com/artists/Gustaf-thorn'}, {'name': 'Ido Zmishlany', 'url': 'https://genius.com/artists/Ido-zmishlany'}, {'name': 'Ilsey', 'url': 'https://genius.com/artists/Ilsey'}, {'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Scott Harris', 'url': 'https://genius.com/artists/Scott-harris'}, {'name': 'Shawn Mendes', 'url': 'https://genius.com/artists/Shawn-mendes'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'labels': [{'name': 'CYNUMG', 'url': 'https://genius.com/artists/Cynumg'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sophie-ellis-bextor/Read-my-lips', 'annotations': {'description': '&lt;p&gt;Read My Lips is the debut studio album by British singer Sophie Ellis-Bextor. It was released on August 27, 2001 by Polydor Records. After the disbandment of the Britpop group Theaudience, in which Ellis-Bextor served as vocalist, she was signed to Polydor. Prior to the LP’s completion, the singer collaborated with several musicians, including band Blur’s bassist Alex James, Moby and New Radicals frontman Gregg Alexander.&lt;/p&gt;\n\n&lt;p&gt;The record was described as a collection of 1980s electronica and 1970s disco music.&lt;/p&gt;\n\n&lt;p&gt;The album reached number two on the UK Albums Chart, and has since been certified double platinum by the British Phonographic Industry (BPI). It spawned four singles: “Take Me Home”, “Murder on the Dancefloor”, double A-side single “Get Over You”/“Move This Mountain” and “Music Gets the Best of Me”.&lt;/p&gt;', 'producers': [{'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}, {'name': 'Ben Hillier', 'url': 'https://genius.com/artists/Ben-hillier'}, {'name': 'Damian LeGassick', 'url': 'https://genius.com/artists/Damian-legassick'}, {'name': 'Gary Wilkinson', 'url': 'https://genius.com/artists/Gary-wilkinson'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}, {'name': 'Korpi &amp; Blackcell', 'url': 'https://genius.com/artists/Korpi-and-blackcell'}, {'name': 'Marco Rakascan', 'url': 'https://genius.com/artists/Marco-rakascan'}, {'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}, {'name': 'Spiller', 'url': 'https://genius.com/artists/Spiller'}, {'name': 'Steve Osborne', 'url': 'https://genius.com/artists/Steve-osborne'}], 'writers': [{'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}, {'name': 'Andy Boyd', 'url': 'https://genius.com/artists/Andy-boyd'}, {'name': 'Ben Hillier', 'url': 'https://genius.com/artists/Ben-hillier'}, {'name': 'Bob Esty', 'url': 'https://genius.com/artists/Bob-esty'}, {'name': 'Gregg Alexander', 'url': 'https://genius.com/artists/Gregg-alexander'}, {'name': 'Jony Rockstar', 'url': 'https://genius.com/artists/Jony-rockstar'}, {'name': 'Korpi &amp; Blackcell', 'url': 'https://genius.com/artists/Korpi-and-blackcell'}, {'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Michelle Aller', 'url': 'https://genius.com/artists/Michelle-aller'}, {'name': 'Moby', 'url': 'https://genius.com/artists/Moby'}, {'name': 'Nina Woodford', 'url': 'https://genius.com/artists/Nina-woodford'}, {'name': 'REZ', 'url': 'https://genius.com/artists/Rez'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Ross Newell', 'url': 'https://genius.com/artists/Ross-newell'}, {'name': 'Sophie Ellis-Bextor', 'url': 'https://genius.com/artists/Sophie-ellis-bextor'}, {'name': 'Spiller', 'url': 'https://genius.com/artists/Spiller'}, {'name': 'TommyD', 'url': 'https://genius.com/artists/Tommyd'}], 'labels': [{'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/U2/The-best-of-1980-1990', 'annotations': {'description': '', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'St. Francis Xavier', 'url': 'https://genius.com/artists/St-francis-xavier'}, {'name': 'Tony Visconti', 'url': 'https://genius.com/artists/Tony-visconti'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Alex North', 'url': 'https://genius.com/artists/Alex-north'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Buzz Cason', 'url': 'https://genius.com/artists/Buzz-cason'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Hy Zaret', 'url': 'https://genius.com/artists/Hy-zaret'}, {'name': 'Ivan Král', 'url': 'https://genius.com/artists/Ivan-kral'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Mac Gayden', 'url': 'https://genius.com/artists/Mac-gayden'}, {'name': 'Patti Smith', 'url': 'https://genius.com/artists/Patti-smith'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Taio-cruz/Ty-o', 'annotations': {'description': '', 'producers': [{'name': 'Alan Nglish', 'url': 'https://genius.com/artists/Alan-nglish'}, {'name': 'Carl Falk', 'url': 'https://genius.com/artists/Carl-falk'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'Daddy’s Groove', 'url': 'https://genius.com/artists/Daddys-groove'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Jason “JG” Gilbert', 'url': 'https://genius.com/artists/Jason-jg-gilbert'}, {'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}, {'name': 'Sebastian Ingrosso', 'url': 'https://genius.com/artists/Sebastian-ingrosso'}, {'name': 'Steve Angello', 'url': 'https://genius.com/artists/Steve-angello'}, {'name': 'Taio Cruz', 'url': 'https://genius.com/artists/Taio-cruz'}], 'writers': [{'name': 'Adam Baptiste', 'url': 'https://genius.com/artists/Adam-baptiste'}, {'name': 'Alexander Kronlund', 'url': 'https://genius.com/artists/Alexander-kronlund'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}, {'name': 'Carl Falk', 'url': 'https://genius.com/artists/Carl-falk'}, {'name': 'Cirkut', 'url': 'https://genius.com/artists/Cirkut'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Iain James', 'url': 'https://genius.com/artists/Iain-james'}, {'name': 'Jason “JG” Gilbert', 'url': 'https://genius.com/artists/Jason-jg-gilbert'}, {'name': 'Klas Åhlund', 'url': 'https://genius.com/artists/Klas-ahlund'}, {'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Michel Zitron', 'url': 'https://genius.com/artists/Michel-zitron'}, {'name': 'Nicki Minaj', 'url': 'https://genius.com/artists/Nicki-minaj'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'Rami', 'url': 'https://genius.com/artists/Rami'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Rob Swire', 'url': 'https://genius.com/artists/Rob-swire'}, {'name': 'Sebastian Ingrosso', 'url': 'https://genius.com/artists/Sebastian-ingrosso'}, {'name': 'Steve Angello', 'url': 'https://genius.com/artists/Steve-angello'}, {'name': 'Taio Cruz', 'url': 'https://genius.com/artists/Taio-cruz'}, {'name': 'Usher', 'url': 'https://genius.com/artists/Usher'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Simple-minds/Once-upon-a-time', 'annotations': {'description': '', 'producers': [{'name': 'Bob Clearmountain', 'url': 'https://genius.com/artists/Bob-clearmountain'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}], 'writers': [{'name': 'Charlie Burchill', 'url': 'https://genius.com/artists/Charlie-burchill'}, {'name': 'Jim Kerr', 'url': 'https://genius.com/artists/Jim-kerr'}, {'name': 'Michael MacNeil', 'url': 'https://genius.com/artists/Michael-macneil'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/By-the-way', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;By the Way&lt;/em&gt; is the eighth studio album by American rock band, &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;, and marks their fourth album to be produced by &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released on July 9, 2002, &lt;em&gt;By the Way&lt;/em&gt; sold over 286,000 copies in the first week, and peaked at number two on the Billboard 200. From the album, five singles were released: &lt;a href="https://genius.com/Red-hot-chili-peppers-by-the-way-lyrics" rel="noopener" data-api_path="/songs/110627"&gt;“By the Way,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-the-zephyr-song-lyrics" rel="noopener" data-api_path="/songs/110634"&gt;“The Zephyr Song,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-cant-stop-lyrics" rel="noopener" data-api_path="/songs/3228"&gt;“Can’t Stop,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-dosed-lyrics" rel="noopener" data-api_path="/songs/103039"&gt;“Dosed,”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-universally-speaking-lyrics" rel="noopener" data-api_path="/songs/199780"&gt;“Universally Speaking&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Throughout this album, &lt;a href="https://genius.com/artists/Anthony-kiedis" rel="noopener" data-api_path="/artists/582309"&gt;Anthony Kiedis&lt;/a&gt; was lyrically influenced by love, his girlfriend, and the emotions expressed when one fell in love.&lt;br&gt;\nSongs written for the album such as &lt;a href="https://genius.com/Red-hot-chili-peppers-by-the-way-lyrics" rel="noopener" data-api_path="/songs/110627"&gt;“By the Way,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-i-could-die-for-you-lyrics" rel="noopener" data-api_path="/songs/120195"&gt;“I Could Die for You,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-dosed-lyrics" rel="noopener" data-api_path="/songs/103039"&gt;“Dosed,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-warm-tape-lyrics" rel="noopener" data-api_path="/songs/237185"&gt;“Warm Tape,”&lt;/a&gt; and the non-album tracks &lt;a href="https://genius.com/Red-hot-chili-peppers-someone-lyrics" rel="noopener" data-api_path="/songs/387046"&gt;“Someone,”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-body-of-water-lyrics" rel="noopener" data-api_path="/songs/386817"&gt;“Body of Water&lt;/a&gt; all digress into the many sides of love.&lt;/p&gt;\n\n&lt;p&gt;The lyrical subject matter that is addressed also marks a divergence from previous Chili Peppers albums, with Kiedis taking a more candid and reflective approach to his writing.&lt;/p&gt;\n\n&lt;p&gt;Guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt; is credited with writing most of the album’s melodies, bass lines, and guitar progressions, changing the direction of the recording dramatically. Thus, &lt;em&gt;By the Way&lt;/em&gt; contained very little of the signature punk-funk fusion the band had become known for playing.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}, {'name': 'John Frusciante', 'url': 'https://genius.com/artists/John-frusciante'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sinead-oconnor/I-do-not-want-what-i-haven-t-got', 'annotations': {'description': "&lt;p&gt;This remarkable masterpiece &lt;em&gt;I Do Not Want What I Haven’t Got&lt;/em&gt; is what set Sinéad O’Connor into 1990s superstardom. The album, inspired by the breakup of her marriage to John Reynolds, is a harrowing song cycle of loss and redemption. It is punctuated by a cover of Prince’s &lt;em&gt;Nothing Compares 2 U&lt;/em&gt;. This cover and its minimalist, effecting video made O'Connor a major star.&lt;/p&gt;", 'producers': [{'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}, {'name': 'Peter Gabriel', 'url': 'https://genius.com/artists/Peter-gabriel'}, {'name': 'Sinéad O’Connor', 'url': 'https://genius.com/artists/Sinead-oconnor'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Barbara Wyrick', 'url': 'https://genius.com/artists/Barbara-wyrick'}, {'name': 'Cole Porter', 'url': 'https://genius.com/artists/Cole-porter'}, {'name': 'Frank O’Connor', 'url': 'https://genius.com/artists/Frank-oconnor'}, {'name': 'Franz Xaver Gruber', 'url': 'https://genius.com/artists/Franz-xaver-gruber'}, {'name': 'Gregory Isaacs', 'url': 'https://genius.com/artists/Gregory-isaacs'}, {'name': 'John Lennon', 'url': 'https://genius.com/artists/John-lennon'}, {'name': 'Joseph Mohr', 'url': 'https://genius.com/artists/Joseph-mohr'}, {'name': 'Marco Pirroni', 'url': 'https://genius.com/artists/Marco-pirroni'}, {'name': 'Philip King', 'url': 'https://genius.com/artists/Philip-king'}, {'name': 'Prince', 'url': 'https://genius.com/artists/Prince'}, {'name': 'Sinéad O’Connor', 'url': 'https://genius.com/artists/Sinead-oconnor'}, {'name': 'Steve Bogard', 'url': 'https://genius.com/artists/Steve-bogard'}, {'name': 'Sylvester Weise', 'url': 'https://genius.com/artists/Sylvester-weise'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Metallica/Metallica', 'annotations': {'description': '&lt;p&gt;The eponymous fifth album from thrash metal icons &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; (also known as “The Black Album” for its dark cover) marked a huge shift in sound for the band, one which would catapult them into being the biggest band in the world, while arguably diluting the elements that had once made them so vital and influential.&lt;/p&gt;\n\n&lt;p&gt;The album debuted at number one on 10 album charts &lt;a href="http://www.billboard.com/artist/310639/Metallica/chart?f=305" rel="noopener nofollow"&gt;(including 4 weeks at #1 on the Billboard)&lt;/a&gt;, is certified &lt;a href="http://www.billboard.com/articles/news/6099381/metallica-black-album-sales-16-million-nielsen-soundscan" rel="noopener nofollow"&gt;16x platinum in America&lt;/a&gt; and is the &lt;a href="http://en.wikipedia.org/wiki/List_of_best-selling_albums#30.E2.80.9339_million_copies" rel="noopener nofollow"&gt;24th best-selling album of all time&lt;/a&gt; (selling more copies than &lt;a href="https://genius.com/albums/Michael-jackson/Bad" rel="noopener" data-api_path="/albums/11195"&gt;&lt;em&gt;Bad&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Nirvana/Nevermind" rel="noopener" data-api_path="/albums/11569"&gt;&lt;em&gt;Nevermind&lt;/em&gt;&lt;/a&gt; and even &lt;a href="https://genius.com/albums/Backstreet-boys/Backstreet-s-back" rel="noopener" data-api_path="/albums/37012"&gt;&lt;em&gt;Backstreet’s Back&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Britney-spears/Baby-one-more-time" rel="noopener" data-api_path="/albums/40205"&gt;&lt;em&gt;…Baby One More Time&lt;/em&gt;&lt;/a&gt;).  That actually makes it the &lt;a href="http://www.metalinjection.net/its-just-business/record-sales/metallicas-black-album-sells-16-million-copies-becomes-highest-selling-album-of-the-last-23-years" rel="noopener nofollow"&gt;highest selling album of the last 25 years&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oh, and it &lt;a href="http://en.wikipedia.org/wiki/Grammy_Award_for_Best_Metal_Performance" rel="noopener nofollow"&gt;won them their third Grammy in a row.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Produced by &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt;, the whole songwriting process and focus of the album changed from previous records. Lyrics were more introspective, songs were shorter, and Lars\' drumming was simpler:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When we started using Bob, it was because Bob made all the best rock records that were going on at that time. Everything that was going on in the late eighties was all about Bob Rock.&lt;br&gt;\n- Lars &lt;a href="https://www.youtube.com/watch?v=6r6wn47_Vqs" rel="noopener nofollow"&gt;“I killed Napster”&lt;/a&gt; Ulrich&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album produced 5 singles:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Metallica-enter-sandman-lyrics" rel="noopener" data-api_path="/songs/118766"&gt;“Enter Sandman”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Metallica-the-unforgiven-lyrics" rel="noopener" data-api_path="/songs/50590"&gt;“The Unforgiven”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Metallica-nothing-else-matters-lyrics" rel="noopener" data-api_path="/songs/108832"&gt;“Nothing Else Matters”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Metallica-wherever-i-may-roam-lyrics" rel="noopener" data-api_path="/songs/62060"&gt;“Wherever I May Roam”&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/Metallica-sad-but-true-lyrics" rel="noopener" data-api_path="/songs/86099"&gt;“Sad but True”&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;FUN FACT&lt;/strong&gt;&lt;br&gt;\nThe album almost had a &lt;strong&gt;very&lt;/strong&gt; different name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The working title we had for the last record – you don’t get much stupider than that. Three of us were getting divorces. And we were sitting there getting real down on ourselves. When we wanted to cheer ourselves up, we looked at each other and said, “You know who we’re married to? We’re married to metal!” And that became the running joke on the last album: &lt;a href="http://www.metallicaworld.co.uk/Interviews/1995_lars_marriedtometal.htm" rel="noopener nofollow"&gt;&lt;em&gt;Married to Metal&lt;/em&gt;&lt;/a&gt;&lt;br&gt;\n- Lars &lt;a href="https://www.youtube.com/watch?v=_q0Z3gBActg" rel="noopener nofollow"&gt;“I have a sense of humour”&lt;/a&gt; Ulrich&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Bob Rock', 'url': 'https://genius.com/artists/Bob-rock'}, {'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}], 'writers': [{'name': 'James Hetfield', 'url': 'https://genius.com/artists/James-hetfield'}, {'name': 'Jason Newsted', 'url': 'https://genius.com/artists/Jason-newsted'}, {'name': 'Kirk Hammett', 'url': 'https://genius.com/artists/Kirk-hammett'}, {'name': 'Lars Ulrich', 'url': 'https://genius.com/artists/Lars-ulrich'}], 'labels': [{'name': 'Elektra Records', 'url': 'https://genius.com/artists/Elektra-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Hoobastank/The-reason', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Reason&lt;/em&gt; is the second studio album by American rock band Hoobastank, released on December 9, 2003 via Island Records. The album reached a &lt;a href="https://www.billboard.com/music/Hoobastank/chart-history/TLP" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #3 on the Billboard 200 chart, making it their highest peaking album, as well as their only top 10 on the chart.&lt;/p&gt;\n\n&lt;p&gt;A total of four singles were released from the album: &lt;a href="https://genius.com/Hoobastank-out-of-control-lyrics" rel="noopener" data-api_path="/songs/936544"&gt;“Out of Control”&lt;/a&gt;, &lt;a href="https://genius.com/Hoobastank-the-reason-lyrics" rel="noopener" data-api_path="/songs/173824"&gt;“The Reason”&lt;/a&gt;, &lt;a href="https://genius.com/Hoobastank-same-direction-lyrics" rel="noopener" data-api_path="/songs/1331985"&gt;“Same Direction”&lt;/a&gt;, and &lt;a href="https://genius.com/Hoobastank-disappear-lyrics" rel="noopener" data-api_path="/songs/1720758"&gt;“Disappear”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;“The Reason” became the most successful single from the album and of their career, reaching a &lt;a href="https://www.billboard.com/music/Hoobastank/chart-history/HSI" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #2, making it their highest peaking single to date in their career.&lt;/p&gt;', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Dan Estrin', 'url': 'https://genius.com/artists/Dan-estrin'}, {'name': 'Daniel B Estrin', 'url': 'https://genius.com/artists/Daniel-b-estrin'}, {'name': 'Daniel Estren', 'url': 'https://genius.com/artists/Daniel-estren'}, {'name': 'Douglas Robb', 'url': 'https://genius.com/artists/Douglas-robb'}, {'name': 'Doug Robb', 'url': 'https://genius.com/artists/Doug-robb'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/Billy-idol/Billy-idol', 'annotations': {'description': '', 'producers': [{'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}], 'writers': [{'name': 'Billy Idol', 'url': 'https://genius.com/artists/Billy-idol'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Philip Hawk', 'url': 'https://genius.com/artists/Philip-hawk'}, {'name': 'Steve Stevens', 'url': 'https://genius.com/artists/Steve-stevens'}, {'name': 'Tony James', 'url': 'https://genius.com/artists/Tony-james'}], 'labels': [{'name': 'BMG Chrysalis', 'url': 'https://genius.com/artists/Bmg-chrysalis'}, {'name': 'Chrysalis Records', 'url': 'https://genius.com/artists/Chrysalis-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Peter-schilling/Von-anfang-an-bis-jetzt-das-ultimativ-beste', 'annotations': {'description': '', 'producers': [{'name': 'Armin Sabol', 'url': 'https://genius.com/artists/Armin-sabol'}, {'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'writers': [{'name': 'Peter Schilling', 'url': 'https://genius.com/artists/Peter-schilling'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Shawn-mendes/Illuminate', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Illuminate&lt;/em&gt; is the sophomore album by singer &lt;a href="https://genius.com/artists/Shawn-mendes" rel="noopener" data-api_path="/artists/195029"&gt;Shawn Mendes&lt;/a&gt;. It was released on September 23 2016 through Island Records. The album &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/billboard-200/song/995020" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at #1 on the Billboard 200 with 145,000 equivalent album units.&lt;/p&gt;\n\n&lt;p&gt;The album’s lead single “&lt;a href="https://genius.com/Shawn-mendes-treat-you-better-lyrics" rel="noopener" data-api_path="/songs/2478138"&gt;Treat You Better&lt;/a&gt;” was released on June 3, 2016 and &lt;a href="https://www.billboard.com/music/shawn-mendes/chart-history/hot-100/song/977241" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #6 on the Billboard 100. On October 18, 2016 the second single “&lt;a href="https://genius.com/Shawn-mendes-mercy-lyrics" rel="noopener" data-api_path="/songs/2811214"&gt;Mercy&lt;/a&gt;” was released and was serviced to the US top 40 radio stations. “&lt;a href="https://genius.com/Shawn-mendes-theres-nothing-holdin-me-back-lyrics" rel="noopener" data-api_path="/songs/3051803"&gt;There’s Nothing Holdin\' Me Back&lt;/a&gt;” was released as the album’s third and final single on April 20, 2017.&lt;/p&gt;', 'producers': [{'name': 'Andrew Maury', 'url': 'https://genius.com/artists/Andrew-maury'}, {'name': 'Dan Romer', 'url': 'https://genius.com/artists/Dan-romer'}, {'name': 'DJ Kyriakides', 'url': 'https://genius.com/artists/Dj-kyriakides'}, {'name': 'Jake Gosling', 'url': 'https://genius.com/artists/Jake-gosling'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}], 'writers': [{'name': 'Danny Parker', 'url': 'https://genius.com/artists/Danny-parker'}, {'name': 'Geoffrey Warburton', 'url': 'https://genius.com/artists/Geoffrey-warburton'}, {'name': 'Geoff Warburton', 'url': 'https://genius.com/artists/Geoff-warburton'}, {'name': 'Gustaf Thörn', 'url': 'https://genius.com/artists/Gustaf-thorn'}, {'name': 'Ido Zmishlany', 'url': 'https://genius.com/artists/Ido-zmishlany'}, {'name': 'Ilsey', 'url': 'https://genius.com/artists/Ilsey'}, {'name': 'Kid Harpoon', 'url': 'https://genius.com/artists/Kid-harpoon'}, {'name': 'Laleh', 'url': 'https://genius.com/artists/Laleh'}, {'name': 'Scott Harris', 'url': 'https://genius.com/artists/Scott-harris'}, {'name': 'Shawn Mendes', 'url': 'https://genius.com/artists/Shawn-mendes'}, {'name': 'Teddy Geiger', 'url': 'https://genius.com/artists/Teddy-geiger'}, {'name': 'Tobias Jesso Jr.', 'url': 'https://genius.com/artists/Tobias-jesso-jr'}], 'labels': [{'name': 'CYNUMG', 'url': 'https://genius.com/artists/Cynumg'}, {'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}, {'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pulp/Different-class', 'annotations': {'description': '&lt;p&gt;This is the fifth album by Pulp. It was released in 1995, at the peak of the Britpop movement, and transformed them into an essential part of the British musical scene. This record received a stellar reception from critics, and it has grown to be recognised not only as one of the most iconic albums of Britpop, but as one of the best albums ever released. “Different Class” was awarded the Mercury Music Prize in 1996.&lt;/p&gt;\n\n&lt;p&gt;The album has a sleeve note which explains the title rather well : “Please understand – we don’t want no trouble. We just want the right to be different. That’s all.”&lt;/p&gt;', 'producers': [{'name': 'Anne Dudley', 'url': 'https://genius.com/artists/Anne-dudley'}, {'name': 'Chris Thomas', 'url': 'https://genius.com/artists/Chris-thomas'}], 'writers': [{'name': 'Candida Doyle', 'url': 'https://genius.com/artists/Candida-doyle'}, {'name': 'Jarvis Cocker', 'url': 'https://genius.com/artists/Jarvis-cocker'}, {'name': 'Mark Webber', 'url': 'https://genius.com/artists/Mark-webber'}, {'name': 'Nick Banks', 'url': 'https://genius.com/artists/Nick-banks'}, {'name': 'Russell Senior', 'url': 'https://genius.com/artists/Russell-senior'}, {'name': 'Steve Mackey', 'url': 'https://genius.com/artists/Steve-mackey'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Foo-fighters/There-is-nothing-left-to-lose', 'annotations': {'description': '&lt;p&gt;There Is Nothing Left to Lose is the third studio album by American rock band Foo Fighters, released November 2, 1999. The album marks the first appearance of drummer Taylor Hawkins, and is often seen as a departure from the band’s previous work, showcasing a softer, more experimental sound. In a 2006 interview, Dave Grohl states that the album is “totally based on melody” and that it “might be his favorite album that they’ve ever done.”&lt;/p&gt;\n\n&lt;p&gt;There Is Nothing Left to Lose won the Grammy Award for Best Rock Album in 2001, marking the group’s first ever Grammy Award.&lt;/p&gt;\n\n&lt;p&gt;Track 12th ‘Fraternity’ is featured in the Australian/Japanese mini LP limited edition&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c9d7e90fbccf2071f3ce8e6001eb6b8c.600x513x1.jpg" alt="" width="600" height="513" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Adam Kasper', 'url': 'https://genius.com/artists/Adam-kasper'}, {'name': 'Foo Fighters', 'url': 'https://genius.com/artists/Foo-fighters'}], 'writers': [{'name': 'Dave Grohl', 'url': 'https://genius.com/artists/Dave-grohl'}, {'name': 'Nate Mendel', 'url': 'https://genius.com/artists/Nate-mendel'}, {'name': 'Taylor Hawkins', 'url': 'https://genius.com/artists/Taylor-hawkins'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Korn/Follow-the-leader', 'annotations': {'description': '&lt;p&gt;In early 1998, Korn began work on their third album &lt;em&gt;Follow The Leader&lt;/em&gt; in an atmosphere &lt;a href="http://www.blabbermouth.net/news/korn-interviewed-by-u-k-s-scuzz-video/" rel="noopener nofollow"&gt;loaded with&lt;/a&gt; excessive alcohol, drugs and sex. Instead of using producer Ross Robinson as they’d done on their first two albums, the band chose Steve Thompson and Toby Wright and recorded at NRG Recording Studios in LA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Follow The Leader&lt;/em&gt;, featuring cover art by award-winning comic book artist Todd MacFarlane, debuted at #1 in the US on the strength of the band’s already-established following combined with the success of the new album’s lead single “Got The Life”. Despite the track only &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks/3" rel="noopener nofollow"&gt;reaching #15&lt;/a&gt; on the Rock Chart, it became so popular on MTV’s fan-fueled &lt;em&gt;Total Request Live&lt;/em&gt; that the channel eventually &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;forcibly retired it&lt;/a&gt; from the show.&lt;/p&gt;\n\n&lt;p&gt;The album’s second single “Freak On A Leash” surpassed its first single, &lt;a href="https://www.billboard.com/music/Korn/chart-history/hot-mainstream-rock-tracks" rel="noopener nofollow"&gt;reaching #10&lt;/a&gt; on the Rock Chart. The track was &lt;a href="https://www.grammy.com/grammys/artists/korn" rel="noopener nofollow"&gt;nominated for a Grammy&lt;/a&gt; for Best Metal Performance that year and its video, featuring more artwork by MacFarlane, won for Best Short Form Music Video.&lt;/p&gt;\n\n&lt;p&gt;Both singles reached the top 30 &lt;a href="http://www.officialcharts.com/artist/355/korn/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and were &lt;a href="http://www.aria.com.au/pages/aria-charts-accreditations-singles-1999.htm" rel="noopener nofollow"&gt;certified gold in Australia&lt;/a&gt;, pushing the band into international stardom and moving them out of clubs and into packed arenas. Frontman Jonathan Davis &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;commented&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;(The album’s success) freaked everyone in the band out. We went through a crazy adjustment period. We used to be able to go out in the crowd and talk to people and suddenly I needed a bodyguard to go anywhere.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the fall of 1998, Korn set out on their first annual Family Values Tour with openers Limp Bizkit, Ice Cube, Rammstein, Incubus and Orgy. It is credited with helping &lt;em&gt;Follow The Leader&lt;/em&gt; reach 5x platinum in the US. As of 2016, the album had &lt;a href="http://exclaim.ca/music/article/korn-its_still_on" rel="noopener nofollow"&gt;sold over 14 million copies&lt;/a&gt; worldwide.&lt;/p&gt;', 'producers': [{'name': 'Korn', 'url': 'https://genius.com/artists/Korn'}, {'name': 'Steve Thompson', 'url': 'https://genius.com/artists/Steve-thompson'}, {'name': 'Toby Wright', 'url': 'https://genius.com/artists/Toby-wright'}], 'writers': [{'name': 'Brian “Head” Welch', 'url': 'https://genius.com/artists/Brian-head-welch'}, {'name': 'Cheech Marin', 'url': 'https://genius.com/artists/Cheech-marin'}, {'name': 'David Silveria', 'url': 'https://genius.com/artists/David-silveria'}, {'name': 'Fred Durst', 'url': 'https://genius.com/artists/Fred-durst'}, {'name': 'Gaye Delorme', 'url': 'https://genius.com/artists/Gaye-delorme'}, {'name': 'Ice Cube', 'url': 'https://genius.com/artists/Ice-cube'}, {'name': 'James “Munky” Shaffer', 'url': 'https://genius.com/artists/James-munky-shaffer'}, {'name': 'Jonathan Davis', 'url': 'https://genius.com/artists/Jonathan-davis'}, {'name': 'Reginald “Fieldy” Arvizu', 'url': 'https://genius.com/artists/Reginald-fieldy-arvizu'}, {'name': 'Slimkid3', 'url': 'https://genius.com/artists/Slimkid3'}, {'name': 'Tommy Chong', 'url': 'https://genius.com/artists/Tommy-chong'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Immortal Records', 'url': 'https://genius.com/artists/Immortal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ramones/Road-to-ruin', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;&lt;a href="https://genius.com/albums/The-ramones/Road-to-ruin" rel="noopener" data-api_path="/albums/27503"&gt;Road to Ruin&lt;/a&gt;&lt;/em&gt; is the fourth studio album by the American punk rock band &lt;a href="https://genius.com/artists/The-ramones" rel="noopener" data-api_path="/artists/765"&gt;The Ramones&lt;/a&gt;. It was released on September 21, 1978 through Sire Records. It was the first Ramones album to feature new drummer &lt;a href="https://genius.com/artists/Marky-ramone" rel="noopener" data-api_path="/artists/1009408"&gt;Marky Ramone&lt;/a&gt;, replacing founding member &lt;a href="https://genius.com/artists/Tommy-ramone" rel="noopener" data-api_path="/artists/78739"&gt;Tommy Ramone&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ed Stasium', 'url': 'https://genius.com/artists/Ed-stasium'}, {'name': 'Phil Spector', 'url': 'https://genius.com/artists/Phil-spector'}, {'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}], 'writers': [{'name': 'Dee Dee Ramone', 'url': 'https://genius.com/artists/Dee-dee-ramone'}, {'name': 'Jack Nitzsche', 'url': 'https://genius.com/artists/Jack-nitzsche'}, {'name': 'Joey Ramone', 'url': 'https://genius.com/artists/Joey-ramone'}, {'name': 'Johnny Ramone', 'url': 'https://genius.com/artists/Johnny-ramone'}, {'name': 'Marky Ramone', 'url': 'https://genius.com/artists/Marky-ramone'}, {'name': 'Ramones', 'url': 'https://genius.com/artists/Ramones'}, {'name': 'Sonny Bono', 'url': 'https://genius.com/artists/Sonny-bono'}, {'name': 'Tommy Ramone', 'url': 'https://genius.com/artists/Tommy-ramone'}], 'labels': [{'name': 'Sire Records', 'url': 'https://genius.com/artists/Sire-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Green-day/Insomniac', 'annotations': {'description': '&lt;p&gt;Characterised by its darker lyricism and heavy, abrasive sound, &lt;em&gt;Insomniac&lt;/em&gt; is the fourth studio album by Green Day. Released on October 10 1995, the album was well received by fans and critics despite failing to match the great commercial success of its 1994 predecessor, &lt;a href="https://genius.com/albums/Green-day/Dookie" rel="noopener" data-api_path="/albums/14245"&gt;&lt;em&gt;Dookie&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Often regarded as Green Day’s darkest work, Armstrong’s lyricism is abundant with themes of frustration (&lt;a href="https://genius.com/Green-day-brat-lyrics" rel="noopener" data-api_path="/songs/337370"&gt;“Brat”&lt;/a&gt;), rejection (&lt;a href="https://genius.com/Green-day-stuck-with-me-lyrics" rel="noopener" data-api_path="/songs/382365"&gt;“Stuck With Me”&lt;/a&gt;), self-doubt (&lt;a href="https://genius.com/Green-day-armatage-shanks-lyrics" rel="noopener" data-api_path="/songs/361820"&gt;“Armatage Shanks”&lt;/a&gt;), panic attacks (&lt;a href="https://genius.com/Green-day-panic-song-lyrics" rel="noopener" data-api_path="/songs/383501"&gt;“Panic Song”&lt;/a&gt;), and explicit drug use (&lt;a href="https://genius.com/Green-day-geek-stink-breath-lyrics" rel="noopener" data-api_path="/songs/50647"&gt;“Geek Stink Breath”&lt;/a&gt;). A review by &lt;a href="http://rol.st/2cPzJkh" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; added:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The core message of &lt;em&gt;Insomniac&lt;/em&gt; — like all great punk records — is that redemption is possible only through cold-eyed realism, not trendy nihilism or bleak despair.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/bjaofficial/status/34349567428268032"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Rob Cavallo', 'url': 'https://genius.com/artists/Rob-cavallo'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Wheatus/Wheatus', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Wheatus&lt;/em&gt; is the self-titled debut album of the band Wheatus, released mid-2000. Including the hit &lt;em&gt;Teenage Dirtbag&lt;/em&gt; which reached no. 2 on the UK charts, &lt;em&gt;Wheatus&lt;/em&gt; is possibly the band’s most popular album ever released.&lt;/p&gt;', 'producers': [{'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'Philip A. Jimenez', 'url': 'https://genius.com/artists/Philip-a-jimenez'}, {'name': 'Wheatus', 'url': 'https://genius.com/artists/Wheatus'}], 'writers': [{'name': 'Andy Bell', 'url': 'https://genius.com/artists/Andy-bell'}, {'name': 'Brendan B. Brown', 'url': 'https://genius.com/artists/Brendan-b-brown'}, {'name': 'David Thoener', 'url': 'https://genius.com/artists/David-thoener'}, {'name': 'Rich Liegey', 'url': 'https://genius.com/artists/Rich-liegey'}, {'name': 'Vince Clarke', 'url': 'https://genius.com/artists/Vince-clarke'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;My Head Is An Animal&lt;/em&gt; is the debut studio album by Icelandic alternative folk band &lt;a href="https://genius.com/artists/Of-monsters-and-men" rel="noopener" data-api_path="/artists/18453"&gt;Of Monsters and Men&lt;/a&gt;, it was first released on Iceland through Record Records. By April 2012, &lt;a href="https://genius.com/albums/Of-monsters-and-men/My-head-is-an-animal-reissue" rel="noopener" data-api_path="/albums/15605"&gt;the album was reissued&lt;/a&gt; worldwide by Universal Music Group, with a new cover art, remastered versions of the songs and a different tracklist.&lt;/p&gt;\n\n&lt;p&gt;Each of the 14 tracks from both versions of the album has a lyric video of its own. Except for the “Mountain Sound” music video, all the music and lyric videos were produced and directed by Canadian duo &lt;a href="https://wwm.productions/" rel="noopener nofollow"&gt;WeWereMonkeys&lt;/a&gt;. The videos of the record were inspired by Nordic Mythologhy, WeWereMonkeys\' team even traveled to Iceland to study the country’s landscapes. The music video for “Little Talks” was &lt;a href="https://en.wikipedia.org/wiki/2012_MTV_Video_Music_Awards#Best_Art_Direction" rel="noopener nofollow"&gt;nominated at the 2012 MTV Video Music Awards&lt;/a&gt; for the “Best Art Direction” prize.&lt;/p&gt;\n\n&lt;p&gt;Three singles were released from the record: “Little Talks”, “Mountain Sound” (track absent from the original release) and “King And Lionheart”. “Little Talks”‘ huge success was the reason why the band signed with Universal: the single had sold a million copies in the US and &lt;a href="https://www.billboard.com/music/of-monsters-and-men/chart-history/HSI/song/714225" rel="noopener nofollow"&gt;peaked at #20&lt;/a&gt; on the Hot 100. In the UK and Ireland, the track “Dirty Paws” was released as the second single and “Six Weeks” as a promotional one.&lt;/p&gt;\n\n&lt;p&gt;The reissue of &lt;em&gt;My Head Is An Animal&lt;/em&gt; &lt;a href="https://www.billboard.com/charts/billboard-200/2012-04-21" rel="noopener nofollow"&gt;debuted and peaked at #6&lt;/a&gt; on the Billboard 200, being the best chart performance for an Icelandic musical artist in US history until then. In January 2014 the album achieved platinum certification in the US, and by 2015 it had sold 1.1 million copies in the country.&lt;/p&gt;', 'producers': [{'name': 'Aron Þór Arnarsson', 'url': 'https://genius.com/artists/Aron-or-arnarsson'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}, {'name': 'Of Monsters and Men', 'url': 'https://genius.com/artists/Of-monsters-and-men'}], 'writers': [{'name': 'Arnar Rósenkranz Hilmarsson', 'url': 'https://genius.com/artists/Arnar-rosenkranz-hilmarsson'}, {'name': 'Brynjar Leifsson', 'url': 'https://genius.com/artists/Brynjar-leifsson'}, {'name': 'Nanna Bryndís Hilmarsdóttir', 'url': 'https://genius.com/artists/Nanna-bryndis-hilmarsdottir'}, {'name': 'Ragnar Þórhallsson', 'url': 'https://genius.com/artists/Ragnar-orhallsson'}, {'name': 'Stephen Mann', 'url': 'https://genius.com/artists/Stephen-mann'}], 'labels': [{'name': 'Universal Records', 'url': 'https://genius.com/artists/Universal-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-pussycat-dolls/Pcd', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;PCD&lt;/em&gt; is the debut studio album by The Pussycat Dolls. The pop &amp;amp; R&amp;amp;B record discusses themes such as sex, feminism, and romance. The album was a massive commercial success, debuting at number five on the Billboard 200 and reached the top ten &lt;a href="https://en.wikipedia.org/wiki/PCD_%28album" rel="noopener nofollow"&gt;in Australia, Germany, and the United Kingdom.&lt;/a&gt; Six singles were released for the album, including hits such as “Don’t Cha”, “Stickwitu”, “Beep” and “Buttons”.&lt;br&gt;\nThe record has been certified double platinum by the RIAA and has sold nine million copies worldwide, becoming their best-selling album to date. It’s also the &lt;a href="https://en.wikipedia.org/wiki/List_of_best-selling_girl_groups#Worldwide_2" rel="noopener nofollow"&gt;eighth best-selling girl group album worldwide.&lt;/a&gt;&lt;/p&gt;', 'producers': [{'name': 'Avant', 'url': 'https://genius.com/artists/Avant'}, {'name': 'Big Tank', 'url': 'https://genius.com/artists/Big-tank'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'The Droyds', 'url': 'https://genius.com/artists/The-droyds'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Kwame (Producer)', 'url': 'https://genius.com/artists/Kwame-producer'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'Rich Harrison', 'url': 'https://genius.com/artists/Rich-harrison'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Sean Garrett', 'url': 'https://genius.com/artists/Sean-garrett'}, {'name': 'Siobhan Fahey', 'url': 'https://genius.com/artists/Siobhan-fahey'}, {'name': 'Steven Gallifrent', 'url': 'https://genius.com/artists/Steven-gallifrent'}, {'name': 'Tal Herzberg', 'url': 'https://genius.com/artists/Tal-herzberg'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Anthony Newley', 'url': 'https://genius.com/artists/Anthony-newley'}, {'name': 'Avant', 'url': 'https://genius.com/artists/Avant'}, {'name': 'Bob Crewe', 'url': 'https://genius.com/artists/Bob-crewe'}, {'name': 'Busta Rhymes', 'url': 'https://genius.com/artists/Busta-rhymes'}, {'name': 'Carl Sigman', 'url': 'https://genius.com/artists/Carl-sigman'}, {'name': 'CeeLo Green', 'url': 'https://genius.com/artists/Ceelo-green'}, {'name': 'Clare Kenny', 'url': 'https://genius.com/artists/Clare-kenny'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Eddie Holland', 'url': 'https://genius.com/artists/Eddie-holland'}, {'name': 'Franne Golde', 'url': 'https://genius.com/artists/Franne-golde'}, {'name': 'Greg Wells', 'url': 'https://genius.com/artists/Greg-wells'}, {'name': 'Harold Clayton', 'url': 'https://genius.com/artists/Harold-clayton'}, {'name': 'Harold Faltermeyer', 'url': 'https://genius.com/artists/Harold-faltermeyer'}, {'name': 'Herbie Mann', 'url': 'https://genius.com/artists/Herbie-mann'}, {'name': 'Jason Perry', 'url': 'https://genius.com/artists/Jason-perry'}, {'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Keith Forsey', 'url': 'https://genius.com/artists/Keith-forsey'}, {'name': 'Kenny Nolan', 'url': 'https://genius.com/artists/Kenny-nolan'}, {'name': 'Keri Hilson', 'url': 'https://genius.com/artists/Keri-hilson'}, {'name': 'Kwame (Producer)', 'url': 'https://genius.com/artists/Kwame-producer'}, {'name': 'Lamont Dozier', 'url': 'https://genius.com/artists/Lamont-dozier'}, {'name': 'Leslie Bricusse', 'url': 'https://genius.com/artists/Leslie-bricusse'}, {'name': 'Nicole Scherzinger', 'url': 'https://genius.com/artists/Nicole-scherzinger'}, {'name': 'Norman Gimbel', 'url': 'https://genius.com/artists/Norman-gimbel'}, {'name': 'Pablo Beltrán Ruiz', 'url': 'https://genius.com/artists/Pablo-beltran-ruiz'}, {'name': 'Pete Bellotte', 'url': 'https://genius.com/artists/Pete-bellotte'}, {'name': 'Polow da Don', 'url': 'https://genius.com/artists/Polow-da-don'}, {'name': 'Rich Harrison', 'url': 'https://genius.com/artists/Rich-harrison'}, {'name': 'Robert Palmer', 'url': 'https://genius.com/artists/Robert-palmer'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Sean Garrett', 'url': 'https://genius.com/artists/Sean-garrett'}, {'name': 'Sigidi', 'url': 'https://genius.com/artists/Sigidi'}, {'name': 'Siobhan Fahey', 'url': 'https://genius.com/artists/Siobhan-fahey'}, {'name': 'Sir Mix-a-Lot', 'url': 'https://genius.com/artists/Sir-mix-a-lot'}, {'name': 'Six2', 'url': 'https://genius.com/artists/Six2'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Steven Gallifent', 'url': 'https://genius.com/artists/Steven-gallifent'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Will Blanchard', 'url': 'https://genius.com/artists/Will-blanchard'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Olivia-rodrigo/Sour', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;SOUR&lt;/em&gt; is the debut studio album by Olivia Rodrigo, released through &lt;a href="https://genius.com/artists/Geffen-records" rel="noopener" data-api_path="/artists/32167"&gt;Geffen Records&lt;/a&gt; and &lt;a href="https://genius.com/artists/Interscope-records" rel="noopener" data-api_path="/artists/143490"&gt;Interscope Records&lt;/a&gt;. Initially &lt;a href="https://i-d.vice.com/en_uk/article/pkdmz8/olivia-rodrigo-interview-about-drivers-license-taylor-swift-and-disney-hsmtmts" rel="noopener nofollow"&gt;envisioned&lt;/a&gt; as an EP, &lt;em&gt;SOUR&lt;/em&gt; was later expanded to a full-length album due to the breakout success of her debut single, &lt;a href="https://genius.com/Olivia-rodrigo-drivers-license-lyrics" rel="noopener" data-api_path="/songs/5795230"&gt;“drivers license,”&lt;/a&gt; released on January 8, 2021.&lt;/p&gt;\n\n&lt;p&gt;The &lt;a href="https://variety.com/2021/music/news/olivia-rodrigo-new-single-deja-vu-1234942090/" rel="noopener nofollow"&gt;announcement&lt;/a&gt; of the album on April 1, 2021 also coincided with the release of her second single, &lt;a href="https://genius.com/Olivia-rodrigo-deja-vu-lyrics" rel="noopener" data-api_path="/songs/6649389"&gt;“deja vu.”&lt;/a&gt; On April 13, 2021, Olivia revealed the album’s title, cover art, and tracklist through an &lt;a href="https://www.instagram.com/p/CNnSB-7L80g/" rel="noopener nofollow"&gt;Instagram post.&lt;/a&gt; The third single, &lt;a href="https://genius.com/Olivia-rodrigo-good-4-u-lyrics" rel="noopener" data-api_path="/songs/6702232"&gt;“good 4 u,”&lt;/a&gt; was released on May 14, 2021, a week before the album’s full release.&lt;/p&gt;', 'producers': [{'name': 'Alexander 23', 'url': 'https://genius.com/artists/Alexander-23'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Jam City', 'url': 'https://genius.com/artists/Jam-city'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}], 'writers': [{'name': 'Casey Smith', 'url': 'https://genius.com/artists/Casey-smith'}, {'name': 'Dan Nigro', 'url': 'https://genius.com/artists/Dan-nigro'}, {'name': 'Hayley Williams', 'url': 'https://genius.com/artists/Hayley-williams'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Josh Farro', 'url': 'https://genius.com/artists/Josh-farro'}, {'name': 'Olivia Rodrigo', 'url': 'https://genius.com/artists/Olivia-rodrigo'}, {'name': 'St. Vincent', 'url': 'https://genius.com/artists/St-vincent'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Shakira/Laundry-service', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Laundry Service&lt;/em&gt; is the fifth studio album by Colombian singer and songwriter Shakira, released on November 13, 2001 via Epic Records. The album marks her English language album debut. Shakira barely knew English when she started writing the album, having to &lt;a href="http://faze.ca/shakira-cover-story-cultural-fusion/" rel="noopener nofollow"&gt;refer&lt;/a&gt; to rhyming dictionaries, English poetry, and authors like Leonard Cohen and Walt Whitman to help express her ideas and her feelings.&lt;/p&gt;\n\n&lt;p&gt;Shakira explained in an interview for the album the inspiration behind its title to Billboard in 2001:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The reason I named it &lt;em&gt;Laundry Service&lt;/em&gt; is because I’ve spent the year dedicated to my two great passions: love and music. Those two elements are like soap and water. It was a deep cleansing, almost like being reborn.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Brendan Buckley', 'url': 'https://genius.com/artists/Brendan-buckley'}, {'name': 'George Noriega', 'url': 'https://genius.com/artists/George-noriega'}, {'name': 'Javier Garza', 'url': 'https://genius.com/artists/Javier-garza'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Luis Fernando Ochoa', 'url': 'https://genius.com/artists/Luis-fernando-ochoa'}, {'name': 'Pablo Flores', 'url': 'https://genius.com/artists/Pablo-flores'}, {'name': 'Shakira', 'url': 'https://genius.com/artists/Shakira'}, {'name': 'Tim Mitchell', 'url': 'https://genius.com/artists/Tim-mitchell'}], 'writers': [{'name': 'Brendan Buckley', 'url': 'https://genius.com/artists/Brendan-buckley'}, {'name': 'George Noriega', 'url': 'https://genius.com/artists/George-noriega'}, {'name': 'Glen Ballard', 'url': 'https://genius.com/artists/Glen-ballard'}, {'name': 'Gloria Estefan', 'url': 'https://genius.com/artists/Gloria-estefan'}, {'name': 'Javier Garza', 'url': 'https://genius.com/artists/Javier-garza'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Luis Fernando Ochoa', 'url': 'https://genius.com/artists/Luis-fernando-ochoa'}, {'name': 'Pablo Flores', 'url': 'https://genius.com/artists/Pablo-flores'}, {'name': 'Shakira', 'url': 'https://genius.com/artists/Shakira'}, {'name': 'Tim Mitchell', 'url': 'https://genius.com/artists/Tim-mitchell'}], 'labels': [{'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Carrie-underwood/Some-hearts', 'annotations': {'description': '&lt;p&gt;“Some Hearts” is the debut studio album by American country singer Carrie Underwood, released in the United States on November 15, 2005. In 2005, the same year of the album’s release, Underwood became the winner of the 4th season of American Idol, beating out fellow contestant, and runner up, &lt;a href="https://genius.com/artists/Bo-bice" rel="noopener" data-api_path="/artists/152332"&gt;Bo Bice&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During the first week of its release, the album &lt;a href="http://www.billboard.com/articles/news/60566/madonna-dances-straight-to-no-1" rel="noopener nofollow"&gt;debuted at number two&lt;/a&gt; on the Billboard 200, selling 315,000 copies in its first week of release. The album spent a total of 137 weeks on the Billboard 200 chart.&lt;/p&gt;\n\n&lt;p&gt;By October 24, 2016, the album, as reported by &lt;a href="http://tasteofcountry.com/carrie-underwood-some-hearts-biggest-selling-country-album-riaa/" rel="noopener nofollow"&gt;&lt;em&gt;TasteofCountry&lt;/em&gt;&lt;/a&gt;,  reached 8x Platinum (which equals 8 million copies) in sales, making it Underwood’s best selling album to date.&lt;/p&gt;', 'producers': [{'name': 'Dann Huff', 'url': 'https://genius.com/artists/Dann-huff'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Mark Bright', 'url': 'https://genius.com/artists/Mark-bright'}], 'writers': [{'name': 'Andreas Carlsson', 'url': 'https://genius.com/artists/Andreas-carlsson'}, {'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Ashley Gorley', 'url': 'https://genius.com/artists/Ashley-gorley'}, {'name': 'Brett James', 'url': 'https://genius.com/artists/Brett-james'}, {'name': 'Carrie Underwood', 'url': 'https://genius.com/artists/Carrie-underwood'}, {'name': 'Chris Tompkins', 'url': 'https://genius.com/artists/Chris-tompkins'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Gordie Sampson', 'url': 'https://genius.com/artists/Gordie-sampson'}, {'name': 'Greg Becker', 'url': 'https://genius.com/artists/Greg-becker'}, {'name': 'Hillary Lindsey', 'url': 'https://genius.com/artists/Hillary-lindsey'}, {'name': 'Jimmy Olander', 'url': 'https://genius.com/artists/Jimmy-olander'}, {'name': 'Josh Kear', 'url': 'https://genius.com/artists/Josh-kear'}, {'name': 'Kelley Lovelace', 'url': 'https://genius.com/artists/Kelley-lovelace'}, {'name': 'Marv Green', 'url': 'https://genius.com/artists/Marv-green'}, {'name': 'Melissa Peirce', 'url': 'https://genius.com/artists/Melissa-peirce'}, {'name': 'Morgane Hayes', 'url': 'https://genius.com/artists/Morgane-hayes'}, {'name': 'Neil Thrasher', 'url': 'https://genius.com/artists/Neil-thrasher'}, {'name': 'Pelle Nylén', 'url': 'https://genius.com/artists/Pelle-nylen'}, {'name': 'Rivers Rutherford', 'url': 'https://genius.com/artists/Rivers-rutherford'}, {'name': 'Savan Kotecha', 'url': 'https://genius.com/artists/Savan-kotecha'}, {'name': 'Steve McEwan', 'url': 'https://genius.com/artists/Steve-mcewan'}, {'name': 'Steve Robson', 'url': 'https://genius.com/artists/Steve-robson'}, {'name': 'Trey Bruce', 'url': 'https://genius.com/artists/Trey-bruce'}, {'name': 'Troy Verges', 'url': 'https://genius.com/artists/Troy-verges'}, {'name': 'Wayne Hector', 'url': 'https://genius.com/artists/Wayne-hector'}, {'name': 'Wendell Mobley', 'url': 'https://genius.com/artists/Wendell-mobley'}], 'labels': [{'name': 'Arista Nashville', 'url': 'https://genius.com/artists/Arista-nashville'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Jennifer-paige/Flowers-the-hits-collection', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Flowers – The Hits Collection&lt;/em&gt; is the first and only greatest hits album from Jennifer Paige, released on May 8, 2003 via Hollywood Records.&lt;/p&gt;\n\n&lt;p&gt;The collection features songs from her 1998 &lt;a href="https://genius.com/albums/Jennifer-paige/Jennifer-paige" rel="noopener" data-api_path="/albums/193359"&gt;self-titled&lt;/a&gt; album and 2001’s &lt;a href="https://genius.com/albums/Jennifer-paige/Positively-somewhere" rel="noopener" data-api_path="/albums/280106"&gt;&lt;em&gt;Positively Somewhere&lt;/em&gt;&lt;/a&gt;. Also featured is a &lt;a href="https://genius.com/Jennifer-paige-saturday-girl-demo-version-lyrics" rel="noopener" data-api_path="/songs/5633959"&gt;demo version&lt;/a&gt; of &lt;a href="https://genius.com/Jennifer-paige-saturday-girl-lyrics" rel="noopener"&gt;“Saturday Girl”&lt;/a&gt; and a &lt;a href="https://genius.com/Jennifer-paige-crush-david-morales-radio-alt-intro-lyrics" rel="noopener" data-api_path="/songs/5633960"&gt;remix of “Crush”&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Andy Goldmark', 'url': 'https://genius.com/artists/Andy-goldmark'}, {'name': 'Chance Scoggins', 'url': 'https://genius.com/artists/Chance-scoggins'}, {'name': 'Damian LeGassick', 'url': 'https://genius.com/artists/Damian-legassick'}, {'name': 'J.D. Martin', 'url': 'https://genius.com/artists/Jd-martin'}, {'name': 'Jimmy Bralower', 'url': 'https://genius.com/artists/Jimmy-bralower'}, {'name': 'Kim Bullard', 'url': 'https://genius.com/artists/Kim-bullard'}, {'name': 'Matt Bronleewe', 'url': 'https://genius.com/artists/Matt-bronleewe'}, {'name': 'Mick Guzauski', 'url': 'https://genius.com/artists/Mick-guzauski'}, {'name': 'Oliver Leiber', 'url': 'https://genius.com/artists/Oliver-leiber'}, {'name': 'Wayne Kirkpatrick', 'url': 'https://genius.com/artists/Wayne-kirkpatrick'}], 'writers': [{'name': 'Andy Goldmark', 'url': 'https://genius.com/artists/Andy-goldmark'}, {'name': 'Arnold Roman', 'url': 'https://genius.com/artists/Arnold-roman'}, {'name': 'Berny Cosgrove', 'url': 'https://genius.com/artists/Berny-cosgrove'}, {'name': 'Chance Scoggins', 'url': 'https://genius.com/artists/Chance-scoggins'}, {'name': 'Christopher Ward', 'url': 'https://genius.com/artists/Christopher-ward'}, {'name': 'Ian Matthews', 'url': 'https://genius.com/artists/Ian-matthews'}, {'name': 'J.D. Martin', 'url': 'https://genius.com/artists/Jd-martin'}, {'name': 'Jeffrey Bullard', 'url': 'https://genius.com/artists/Jeffrey-bullard'}, {'name': 'Jennifer Paige', 'url': 'https://genius.com/artists/Jennifer-paige'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Kevin Clark', 'url': 'https://genius.com/artists/Kevin-clark'}, {'name': 'Lars Halvor Jensen', 'url': 'https://genius.com/artists/Lars-halvor-jensen'}, {'name': 'Mark Mueller', 'url': 'https://genius.com/artists/Mark-mueller'}, {'name': 'Martin Michael Larsson', 'url': 'https://genius.com/artists/Martin-michael-larsson'}, {'name': 'Matt Bronleewe', 'url': 'https://genius.com/artists/Matt-bronleewe'}, {'name': 'Matt Stanfield', 'url': 'https://genius.com/artists/Matt-stanfield'}, {'name': 'Plumb', 'url': 'https://genius.com/artists/Plumb'}, {'name': 'Robert Beaty', 'url': 'https://genius.com/artists/Robert-beaty'}, {'name': 'Russ DeSalvo', 'url': 'https://genius.com/artists/Russ-desalvo'}, {'name': 'Steve Booker', 'url': 'https://genius.com/artists/Steve-booker'}, {'name': 'Trina Harmon', 'url': 'https://genius.com/artists/Trina-harmon'}, {'name': 'Wayne Kirkpatrick', 'url': 'https://genius.com/artists/Wayne-kirkpatrick'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kiss/Lick-it-up', 'annotations': {'description': '&lt;p&gt;The first album to feature KISS without their distinctive makeup, &lt;em&gt;Lick It Up&lt;/em&gt; is most notable for its &lt;a href="https://genius.com/Kiss-lick-it-up-lyrics" rel="noopener" data-api_path="/songs/326629"&gt;title track&lt;/a&gt;, which helped the band to return to prominence following several disappointing albums. It was also the only album to officially credit &lt;a href="https://genius.com/artists/Vinnie-vincent" rel="noopener" data-api_path="/artists/380185"&gt;Vinnie Vincent&lt;/a&gt; as lead guitarist; he appears as co-writer on nearly every song on the LP.&lt;/p&gt;', 'producers': [{'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Michael James Jackson', 'url': 'https://genius.com/artists/Michael-james-jackson'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}], 'writers': [{'name': 'Eric Carr', 'url': 'https://genius.com/artists/Eric-carr'}, {'name': 'Gene Simmons', 'url': 'https://genius.com/artists/Gene-simmons'}, {'name': 'Paul Stanley', 'url': 'https://genius.com/artists/Paul-stanley'}, {'name': 'Vinnie Vincent', 'url': 'https://genius.com/artists/Vinnie-vincent'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Jason-derulo/Everything-is-4', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Everything Is 4&lt;/em&gt; is the fourth studio album by American singer Jason Derulo. The album was released in the US on June 2, 2015 by Beluga Heights Records and Warner Bros. Records. The lead single “Want to Want Me”, which reached number one in six countries, was released on March 9, 2015. The album is a follow-up to Derulo’s previous studio album, &lt;em&gt;Tattoos&lt;/em&gt; (2013) in the international market and &lt;em&gt;Talk Dirty&lt;/em&gt; (2014) in the United States.&lt;/p&gt;', 'producers': [{'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Cook Classics', 'url': 'https://genius.com/artists/Cook-classics'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Hitmaka', 'url': 'https://genius.com/artists/Hitmaka'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'MAG', 'url': 'https://genius.com/artists/Mag'}, {'name': 'Matoma', 'url': 'https://genius.com/artists/Matoma'}, {'name': 'The MeKanics', 'url': 'https://genius.com/artists/The-mekanics'}, {'name': 'Mr. Collipark', 'url': 'https://genius.com/artists/Mr-collipark'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'OAK', 'url': 'https://genius.com/artists/Oak'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Wallpaper.', 'url': 'https://genius.com/artists/Wallpaper'}], 'writers': [{'name': 'A1', 'url': 'https://genius.com/artists/A1'}, {'name': 'Arin Ray', 'url': 'https://genius.com/artists/Arin-ray'}, {'name': 'Ben Shapiro', 'url': 'https://genius.com/artists/Ben-shapiro'}, {'name': 'BJ Mekk', 'url': 'https://genius.com/artists/Bj-mekk'}, {'name': 'Charlie Puth', 'url': 'https://genius.com/artists/Charlie-puth'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'David Ritz', 'url': 'https://genius.com/artists/David-ritz'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Foreign Teck', 'url': 'https://genius.com/artists/Foreign-teck'}, {'name': 'Hitmaka', 'url': 'https://genius.com/artists/Hitmaka'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'James Roston', 'url': 'https://genius.com/artists/James-roston'}, {'name': 'Jason Derulo', 'url': 'https://genius.com/artists/Jason-derulo'}, {'name': 'Jason Evigan', 'url': 'https://genius.com/artists/Jason-evigan'}, {'name': 'Johan Carlsson', 'url': 'https://genius.com/artists/Johan-carlsson'}, {'name': 'Jordan Hollywood', 'url': 'https://genius.com/artists/Jordan-hollywood'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Lindy Robbins', 'url': 'https://genius.com/artists/Lindy-robbins'}, {'name': 'Lyrica Anderson', 'url': 'https://genius.com/artists/Lyrica-anderson'}, {'name': 'Marcella Araica', 'url': 'https://genius.com/artists/Marcella-araica'}, {'name': 'MarcLo', 'url': 'https://genius.com/artists/Marclo'}, {'name': 'Marvin Gaye', 'url': 'https://genius.com/artists/Marvin-gaye'}, {'name': 'Meghan Trainor', 'url': 'https://genius.com/artists/Meghan-trainor'}, {'name': 'Mitch Allan', 'url': 'https://genius.com/artists/Mitch-allan'}, {'name': 'OAK', 'url': 'https://genius.com/artists/Oak'}, {'name': 'Odell Brown', 'url': 'https://genius.com/artists/Odell-brown'}, {'name': 'Pop Wansel', 'url': 'https://genius.com/artists/Pop-wansel'}, {'name': 'Ricky Reed', 'url': 'https://genius.com/artists/Ricky-reed'}, {'name': 'Ross Golan', 'url': 'https://genius.com/artists/Ross-golan'}, {'name': 'Sam Martin', 'url': 'https://genius.com/artists/Sam-martin'}, {'name': 'Sean Douglas', 'url': 'https://genius.com/artists/Sean-douglas'}, {'name': 'Shy Carter', 'url': 'https://genius.com/artists/Shy-carter'}, {'name': 'Sonny Alves', 'url': 'https://genius.com/artists/Sonny-alves'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'Tayla Parx', 'url': 'https://genius.com/artists/Tayla-parx'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Mr-big/Bump-ahead', 'annotations': {'description': '', 'producers': [{'name': 'Kevin Elson', 'url': 'https://genius.com/artists/Kevin-elson'}], 'writers': [{'name': 'Andy Fraser', 'url': 'https://genius.com/artists/Andy-fraser'}, {'name': 'Billy Sheehan', 'url': 'https://genius.com/artists/Billy-sheehan'}, {'name': 'Cat Stevens', 'url': 'https://genius.com/artists/Cat-stevens'}, {'name': 'Eric Martin', 'url': 'https://genius.com/artists/Eric-martin'}, {'name': 'Pat Torpey', 'url': 'https://genius.com/artists/Pat-torpey'}, {'name': 'Paul Gilbert', 'url': 'https://genius.com/artists/Paul-gilbert'}, {'name': 'Paul Kossoff', 'url': 'https://genius.com/artists/Paul-kossoff'}, {'name': 'Paul Rodgers', 'url': 'https://genius.com/artists/Paul-rodgers'}, {'name': 'Simon Kirke', 'url': 'https://genius.com/artists/Simon-kirke'}, {'name': 'Tony Fanucchi', 'url': 'https://genius.com/artists/Tony-fanucchi'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-prodigy/Smack-my-bitch-up', 'annotations': {'description': '', 'producers': [{'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}], 'writers': [{'name': 'Ced-Gee', 'url': 'https://genius.com/artists/Ced-gee'}, {'name': 'DJ Moe Love', 'url': 'https://genius.com/artists/Dj-moe-love'}, {'name': 'Kool Keith', 'url': 'https://genius.com/artists/Kool-keith'}, {'name': 'Liam Howlett', 'url': 'https://genius.com/artists/Liam-howlett'}, {'name': 'Tom Morello', 'url': 'https://genius.com/artists/Tom-morello'}, {'name': 'TR Love', 'url': 'https://genius.com/artists/Tr-love'}], 'labels': [{'name': 'Maverick Recording Company', 'url': 'https://genius.com/artists/Maverick-recording-company'}, {'name': 'XL Recordings', 'url': 'https://genius.com/artists/Xl-recordings'}]}}</t>
+    <t>{'url': 'https://genius.com/albums/Foreigner/4', 'annotations': {'description': '', 'producers': [{'name': 'Mick Jones (Foreigner)', 'url': 'https://genius.com/artists/Mick-jones-foreigner'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Joe Don Rooney', 'url': 'https://genius.com/artists/Joe-don-rooney'}, {'name': 'Justin Ebach', 'url': 'https://genius.com/artists/Justin-ebach'}, {'name': 'Lou Gramm', 'url': 'https://genius.com/artists/Lou-gramm'}, {'name': 'Mick Jones (Foreigner)', 'url': 'https://genius.com/artists/Mick-jones-foreigner'}, {'name': 'Steven Dale Jones', 'url': 'https://genius.com/artists/Steven-dale-jones'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Halsey/Manic', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s third studio album, released on January 17, 2020. The title was officially unveiled on September 13, 2019, in a &lt;a href="https://twitter.com/halsey/status/1172368117789425670" rel="noopener nofollow"&gt;tweet&lt;/a&gt; alongside its pre-order and second single, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Whilst Halsey &lt;a href="https://youtu.be/ptfkySSxIT4?t=61" rel="noopener nofollow"&gt;initially intended&lt;/a&gt; for “Without Me” to be a standalone record, this was later changed to become the album’s lead single. The song earned Halsey her second number-one single on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100, her first solo effort. The track is a contrast to the singer-songwriter’s previous records, &lt;a href="https://www.youtube.com/watch?v=ptfkySSxIT4&amp;amp;feature=youtu.be&amp;amp;t=75" rel="noopener nofollow"&gt;diving into her personal feelings&lt;/a&gt; and giving listeners a peek into her personal life.&lt;/p&gt;\n\n&lt;p&gt;Following &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard,”&lt;/a&gt; Halsey released &lt;a href="https://genius.com/Halsey-clementine-lyrics" rel="noopener" data-api_path="/songs/4784601"&gt;“clementine”&lt;/a&gt; on her 25th birthday in September.&lt;/p&gt;\n\n&lt;p&gt;In March 2019 Halsey took to &lt;a href="https://twitter.com/halsey/status/1110416326185504768?ref_src=twsrc%5Etfw%7Ctwcamp%5Etweetembed%7Ctwterm%5E1110416326185504768&amp;amp;ref_url=http%3A%2F%2Fwww.mtv.com%2Fnews%2F3118462%2Fhalsey-third-album-update-loud%2F" rel="noopener nofollow"&gt;Twitter,&lt;/a&gt; stating that “writing this album has been a lesson in forgiving myself.” In &lt;a href="https://twitter.com/halsey/status/1173686542860029952" rel="noopener nofollow"&gt;another tweet&lt;/a&gt; Halsey said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I sat down to make a dark mean album and found nothing but calm, introspective, acceptance in my heart.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; was originally supposed to be an angry, rebellious album, but after writing &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; Halsey found herself writing a very &lt;a href="https://music.apple.com/us/post/sa.34e55c30-d8a9-11e9-99d0-69574c2b519c" rel="noopener nofollow"&gt;“calm and introspective”&lt;/a&gt; record, &lt;a href="https://twitter.com/halsey/status/1172962357082853376?ref_src=twsrc%5Etfw%7Ctwcamp%5Etweetembed%7Ctwterm%5E1172962357082853376&amp;amp;ref_url=https%3A%2F%2Fwww.cosmopolitan.com%2Fentertainment%2Fmusic%2Fa29072224%2Fhalsey-album-manic-news-release-date-theories%2F" rel="noopener nofollow"&gt;tweeting&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;thank god I sat down to write and realized I wasn’t angry anymore. it feels good to have that wait off my chest. &lt;em&gt;[sic]&lt;/em&gt;&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Alex Young', 'url': 'https://genius.com/artists/Alex-young'}, {'name': 'Andrew Jackson', 'url': 'https://genius.com/artists/Andrew-jackson'}, {'name': 'Andrew Wells', 'url': 'https://genius.com/artists/Andrew-wells'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Brenton Duvall', 'url': 'https://genius.com/artists/Brenton-duvall'}, {'name': 'Cashmere Cat', 'url': 'https://genius.com/artists/Cashmere-cat'}, {'name': 'Duck Blackwell', 'url': 'https://genius.com/artists/Duck-blackwell'}, {'name': 'Fred again..', 'url': 'https://genius.com/artists/Fred-again'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Jasper Sheff', 'url': 'https://genius.com/artists/Jasper-sheff'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'Jon Bellion', 'url': 'https://genius.com/artists/Jon-bellion'}, {'name': 'Lido', 'url': 'https://genius.com/artists/Lido'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'The Monsters &amp; Strangerz', 'url': 'https://genius.com/artists/The-monsters-and-strangerz'}, {'name': 'Ojivolta', 'url': 'https://genius.com/artists/Ojivolta'}, {'name': 'Pdogg', 'url': 'https://genius.com/artists/Pdogg'}, {'name': 'SUGA (BTS)', 'url': 'https://genius.com/artists/Suga-bts'}], 'writers': [{'name': 'Alanis Morissette', 'url': 'https://genius.com/artists/Alanis-morissette'}, {'name': 'Alex Young', 'url': 'https://genius.com/artists/Alex-young'}, {'name': 'Ammar Malik', 'url': 'https://genius.com/artists/Ammar-malik'}, {'name': 'Amy Allen', 'url': 'https://genius.com/artists/Amy-allen'}, {'name': 'Andrew Jackson', 'url': 'https://genius.com/artists/Andrew-jackson'}, {'name': 'Andrew Wells', 'url': 'https://genius.com/artists/Andrew-wells'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Brenton Duvall', 'url': 'https://genius.com/artists/Brenton-duvall'}, {'name': 'Cashmere Cat', 'url': 'https://genius.com/artists/Cashmere-cat'}, {'name': 'Dave Lubben', 'url': 'https://genius.com/artists/Dave-lubben'}, {'name': 'Delacey', 'url': 'https://genius.com/artists/Delacey'}, {'name': 'Dominic Fike', 'url': 'https://genius.com/artists/Dominic-fike'}, {'name': 'Duck Blackwell', 'url': 'https://genius.com/artists/Duck-blackwell'}, {'name': 'Ed Sheeran', 'url': 'https://genius.com/artists/Ed-sheeran'}, {'name': 'FINNEAS', 'url': 'https://genius.com/artists/Finneas'}, {'name': 'Focus Features', 'url': 'https://genius.com/artists/Focus-features'}, {'name': 'Fred again..', 'url': 'https://genius.com/artists/Fred-again'}, {'name': 'Greg Kurstin', 'url': 'https://genius.com/artists/Greg-kurstin'}, {'name': 'Halsey', 'url': 'https://genius.com/artists/Halsey'}, {'name': 'Happy Perez', 'url': 'https://genius.com/artists/Happy-perez'}, {'name': 'Jasper Sheff', 'url': 'https://genius.com/artists/Jasper-sheff'}, {'name': 'John Cunningham', 'url': 'https://genius.com/artists/John-cunningham'}, {'name': 'Jon Bellion', 'url': 'https://genius.com/artists/Jon-bellion'}, {'name': 'Jordan K. Johnson', 'url': 'https://genius.com/artists/Jordan-k-johnson'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kevin Snevely', 'url': 'https://genius.com/artists/Kevin-snevely'}, {'name': 'Lido', 'url': 'https://genius.com/artists/Lido'}, {'name': 'Louis Bell', 'url': 'https://genius.com/artists/Louis-bell'}, {'name': 'Mike Farrell', 'url': 'https://genius.com/artists/Mike-farrell'}, {'name': 'Nate Ruess', 'url': 'https://genius.com/artists/Nate-ruess'}, {'name': 'Noonie Bao', 'url': 'https://genius.com/artists/Noonie-bao'}, {'name': 'Ojivolta', 'url': 'https://genius.com/artists/Ojivolta'}, {'name': 'Romy', 'url': 'https://genius.com/artists/Romy'}, {'name': 'Sarah Aarons', 'url': 'https://genius.com/artists/Sarah-aarons'}, {'name': 'Scott Storch', 'url': 'https://genius.com/artists/Scott-storch'}, {'name': 'Stefan Johnson', 'url': 'https://genius.com/artists/Stefan-johnson'}, {'name': 'SUGA (BTS)', 'url': 'https://genius.com/artists/Suga-bts'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Guru-josh-project/Infinity-2008-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Guru Josh Project', 'url': 'https://genius.com/artists/Guru-josh-project'}, {'name': 'Klaas', 'url': 'https://genius.com/artists/Klaas'}], 'writers': [{'name': 'Guru Josh', 'url': 'https://genius.com/artists/Guru-josh'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Radiohead/Ok-computer', 'annotations': {'description': '&lt;p&gt;Despite not having a hit anywhere near the size of &lt;a href="https://genius.com/Radiohead-creep-lyrics" rel="noopener" data-api_path="/songs/109096"&gt;“Creep”&lt;/a&gt;, Radiohead’s previous album &lt;a href="https://genius.com/albums/Radiohead/The-bends" rel="noopener" data-api_path="/albums/16306"&gt;&lt;em&gt;The Bends&lt;/em&gt;&lt;/a&gt; (1995) was successful enough for their record company EMI to give them complete creative control. The result was 1997’s &lt;em&gt;OK Computer&lt;/em&gt;, which was designed as a deliberate reaction against the grunge movement of the 1990s. Then new-ish engineer and future Radiohead mainstay Nigel Godrich told &lt;a href="http://www.rollingstone.com/music/features/exclusive-thom-yorke-and-radiohead-on-ok-computer-w484570" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; of the recording sessions:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;They were the band of my dreams. There were no constraints. This was not Neanderthal rock &amp;amp; roll. It was very high-level thinking, conceptual, moving forwards in terms of sonics, and beautiful songs. It was a perfect thing. Lots of people, lots of ideas, and we all could pull in the same direction.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The album’s lyrical themes and composition has it hailed as way ahead of its time, predictive of society’s obsession with technology, and the isolation and paranoia that comes with it. Yorke, however, explained that it stemmed mostly from his personal experiences travelling non-stop in a touring band.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The paranoia I felt at the time was much more related to how people related to each other. But I was using the terminology of technology to express it. Everything I was writing was actually a way of trying to reconnect with other human beings when you’re always in transit. That’s what I had to write about because that’s what was going on, which in itself instilled a kind of loneliness and disconnection.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;OK Computer&lt;/em&gt; was released to universal acclaim upon its release, and is often considered to be one of the greatest albums of all time. On its twentieth anniversary in 2017, the band released a deluxe set including B-sides and never-before-released studio versions of songs, titled &lt;a href="https://genius.com/albums/Radiohead/Ok-computer-oknotok-1997-2017" rel="noopener" data-api_path="/albums/343022"&gt;&lt;em&gt;OK COMPUTER OKNOTOK 1997 2017&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Nigel Godrich', 'url': 'https://genius.com/artists/Nigel-godrich'}, {'name': 'Radiohead', 'url': 'https://genius.com/artists/Radiohead'}], 'writers': [{'name': 'Colin Greenwood', 'url': 'https://genius.com/artists/Colin-greenwood'}, {'name': 'Ed O’Brien', 'url': 'https://genius.com/artists/Ed-obrien'}, {'name': 'Jonny Greenwood', 'url': 'https://genius.com/artists/Jonny-greenwood'}, {'name': 'Philip Selway', 'url': 'https://genius.com/artists/Philip-selway'}, {'name': 'Thom Yorke', 'url': 'https://genius.com/artists/Thom-yorke'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Gary-moore/Still-got-the-blues', 'annotations': {'description': '', 'producers': [{'name': 'Gary Moore', 'url': 'https://genius.com/artists/Gary-moore'}, {'name': 'Ian Taylor', 'url': 'https://genius.com/artists/Ian-taylor'}], 'writers': [{'name': 'A.C. Williams', 'url': 'https://genius.com/artists/Ac-williams'}, {'name': 'Alphonso “Sonny” Thompson', 'url': 'https://genius.com/artists/Alphonso-sonny-thompson'}, {'name': 'Clifford Adams', 'url': 'https://genius.com/artists/Clifford-adams'}, {'name': 'Don Robey', 'url': 'https://genius.com/artists/Don-robey'}, {'name': 'Elmore James', 'url': 'https://genius.com/artists/Elmore-james'}, {'name': 'Freddie King', 'url': 'https://genius.com/artists/Freddie-king'}, {'name': 'Gary Moore', 'url': 'https://genius.com/artists/Gary-moore'}, {'name': 'George Harrison', 'url': 'https://genius.com/artists/George-harrison'}, {'name': 'Jimmy Rogers', 'url': 'https://genius.com/artists/Jimmy-rogers'}, {'name': 'Joe Medwick', 'url': 'https://genius.com/artists/Joe-medwick'}, {'name': 'Johnny “Guitar” Watson', 'url': 'https://genius.com/artists/Johnny-guitar-watson'}, {'name': 'Maxwell Davis', 'url': 'https://genius.com/artists/Maxwell-davis'}, {'name': 'Otis Rush', 'url': 'https://genius.com/artists/Otis-rush'}, {'name': 'Peter Green', 'url': 'https://genius.com/artists/Peter-green'}, {'name': 'Saul Bihari', 'url': 'https://genius.com/artists/Saul-bihari'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Imagine-dragons/Night-visions', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Night Visions&lt;/em&gt; is the debut studio album for American alt-rock band, Imagine Dragons. The album is defined by the success of hit singles &lt;a href="https://genius.com/Imagine-dragons-radioactive-lyrics" rel="noopener" data-api_path="/songs/98754"&gt;“Radioactive”&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-demons-lyrics" rel="noopener" data-api_path="/songs/109206"&gt;“Demons”&lt;/a&gt;, the former of which held the record for the &lt;a href="https://www.billboard.com/articles/columns/rock/9615436/dan-reynolds-imagine-dragons-radioactive-weeknd" rel="noopener nofollow"&gt;longest song to chart on the Hot 100 in Billboard history&lt;/a&gt; for seven years. The band’s debut effort is also one of the ten longest-charting albums on the Billboard 200 at &lt;a href="https://www.billboard.com/music/imagine-dragons/chart-history/billboard-200/song/757410" rel="noopener nofollow"&gt;over 300 weeks&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album, along with its singles, are defined by genre-blurring, anthemic tracks, complete with quiet verses and soaring &lt;a href="https://genius.com/Imagine-dragons-on-top-of-the-world-lyrics" rel="noopener" data-api_path="/songs/109209"&gt;choruses of triumph&lt;/a&gt; and &lt;a href="https://genius.com/Imagine-dragons-bleeding-out-lyrics" rel="noopener" data-api_path="/songs/110210"&gt;anguish&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Brandon Darner', 'url': 'https://genius.com/artists/Brandon-darner'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'writers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Andrew Tolman', 'url': 'https://genius.com/artists/Andrew-tolman'}, {'name': 'Ben McKee', 'url': 'https://genius.com/artists/Ben-mckee'}, {'name': 'Brittany Tolman', 'url': 'https://genius.com/artists/Brittany-tolman'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Josh Mosser', 'url': 'https://genius.com/artists/Josh-mosser'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KIDinaKORNER', 'url': 'https://genius.com/artists/Kidinakorner'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kid-rock/Born-free', 'annotations': {'description': '&lt;p&gt;Born Free is the eighth studio album by American musician Kid Rock. It was released on November 16, 2010 under his own label Top Dog Records in conjunction with Atlantic Records. Unlike his other albums, Born Free is the only one that does not contain any profane lyrics&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Herschel Boone', 'url': 'https://genius.com/artists/Herschel-boone'}, {'name': 'Jason Boland', 'url': 'https://genius.com/artists/Jason-boland'}, {'name': 'Kid Rock', 'url': 'https://genius.com/artists/Kid-rock'}, {'name': 'Marlon Young', 'url': 'https://genius.com/artists/Marlon-young'}, {'name': 'T.I.', 'url': 'https://genius.com/artists/Ti'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Top Dog Records', 'url': 'https://genius.com/artists/Top-dog-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Gwen-stefani/Love-angel-music-baby', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt; is the debut solo studio album by American singer Gwen Stefani, released on November 12, 2004, via Interscope Records. During the album’s release, it &lt;a href="https://www.billboard.com/articles/news/65450/u2s-bomb-explodes-at-no-1" rel="noopener nofollow"&gt;debuted&lt;/a&gt; at number five on the US Billboard 200, selling 309,000 copies in its first week.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt; was released as the lead single from &lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt; The song became her first single as a solo artist to appear on the Billboard Hot 100 chart, peaking at #47. &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, featuring Eve, was released as the album’s second single and became Stefani’s first top-10 entry as a solo artist in the US, peaking at number seven on the Billboard Hot 100. &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt; was released as the third single, becoming Stefani’s biggest hit on the Hot 100 and her only number one single. &lt;a href="https://genius.com/Gwen-stefani-cool-lyrics" rel="noopener" data-api_path="/songs/273786"&gt;“Cool”&lt;/a&gt; was released as the fourth single from the album, reaching a peak of #13. &lt;a href="https://genius.com/Gwen-stefani-luxurious-remix-lyrics" rel="noopener" data-api_path="/songs/32565"&gt;“Luxurious”&lt;/a&gt;, reaching a peak of #21, was released as the fifth single, with the [single version] featuring rapper Slim Thug. &lt;a href="https://genius.com/Gwen-stefani-crash-lyrics" rel="noopener" data-api_path="/songs/422894"&gt;“Crash”&lt;/a&gt; became Stefani’s final single from the album. The song did not match the previous success of the previous singles, peaking at #49.&lt;/p&gt;', 'producers': [{'name': 'André 3000', 'url': 'https://genius.com/artists/Andre-3000'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Nellee Hooper', 'url': 'https://genius.com/artists/Nellee-hooper'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'writers': [{'name': 'André 3000', 'url': 'https://genius.com/artists/Andre-3000'}, {'name': 'Bobby Ross Avila', 'url': 'https://genius.com/artists/Bobby-ross-avila'}, {'name': 'Chad Hugo', 'url': 'https://genius.com/artists/Chad-hugo'}, {'name': 'Chantal Kreviazuk', 'url': 'https://genius.com/artists/Chantal-kreviazuk'}, {'name': 'Chris Jasper', 'url': 'https://genius.com/artists/Chris-jasper'}, {'name': 'Dallas Austin', 'url': 'https://genius.com/artists/Dallas-austin'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Eve', 'url': 'https://genius.com/artists/Eve'}, {'name': 'Gavin Rossdale', 'url': 'https://genius.com/artists/Gavin-rossdale'}, {'name': 'Gwen Stefani', 'url': 'https://genius.com/artists/Gwen-stefani'}, {'name': 'The Isley Brothers', 'url': 'https://genius.com/artists/The-isley-brothers'}, {'name': 'Iz Avila', 'url': 'https://genius.com/artists/Iz-avila'}, {'name': 'James “Big Jim” Wright', 'url': 'https://genius.com/artists/James-big-jim-wright'}, {'name': 'Jerry Bock', 'url': 'https://genius.com/artists/Jerry-bock'}, {'name': 'Jimmy Jam', 'url': 'https://genius.com/artists/Jimmy-jam'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Linda Perry', 'url': 'https://genius.com/artists/Linda-perry'}, {'name': 'Mark Batson', 'url': 'https://genius.com/artists/Mark-batson'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}, {'name': 'Seven Benjamin', 'url': 'https://genius.com/artists/Seven-benjamin'}, {'name': 'Sheldon Harnick', 'url': 'https://genius.com/artists/Sheldon-harnick'}, {'name': 'Terry Lewis', 'url': 'https://genius.com/artists/Terry-lewis'}, {'name': 'Tony Kanal', 'url': 'https://genius.com/artists/Tony-kanal'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Fall-out-boy/Folie-a-deux', 'annotations': {'description': '&lt;p&gt;Released in 2008, &lt;em&gt;Folie à Deux&lt;/em&gt; takes its name from a French phrase translated as “A Madness Shared by Two”. Guitarist Joe Trohman spoke of &lt;a href="http://www.guitarworld.com/fall-out-boy-fall-guy" rel="noopener nofollow"&gt;the title’s significance as a metaphor&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s a psychiatric term for when crazy people get together and their out-of-control psyches enhance one another, and not always in positive ways. I think it describes the inner-workings of Fall Out Boy. When the four of us get together in a room, things get pretty insane.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;This was the fourth and final Fall Out Boy studio album released before the band’s 2009 hiatus, which lasted until their return in 2013. When promoting the album, a viral campaign was launched, centring around a fictional organisation named &lt;a href="https://en.wikipedia.org/wiki/Welcome_to_the_New_Administration" rel="noopener nofollow"&gt;“Citizens For Our Betterment” (CFOB)&lt;/a&gt;. A mixtape was later released in support of this, titled &lt;a href="https://genius.com/albums/Fall-out-boy/Citizensfob-mixtape-welcome-to-the-new-administration" rel="noopener" data-api_path="/albums/156869"&gt;&lt;em&gt;Welcome to the New Administration&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Upon the release of &lt;em&gt;Folie à Deux&lt;/em&gt;, the album received mixed reviews from fans despite critics praising its creativity and musical style. Three singles were officially released from the album, which has since been certified Gold – “&lt;a href="https://genius.com/Fall-out-boy-i-dont-care-lyrics" rel="noopener" data-api_path="/songs/243876"&gt;I Don’t Care&lt;/a&gt;,” “&lt;a href="https://genius.com/Fall-out-boy-americas-suitehearts-lyrics" rel="noopener" data-api_path="/songs/330215"&gt;America’s Suitehearts&lt;/a&gt;,” and “&lt;a href="https://genius.com/Fall-out-boy-what-a-catch-donnie-lyrics" rel="noopener" data-api_path="/songs/138493"&gt;What a Catch, Donnie&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;While previous Fall Out Boy lyrics were often autobiographical in nature, the focus for this album was turned outward towards the world. Thematically, many of bassist Pete Wentz’s lyrics have a political underpinning and draw inspiration from moral dilemmas, societal weaknesses and decaying relationships. He also delves into the concepts of &lt;a href="http://www.mtv.com/news/1594167/fall-out-boy-exclusive-band-previews-folie-a-deux-tracks-for-mtv-news/" rel="noopener nofollow"&gt;infidelity, trust, responsibility and commitment&lt;/a&gt;. Through this, &lt;a href="http://usatoday30.usatoday.com/life/music/news/2008-12-15-fall-out-boy_N.htm" rel="noopener nofollow"&gt;Stump says&lt;/a&gt; the album challenges&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;the materialistic dance between any two parties obsessed with each other, whether it’s teenage girls and handbag makers, politicians and lobbyists or tabloids and stars.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Numerous artists feature on the album, including &lt;a href="https://genius.com/artists/Elvis-costello" rel="noopener" data-api_path="/artists/24308"&gt;Elvis Costello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Travie-mccoy" rel="noopener" data-api_path="/artists/667"&gt;Travis McCoy&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Panic-at-the-disco" rel="noopener" data-api_path="/artists/50838"&gt;Brendon Urie&lt;/a&gt; who made cameos on the song “&lt;a href="https://genius.com/Fall-out-boy-what-a-catch-donnie-lyrics" rel="noopener" data-api_path="/songs/138493"&gt;What a Catch, Donnie&lt;/a&gt;.” Wentz explained this was necessary for &lt;a href="http://content.time.com/time/arts/article/0,8599,1866455,00.html" rel="noopener nofollow"&gt;conveying the message of the album&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;More than anything, they serve the purpose of a character in a musical, where this character’s voice makes the most sense… Certain lines need to be conveyed in certain ways.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Fall Out Boy', 'url': 'https://genius.com/artists/Fall-out-boy'}, {'name': 'Neal Avron', 'url': 'https://genius.com/artists/Neal-avron'}, {'name': 'The Neptunes', 'url': 'https://genius.com/artists/The-neptunes'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}], 'writers': [{'name': 'Andy Hurley', 'url': 'https://genius.com/artists/Andy-hurley'}, {'name': 'Joe Trohman', 'url': 'https://genius.com/artists/Joe-trohman'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Norman Greenbaum', 'url': 'https://genius.com/artists/Norman-greenbaum'}, {'name': 'Patrick Stump', 'url': 'https://genius.com/artists/Patrick-stump'}, {'name': 'Pete Wentz', 'url': 'https://genius.com/artists/Pete-wentz'}, {'name': 'Pharrell Williams', 'url': 'https://genius.com/artists/Pharrell-williams'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Highly-suspect/The-boy-who-died-wolf', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Boy Who Died Wolf&lt;/em&gt;, released Nov 18, 2016, is &lt;a href="https://genius.com/artists/Highly-suspect" rel="noopener" data-api_path="/artists/338874"&gt;Highly Suspect&lt;/a&gt;’s sophomore album. With its name inspired by lead singer Johnny Stevens\' hard upbringing in Cape Cod, this album strays from their previous album’s (&lt;em&gt;&lt;a href="https://genius.com/albums/Highly-suspect/Mister-asylum" rel="noopener" data-api_path="/albums/127120"&gt;Mister Asylum&lt;/a&gt;&lt;/em&gt;, 2015) more linear style in exchange for a diverse musical palette of anywhere to punk, rap, and even spoken word.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Life is a little better for us right now, so the music is a little spunkier. You know how in high school you had to be into one type of music? You were the punk kid, the goth kid or the rap kid — that classified you. It’s not like that anymore. And we have a giant palette of musical taste. We’re not into making sure we give our fans one thing. We’re into making sure we’re playing what we like."&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/031817af241bbc2090ce606b503b6482.1000x667x1.jpg" alt="" width="1000" height="667" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Joel Hamilton', 'url': 'https://genius.com/artists/Joel-hamilton'}, {'name': 'Johnny Stevens', 'url': 'https://genius.com/artists/Johnny-stevens'}], 'writers': [{'name': 'David Sterry', 'url': 'https://genius.com/artists/David-sterry'}, {'name': 'Highly Suspect', 'url': 'https://genius.com/artists/Highly-suspect'}, {'name': 'Johnny Stevens', 'url': 'https://genius.com/artists/Johnny-stevens'}, {'name': 'Richard Zatorski', 'url': 'https://genius.com/artists/Richard-zatorski'}, {'name': 'Rich Meyer', 'url': 'https://genius.com/artists/Rich-meyer'}, {'name': 'Ryan Meyer', 'url': 'https://genius.com/artists/Ryan-meyer'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-black-keys/Brothers', 'annotations': {'description': '&lt;p&gt;Produced by &lt;a href="https://genius.com/artists/The-black-keys" rel="noopener" data-api_path="/artists/1166"&gt;The Black Keys&lt;/a&gt; themselves with the help of &lt;a href="https://genius.com/artists/Mark-neill" rel="noopener" data-api_path="/artists/670784"&gt;Mark Neill&lt;/a&gt; and &lt;a href="https://genius.com/artists/Danger-mouse" rel="noopener" data-api_path="/artists/8957"&gt;Danger Mouse&lt;/a&gt;, &lt;em&gt;Brothers&lt;/em&gt; is the band’s sixth studio album. It was released in 2010, and it sprouted four different singles: &lt;a href="https://genius.com/The-black-keys-next-girl-lyrics" rel="noopener" data-api_path="/songs/63836"&gt;&lt;em&gt;Next Girl&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/The-black-keys-tighten-up-lyrics" rel="noopener" data-api_path="/songs/194775"&gt;&lt;em&gt;Tighten Up&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/The-black-keys-everlasting-light-lyrics" rel="noopener" data-api_path="/songs/66511"&gt;&lt;em&gt;Everlasting Light&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/The-black-keys-howlin-for-you-lyrics" rel="noopener" data-api_path="/songs/66330"&gt;&lt;em&gt;Howlin\' for You&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Brothers&lt;/em&gt; managed to follow the success of the band’s &lt;a href="https://genius.com/albums/The-black-keys/Attack-release" rel="noopener" data-api_path="/albums/40427"&gt;previous album&lt;/a&gt; with its rock-influenced sound, developing, however, a more conceptual disc. The themes of love and relationships continued, but this time with a great influence of jazz and blues, never forgetting the basslines which have contributed, since the beginning, for the band’s success.&lt;/p&gt;\n\n&lt;p&gt;The album won three Grammy Awards: one for the Best Recording Package, another for the Best Rock Perfomance by a Duo or Group with Vocals (due to Tighten Up) and lastly and more importantly, for the Best Alternative Music Album.&lt;/p&gt;', 'producers': [{'name': 'Dan Auerbach', 'url': 'https://genius.com/artists/Dan-auerbach'}, {'name': 'Danger Mouse', 'url': 'https://genius.com/artists/Danger-mouse'}, {'name': 'Mark Neill', 'url': 'https://genius.com/artists/Mark-neill'}, {'name': 'Patrick Carney', 'url': 'https://genius.com/artists/Patrick-carney'}], 'writers': [{'name': 'Dan Auerbach', 'url': 'https://genius.com/artists/Dan-auerbach'}, {'name': 'Jerry Butler', 'url': 'https://genius.com/artists/Jerry-butler'}, {'name': 'Kenneth Gamble', 'url': 'https://genius.com/artists/Kenneth-gamble'}, {'name': 'Kenneth Gamble &amp; Leon Huff', 'url': 'https://genius.com/artists/Kenneth-gamble-and-leon-huff'}, {'name': 'Leon Huff', 'url': 'https://genius.com/artists/Leon-huff'}, {'name': 'Patrick Carney', 'url': 'https://genius.com/artists/Patrick-carney'}], 'labels': [{'name': 'Nonesuch', 'url': 'https://genius.com/artists/Nonesuch'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Supertramp/Breakfast-in-america', 'annotations': {'description': '&lt;p&gt;Breakfast in America, released on March 29, 1979, is &lt;a href="https://genius.com/artists/Supertramp" rel="noopener" data-api_path="/artists/114069"&gt;Supertramp&lt;/a&gt;’s sixth studio album. The album is said to take quite a heavy pop influence while maintaining Supertramp’s identity and sound.&lt;/p&gt;\n\n&lt;p&gt;The album is said to contain many ideas that the English band had of the United States at the time, which is particularly highlighted in &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;, and &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child of Vision&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Breakfast in America won the 1980 Grammy Award for Best Recording Package, defeating albums by Talking Heads and Led Zeppelin, among others.&lt;/p&gt;', 'producers': [{'name': 'Peter Henderson', 'url': 'https://genius.com/artists/Peter-henderson'}, {'name': 'Supertramp', 'url': 'https://genius.com/artists/Supertramp'}], 'writers': [{'name': 'Rick Davies', 'url': 'https://genius.com/artists/Rick-davies'}, {'name': 'Roger Hodgson', 'url': 'https://genius.com/artists/Roger-hodgson'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Ohio-players/Honey', 'annotations': {'description': '', 'producers': [{'name': 'Ohio Players', 'url': 'https://genius.com/artists/Ohio-players'}], 'writers': [{'name': 'Billy Beck', 'url': 'https://genius.com/artists/Billy-beck'}, {'name': 'Clarence “Satch” Satchell', 'url': 'https://genius.com/artists/Clarence-satch-satchell'}, {'name': 'James Roger Williams', 'url': 'https://genius.com/artists/James-roger-williams'}, {'name': 'Marshall “Rock” Jones', 'url': 'https://genius.com/artists/Marshall-rock-jones'}, {'name': 'Marvin Pierce', 'url': 'https://genius.com/artists/Marvin-pierce'}, {'name': 'Ralph Middlebrooks', 'url': 'https://genius.com/artists/Ralph-middlebrooks'}, {'name': 'Sugarfoot', 'url': 'https://genius.com/artists/Sugarfoot'}], 'labels': [{'name': 'Mercury Records', 'url': 'https://genius.com/artists/Mercury-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Stone-sour/Come-what-ever-may', 'annotations': {'description': '', 'producers': [{'name': 'Nick Raskulinecz', 'url': 'https://genius.com/artists/Nick-raskulinecz'}], 'writers': [{'name': 'Corey Taylor', 'url': 'https://genius.com/artists/Corey-taylor'}, {'name': 'Jim Root', 'url': 'https://genius.com/artists/Jim-root'}, {'name': 'Josh Rand', 'url': 'https://genius.com/artists/Josh-rand'}, {'name': 'Shawn Economaki', 'url': 'https://genius.com/artists/Shawn-economaki'}, {'name': 'Stone Sour', 'url': 'https://genius.com/artists/Stone-sour'}], 'labels': [{'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kasabian/Velociraptor', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Velociraptor!&lt;/em&gt; is the fourth studio album by English rock band &lt;a href="https://genius.com/artists/Kasabian" rel="noopener" data-api_path="/artists/20020"&gt;Kasabian&lt;/a&gt;, released on 16 September 2011. The album has been described as expanding upon the neo-psychedelic feel of their previous album &lt;a href="https://genius.com/albums/Kasabian/West-ryder-pauper-lunatic-asylum" rel="noopener" data-api_path="/albums/26071"&gt;&lt;em&gt;West Ryder Pauper Lunatic Asylum&lt;/em&gt;&lt;/a&gt; with a stronger emphasis on experimental song structures and instrumentation. It was released to critical acclaim and became their third UK number-one album.&lt;/p&gt;', 'producers': [{'name': 'Dan the Automator', 'url': 'https://genius.com/artists/Dan-the-automator'}, {'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'writers': [{'name': 'Sergio Pizzorno', 'url': 'https://genius.com/artists/Sergio-pizzorno'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Kings-of-leon/Only-by-the-night', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Only by the Night&lt;/em&gt; is the 4th studio album by American alternative rock band, Kings of Leon. It was released worldwide in September 2008.&lt;br&gt;\nWriting for the band’s fourth album commenced just days after the release of their 3rd, Because of the Times. The album was recorded in Nashville’s Blackbird Studios.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Only by the Night&lt;/em&gt; experienced commercial success and peaked in the top 10 of more than 10 different countries. The album was certified the best-selling album in Australia, certified 9 times platinum. It also went on to be the highest selling album of 2008 in Australia, the 3rd best selling album of 2008 in the UK, winning two Brit Awards, and the 18th best-selling album of the 2000s in the UK.&lt;/p&gt;\n\n&lt;p&gt; Two singles from the album have found high chartings, “&lt;a href="https://genius.com/Kings-of-leon-sex-on-fire-lyrics" rel="noopener" data-api_path="/songs/108833"&gt;Sex on Fire&lt;/a&gt;” coming in at number one in Ireland, the UK, Australia, and on the United States\' Hot Modern Rock Tracks, and at number two in New Zealand. The album’s second single “&lt;a href="https://genius.com/Kings-of-leon-use-somebody-lyrics" rel="noopener" data-api_path="/songs/51003"&gt;Use Somebody&lt;/a&gt;” also charted at number two in the UK, and at number two in Australia, along with being the band’s first top 10 hit in the U.S. The album was nominated for “Best Rock Album” at the 2009 Grammy Award with the song “&lt;a href="https://genius.com/Kings-of-leon-sex-on-fire-lyrics" rel="noopener" data-api_path="/songs/108833"&gt;Sex on Fire&lt;/a&gt;” receiving 2 nominations itself.&lt;/p&gt;', 'producers': [{'name': 'Angelo Petraglia', 'url': 'https://genius.com/artists/Angelo-petraglia'}, {'name': 'Jacquire King', 'url': 'https://genius.com/artists/Jacquire-king'}], 'writers': [{'name': 'Caleb Followill', 'url': 'https://genius.com/artists/Caleb-followill'}, {'name': 'Jared Followill', 'url': 'https://genius.com/artists/Jared-followill'}, {'name': 'Matthew Followill', 'url': 'https://genius.com/artists/Matthew-followill'}, {'name': 'Nathan Followill', 'url': 'https://genius.com/artists/Nathan-followill'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Pretenders/Get-close', 'annotations': {'description': '', 'producers': [{'name': 'Bob Clearmountain', 'url': 'https://genius.com/artists/Bob-clearmountain'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}, {'name': 'Mitchell Froom', 'url': 'https://genius.com/artists/Mitchell-froom'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}], 'writers': [{'name': 'Carlos Alomar', 'url': 'https://genius.com/artists/Carlos-alomar'}, {'name': 'Chrissie Hynde', 'url': 'https://genius.com/artists/Chrissie-hynde'}, {'name': 'Genevieve Gazon', 'url': 'https://genius.com/artists/Genevieve-gazon'}, {'name': 'Jimi Hendrix', 'url': 'https://genius.com/artists/Jimi-hendrix'}, {'name': 'Meg Keene', 'url': 'https://genius.com/artists/Meg-keene'}, {'name': 'Wayne Raglind', 'url': 'https://genius.com/artists/Wayne-raglind'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Bigbang/Special-edition-still-alive', 'annotations': {'description': '', 'producers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}], 'writers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}, {'name': 'T.O.P', 'url': 'https://genius.com/artists/Top'}], 'labels': [{'name': 'YG Entertainment (YG엔터테인먼트)', 'url': 'https://genius.com/artists/Yg-entertainment-yg'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/The-weeknd/Take-my-breath-single', 'annotations': {'description': '', 'producers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'writers': [{'name': 'Belly', 'url': 'https://genius.com/artists/Belly'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'XO Records', 'url': 'https://genius.com/artists/Xo-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Tears-for-fears/The-seeds-of-love', 'annotations': {'description': '', 'producers': [{'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Tears for Fears', 'url': 'https://genius.com/artists/Tears-for-fears'}], 'writers': [{'name': 'Curt Smith', 'url': 'https://genius.com/artists/Curt-smith'}, {'name': 'Dave Bascombe', 'url': 'https://genius.com/artists/Dave-bascombe'}, {'name': 'Ian Stanley', 'url': 'https://genius.com/artists/Ian-stanley'}, {'name': 'Nicky Holland', 'url': 'https://genius.com/artists/Nicky-holland'}, {'name': 'Roland Orzabal', 'url': 'https://genius.com/artists/Roland-orzabal'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sugar-ray/Floored', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Floored&lt;/em&gt; is the second studio album by rock group Sugar Ray, released on June 24, 1997, via Atlantic Records. The album was a commercial success, peaking at number twelve on the Billboard 200 chart and becoming certified &lt;a href="https://www.latimes.com/archives/la-xpm-1999-jan-11-ca-62393-story.html" rel="noopener nofollow"&gt;double platinum&lt;/a&gt;. The album also became their first to appear on the Billboard charts.&lt;/p&gt;\n\n&lt;p&gt;A total of two singles were released from the album: &lt;a href="https://genius.com/Sugar-ray-fly-lyrics" rel="noopener" data-api_path="/songs/625407"&gt;“Fly”&lt;/a&gt; and &lt;a href="https://genius.com/Sugar-ray-rpm-lyrics" rel="noopener" data-api_path="/songs/1515168"&gt;“RPM.”&lt;/a&gt; “Fly” became the most successful single from the album, reaching the top spot on the &lt;a href="https://www.billboard.com/music/Sugar-Ray/chart-history/MRT" rel="noopener nofollow"&gt;&lt;em&gt;US Alternative Airplay&lt;/em&gt;&lt;/a&gt; chart.&lt;/p&gt;', 'producers': [{'name': 'David Kahne', 'url': 'https://genius.com/artists/David-kahne'}], 'writers': [{'name': 'Adam Ant', 'url': 'https://genius.com/artists/Adam-ant'}, {'name': 'Alan Shacklock', 'url': 'https://genius.com/artists/Alan-shacklock'}, {'name': 'DJ Homicide (Sugar Ray)', 'url': 'https://genius.com/artists/Dj-homicide-sugar-ray'}, {'name': 'Mark McGrath', 'url': 'https://genius.com/artists/Mark-mcgrath'}, {'name': 'Mark Pirroni', 'url': 'https://genius.com/artists/Mark-pirroni'}, {'name': 'Murphy Karges', 'url': 'https://genius.com/artists/Murphy-karges'}, {'name': 'Rodney Sheppard', 'url': 'https://genius.com/artists/Rodney-sheppard'}, {'name': 'Stan Frazier', 'url': 'https://genius.com/artists/Stan-frazier'}, {'name': 'Sugar Ray', 'url': 'https://genius.com/artists/Sugar-ray'}, {'name': 'Super Cat', 'url': 'https://genius.com/artists/Super-cat'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Iggy-pop/Lust-for-life', 'annotations': {'description': '', 'producers': [{'name': 'The Bewley Brothers', 'url': 'https://genius.com/artists/The-bewley-brothers'}, {'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Mike Thorne', 'url': 'https://genius.com/artists/Mike-thorne'}], 'writers': [{'name': 'David Bowie', 'url': 'https://genius.com/artists/David-bowie'}, {'name': 'Hunt Sales', 'url': 'https://genius.com/artists/Hunt-sales'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Ricky Gardiner', 'url': 'https://genius.com/artists/Ricky-gardiner'}, {'name': 'Tony Sales', 'url': 'https://genius.com/artists/Tony-sales'}, {'name': 'Walter Lacey', 'url': 'https://genius.com/artists/Walter-lacey'}, {'name': 'Warren Peace', 'url': 'https://genius.com/artists/Warren-peace'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Eve-6/Eve-6', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Eve 6&lt;/em&gt; is the self-titled debut album by rock band &lt;a href="https://genius.com/artists/Eve-6" rel="noopener" data-api_path="/artists/59608"&gt;Eve 6&lt;/a&gt; which went platinum in sales.&lt;/p&gt;\n\n&lt;p&gt;The album is best known for the hit single &lt;a href="https://genius.com/Eve-6-inside-out-lyrics" rel="noopener" data-api_path="/songs/185311"&gt;“Inside Out”&lt;/a&gt;. Through heavy radio plays, “Inside Out” quickly rose to the top of the charts, sitting at #1 of the &lt;a href="https://www.billboard.com/" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;’s Modern Rock chart and Heatseekers new artists chart.&lt;/p&gt;\n\n&lt;p&gt;The music videos for the songs “Inside Out” and &lt;a href="https://genius.com/Eve-6-leech-lyrics" rel="noopener" data-api_path="/songs/1241160"&gt;“Leach”&lt;/a&gt; were also circulated regularly on &lt;a href="http://www.mtv.com/" rel="noopener nofollow"&gt;MTV&lt;/a&gt;, helping the band establish a popularity in the rock music industry.&lt;/p&gt;', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}], 'writers': [{'name': 'Jon Siebels', 'url': 'https://genius.com/artists/Jon-siebels'}, {'name': 'Max Collins', 'url': 'https://genius.com/artists/Max-collins'}, {'name': 'Tony Fagenson', 'url': 'https://genius.com/artists/Tony-fagenson'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Sash/Its-my-life', 'annotations': {'description': '&lt;p&gt;It’s My Life (also known as It’s My Life – The Album) is the debut album by German DJ/production team Sash!, released on 25 August 1997 via Multiply and Polygram labels. Three singles were released from the album: “Encore Une Fois”, “Ecuador” and “Stay”. Two versions of the album exist, a one-disc version and a later version with a second disc featuring remixes. The album was certified platinum in the UK.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/8f36be9fba73113fab3a4ce2b59df066.794x782x1.png" alt="" width="794" height="782" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Sash!', 'url': 'https://genius.com/artists/Sash'}, {'name': 'Topkapı Müzik', 'url': 'https://genius.com/artists/Topkap-muzik'}], 'writers': [{'name': 'Frankie McCoy', 'url': 'https://genius.com/artists/Frankie-mccoy'}, {'name': 'Ralf Kappmeier', 'url': 'https://genius.com/artists/Ralf-kappmeier'}, {'name': 'Sascha Lappessen', 'url': 'https://genius.com/artists/Sascha-lappessen'}, {'name': 'Thomas Alisson', 'url': 'https://genius.com/artists/Thomas-alisson'}, {'name': 'Thomas Lüdke', 'url': 'https://genius.com/artists/Thomas-ludke'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Joan-jett-and-the-blackhearts/Up-your-alley', 'annotations': {'description': '&lt;p&gt;Joan Jett’s popularity was considerably sporadic following the great success of &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;“I Love Rock ’n Roll”&lt;/a&gt; in 1981, and by the time &lt;em&gt;Up Your Alley&lt;/em&gt; was released, &lt;a href="http://www.rollingstone.com/music/artists/joan-jett/biography" rel="noopener nofollow"&gt;her career appeared all but finished&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in May 1988, platinum certified &lt;em&gt;Up Your Alley&lt;/em&gt; marked Joan Jett’s sixth studio album with the Blackhearts. The album helped to put Jett’s gritty, unadorned rock back into the charts and contains the popular singles &lt;a href="https://genius.com/Joan-jett-and-the-blackhearts-i-hate-myself-for-loving-you-lyrics" rel="noopener" data-api_path="/songs/803985"&gt;“I Hate Myself for Loving You”&lt;/a&gt;, &lt;a href="https://genius.com/Joan-jett-and-the-blackhearts-little-liar-lyrics" rel="noopener" data-api_path="/songs/804619"&gt;“Little Liar”&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-stooges" rel="noopener" data-api_path="/artists/62684"&gt;The Stooges&lt;/a&gt; cover, &lt;a href="https://genius.com/Joan-jett-and-the-blackhearts-i-wanna-be-your-dog-lyrics" rel="noopener" data-api_path="/songs/804717"&gt;“I Wanna Be Your Dog”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album’s first single “I Hate Myself for Loving You” features a notable guitar solo by former &lt;a href="https://genius.com/artists/The-rolling-stones" rel="noopener" data-api_path="/artists/774"&gt;Rolling Stones&lt;/a&gt; guitarist, Mick Taylor.&lt;/p&gt;', 'producers': [{'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Ric Browde', 'url': 'https://genius.com/artists/Ric-browde'}, {'name': 'Thom Panunzio', 'url': 'https://genius.com/artists/Thom-panunzio'}], 'writers': [{'name': 'Chuck Berry', 'url': 'https://genius.com/artists/Chuck-berry'}, {'name': 'Dave Alexander', 'url': 'https://genius.com/artists/Dave-alexander'}, {'name': 'Desmond Child', 'url': 'https://genius.com/artists/Desmond-child'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Frank Castillo', 'url': 'https://genius.com/artists/Frank-castillo'}, {'name': 'Gary Rottger', 'url': 'https://genius.com/artists/Gary-rottger'}, {'name': 'Iggy Pop', 'url': 'https://genius.com/artists/Iggy-pop'}, {'name': 'Joan Jett', 'url': 'https://genius.com/artists/Joan-jett'}, {'name': 'Kenny Laguna', 'url': 'https://genius.com/artists/Kenny-laguna'}, {'name': 'Ric Browde', 'url': 'https://genius.com/artists/Ric-browde'}, {'name': 'Ricky Byrd', 'url': 'https://genius.com/artists/Ricky-byrd'}, {'name': 'Ron Asheton', 'url': 'https://genius.com/artists/Ron-asheton'}, {'name': 'Scott Asheton', 'url': 'https://genius.com/artists/Scott-asheton'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Yazz-singer/Wanted', 'annotations': {'description': '', 'producers': [{'name': 'Coldcut', 'url': 'https://genius.com/artists/Coldcut'}], 'writers': [], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Taylor-dayne/Platinum-gold-collection-taylor-dayne', 'annotations': {'description': '', 'producers': [{'name': 'Humberto Gatica', 'url': 'https://genius.com/artists/Humberto-gatica'}, {'name': 'Ric Wake', 'url': 'https://genius.com/artists/Ric-wake'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}], 'writers': [{'name': 'Alexandra Forbes', 'url': 'https://genius.com/artists/Alexandra-forbes'}, {'name': 'Arnie Roman', 'url': 'https://genius.com/artists/Arnie-roman'}, {'name': 'Billy Steinberg', 'url': 'https://genius.com/artists/Billy-steinberg'}, {'name': 'Diane Warren', 'url': 'https://genius.com/artists/Diane-warren'}, {'name': 'Elliot Wolff', 'url': 'https://genius.com/artists/Elliot-wolff'}, {'name': 'Ernie Gold', 'url': 'https://genius.com/artists/Ernie-gold'}, {'name': 'George Thatcher', 'url': 'https://genius.com/artists/George-thatcher'}, {'name': 'Gregg Tripp', 'url': 'https://genius.com/artists/Gregg-tripp'}, {'name': 'Jeff Franzel', 'url': 'https://genius.com/artists/Jeff-franzel'}, {'name': 'Jimmy George', 'url': 'https://genius.com/artists/Jimmy-george'}, {'name': 'Richard Hahn', 'url': 'https://genius.com/artists/Richard-hahn'}, {'name': 'Seth Swirsky', 'url': 'https://genius.com/artists/Seth-swirsky'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Taylor Dayne', 'url': 'https://genius.com/artists/Taylor-dayne'}, {'name': 'Tom Kelly', 'url': 'https://genius.com/artists/Tom-kelly'}, {'name': 'Tony Shimkin', 'url': 'https://genius.com/artists/Tony-shimkin'}], 'labels': [{'name': 'Arista Records', 'url': 'https://genius.com/artists/Arista-records'}]}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/albums/Red-hot-chili-peppers/Stadium-arcadium', 'annotations': {'description': '&lt;p&gt;The Red Hot Chili Peppers\' ninth studio album, &lt;em&gt;Stadium Arcadium&lt;/em&gt;, was originally conceived as a trilogy before being condensed into a double album (consisting in &lt;em&gt;Jupiter&lt;/em&gt; and &lt;em&gt;Mars&lt;/em&gt;). It was also significant for being the band’s &lt;a href="https://www.billboard.com/music/Red-Hot-Chili-Peppers/chart-history/TLP" rel="noopener nofollow"&gt;first number one album in the U.S.&lt;/a&gt;, as well as the last to be recorded with guitarist &lt;a href="https://genius.com/artists/John-frusciante" rel="noopener" data-api_path="/artists/1695"&gt;John Frusciante&lt;/a&gt;, as he left to focus on his solo career, being replaced by his friend frequent collaborator &lt;a href="https://genius.com/artists/Josh-klinghoffer" rel="noopener" data-api_path="/artists/633985"&gt;Josh Klinghoffer&lt;/a&gt;, and then re-joined the group again at the end of 2019.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/08270bc38bd66503747458f3a76cad41.554x280x1.jpg" alt="" width="554" height="280" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Notably, &lt;em&gt;Stadium Arcadium&lt;/em&gt; integrates several musical styles from throughout the band’s career, including their signature funk sound. For Frusciante, this stylistic change was mainly influenced by progressive rock group &lt;a href="https://genius.com/artists/The-mars-volta" rel="noopener" data-api_path="/artists/6427"&gt;The Mars Volta&lt;/a&gt;, and generated him greater recognition from critics. As well as this, the writing process generated a much more collaborative relationship between bassist Flea and Frusciante.&lt;/p&gt;\n\n&lt;p&gt;On the album’s &lt;a href="http://www.rollingstone.com/music/features/tattooed-love-boys-20060615?page=8" rel="noopener nofollow"&gt;musical and lyrical themes&lt;/a&gt;, Kiedis spoke of the band’s various relationships at the time of its creation:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Love and women, pregnancies and marriages, relationship struggles – those are real and profound influences on this record. And it’s great because it wasn’t just me writing about the fact that I’m in love. It was everybody in the band. We were brimming with energy based on falling in love.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Five singles were released from the 5x Grammy Award-winning album: &lt;a href="https://genius.com/Red-hot-chili-peppers-dani-california-lyrics" rel="noopener" data-api_path="/songs/55581"&gt;“Dani California,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-tell-me-baby-lyrics" rel="noopener" data-api_path="/songs/198785"&gt;“Tell Me Baby,”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-snow-hey-oh-lyrics" rel="noopener" data-api_path="/songs/54294"&gt;“Snow (Hey Oh),”&lt;/a&gt; &lt;a href="https://genius.com/Red-hot-chili-peppers-desecration-smile-lyrics" rel="noopener" data-api_path="/songs/242863"&gt;“Desecration Smile”&lt;/a&gt; and &lt;a href="https://genius.com/Red-hot-chili-peppers-hump-de-bump-lyrics" rel="noopener" data-api_path="/songs/57199"&gt;“Hump de Bump”&lt;/a&gt;. Out-takes from the album were also released as part of a B-Sides collection, named &lt;a href="https://genius.com/albums/Red-hot-chili-peppers/Venus" rel="noopener" data-api_path="/albums/33561"&gt;&lt;em&gt;Venus&lt;/em&gt;&lt;/a&gt; – 37 of the 38 songs recorded for the album have been released to date.&lt;/p&gt;\n\n&lt;p&gt;According to frontman Anthony Kiedis, the title reflected the album’s increased “variety and verve compared to its predecessors,” as each member of the group “played their part and expressed their creativity to the max.”&lt;/p&gt;\n\n&lt;p&gt;Graphic designer Storm Thorgerson was &lt;a href="https://www.theguardian.com/music/gallery/2009/may/20/storm-thorgerson-album-artwork" rel="noopener nofollow"&gt;originally invited&lt;/a&gt; to create the cover artwork, providing &lt;a href="http://www.feelnumb.com/2016/05/09/red-hot-chili-peppers-rejected-storm-thorgensen-cover-artwork-stadium-arcadium/" rel="noopener nofollow"&gt;three variants which were ultimately rejected&lt;/a&gt;. He later criticized the band’s final choice of artwork as being derivative and a poor representation of their colorful and endlessly inventive music.&lt;/p&gt;', 'producers': [{'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Anthony Kiedis', 'url': 'https://genius.com/artists/Anthony-kiedis'}, {'name': 'Chad Smith', 'url': 'https://genius.com/artists/Chad-smith'}, {'name': 'Flea', 'url': 'https://genius.com/artists/Flea'}, {'name': 'John Frusciante', 'url': 'https://genius.com/artists/John-frusciante'}], 'labels': [{'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/albums/U2/The-best-of-1980-1990', 'annotations': {'description': '', 'producers': [{'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Daniel Lanois', 'url': 'https://genius.com/artists/Daniel-lanois'}, {'name': 'Jimmy Iovine', 'url': 'https://genius.com/artists/Jimmy-iovine'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'St. Francis Xavier', 'url': 'https://genius.com/artists/St-francis-xavier'}, {'name': 'Tony Visconti', 'url': 'https://genius.com/artists/Tony-visconti'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'writers': [{'name': 'Adam Clayton', 'url': 'https://genius.com/artists/Adam-clayton'}, {'name': 'Alex North', 'url': 'https://genius.com/artists/Alex-north'}, {'name': 'Bono', 'url': 'https://genius.com/artists/Bono'}, {'name': 'Brian Eno', 'url': 'https://genius.com/artists/Brian-eno'}, {'name': 'Buzz Cason', 'url': 'https://genius.com/artists/Buzz-cason'}, {'name': 'The Edge (Guitarist)', 'url': 'https://genius.com/artists/The-edge-guitarist'}, {'name': 'Hy Zaret', 'url': 'https://genius.com/artists/Hy-zaret'}, {'name': 'Ivan Král', 'url': 'https://genius.com/artists/Ivan-kral'}, {'name': 'Larry Mullen Jr.', 'url': 'https://genius.com/artists/Larry-mullen-jr'}, {'name': 'Mac Gayden', 'url': 'https://genius.com/artists/Mac-gayden'}, {'name': 'Patti Smith', 'url': 'https://genius.com/artists/Patti-smith'}, {'name': 'U2', 'url': 'https://genius.com/artists/U2'}], 'labels': [{'name': 'Island Records', 'url': 'https://genius.com/artists/Island-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Staind/Break-the-cycle', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Break the Cycle&lt;/em&gt; is the third studio album of the American rock band Staind, released through Elektra Entertainment and Flip Records in 2001. It is Staind’s most successful album to date and was the album that broke them into the mainstream. It was a huge international success for the band, as it spent 3 weeks at number 1 position in the U.S. album charts and many weeks in the top 10 album charts of The Billboard 200, the UK and New Zealand. It sold at least 4 million copies in the US.&lt;/p&gt;', 'producers': [{'name': 'Josh Abraham', 'url': 'https://genius.com/artists/Josh-abraham'}], 'writers': [{'name': 'Aaron Lewis', 'url': 'https://genius.com/artists/Aaron-lewis'}, {'name': 'Johnny April', 'url': 'https://genius.com/artists/Johnny-april'}, {'name': 'Jon Wysocki', 'url': 'https://genius.com/artists/Jon-wysocki'}, {'name': 'Mike Mushok', 'url': 'https://genius.com/artists/Mike-mushok'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bigbang/Special-edition-still-alive', 'annotations': {'description': '', 'producers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}], 'writers': [{'name': 'G-Dragon (지드래곤)', 'url': 'https://genius.com/artists/G-dragon'}, {'name': 'Teddy Park', 'url': 'https://genius.com/artists/Teddy-park'}, {'name': 'T.O.P', 'url': 'https://genius.com/artists/Top'}], 'labels': [{'name': 'YG Entertainment (YG엔터테인먼트)', 'url': 'https://genius.com/artists/Yg-entertainment-yg'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/New-kids-on-the-block/Hangin-tough', 'annotations': {'description': '&lt;p&gt;The second album by New Kids On The Block. This was their first successful album and it became a worldwide hit.&lt;/p&gt;', 'producers': [{'name': 'Maurice Starr', 'url': 'https://genius.com/artists/Maurice-starr'}], 'writers': [{'name': 'Donnie Wahlberg', 'url': 'https://genius.com/artists/Donnie-wahlberg'}, {'name': 'Eban Kelly', 'url': 'https://genius.com/artists/Eban-kelly'}, {'name': 'Jimmy Randolph', 'url': 'https://genius.com/artists/Jimmy-randolph'}, {'name': 'Jordan Knight', 'url': 'https://genius.com/artists/Jordan-knight'}, {'name': 'Maurice Starr', 'url': 'https://genius.com/artists/Maurice-starr'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Onerepublic/Native', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Native&lt;/em&gt; is the third studio album by American pop-rock band OneRepublic, released via Interscope. The album was originally intended to be released late 2012, but was pushed back to the following year since it was not finished. &lt;em&gt;Native&lt;/em&gt; was released March 22, 2013. The redux of the album was released January 1, 2014 and is generally accepted as the definitive version of the album.&lt;/p&gt;\n\n&lt;p&gt;Sonically, the album takes influences from genres such as gospel, blues, folk, electronic, and of course, pop and rock. These influences significantly assist the blissfully optimistic and anti-materialistic themes seen throughout the album.&lt;/p&gt;\n\n&lt;p&gt;The first single off of &lt;em&gt;Native&lt;/em&gt; was the gospel influenced “&lt;a href="https://genius.com/Onerepublic-feel-again-lyrics" rel="noopener" data-api_path="/songs/235015"&gt;Feel Again&lt;/a&gt;” which peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/755912" rel="noopener nofollow"&gt;#36&lt;/a&gt; on the Billboard Hot 100. The song was labeled as a ‘promotional single’ after the album was pushed back. The official lead single was “&lt;a href="https://genius.com/Onerepublic-if-i-lose-myself-lyrics" rel="noopener" data-api_path="/songs/243082"&gt;If I Lose Myself&lt;/a&gt;” which peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/768908" rel="noopener nofollow"&gt;#74&lt;/a&gt;. The next single, “&lt;a href="https://genius.com/Onerepublic-counting-stars-lyrics" rel="noopener" data-api_path="/songs/145495"&gt;Counting Stars&lt;/a&gt;”, would prove to be the most popular song on the album charting at #1 around the world and &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/777781" rel="noopener nofollow"&gt;#2&lt;/a&gt; on the Billboard Hot 100. By 2018, the song had been certified diamond in the U.S alone. The fifth single “&lt;a href="https://genius.com/Onerepublic-something-i-need-lyrics" rel="noopener" data-api_path="/songs/158328"&gt;Something I Need&lt;/a&gt;” was only moderately successful on the charts for the band, but was a &lt;a href="https://www.officialcharts.com/search/singles/something-i-need/" rel="noopener nofollow"&gt;#1&lt;/a&gt; hit in the UK for X-Factor winner, Ben Haenow. The fifth single “&lt;a href="https://genius.com/Onerepublic-love-runs-out-lyrics%22%20%28which%20was%20included%20on%20the%20re-release%20/%20redux%20of%20the%20album" rel="noopener"&gt;Love Runs Out&lt;/a&gt; was another huge hit for the band. It peaked at &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/840607" rel="noopener nofollow"&gt;#15&lt;/a&gt; on the Billboard Hot 100 and &lt;a href="https://www.officialcharts.com/search/singles/love-runs-out/" rel="noopener nofollow"&gt;#3&lt;/a&gt; in the UK. The final single from &lt;em&gt;Native&lt;/em&gt; was the awe-inspiring ”&lt;a href="https://genius.com/Onerepublic-i-lived-lyrics" rel="noopener" data-api_path="/songs/147690"&gt;I Lived&lt;/a&gt;“ which was &lt;a href="https://www.billboard.com/music/onerepublic/chart-history/HSI/song/777782" rel="noopener nofollow"&gt;very successful&lt;/a&gt; as well.&lt;/p&gt;\n\n&lt;p&gt;The album received positive reviews from critics and is considered by many to be OneRepublic’s greatest body of work. It is also the band’s highest selling album. As by August 2015, it had sold over 4.5 million albums worldwide.&lt;/p&gt;\n\n&lt;p&gt;However, the album was definitely a slow burner in terms of commercial success. It wasn’t until the album’s third single “&lt;a href="https://genius.com/Onerepublic-counting-stars-lyrics" rel="noopener" data-api_path="/songs/145495"&gt;Counting Stars&lt;/a&gt;” that the album really blew up in popularity. Ryan Tedder had this to say about the subject:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“The goal was, ‘lets make the biggest and best album we’ve ever made.’ From day one that was the goal. I thought we had swung and missed for 9 months. The fact that it did actually end up exploding was a surprise. The fact that it worked wasn’t a surprise, but the fact that we had a 9 month false start was the surprising thing.”&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Aaron Sprinkle', 'url': 'https://genius.com/artists/Aaron-sprinkle'}, {'name': 'Alesso', 'url': 'https://genius.com/artists/Alesso'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Cassius', 'url': 'https://genius.com/artists/Cassius'}, {'name': 'Drew Brown', 'url': 'https://genius.com/artists/Drew-brown'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}], 'writers': [{'name': 'Alesso', 'url': 'https://genius.com/artists/Alesso'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boom Bass', 'url': 'https://genius.com/artists/Boom-bass'}, {'name': 'Brent Kutzle', 'url': 'https://genius.com/artists/Brent-kutzle'}, {'name': 'Drew Brown', 'url': 'https://genius.com/artists/Drew-brown'}, {'name': 'Eddie Fisher (OneRepublic)', 'url': 'https://genius.com/artists/Eddie-fisher-onerepublic'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Philippe Zdar', 'url': 'https://genius.com/artists/Philippe-zdar'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Tyler Johnson', 'url': 'https://genius.com/artists/Tyler-johnson'}, {'name': 'Zach Filkins', 'url': 'https://genius.com/artists/Zach-filkins'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Mosley Music Group', 'url': 'https://genius.com/artists/Mosley-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Lady-gaga/Born-this-way', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Born This Way&lt;/em&gt; is the second studio album by American singer Lady Gaga, released via Interscope Records on May 23, 2011. The album became Gaga’s first number-one album and the highest first-week sales since 2005.&lt;/p&gt;\n\n&lt;p&gt;Four of the album’s singles: &lt;a href="https://genius.com/Lady-gaga-born-this-way-lyrics" rel="noopener" data-api_path="/songs/4320"&gt;“Born This Way”&lt;/a&gt;, &lt;a href="https://genius.com/Lady-gaga-judas-lyrics" rel="noopener" data-api_path="/songs/49011"&gt;“Judas”&lt;/a&gt;, &lt;a href="https://genius.com/Lady-gaga-the-edge-of-glory-lyrics" rel="noopener" data-api_path="/songs/49946"&gt;“The Edge of Glory”&lt;/a&gt;, and &lt;a href="https://genius.com/Lady-gaga-you-and-i-lyrics" rel="noopener" data-api_path="/songs/80398"&gt;“You and I”&lt;/a&gt; peaked within in the top ten of the Billboard Hot 100 chart, where the single &lt;a href="https://genius.com/Lady-gaga-marry-the-night-lyrics" rel="noopener" data-api_path="/songs/50125"&gt;“Marry the Night”&lt;/a&gt; peaked at number twenty-nine. “Born This Way” became Gaga’s third number one single overall, and became her first number one single from &lt;em&gt;Born This Way&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;According to &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8497475/lady-gaga-sales-streams-ariana-grande-ask-billboard" rel="noopener nofollow"&gt;Billboard&lt;/a&gt;, as of February 10, 2019, &lt;em&gt;Born This Way&lt;/em&gt; has sold a total of 2.4M copies in the United States.&lt;/p&gt;', 'producers': [{'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Robert John Lange', 'url': 'https://genius.com/artists/Robert-john-lange'}], 'writers': [{'name': 'Brian Lee', 'url': 'https://genius.com/artists/Brian-lee'}, {'name': 'Cheche Alara', 'url': 'https://genius.com/artists/Cheche-alara'}, {'name': 'Clinton Sparks', 'url': 'https://genius.com/artists/Clinton-sparks'}, {'name': 'DJ Snake', 'url': 'https://genius.com/artists/Dj-snake'}, {'name': 'DJ White Shadow', 'url': 'https://genius.com/artists/Dj-white-shadow'}, {'name': 'Fernando Garibay', 'url': 'https://genius.com/artists/Fernando-garibay'}, {'name': 'Jeppe Laursen', 'url': 'https://genius.com/artists/Jeppe-laursen'}, {'name': 'Lady Gaga', 'url': 'https://genius.com/artists/Lady-gaga'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Mark-ronson/Uptown-special', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Uptown Special&lt;/em&gt; will be remembered for one of the all time great pop singles, &lt;a href="https://genius.com/Mark-ronson-uptown-funk-lyrics" rel="noopener" data-api_path="/songs/576123"&gt;“Uptown Funk”&lt;/a&gt; featuring Bruno Mars. Ronson’s sound isn’t always so maximalist, and the record revels in its more understated tones and melodies, hugely informed by 70’s Jazz and 80’s Disco.&lt;/p&gt;\n\n&lt;p&gt;But you can’t deny the pull of a genuine classic single. The album was helped to number 5 on the &lt;em&gt;US Billboard 200&lt;/em&gt;, easily Mark’s most successful US release. It’s also the first time he’d struck number 1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;Ronson &lt;a href="http://www.spin.com/g00/2015/01/mark-ronson-uptown-special-funk-bruno-mars-interview/?i10c.referrer=https%3A%2F%2Fwww.google.com.au%2F" rel="noopener nofollow"&gt;told &lt;em&gt;Spin&lt;/em&gt;:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I always come back to: Stevie Wonder, Chaka Khan, great late-’70s, early-’80s R&amp;amp;B.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Boys Noize', 'url': 'https://genius.com/artists/Boys-noize'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'James Ford', 'url': 'https://genius.com/artists/James-ford'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Riton', 'url': 'https://genius.com/artists/Riton'}], 'writers': [{'name': 'Alex Greenwald', 'url': 'https://genius.com/artists/Alex-greenwald'}, {'name': 'Andrew Wyatt', 'url': 'https://genius.com/artists/Andrew-wyatt'}, {'name': 'Brody Brown', 'url': 'https://genius.com/artists/Brody-brown'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Charlie Wilson', 'url': 'https://genius.com/artists/Charlie-wilson'}, {'name': 'Chris Vatalaro', 'url': 'https://genius.com/artists/Chris-vatalaro'}, {'name': 'Devon Gallaspy', 'url': 'https://genius.com/artists/Devon-gallaspy'}, {'name': 'Dr. Dre', 'url': 'https://genius.com/artists/Dr-dre'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Homer Steinweiss', 'url': 'https://genius.com/artists/Homer-steinweiss'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Kevin Parker', 'url': 'https://genius.com/artists/Kevin-parker'}, {'name': 'Kurupt', 'url': 'https://genius.com/artists/Kurupt'}, {'name': 'Lonnie Simmons', 'url': 'https://genius.com/artists/Lonnie-simmons'}, {'name': 'Mark Ronson', 'url': 'https://genius.com/artists/Mark-ronson'}, {'name': 'Michael Chabon', 'url': 'https://genius.com/artists/Michael-chabon'}, {'name': 'Mystikal', 'url': 'https://genius.com/artists/Mystikal'}, {'name': 'Nate Dogg', 'url': 'https://genius.com/artists/Nate-dogg'}, {'name': 'Nick Movshon', 'url': 'https://genius.com/artists/Nick-movshon'}, {'name': 'Pal Joey', 'url': 'https://genius.com/artists/Pal-joey'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Robert Wilson (The Gap Band)', 'url': 'https://genius.com/artists/Robert-wilson-the-gap-band'}, {'name': 'Ronnie Wilson', 'url': 'https://genius.com/artists/Ronnie-wilson'}, {'name': 'Rudy Taylor', 'url': 'https://genius.com/artists/Rudy-taylor'}, {'name': 'Rufus Wainwright', 'url': 'https://genius.com/artists/Rufus-wainwright'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Thomas Brenneck', 'url': 'https://genius.com/artists/Thomas-brenneck'}, {'name': 'Trinidad James', 'url': 'https://genius.com/artists/Trinidad-james'}, {'name': 'Warren\xa0G', 'url': 'https://genius.com/artists/Warren-g'}], 'labels': [{'name': 'RCA Records', 'url': 'https://genius.com/artists/Rca-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Linkin-park/Minutes-to-midnight', 'annotations': {'description': '', 'producers': [{'name': 'Don Gilmore', 'url': 'https://genius.com/artists/Don-gilmore'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Brad Delson', 'url': 'https://genius.com/artists/Brad-delson'}, {'name': 'Chester Bennington', 'url': 'https://genius.com/artists/Chester-bennington'}, {'name': 'Dave Farrell', 'url': 'https://genius.com/artists/Dave-farrell'}, {'name': 'Linkin Park', 'url': 'https://genius.com/artists/Linkin-park'}, {'name': 'Mike Shinoda', 'url': 'https://genius.com/artists/Mike-shinoda'}, {'name': 'Mr. Hahn', 'url': 'https://genius.com/artists/Mr-hahn'}, {'name': 'Rob Bourdon', 'url': 'https://genius.com/artists/Rob-bourdon'}], 'labels': [{'name': 'Bros. Music 2', 'url': 'https://genius.com/artists/Bros-music-2'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Queens-of-the-stone-age/Lullabies-to-paralyze', 'annotations': {'description': '&lt;p&gt;Featuring a brand new lineup, QOTSA’s &lt;em&gt;Lullabies to Paralyze&lt;/em&gt; takes on a darker sound, living up to its eery title. The name of the album derives from a line off &lt;a href="https://genius.com/Queens-of-the-stone-age-mosquito-song-lyrics" rel="noopener" data-api_path="/songs/207666"&gt;“Mosquito Song,”&lt;/a&gt; from their &lt;a href="https://genius.com/albums/Queens-of-the-stone-age/Songs-for-the-deaf" rel="noopener" data-api_path="/albums/22240"&gt;&lt;em&gt;Songs for the Deaf&lt;/em&gt;&lt;/a&gt; album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Where will you run?&lt;br&gt;\nWhere will you hide?&lt;br&gt;\nLullabies&lt;br&gt;\nTo paralyze&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After bassist and back-up vocalist &lt;a href="https://genius.com/artists/Nick-oliveri" rel="noopener" data-api_path="/artists/377540"&gt;Nick Oliveri&lt;/a&gt; was fired from the band, Homme took it upon himself to find a fresh new roster for his fifth full length LP.&lt;/p&gt;\n\n&lt;p&gt;The album received generally positive reviews, although slightly less than its acclaimed predecessor. &lt;em&gt;Lullabies to Paralyze&lt;/em&gt; &lt;a href="https://www.billboard.com/music/queens-of-the-stone-age/chart-history/top-album-sales" rel="noopener nofollow"&gt;peaked at #5 on the Billboard hot 200&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Joe Barresi', 'url': 'https://genius.com/artists/Joe-barresi'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}], 'writers': [{'name': 'Alain Johannes', 'url': 'https://genius.com/artists/Alain-johannes'}, {'name': 'Joey Castillo', 'url': 'https://genius.com/artists/Joey-castillo'}, {'name': 'Josh Freese', 'url': 'https://genius.com/artists/Josh-freese'}, {'name': 'Josh Homme', 'url': 'https://genius.com/artists/Josh-homme'}, {'name': 'Mark Lanegan', 'url': 'https://genius.com/artists/Mark-lanegan'}, {'name': 'Troy Van Leeuwen', 'url': 'https://genius.com/artists/Troy-van-leeuwen'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pixies/Death-to-the-pixies', 'annotations': {'description': '', 'producers': [{'name': 'Gary Smith', 'url': 'https://genius.com/artists/Gary-smith'}, {'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}, {'name': 'Steve Albini', 'url': 'https://genius.com/artists/Steve-albini'}], 'writers': [{'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}, {'name': 'Frosty Horton', 'url': 'https://genius.com/artists/Frosty-horton'}, {'name': 'Kim Deal', 'url': 'https://genius.com/artists/Kim-deal'}, {'name': 'Steve Hoffman', 'url': 'https://genius.com/artists/Steve-hoffman'}], 'labels': [{'name': 'Rough Trade Records', 'url': 'https://genius.com/artists/Rough-trade-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Dido/Life-for-rent', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Life for Rent&lt;/em&gt; is the second studio album by English singer and songwriter Dido, released on September 29, 2003 via Arista Records. The album marked her first album in four years since the release of 1999’s widely &lt;a href="https://books.google.com/books?id=dxAEAAAAMBAJ&amp;amp;pg=PA46#v=onepage&amp;amp;q&amp;amp;f=false" rel="noopener nofollow"&gt;successful&lt;/a&gt; debut album &lt;a href="https://genius.com/albums/Dido/No-angel" rel="noopener" data-api_path="/albums/28144"&gt;&lt;em&gt;No Angel&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Dido-white-flag-lyrics" rel="noopener" data-api_path="/songs/209352"&gt;“White Flag”&lt;/a&gt;, was released as the lead single from the album. The single was a massive success worldwide, peaking within the top 30 on different charts. &lt;a href="https://genius.com/Dido-life-for-rent-lyrics" rel="noopener" data-api_path="/songs/1882935"&gt;“Life for Rent”&lt;/a&gt;, &lt;a href="https://genius.com/Dido-dont-leave-home-lyrics" rel="noopener" data-api_path="/songs/1882982"&gt;“Don’t Leave Home”&lt;/a&gt;, and &lt;a href="https://genius.com/Dido-sand-in-my-shoes-lyrics" rel="noopener" data-api_path="/songs/1882996"&gt;“Sand in My Shoes”&lt;/a&gt; were released as the second, third, and fourth single, respectively.&lt;/p&gt;', 'producers': [{'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'Mike Hedges', 'url': 'https://genius.com/artists/Mike-hedges'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}], 'writers': [{'name': 'Aubrey Nunn', 'url': 'https://genius.com/artists/Aubrey-nunn'}, {'name': 'Dido', 'url': 'https://genius.com/artists/Dido'}, {'name': 'John P*Nut Harrison', 'url': 'https://genius.com/artists/John-pnut-harrison'}, {'name': 'Lester Mendez', 'url': 'https://genius.com/artists/Lester-mendez'}, {'name': 'Mark Bates', 'url': 'https://genius.com/artists/Mark-bates'}, {'name': 'Rick Nowels', 'url': 'https://genius.com/artists/Rick-nowels'}, {'name': 'Rollo Armstrong', 'url': 'https://genius.com/artists/Rollo-armstrong'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Kylie-minogue/Ultimate-kylie', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Ultimate Kylie&lt;/em&gt; is the first greatest hits Kylie released under her contract with Parlophone. The compilation was released in many different formats including a two-disc edition and a deluxe double disc with a bonus DVD. A separate compilation DVD with the same name, was released to accompany the audio versions.&lt;/p&gt;\n\n&lt;p&gt;The album includes two new tracks; its lead single, &lt;a href="https://genius.com/Kylie-minogue-i-believe-in-you-lyrics" rel="noopener" data-api_path="/songs/425413"&gt;“I Believe in You”&lt;/a&gt;, and the second single, &lt;a href="https://genius.com/Kylie-minogue-giving-you-up-lyrics" rel="noopener" data-api_path="/songs/425360"&gt;“Giving You Up”&lt;/a&gt;. A third track, &lt;a href="https://genius.com/Kylie-minogue-made-of-glass-lyrics" rel="noopener" data-api_path="/songs/486204"&gt;“Made of Glass”&lt;/a&gt;, was recorded for the album but not used; it was included on the physical releases of “Giving You Up”.&lt;/p&gt;\n\n&lt;p&gt;The first of the two discs features fifteen singles from her time under PWL, with the other six being omitted. The second disc features eighteen singles spanning from her fifth studio album to &lt;a href="https://genius.com/albums/Kylie-minogue/Body-language" rel="noopener" data-api_path="/albums/29021"&gt;&lt;em&gt;Body Language&lt;/em&gt;&lt;/a&gt;, plus “I Believe in You”, “Giving You Up” and &lt;a href="https://genius.com/Nick-cave-and-the-bad-seeds-where-the-wild-roses-grow-lyrics" rel="noopener" data-api_path="/songs/381463"&gt;“Where the Wild Roses Grow”&lt;/a&gt;. From this period of ten years, five singles were omitted.&lt;/p&gt;\n\n&lt;p&gt;The Japanese edition of the album included &lt;a href="https://genius.com/Kylie-minogue-turn-it-into-love-lyrics" rel="noopener" data-api_path="/songs/424739"&gt;“Turn It into Love”&lt;/a&gt;, which was released as a single in that region, along with the Chemical Brothers Remix of &lt;a href="https://genius.com/Kylie-minogue-slow-lyrics" rel="noopener" data-api_path="/songs/418883"&gt;“Slow”&lt;/a&gt; and “Can’t Get &lt;a href="https://genius.com/New-order-blue-monday-lyrics" rel="noopener" data-api_path="/songs/116281"&gt;Blue Monday&lt;/a&gt; Out of My Head”. The German edition replaced &lt;a href="https://genius.com/Kylie-minogue-please-stay-lyrics" rel="noopener" data-api_path="/songs/425276"&gt;“Please Stay”&lt;/a&gt; with &lt;a href="https://genius.com/Kylie-minogue-your-disco-needs-you-lyrics" rel="noopener" data-api_path="/songs/425262"&gt;“Your Disco Needs You”&lt;/a&gt;. The DVD featured the music videos for every single on the compilation, with the exception of “Giving You Up” which hadn’t been filmed yet, with an addition of Kylie’s performance of “Can’t Get Blue Monday Out of My Head” at the 2002 Brit Awards&lt;/p&gt;\n\n&lt;p&gt;The music video for &lt;a href="https://genius.com/Kylie-minogue-dancing-queen-live-lyrics" rel="noopener" data-api_path="/songs/425380"&gt;“Dancing Queen”&lt;/a&gt; was added as a bonus track to the digital edition of the album.&lt;/p&gt;', 'producers': [{'name': 'Babydaddy', 'url': 'https://genius.com/artists/Babydaddy'}, {'name': 'Brian Higgins', 'url': 'https://genius.com/artists/Brian-higgins'}, {'name': 'Brothers in Rhythm', 'url': 'https://genius.com/artists/Brothers-in-rhythm'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Dave Ball', 'url': 'https://genius.com/artists/Dave-ball'}, {'name': 'DNA', 'url': 'https://genius.com/artists/Dna'}, {'name': 'Graham Stack', 'url': 'https://genius.com/artists/Graham-stack'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Ian Curnow', 'url': 'https://genius.com/artists/Ian-curnow'}, {'name': 'Ingo Vauk', 'url': 'https://genius.com/artists/Ingo-vauk'}, {'name': 'Jake Shears', 'url': 'https://genius.com/artists/Jake-shears'}, {'name': 'Jimmy Harry', 'url': 'https://genius.com/artists/Jimmy-harry'}, {'name': 'Johnny Douglas', 'url': 'https://genius.com/artists/Johnny-douglas'}, {'name': 'Julian Gallagher', 'url': 'https://genius.com/artists/Julian-gallagher'}, {'name': 'Kylie Minogue', 'url': 'https://genius.com/artists/Kylie-minogue'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Mike Spencer', 'url': 'https://genius.com/artists/Mike-spencer'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Nick Cave &amp; The Bad Seeds', 'url': 'https://genius.com/artists/Nick-cave-and-the-bad-seeds'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}, {'name': 'Phil Harding', 'url': 'https://genius.com/artists/Phil-harding'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Steve Power', 'url': 'https://genius.com/artists/Steve-power'}, {'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Sunnyroads', 'url': 'https://genius.com/artists/Sunnyroads'}, {'name': 'Victor Van Vugt', 'url': 'https://genius.com/artists/Victor-van-vugt'}, {'name': 'Xenomania', 'url': 'https://genius.com/artists/Xenomania'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}], 'writers': [{'name': 'Al Lewis', 'url': 'https://genius.com/artists/Al-lewis'}, {'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Babydaddy', 'url': 'https://genius.com/artists/Babydaddy'}, {'name': 'Brian Higgins', 'url': 'https://genius.com/artists/Brian-higgins'}, {'name': 'Brian Holland', 'url': 'https://genius.com/artists/Brian-holland'}, {'name': 'Brian Rawling', 'url': 'https://genius.com/artists/Brian-rawling'}, {'name': 'Carole King', 'url': 'https://genius.com/artists/Carole-king'}, {'name': 'Cathy Dennis', 'url': 'https://genius.com/artists/Cathy-dennis'}, {'name': 'Claydes Smith', 'url': 'https://genius.com/artists/Claydes-smith'}, {'name': 'Dan Carey', 'url': 'https://genius.com/artists/Dan-carey'}, {'name': 'Dave Ball', 'url': 'https://genius.com/artists/Dave-ball'}, {'name': 'Dave Seaman', 'url': 'https://genius.com/artists/Dave-seaman'}, {'name': 'Dennis “D.T.” Thomas', 'url': 'https://genius.com/artists/Dennis-dt-thomas'}, {'name': 'Dinky Bingham', 'url': 'https://genius.com/artists/Dinky-bingham'}, {'name': 'Donna Johnson', 'url': 'https://genius.com/artists/Donna-johnson'}, {'name': 'Earl Eugene Toon Jr.', 'url': 'https://genius.com/artists/Earl-eugene-toon-jr'}, {'name': 'Eddie Holland', 'url': 'https://genius.com/artists/Eddie-holland'}, {'name': 'Edward Barton', 'url': 'https://genius.com/artists/Edward-barton'}, {'name': 'Emilíana Torrini', 'url': 'https://genius.com/artists/Emiliana-torrini'}, {'name': 'Eumir Deodato', 'url': 'https://genius.com/artists/Eumir-deodato'}, {'name': 'George Brown', 'url': 'https://genius.com/artists/George-brown'}, {'name': 'Gerry Goffin', 'url': 'https://genius.com/artists/Gerry-goffin'}, {'name': 'Graham Stack', 'url': 'https://genius.com/artists/Graham-stack'}, {'name': 'Guy Chambers', 'url': 'https://genius.com/artists/Guy-chambers'}, {'name': 'Holland-Dozier-Holland', 'url': 'https://genius.com/artists/Holland-dozier-holland'}, {'name': 'Ingo Vauk', 'url': 'https://genius.com/artists/Ingo-vauk'}, {'name': 'Ira Shickman', 'url': 'https://genius.com/artists/Ira-shickman'}, {'name': 'Jake Shears', 'url': 'https://genius.com/artists/Jake-shears'}, {'name': 'James “J.T.” Taylor', 'url': 'https://genius.com/artists/James-jt-taylor'}, {'name': 'Jazzi P.', 'url': 'https://genius.com/artists/Jazzi-p'}, {'name': 'Jimmy Harry', 'url': 'https://genius.com/artists/Jimmy-harry'}, {'name': 'Johnny Douglas', 'url': 'https://genius.com/artists/Johnny-douglas'}, {'name': 'John Themis', 'url': 'https://genius.com/artists/John-themis'}, {'name': 'Julian Gallagher', 'url': 'https://genius.com/artists/Julian-gallagher'}, {'name': 'Kara DioGuardi', 'url': 'https://genius.com/artists/Kara-dioguardi'}, {'name': 'Karen Poole', 'url': 'https://genius.com/artists/Karen-poole'}, {'name': 'Khalis Bayyan', 'url': 'https://genius.com/artists/Khalis-bayyan'}, {'name': 'Kylie Minogue', 'url': 'https://genius.com/artists/Kylie-minogue'}, {'name': 'Lamont Dozier', 'url': 'https://genius.com/artists/Lamont-dozier'}, {'name': 'Lisa Cowling', 'url': 'https://genius.com/artists/Lisa-cowling'}, {'name': 'Mark Taylor', 'url': 'https://genius.com/artists/Mark-taylor'}, {'name': 'Martin Harrington', 'url': 'https://genius.com/artists/Martin-harrington'}, {'name': 'Matt Aitken', 'url': 'https://genius.com/artists/Matt-aitken'}, {'name': 'Mike Stock', 'url': 'https://genius.com/artists/Mike-stock'}, {'name': 'Miranda Cooper', 'url': 'https://genius.com/artists/Miranda-cooper'}, {'name': 'Nick Cave', 'url': 'https://genius.com/artists/Nick-cave'}, {'name': 'Nick Coler', 'url': 'https://genius.com/artists/Nick-coler'}, {'name': 'Paula Abdul', 'url': 'https://genius.com/artists/Paula-abdul'}, {'name': 'Paul Woods', 'url': 'https://genius.com/artists/Paul-woods'}, {'name': 'Pete Waterman', 'url': 'https://genius.com/artists/Pete-waterman'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Robbie Williams', 'url': 'https://genius.com/artists/Robbie-williams'}, {'name': 'Rob Davis', 'url': 'https://genius.com/artists/Rob-davis'}, {'name': 'Robert “Kool” Bell', 'url': 'https://genius.com/artists/Robert-kool-bell'}, {'name': 'Robert Spike Mickens', 'url': 'https://genius.com/artists/Robert-spike-mickens'}, {'name': 'Ron Dunbar', 'url': 'https://genius.com/artists/Ron-dunbar'}, {'name': 'Steve Anderson [Brothers In Rhythm]', 'url': 'https://genius.com/artists/Steve-anderson-brothers-in-rhythm'}, {'name': 'Steve Torch', 'url': 'https://genius.com/artists/Steve-torch'}, {'name': 'Stock Aitken &amp; Waterman', 'url': 'https://genius.com/artists/Stock-aitken-and-waterman'}, {'name': 'Sylvester Bradford', 'url': 'https://genius.com/artists/Sylvester-bradford'}, {'name': 'Tim Powell', 'url': 'https://genius.com/artists/Tim-powell'}], 'labels': [{'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}, {'name': 'EMI Music Marketing', 'url': 'https://genius.com/artists/Emi-music-marketing'}, {'name': 'Mushroom Records', 'url': 'https://genius.com/artists/Mushroom-records'}, {'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'PWL', 'url': 'https://genius.com/artists/Pwl'}, {'name': 'PWL Records Ltd.', 'url': 'https://genius.com/artists/Pwl-records-ltd'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-weeknd/Take-my-breath-single', 'annotations': {'description': '', 'producers': [{'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'writers': [{'name': 'Belly', 'url': 'https://genius.com/artists/Belly'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Oscar Holter', 'url': 'https://genius.com/artists/Oscar-holter'}, {'name': 'The Weeknd', 'url': 'https://genius.com/artists/The-weeknd'}], 'labels': [{'name': 'Republic Records', 'url': 'https://genius.com/artists/Republic-records'}, {'name': 'XO Records', 'url': 'https://genius.com/artists/Xo-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rihanna/Good-girl-gone-bad-reloaded', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Good Girl Gone Bad: Reloaded&lt;/em&gt; is the reissue of Rihanna’s third studio album &lt;a href="https://genius.com/albums/Rihanna/Good-girl-gone-bad" rel="noopener" data-api_path="/albums/6513"&gt;&lt;em&gt;Good Girl Gone Bad&lt;/em&gt;&lt;/a&gt;. It was first released digitally in selected countries on June 2, 2008 before it was officially released in the US on June 17, 2008.&lt;/p&gt;\n\n&lt;p&gt;The re-issue featured three new songs: &lt;a href="https://genius.com/Rihanna-disturbia-lyrics" rel="noopener" data-api_path="/songs/110417"&gt;“Disturbia,”&lt;/a&gt; &lt;a href="https://genius.com/Rihanna-take-a-bow-lyrics" rel="noopener" data-api_path="/songs/58062"&gt;“Take a Bow,”&lt;/a&gt; and &lt;a href="https://genius.com/Maroon-5-if-i-never-see-your-face-again-remix-lyrics" rel="noopener" data-api_path="/songs/155696"&gt;“If I Never See Your Face Again”&lt;/a&gt; with Maroon 5. Both “Take a Bow” and “Disturbia” reached #1 on the Billboard Hot 100.&lt;/p&gt;', 'producers': [{'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Carl Sturken', 'url': 'https://genius.com/artists/Carl-sturken'}, {'name': 'Evan Rogers', 'url': 'https://genius.com/artists/Evan-rogers'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'Makeba Riddick', 'url': 'https://genius.com/artists/Makeba-riddick'}, {'name': 'Mark Endert', 'url': 'https://genius.com/artists/Mark-endert'}, {'name': 'Mark “Spike” Stent', 'url': 'https://genius.com/artists/Mark-spike-stent'}, {'name': 'Maroon 5', 'url': 'https://genius.com/artists/Maroon-5'}, {'name': 'Mike Elizondo', 'url': 'https://genius.com/artists/Mike-elizondo'}, {'name': 'Neo Da Matrix', 'url': 'https://genius.com/artists/Neo-da-matrix'}, {'name': 'Ne-Yo', 'url': 'https://genius.com/artists/Ne-yo'}, {'name': 'Shea Taylor', 'url': 'https://genius.com/artists/Shea-taylor'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'writers': [{'name': 'Adam Levine', 'url': 'https://genius.com/artists/Adam-levine'}, {'name': 'Andre Merritt', 'url': 'https://genius.com/artists/Andre-merritt'}, {'name': 'Bernard Sumner', 'url': 'https://genius.com/artists/Bernard-sumner'}, {'name': 'Brian Gold', 'url': 'https://genius.com/artists/Brian-gold'}, {'name': 'Brian Kennedy', 'url': 'https://genius.com/artists/Brian-kennedy'}, {'name': 'Carl Sturken', 'url': 'https://genius.com/artists/Carl-sturken'}, {'name': 'Chris Brown', 'url': 'https://genius.com/artists/Chris-brown'}, {'name': 'Clifton Dillon', 'url': 'https://genius.com/artists/Clifton-dillon'}, {'name': 'Evan Rogers', 'url': 'https://genius.com/artists/Evan-rogers'}, {'name': 'Frankie Storm', 'url': 'https://genius.com/artists/Frankie-storm'}, {'name': 'Gillian Gilbert', 'url': 'https://genius.com/artists/Gillian-gilbert'}, {'name': 'Hannon Lane', 'url': 'https://genius.com/artists/Hannon-lane'}, {'name': 'James Valentine', 'url': 'https://genius.com/artists/James-valentine'}, {'name': 'JAY-Z', 'url': 'https://genius.com/artists/Jay-z'}, {'name': 'J.R. Rotem', 'url': 'https://genius.com/artists/Jr-rotem'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kuk Harrell', 'url': 'https://genius.com/artists/Kuk-harrell'}, {'name': 'Lene Marlin', 'url': 'https://genius.com/artists/Lene-marlin'}, {'name': 'Mad Cobra', 'url': 'https://genius.com/artists/Mad-cobra'}, {'name': 'Makeba Riddick', 'url': 'https://genius.com/artists/Makeba-riddick'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Mikkel Storleer Eriksen', 'url': 'https://genius.com/artists/Mikkel-storleer-eriksen'}, {'name': 'Neo Da Matrix', 'url': 'https://genius.com/artists/Neo-da-matrix'}, {'name': 'Ne-Yo', 'url': 'https://genius.com/artists/Ne-yo'}, {'name': 'Peter Hook', 'url': 'https://genius.com/artists/Peter-hook'}, {'name': 'Rob Allen', 'url': 'https://genius.com/artists/Rob-allen'}, {'name': 'Shea Taylor', 'url': 'https://genius.com/artists/Shea-taylor'}, {'name': 'Sly Dunbar', 'url': 'https://genius.com/artists/Sly-dunbar'}, {'name': 'StarGate', 'url': 'https://genius.com/artists/Stargate'}, {'name': 'Stephen Morris', 'url': 'https://genius.com/artists/Stephen-morris'}, {'name': 'The-Dream', 'url': 'https://genius.com/artists/The-dream'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Tor Erik Hermansen', 'url': 'https://genius.com/artists/Tor-erik-hermansen'}, {'name': 'Tricky Stewart', 'url': 'https://genius.com/artists/Tricky-stewart'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Skillet/Awake', 'annotations': {'description': '', 'producers': [{'name': 'Howard Benson', 'url': 'https://genius.com/artists/Howard-benson'}], 'writers': [{'name': 'Brian Howes', 'url': 'https://genius.com/artists/Brian-howes'}, {'name': 'Dave Bassett', 'url': 'https://genius.com/artists/Dave-bassett'}, {'name': 'Gavin Brown', 'url': 'https://genius.com/artists/Gavin-brown'}, {'name': 'John Cooper', 'url': 'https://genius.com/artists/John-cooper'}, {'name': 'Korey Cooper', 'url': 'https://genius.com/artists/Korey-cooper'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Taylor-swift/1989', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;1989&lt;/em&gt; was Swift’s official entrance to the pop music scene, and it cemented her status as a musical titan. It was the &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6304536/official-taylor-swifts-1989-debuts-with-1287-million-sold-in" rel="noopener nofollow"&gt;only album of 2014&lt;/a&gt; to sell over a million copies in its first week, and spent &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6398442/taylor-swift-1989-fifth-week-no-1-billboard-200" rel="noopener nofollow"&gt;five non-consecutive weeks&lt;/a&gt; at #1.&lt;/p&gt;\n\n&lt;p&gt;After her 2012 record &lt;a href="https://genius.com/albums/taylor-swift/red" rel="noopener" data-api_path="/albums/22453"&gt;&lt;em&gt;Red&lt;/em&gt;&lt;/a&gt; didn’t win the Grammy for Album Of The Year, Swift stepped back and decided she may have a better chance if she changed her sound. That night, she &lt;a href="http://www.billboard.com/articles/columns/pop-shop/6722714/taylor-swift-cried-after-losing-album-of-the-year-grammy-interview" rel="noopener nofollow"&gt;vowed to go in a completely different direction&lt;/a&gt; in hopes that her next album would win the award — and &lt;a href="https://web.archive.org/web/20160221180634/http://www.theguardian.com/music/2016/feb/15/grammy-awards-2016-the-main-nominees" rel="noopener nofollow"&gt;it did&lt;/a&gt;, making Swift both the &lt;a href="https://web.archive.org/web/20160301073145/http://www.billboard.com/articles/news/grammys/6882510/taylor-swift-grammy-album-of-the-year-win-multiple" rel="noopener nofollow"&gt;first woman&lt;/a&gt; to win the award twice and the first to win it for two genres, since her 2008 record, &lt;a href="https://genius.com/albums/taylor-swift/fearless" rel="noopener" data-api_path="/albums/12731"&gt;&lt;em&gt;Fearless&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://www.youtube.com/watch?v=v5e0eAhpC00" rel="noopener nofollow"&gt;won&lt;/a&gt; in 2010.&lt;/p&gt;\n\n&lt;p&gt;Swift foreshadowed her new pop sound with 2013’s &lt;a href="https://genius.com/taylor-swift-sweeter-than-fiction-lyrics" rel="noopener" data-api_path="/songs/241562"&gt;“Sweeter Than Fiction,”&lt;/a&gt; her first collaboration with &lt;a href="https://genius.com/artists/jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt;, who became a crucial part of her pop career. He produced &lt;a href="https://genius.com/Taylor-swift-out-of-the-woods-lyrics" rel="noopener" data-api_path="/songs/539592"&gt;“Out of the Woods,”&lt;/a&gt; &lt;a href="https://genius.com/Taylor-swift-i-wish-you-would-lyrics" rel="noopener" data-api_path="/songs/551092"&gt;“I Wish You Would,”&lt;/a&gt; and deluxe track &lt;a href="https://genius.com/Taylor-swift-you-are-in-love-lyrics" rel="noopener" data-api_path="/songs/551103"&gt;“You Are In Love,”&lt;/a&gt; which Swift even wrote about his relationship with &lt;a href="https://genius.com/artists/lena-dunham" rel="noopener" data-api_path="/artists/37087"&gt;Lena Dunham&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Swift kicked off the &lt;em&gt;1989&lt;/em&gt; era with a &lt;a href="https://www.youtube.com/watch?v=JedrC-rHMw8" rel="noopener nofollow"&gt;livestream&lt;/a&gt; and the release of lead single &lt;a href="https://genius.com/taylor-swift-shake-it-off-lyrics" rel="noopener" data-api_path="/songs/499725"&gt;“Shake It Off,”&lt;/a&gt; which became one of her biggest hits and earned Swift her &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=Taylor+Swift&amp;amp;ti=Shake+It+Off#search_section" rel="noopener nofollow"&gt;first diamond single&lt;/a&gt; by March 2020.&lt;/p&gt;\n\n&lt;p&gt;Swift went on to release &lt;a href="https://genius.com/taylor-swift-blank-space-lyrics" rel="noopener" data-api_path="/songs/542389"&gt;“Blank Space,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-style-lyrics" rel="noopener" data-api_path="/songs/542390"&gt;“Style,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-bad-blood-lyrics" rel="noopener" data-api_path="/songs/551262"&gt;“Bad Blood,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-wildest-dreams-lyrics" rel="noopener" data-api_path="/songs/551256"&gt;“Wildest Dreams,”&lt;/a&gt; &lt;a href="https://genius.com/taylor-swift-out-of-the-woods-lyrics" rel="noopener" data-api_path="/songs/539592"&gt;“Out Of The Woods,”&lt;/a&gt; and &lt;a href="https://genius.com/taylor-swift-new-romantics-lyrics" rel="noopener" data-api_path="/songs/552892"&gt;“New Romantics”&lt;/a&gt; as singles. In addition, &lt;a href="https://genius.com/taylor-swift-welcome-to-new-York-lyrics" rel="noopener" data-api_path="/songs/540670"&gt;“Welcome To New York”&lt;/a&gt; was &lt;a href="http://www.cnbc.com/2014/12/20/-love-affair.html" rel="noopener nofollow"&gt;used in tourism ads&lt;/a&gt; for the city that served as the track’s inspiration.&lt;/p&gt;\n\n&lt;p&gt;In addition to the standard, 13-song album, Swift teamed up with &lt;a href="http://target.com/" rel="noopener nofollow"&gt;Target&lt;/a&gt; for an extended &lt;a href="https://genius.com/albums/Taylor-swift/1989-deluxe" rel="noopener" data-api_path="/albums/621286"&gt;deluxe release&lt;/a&gt;, featuring three new songs and three voice memos from her writing sessions. A karaoke version of the album was also released for both the &lt;a href="https://music.apple.com/us/album/taylor-swift-karaoke-1989/1440935508" rel="noopener nofollow"&gt;standard&lt;/a&gt; and the &lt;a href="https://music.apple.com/bf/album/taylor-swift-karaoke-1989-deluxe/1446743614" rel="noopener nofollow"&gt;deluxe&lt;/a&gt; edition.&lt;/p&gt;\n\n&lt;p&gt;In May 2015, Swift kicked off the album’s &lt;a href="https://genius.com/taylor-swift-1989-tour-Setlist-annotated" rel="noopener" data-api_path="/songs/2439212"&gt;tour&lt;/a&gt;, sponsored by American Express. It became the &lt;a href="http://www.ibtimes.com/taylor-swift-did-something-2015-no-female-musician-has-ever-done-2257441" rel="noopener nofollow"&gt;highest-grossing U.S. tour&lt;/a&gt; of all time, earning over $250 million, and Swift later &lt;a href="https://www.billboard.com/biz/articles/news/touring/8489131/taylor-swift-closes-reputation-stadium-tour-with-345-million" rel="noopener nofollow"&gt;broke her own record&lt;/a&gt; with 2018’s &lt;a href="https://genius.com/albums/taylor-swift/reputation" rel="noopener" data-api_path="/albums/350247"&gt;&lt;em&gt;reputation&lt;/em&gt;&lt;/a&gt; Stadium Tour.&lt;/p&gt;', 'producers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Imogen Heap', 'url': 'https://genius.com/artists/Imogen-heap'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Mattman &amp; Robin', 'url': 'https://genius.com/artists/Mattman-and-robin'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Nathan Chapman', 'url': 'https://genius.com/artists/Nathan-chapman'}, {'name': 'Noel Zancanella', 'url': 'https://genius.com/artists/Noel-zancanella'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'writers': [{'name': 'Ali Payami', 'url': 'https://genius.com/artists/Ali-payami'}, {'name': 'Imogen Heap', 'url': 'https://genius.com/artists/Imogen-heap'}, {'name': 'Jack Antonoff', 'url': 'https://genius.com/artists/Jack-antonoff'}, {'name': 'Max Martin', 'url': 'https://genius.com/artists/Max-martin'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Shellback', 'url': 'https://genius.com/artists/Shellback'}, {'name': 'Taylor Swift', 'url': 'https://genius.com/artists/Taylor-swift'}], 'labels': [{'name': 'Big Machine Records', 'url': 'https://genius.com/artists/Big-machine-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-vines/Highly-evolved', 'annotations': {'description': '', 'producers': [{'name': 'Rob Schnapf', 'url': 'https://genius.com/artists/Rob-schnapf'}], 'writers': [{'name': 'Craig Nicholls', 'url': 'https://genius.com/artists/Craig-nicholls'}, {'name': 'Dave Olliffe', 'url': 'https://genius.com/artists/Dave-olliffe'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Motley-crue/Girls-girls-girls', 'annotations': {'description': '&lt;p&gt;Girls, Girls, Girls is the fourth album released by the legendary rock group. &lt;a href="https://youtu.be/JjL1Jnnph_g?t=25" rel="noopener nofollow"&gt;Nikki Sixx has stated in a 1987 interview that the album took four in a half months to record&lt;/a&gt;. The album was released May 15, 1987 and distributed through Elektra Records. This was also the first time the group would work with &lt;a href="https://en.wikipedia.org/wiki/Tom_Werman" rel="noopener nofollow"&gt;Tom Werman&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album released three singles &lt;a href="https://genius.com/Motley-crue-wild-side-lyrics" rel="noopener" data-api_path="/songs/399281"&gt;“Wild Side”&lt;/a&gt;, &lt;a href="https://genius.com/Motley-crue-girls-girls-girls-lyrics" rel="noopener" data-api_path="/songs/108070"&gt;“Girls, Girls, Girls”&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Motley-crue-youre-all-i-need-lyrics" rel="noopener" data-api_path="/songs/399398"&gt;“You’re All I Need\'&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Mick Mars', 'url': 'https://genius.com/artists/Mick-mars'}, {'name': 'Nikki Sixx', 'url': 'https://genius.com/artists/Nikki-sixx'}, {'name': 'Tommy Lee', 'url': 'https://genius.com/artists/Tommy-lee'}, {'name': 'Vince Neil', 'url': 'https://genius.com/artists/Vince-neil'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Styx/Cornerstone', 'annotations': {'description': '', 'producers': [{'name': 'Chuck Panozzo', 'url': 'https://genius.com/artists/Chuck-panozzo'}, {'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'John Panozzo', 'url': 'https://genius.com/artists/John-panozzo'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'writers': [{'name': 'Dennis DeYoung', 'url': 'https://genius.com/artists/Dennis-deyoung'}, {'name': 'James Young', 'url': 'https://genius.com/artists/James-young'}, {'name': 'Tommy Shaw', 'url': 'https://genius.com/artists/Tommy-shaw'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Train/Save-me-san-francisco', 'annotations': {'description': '', 'producers': [{'name': 'David “Sluggo” Katz', 'url': 'https://genius.com/artists/David-sluggo-katz'}, {'name': 'Espionage', 'url': 'https://genius.com/artists/Espionage'}, {'name': 'Gregg Wattenberg', 'url': 'https://genius.com/artists/Gregg-wattenberg'}, {'name': 'Martin Terefe', 'url': 'https://genius.com/artists/Martin-terefe'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}, {'name': 'Sluggo', 'url': 'https://genius.com/artists/Sluggo'}], 'writers': [{'name': 'Amund Björklund', 'url': 'https://genius.com/artists/Amund-bjorklund'}, {'name': 'Dave Katz', 'url': 'https://genius.com/artists/Dave-katz'}, {'name': 'Espen Lind', 'url': 'https://genius.com/artists/Espen-lind'}, {'name': 'Gregg Wattenberg', 'url': 'https://genius.com/artists/Gregg-wattenberg'}, {'name': 'Jerry Becker', 'url': 'https://genius.com/artists/Jerry-becker'}, {'name': 'Jimmy Stafford', 'url': 'https://genius.com/artists/Jimmy-stafford'}, {'name': 'Kevin Griffin', 'url': 'https://genius.com/artists/Kevin-griffin'}, {'name': 'Luis Maldonado', 'url': 'https://genius.com/artists/Luis-maldonado'}, {'name': 'Pat Monahan', 'url': 'https://genius.com/artists/Pat-monahan'}, {'name': 'Patrick Monahan', 'url': 'https://genius.com/artists/Patrick-monahan'}, {'name': 'Patrick Simmons', 'url': 'https://genius.com/artists/Patrick-simmons'}, {'name': 'Ryan Tedder', 'url': 'https://genius.com/artists/Ryan-tedder'}, {'name': 'Sam Hollander', 'url': 'https://genius.com/artists/Sam-hollander'}, {'name': 'Scott Underwood', 'url': 'https://genius.com/artists/Scott-underwood'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Michael-jackson/Scream', 'annotations': {'description': '&lt;p&gt;Titled after &lt;a href="https://genius.com/Michael-jackson-scream-lyrics" rel="noopener" data-api_path="/songs/108127"&gt;his hit collaboration with sister Janet&lt;/a&gt;, &lt;em&gt;Scream&lt;/em&gt; is a Halloween compilation album by &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, released on September 29, 2017.&lt;/p&gt;\n\n&lt;p&gt;Being a Halloween-themed compilation, it largely taps into the darker side of Jackson’s extensive discography, featuring well known hits like “This Place Hotel”, “Thriller” and the title track, and even lesser known tracks such as “Threatened” and “Ghosts”.&lt;/p&gt;\n\n&lt;p&gt;As a bonus, &lt;a href="https://genius.com/Michael-jackson-blood-on-the-dance-floor-x-dangerous-the-white-panda-mash-up-lyrics" rel="noopener" data-api_path="/songs/3226130"&gt;a mash up of “Dangerous” and “Blood on The Dancefloor”&lt;/a&gt; by White Panda is included to the album, and was released as a single to promote its release.&lt;/p&gt;', 'producers': [{'name': 'Curtis Anthony Nolen', 'url': 'https://genius.com/artists/Curtis-anthony-nolen'}, {'name': 'Jackie Jackson', 'url': 'https://genius.com/artists/Jackie-jackson'}, {'name': 'The Jacksons', 'url': 'https://genius.com/artists/The-jacksons'}, {'name': 'Janet Jackson', 'url': 'https://genius.com/artists/Janet-jackson'}, {'name': 'Jimmy Jam &amp; Terry Lewis', 'url': 'https://genius.com/artists/Jimmy-jam-and-terry-lewis'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Quincy Jones', 'url': 'https://genius.com/artists/Quincy-jones'}, {'name': 'Rockwell', 'url': 'https://genius.com/artists/Rockwell'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}, {'name': 'White Panda', 'url': 'https://genius.com/artists/White-panda'}], 'writers': [{'name': 'Bill Bottrell', 'url': 'https://genius.com/artists/Bill-bottrell'}, {'name': 'Curtis Anthony Nolen', 'url': 'https://genius.com/artists/Curtis-anthony-nolen'}, {'name': 'Fred Jerkins III', 'url': 'https://genius.com/artists/Fred-jerkins-iii'}, {'name': 'Harvey Mason Jr.', 'url': 'https://genius.com/artists/Harvey-mason-jr'}, {'name': 'Jackie Jackson', 'url': 'https://genius.com/artists/Jackie-jackson'}, {'name': 'Janet Jackson', 'url': 'https://genius.com/artists/Janet-jackson'}, {'name': 'Jimmy Jam', 'url': 'https://genius.com/artists/Jimmy-jam'}, {'name': 'Kathy Wakefield', 'url': 'https://genius.com/artists/Kathy-wakefield'}, {'name': 'LaShawn Daniels', 'url': 'https://genius.com/artists/Lashawn-daniels'}, {'name': 'Michael Jackson', 'url': 'https://genius.com/artists/Michael-jackson'}, {'name': 'Nora Payne', 'url': 'https://genius.com/artists/Nora-payne'}, {'name': 'The Notorious B.I.G.', 'url': 'https://genius.com/artists/The-notorious-big'}, {'name': 'Robert Smith', 'url': 'https://genius.com/artists/Robert-smith'}, {'name': 'Rockwell', 'url': 'https://genius.com/artists/Rockwell'}, {'name': 'Rodney Jerkins', 'url': 'https://genius.com/artists/Rodney-jerkins'}, {'name': 'Rod Temperton', 'url': 'https://genius.com/artists/Rod-temperton'}, {'name': 'See Subsong', 'url': 'https://genius.com/artists/See-subsong'}, {'name': 'Teddy Riley', 'url': 'https://genius.com/artists/Teddy-riley'}, {'name': 'Terry Lewis', 'url': 'https://genius.com/artists/Terry-lewis'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Epic Records', 'url': 'https://genius.com/artists/Epic-records'}, {'name': 'MJJ Music', 'url': 'https://genius.com/artists/Mjj-music'}, {'name': 'MJJ Productions', 'url': 'https://genius.com/artists/Mjj-productions'}, {'name': 'Motown Records', 'url': 'https://genius.com/artists/Motown-records'}, {'name': 'Sony Music Entertainment', 'url': 'https://genius.com/artists/Sony-music-entertainment'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Keane/Under-the-iron-sea', 'annotations': {'description': '', 'producers': [{'name': 'Andy Green', 'url': 'https://genius.com/artists/Andy-green'}, {'name': 'Keane', 'url': 'https://genius.com/artists/Keane'}], 'writers': [{'name': 'Richard Hughes', 'url': 'https://genius.com/artists/Richard-hughes'}, {'name': 'Tim Rice-Oxley', 'url': 'https://genius.com/artists/Tim-rice-oxley'}, {'name': 'Tom Chaplin', 'url': 'https://genius.com/artists/Tom-chaplin'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Good-charlotte/The-young-and-the-hopeless', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Young and the Hopeless&lt;/em&gt; is the second studio album by American rock band Good Charlotte, released on October 1, 2002 via Epic/Daylight Records. Commercially, the album &lt;a href="https://www.billboard.com/music/Good-Charlotte/chart-history/TLP" rel="noopener nofollow"&gt;peaked&lt;/a&gt; at #7 on the US Billboard 200, making it their first album to appear in the top 10.&lt;/p&gt;\n\n&lt;p&gt;A total of three official singles were released on the album: &lt;a href="https://genius.com/Good-charlotte-lifestyles-of-the-rich-and-famous-lyrics" rel="noopener" data-api_path="/songs/160025"&gt;“Lifestyles of the Rich &amp;amp; Famous”&lt;/a&gt;, &lt;a href="https://genius.com/Good-charlotte-the-anthem-lyrics" rel="noopener" data-api_path="/songs/150224"&gt;“The Anthem”&lt;/a&gt;, and &lt;a href="https://genius.com/Good-charlotte-girls-and-boys-lyrics" rel="noopener" data-api_path="/songs/396236"&gt;“Girls &amp;amp; Boys”&lt;/a&gt;. All singles &lt;a href="https://www.billboard.com/music/good-charlotte/chart-history/HSI" rel="noopener nofollow"&gt;peaked&lt;/a&gt; within the top 50 of the Billboard Hot 100 chart, at #20, #43, and #48, respectively.&lt;/p&gt;', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Benji Madden', 'url': 'https://genius.com/artists/Benji-madden'}, {'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}, {'name': 'Joel Madden', 'url': 'https://genius.com/artists/Joel-madden'}, {'name': 'John Feldmann', 'url': 'https://genius.com/artists/John-feldmann'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Edward-maya/The-stereo-love-show', 'annotations': {'description': '', 'producers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}], 'writers': [{'name': 'Edward Maya', 'url': 'https://genius.com/artists/Edward-maya'}, {'name': 'Folk Adaptation', 'url': 'https://genius.com/artists/Folk-adaptation'}, {'name': 'Vika Jigulina', 'url': 'https://genius.com/artists/Vika-jigulina'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Eminem/The-marshall-mathers-lp2', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;The Marshall Mathers LP2&lt;/em&gt;, commonly abbreviated to &lt;em&gt;MMLP2&lt;/em&gt;, is the eighth studio album by Eminem, released on November 5, 2013.&lt;/p&gt;\n\n&lt;p&gt;The album is a sequel to Eminem’s most successful and arguably best album &lt;a href="https://genius.com/albums/Eminem/The-marshall-mathers-lp" rel="noopener" data-api_path="/albums/2873"&gt;&lt;em&gt;The Marshall Mathers LP&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album came in a critical time after his previous 3 albums: &lt;a href="https://genius.com/albums/Eminem/Recovery" rel="noopener" data-api_path="/albums/2876"&gt;&lt;em&gt;Recovery&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Eminem/Relapse" rel="noopener" data-api_path="/albums/2878"&gt;&lt;em&gt;Relapse&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Eminem/Encore" rel="noopener" data-api_path="/albums/2867"&gt;&lt;em&gt;Encore&lt;/em&gt;&lt;/a&gt; got mixed reviews by critics.&lt;br&gt;\nFortunately this album got mostly good reviews by critics who praised Eminem’s technical rapping abilities and production choices.&lt;/p&gt;\n\n&lt;p&gt;The album was named on multiple “Albums of the Year” year-end lists. It debuted at number one on the US Billboard 200 and had the second highest album sales of 2013, and won a Grammy for best rap album at the 57th Grammy Awards.&lt;/p&gt;\n\n&lt;p&gt;Many of the songs have individual awards and accolades, including &lt;a href="https://genius.com/Eminem-survival-lyrics" rel="noopener" data-api_path="/songs/204622"&gt;“Survival”&lt;/a&gt; (featured in &lt;a href="http://hiphopdx.com/news/id.26169/title.activision-explains-eminem-partnership-for-call-of-duty-ghosts" rel="noopener nofollow"&gt;“Call of Duty: Ghosts”&lt;/a&gt;), &lt;a href="https://genius.com/Eminem-the-monster-lyrics" rel="noopener" data-api_path="/songs/235732"&gt;“The Monster”&lt;/a&gt; (received a Grammy award for Best Rap/Sung Collaboration) and &lt;a href="https://genius.com/Eminem-rap-god-lyrics" rel="noopener" data-api_path="/songs/235729"&gt;“Rap God”&lt;/a&gt; (Grammy for Best Rap Performance and holds the world record in the &lt;a href="http://www.guinnessworldrecords.com/news/2014/9/jennifer-lawrence-game-of-thrones-frozen-among-new-entertainment-record-holders-in-guinness-world-records-2015-book-60021/" rel="noopener nofollow"&gt;“Guinness World Records 2015 book”&lt;/a&gt; for “Most words in a hit single).&lt;/p&gt;', 'producers': [{'name': 'Aalias', 'url': 'https://genius.com/artists/Aalias'}, {'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'DJ Khalil', 'url': 'https://genius.com/artists/Dj-khalil'}, {'name': 'DVLP', 'url': 'https://genius.com/artists/Dvlp'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Frequency', 'url': 'https://genius.com/artists/Frequency'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'M-Phazes', 'url': 'https://genius.com/artists/M-phazes'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'S1', 'url': 'https://genius.com/artists/S1'}, {'name': 'Sid Roams', 'url': 'https://genius.com/artists/Sid-roams'}, {'name': 'STREETRUNNER', 'url': 'https://genius.com/artists/Streetrunner'}], 'writers': [{'name': 'Aalias', 'url': 'https://genius.com/artists/Aalias'}, {'name': 'Ad-Rock', 'url': 'https://genius.com/artists/Ad-rock'}, {'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Arabian Prince', 'url': 'https://genius.com/artists/Arabian-prince'}, {'name': 'Art Neville', 'url': 'https://genius.com/artists/Art-neville'}, {'name': 'Bebe Rexha', 'url': 'https://genius.com/artists/Bebe-rexha'}, {'name': 'Billy Squier', 'url': 'https://genius.com/artists/Billy-squier'}, {'name': 'Chin Injeti', 'url': 'https://genius.com/artists/Chin-injeti'}, {'name': 'Clint Ballard', 'url': 'https://genius.com/artists/Clint-ballard'}, {'name': 'Coy Poe', 'url': 'https://genius.com/artists/Coy-poe'}, {'name': 'Crazy J', 'url': 'https://genius.com/artists/Crazy-j'}, {'name': 'Cyril Neville', 'url': 'https://genius.com/artists/Cyril-neville'}, {'name': 'Dania Maria Birks', 'url': 'https://genius.com/artists/Dania-maria-birks'}, {'name': 'David Brook', 'url': 'https://genius.com/artists/David-brook'}, {'name': 'DJ Khalil', 'url': 'https://genius.com/artists/Dj-khalil'}, {'name': 'Doug E. Fresh', 'url': 'https://genius.com/artists/Doug-e-fresh'}, {'name': 'DVLP', 'url': 'https://genius.com/artists/Dvlp'}, {'name': 'Emile Haynie', 'url': 'https://genius.com/artists/Emile-haynie'}, {'name': 'Eminem', 'url': 'https://genius.com/artists/Eminem'}, {'name': 'Erik Alcock', 'url': 'https://genius.com/artists/Erik-alcock'}, {'name': 'Frequency', 'url': 'https://genius.com/artists/Frequency'}, {'name': 'George Porter Jr.', 'url': 'https://genius.com/artists/George-porter-jr'}, {'name': 'Gian Piero Reverberi', 'url': 'https://genius.com/artists/Gian-piero-reverberi'}, {'name': 'Jeff Bhasker', 'url': 'https://genius.com/artists/Jeff-bhasker'}, {'name': 'Jimmie Grier', 'url': 'https://genius.com/artists/Jimmie-grier'}, {'name': 'Joe Walsh', 'url': 'https://genius.com/artists/Joe-walsh'}, {'name': 'Joey Chavez', 'url': 'https://genius.com/artists/Joey-chavez'}, {'name': 'Jon Bellion', 'url': 'https://genius.com/artists/Jon-bellion'}, {'name': 'Joseph Modeliste', 'url': 'https://genius.com/artists/Joseph-modeliste'}, {'name': 'Kay Gee', 'url': 'https://genius.com/artists/Kay-gee'}, {'name': 'Kendrick Lamar', 'url': 'https://genius.com/artists/Kendrick-lamar'}, {'name': 'Laura Giordano', 'url': 'https://genius.com/artists/Laura-giordano'}, {'name': 'Leo Nocentelli', 'url': 'https://genius.com/artists/Leo-nocentelli'}, {'name': 'Liz Rodrigues', 'url': 'https://genius.com/artists/Liz-rodrigues'}, {'name': 'Luis Resto', 'url': 'https://genius.com/artists/Luis-resto'}, {'name': 'Maki Athanasiou', 'url': 'https://genius.com/artists/Maki-athanasiou'}, {'name': 'Matthew DelGiorno', 'url': 'https://genius.com/artists/Matthew-delgiorno'}, {'name': 'MCA', 'url': 'https://genius.com/artists/Mca'}, {'name': 'MC JB', 'url': 'https://genius.com/artists/Mc-jb'}, {'name': 'Mike Aiello', 'url': 'https://genius.com/artists/Mike-aiello'}, {'name': 'Mike Strange', 'url': 'https://genius.com/artists/Mike-strange'}, {'name': 'M-Phazes', 'url': 'https://genius.com/artists/M-phazes'}, {'name': 'Nate Ruess', 'url': 'https://genius.com/artists/Nate-ruess'}, {'name': 'OG Rocker', 'url': 'https://genius.com/artists/Og-rocker'}, {'name': 'Pinky Tomlin', 'url': 'https://genius.com/artists/Pinky-tomlin'}, {'name': 'POLINA', 'url': 'https://genius.com/artists/Polina'}, {'name': 'Ransom', 'url': 'https://genius.com/artists/Ransom'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}, {'name': 'Rihanna', 'url': 'https://genius.com/artists/Rihanna'}, {'name': 'Rod Argent', 'url': 'https://genius.com/artists/Rod-argent'}, {'name': 'S1', 'url': 'https://genius.com/artists/S1'}, {'name': 'Sarah Jaffe', 'url': 'https://genius.com/artists/Sarah-jaffe'}, {'name': 'Schoolly D', 'url': 'https://genius.com/artists/Schoolly-d'}, {'name': 'Skylar Grey', 'url': 'https://genius.com/artists/Skylar-grey'}, {'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Stephen Hacker', 'url': 'https://genius.com/artists/Stephen-hacker'}, {'name': 'STREETRUNNER', 'url': 'https://genius.com/artists/Streetrunner'}, {'name': 'Tavish Graham', 'url': 'https://genius.com/artists/Tavish-graham'}, {'name': 'Treach', 'url': 'https://genius.com/artists/Treach'}, {'name': 'Vinny Venditto', 'url': 'https://genius.com/artists/Vinny-venditto'}, {'name': 'Vin Rock', 'url': 'https://genius.com/artists/Vin-rock'}, {'name': 'Walter Murphy', 'url': 'https://genius.com/artists/Walter-murphy'}, {'name': 'Wolfgang Düren', 'url': 'https://genius.com/artists/Wolfgang-duren'}], 'labels': [{'name': 'Aftermath Entertainment', 'url': 'https://genius.com/artists/Aftermath-entertainment'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Shady Records', 'url': 'https://genius.com/artists/Shady-records'}, {'name': 'Universal Music Group', 'url': 'https://genius.com/artists/Universal-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Snow/12-inches-of-snow', 'annotations': {'description': '&lt;p&gt;12 Inches of Snow is the debut album by Canadian reggae musician Snow, released in 1993. Edmond Leary and MC Shan produced the entire album, apart from one track which was produced by John Ficarrotta. The album was produced shortly before Snow was imprisoned for a year on an assault charge. Upon his release from prison, his first single “Informer” became a chart topping hit. It later went on to become one of the largest-selling reggae records of all time.&lt;/p&gt;', 'producers': [{'name': 'DJ Marvin Prince', 'url': 'https://genius.com/artists/Dj-marvin-prince'}, {'name': 'John Ficarrotta', 'url': 'https://genius.com/artists/John-ficarrotta'}, {'name': 'MC Shan', 'url': 'https://genius.com/artists/Mc-shan'}], 'writers': [{'name': 'DJ Marvin Prince', 'url': 'https://genius.com/artists/Dj-marvin-prince'}, {'name': 'Edmond Leary', 'url': 'https://genius.com/artists/Edmond-leary'}, {'name': 'John Ficarrotta', 'url': 'https://genius.com/artists/John-ficarrotta'}, {'name': 'MC Shan', 'url': 'https://genius.com/artists/Mc-shan'}, {'name': 'Michael Grier', 'url': 'https://genius.com/artists/Michael-grier'}, {'name': 'Snow', 'url': 'https://genius.com/artists/Snow'}, {'name': 'Terri Moltke', 'url': 'https://genius.com/artists/Terri-moltke'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ellie-goulding/Bright-lights', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lights&lt;/em&gt; was re-released on 29 November 2010 as &lt;em&gt;Bright Lights&lt;/em&gt;, including six brand-new tracks. It produced two additional singles, those being a cover of Elton John’s “Your Song” and “Lights”, which became Goulding’s biggest hit to date in the UK and US, respectively. Following the re-release, the album saw a surge in sales in both the UK and Ireland. On 8 March 2011, the album was released in the United States featuring three songs that were previously not available on the original version, but were included on the &lt;em&gt;Bright Lights&lt;/em&gt; reissue.&lt;/p&gt;', 'producers': [{'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Ben Lovett', 'url': 'https://genius.com/artists/Ben-lovett'}, {'name': 'FrankMusik', 'url': 'https://genius.com/artists/Frankmusik'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Fred Falke', 'url': 'https://genius.com/artists/Fred-falke'}, {'name': 'Liam Howe', 'url': 'https://genius.com/artists/Liam-howe'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Starsmith', 'url': 'https://genius.com/artists/Starsmith'}], 'writers': [{'name': 'Ash Howes', 'url': 'https://genius.com/artists/Ash-howes'}, {'name': 'Bernie Taupin', 'url': 'https://genius.com/artists/Bernie-taupin'}, {'name': 'Crispin Hunt', 'url': 'https://genius.com/artists/Crispin-hunt'}, {'name': 'Ellie Goulding', 'url': 'https://genius.com/artists/Ellie-goulding'}, {'name': 'Fraser T. Smith', 'url': 'https://genius.com/artists/Fraser-t-smith'}, {'name': 'Fred Falke', 'url': 'https://genius.com/artists/Fred-falke'}, {'name': 'John Fortis', 'url': 'https://genius.com/artists/John-fortis'}, {'name': 'Jonny Lattimer', 'url': 'https://genius.com/artists/Jonny-lattimer'}, {'name': 'Liam Howe', 'url': 'https://genius.com/artists/Liam-howe'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Rob Blake', 'url': 'https://genius.com/artists/Rob-blake'}, {'name': 'Starsmith', 'url': 'https://genius.com/artists/Starsmith'}], 'labels': [{'name': 'Polydor Records', 'url': 'https://genius.com/artists/Polydor-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Papa-roach/Lovehatetragedy', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Lovehatetragedy&lt;/em&gt; is the third album by the rock band Papa Roach. It was released on June 18, 2002. The album failed to catch the success of the band’s previous album Infest.&lt;br&gt;\nThe album did not sell as well as its 2000 predecessor, Infest, selling more than 700,000 units, achieving gold certification in the U.S.&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}], 'writers': [{'name': 'Dave Buckner', 'url': 'https://genius.com/artists/Dave-buckner'}, {'name': 'David Buckner', 'url': 'https://genius.com/artists/David-buckner'}, {'name': 'Frank Black', 'url': 'https://genius.com/artists/Frank-black'}, {'name': 'Jacoby Shaddix', 'url': 'https://genius.com/artists/Jacoby-shaddix'}, {'name': 'Jerry Horton', 'url': 'https://genius.com/artists/Jerry-horton'}, {'name': 'Mike Patton', 'url': 'https://genius.com/artists/Mike-patton'}, {'name': 'Tobin Esperance', 'url': 'https://genius.com/artists/Tobin-esperance'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Ace-of-base/Happy-nation', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Happy Nation&lt;/em&gt; is Ace Of Base’s debut album, first released in Scandinavia in late 1992. Its North American release did not come until November 1993 with a revised tracklist, artwork, and name: &lt;em&gt;The Sign&lt;/em&gt;&lt;/p&gt;', 'producers': [{'name': 'Denniz PoP', 'url': 'https://genius.com/artists/Denniz-pop'}, {'name': 'Douglas Carr', 'url': 'https://genius.com/artists/Douglas-carr'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'T.O.E.C.', 'url': 'https://genius.com/artists/Toec'}, {'name': 'Tommy Ekman', 'url': 'https://genius.com/artists/Tommy-ekman'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'writers': [{'name': 'Jonas Berg', 'url': 'https://genius.com/artists/Jonas-berg'}, {'name': 'Jonas Berggren', 'url': 'https://genius.com/artists/Jonas-berggren'}, {'name': 'Ulf Ekberg', 'url': 'https://genius.com/artists/Ulf-ekberg'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Flo-rida/Only-one-flo-part-1', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Only One Flo (Part 1)&lt;/em&gt; is the third studio album by American rapper Flo Rida, released on November 30, 2010, through Atlantic Records. Commerically, the album marks his least successful album release and his lowest album to appear on the Billboard 200 chart, only managing to &lt;a href="https://www.billboard.com/music/flo-rida/chart-history" rel="noopener nofollow"&gt;peak&lt;/a&gt; at #107.&lt;/p&gt;\n\n&lt;p&gt;The album saw a release of four singles: “Club Can’t Handle Me”, “Turn Around (5, 4, 3, 2, 1)”, “Who Dat Girl” and “Why You Up In Here”.&lt;/p&gt;', 'producers': [{'name': 'Antario “Tario” Holmes', 'url': 'https://genius.com/artists/Antario-tario-holmes'}, {'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}, {'name': 'Dada Life', 'url': 'https://genius.com/artists/Dada-life'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'Infinity', 'url': 'https://genius.com/artists/Infinity'}, {'name': 'Knobody', 'url': 'https://genius.com/artists/Knobody'}, {'name': 'Los Da Mystro', 'url': 'https://genius.com/artists/Los-da-mystro'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}], 'writers': [{'name': '2Pac', 'url': 'https://genius.com/artists/2pac'}, {'name': 'Antario “Tario” Holmes', 'url': 'https://genius.com/artists/Antario-tario-holmes'}, {'name': 'Axwell', 'url': 'https://genius.com/artists/Axwell'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Boi-1da', 'url': 'https://genius.com/artists/Boi-1da'}, {'name': 'Boris Blank', 'url': 'https://genius.com/artists/Boris-blank'}, {'name': 'Bruno Mars', 'url': 'https://genius.com/artists/Bruno-mars'}, {'name': 'Carmen Michelle Key', 'url': 'https://genius.com/artists/Carmen-michelle-key'}, {'name': 'Chef Tone', 'url': 'https://genius.com/artists/Chef-tone'}, {'name': 'Claude Kelly', 'url': 'https://genius.com/artists/Claude-kelly'}, {'name': 'David Guetta', 'url': 'https://genius.com/artists/David-guetta'}, {'name': 'David Siegel', 'url': 'https://genius.com/artists/David-siegel'}, {'name': 'Dieter Meier', 'url': 'https://genius.com/artists/Dieter-meier'}, {'name': 'DJ Frank E', 'url': 'https://genius.com/artists/Dj-frank-e'}, {'name': 'D.O.E. (Rapper)', 'url': 'https://genius.com/artists/Doe-rapper'}, {'name': 'Dr. Luke', 'url': 'https://genius.com/artists/Dr-luke'}, {'name': 'Eskeerdo', 'url': 'https://genius.com/artists/Eskeerdo'}, {'name': 'Ester Dean', 'url': 'https://genius.com/artists/Ester-dean'}, {'name': 'Flo Rida', 'url': 'https://genius.com/artists/Flo-rida'}, {'name': 'Frédéric Riesterer', 'url': 'https://genius.com/artists/Frederic-riesterer'}, {'name': 'George Kranz', 'url': 'https://genius.com/artists/George-kranz'}, {'name': 'Giorgio Tuinfort', 'url': 'https://genius.com/artists/Giorgio-tuinfort'}, {'name': 'Gucci Mane', 'url': 'https://genius.com/artists/Gucci-mane'}, {'name': 'Hurt-M-Badd', 'url': 'https://genius.com/artists/Hurt-m-badd'}, {'name': 'Hussein Fatal', 'url': 'https://genius.com/artists/Hussein-fatal'}, {'name': 'Infinity', 'url': 'https://genius.com/artists/Infinity'}, {'name': 'Jacob Kasher', 'url': 'https://genius.com/artists/Jacob-kasher'}, {'name': 'Jordan Lewis', 'url': 'https://genius.com/artists/Jordan-lewis'}, {'name': 'Julian Bunetta', 'url': 'https://genius.com/artists/Julian-bunetta'}, {'name': 'Kasia Livingston', 'url': 'https://genius.com/artists/Kasia-livingston'}, {'name': 'Kastro', 'url': 'https://genius.com/artists/Kastro'}, {'name': 'Kevin Rudolf', 'url': 'https://genius.com/artists/Kevin-rudolf'}, {'name': 'Knobody', 'url': 'https://genius.com/artists/Knobody'}, {'name': 'Los Da Mystro', 'url': 'https://genius.com/artists/Los-da-mystro'}, {'name': 'Ludacris', 'url': 'https://genius.com/artists/Ludacris'}, {'name': 'Mike Caren', 'url': 'https://genius.com/artists/Mike-caren'}, {'name': 'Olle Cornéer', 'url': 'https://genius.com/artists/Olle-corneer'}, {'name': 'Philip Lawrence', 'url': 'https://genius.com/artists/Philip-lawrence'}, {'name': 'Prince Ital Joe', 'url': 'https://genius.com/artists/Prince-ital-joe'}, {'name': 'Priscilla Polete', 'url': 'https://genius.com/artists/Priscilla-polete'}, {'name': 'Slade Da Monsta', 'url': 'https://genius.com/artists/Slade-da-monsta'}, {'name': 'Stefan Engblom', 'url': 'https://genius.com/artists/Stefan-engblom'}, {'name': 'Sydne George', 'url': 'https://genius.com/artists/Sydne-george'}, {'name': 'T-Minus', 'url': 'https://genius.com/artists/T-minus'}, {'name': 'Wayne Thomas', 'url': 'https://genius.com/artists/Wayne-thomas'}, {'name': 'Yaki Kadafi', 'url': 'https://genius.com/artists/Yaki-kadafi'}, {'name': 'Young Noble', 'url': 'https://genius.com/artists/Young-noble'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Tom-petty-and-the-heartbreakers/Into-the-great-wide-open', 'annotations': {'description': '&lt;p&gt;The eighth studio album by Tom Petty and The Heartbreakers was first released in July of 1991. “Learning to Fly” was released as a single a few months prior to the album’s release and spent six weeks atop the &lt;em&gt;Billboard&lt;/em&gt; Mainstream Rock Tracks Chart, Petty’s longest-running top single as of 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.rollingstone.com/contributor/parke-puterbaugh" rel="noopener nofollow"&gt;Park Puterbaugh&lt;/a&gt; of &lt;em&gt;Rolling Stone&lt;/em&gt; gave the album &lt;a href="http://www.rollingstone.com/music/albumreviews/into-the-great-wide-open-19910711" rel="noopener nofollow"&gt;4/5 stars,&lt;/a&gt; describing it as:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Employing spare, deceptively simple rhymes in attractive pop settings, Petty sings about the failings, compromises and existential emptiness that underlie the American dream as it staggers, violent and overfed, into the Nineties. His characters range from the compulsive materialists of “All the Wrong Reasons” to the rockin\', rollin\' Hollywood hotshots of “Into the Great Wide Open.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Into The Great Wide Open&lt;/em&gt; was the last Tom Petty and The Heartbreakers\' album recorded with MCA Records.&lt;/p&gt;', 'producers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Mike W. Campbell', 'url': 'https://genius.com/artists/Mike-w-campbell'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}], 'writers': [{'name': 'Jeff Lynne', 'url': 'https://genius.com/artists/Jeff-lynne'}, {'name': 'Mike W. Campbell', 'url': 'https://genius.com/artists/Mike-w-campbell'}, {'name': 'Tom Petty', 'url': 'https://genius.com/artists/Tom-petty'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Blur/Think-tank', 'annotations': {'description': '&lt;p&gt;Think Tank is the seventh studio album by the English rock band Blur, released in May 2003. Continuing the jam-based studio constructions of the group’s previous album, 13 (1999), the album expanded on the use of sampled rhythm loops and brooding, heavy electronic sounds. There are also heavy influences from dance music, hip hop, dub, jazz, and African music, an indication of songwriter Damon Albarn’s expanding musical interests.&lt;/p&gt;', 'producers': [{'name': 'Ben Hillier', 'url': 'https://genius.com/artists/Ben-hillier'}, {'name': 'Blur', 'url': 'https://genius.com/artists/Blur'}, {'name': 'Fatboy Slim', 'url': 'https://genius.com/artists/Fatboy-slim'}, {'name': 'James Dring', 'url': 'https://genius.com/artists/James-dring'}, {'name': 'William Orbit', 'url': 'https://genius.com/artists/William-orbit'}], 'writers': [{'name': 'Alex James', 'url': 'https://genius.com/artists/Alex-james'}, {'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Dave Rowntree', 'url': 'https://genius.com/artists/Dave-rowntree'}, {'name': 'Graham Coxon', 'url': 'https://genius.com/artists/Graham-coxon'}, {'name': 'James Dring', 'url': 'https://genius.com/artists/James-dring'}, {'name': 'Mike Smith', 'url': 'https://genius.com/artists/Mike-smith'}, {'name': 'Phil Daniels', 'url': 'https://genius.com/artists/Phil-daniels'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Steve-winwood/Chronicles', 'annotations': {'description': '', 'producers': [{'name': 'Chris Blackwell', 'url': 'https://genius.com/artists/Chris-blackwell'}, {'name': 'Russ Titelman', 'url': 'https://genius.com/artists/Russ-titelman'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Tom Lord‐Alge', 'url': 'https://genius.com/artists/Tom-lordalge'}], 'writers': [{'name': 'Richard Thompson', 'url': 'https://genius.com/artists/Richard-thompson'}, {'name': 'Steve Winwood', 'url': 'https://genius.com/artists/Steve-winwood'}, {'name': 'Vivian Stanshall', 'url': 'https://genius.com/artists/Vivian-stanshall'}, {'name': 'Will Jennings', 'url': 'https://genius.com/artists/Will-jennings'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Smash-mouth/Fush-yu-mang', 'annotations': {'description': '', 'producers': [{'name': 'Eric Valentine', 'url': 'https://genius.com/artists/Eric-valentine'}], 'writers': [{'name': 'Greg Camp', 'url': 'https://genius.com/artists/Greg-camp'}, {'name': 'Jerry Goldstein', 'url': 'https://genius.com/artists/Jerry-goldstein'}, {'name': 'Kevin Coleman', 'url': 'https://genius.com/artists/Kevin-coleman'}, {'name': 'Paul De Lisle', 'url': 'https://genius.com/artists/Paul-de-lisle'}, {'name': 'Steve Harwell', 'url': 'https://genius.com/artists/Steve-harwell'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Rem/Document', 'annotations': {'description': '&lt;p&gt;According to Marcus Gray’s &lt;em&gt;It Crawled from the South&lt;/em&gt; (1996, 2nd ed.):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Document was recorded in four weeks in April 1987 in Nashville, and was produced by Scott Litt who would go on to produce the band’s albums through &lt;em&gt;New Adventures in Hi-Fi&lt;/em&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Rem-the-one-i-love-lyrics" rel="noopener" data-api_path="/songs/389271"&gt;The One I Love&lt;/a&gt;” became R.E.M.’s first bona fide hit, and &lt;em&gt;Document&lt;/em&gt; became their first million-selling album. On December 3, 1987, the band graced the cover of &lt;em&gt;Rolling Stone&lt;/em&gt;, with caption “America’s Best Rock N\' Roll Band”.&lt;/p&gt;\n\n&lt;p&gt;On the album cover, behind the camera is Michael Stipe. The cover has multiple exposures at different angles. Rotate it counter-clockwise, and you will see the black 1978 “Checker” Marathon taxi cab that Stipe drove. In the image it is parked in front of his Athens home.  Stipe also name-checks the “Checker” in the song “I Believe” on &lt;em&gt;Lifes Rich Pageant&lt;/em&gt;.&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}, {'name': 'Bruce Gilbert', 'url': 'https://genius.com/artists/Bruce-gilbert'}, {'name': 'Colin Newman', 'url': 'https://genius.com/artists/Colin-newman'}, {'name': 'Graham Lewis', 'url': 'https://genius.com/artists/Graham-lewis'}, {'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}, {'name': 'Robert Gotobed', 'url': 'https://genius.com/artists/Robert-gotobed'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/System-of-a-down/Hypnotize', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Hypnotize&lt;/em&gt; is the fifth album and second half of the &lt;em&gt;&lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;Mezmerize&lt;/a&gt;/Hypnotize&lt;/em&gt; double album released by &lt;a href="https://genius.com/artists/System-of-a-down" rel="noopener" data-api_path="/artists/16259"&gt;System of a Down&lt;/a&gt;. It was released on November 22, 2005, through the record label, Columbia. The double album was recorded in two studios; The Mansion, and the Akademie Mathematique of Philosophical Sound Research. The double album debuted at #1 in the &lt;a href="https://genius.com/artists/Billboard" rel="noopener" data-api_path="/artists/34510"&gt;Billboard&lt;/a&gt; 200. &lt;em&gt;Hypnotize&lt;/em&gt; was the last album to release before System of a Down’s four-year hiatus from August 2006 to November 2010.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c4f4d3effcf359ed9d663df284aad2ff.1000x500x1.jpg" alt="" width="1000" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ea315636a61d7a64c49d480a06d8666d.1000x500x1.jpg" alt="" width="1000" height="500" data-animated="false"&gt;&lt;/p&gt;', 'producers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Rick Rubin', 'url': 'https://genius.com/artists/Rick-rubin'}], 'writers': [{'name': 'Daron Malakian', 'url': 'https://genius.com/artists/Daron-malakian'}, {'name': 'Serj Tankian', 'url': 'https://genius.com/artists/Serj-tankian'}, {'name': 'Shavo Odadjian', 'url': 'https://genius.com/artists/Shavo-odadjian'}], 'labels': [{'name': 'American Recordings', 'url': 'https://genius.com/artists/American-recordings'}, {'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Twisted-sister/Stay-hungry', 'annotations': {'description': '&lt;p&gt;Twisted Sister’s previous album &lt;em&gt;You Can’t Stop Rock ‘N’ Roll&lt;/em&gt; is the band’s most successful album in the UK, but in the US, &lt;em&gt;Stay Hungry&lt;/em&gt; was their breakthrough album, reaching #15 and spawning the band’s only top 40 hit “We’re Not Gonna Take It”.&lt;/p&gt;\n\n&lt;p&gt;In the past, guitarist Jay Jay French was a contributing songwriter, but frontman Dee Snider made it his goal to take charge of songwriting. And he did exactly that on &lt;em&gt;Stay Hungry&lt;/em&gt;, writing the entire album himself – most of it in &lt;a href="http://www.songfacts.com/blog/interviews/dee_snider_of_twisted_sister/" rel="noopener nofollow"&gt;one 45 minute writing session&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Stay Hungry&lt;/em&gt; took the band from touring clubs to performing in arenas and made the top 50 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=Stay+Hungry&amp;amp;cat=a" rel="noopener nofollow"&gt;six countries&lt;/a&gt; including the US and UK. Its lead single “We’re Not Gonna Take It” hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Twisted+Sister&amp;amp;titel=We%27re+Not+Gonna+Take+It&amp;amp;cat=s" rel="noopener nofollow"&gt;#2 in New Zealand&lt;/a&gt; and #21 in the US. The song’s iconic video of rebellion-meets-slapstick became a staple on MTV in the mid-80s. The second single “I Wanna Rock” had a similar video and was a minor hit in the US.&lt;/p&gt;\n\n&lt;p&gt;The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;se=twisted+sister#search_section" rel="noopener nofollow"&gt;double Platinum&lt;/a&gt; in less than a year (eventually reaching 3x Platinum in 1995).&lt;/p&gt;\n\n&lt;p&gt;In 2004, &lt;a href="http://www.metalunderground.com/news/details.cfm?newsid=7886" rel="noopener nofollow"&gt;the band re-recorded&lt;/a&gt; the entire album and released it as &lt;em&gt;Still Hungry&lt;/em&gt;. In 2009, Rhino Records released a &lt;a href="https://www.discogs.com/Twisted-Sister-Stay-Hungry/release/3450037" rel="noopener nofollow"&gt;25th Anniversary Edition&lt;/a&gt; of the album including a full disc of previously unreleased studio sessions and demos from this era of the band.&lt;/p&gt;', 'producers': [{'name': 'Neidermeyer', 'url': 'https://genius.com/artists/Neidermeyer'}, {'name': 'Tom Werman', 'url': 'https://genius.com/artists/Tom-werman'}], 'writers': [{'name': 'Dee Snider', 'url': 'https://genius.com/artists/Dee-snider'}], 'labels': [{'name': 'Atlantic Records', 'url': 'https://genius.com/artists/Atlantic-records'}, {'name': 'Warner Music Group', 'url': 'https://genius.com/artists/Warner-music-group'}]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Enrique-iglesias/I-like-how-it-feels-remixes', 'annotations': {'description': '', 'producers': [{'name': 'Alex P', 'url': 'https://genius.com/artists/Alex-p'}, {'name': 'Benny Benassi', 'url': 'https://genius.com/artists/Benny-benassi'}, {'name': 'Jump Smokers', 'url': 'https://genius.com/artists/Jump-smokers'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}, {'name': 'Sidney Samson', 'url': 'https://genius.com/artists/Sidney-samson'}, {'name': 'Vice', 'url': 'https://genius.com/artists/Vice'}], 'writers': [{'name': 'Adam Baptiste', 'url': 'https://genius.com/artists/Adam-baptiste'}, {'name': 'Alex P', 'url': 'https://genius.com/artists/Alex-p'}, {'name': 'Enrique Iglesias', 'url': 'https://genius.com/artists/Enrique-iglesias'}, {'name': 'Pitbull', 'url': 'https://genius.com/artists/Pitbull'}, {'name': 'RedOne', 'url': 'https://genius.com/artists/Redone'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/The-b-52s/Wild-planet', 'annotations': {'description': '', 'producers': [{'name': "The B-52's", 'url': 'https://genius.com/artists/The-b-52s'}, {'name': 'Rhett Davies', 'url': 'https://genius.com/artists/Rhett-davies'}], 'writers': [{'name': 'Cindy Wilson', 'url': 'https://genius.com/artists/Cindy-wilson'}, {'name': 'Fred Schneider', 'url': 'https://genius.com/artists/Fred-schneider'}, {'name': 'Kate Pierson', 'url': 'https://genius.com/artists/Kate-pierson'}, {'name': 'Keith Strickland', 'url': 'https://genius.com/artists/Keith-strickland'}, {'name': "Ricky Wilson (B-52's)", 'url': 'https://genius.com/artists/Ricky-wilson-b-52s'}, {'name': 'Robert Waldrop', 'url': 'https://genius.com/artists/Robert-waldrop'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Pet-shop-boys/Actually', 'annotations': {'description': '', 'producers': [{'name': 'Andy Richards', 'url': 'https://genius.com/artists/Andy-richards'}, {'name': 'David Jacob', 'url': 'https://genius.com/artists/David-jacob'}, {'name': 'Julian Mendelsohn', 'url': 'https://genius.com/artists/Julian-mendelsohn'}, {'name': 'Pet Shop Boys', 'url': 'https://genius.com/artists/Pet-shop-boys'}, {'name': 'Shep Pettibone', 'url': 'https://genius.com/artists/Shep-pettibone'}, {'name': 'Stephen Hague', 'url': 'https://genius.com/artists/Stephen-hague'}], 'writers': [{'name': 'Allee Willis', 'url': 'https://genius.com/artists/Allee-willis'}, {'name': 'Bobby O', 'url': 'https://genius.com/artists/Bobby-o'}, {'name': 'Chris Lowe', 'url': 'https://genius.com/artists/Chris-lowe'}, {'name': 'Ennio Morricone', 'url': 'https://genius.com/artists/Ennio-morricone'}, {'name': 'Neil Tennant', 'url': 'https://genius.com/artists/Neil-tennant'}], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Bizarre-inc/Energique', 'annotations': {'description': '', 'producers': [], 'writers': [], 'labels': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/albums/Green-day/Warning', 'annotations': {'description': '&lt;p&gt;Continuing in a similar vein to &lt;a href="https://genius.com/albums/Green-day/Nimrod" rel="noopener" data-api_path="/albums/15861"&gt;&lt;em&gt;Nimrod&lt;/em&gt;&lt;/a&gt;, Green Day’s sixth studio album, &lt;em&gt;Warning&lt;/em&gt;, is notable for its departure from punk rock, and incorporation of acoustic, folk and pop elements.&lt;/p&gt;\n\n&lt;p&gt;In comparison to the band’s earlier work, the lyricism of &lt;em&gt;Warning&lt;/em&gt; saw frontman Billie Joe Armstrong experimenting with more optimistic and uplifting everyday topics. Additionally, the album features more explicitly political themes, as highlighted in &lt;a href="https://genius.com/Green-day-minority-lyrics" rel="noopener" data-api_path="/songs/90484"&gt;“Minority”&lt;/a&gt; and &lt;a href="https://genius.com/Green-day-warning-lyrics" rel="noopener" data-api_path="/songs/90163"&gt;“Warning”&lt;/a&gt;. Explaining this to &lt;a href="http://rol.st/2dhm9ZH" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt;, Armstrong said:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;When you start getting into your politics it’s like you have to be vulnerable and you have to be sort of sensitive. Because if it’s always like straight aggression all the time, there becomes no empathy for the stance that you’re taking. You’re not telling people to think, you’re telling them what to think.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Although it represented a slump in the band’s career upon its release, &lt;em&gt;Warning&lt;/em&gt; received generally positive reviews from critics who praised its songwriting and maturity. In his &lt;a href="http://bit.ly/1lEJHrO" rel="noopener nofollow"&gt;&lt;em&gt;AllMusic&lt;/em&gt; review&lt;/a&gt;, editor Stephen Thomas Erlewine commented that:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Warning may not be an innovative record per se, but it’s tremendously satisfying; it finds the band at a peak of songcraft and performance, doing it all without a trace of self-consciousness. It’s the first great pure pop album of the new millennium.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Green Day', 'url': 'https://genius.com/artists/Green-day'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'writers': [{'name': 'Billie Joe Armstrong', 'url': 'https://genius.com/artists/Billie-joe-armstrong'}, {'name': 'Mike Dirnt', 'url': 'https://genius.com/artists/Mike-dirnt'}, {'name': 'Tré Cool', 'url': 'https://genius.com/artists/Tre-cool'}], 'labels': []}}</t>
+    <t>{'url': 'https://genius.com/albums/Imagine-dragons/Evolve', 'annotations': {'description': '&lt;p&gt;When commenting on the difference between &lt;em&gt;Evolve&lt;/em&gt; and its predecessor &lt;a href="https://genius.com/albums/Imagine-dragons/Smoke-mirrors" rel="noopener" data-api_path="/albums/488912"&gt;&lt;em&gt;Smoke + Mirrors.&lt;/em&gt;&lt;/a&gt;, frontman Dan Reynolds &lt;a href="https://www.reviewjournal.com/entertainment/music/imagine-dragons-find-peace-of-mind-on-new-record-evolve/" rel="noopener nofollow"&gt;shared&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;&lt;em&gt;Smoke + Mirrors&lt;/em&gt; was really introspective for me, [there was] self-doubt, doubt about belief, doubt about the world. It was a searching record. This record is a place of arrival.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;This transition sets the tone for the record as a whole. While touring for &lt;em&gt;Smoke + Mirrors&lt;/em&gt;, Dan found himself engulfed in his depression, which he has struggled with since he was young. The band took a break and Dan focused on improving his mental health. The album captures this &lt;a href="http://ew.com/music/2017/05/25/imagine-dragons-evolve-interview/" rel="noopener nofollow"&gt;growth and improvement&lt;/a&gt;, says Dan:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;This record encapsulates color in a new way. When Smoke + Mirrors came out and I started seeing all these headlines that were like, ‘Dan Reynolds: Depressed As Hell,’ it was a shameful period for me. I didn’t want that to be the notion of the record, but now that we’ve gotten past it, I’m proud of what that album stands for. I’m proud of hopefully making others who deal with depression to not feel so alone and know that through work and reflection and reaching out to someone, that can make you stronger. I’m proud of that. So this record, to me, is really a celebration in a lot of ways. It’s an evolution of mind and sonics.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In multiple interviews, Dan has also included commentary on the shift and maturation in sound that &lt;em&gt;Evolve&lt;/em&gt; represents for the band.&lt;br&gt;\nDan to &lt;a href="http://ew.com/music/2017/05/25/imagine-dragons-evolve-interview/" rel="noopener nofollow"&gt;Entertainment Weekly&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We wanted to be selective about each noise. In the past, all of our sonic textures have been almost a wall of noise and music. [But] we’ve found through this process that you can be just as emotional and just as grand using maybe four instruments as opposed to us using 50.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;To &lt;a href="https://www.reviewjournal.com/entertainment/music/imagine-dragons-find-peace-of-mind-on-new-record-evolve/" rel="noopener nofollow"&gt;Review-Journal&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In the past, I think we were having trouble putting down on paper the thoughts that were in our minds sometimes. Sometimes we over-produced. With this record, we were able to take a very minimalist approach, bring in producers to help us pin down what Imagine Dragons is. Sometimes it takes an outside eye to come in and say, ‘You don’t need 50 layers of violin on this song; let it have just one violin that sounds right.’&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Prior to the album’s official release, the band hosted many promotional fan opportunities and interactions. This included a &lt;a href="https://www.makethecut.adobe.com/en/" rel="noopener nofollow"&gt;“Make The Cut” Adobe-sponsored competition&lt;/a&gt; for their video for &lt;a href="https://genius.com/Imagine-dragons-believer-lyrics" rel="noopener" data-api_path="/songs/2970719"&gt;“Believer,”&lt;/a&gt; an &lt;em&gt;Evolve&lt;/em&gt;-inspired &lt;a href="http://www.umusic.ca/press-releases/56016/" rel="noopener nofollow"&gt;arcade&lt;/a&gt; in Toronto, &lt;a href="https://www.reddit.com/r/imaginedragons/comments/6gpjxo/evolve_artwork_mystery_solved_explanation_and/" rel="noopener nofollow"&gt;geocaching via the album’s artwork&lt;/a&gt;, and &lt;a href="https://www.youtube.com/watch?v=-B_B31LLrSk" rel="noopener nofollow"&gt;surprise visits to fans&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Jayson DeZuzio', 'url': 'https://genius.com/artists/Jayson-dezuzio'}, {'name': 'Joel Little', 'url': 'https://genius.com/artists/Joel-little'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Mattman &amp; Robin', 'url': 'https://genius.com/artists/Mattman-and-robin'}, {'name': 'Rob Cohen', 'url': 'https://genius.com/artists/Rob-cohen'}, {'name': 'Tim Randolph', 'url': 'https://genius.com/artists/Tim-randolph'}, {'name': 'Wolf Cousins', 'url': 'https://genius.com/artists/Wolf-cousins'}], 'writers': [{'name': 'Alex da Kid', 'url': 'https://genius.com/artists/Alex-da-kid'}, {'name': 'Ben McKee', 'url': 'https://genius.com/artists/Ben-mckee'}, {'name': 'Daniel Platzman', 'url': 'https://genius.com/artists/Daniel-platzman'}, {'name': 'Dan Reynolds', 'url': 'https://genius.com/artists/Dan-reynolds'}, {'name': 'Imagine Dragons', 'url': 'https://genius.com/artists/Imagine-dragons'}, {'name': 'Jayson DeZuzio', 'url': 'https://genius.com/artists/Jayson-dezuzio'}, {'name': 'Joel Little', 'url': 'https://genius.com/artists/Joel-little'}, {'name': 'John Hill', 'url': 'https://genius.com/artists/John-hill'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Mattias Larsson', 'url': 'https://genius.com/artists/Mattias-larsson'}, {'name': 'Mattman &amp; Robin', 'url': 'https://genius.com/artists/Mattman-and-robin'}, {'name': 'Robin Fredriksson', 'url': 'https://genius.com/artists/Robin-fredriksson'}, {'name': 'Tim Randolph', 'url': 'https://genius.com/artists/Tim-randolph'}, {'name': 'Wayne Sermon', 'url': 'https://genius.com/artists/Wayne-sermon'}], 'labels': [{'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'KIDinaKORNER', 'url': 'https://genius.com/artists/Kidinakorner'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Gorillaz/Plastic-beach', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Plastic Beach&lt;/em&gt; is about the accumulation of plastic in an extremely broad sense; it’s about the impact that &lt;a href="http://johndorhauer.com/pop-will-eat-itself-gorillaz-plastic-beach-as-a-commentary-on-the-disposable-nature-of-pop-music/" rel="noopener nofollow"&gt;anything inherently disposable&lt;/a&gt; and artificial has on the world. The album’s worldly outlook, though primarily concerned with the environment, extends to those responsible for the problem – the plastic-producing human race.&lt;/p&gt;\n\n&lt;p&gt;It is natural &lt;a href="https://www.youtube.com/watch?v=C2oYrmjXx2E" rel="noopener nofollow"&gt;for the Gorillaz to make political statements in their music&lt;/a&gt;, or as they put it, “social realism parallel with love.” Gorillaz co-creator &lt;a href="https://genius.com/artists/Damon-albarn" rel="noopener" data-api_path="/artists/1974"&gt;Damon Albarn&lt;/a&gt;’s perception of the album title, as stated in the &lt;em&gt;Plastic Beach&lt;/em&gt; half-hour documentary, began somewhere very plain and simple:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Doesn’t have to be any more narrative than that. It’s everything that goes on on the island, Plastic Beach. My interpretation of the island is that it’s the collection of all the plastic and stuff in the ocean, and it’s all clean now ‘cause it’s all collected into an island.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;em&gt;Plastic Beach&lt;/em&gt; is considered to be Phase 3 of the cartoon band’s story, which you can read about in full &lt;a href="http://gorillaz.wikia.com/wiki/Backstory" rel="noopener nofollow"&gt;here&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Plastic Beach&lt;/em&gt; is the third studio album by the British virtual band, released 3 March 2010 on Parlophone and Virgin Records. Conceived from an unfinished Gorillaz project called &lt;em&gt;Carousel&lt;/em&gt;, the album was recorded from June 2008 to November 2009 and produced primarily by Damon Albarn.&lt;/p&gt;\n\n&lt;p&gt;It features guest appearances by several artists, including &lt;a href="https://genius.com/artists/Snoop-dogg" rel="noopener" data-api_path="/artists/46"&gt;Snoop Dogg&lt;/a&gt;, &lt;a href="https://genius.com/artists/Gruff-rhys" rel="noopener" data-api_path="/artists/2255"&gt;Gruff Rhys&lt;/a&gt;, &lt;a href="https://genius.com/artists/De-la-soul" rel="noopener" data-api_path="/artists/225"&gt;De La Soul&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bobby-womack" rel="noopener" data-api_path="/artists/1709"&gt;Bobby Womack&lt;/a&gt;, &lt;a href="https://genius.com/artists/Yasiin-bey" rel="noopener" data-api_path="/artists/156"&gt;Yasiin Bey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mick-jones" rel="noopener" data-api_path="/artists/35064"&gt;Mick Jones&lt;/a&gt; and the &lt;a href="https://genius.com/artists/Hypnotic-brass-ensemble" rel="noopener" data-api_path="/artists/22243"&gt;Hypnotic Brass Ensemble&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/ObHwNzqinHc?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;\n\n&lt;p&gt;&lt;small&gt;“Plastic Beach Making Of” Documentary&lt;/small&gt;&lt;/p&gt;', 'producers': [{'name': 'Gorillaz', 'url': 'https://genius.com/artists/Gorillaz'}], 'writers': [{'name': 'Bashy', 'url': 'https://genius.com/artists/Bashy'}, {'name': 'Bobby Womack', 'url': 'https://genius.com/artists/Bobby-womack'}, {'name': 'Damon Albarn', 'url': 'https://genius.com/artists/Damon-albarn'}, {'name': 'Erik Bodin', 'url': 'https://genius.com/artists/Erik-bodin'}, {'name': 'Fredrik Wallin', 'url': 'https://genius.com/artists/Fredrik-wallin'}, {'name': 'Gorillaz', 'url': 'https://genius.com/artists/Gorillaz'}, {'name': 'Gruff Rhys', 'url': 'https://genius.com/artists/Gruff-rhys'}, {'name': 'Håkan Wirenstrand', 'url': 'https://genius.com/artists/Hakan-wirenstrand'}, {'name': 'Kano', 'url': 'https://genius.com/artists/Kano'}, {'name': 'Lou Reed', 'url': 'https://genius.com/artists/Lou-reed'}, {'name': 'Mark E. Smith', 'url': 'https://genius.com/artists/Mark-e-smith'}, {'name': 'Michael J Rohan', 'url': 'https://genius.com/artists/Michael-j-rohan'}, {'name': 'Posdnuos', 'url': 'https://genius.com/artists/Posdnuos'}, {'name': 'Richard Evans', 'url': 'https://genius.com/artists/Richard-evans'}, {'name': 'Snoop Dogg', 'url': 'https://genius.com/artists/Snoop-dogg'}, {'name': 'Trugoy the Dove', 'url': 'https://genius.com/artists/Trugoy-the-dove'}, {'name': 'Yasiin Bey', 'url': 'https://genius.com/artists/Yasiin-bey'}, {'name': 'Yukimi Nagano', 'url': 'https://genius.com/artists/Yukimi-nagano'}], 'labels': [{'name': 'Parlophone Records', 'url': 'https://genius.com/artists/Parlophone-records'}, {'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Counting-crows/Films-about-ghosts-the-best-of', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Films About Ghosts (The Best Of…)&lt;/em&gt; is a greatest hits album by the popular alternative rock band Counting Crows. It was released by Geffen Records on November 25, 2003. The album contains songs from all of their studio albums. The album takes its name from a line in “Mrs. Potter’s Lullaby”: “If dreams are like movies, then memories are films about ghosts.”&lt;/p&gt;', 'producers': [{'name': 'Brendan O’Brien', 'url': 'https://genius.com/artists/Brendan-obrien'}, {'name': 'David Lowery', 'url': 'https://genius.com/artists/David-lowery'}, {'name': 'Dennis Herring', 'url': 'https://genius.com/artists/Dennis-herring'}, {'name': 'Gary Gersh', 'url': 'https://genius.com/artists/Gary-gersh'}, {'name': 'Gil Norton', 'url': 'https://genius.com/artists/Gil-norton'}, {'name': 'Jordan Schur', 'url': 'https://genius.com/artists/Jordan-schur'}, {'name': 'Steve Lillywhite', 'url': 'https://genius.com/artists/Steve-lillywhite'}, {'name': 'T Bone Burnett', 'url': 'https://genius.com/artists/T-bone-burnett'}], 'writers': [{'name': 'Adam Duritz', 'url': 'https://genius.com/artists/Adam-duritz'}, {'name': 'Ben Mize', 'url': 'https://genius.com/artists/Ben-mize'}, {'name': 'Charlie Gillingham', 'url': 'https://genius.com/artists/Charlie-gillingham'}, {'name': 'Chris Roldan', 'url': 'https://genius.com/artists/Chris-roldan'}, {'name': 'Dan Jewett', 'url': 'https://genius.com/artists/Dan-jewett'}, {'name': 'Dan Vickrey', 'url': 'https://genius.com/artists/Dan-vickrey'}, {'name': 'Dave Janusko', 'url': 'https://genius.com/artists/Dave-janusko'}, {'name': 'David Bryson', 'url': 'https://genius.com/artists/David-bryson'}, {'name': 'Jackson C. Frank', 'url': 'https://genius.com/artists/Jackson-c-frank'}, {'name': 'Jeff Trott', 'url': 'https://genius.com/artists/Jeff-trott'}, {'name': 'Jerry Garcia', 'url': 'https://genius.com/artists/Jerry-garcia'}, {'name': 'John Dawson', 'url': 'https://genius.com/artists/John-dawson'}, {'name': 'Joni Mitchell', 'url': 'https://genius.com/artists/Joni-mitchell'}, {'name': 'Lydia Holly', 'url': 'https://genius.com/artists/Lydia-holly'}, {'name': 'Martin Jones', 'url': 'https://genius.com/artists/Martin-jones'}, {'name': 'Matt Malley', 'url': 'https://genius.com/artists/Matt-malley'}, {'name': 'Patrick Winningham', 'url': 'https://genius.com/artists/Patrick-winningham'}, {'name': 'Robert Hunter', 'url': 'https://genius.com/artists/Robert-hunter'}, {'name': 'Steve Bowman', 'url': 'https://genius.com/artists/Steve-bowman'}, {'name': 'Toby Hawkins', 'url': 'https://genius.com/artists/Toby-hawkins'}], 'labels': [{'name': 'Geffen Records', 'url': 'https://genius.com/artists/Geffen-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Rem/Out-of-time', 'annotations': {'description': '&lt;p&gt;“Out of Time” is the seventh studio album from R.E.M. It won three Grammys including two for the single “Losing My Religion.”&lt;/p&gt;', 'producers': [{'name': 'R.E.M.', 'url': 'https://genius.com/artists/Rem'}, {'name': 'Scott Litt', 'url': 'https://genius.com/artists/Scott-litt'}], 'writers': [{'name': 'Bill Berry', 'url': 'https://genius.com/artists/Bill-berry'}, {'name': 'Michael Stipe', 'url': 'https://genius.com/artists/Michael-stipe'}, {'name': 'Mike Mills (R.E.M.)', 'url': 'https://genius.com/artists/Mike-mills-rem'}, {'name': 'Peter Buck', 'url': 'https://genius.com/artists/Peter-buck'}], 'labels': [{'name': 'Craft Recordings', 'url': 'https://genius.com/artists/Craft-recordings'}, {'name': 'Warner Records', 'url': 'https://genius.com/artists/Warner-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Fugees/The-score', 'annotations': {'description': '&lt;p&gt;Their second and final release as a group, the trio of &lt;a href="https://genius.com/artists/Wyclef-jean" rel="noopener" data-api_path="/artists/467"&gt;Wyclef Jean&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lauryn-hill" rel="noopener" data-api_path="/artists/448"&gt;Lauryn Hill&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Pras" rel="noopener" data-api_path="/artists/340"&gt;Pras&lt;/a&gt;—formerly known as the Tranzlator Crew—broke crossover ground on this classic album which infused hip-hop, reggae, R&amp;amp;B, and pop, with strands of rock, spaghetti western, and classical themes thrown in for good measure. &lt;em&gt;The Score&lt;/em&gt; would &lt;a href="https://www.grammy.com/grammys/artists/fugees" rel="noopener nofollow"&gt;win a Grammy Award&lt;/a&gt; in 1996 for best rap album, and the album’s smash hit single, a cover of the &lt;a href="https://genius.com/artists/Roberta-flack" rel="noopener" data-api_path="/artists/34967"&gt;Roberta Flack&lt;/a&gt; classic &lt;a href="https://genius.com/Roberta-flack-killing-me-softly-with-his-song-lyrics" rel="noopener" data-api_path="/songs/624359"&gt;“Killing Me Softly with His Song,”&lt;/a&gt; shortened here to &lt;a href="https://genius.com/Fugees-killing-me-softly-with-his-song-lyrics" rel="noopener" data-api_path="/songs/4021"&gt;“Killing Me Softly,”&lt;/a&gt; took home another Grammy for best R&amp;amp;B performance by a duo or group.&lt;/p&gt;\n\n&lt;p&gt;Featuring production from all three members along with &lt;a href="https://genius.com/artists/Jerry-duplessis" rel="noopener" data-api_path="/artists/29322"&gt;Jerry Duplessis&lt;/a&gt;, &lt;a href="https://genius.com/artists/Shawn-king" rel="noopener" data-api_path="/artists/29048"&gt;Shawn King&lt;/a&gt;, &lt;a href="https://genius.com/artists/Salaam-remi" rel="noopener" data-api_path="/artists/27765"&gt;Salaam Remi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Diamond-d" rel="noopener" data-api_path="/artists/457"&gt;Diamond D&lt;/a&gt;, and &lt;a href="https://genius.com/artists/John-forte" rel="noopener" data-api_path="/artists/18298"&gt;John Forté&lt;/a&gt;, the thoughtful multi-platinum album also produced the huge hits &lt;a href="https://genius.com/Fugees-ready-or-not-lyrics" rel="noopener" data-api_path="/songs/615"&gt;“Ready or Not,”&lt;/a&gt; &lt;a href="https://genius.com/Fugees-fu-gee-la-lyrics" rel="noopener" data-api_path="/songs/20542"&gt;“Fu-Gee-La,”&lt;/a&gt; &lt;a href="https://genius.com/Fugees-cowboys-lyrics" rel="noopener" data-api_path="/songs/20541"&gt;“Cowboys,”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Bob-marley-and-the-wailers" rel="noopener" data-api_path="/artists/28615"&gt;Bob Marley&lt;/a&gt;’s &lt;a href="https://genius.com/Bob-marley-and-the-wailers-no-woman-no-cry-lyrics" rel="noopener" data-api_path="/songs/57824"&gt;“No Woman, No Cry.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Producer Jerry Wonder described the studio atmosphere during the recording of &lt;em&gt;The Score&lt;/em&gt; to &lt;em&gt;Vibe&lt;/em&gt; in a &lt;a href="https://www.vibe.com/2016/02/fugees-the-score-interview-producers-anniversary-salaam-remi-jerry-wonder-john-forte" rel="noopener nofollow"&gt;2016 interview&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were doing hip-hop with great melodies, and the content was great. We weren’t talking about bitches, or none of that. Like every album you buy now, kids can’t even listen to it. The Fugees album, anybody can listen to it. It was from a reality we came from, we were refugees.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Speaking on the eventual break-up of The Fugees, producer Salaam Remi gave his thoughts:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Sometimes you have unfinished business, and I’m not talking about numbers. I think the Fugees feel like ‘You didn’t do well by me, but we’re never going to get together and address the elephant in the room.’ Everybody’s still dealing with a lot of ego. Right now, it’s definitely not a money thing. But you never say things are impossible. If the Fugees could just say it’s really about the fans and let the egos go. Life is too short. We rent this world, and people love them.&lt;/p&gt;&lt;/blockquote&gt;', 'producers': [{'name': 'Diamond D', 'url': 'https://genius.com/artists/Diamond-d'}, {'name': 'Handel Tucker', 'url': 'https://genius.com/artists/Handel-tucker'}, {'name': 'Jerry Duplessis', 'url': 'https://genius.com/artists/Jerry-duplessis'}, {'name': 'John Forté', 'url': 'https://genius.com/artists/John-forte'}, {'name': 'Lauryn Hill', 'url': 'https://genius.com/artists/Lauryn-hill'}, {'name': 'Pras', 'url': 'https://genius.com/artists/Pras'}, {'name': 'Salaam Remi', 'url': 'https://genius.com/artists/Salaam-remi'}, {'name': 'Shawn King', 'url': 'https://genius.com/artists/Shawn-king'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}], 'writers': [{'name': 'Allen McGrier', 'url': 'https://genius.com/artists/Allen-mcgrier'}, {'name': 'Charles Fox', 'url': 'https://genius.com/artists/Charles-fox'}, {'name': 'Diamond D', 'url': 'https://genius.com/artists/Diamond-d'}, {'name': 'Enya', 'url': 'https://genius.com/artists/Enya'}, {'name': 'John Forté', 'url': 'https://genius.com/artists/John-forte'}, {'name': 'Kool DJ Red Alert', 'url': 'https://genius.com/artists/Kool-dj-red-alert'}, {'name': 'Lauryn Hill', 'url': 'https://genius.com/artists/Lauryn-hill'}, {'name': 'Norman Gimbel', 'url': 'https://genius.com/artists/Norman-gimbel'}, {'name': 'Omega (rapper)', 'url': 'https://genius.com/artists/Omega-rapper'}, {'name': 'Pacewon', 'url': 'https://genius.com/artists/Pacewon'}, {'name': 'Pras', 'url': 'https://genius.com/artists/Pras'}, {'name': 'Rah Digga', 'url': 'https://genius.com/artists/Rah-digga'}, {'name': 'Ras Baraka', 'url': 'https://genius.com/artists/Ras-baraka'}, {'name': 'Salaam Remi', 'url': 'https://genius.com/artists/Salaam-remi'}, {'name': 'Teena Marie', 'url': 'https://genius.com/artists/Teena-marie'}, {'name': 'Thom Bell', 'url': 'https://genius.com/artists/Thom-bell'}, {'name': 'Vincent Ford', 'url': 'https://genius.com/artists/Vincent-ford'}, {'name': 'William Hart', 'url': 'https://genius.com/artists/William-hart'}, {'name': 'Wyclef Jean', 'url': 'https://genius.com/artists/Wyclef-jean'}, {'name': 'Young Zee', 'url': 'https://genius.com/artists/Young-zee'}], 'labels': [{'name': 'Columbia Records', 'url': 'https://genius.com/artists/Columbia-records'}, {'name': 'Ruffhouse Records', 'url': 'https://genius.com/artists/Ruffhouse-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Nickelback/Silver-side-up', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Silver Side Up&lt;/em&gt; is the third studio album by Canadian rock band Nickelback. The album was released on September 11, 2001 via &lt;a href="http://www.roadrunnerrecords.com/" rel="noopener nofollow"&gt;Roadrunner Records&lt;/a&gt;. &lt;em&gt;Silver Side Up&lt;/em&gt; is Nickelback’s only full length studio album to feature only ten songs on it’s tracklisting.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;How You Remind Me&lt;/em&gt; was released as the lead single from the album on August 21, 2001. The song was massively successful, reaching the &lt;a href="https://www.billboard.com/music/nickelback/chart-history/hot-100" rel="noopener nofollow"&gt;top spot&lt;/a&gt; on the Billboard Hot 100 chart. It would become their only number one Hot 100 single.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Too Bad&lt;/em&gt; and &lt;em&gt;Never Again&lt;/em&gt; were released as the second and third single after the success of “How You Remind Me”, though they did not match the massive success of the previous single.&lt;/p&gt;', 'producers': [{'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}, {'name': 'Rick Parashar', 'url': 'https://genius.com/artists/Rick-parashar'}], 'writers': [{'name': 'Chad Kroeger', 'url': 'https://genius.com/artists/Chad-kroeger'}, {'name': 'Mike Kroeger', 'url': 'https://genius.com/artists/Mike-kroeger'}, {'name': 'Nickelback', 'url': 'https://genius.com/artists/Nickelback'}, {'name': 'Ryan Peake', 'url': 'https://genius.com/artists/Ryan-peake'}, {'name': 'Ryan Vikedal', 'url': 'https://genius.com/artists/Ryan-vikedal'}], 'labels': [{'name': 'EMI Group Limited', 'url': 'https://genius.com/artists/Emi-group-limited'}, {'name': 'Roadrunner Records', 'url': 'https://genius.com/artists/Roadrunner-records'}, {'name': 'Self-Released', 'url': 'https://genius.com/artists/Self-released'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Everything-but-the-girl/Amplified-heart', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Amplified Heart&lt;/em&gt; is the eighth studio album by British duo Everything but the Girl, released on June 13, 1994, via Atlantic Records and Blanco y Negro Records. The album was a moderate success, reaching a &lt;a href="https://www.billboard.com/music/Everything-but-the-Girl/chart-history/TLP" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #46 on the US Billboard 200 chart.&lt;/p&gt;\n\n&lt;p&gt;The album produced a total of two singles. &lt;a href="https://genius.com/Everything-but-the-girl-rollercoaster-lyrics" rel="noopener" data-api_path="/songs/1619232"&gt;“Rollercoaster”&lt;/a&gt; was released as the lead single, with &lt;a href="https://genius.com/Everything-but-the-girl-missing-lyrics" rel="noopener" data-api_path="/songs/442317"&gt;“Missing”&lt;/a&gt; as the second and final single.  “Missing” was a massive success on the US Billboard Hot 100 chart, reaching a &lt;a href="https://www.billboard.com/music/Everything-But-the-Girl/chart-history/HSI" rel="noopener nofollow"&gt;peak&lt;/a&gt; of #2. The song became their highest charting single to date. The song gained its popularity when it was &lt;a href="https://genius.com/Everything-but-the-girl-missing-todd-terry-club-mix-lyrics" rel="noopener" data-api_path="/songs/2119338"&gt;remixed&lt;/a&gt; by &lt;a href="https://www.discogs.com/artist/4116-Todd-Terry" rel="noopener nofollow"&gt;Todd Terry&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Ben Watt', 'url': 'https://genius.com/artists/Ben-watt'}, {'name': 'John Coxon', 'url': 'https://genius.com/artists/John-coxon'}, {'name': 'Todd Terry', 'url': 'https://genius.com/artists/Todd-terry'}, {'name': 'Tracey Thorn', 'url': 'https://genius.com/artists/Tracey-thorn'}], 'writers': [{'name': 'Ben Watt', 'url': 'https://genius.com/artists/Ben-watt'}, {'name': 'Stephen Ryan', 'url': 'https://genius.com/artists/Stephen-ryan'}, {'name': 'Tracey Thorn', 'url': 'https://genius.com/artists/Tracey-thorn'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Us3/Hand-on-the-torch', 'annotations': {'description': '', 'producers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}], 'writers': [{'name': 'Geoff Wilkinson', 'url': 'https://genius.com/artists/Geoff-wilkinson'}, {'name': 'Herbie Hancock', 'url': 'https://genius.com/artists/Herbie-hancock'}, {'name': 'Mel Simpson', 'url': 'https://genius.com/artists/Mel-simpson'}, {'name': 'Rahsaan Kelly', 'url': 'https://genius.com/artists/Rahsaan-kelly'}], 'labels': [{'name': 'Blue Note Records', 'url': 'https://genius.com/artists/Blue-note-records'}, {'name': 'Capitol Records', 'url': 'https://genius.com/artists/Capitol-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Black-eyed-peas/Monkey-business', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Monkey Business&lt;/strong&gt; is the fourth studio album by American group, &lt;a href="https://genius.com/artists/The-black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;&lt;strong&gt;The Black Eyed Peas&lt;/strong&gt;&lt;/a&gt;. It was released on May 25, 2005, by the &lt;a href="https://en.wikipedia.org/wiki/Will.i.am_Music_Group" rel="noopener nofollow"&gt;will.i.am Music Group&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/A%26M_Records" rel="noopener nofollow"&gt;A&amp;amp;M Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The album was certified 3x Platinum by the &lt;a href="https://en.wikipedia.org/wiki/Recording_Industry_Association_of_America" rel="noopener nofollow"&gt;RIAA&lt;/a&gt; in the U.S. and has sold over 11 million copies worldwide.  &lt;a href="https://en.wikipedia.org/wiki/Canadian_Recording_Industry_Association" rel="noopener nofollow"&gt;CRIA&lt;/a&gt; has certified Monkey Business 6× Platinum, with sales of over 600,000 copies throughout Canada. &lt;a href="https://en.wikipedia.org/wiki/Australian_Recording_Industry_Association" rel="noopener nofollow"&gt;ARIA&lt;/a&gt; has also certified Monkey Business 6× Platinum, denoting sales of over 420,000 copies in Australia. The album’s tracks earned the group four 2006 Grammy Award nominations and they won the Grammy for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rap_Performance_by_a_Duo_or_Group" rel="noopener nofollow"&gt;Best Rap Performance by a Duo or Group&lt;/a&gt; for &lt;a href="https://genius.com/The-black-eyed-peas-dont-phunk-with-my-heart-lyrics" rel="noopener" data-api_path="/songs/10711"&gt;&lt;em&gt;Don’t Phunk with My Heart&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Four Singles were released for this album and all peaked within the Top 20 on the &lt;a href="https://en.wikipedia.org/wiki/Billboard_Hot_100" rel="noopener nofollow"&gt;Billboard Hottest 100&lt;/a&gt;. &lt;a href="https://genius.com/The-black-eyed-peas-dont-phunk-with-my-heart-lyrics" rel="noopener" data-api_path="/songs/10711"&gt;&lt;em&gt;Don’t Phunk with My Heart&lt;/em&gt;&lt;/a&gt; was the first and reached no. 3. &lt;a href="https://genius.com/The-black-eyed-peas-dont-lie-lyrics" rel="noopener" data-api_path="/songs/10714"&gt;&lt;em&gt;Don’t Lie&lt;/em&gt;&lt;/a&gt; was second reached no. 14. &lt;a href="https://genius.com/The-black-eyed-peas-my-humps-lyrics" rel="noopener" data-api_path="/songs/4054"&gt;&lt;em&gt;My Humps&lt;/em&gt;&lt;/a&gt; was the third single for summer 2005. The song was released after it became an unsolicited hit on mainstream radio across the US. The track, even with lack of promotion, surpassed the highly promoted track &lt;a href="https://genius.com/The-black-eyed-peas-dont-lie-lyrics" rel="noopener" data-api_path="/songs/10714"&gt;&lt;em&gt;Don’t Lie&lt;/em&gt;&lt;/a&gt;, it reached no. 3. &lt;a href="https://genius.com/The-black-eyed-peas-pump-it-lyrics" rel="noopener" data-api_path="/songs/10726"&gt;&lt;em&gt;Pump It&lt;/em&gt;&lt;/a&gt; was the fourth single and peaked at no. 18.&lt;/p&gt;', 'producers': [{'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Black Eyed Peas', 'url': 'https://genius.com/artists/Black-eyed-peas'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'Noize Trip', 'url': 'https://genius.com/artists/Noize-trip'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Ron Fair', 'url': 'https://genius.com/artists/Ron-fair'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'writers': [{'name': 'Anthony Newley', 'url': 'https://genius.com/artists/Anthony-newley'}, {'name': 'Anthony Tidd', 'url': 'https://genius.com/artists/Anthony-tidd'}, {'name': '\u200bapl.de.ap', 'url': 'https://genius.com/artists/Apldeap'}, {'name': 'Benjamin Brown', 'url': 'https://genius.com/artists/Benjamin-brown'}, {'name': 'Black Eyed Peas', 'url': 'https://genius.com/artists/Black-eyed-peas'}, {'name': 'Danja', 'url': 'https://genius.com/artists/Danja'}, {'name': 'David Payton', 'url': 'https://genius.com/artists/David-payton'}, {'name': 'Fergie', 'url': 'https://genius.com/artists/Fergie'}, {'name': 'Fitzroy Simpson', 'url': 'https://genius.com/artists/Fitzroy-simpson'}, {'name': 'Free School', 'url': 'https://genius.com/artists/Free-school'}, {'name': 'Full Force', 'url': 'https://genius.com/artists/Full-force'}, {'name': 'George Bennett', 'url': 'https://genius.com/artists/George-bennett'}, {'name': 'George Pajon Jr.', 'url': 'https://genius.com/artists/George-pajon-jr'}, {'name': 'Greg Nice', 'url': 'https://genius.com/artists/Greg-nice'}, {'name': 'Indeewar', 'url': 'https://genius.com/artists/Indeewar'}, {'name': 'Jackie Mittoo', 'url': 'https://genius.com/artists/Jackie-mittoo'}, {'name': 'Jack Johnson', 'url': 'https://genius.com/artists/Jack-johnson'}, {'name': 'James Brown', 'url': 'https://genius.com/artists/James-brown'}, {'name': 'Justin Timberlake', 'url': 'https://genius.com/artists/Justin-timberlake'}, {'name': 'Kalyanji–Anandji', 'url': 'https://genius.com/artists/Kalyanjianandji'}, {'name': 'Keith Harris', 'url': 'https://genius.com/artists/Keith-harris'}, {'name': 'Larry Blackmon', 'url': 'https://genius.com/artists/Larry-blackmon'}, {'name': 'Leroy Sibbles', 'url': 'https://genius.com/artists/Leroy-sibbles'}, {'name': 'Leslie Bricusse', 'url': 'https://genius.com/artists/Leslie-bricusse'}, {'name': 'Lloyd Ferguson', 'url': 'https://genius.com/artists/Lloyd-ferguson'}, {'name': 'Melvin “Chaos” Lewis', 'url': 'https://genius.com/artists/Melvin-chaos-lewis'}, {'name': 'Michael Matthews', 'url': 'https://genius.com/artists/Michael-matthews'}, {'name': 'Nicholas Roubanis', 'url': 'https://genius.com/artists/Nicholas-roubanis'}, {'name': 'Peters Peters', 'url': 'https://genius.com/artists/Peters-peters'}, {'name': 'Printz Board', 'url': 'https://genius.com/artists/Printz-board'}, {'name': 'Q-Tip', 'url': 'https://genius.com/artists/Q-tip'}, {'name': 'Ray Brady', 'url': 'https://genius.com/artists/Ray-brady'}, {'name': 'Rick James', 'url': 'https://genius.com/artists/Rick-james'}, {'name': 'Robbie Lyn', 'url': 'https://genius.com/artists/Robbie-lyn'}, {'name': 'Slick Rick', 'url': 'https://genius.com/artists/Slick-rick'}, {'name': 'Smooth B', 'url': 'https://genius.com/artists/Smooth-b'}, {'name': 'Sting', 'url': 'https://genius.com/artists/Sting'}, {'name': 'Taboo', 'url': 'https://genius.com/artists/Taboo'}, {'name': 'Talib Kweli', 'url': 'https://genius.com/artists/Talib-kweli'}, {'name': 'Thomas Jenkins', 'url': 'https://genius.com/artists/Thomas-jenkins'}, {'name': 'Thomas Van Musser', 'url': 'https://genius.com/artists/Thomas-van-musser'}, {'name': 'Timbaland', 'url': 'https://genius.com/artists/Timbaland'}, {'name': 'Timothy Grindgreff', 'url': 'https://genius.com/artists/Timothy-grindgreff'}, {'name': '\u200bwill.i.am', 'url': 'https://genius.com/artists/William'}], 'labels': [{'name': 'A&amp;M Records', 'url': 'https://genius.com/artists/A-m-records'}, {'name': 'Interscope Records', 'url': 'https://genius.com/artists/Interscope-records'}, {'name': 'Will.i.am Music Group', 'url': 'https://genius.com/artists/William-music-group'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Cake/Prolonging-the-magic', 'annotations': {'description': '&lt;p&gt;Prolonging The Magic is the third studio album by alternative rock band Cake. It was released in 1998 through Capricorn Records. It has 13 tracks, 4 singles and 4 Japanese-exclusive bonus tracks.&lt;/p&gt;', 'producers': [{'name': 'John McCrea', 'url': 'https://genius.com/artists/John-mccrea'}], 'writers': [{'name': 'Gabe Nelson', 'url': 'https://genius.com/artists/Gabe-nelson'}, {'name': 'Jim Campilongo', 'url': 'https://genius.com/artists/Jim-campilongo'}, {'name': 'Joe Snook', 'url': 'https://genius.com/artists/Joe-snook'}, {'name': 'John McCrea', 'url': 'https://genius.com/artists/John-mccrea'}, {'name': 'Tyler Pope', 'url': 'https://genius.com/artists/Tyler-pope'}, {'name': 'Vincent DiFiore', 'url': 'https://genius.com/artists/Vincent-difiore'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Spice-girls/Spice', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;&lt;a href="https://genius.com/albums/Spice-girls/Spice" rel="noopener" data-api_path="/albums/21802"&gt;Spice&lt;/a&gt;&lt;/em&gt; is the debut album by British girl group the &lt;a href="https://genius.com/artists/Spice-girls" rel="noopener" data-api_path="/artists/13074"&gt;Spice Girls&lt;/a&gt;. It was first released by Virgin Records in November 1996 in Europe, then in February 1997 for the rest of the world.&lt;/p&gt;\n\n&lt;p&gt;The album was recorded at Olympic Studios in Barnes, London between 1995 and 1996, by producers Matt Rowe and Richard Stannard, and the production duo Absolute.&lt;/p&gt;\n\n&lt;p&gt;The album is a pop record with an inclusion of styles such as dance, R&amp;amp;B and hip-hop. It is considered to be the record that brought teen pop back, opening the doors for a wave of teen pop artists. Conceptually, the album centered around the idea of Girl Power, and during that time was compared to &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;Beatlemania&lt;/a&gt;.&lt;/p&gt;', 'producers': [{'name': 'Absolute', 'url': 'https://genius.com/artists/Absolute'}, {'name': 'Andy Bradfield', 'url': 'https://genius.com/artists/Andy-bradfield'}, {'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}], 'writers': [{'name': 'Andrew Watkins', 'url': 'https://genius.com/artists/Andrew-watkins'}, {'name': 'Cary Baylis', 'url': 'https://genius.com/artists/Cary-baylis'}, {'name': 'Eliot Kennedy', 'url': 'https://genius.com/artists/Eliot-kennedy'}, {'name': 'Jon B', 'url': 'https://genius.com/artists/Jon-b'}, {'name': 'Matt Rowe', 'url': 'https://genius.com/artists/Matt-rowe'}, {'name': 'Paul Wilson', 'url': 'https://genius.com/artists/Paul-wilson'}, {'name': 'Richard “Biff” Stannard', 'url': 'https://genius.com/artists/Richard-biff-stannard'}, {'name': 'Spice Girls', 'url': 'https://genius.com/artists/Spice-girls'}], 'labels': [{'name': 'Virgin Records', 'url': 'https://genius.com/artists/Virgin-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Justin-bieber/Purpose', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Purpose&lt;/em&gt; is the fourth studio album by Justin Bieber, which was released on 13 November 2015.&lt;/p&gt;\n\n&lt;p&gt;During an &lt;a href="http://www.interviewmagazine.com/music/justin-bieber-1/" rel="noopener nofollow"&gt;interview&lt;/a&gt; with Martha Stewart, he revealed some details about the album:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s just very personal. People will be able to really get in to where my heart is. It’s about my journey in life — stuff that I’ve been through.  Maybe I can teach a lesson, certain things that are inspiring.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;He also told &lt;a href="http://www.usatoday.com/story/life/2015/03/29/justin-bieber-exclusive-interview-with-usa-today-comedy-central-roast/70576170/" rel="noopener nofollow"&gt;USA Today&lt;/a&gt; that it’s about growing and being in touch with yourself. “Knowing that you can and get back up and keep going.”&lt;/p&gt;\n\n&lt;p&gt;The album got tremendous success, a major highlight smashing a 51-year old legendary Beatles record.&lt;/p&gt;', 'producers': [{'name': 'The Audibles', 'url': 'https://genius.com/artists/The-audibles'}, {'name': 'Axident', 'url': 'https://genius.com/artists/Axident'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Big Taste', 'url': 'https://genius.com/artists/Big-taste'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'Jack Ü', 'url': 'https://genius.com/artists/Jack-u'}, {'name': 'Justin Bieber', 'url': 'https://genius.com/artists/Justin-bieber'}, {'name': 'Maejor', 'url': 'https://genius.com/artists/Maejor'}, {'name': 'Mark “The Mogul” Jackson', 'url': 'https://genius.com/artists/Mark-the-mogul-jackson'}, {'name': 'MdL', 'url': 'https://genius.com/artists/Mdl'}, {'name': 'Nico Stadi', 'url': 'https://genius.com/artists/Nico-stadi'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}, {'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Soundz', 'url': 'https://genius.com/artists/Soundz'}], 'writers': [{'name': 'Ariana Grande', 'url': 'https://genius.com/artists/Ariana-grande'}, {'name': 'AUGUST 08', 'url': 'https://genius.com/artists/August-08'}, {'name': '\u200bbenny blanco', 'url': 'https://genius.com/artists/Benny-blanco'}, {'name': 'Big Sean', 'url': 'https://genius.com/artists/Big-sean'}, {'name': 'Big Taste', 'url': 'https://genius.com/artists/Big-taste'}, {'name': 'BloodPop®', 'url': 'https://genius.com/artists/Bloodpop'}, {'name': 'Brandon Green', 'url': 'https://genius.com/artists/Brandon-green'}, {'name': 'Clarence Coffee Jr.', 'url': 'https://genius.com/artists/Clarence-coffee-jr'}, {'name': 'Diplo', 'url': 'https://genius.com/artists/Diplo'}, {'name': 'Dominic Jordan', 'url': 'https://genius.com/artists/Dominic-jordan'}, {'name': 'Eben Wares', 'url': 'https://genius.com/artists/Eben-wares'}, {'name': 'Ed Sheeran', 'url': 'https://genius.com/artists/Ed-sheeran'}, {'name': 'Gladius', 'url': 'https://genius.com/artists/Gladius'}, {'name': 'Ian Kirkpatrick', 'url': 'https://genius.com/artists/Ian-kirkpatrick'}, {'name': 'James Worthy', 'url': 'https://genius.com/artists/James-worthy'}, {'name': 'Jeremy Snyder', 'url': 'https://genius.com/artists/Jeremy-snyder'}, {'name': 'JHart', 'url': 'https://genius.com/artists/Jhart'}, {'name': 'Jimmy Giannos', 'url': 'https://genius.com/artists/Jimmy-giannos'}, {'name': 'Jordan Ware', 'url': 'https://genius.com/artists/Jordan-ware'}, {'name': 'Josh Gudwin', 'url': 'https://genius.com/artists/Josh-gudwin'}, {'name': 'Julia Michaels', 'url': 'https://genius.com/artists/Julia-michaels'}, {'name': 'Justin Bieber', 'url': 'https://genius.com/artists/Justin-bieber'}, {'name': 'Justin Tranter', 'url': 'https://genius.com/artists/Justin-tranter'}, {'name': 'Karl Rubin', 'url': 'https://genius.com/artists/Karl-rubin'}, {'name': 'Mark “The Mogul” Jackson', 'url': 'https://genius.com/artists/Mark-the-mogul-jackson'}, {'name': 'MdL', 'url': 'https://genius.com/artists/Mdl'}, {'name': 'MIKE DEAN', 'url': 'https://genius.com/artists/Mike-dean'}, {'name': 'Nico Stadi', 'url': 'https://genius.com/artists/Nico-stadi'}, {'name': 'Poo Bear', 'url': 'https://genius.com/artists/Poo-bear'}, {'name': 'Ron “NEFF-U” Feemster', 'url': 'https://genius.com/artists/Ron-neff-u-feemster'}, {'name': 'Sarah Hudson', 'url': 'https://genius.com/artists/Sarah-hudson'}, {'name': 'Scooter Braun', 'url': 'https://genius.com/artists/Scooter-braun'}, {'name': 'Skrillex', 'url': 'https://genius.com/artists/Skrillex'}, {'name': 'Steve James', 'url': 'https://genius.com/artists/Steve-james'}, {'name': 'Thomas Troelsen', 'url': 'https://genius.com/artists/Thomas-troelsen'}, {'name': 'Travis Scott', 'url': 'https://genius.com/artists/Travis-scott'}], 'labels': [{'name': 'Def Jam Recordings', 'url': 'https://genius.com/artists/Def-jam-recordings'}, {'name': 'Def Jef', 'url': 'https://genius.com/artists/Def-jef'}, {'name': 'Mad Decent', 'url': 'https://genius.com/artists/Mad-decent'}, {'name': 'OWSLA', 'url': 'https://genius.com/artists/Owsla'}, {'name': 'RBMG', 'url': 'https://genius.com/artists/Rbmg'}]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Razorlight/Razorlight', 'annotations': {'description': '&lt;p&gt;Razorlight’s eponymous second album is the band’s most commercially successful album to date, debuting at #1 on the UK albums chart and spawning their only #1 single: “&lt;a href="https://genius.com/Razorlight-america-lyrics" rel="noopener" data-api_path="/songs/421323"&gt;America&lt;/a&gt;”. It is also their first to feature drummer &lt;a href="https://genius.com/artists/Andy-burrows" rel="noopener" data-api_path="/artists/374631"&gt;Andy Burrows&lt;/a&gt; after the departure of &lt;a href="https://genius.com/artists/Shian-smith-pancorvo" rel="noopener"&gt;Shïan Smith-Pancorvo&lt;/a&gt;. The album had a mixed critical response, &lt;a href="https://web.archive.org/web/20140330071529/http://stylusmagazine.com/reviews/razorlight/razorlight.htm" rel="noopener nofollow"&gt;earning an “F” grade from Stylus&lt;/a&gt; and being nominated for the “Worst Album” award by NME, but also gaining praise from AllMusic.&lt;/p&gt;\n\n&lt;p&gt;The album’s style is much softer and less energetic than its predecessor, but it still features the same simple guitar-bass-drums formula. The decrease in energy would culminate with their next album, &lt;em&gt;&lt;a href="https://genius.com/albums/Razorlight/slipway-fires" rel="noopener" data-api_path="/albums/193524"&gt;Slipway Fires&lt;/a&gt;&lt;/em&gt; (2008), which was even more poorly received.&lt;/p&gt;', 'producers': [{'name': 'Chris Thomas', 'url': 'https://genius.com/artists/Chris-thomas'}, {'name': 'Razorlight', 'url': 'https://genius.com/artists/Razorlight'}], 'writers': [{'name': 'Andy Burrows', 'url': 'https://genius.com/artists/Andy-burrows'}, {'name': 'Johnny Borrell', 'url': 'https://genius.com/artists/Johnny-borrell'}], 'labels': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/albums/Awolnation/Megalithic-symphony', 'annotations': {'description': '&lt;p&gt;Something that hasn’t been done before: Aaron Bruno’s electronic rock project AWOLNATION takes a debut and turns it into a light-hearted &lt;em&gt;Megalithic Symphony&lt;/em&gt;. Taking cues from Foreigner in “Sail,” “Not Your Fault” shows the power of self-doubt and problematic differences through the eyes of a lover. While it’s electronic presence is a bit unpolished and crude, &lt;em&gt;Megalithic Symphony&lt;/em&gt; corrects itself and turns an orchestra into a wave of symphonic synth paradise.&lt;/p&gt;\n\n&lt;p&gt;The track list shown here is as it is shown on Spotify; for the second disc of &lt;em&gt;Megalithic Symphony&lt;/em&gt;, as found in the deluxe version of the album, click here!&lt;/p&gt;', 'producers': [{'name': 'Aaron Bruno', 'url': 'https://genius.com/artists/Aaron-bruno'}, {'name': 'Brian West', 'url': 'https://genius.com/artists/Brian-west'}, {'name': 'Jimmy Messer', 'url': 'https://genius.com/artists/Jimmy-messer'}], 'writers': [{'name': 'Aaron Bruno', 'url': 'https://genius.com/artists/Aaron-bruno'}, {'name': 'Brian West', 'url': 'https://genius.com/artists/Brian-west'}, {'name': 'Cameron Duddy', 'url': 'https://genius.com/artists/Cameron-duddy'}, {'name': 'Jimmy Messer', 'url': 'https://genius.com/artists/Jimmy-messer'}], 'labels': [{'name': 'Red Bull Records', 'url': 'https://genius.com/artists/Red-bull-records'}]}}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Kill_This_Love', 'album_name': 'Kill This Love', 'artist': 'http://dbpedia.org/resource/Blackpink', 'artist_name': 'Blackpink', 'wiki': 'http://en.wikipedia.org/wiki/Kill_This_Love', 'hometown': 'http://dbpedia.org/resource/Seoul', 'released': '05 April 2019', 'producers': ['http://dbpedia.org/resource/Bekuh_Boom', 'http://dbpedia.org/resource/R._Tee', 'http://dbpedia.org/resource/Teddy_Park', '24', 'Seo Won Jin'], 'awards': ['Platinum'], 'genres': ['Pop', 'EDM'], 'related_artists': ['http://dbpedia.org/resource/Dreamlab_(production_team)', 'http://dbpedia.org/resource/Jennie_(singer)__Jennie__1', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Tushar_Apte', 'http://dbpedia.org/resource/YG_Entertainment'], 'abstract': "Kill This Love (stylized in all caps) is the second Korean-language extended play (third overall) by South Korean girl group Blackpink, released on April 5, 2019, by YG Entertainment and distributed through YG Plus and Interscope Records. It is their first Korean material since the release of Square Up in June 2018, and their debut release with Interscope Records. The title track was released as the lead single. The single peaked at number two in South Korea and became the group's first top-50 hit in the United States and the United Kingdom. On the Billboard 200 chart, Kill This Love debuted at number twenty four with 19,200 units, including over 9,100 pure sales moved. The EP reached the top ten in many territories, including Canada, Japan, New Zealand and South Korea, and the top twenty in Australia. It was certified Platinum by the Gaon Music Chart in June 2019 for selling 250,000 units, becoming Blackpink's second EP to do so after 2018's Square Up, and was later certified 2x Platinum in September 2021 for selling 500,000 units."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/RocKihnRoll', 'album_name': 'RocKihnRoll', 'artist': 'http://dbpedia.org/resource/The_Greg_Kihn_Band', 'artist_name': 'The Greg Kihn Band', 'wiki': 'http://en.wikipedia.org/wiki/RocKihnRoll', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'producers': ['http://dbpedia.org/resource/Matthew_King_Kaufman'], 'writers': ['http://dbpedia.org/resource/Tommy_Roe', 'Kihn, Wright, Larry Lynch, Dave Carpenter', 'Kihn', 'Greg Kihn, Jack Heyrman, David Rosen', 'Kihn, Steve Wright, Gary Philips', 'Kihn, Wright'], 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Dave_Carpender', 'http://dbpedia.org/resource/Gary_Phillips_(keyboardist)', 'http://dbpedia.org/resource/Greg_Douglass', 'http://dbpedia.org/resource/Greg_Kihn', 'http://dbpedia.org/resource/Joe_Satriani', 'http://dbpedia.org/resource/Robert_Berry', 'http://dbpedia.org/resource/Steve_Wright_(bassist)'], 'abstract': 'Released in 1981, Rockihnroll is the sixth studio album by Greg Kihn and the third album as The Greg Kihn Band. It produced the band\'s second highest-charting single to date, "The Breakup Song (They Don\'t Write \'Em)."'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Hail_to_the_King_(Avenged_Sevenfold_album)', 'album_name': 'Hail to the King', 'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Hail_to_the_King_(Avenged_Sevenfold_album)', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'released': '27 August 2013', 'producers': ['http://dbpedia.org/resource/Mike_Elizondo'], 'awards': ['Gold', 'Platinum'], 'genres': ['Heavy metal', 'hard rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_Haner', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Cowboy_Troy', 'http://dbpedia.org/resource/Fozzy', 'http://dbpedia.org/resource/M._Shadows', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Sherry_Drive', 'http://dbpedia.org/resource/Suburban_Legends', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Synyster_Gates', 'http://dbpedia.org/resource/The_Confession_(band)__The_Confession__1', 'http://dbpedia.org/resource/The_Rev'], 'abstract': 'Hail to the King is the sixth studio album by American heavy metal band Avenged Sevenfold, released on August 27, 2013, through Warner Bros. Records. The album was produced by Mike Elizondo. Hail to the King is the only Avenged Sevenfold album to feature drummer Arin Ilejay, prior to his departure in July 2015. It is also the first Avenged Sevenfold album without musical contributions from Ilejay\'s late predecessor, Jimmy "The Rev" Sullivan; the bonus track, "St. James", was written in his memory. The album was a commercial and critical success, reaching number 1 on the Billboard 200. This marks Avenged Sevenfold\'s second album to top the Billboard chart (the first being Nightmare), as well as their first to reach number 1 in the UK, topping the UK Albums Chart. It also topped the Canadian, Brazilian, Finnish and Irish album charts. Also, the album spawned two number 1 singles on Billboard\'s Mainstream Rock, Hail to the King, and Shepherd of Fire. The former spent 11 weeks on the top of the chart. On April 15, 2021 the album was certified Platinum by the RIAA for sales of over 1,000,000 copies.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Moving_Pictures_(Rush_album)', 'album_name': 'Moving Pictures', 'artist': 'http://dbpedia.org/resource/Rush_(band)', 'artist_name': 'Rush', 'wiki': 'http://en.wikipedia.org/wiki/Moving_Pictures_(Rush_album)', 'hometown': 'http://dbpedia.org/resource/Toronto', 'released': '12 February 1981', 'producers': ['Rush', 'Terry Brown'], 'awards': ['Platinum', 'Silver'], 'genres': ['http://dbpedia.org/resource/Progressive_rock'], 'related_artists': ['http://dbpedia.org/resource/Aimee_Mann', 'http://dbpedia.org/resource/Alex_Lifeson', 'http://dbpedia.org/resource/Andy_Richards', 'http://dbpedia.org/resource/Big_Dirty_Band', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Geddy_Lee', 'http://dbpedia.org/resource/Jeff_Jones_(musician)', 'http://dbpedia.org/resource/John_Rutsey', 'http://dbpedia.org/resource/Les_Variations', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Neil_Peart', 'http://dbpedia.org/resource/Pye_Dubois', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/Stuck_On_Planet_Earth', 'http://dbpedia.org/resource/Terry_Brown_(record_producer)'], 'abstract': 'Moving Pictures is the eighth studio album by Canadian progressive rock band Rush, released on February 12, 1981 through Anthem Records. After touring to support their previous album, Permanent Waves (1980), the band started to write and record new material in August 1980 with co-producer Terry Brown. They continued to write songs with a more radio-friendly format, featuring tighter song structures and songs of shorter length compared to their earlier albums. Moving Pictures received a positive reception from current and retrospective music critics and became an instant commercial success, reaching number one in Canada and number 3 in both the United States and the United Kingdom. It remains Rush\'s highest-selling album in the United States, with 5 million copies sold. "Limelight", "Tom Sawyer" and "Vital Signs" were released as singles across 1981, and the instrumental "YYZ" was nominated for a Grammy Award for Best Rock Instrumental Performance. Rush auditioned some of the songs on a tour before recording the album (September 11 to October 1, 1980), and supported the album on tour from February to July 1981.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Love_in_the_Future', 'album_name': 'Love in the Future', 'artist': 'http://dbpedia.org/resource/John_Legend', 'artist_name': 'John Legend', 'wiki': 'http://en.wikipedia.org/wiki/Love_in_the_Future', 'released': '30 August 2013', 'producers': ['http://dbpedia.org/resource/Ali_Shaheed_Muhammad', 'http://dbpedia.org/resource/Andrew_Horowitz', 'http://dbpedia.org/resource/Bink_(record_producer)', 'http://dbpedia.org/resource/Da_Internz', 'http://dbpedia.org/resource/Darhyl_Camper', 'http://dbpedia.org/resource/Dave_Tozer', 'http://dbpedia.org/resource/Doc_McKinney', 'http://dbpedia.org/resource/Hit-Boy', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/John_Legend', 'http://dbpedia.org/resource/Kanye_West', 'http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Nana_Kwabena_Tuffuor', 'http://dbpedia.org/resource/Pharrell_Williams', 'http://dbpedia.org/resource/Q-Tip_(musician)', 'http://dbpedia.org/resource/The_Runners_(production_duo)', 'http://dbpedia.org/resource/The_Twilite_Tone', 'http://dbpedia.org/resource/Travis_Scott', 'Ken Lewis', 'Jon David Anderson', '88', 'Boogz', 'Mark Williams', 'David L. Anderson II'], 'writers': ['http://dbpedia.org/resource/88-Keys', 'http://dbpedia.org/resource/Ali_Shaheed_Muhammad', 'http://dbpedia.org/resource/Andrew_Horowitz', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bink_(record_producer)', 'http://dbpedia.org/resource/Bobby_Caldwell', 'http://dbpedia.org/resource/Da_Internz', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Dave_Tozer', 'http://dbpedia.org/resource/David_Schuler', 'http://dbpedia.org/resource/Doc_McKinney', 'http://dbpedia.org/resource/Dr._John', 'http://dbpedia.org/resource/Ed_Townsend', 'http://dbpedia.org/resource/Hit-Boy', 'http://dbpedia.org/resource/Ingrid_Michaelson', 'http://dbpedia.org/resource/James_Fauntleroy', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Joe_Jonas', 'http://dbpedia.org/resource/John_Legend', 'http://dbpedia.org/resource/Kanye_West', 'http://dbpedia.org/resource/Kevin_Cossom', 'http://dbpedia.org/resource/Kimbra', 'http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Marvin_Gaye', 'http://dbpedia.org/resource/Nana_Kwabena_Tuffuor', 'http://dbpedia.org/resource/Patrick_Moten', 'http://dbpedia.org/resource/Pharrell_Williams', 'http://dbpedia.org/resource/Q-Tip_(musician)', 'http://dbpedia.org/resource/Rick_Ross', 'http://dbpedia.org/resource/Sara_Bareilles', 'http://dbpedia.org/resource/Seal_(musician)', 'http://dbpedia.org/resource/The_Twilite_Tone', 'http://dbpedia.org/resource/Toby_Gad', 'http://dbpedia.org/resource/Travis_Scott', 'Carol Washington', 'Guordan Banks', 'Tozer', 'Jessyca Wilson', 'Camper, Jr.', 'Robert E. Miller', 'Hollis', 'Banks', 'Jon David Anderson', 'Joseph Broussard', 'Stephens', 'Andrew Harr', 'Bruce Malament', 'Harrell III', 'Jermaine Jackson', 'McKinney', 'West', 'Khan', 'M. Williams', 'Norman Harris', 'Ralph Williams', "Lil' Louis", 'Sandra Sully', 'Muhammad', 'Allan Rich', 'Marshall Jefferson', 'Justin Baron', 'Ernest Clark', 'Fauntleroy II', 'David L. Anderson II'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Andres_Levin', 'http://dbpedia.org/resource/Andrew_Horowitz', 'http://dbpedia.org/resource/Austin_Bisnow', 'http://dbpedia.org/resource/Baby_Blue_(rapper)', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Butta-N-BizKit', 'http://dbpedia.org/resource/Chemistry_(band)', 'http://dbpedia.org/resource/Chris_Rob', 'http://dbpedia.org/resource/Consequence_(rapper)', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Dapo_Torimiro', 'http://dbpedia.org/resource/Dave_Tozer', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Estelle_(musician)', 'http://dbpedia.org/resource/Faouzia', 'http://dbpedia.org/resource/Fort_Minor', 'http://dbpedia.org/resource/Jack_Splash', 'http://dbpedia.org/resource/Joacim_Persson', 'http://dbpedia.org/resource/Magnetic_Man', 'http://dbpedia.org/resource/Malay_(record_producer)', 'http://dbpedia.org/resource/Mark_J._Feist', 'http://dbpedia.org/resource/Michele_Canova', 'http://dbpedia.org/resource/Miri_Ben-Ari', 'http://dbpedia.org/resource/Muddy_Magnolias', 'http://dbpedia.org/resource/Nana_Kwabena_Tuffuor', 'http://dbpedia.org/resource/Raphael_Saadiq', 'http://dbpedia.org/resource/Richard_Bona', 'http://dbpedia.org/resource/Stacy_Barthe', 'http://dbpedia.org/resource/Steven_Achikor', 'http://dbpedia.org/resource/The_Roots', 'http://dbpedia.org/resource/The_Twilite_Tone', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': 'Love in the Future is the fourth studio album by American singer John Legend. The album was released on August 30, 2013, by GOOD Music and Columbia Records. The album, executive produced by Legend, Kanye West and Dave Tozer, features guest appearances from Kimbra, Rick Ross, Stacy Barthe and Seal. The album was supported by four singles, "Who Do We Think We Are", "Made to Love", "All of Me" and "You &amp; I (Nobody in the World)". Love in the Future received generally positive reviews from music critics. The album debuted at number 4 on the US Billboard 200 chart, selling 68,000 copies in its first week.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Going_to_Hell', 'album_name': 'Going To Hell', 'artist': 'http://dbpedia.org/resource/The_Pretty_Reckless', 'artist_name': 'The Pretty Reckless', 'wiki': 'http://en.wikipedia.org/wiki/Going_to_Hell', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'released': '12 March 2014', 'producers': ['http://dbpedia.org/resource/Kato_Khandwala'], 'awards': ['Gold', 'Silver'], 'genres': ['http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Kato_Khandwala', 'http://dbpedia.org/resource/Tom_Morello'], 'abstract': 'Going to Hell is the second studio album by American rock band the Pretty Reckless. It was released on March 12, 2014, by Razor &amp; Tie. The album debuted at number five on the Billboard 200 with 35,000 copies sold in its first week, becoming the band\'s first top-10 album on the chart. Going to Hell spawned five singles, including "Heaven Knows", "Messed Up World (F\'d Up World)", and "Follow Me Down", all three of which reached number one on Billboard\'s Mainstream Rock Songs chart.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/Don't_Worry_About_Me", 'album_name': "Don't Worry About Me", 'artist': 'http://dbpedia.org/resource/Joey_Ramone', 'artist_name': 'Joey Ramone', 'wiki': "http://en.wikipedia.org/wiki/Don't_Worry_About_Me", 'released': '19 February 2002', 'producers': ['http://dbpedia.org/resource/Daniel_Rey'], 'genres': ['http://dbpedia.org/resource/Punk_rock'], 'related_artists': ["http://dbpedia.org/resource/Dr._Chud's_X-Ward", 'http://dbpedia.org/resource/Ramones', 'http://dbpedia.org/resource/Ronnie_Spector', 'http://dbpedia.org/resource/Sniper_(American_band)', 'http://dbpedia.org/resource/Steven_Van_Zandt'], 'abstract': 'Don\'t Worry About Me is the debut album released by Joey Ramone as a solo artist. It was released posthumously in 2002, less than a year after his death. The album was produced by Daniel Rey, who also did most of the guitar work. Rey had previously produced three of the Ramones\' albums, between 1987 and 1995. The album includes two covers: "What a Wonderful World," originally performed by Louis Armstrong, and "1969," originally performed by the Stooges. "What a Wonderful World" was used for the ending credits of Michael Moore\'s film Bowling for Columbine. A DualDisc version of the album was released on November 19, 2002. It included the album in the DVD-Audio format, which is in 5.1 surround sound, as well as the music video for "What a Wonderful World" (directed by Debbie Harry) and other material. Don\'t Worry About Me peaked at #21 on the Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Best_of_Branigan', 'album_name': 'The Best of Branigan', 'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/The_Best_of_Branigan', 'released': '06 June 1995', 'writers': ['http://dbpedia.org/resource/Bruce_Roberts_(singer)', 'http://dbpedia.org/resource/Donna_Summer', 'Jay Rifkin, Eric Rackin, Maria McKee', 'Candy DeRouge, Gunther Mende, Jennifer Rush, Mary Susan Applegate', 'Laura Branigan, Billy Branigan', 'Michael Bolton, Doug James', 'Karen Taylor-Good, Burton Collins', 'Kevin Wells, Andre Pessis', 'Martine Clemenceau, Diane Warren', 'Umberto Tozzi, Giancarlo Bigazzi, Warren', 'Bigazzi, Raffaele Riefoli, Steve Piccolo', 'Dave Palmer, Chuck Cochran', 'Tozzi, Bigazzi, Trevor Veitch'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Bob_Conti', 'http://dbpedia.org/resource/Candy_DeRouge', 'http://dbpedia.org/resource/Device_(pop-rock_band)', 'http://dbpedia.org/resource/Mary_Susan_Applegate', 'http://dbpedia.org/resource/Umberto_Tozzi'], 'abstract': 'The Best of Branigan was the first greatest hits compilation by singer Laura Branigan to be released in the United States. The 1995 anthology collection also marked the end of Branigan\'s relationship with her record label, Atlantic Records. Of the thirteen tracks, eight had charted, including her major hit singles "Gloria", "Solitaire", "Self Control", "Power of Love", and "How Am I Supposed to Live Without You". The album features two new recordings: "Show Me Heaven" and a cover of Donna Summer\'s "Dim All the Lights", the latter which was released as a single in late spring 1995 and became a Billboard Top 40 Dance hit. Remaining tracks were taken from her 1993 album Over My Heart, which had been largely overlooked by audiences. In terms of her global music releases, Best of Branigan had already been preceded by other greatest hits anthologies outside the United States, all with very similar titles, beginning in 1988, and again in 1992, for listeners in much of the rest of the world. Prior to its April 2007 re-release on Rhino Records, the compilation had sold 147,000 copies in the U.S.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Wonderful_Wonderful_(The_Killers_album)', 'album_name': 'Wonderful Wonderful (The Killers)', 'artist': 'http://dbpedia.org/resource/The_Killers', 'artist_name': 'The Killers', 'wiki': 'http://en.wikipedia.org/wiki/Wonderful_Wonderful_(The_Killers_album)', 'released': '22 September 2017', 'producers': ['Erol Alkan', 'the Killers', 'Jacknife Lee', 'Stuart Price'], 'writers': ['http://dbpedia.org/resource/Alex_Cameron_(musician)', 'http://dbpedia.org/resource/Bob_Marley', 'http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Claydes_Charles_Smith', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Kool_&amp;_the_Gang', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Robert_%22Kool%22_Bell', 'http://dbpedia.org/resource/Ronald_Bell_(musician)', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Stuart_Price', 'Thomas', 'Lee', 'Westfield', 'Smith', 'Dennis Thomas', 'Cameron', 'Richard Westfield', 'Nash', 'Mickens', 'Keuning', 'Robert Bell', 'Brown', 'Boyce', 'Flowers', 'Vannucci', 'Otha Nash', 'Don Boyce', 'Stoermer', 'Robert Mickens', 'Price'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'Alternative rock', 'heartland rock', '*', 'pop rock', 'indie pop'], 'related_artists': ['http://dbpedia.org/resource/Alex_Cameron_(musician)', 'http://dbpedia.org/resource/Amanda_Brown_(singer)', 'http://dbpedia.org/resource/Big_Talk', 'http://dbpedia.org/resource/Brandon_Flowers', 'http://dbpedia.org/resource/Curve_(band)', 'http://dbpedia.org/resource/Dave_Keuning', 'http://dbpedia.org/resource/Faulkner_(band)', 'http://dbpedia.org/resource/Fictionist', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/Inviolet_Row', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mark_Stoermer', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Ray_Suen', 'http://dbpedia.org/resource/Ronnie_Vannucci_Jr.', 'http://dbpedia.org/resource/Ryan_Pardey', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Sara_Watkins', 'http://dbpedia.org/resource/Shawn_Everett', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Ted_Sablay', 'http://dbpedia.org/resource/The_Red_Romance', 'http://dbpedia.org/resource/The_Rentals', 'http://dbpedia.org/resource/The_Sweet_Inspirations', 'http://dbpedia.org/resource/Tommy_Marth', 'http://dbpedia.org/resource/Toni_Halliday'], 'abstract': "Wonderful Wonderful is the fifth studio album by American rock band the Killers. It was released on September 22, 2017, by Island Records. It is their first studio album in five years, since Battle Born (2012), and their fifth consecutive studio album to top the UK Albums Chart. It is also their first album to top the Billboard 200, moving 118,000 album-equivalent units in its first week. Wonderful Wonderful was the Killers' final album to feature lead guitarist Dave Keuning until Pressure Machine, which was released on August 13, 2021."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/18_Greatest_Hits_(Sandra_album)', 'album_name': '18 Greatest Hits (잔드라의 음반)', 'artist': 'http://dbpedia.org/resource/Sandra_(singer)', 'artist_name': 'Sandra', 'wiki': 'http://en.wikipedia.org/wiki/18_Greatest_Hits_(Sandra_album)', 'released': '12 October 1992', 'producers': ['Michael Cretu', 'Armand Volker'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Arabesque_(group)', 'http://dbpedia.org/resource/Enigma_(German_band)', 'http://dbpedia.org/resource/Hubert_Kah', 'http://dbpedia.org/resource/Michael_Cretu'], 'abstract': '18 Greatest Hits is the second greatest hits album by German singer Sandra, released on 12 October 1992 by Virgin Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Echoes,_Silence,_Patience_&amp;_Grace', 'album_name': 'Echoes, Silence, Patience &amp; Grace', 'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/Echoes,_Silence,_Patience_&amp;_Grace', 'hometown': 'http://dbpedia.org/resource/Seattle', 'released': '25 September 2007', 'producers': ['http://dbpedia.org/resource/Gil_Norton'], 'writers': ['Grohl'], 'awards': ['Gold', 'Platinum'], 'genres': ['Alternative rock', 'post-grunge', 'hard rock'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Bob_Mould', 'http://dbpedia.org/resource/Brandon_Bell_(recording_engineer)', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/DYS_(band)', 'http://dbpedia.org/resource/Drew_Hester', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Franz_Stahl', 'http://dbpedia.org/resource/Fred_Schneider', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/Joe_Walsh', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Me_First_and_the_Gimme_Gimmes', 'http://dbpedia.org/resource/Mike_Watt', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/No_Use_for_a_Name', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Petra_Haden', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Rick_Nielsen', 'http://dbpedia.org/resource/Ryan_Hadlock', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Skeeter_Thompson', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Taylor_Hawkins_and_the_Coattail_Riders', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Fire_Theft', 'http://dbpedia.org/resource/The_Jealous_Sound', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/William_Goldsmith'], 'abstract': 'Echoes, Silence, Patience &amp; Grace is the sixth studio album by American rock band Foo Fighters, released on September 25, 2007, through Roswell and RCA Records. The album is noted for a blend of regular rock and acoustic tracks with shifting dynamics, which emerged from the variety of styles employed on the demos the band produced. It also marks the second time the band worked with producer Gil Norton, whom frontman Dave Grohl brought to fully explore the potential of his compositions and have a record that sounded different from their previous work. Grohl tried to focus on songs with messages that resonated with his audience, writing reflective lyrics which drew inspiration from the birth of his daughter. Critical reception to Echoes, Silence, Patience &amp; Grace was mostly positive, with praise to the sonic variety and songwriting, though some reviewers found the record inconsistent and uninspired. The album topped the charts in the United Kingdom, Australia, New Zealand and Austria, and had three successful singles, "The Pretender", "Long Road to Ruin" and "Let It Die". Echoes, Silence, Patience &amp; Grace was nominated for five Grammy Awards, winning Best Rock Album, and was also awarded the Brit Award of Best International Album.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Wild_Ones_(Flo_Rida_album)', 'album_name': 'Wild Ones (album)', 'artist': 'http://dbpedia.org/resource/Flo_Rida', 'artist_name': 'Flo Rida', 'wiki': 'http://en.wikipedia.org/wiki/Wild_Ones_(Flo_Rida_album)', 'released': '03 July 2012', 'producers': ['Axwell', 'Cirkut', 'DJ Frank E', 'Glass John', 'GoonRock', 'Lukasz "Dr. Luke" Gottwald', 'The Futuristics', 'soFLY &amp; Nius'], 'writers': ['Aden Forte', 'Ahmad Ali Lewis', 'Alex Schwartz', 'Antonio "Jovii Hendrix" Mobley', 'Antonio Mobley', 'Arash Pournouri', 'Axel Hedfors', 'Benjamin Maddahi', 'Brenda Russell', 'Breyan Isaac', 'Brian Cohen', 'Bryan Adams', 'Caren', 'Chris Llewellyn', 'David Glass', 'Dillard', 'Dwayne Carter Jr.', 'Dwayne Carter, Jr.', 'Earl Hood', 'Earl King', 'Eric Goudy II', 'Etta James', 'Georgina Kingsley', 'Hedfors', 'Henry Walter', 'Isaac', 'Issac', 'Ivan Gough', 'Jacob Luttrell', 'Jamahl Listenbee', 'James Vallance', 'Jeffrey Hull', 'Jennifer Lopez', 'Joe Khajadourian', 'Johnson', 'Jonita Daniels', 'Josh Soon', 'Judrin', 'Juletha Daniels', 'Julie Frost', 'Justin Franks', 'Kenneth Coby', 'Leroy Kirkland', 'Lukasz Gottwald', 'Marcus Cooper', 'Marcus Killian', 'Melki', 'Mike Caren', 'Mobley', 'Pearl Woods', 'Pierre Medor', 'Pierre-Antoine Melki', 'Prissy Polet', 'Raphael Judrin', 'Rico Love', 'Scott Cutler', 'Sia Furler', 'Stefan Kendal Gordy', 'The Monsters &amp; Strangerz', 'Tim Bergling', 'Tramar Dillard'], 'awards': ['Gold'], 'genres': ['Hip hop', 'dance'], 'related_artists': ['http://dbpedia.org/resource/Fresh_Kid_Ice', 'http://dbpedia.org/resource/Kesha', 'http://dbpedia.org/resource/Lookas', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Sage_the_Gemini', 'http://dbpedia.org/resource/Senhit_(singer)', 'http://dbpedia.org/resource/T-Pain'], 'abstract': 'Wild Ones is the fourth studio album by American rapper Flo Rida. It was released on July 3, 2012. Wild Ones had four Top 10 singles on the US Billboard Hot 100, when the singles, "Good Feeling", "Wild Ones", "Whistle", and "I Cry" charted at three, five, one, and six respectively.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Very_Best_of_UB40', 'album_name': 'The Very Best of UB40', 'artist': 'http://dbpedia.org/resource/UB40', 'artist_name': 'UB40', 'wiki': 'http://en.wikipedia.org/wiki/The_Very_Best_of_UB40', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Al_Anderson_(musician)', 'http://dbpedia.org/resource/Ali_Campbell', 'http://dbpedia.org/resource/And_Why_Not%3F', 'http://dbpedia.org/resource/Bitty_McLean', 'http://dbpedia.org/resource/Chrissie_Hynde', 'http://dbpedia.org/resource/Jason_Wilson_(musician)', 'http://dbpedia.org/resource/Jaya_Sri', 'http://dbpedia.org/resource/Marvin_Priest', 'http://dbpedia.org/resource/Maxi_Priest', 'http://dbpedia.org/resource/Natural_Vibrations', 'http://dbpedia.org/resource/Ruby_Turner', 'http://dbpedia.org/resource/Trevor_Taylor_(singer)', 'http://dbpedia.org/resource/Wezi_(musician)'], 'abstract': 'The Very Best of UB40 1980-2000 is a greatest hits album from the British dub/reggae band UB40. There is another, later release with the similar title The Best Of UB40 Volume I &amp; II, with different contents.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Viva_la_Vida_or_Death_and_All_His_Friends', 'album_name': 'Viva la Vida or Death and All His Friends', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Viva_la_Vida_or_Death_and_All_His_Friends', 'hometown': 'http://dbpedia.org/resource/London', 'released': '12 June 2008', 'producers': ['Brian Eno', 'Markus Dravs', 'Jon Hopkins', 'Rik Simpson'], 'writers': ['http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Pharrell_Williams', 'Hopkins', 'Coldplay'], 'awards': ['Diamond', 'Diamond+Platinum', 'Gold', 'Platinum'], 'genres': ['Alternative rock', 'art rock', 'pop rock', 'indie pop', 'art pop'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Black_Submarine', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Danton_Supple', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Faultline_(musician)', 'http://dbpedia.org/resource/Federico_Vindver', 'http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Richard_Ashcroft', 'http://dbpedia.org/resource/Rik_Simpson', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_Undeserving', 'http://dbpedia.org/resource/We_Are_King'], 'abstract': 'Viva la Vida or Death and All His Friends, often referred to as simply Viva la Vida, is the fourth studio album by British rock band Coldplay, released on 12 June 2008 on the Parlophone label. The album was named after a Spanish phrase that best translates into English as "Long live life". Lyrically, the album contains references to love, life, death and war. Recording sessions for the album took place during June 2007 to April 2008 and featured production by Jon Hopkins, Rik Simpson, Markus Dravs, and Brian Eno. The album was Coldplay\'s first to be produced by Eno, and also their first album to not be produced by long-time Coldplay producer, Ken Nelson. The band forced themselves to explore new styles, as Eno required every song on the album to sound different. Development of the album delayed the release date several times. The album cover of Viva la Vida is the 1830 painting Liberty Leading the People by Eugène Delacroix. Viva la Vida was both a critical and commercial success. Five songs were released in promotion of the album; "Violet Hill" and "Viva la Vida" in May 2008, "Lovers in Japan" and "Lost!" in November 2008, and "Strawberry Swing" in September 2009. "Viva la Vida" became the band\'s first song to reach number one in both the United States and the United Kingdom. It won Best Rock Album at the 2009 Grammy Awards and was also nominated for Album of the Year. It was the best selling album of 2008. By 2011, the album had sold more than 10 million copies worldwide.Viva la Vida was re-released on 25 November 2008 in a deluxe edition containing the original album and the Prospekt\'s March EP, which contained another hit, "Life in Technicolor II".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Oracular_Spectacular', 'album_name': 'Oracular Spectacular', 'artist': 'http://dbpedia.org/resource/MGMT', 'artist_name': 'MGMT', 'wiki': 'http://en.wikipedia.org/wiki/Oracular_Spectacular', 'hometown': 'http://dbpedia.org/resource/Middletown,_Connecticut', 'released': '02 October 2007', 'producers': ['http://dbpedia.org/resource/Dave_Fridmann', 'MGMT'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Psychedelic_pop'], 'related_artists': ['http://dbpedia.org/resource/Andrew_VanWyngarden', 'http://dbpedia.org/resource/Benjamin_Goldwasser', 'http://dbpedia.org/resource/Bradford_Cox', 'http://dbpedia.org/resource/Chiddy_Bang', 'http://dbpedia.org/resource/Dave_Fridmann', 'http://dbpedia.org/resource/Devendra_Banhart', 'http://dbpedia.org/resource/Francis_and_the_Lights', 'http://dbpedia.org/resource/Peter_Kember', 'http://dbpedia.org/resource/Snowblink'], 'abstract': 'Oracular Spectacular is the debut studio album by the American band MGMT, released on October 2, 2007, by RED Ink and physically on January 22, 2008, by Columbia. It was produced by Dave Fridmann and is the band\'s first release of new content, being recorded from March to April 2007. Promotion for the album started as early as June 2007, when the song "Weekend Wars" was given away in summer issues of free monthly magazine Nöjesguiden in Stockholm, Sweden. Matching CDs could be picked up for free in all stores in three different shopping malls around Stockholm from June 26 to July 31. The album was also promoted with three singles: "Time to Pretend", "Electric Feel" and "Kids". Both "Time to Pretend" and "Kids" were re-recorded for the album; they were originally included on the band\'s previous release Time to Pretend (2005), with the opening track serving as a "mission statement" and the theme continuing through the album\'s subsequent tracks. Although Oracular Spectacular never sold more than 17,000 units in a week, at least 2,000 copies per week were sold during the period from January 2008 through April 2010. The album received positive reviews from critics, who lauded its production style, musical direction and composition. It was nominated for the International Album award at the 2009 Brit Awards. In 2012, Rolling Stone ranked the album at number 494 on its list of The 500 Greatest Albums of All Time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Best_Damn_Thing', 'album_name': 'The Best Damn Thing', 'artist': 'http://dbpedia.org/resource/Avril_Lavigne', 'artist_name': 'Avril Lavigne', 'wiki': 'http://en.wikipedia.org/wiki/The_Best_Damn_Thing', 'released': '11 April 2007', 'producers': ['Rob Cavallo', 'Dr. Luke', 'Butch Walker', 'Deryck Whibley'], 'awards': ['Gold', 'Million', 'Platinum'], 'genres': ['Pop punk', 'bubblegum pop'], 'related_artists': ['http://dbpedia.org/resource/Adam_Leber', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Chantal_Kreviazuk', 'http://dbpedia.org/resource/Chris_Rene', 'http://dbpedia.org/resource/Clif_Magness', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Corky_James', 'http://dbpedia.org/resource/Craig_Wood_(guitarist)', 'http://dbpedia.org/resource/Curtis_Frasca', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Evan_Taubenfeld', 'http://dbpedia.org/resource/Jesse_Colburn', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Lil_Mama', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Brann', 'http://dbpedia.org/resource/Nick_Brophy', 'http://dbpedia.org/resource/Peter_Zizzo', 'http://dbpedia.org/resource/The_Matrix_(team)'], 'abstract': 'The Best Damn Thing is the third studio album by Canadian singer Avril Lavigne. It was released on 11 April 2007, by RCA Records. The album represents a musical departure from her earlier studio album Under My Skin (2004), which incorporates more elements of post-grunge music. The Best Damn Thing is seen by critics as Lavigne\'s most commercial effort. The album was noted as her first effort to feature a wide range of producers, including Matt Beckley, Rob Cavallo, Dr. Luke and Lavigne herself, who was credited as the executive producer. Upon its release, The Best Damn Thing received generally positive reviews from music critics, who praised Lavigne\'s transition from grungey alternative rock music to more pop-punk and bubblegum pop music, with it being catchy and very radio-friendly. However, the main criticism of the album was the lyrical content, which some found too rough or brutal. The album debuted at number one on the US Billboard 200 with first-week sales of 289,000 copies. The album also debuted atop the charts in Austria, Canada, the United Kingdom and many other countries. Alternative Press listed it as one of the albums that best represented the pop-punk scene in 2007. The Best Damn Thing has sold more than 6 million pure copies worldwide, It was the fourth top-selling album worldwide and Sony BMG\'s top-selling album of 2007 according to the IFPI. Four singles were released from the album. Its lead single "Girlfriend" peaked at number one on the US Billboard Hot 100, making it Lavigne\'s most successful chart single to date. The single also reached number one in twelve other countries across the world including Australia, Canada and Japan, making it one of the best-selling singles of 2007 worldwide. The second and third single of the album, "When You\'re Gone" and "Hot" were moderate hits worldwide, with the former reaching number 24 on the US Billboard Hot 100. Last single "The Best Damn Thing" reached the lower end of the charts. To promote the album, Lavigne performed at many TV shows and award ceremonies, including the 2007 Teen Choice Awards and the 2007 MTV Europe Music Awards, as well as a musical guest on Saturday Night Live. Furthermore, Lavigne embarked on a concert tour, entitled The Best Damn World Tour, starting on 8 March 2008, and ending on 6 October 2008. Footage from the concert at the Air Canada Centre in Toronto were recorded and released on a DVD titled The Best Damn Tour: Live in Toronto.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/A_Night_at_the_Opera_(Queen_album)', 'album_name': 'A Night at the Opera', 'artist': 'http://dbpedia.org/resource/Queen_(band)', 'artist_name': 'Queen', 'wiki': 'http://en.wikipedia.org/wiki/A_Night_at_the_Opera_(Queen_album)', 'hometown': 'http://dbpedia.org/resource/London', 'released': '21 November 1975', 'producers': ['Roy Thomas Baker', 'Queen'], 'writers': ['http://dbpedia.org/resource/Brian_May', 'http://dbpedia.org/resource/Freddie_Mercury', 'http://dbpedia.org/resource/John_Deacon', 'http://dbpedia.org/resource/Roger_Taylor_(Queen_drummer)', 'May', 'traditional, arr. May', 'Taylor', 'Mercury', 'Deacon'], 'awards': ['Gold', 'Platinum'], 'genres': ['Progressive rock', 'pop', 'heavy metal', 'hard rock', 'avant-pop'], 'related_artists': ['http://dbpedia.org/resource/Billy_Squier', 'http://dbpedia.org/resource/Brian_May__Brian_May__1', 'http://dbpedia.org/resource/Chyskillz', 'http://dbpedia.org/resource/Crushed_Butler', 'http://dbpedia.org/resource/Extreme_(band)', 'http://dbpedia.org/resource/Five_(group)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/Gary_Langan', 'http://dbpedia.org/resource/Gogmagog_(band)__Gogmagog__1', 'http://dbpedia.org/resource/Jamie_Moses', 'http://dbpedia.org/resource/Les_Variations', 'http://dbpedia.org/resource/Maggie_Ryder', 'http://dbpedia.org/resource/Marc_Martel', 'http://dbpedia.org/resource/Morgan_Fisher', 'http://dbpedia.org/resource/Mott_the_Hoople', 'http://dbpedia.org/resource/Patti_Russo', 'http://dbpedia.org/resource/Queen_+_Adam_Lambert', 'http://dbpedia.org/resource/Queen_+_Paul_Rodgers', 'http://dbpedia.org/resource/Reinhold_Mack', 'http://dbpedia.org/resource/Roy_Thomas_Baker', 'http://dbpedia.org/resource/Scarecrow_(band)', 'http://dbpedia.org/resource/Smile_(band)', 'http://dbpedia.org/resource/Sour_Milk_Sea_(band)', 'http://dbpedia.org/resource/Spike_Edney', 'http://dbpedia.org/resource/The_Brian_May_Band', 'http://dbpedia.org/resource/The_Cross_(band)', 'http://dbpedia.org/resource/Tim_Staffell'], 'abstract': 'A Night at the Opera is the fourth studio album by the British rock band Queen, released on 21 November 1975 by EMI Records in the United Kingdom and by Elektra Records in the United States. Produced by Roy Thomas Baker and Queen, it was reportedly the most expensive album ever recorded at the time of its release. Named after the Marx Brothers\' film of the same name, A Night at the Opera was recorded at various studios across a four-month period in 1975. Due to management issues, Queen had received almost none of the money they earned for their previous albums. Subsequently, they ended their contract with Trident Studios and did not use their studios for the album (the sole exception being "God Save the Queen", which had been recorded the previous year). They employed a complex production that extensively used multitrack recording, and the songs incorporated a wide range of styles, such as ballads, music hall, dixieland, hard rock and progressive rock influences. Aside from their usual equipment, Queen also utilised a diverse range of instruments such as a double bass, harp, ukulele and more. Upon release, A Night at the Opera topped the UK Albums Chart for four non-consecutive weeks. It peaked at number four on the US Billboard 200 and became the band\'s first platinum-certified album in the US. It also produced the band\'s most successful single in the UK, "Bohemian Rhapsody", which became their first UK number one. Despite being twice as long as the average length of singles during the 1970s, the song became immensely popular worldwide. Contemporary reviews for A Night at the Opera were mixed, with praise for its production and the diverse musical themes, and recognition as the album that established Queen as worldwide superstars. At the 19th Grammy Awards, it received Grammy Award nominations for Best Pop Vocal Performance by a Duo, Group or Chorus and Best Arrangement for Voices. It has been hailed as Queen\'s best album, and one of the greatest albums in music history. In 2020, Rolling Stone ranked it at number 128 on its list of the 500 Greatest Albums of All Time. In 2018, it was inducted into the Grammy Hall of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Favourite_Worst_Nightmare', 'album_name': 'Favourite Worst Nightmare', 'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Favourite_Worst_Nightmare', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'released': '18 April 2007', 'producers': ['James Ford', 'Mike Crossey'], 'writers': ['Alex Turner', 'Johanna Bennett', 'Jon McClure', "Nick O'Malley"], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Indie_rock', '*', 'Post-punk revival', 'garage rock'], 'related_artists': ['http://dbpedia.org/resource/Alain_Johannes', 'http://dbpedia.org/resource/Alison_Mosshart', 'http://dbpedia.org/resource/Andy_Nicholson', 'http://dbpedia.org/resource/Bill_Ryder-Jones', 'http://dbpedia.org/resource/Cam_Avery', 'http://dbpedia.org/resource/Colin_Lester', 'http://dbpedia.org/resource/Dead_Sons', 'http://dbpedia.org/resource/Dizzee_Rascal', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/Jay_Mya', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Johanna_Bennett', 'http://dbpedia.org/resource/Jon_McClure', 'http://dbpedia.org/resource/Josh_Homme', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Milburn_(band)', 'http://dbpedia.org/resource/Miles_Kane', 'http://dbpedia.org/resource/Mini_Mansions', 'http://dbpedia.org/resource/Mongrel_(band)', "http://dbpedia.org/resource/Nick_O'Malley", 'http://dbpedia.org/resource/Reverend_and_the_Makers', 'http://dbpedia.org/resource/Richard_Hawley', 'http://dbpedia.org/resource/Richard_Hawley__Richard_Hawley__1', 'http://dbpedia.org/resource/Ringside_(band)', 'http://dbpedia.org/resource/Stoney_(musician)', 'http://dbpedia.org/resource/The_Bottletop_Band', 'http://dbpedia.org/resource/The_Last_Shadow_Puppets', 'http://dbpedia.org/resource/The_Little_Flames', 'http://dbpedia.org/resource/The_Lost_Brothers', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Tyler_Parkford'], 'abstract': 'Favourite Worst Nightmare is the second studio album by English rock band Arctic Monkeys, released on 18 April 2007 by Domino Recording Company. Recorded in east London\'s Miloco Studios with producers James Ford and Mike Crossey, the album was preceded by the release of "Brianstorm" on 16 April 2007. This is the band\'s first album with bassist Nick O\'Malley, replacing their previous bassist Andy Nicholson, who left the band before the North America tour of the band\'s debut studio album. In comparison to the band\'s debut album Whatever People Say I Am, That\'s What I\'m Not, the album is considered more ambitious, with ambient sounds and expanded drum rhythms being introduced. Like Arctic Monkey\'s debut, Favourite Worst Nightmare was a widespread critical success, with critics highlighting the band\'s new emotional depth and Turner\'s matured songwriting. NME and Uncut ranked it the second-best album of 2007, while Dutch publication OOR named it the best of 2007. In retrospect, the album is considered the start of the band\'s change of sound with each of their albums after their debut. In its first week of release, the album sold over 227,000 copies, going straight to number one in the UK Albums Chart. "Brianstorm" and "Fluorescent Adolescent" were also both hits on the UK Singles Chart, with the former reaching number two on the chart. In the United States, the album debuted at number seven on the Billboard 200, selling around 44,000 copies in its first week. The album has since gone 3× platinum in the UK. It was nominated for the 2007 Mercury Prize and won Best British Album at the 2008 BRIT Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Unplugged_(Eric_Clapton_album)', 'album_name': 'Unplugged (Eric Clapton)', 'artist': 'http://dbpedia.org/resource/Eric_Clapton', 'artist_name': 'Eric Clapton', 'wiki': 'http://en.wikipedia.org/wiki/Unplugged_(Eric_Clapton_album)', 'released': '25 August 1992', 'producers': ['http://dbpedia.org/resource/Russ_Titelman'], 'writers': ['http://dbpedia.org/resource/Big_Bill_Broonzy', 'http://dbpedia.org/resource/Big_Maceo_Merriweather', 'http://dbpedia.org/resource/Bo_Diddley', 'http://dbpedia.org/resource/Eric_Clapton', 'http://dbpedia.org/resource/Folk_music', 'http://dbpedia.org/resource/Jerry_Lynn_Williams', 'http://dbpedia.org/resource/Jesse_Fuller', 'http://dbpedia.org/resource/Jim_Gordon_(musician)', 'http://dbpedia.org/resource/Jimmy_Cox', 'http://dbpedia.org/resource/Lead_Belly', 'http://dbpedia.org/resource/Muddy_Waters', 'http://dbpedia.org/resource/Robert_Cray', 'http://dbpedia.org/resource/Robert_Johnson', 'http://dbpedia.org/resource/Son_House', 'http://dbpedia.org/resource/Will_Jennings', 'Clapton'], 'awards': ['Diamond', 'Gold', 'Million', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Acoustic_music', 'http://dbpedia.org/resource/Country_blues'], 'related_artists': ['http://dbpedia.org/resource/Aashish_Khan', 'http://dbpedia.org/resource/Alan_Clark_(keyboardist)', 'http://dbpedia.org/resource/Albert_Lee__Albert_Lee__1', 'http://dbpedia.org/resource/Albhy_Galuten', 'http://dbpedia.org/resource/Amory_Kane', 'http://dbpedia.org/resource/Andy_Fairweather_Low', 'http://dbpedia.org/resource/Arthur_Louis', 'http://dbpedia.org/resource/Bill_Halverson_(producer)', 'http://dbpedia.org/resource/Billy_Preston', 'http://dbpedia.org/resource/Bob_Pridden', 'http://dbpedia.org/resource/Bobby_Keys', 'http://dbpedia.org/resource/Bobby_Whitlock__Bobby_Whitlock__1', 'http://dbpedia.org/resource/Bruce_Hornsby', 'http://dbpedia.org/resource/Buddy_Guy', 'http://dbpedia.org/resource/Bugs_Henderson', 'http://dbpedia.org/resource/Carl_Perkins', 'http://dbpedia.org/resource/Carl_Radle', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Chris_Mosdell', 'http://dbpedia.org/resource/Chris_Stainton', 'http://dbpedia.org/resource/Chuck_Leavell', 'http://dbpedia.org/resource/Dave_Carlock', 'http://dbpedia.org/resource/Dave_Mason', "http://dbpedia.org/resource/Dave_O'Donnell", 'http://dbpedia.org/resource/Delaney_Bramlett', 'http://dbpedia.org/resource/Dire_Straits', 'http://dbpedia.org/resource/Double_Trouble_(band)', 'http://dbpedia.org/resource/Doyle_Bramhall_II__Doyle_Bramhall_II__1', 'http://dbpedia.org/resource/Dr._John', 'http://dbpedia.org/resource/Duane_Allman', 'http://dbpedia.org/resource/Ed_Cherney', 'http://dbpedia.org/resource/Glyn_Johns__Glyn_Johns__1', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Henry_Spinetti', 'http://dbpedia.org/resource/Ian_Wallace_(drummer)', 'http://dbpedia.org/resource/J._J._Cale__J._J._Cale__1', 'http://dbpedia.org/resource/Jakob_Dylan', 'http://dbpedia.org/resource/Jamie_Oldaker', 'http://dbpedia.org/resource/Jerry_Lynn_Williams', 'http://dbpedia.org/resource/Jim_Keltner', 'http://dbpedia.org/resource/Joey_Spampinato', 'http://dbpedia.org/resource/John_Mayer_Trio', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Kim_Wilson', 'http://dbpedia.org/resource/Luis_Conte', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Maggie_Ryder', 'http://dbpedia.org/resource/Marc_Benno', 'http://dbpedia.org/resource/Marcella_Detroit', 'http://dbpedia.org/resource/Marcus_Miller', 'http://dbpedia.org/resource/Mark_Knopfler', 'http://dbpedia.org/resource/Mike_Vernon_(record_producer)', 'http://dbpedia.org/resource/Nathan_East', 'http://dbpedia.org/resource/Paul_Carrack', 'http://dbpedia.org/resource/Paul_Wassif', 'http://dbpedia.org/resource/Phil_Palmer', 'http://dbpedia.org/resource/Ray_Cooper', 'http://dbpedia.org/resource/Reverend_Zen', 'http://dbpedia.org/resource/Richard_Cole', 'http://dbpedia.org/resource/Richard_Johnson_(pianist)', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Rita_Coolidge', 'http://dbpedia.org/resource/Rob_Fraboni', 'http://dbpedia.org/resource/Robert_Cray', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Ronnie_Wood', 'http://dbpedia.org/resource/Ryo_Okumoto', 'http://dbpedia.org/resource/Shaun_Murphy_(singer)', 'http://dbpedia.org/resource/Simon_Climie', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/Steve_Winwood', 'http://dbpedia.org/resource/Tal_Wilkenfeld', 'http://dbpedia.org/resource/Will_Jennings', 'http://dbpedia.org/resource/Yvonne_Elliman'], 'abstract': 'Unplugged is a 1992 album by Eric Clapton, recorded at Bray Studios, England in front of an audience for the MTV Unplugged television series. It includes a version of the successful 1991 single "Tears in Heaven" and an acoustic version of "Layla". The album itself won three Grammy awards at the 35th Annual Grammy Awards in 1993 and became the bestselling live album of all time, and Clapton\'s bestselling album, selling 26 million copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Trouble_(Akon_album)', 'album_name': 'Trouble (álbum de Akon)', 'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Trouble_(Akon_album)', 'released': '29 June 2004', 'producers': ['Akon', 'Benny-D', 'Knobody', 'Shakim Williams', 'Disco D'], 'writers': ['Aliaune "Akon" Thiam', 'Aliaune "Akon" Thiam, Anthony Hamilton, Mark Batson', 'Aliaune "Akon" Thiam, Benny Darius', 'Aliaune "Akon" Thiam, Bobby Vinton, Gene Allen', 'Aliaune "Akon" Thiam, Bryan Boylai', 'Aliaune "Akon" Thiam, Curtis Jackson, Tony Yayo, Lloyd Banks, Jayceon Taylor', 'Aliaune "Akon" Thiam, Dave Kelly', 'Aliaune "Akon" Thiam, David Styles', 'Aliaune "Akon" Thiam, David Styles, Azad Azadpour', 'Aliaune "Akon" Thiam, David Styles, Elie "Booba" Yaffa', 'Aliaune "Akon" Thiam, Dwight Grant, Ricardo Thomas', 'Aliaune "Akon" Thiam, Jason Harrow', 'Aliaune "Akon" Thiam, Jason Harrow, Dwayne Chin-Quee', 'Aliaune "Akon" Thiam, Jason Harrow, Dwayne Quin-Chee', 'Aliaune "Akon" Thiam, Jerry Tineo, Lester Fernandez', 'Aliaune "Akon" Thiam, Lynval Golding, Terence Hall, Neville Staples', 'Aliaune "Akon" Thiam, Mark Andrews, Larry Anthony, Tamir Ruffin, James Green', 'Aliaune "Akon" Thiam, Miri Ben-Ari', 'Aliaune "Akon" Thiam, Peter Waddams', 'Aliaune "Akon" Thiam, Ron Bryant, Taylor Dow', 'Aliaune "Akon" Thiam, Ron Feemster, Sean Biggs', 'Aliaune "Akon" Thiam, Shakim Allah', 'Aliaune "Akon" Thiam, Shakim Williams', 'Aliaune "Akon" Thiam, Shawn Williams', 'Aliaune "Akon" Thiam, Torrey Pettigrew, Jonathan Mann', 'Aliaune "Akon" Thiam, Torrey Pettigrew, Jonathan Mann, Darrick Stephens'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Hip_hop_soul', 'http://dbpedia.org/resource/World_music'], 'related_artists': ['http://dbpedia.org/resource/2C_(musician)', 'http://dbpedia.org/resource/Ali_Vegas', 'http://dbpedia.org/resource/Aventura_(band)', 'http://dbpedia.org/resource/B_Howard', 'http://dbpedia.org/resource/Black_Violin', 'http://dbpedia.org/resource/Booba', 'http://dbpedia.org/resource/Boss_AC', 'http://dbpedia.org/resource/Brick_&amp;_Lace', 'http://dbpedia.org/resource/C-Murder', 'http://dbpedia.org/resource/Cha_Cha_(rapper)', 'http://dbpedia.org/resource/Claude_Kelly', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/Cyhi_the_Prynce', 'http://dbpedia.org/resource/D_Teck', 'http://dbpedia.org/resource/Danny_Mercer', 'http://dbpedia.org/resource/Detail_(record_producer)', 'http://dbpedia.org/resource/Djibril_Gibson_Kagni', 'http://dbpedia.org/resource/Don_Yute', 'http://dbpedia.org/resource/Faze_(musician)', 'http://dbpedia.org/resource/Flipsyde', 'http://dbpedia.org/resource/Giorgio_Tuinfort', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/J_Rand', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/Johnny_Wright_(music_manager)', 'http://dbpedia.org/resource/JonFX', 'http://dbpedia.org/resource/Jovi_(musician)', 'http://dbpedia.org/resource/Kardinal_Offishall', 'http://dbpedia.org/resource/Kat_DeLuna', 'http://dbpedia.org/resource/Kaye_Styles', 'http://dbpedia.org/resource/Lil_Zane', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Mohombi', 'http://dbpedia.org/resource/Nyanda', 'http://dbpedia.org/resource/OG_Boo_Dirty', 'http://dbpedia.org/resource/P-Money', 'http://dbpedia.org/resource/P-Square', 'http://dbpedia.org/resource/R._City', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Red_Café', 'http://dbpedia.org/resource/Robin_Schulz', 'http://dbpedia.org/resource/Savage_(rapper)__Savage__1', 'http://dbpedia.org/resource/Spoks_Man', 'http://dbpedia.org/resource/Styles_P', 'http://dbpedia.org/resource/Sway_(musician)', 'http://dbpedia.org/resource/T-Pain', 'http://dbpedia.org/resource/Tone_Trump', 'http://dbpedia.org/resource/Tony_Dawsey', 'http://dbpedia.org/resource/VL_Mike', 'http://dbpedia.org/resource/Vishal–Shekhar', 'http://dbpedia.org/resource/William_Wiik_Larsen', 'http://dbpedia.org/resource/Wizkid', 'http://dbpedia.org/resource/Wurld_(musician)', 'http://dbpedia.org/resource/Ya_Boy', 'http://dbpedia.org/resource/Yukmouth'], 'abstract': 'Trouble is the debut album by American singer Akon, released in on June 29, 2004. The album contains Akon\'s worldwide hit single, "Lonely", which was his commercial breakthrough. However, the release of "Locked Up" propelled Akon to sign a record deal. "Gunshot (Fiesta Riddim)" was released as promotional single on May 11, 2004. The album performed well in the United Kingdom where it peaked at No. 1 on the UK Album Chart. Trouble sold 25,000 copies in the first week, and certified Platinum by the RIAA in the United States and has sold 1.6 million copies.'}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/Thank_You_(Stone_Temple_Pilots_album)', 'album_name': 'Thank You (álbum de Stone Temple Pilots)', 'artist': 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'artist_name': 'Stone Temple Pilots', 'wiki': 'http://en.wikipedia.org/wiki/Thank_You_(Stone_Temple_Pilots_album)', 'hometown': 'http://dbpedia.org/resource/San_Diego', 'released': '11 November 2003', 'producers': ['Stone Temple Pilots', "Brendan O'Brien"], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Grunge', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Army_of_Anyone', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Dean_DeLeo', 'http://dbpedia.org/resource/Doug_Grean', 'http://dbpedia.org/resource/Dry_Cell_(band)', 'http://dbpedia.org/resource/Eric_Kretz__Eric_Kretz__1', 'http://dbpedia.org/resource/Jeff_Gutt', 'http://dbpedia.org/resource/Joss_Stone', 'http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Paul_Leary', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Robert_DeLeo', 'http://dbpedia.org/resource/Scott_Weiland', 'http://dbpedia.org/resource/Stephen_Shareaux', 'http://dbpedia.org/resource/Talk_Show_(band)', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Velvet_Revolver'], 'abstract': 'Thank You is a greatest hits collection released by the American alternative rock band Stone Temple Pilots on November 11, 2003 on Atlantic Records. The album has sold over 500,000 copies.'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/Bury_the_Hatchet_(album)', 'album_name': 'Bury the Hatchet', 'artist': 'http://dbpedia.org/resource/The_Cranberries', 'artist_name': 'The Cranberries', 'wiki': 'http://en.wikipedia.org/wiki/Bury_the_Hatchet_(album)', 'hometown': 'http://dbpedia.org/resource/Limerick', 'released': '19 April 1999', 'producers': ['Benedict Fenner'], 'awards': ['Gold', 'Platinum', 'Silver'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Folk_rock', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Jangle_pop'], 'related_artists': ['http://dbpedia.org/resource/Arkitekt', 'http://dbpedia.org/resource/D.A.R.K.', 'http://dbpedia.org/resource/Denny_DeMarchi', 'http://dbpedia.org/resource/Mono_Band__Mono_Band__1', 'http://dbpedia.org/resource/Noel_Hogan', 'http://dbpedia.org/resource/Steve_DeMarchi', 'http://dbpedia.org/resource/The_Hitchers_(Irish_band)'], 'abstract': 'Bury the Hatchet is the fourth studio album by Irish alternative rock band The Cranberries, released on 19 April 1999. In the US, the album had shipped 500,000 copies as of 2 June 1999, and received a gold certification. The album is the first album released by the band after their first hiatus, which began in September 1996. Dolores O\'Riordan had taken that time to heal from stress-induced diseases, and also had her first child, Taylor, during this period. This last fact influenced some of the tracks on the album, most notably "Animal Instinct" and "You and Me". The themes of the songs vary from maternity and children to divorce and child abuse.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/L.P._(The_Rembrandts_album)', 'album_name': 'L.P. (The Rembrandts album)', 'artist': 'http://dbpedia.org/resource/The_Rembrandts', 'artist_name': 'The Rembrandts', 'wiki': 'http://en.wikipedia.org/wiki/L.P._(The_Rembrandts_album)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '23 May 1995', 'producers': ['Don Smith'], 'writers': ['David Crane, Marta Kauffman, Michael Skloff, Allee Willis, Solem, Wilde', 'Solem, Wilde, Joe Laswell', 'Solem, Wilde, Mastelotto', 'Solem, Wilde, Pat Mastelotto', 'Solem, Wilde, Scott Miller'], 'related_artists': ['http://dbpedia.org/resource/Danny_Wilde_(musician)', 'http://dbpedia.org/resource/Dave_Schulz_(musician)', 'http://dbpedia.org/resource/Pat_Mastelotto', "http://dbpedia.org/resource/The_Three_O'Clock"], 'abstract': 'L.P. (also titled The Rembrandts: L.P.) is the third album by the American pop rock duo The Rembrandts. It was released on East West Records on May 23, 1995. It is the duo\'s highest-charting album to date, reaching No. 23 on the Billboard 200 album chart in August 1995, and has been certified platinum. The fifteenth track (which was a "hidden track" on the original album release) is "I\'ll Be There for You", which was used as the theme song for the popular sitcom Friends.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Very_Best_of_Sheryl_Crow', 'album_name': 'The Very Best of Sheryl Crow', 'artist': 'http://dbpedia.org/resource/Sheryl_Crow', 'artist_name': 'Sheryl Crow', 'wiki': 'http://en.wikipedia.org/wiki/The_Very_Best_of_Sheryl_Crow', 'producers': ['http://dbpedia.org/resource/Bill_Bottrell', 'http://dbpedia.org/resource/Garth_Fundis', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/John_Shanks', 'http://dbpedia.org/resource/Kid_Rock', 'Sheryl Crow'], 'writers': ['http://dbpedia.org/resource/Bill_Bottrell', 'http://dbpedia.org/resource/Cat_Stevens', 'http://dbpedia.org/resource/David_Baerwald', 'http://dbpedia.org/resource/Kevin_Gilbert_(musician)', 'http://dbpedia.org/resource/Kid_Rock', 'http://dbpedia.org/resource/Sheryl_Crow', 'http://dbpedia.org/resource/Wyn_Cooper', 'Crow, Trott', 'Cooper, Crow, Baerwald, Bottrell, Gilbert', 'Crow, Shanks', 'Stevens', 'Crow, Jeff Trott', 'Crow, John Shanks', 'Crow, Bottrell, Baerwald, Gilbert, David Ricketts', 'Crow, Bottrell, Baerwald, Gilbert, MacLeod, Ricketts', 'Crow, MacLeod, Trott', 'Crow, Bottrell', 'Crow', 'Crow, Bottrell, Baerwald, Gilbert, Ricketts', 'Crow, Brian MacLeod, Trott'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Folk_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Audley_Freed', 'http://dbpedia.org/resource/Billy_Mann', 'http://dbpedia.org/resource/Bobby_Keys', "http://dbpedia.org/resource/Dave_O'Donnell", 'http://dbpedia.org/resource/David_Ricketts', 'http://dbpedia.org/resource/Doug_Grean', 'http://dbpedia.org/resource/Doyle_Bramhall_II__Doyle_Bramhall_II__1', 'http://dbpedia.org/resource/Ephraim_Owens', 'http://dbpedia.org/resource/Greg_Leisz', 'http://dbpedia.org/resource/Jay_Oliver', 'http://dbpedia.org/resource/Jeff_Trott', 'http://dbpedia.org/resource/Jemimah_Puddleduck', 'http://dbpedia.org/resource/Jeremy_Stacey', 'http://dbpedia.org/resource/Jon_Button', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Kid_Rock', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/Misty_Love', 'http://dbpedia.org/resource/Pepper_MaShay', 'http://dbpedia.org/resource/Peter_Stroud', 'http://dbpedia.org/resource/Reverend_Zen', 'http://dbpedia.org/resource/Scott_F._Crago', 'http://dbpedia.org/resource/Sierra_Noble', 'http://dbpedia.org/resource/Steve_Berlin', 'http://dbpedia.org/resource/The_Blue_News', 'http://dbpedia.org/resource/The_Highwomen', 'http://dbpedia.org/resource/Todd_Wolfe', 'http://dbpedia.org/resource/Wendy_Melvoin', 'http://dbpedia.org/resource/Wire_Train'], 'abstract': 'The Very Best of Sheryl Crow is a greatest hits album by American singer-songwriter Sheryl Crow, released on October 13, 2003 in the United Kingdom and November 4, 2003 in the United States. The album was a commercial success, reaching No. 2 on both the UK Albums Chart and the Billboard 200, selling four million units in the US as of January 2008. The album also received a platinum accreditation by the International Federation of the Phonographic Industry for sales of over one million copies in Europe.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Cloud_Nine_(Kygo_album)', 'album_name': 'Cloud Nine (Kygo)', 'artist': 'http://dbpedia.org/resource/Kygo', 'artist_name': 'Kygo', 'wiki': 'http://en.wikipedia.org/wiki/Cloud_Nine_(Kygo_album)', 'hometown': 'http://dbpedia.org/resource/Bergen', 'released': '13 May 2016', 'producers': ['http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Mark_Ralph_(record_producer)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'writers': ['http://dbpedia.org/resource/John_Legend', 'http://dbpedia.org/resource/Labrinth', 'http://dbpedia.org/resource/Mark_Williams_(singer)', 'http://dbpedia.org/resource/Marli_Harwood', 'http://dbpedia.org/resource/Maty_Noyes', 'http://dbpedia.org/resource/Parson_James', 'http://dbpedia.org/resource/Sia_(musician)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Deep_house', 'http://dbpedia.org/resource/Downtempo', 'http://dbpedia.org/resource/Tropical_house'], 'related_artists': ['http://dbpedia.org/resource/Alan_Walker_(music_producer)', 'http://dbpedia.org/resource/Avicii', 'http://dbpedia.org/resource/Chelsea_Cutler', 'http://dbpedia.org/resource/Coldplay', 'http://dbpedia.org/resource/Conrad_Sewell', 'http://dbpedia.org/resource/Daft_Punk', 'http://dbpedia.org/resource/Dillon_Francis', 'http://dbpedia.org/resource/Donna_Summer', 'http://dbpedia.org/resource/Ed_Sheeran', 'http://dbpedia.org/resource/Ella_Henderson', 'http://dbpedia.org/resource/Ellie_Goulding', 'http://dbpedia.org/resource/Imagine_Dragons', 'http://dbpedia.org/resource/James_Hersey', 'http://dbpedia.org/resource/Julia_Michaels', 'http://dbpedia.org/resource/Kodaline', 'http://dbpedia.org/resource/Maty_Noyes', 'http://dbpedia.org/resource/Miguel_(singer)', 'http://dbpedia.org/resource/OneRepublic', 'http://dbpedia.org/resource/Parson_James', 'http://dbpedia.org/resource/Rita_Ora', 'http://dbpedia.org/resource/Sandro_Cavazza', 'http://dbpedia.org/resource/Sasha_Alex_Sloan', 'http://dbpedia.org/resource/Selena_Gomez', 'http://dbpedia.org/resource/The_Chainsmokers', 'http://dbpedia.org/resource/The_Night_Game', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Tina_Turner', 'http://dbpedia.org/resource/Tyga', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Whitney_Houston', 'http://dbpedia.org/resource/Will_Heard', 'http://dbpedia.org/resource/Zak_Abel', 'http://dbpedia.org/resource/Zara_Larsson'], 'abstract': 'Cloud Nine is the debut studio album by Norwegian DJ and record producer Kygo and features the likes of Maty Noyes, Conrad Sewell, Parson James, Tom Odell, Foxes, Matt Corby, Rhodes, Will Heard, Julia Michaels, James Vincent McMorrow, Kodaline, Labrinth, John Legend and Angus &amp; Julia Stone. It was released on 13 May 2016 by Sony Music and Ultra Music.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Shake_Your_Money_Maker_(album)', 'album_name': 'Shake Your Money Maker (album)', 'artist': 'http://dbpedia.org/resource/The_Black_Crowes', 'artist_name': 'The Black Crowes', 'wiki': 'http://en.wikipedia.org/wiki/Shake_Your_Money_Maker_(album)', 'hometown': 'http://dbpedia.org/resource/Marietta,_Georgia', 'released': '13 February 1990', 'producers': ['http://dbpedia.org/resource/George_Drakoulias'], 'genres': ['Southern rock', 'blues rock', 'hard rock', 'rock and roll'], 'related_artists': ['http://dbpedia.org/resource/Adam_MacDougall_(musician)', 'http://dbpedia.org/resource/Andy_Hess', 'http://dbpedia.org/resource/Audley_Freed', 'http://dbpedia.org/resource/Bad_Company', 'http://dbpedia.org/resource/Brand_New_Immortals', 'http://dbpedia.org/resource/Chris_Robinson_Brotherhood', 'http://dbpedia.org/resource/Chuck_Leavell', 'http://dbpedia.org/resource/Cry_of_Love_(band)', 'http://dbpedia.org/resource/Earthless', 'http://dbpedia.org/resource/Eddie_Harsch', 'http://dbpedia.org/resource/Eric_%22Bobo%22_Correa__Eric_Bobo_Correa__1', "http://dbpedia.org/resource/Gov't_Mule", 'http://dbpedia.org/resource/Jackie_Greene', 'http://dbpedia.org/resource/Jeff_Cease', 'http://dbpedia.org/resource/Jimmy_Page', 'http://dbpedia.org/resource/Johnny_Colt', 'http://dbpedia.org/resource/L.E.O._(band)', 'http://dbpedia.org/resource/Luther_Dickinson', 'http://dbpedia.org/resource/Marc_Ford', 'http://dbpedia.org/resource/North_Mississippi_Allstars', 'http://dbpedia.org/resource/Paul_Stacey', 'http://dbpedia.org/resource/Phil_Lesh_and_Friends', 'http://dbpedia.org/resource/Rich_Robinson', 'http://dbpedia.org/resource/Rock_Star_Supernova', 'http://dbpedia.org/resource/Steve_Gorman', 'http://dbpedia.org/resource/Sven_Pipien', 'http://dbpedia.org/resource/The_Detroit_Cobras', 'http://dbpedia.org/resource/The_Magpie_Salute', 'http://dbpedia.org/resource/The_Rolling_Stones', 'http://dbpedia.org/resource/Trigger_Hippy'], 'abstract': 'Shake Your Money Maker (also stylized as The Black Crowes Present: $hake Your Money Maker) is the debut studio album by American rock band the Black Crowes, released on February 13, 1990 on Def American Recordings. It is the only album by the band to feature guitarist Jeff Cease. The album is named after a classic blues song written by Elmore James. The Black Crowes have played the song live many times over the years, but it is not included on this album. Shake Your Money Maker peaked at No. 4 on the Billboard 200, and two of its singles, "Hard to Handle" and "She Talks to Angels", reached No. 1 on the Mainstream Rock Tracks chart. "Jealous Again", "Twice As Hard" and "Seeing Things" were also charting singles in the United States. Shake Your Money Maker is the Black Crowes\' best selling album, having sold more than 5 million copies. On January 8, 2021, the Black Crowes announced that a 30th anniversary edition of the album would be released on February 26, 2021, containing the original album remastered in addition to three previously unreleased songs, outtakes, two demos from the Mr. Crowe\'s Garden era, and a live performance set recorded in 1990 at Center Stage in Atlanta. Previously unreleased track "Charming Mess" was released on the same day as the announcement.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/She's_So_Unusual", 'album_name': "She's So Unusual", 'artist': 'http://dbpedia.org/resource/Cyndi_Lauper', 'artist_name': 'Cyndi Lauper', 'wiki': "http://en.wikipedia.org/wiki/She's_So_Unusual", 'released': '14 October 1983', 'producers': ['Rick Chertoff', 'William Wittman'], 'writers': ['http://dbpedia.org/resource/Abner_Silver', 'http://dbpedia.org/resource/Al_Lewis_(lyricist)', 'http://dbpedia.org/resource/Al_Sherman', 'http://dbpedia.org/resource/Cinderella_(band)', 'http://dbpedia.org/resource/Jules_Shear', 'http://dbpedia.org/resource/Prince_(musician)', 'http://dbpedia.org/resource/Rick_Chertoff', 'http://dbpedia.org/resource/Robert_Hazard', 'http://dbpedia.org/resource/The_Brains', 'Lauper', 'Cyndi Lauper, Rob Hyman', 'Lauper, John Turi', 'Stephen Broughton Lunt', 'Lauper, Shear', 'Hasse Huss, Mikael Rickfors'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'new wave'], 'related_artists': ['http://dbpedia.org/resource/Blackjack_(American_band)', 'http://dbpedia.org/resource/David_Rosenthal_(musician)', 'http://dbpedia.org/resource/Erin_Hill', 'http://dbpedia.org/resource/Kate_Alexa', 'http://dbpedia.org/resource/Kleerup', 'http://dbpedia.org/resource/Pat_Buchanan_(musician)', 'http://dbpedia.org/resource/Robert_Hazard', 'http://dbpedia.org/resource/Robin_Danar', 'http://dbpedia.org/resource/Scott_Bomar', 'http://dbpedia.org/resource/Skoota_Warner', 'http://dbpedia.org/resource/Sterling_Campbell', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Hooters', 'http://dbpedia.org/resource/The_Peach_Kings', 'http://dbpedia.org/resource/Vicki_Sue_Robinson'], 'abstract': 'She\'s So Unusual is the debut studio album by American singer and songwriter Cyndi Lauper, released on October 14, 1983, by Portrait Records. The album was re-released in 2014 to commemorate its 30th anniversary, and was called She\'s So Unusual: A 30th Anniversary Celebration. The re-release contains demos and remixes of previously released material, as well as new artwork. In 1978, Lauper formed the band Blue Angel. The band soon signed a recording contract with Polydor Records; however, their debut album, Blue Angel, was a commercial failure. The band parted ways after firing their manager, who sued Lauper for $80,000 and forced her into bankruptcy. Lauper went on to sing in many New York night clubs, and caught the eye of David Wolf, who became her manager and subsequently got her signed to Portrait Records. Six singles were released from the album, with "Girls Just Want to Have Fun" becoming a worldwide hit and her first song to chart on the Billboard Hot 100. "Time After Time" became her first number-one hit on the chart and experienced similar success worldwide. Lauper found success with the next two singles as well, with both "She Bop" and "All Through the Night" peaking in the top five. This makes Lauper the first female singer to have four top five singles on the Hot 100 from one album. She\'s So Unusual was promoted by the Fun Tour throughout 1983 and 1984. The album is primarily new wave-based, with many of the songs being influenced by synthpop and pop rock. Upon its release, the album received positive reviews from music critics, who noted Lauper\'s unique vocals. Lauper earned several awards and accolades for the album, including two Grammy Awards at the 27th Grammy Awards, one of which was for Best New Artist. She\'s So Unusual peaked at number four on the Billboard 200 chart and stayed in the chart\'s top forty for 65 weeks. It has sold over 6 million copies in the United States and 16 million copies worldwide. This makes it Lauper\'s best-selling album to date and one of the best-selling albums of the 1980s. The album ranked at number 487 on Rolling Stone\'s list of The 500 Greatest Albums of All Time in 2003, maintaining that ranking in the 2012 update and shooting up to number 184 in the 2020 reboot of the list. It also ranked at #41 on Rolling Stone\'s list of Women Who Rock: The 50 Greatest Albums of All Time in 2012. In 2019, the album was selected by the Library of Congress for preservation in the National Recording Registry for being "culturally, historically, or aesthetically significant".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/François_(album)', 'album_name': 'François (album)', 'artist': 'http://dbpedia.org/resource/Desireless', 'artist_name': 'Desireless', 'wiki': 'http://en.wikipedia.org/wiki/François_(album)', 'producers': ['http://dbpedia.org/resource/Jean_Michel_Rivat'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Synth-pop'], 'abstract': 'François is the French-language debut album by Desireless, released in 1989 and re-released in 2001. The single "Voyage, voyage" was a chart topper in many European and Asian single charts.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Order_in_Decline', 'album_name': 'Order in Decline', 'artist': 'http://dbpedia.org/resource/Sum_41', 'artist_name': 'Sum 41', 'wiki': 'http://en.wikipedia.org/wiki/Order_in_Decline', 'hometown': 'http://dbpedia.org/resource/Ajax,_Ontario', 'released': '19 July 2019', 'producers': ['http://dbpedia.org/resource/Deryck_Whibley'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Hard_rock', 'punk rock', 'Heavy metal', 'melodic hardcore'], 'related_artists': ['http://dbpedia.org/resource/Billy_Talent', 'http://dbpedia.org/resource/Brown_Brigade', 'http://dbpedia.org/resource/Closet_Monster_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Darrin_Pfeiffer', 'http://dbpedia.org/resource/Dave_Baksh', 'http://dbpedia.org/resource/Devin_Bronson', 'http://dbpedia.org/resource/Fonzie_(band)__Fonzie__1', 'http://dbpedia.org/resource/Gob_(band)', 'http://dbpedia.org/resource/Greig_Nori', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Marc_Costanzo', 'http://dbpedia.org/resource/Mark_Spicoluk', 'http://dbpedia.org/resource/Matt_Hyde', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Organ_Thieves', 'http://dbpedia.org/resource/Permanent_Me', 'http://dbpedia.org/resource/Street_Drum_Corps', 'http://dbpedia.org/resource/The_Operation_M.D.', 'http://dbpedia.org/resource/Tom_Thacker_(musician)', 'http://dbpedia.org/resource/Treble_Charger'], 'abstract': 'Order in Decline is the seventh studio album by Canadian rock band Sum 41. It was released on July 19, 2019, by Hopeless Records. The band released the lead single "Out for Blood" on April 24, 2019. The second single from the album, "A Death in the Family" was released on June 11, 2019. The band released the third single "Never There" on June 18, 2019. The fourth single "45 (A Matter of Time)" was released on July 8, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Jagged_Little_Pill', 'album_name': 'Jagged Little Pill', 'artist': 'http://dbpedia.org/resource/Alanis_Morissette', 'artist_name': 'Alanis Morissette', 'wiki': 'http://en.wikipedia.org/wiki/Jagged_Little_Pill', 'released': '13 June 1995', 'producers': ['http://dbpedia.org/resource/Glen_Ballard'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['*Alternative rock', '*pop rock', '*post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Belén_Arjona', 'http://dbpedia.org/resource/Boyd_Tinsley', 'http://dbpedia.org/resource/Chris_Chaney', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/Eric_Avery', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Guy_Sigsworth', 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/Matt_Laug', 'http://dbpedia.org/resource/Paul_Livingstone__Paul_Livingstone__1', 'http://dbpedia.org/resource/Peter_Freeman_(musician)', 'http://dbpedia.org/resource/Remy_Zero', 'http://dbpedia.org/resource/Richard_F._W._Davis', 'http://dbpedia.org/resource/Souleye_(hip_hop_artist)', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Tim_Thorney', 'http://dbpedia.org/resource/Zac_Rae'], 'abstract': 'Jagged Little Pill is the third studio album by Canadian singer Alanis Morissette, released on June 13, 1995, through Maverick. It was her first album to be released worldwide. It marked a stylistic departure from the dance-pop sound of her first two albums, Alanis (1991) and Now Is the Time (1992). Morissette began work on the album after moving from her hometown Ottawa to Toronto; she made little progress until she traveled to Los Angeles, where she met producer Glen Ballard. Morissette and Ballard had an instant connection and began co-writing and experimenting with sounds. The experimentation resulted in an alternative rock album that takes influence from post-grunge and pop rock, and features guitars, keyboards, drum machines, and harmonica. The lyrics touch upon themes of aggression and unsuccessful relationships, while Ballard introduced a pop sensibility to Morissette\'s angst. The title of the album is taken from the first verses of the song "You Learn". Jagged Little Pill was a commercial success, topping the charts in thirteen countries. With sales of over 33 million copies worldwide, it is one of the best-selling albums of all time and made Morissette the first Canadian to achieve double diamond sales. Jagged Little Pill was nominated for nine Grammy Awards, winning five, including Album of the Year, making the 21-year-old Morissette, at the time, the youngest artist to win the top honor. Rolling Stone ranked Jagged Little Pill at No. 69 on its 2020 list of "The 500 Greatest Albums of All Time". The album has been re-released twice: on October 30, 2015, in a 2-disc deluxe edition and a 4-disc collector\'s edition commemorating its 20th anniversary; and on June 26, 2020, in a 25th anniversary deluxe edition. An acoustic re-recording of the album was released on June 13, 2005, to mark its 10th anniversary. A musical stage production based on the album premiered at the American Repertory Theater in Cambridge on May 5, 2018; it transferred to Broadway the following year, and was nominated for 15 Tony Awards including Best Musical. A world tour celebrating the 25th anniversary of Jagged Little Pill began in early 2020 but was postponed due to the COVID-19 pandemic.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Even_in_the_Quietest_Moments...', 'album_name': 'Even in the Quietest Moments …', 'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Even_in_the_Quietest_Moments...', 'hometown': 'http://dbpedia.org/resource/London', 'released': '10 April 1977', 'producers': ['http://dbpedia.org/resource/Supertramp'], 'writers': ['Davies', 'Hodgson', 'Rick Davies', 'Roger Hodgson'], 'awards': ['Gold', 'Platinum', 'Silver'], 'genres': ['http://dbpedia.org/resource/Progressive_rock'], 'related_artists': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Scott_Page', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/The_Alan_Bown_Set'], 'abstract': 'Even in the Quietest Moments... is the fifth album by the English rock band Supertramp, released in April 1977. It was recorded mainly at Caribou Ranch Studios in Colorado with overdubs, vocals, and mixing completed at The Record Plant in Los Angeles. This was Supertramp\'s first album to use engineer Peter Henderson, who would work with the band for their next three albums as well. Even in the Quietest Moments… reached number 16 on the Billboard Pop Albums Chart in 1977 and within a few months of release became Supertramp\'s first Gold (500,000 copies or more) selling album in the US. In addition, "Give a Little Bit" became a US Top 20 single and reached number 29 on the UK Singles Chart. While "Give a Little Bit" was the big hit, both "Fool\'s Overture" and the title track also got a fair amount of FM album-rock play. In 1978, Even in the Quietest Moments… was ranked 63rd in The World Critic Lists, which recognised the 200 greatest albums of all time as voted for by notable rock critics and DJs.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/Just_Supposin'", 'album_name': "Just Supposin'", 'artist': 'http://dbpedia.org/resource/Status_Quo_(band)', 'artist_name': 'Status Quo', 'wiki': "http://en.wikipedia.org/wiki/Just_Supposin'", 'hometown': 'http://dbpedia.org/resource/London', 'released': '17 October 1980', 'producers': ['John Eden', 'Status Quo'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Boogie_rock', 'http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/New_wave_music'], 'related_artists': ['http://dbpedia.org/resource/Alan_Lancaster', 'http://dbpedia.org/resource/Andy_Bown', 'http://dbpedia.org/resource/Bob_Young_(musician)', 'http://dbpedia.org/resource/Climax_Blues_Band', 'http://dbpedia.org/resource/Francis_Rossi', 'http://dbpedia.org/resource/Geraint_Watkins', 'http://dbpedia.org/resource/Jeff_Rich', 'http://dbpedia.org/resource/John_Coghlan_(drummer)', 'http://dbpedia.org/resource/John_Edwards_(musician)', 'http://dbpedia.org/resource/Judas_Jump', 'http://dbpedia.org/resource/Kane_Roberts', 'http://dbpedia.org/resource/Matt_Letley', 'http://dbpedia.org/resource/Nick_Fyffe', 'http://dbpedia.org/resource/Pete_Kircher', 'http://dbpedia.org/resource/Richie_Malone', 'http://dbpedia.org/resource/Rick_Parfitt', 'http://dbpedia.org/resource/Roy_Lynes', 'http://dbpedia.org/resource/Stretch_(band)', 'http://dbpedia.org/resource/The_Herd_(British_band)', 'http://dbpedia.org/resource/The_Party_Boys'], 'abstract': 'Just Supposin\' is the thirteenth album by Status Quo. Co-produced by the group and John Eden, it was recorded at Windmill Lane Studios, Dublin. Released on 17 October 1980, it entered the UK albums chart at number 4. Three tracks were issued as singles the same year, "What You\'re Proposing", and a double A-side, "Lies"/"Don\'t Drive My Car". At the end of 1981 an edited version of another track, the uncharacteristic ballad "Rock \'n\' Roll", appeared as a single after the release of Quo\'s subsequent album Never Too Late. It was a prolific recording session, which included enough material for Never Too Late, released only five months later. "Over the Edge" was co-written by bass player Alan Lancaster and Keith Lamb, lead singer of British bands The Case, Sleepy Talk and Mr. Toad, and founder and lead singer of Australia\'s successful glam rock band Hush. The cover art work features the launch phase of a UGM-84 Harpoon submarine missile.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/X&amp;Y', 'album_name': 'X&amp;Y', 'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/X&amp;Y', 'hometown': 'http://dbpedia.org/resource/London', 'released': '06 June 2005', 'producers': ['Coldplay', 'Ken Nelson', 'Danton Supple'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Ambient_music', 'http://dbpedia.org/resource/Space_rock'], 'related_artists': ['http://dbpedia.org/resource/Apparatjik', 'http://dbpedia.org/resource/Black_Submarine', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Danton_Supple', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Faultline_(musician)', 'http://dbpedia.org/resource/Federico_Vindver', 'http://dbpedia.org/resource/Jon_Hopkins', 'http://dbpedia.org/resource/Juanita_Stein', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Markus_Dravs', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Richard_Ashcroft', 'http://dbpedia.org/resource/Rik_Simpson', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_Undeserving', 'http://dbpedia.org/resource/We_Are_King'], 'abstract': 'X&amp;Y is the third studio album by the British rock band Coldplay. It was released on 6 June 2005 by Parlophone in the United Kingdom, and a day later by Capitol Records in the United States. The album was produced by Coldplay and producer Danton Supple. It is noted for its troubled and urgent development, with producer Ken Nelson having originally been tasked with producing much of the album; however, many songs written during his sessions were discarded owing to the band\'s dissatisfaction with them. The album\'s cover art is a combination of colours and blocks, which is a representation of the Baudot code. The album contains twelve tracks and an additional hidden track, "Til Kingdom Come". It is omitted from the track listing on the album sleeve, but listed as "+" on the disc label and inside the album booklet. It was originally planned for American country star Johnny Cash to record it with lead singer Chris Martin, but Cash died before he was able to do so. The song "Talk" appeared in the track listing, although after it leaked online in early 2005 it was thought to have been downgraded to a B-side for the album\'s subsequent single releases. X&amp;Y was released after a considerable amount of global anticipation. Overall reaction to the album was generally positive, though some critics cited it as being inferior to its predecessors. It was a significant commercial success, reaching the top spot of many charts worldwide, including the United Kingdom and United States, being Coldplay\'s first album to top the US chart. With accumulated sales of 8.3 million units in 2005 alone, X&amp;Y was the best-selling music album released in 2005. The album has sold over 13 million copies worldwide. It spawned the singles "Speed of Sound", "Fix You", "Talk", "The Hardest Part", "What If", and "White Shadows".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Achtung_Baby', 'album_name': 'Achtung Baby', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/Achtung_Baby', 'hometown': 'http://dbpedia.org/resource/Dublin', 'released': '18 November 1991', 'producers': ['Daniel Lanois', 'Brian Eno'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Bagatelle_(band)', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Dik_Evans', 'http://dbpedia.org/resource/Florence_and_the_Machine', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Josh_Garza', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_McGuinness', 'http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Sikter', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Mighty_Manatees', 'http://dbpedia.org/resource/Vinnie_Kilduff', 'http://dbpedia.org/resource/Virgin_Prunes'], 'abstract': 'Achtung Baby (/ˈæktʊŋ/) is the seventh studio album by Irish rock band U2. It was produced by Daniel Lanois and Brian Eno, and was released on 18 November 1991 on Island Records. After criticism of their 1988 release Rattle and Hum, U2 shifted their direction to incorporate influences from alternative rock, industrial music, and electronic dance music into their sound. Thematically, Achtung Baby is darker, more introspective, and at times more flippant than their previous work. The album and the subsequent multimedia-intensive Zoo TV Tour were central to the group\'s 1990s reinvention, by which they abandoned their earnest public image for a more lighthearted and self-deprecating one. Seeking inspiration from German reunification, U2 began recording Achtung Baby at Berlin\'s Hansa Studios in October 1990. The sessions were fraught with conflict, as the band argued over their musical direction and the quality of their material. After tension and slow progress nearly prompted the group to disband, they made a breakthrough with the improvised writing of the song "One". Morale and productivity improved during subsequent recording sessions in Dublin, where the album was completed in 1991. To confound the public\'s expectations of the band and their music, U2 chose the record\'s facetious title and colourful multi-image sleeve. Achtung Baby is one of U2\'s most successful records; it received favourable reviews and debuted at number one on the US Billboard 200 Top Albums, while topping the charts in many other countries. Five songs were released as commercial singles, all of which were chart successes, including "One", "Mysterious Ways", and "The Fly". The album has sold 18 million copies worldwide and won a Grammy Award in 1993 for Best Rock Performance by a Duo or Group with Vocal. Achtung Baby has since been acclaimed by writers and music critics as one of the greatest albums of all time. The record was reissued in October 2011 for its 20th anniversary, and again in November 2021 for its 30th anniversary.'}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Illuminate_(Shawn_Mendes_album)', 'album_name': 'Illuminate', 'artist': 'http://dbpedia.org/resource/Shawn_Mendes', 'artist_name': 'Shawn Mendes', 'wiki': 'http://en.wikipedia.org/wiki/Illuminate_(Shawn_Mendes_album)', 'released': '23 September 2016', 'producers': ['*Jake Gosling', '*Teddy Geiger', '*Andrew Maury', '*Dan Romer', '*Daylight', '*Laleh Pourkarim', '*Scott Harris'], 'writers': ['http://dbpedia.org/resource/Danny_Parker_(songwriter)', 'http://dbpedia.org/resource/Geoff_Warburton', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/Kid_Harpoon', 'http://dbpedia.org/resource/Laleh_(singer)', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Shawn_Mendes', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'Warburton', 'Gustaf Thörn', 'Zubin Thakkar', 'Mendes', 'Parker', 'Juber', 'Zmishlany', 'Geiger', 'Harris'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['*Pop', '*rock', '*blues'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Maury', 'http://dbpedia.org/resource/Brockhampton_(band)', 'http://dbpedia.org/resource/Dan_Kanter', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Jack_&amp;_Jack', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/James_TW', 'http://dbpedia.org/resource/Joe_LaPorta', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_Vamps_(British_band)', 'http://dbpedia.org/resource/William_Singe', 'http://dbpedia.org/resource/Zac_Brown_Band'], 'abstract': 'Illuminate is the second studio album by Canadian singer and songwriter Shawn Mendes. It was released on September 23, 2016, through Island Records and Universal Music Group. Musically, the album contains music genres pop, rock and blues. The album debuted atop the US Billboard 200 and the Canadian Albums Chart. It was preceded by the lead single "Treat You Better", which reached the top 10 on the Billboard Hot 100. This album was supported by the Illuminate World Tour, which began in March 2017.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Read_My_Lips_(Sophie_Ellis-Bextor_album)', 'album_name': 'Read My Lips', 'artist': 'http://dbpedia.org/resource/Sophie_Ellis-Bextor', 'artist_name': 'Sophie Ellis-Bextor', 'wiki': 'http://en.wikipedia.org/wiki/Read_My_Lips_(Sophie_Ellis-Bextor_album)', 'released': '27 August 2001', 'producers': ['Gregg Alexander', 'Richard Hall', 'Ben Hillier', 'Alex James', 'Korpi &amp; Blackcell', 'Damian LeGassick', 'Steve Osborne', 'Marco Rakascan', 'Matt Rowe', 'Spiller', 'TommyD', 'Jeremy Wheatley', 'Gary Wilkinson'], 'writers': ['Alex James', 'Alexander', 'Aller', 'Andy Boyd', 'Ben Hillier', 'Bob Esty', 'Boyd', 'Danvers', 'Davis', 'Ellis-Bextor', 'Esty', 'Gregg Alexander', 'Hall', 'Henrik Korpi', 'Hillier', 'James', 'Johansson', 'Jony Rockstar', 'Korpi', 'Mathias Johansson', 'Michele Aller', 'Montana', 'Newell', 'Nina Woodford', 'Rez', 'Richard Hall', 'Rob Davis', 'Rockstar', 'Ronnie Walker', 'Ross Newell', 'Rowe', 'Sophie Ellis-Bextor', 'Spiller', 'Tommy Danvers', 'Vincent Montana, Jr.', 'Walker', 'Woodford'], 'awards': ['Gold', 'Platinum'], 'genres': ['Dance-pop', 'disco', 'electropop'], 'related_artists': ['http://dbpedia.org/resource/Dimitri_Tikovoï', 'http://dbpedia.org/resource/Ed_Harcourt', 'http://dbpedia.org/resource/Fred_Schneider', 'http://dbpedia.org/resource/Mohair_(band)', 'http://dbpedia.org/resource/Paul_Oakenfold', 'http://dbpedia.org/resource/Yoad_Nevo'], 'abstract': 'Read My Lips is the debut studio album by English singer Sophie Ellis-Bextor. It was released on 27 August 2001 by Polydor Records. After the disbandment of the Britpop group Theaudience, in which Ellis-Bextor served as vocalist, she was signed to Polydor. Prior to the LP\'s completion, the singer collaborated with several musicians, including band Blur\'s bassist Alex James, Moby and New Radicals frontman Gregg Alexander. The record was described as a collection of 1980s electronica and 1970s disco music. Critical response to Read My Lips was polarised, with music critics denouncing its content that was, according to many of whom, of lesser quality than "Groovejet (If This Ain\'t Love)"—the singer\'s collaboration with Italian DJ Spiller. The album reached number two on the UK Albums Chart, and has since been certified double platinum by the British Phonographic Industry (BPI). It spawned four singles: "Take Me Home", "Murder on the Dancefloor", double A-side single "Get Over You"/"Move This Mountain" and "Music Gets the Best of Me".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/TY.O', 'album_name': 'TY.O', 'artist': 'http://dbpedia.org/resource/Taio_Cruz', 'artist_name': 'Taio Cruz', 'wiki': 'http://en.wikipedia.org/wiki/TY.O', 'released': '02 December 2011', 'producers': ['Taio Cruz', 'Dr. Luke', 'Cirkut', 'Steve Angello', 'Rami Yacoub', 'Carl Falk', 'RedOne', 'Jimmy Joker', 'Klas Åhlund', 'Sebastian Ingrosso', 'Rob Swire', 'Jason Gilbert', 'Giorgio Tuinfort', 'Frédéric Riesterer', 'Max Martin'], 'writers': ['Cruz, Alan Kasirye', 'Cruz, Christopher Bridges, David Guetta, Giorgio Tuinfort, Frédéric Riesterer', 'Cruz, Gottwald, Ammar Malik, Walter', 'Cruz, Gottwald, Martin, Benjamin Levin, Bonnie McKee', 'Cruz, Gottwald, Martin, Levin, McKee', 'Cruz, Gottwald, Walter', 'Cruz, Jason Gilbert', 'Cruz, Klas Åhlund, Sebastian Ingrosso, Angello', 'Cruz, Lukasz Gottwald, Henry Walter', 'Cruz, Martin, Åhlund, Raymond IV, Kronlund, Baptiste', 'Cruz, Max Martin, Klas Åhlund, Usher Raymond IV, Alexander Kronlund, Adam Jewelle Baptiste', 'Cruz, Michel Zitron, Yacoub, Falk, Iain James', 'Cruz, RedOne, Armando Perez, Jimmy Joker, AJ Junior, Bilal Hajji', 'Cruz, RedOne, Jimmy Joker, AJ Junior, Bilal Hajji', 'Cruz, Rob Swire', 'Cruz, Steve Angello, Rami Yacoub, Carl Falk', 'Taio Cruz, Lukasz Gottwald, Henry Walter'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop'], 'related_artists': ['http://dbpedia.org/resource/Allan_Eshuijs', 'http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Fraser_T._Smith', 'http://dbpedia.org/resource/Glowinthedark', 'http://dbpedia.org/resource/Ian_Carey', 'http://dbpedia.org/resource/Kylie_Minogue', 'http://dbpedia.org/resource/Luciana_(singer)', 'http://dbpedia.org/resource/Ludacris', 'http://dbpedia.org/resource/McFly', 'http://dbpedia.org/resource/Nightcrawlers_(band)', 'http://dbpedia.org/resource/Nitin_Sawhney', 'http://dbpedia.org/resource/Tinchy_Stryder', 'http://dbpedia.org/resource/Tinie_Tempah', 'http://dbpedia.org/resource/Travie_McCoy', 'http://dbpedia.org/resource/Tricky_Stewart'], 'abstract': 'TY.O is the third studio album by British record producer and recording artist Taio Cruz. Taking a more electronic music sound than his previous releases, TY.O was released in December 2011 by Universal Island Records but for reasons unknown to Cruz, its British and American release were held off. Instead, a year after its original release, an extended play (EP) version of the album titled The Fast Hits was released in the UK on 16 December 2012. TY.O features a range of top-twenty and top-thirty singles including "Hangover" (featuring Flo Rida), "Troublemaker", "There She Goes" (sometimes featuring Pitbull), the limited release "World in Our Hands" and "Fast Car" which features on the Special Edition and Fast Hits versions of the album. The album itself reached top-twenty in Switzerland and top-thirty in Germany, considerably less successful than Cruz\'s previous albums.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Once_Upon_a_Time_(Simple_Minds_album)', 'album_name': 'Once Upon a Time (álbum de Simple Minds)', 'artist': 'http://dbpedia.org/resource/Simple_Minds', 'artist_name': 'Simple Minds', 'wiki': 'http://en.wikipedia.org/wiki/Once_Upon_a_Time_(Simple_Minds_album)', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'released': '21 October 1985', 'producers': ['Bob Clearmountain', 'Jimmy Iovine'], 'writers': ['http://dbpedia.org/resource/Lou_Reed', 'Charlie Burchill, Derek Forbes, Jim Kerr, Michael MacNeil', 'Brian McGee, Charlie Burchill, Derek Forbes, Jim Kerr, Michael MacNeil', 'Brian McGee, Charlie Burchill, Derek Forbes, Jim Kerr, Michael MacNeil, Steve Van Zandt, Sylvester Stewart', 'Charlie Burchill, Derek Forbes, Jim Kerr, Mel Gaynor, Michael MacNeil', 'Keith Forsey, Steve Schiff'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Dance-rock', 'http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Brian_McGee_(drummer)', 'http://dbpedia.org/resource/Café_Jacques', 'http://dbpedia.org/resource/Charlie_Burchill', 'http://dbpedia.org/resource/Cherisse_Osei', 'http://dbpedia.org/resource/Danny_Wilson_(band)', 'http://dbpedia.org/resource/Derek_Forbes', 'http://dbpedia.org/resource/Endgames_(band)', 'http://dbpedia.org/resource/Ex-Simple_Minds', 'http://dbpedia.org/resource/Ged_Grimes', 'http://dbpedia.org/resource/Jim_Kerr', 'http://dbpedia.org/resource/Kenny_Hyslop', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/Mel_Gaynor', 'http://dbpedia.org/resource/Mick_MacNeil', 'http://dbpedia.org/resource/Mike_Ogletree', 'http://dbpedia.org/resource/Propaganda_(band)', 'http://dbpedia.org/resource/Robin_Clark', 'http://dbpedia.org/resource/Slik', 'http://dbpedia.org/resource/The_Anchoress_(musician)', 'http://dbpedia.org/resource/Voodoo_Circle', 'http://dbpedia.org/resource/Zones_(band)'], 'abstract': 'Once Upon a Time is the seventh studio album by Scottish pop rock band Simple Minds, released in October 1985 by record label Virgin (A&amp;M in the US).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/In_Your_Room_(Yazoo_album)', 'album_name': 'In Your Room (Yazoo album)', 'artist': 'http://dbpedia.org/resource/Yazoo_(band)', 'artist_name': 'Yazoo', 'wiki': 'http://en.wikipedia.org/wiki/In_Your_Room_(Yazoo_album)', 'hometown': 'http://dbpedia.org/resource/Basildon', 'released': '26 May 2008', 'producers': ['http://dbpedia.org/resource/Eric_Radcliffe', 'Yazoo'], 'genres': ['http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Alison_Moyet', 'http://dbpedia.org/resource/Das_Shadow', 'http://dbpedia.org/resource/Depeche_Mode', 'http://dbpedia.org/resource/Erasure', 'http://dbpedia.org/resource/Eric_Radcliffe', 'http://dbpedia.org/resource/Minute_Taker', 'http://dbpedia.org/resource/The_Assembly', 'http://dbpedia.org/resource/VCMG', 'http://dbpedia.org/resource/Vince_Clarke'], 'abstract': 'In Your Room is a box set by British synthpop duo Yazoo, also known in North America as Yaz. It is the first Yazoo release since Only Yazoo, a 1999 greatest hits compilation album. The set was released by Mute Records (in North America by Sire Records) on May 26, 2008 and contains four discs. In Your Room contains Yazoo\'s only two studio albums (Upstairs at Eric\'s and You and Me Both) in stereo and 5.1 remasters. Also included is a disc of B-sides and remixes. The fourth disc is a DVD containing the music videos for "Don\'t Go", "The Other Side of Love", "Nobody\'s Diary", "Situation" (1990 version) and "Only You" (1999 version). Clarke\'s current Erasure partner Andy Bell contributed a new remix of "Nobody\'s Diary" to the Nobody\'s Diary EP, released prior to the box set. Afterwards there was also the release of the Reconnected EP.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/By_the_Way', 'album_name': 'By the Way', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/By_the_Way', 'hometown': 'http://dbpedia.org/resource/California', 'released': '09 July 2002', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'awards': ['Gold', 'Platinum'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Ataxia_(band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Chad_Smith', "http://dbpedia.org/resource/Chad_Smith's_Bombastic_Meatbats", 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Deconstruction_(band)', 'http://dbpedia.org/resource/Dot_Hacker', 'http://dbpedia.org/resource/Eleven_(band)', 'http://dbpedia.org/resource/Fear_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/John_Frusciante', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Kristen_Vigard', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Marcel_Rodríguez-López', 'http://dbpedia.org/resource/Mauro_Refosco', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Omar_Rodríguez-López', 'http://dbpedia.org/resource/Ryan_Hewitt_(record_producer)', 'http://dbpedia.org/resource/The_Bicycle_Thief_(band)__The_Bicycle_Thief__1', 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/The_Panic_Channel', 'http://dbpedia.org/resource/The_Weirdos', 'http://dbpedia.org/resource/Thelonious_Monster', 'http://dbpedia.org/resource/Tree_(musician)', 'http://dbpedia.org/resource/Warpaint_(band)', 'http://dbpedia.org/resource/Weapon_of_Choice_(band)', 'http://dbpedia.org/resource/What_Is_This%3F', 'http://dbpedia.org/resource/Zavalaz'], 'abstract': 'By the Way is the eighth studio album by American rock band Red Hot Chili Peppers, released July 9, 2002, on Warner Bros. Records. It sold more than 286,000 copies in its first week, and peaked at number two on the Billboard 200. Singles included "By the Way," "The Zephyr Song," "Can\'t Stop," "Dosed" and "Universally Speaking". The lyrical subject matter vocalist Anthony Kiedis addresses in By the Way is a divergence from previous Red Hot Chili Peppers albums, with Kiedis taking a more candid and reflective approach to his lyrics. By the Way was lauded by critics as a departure from the band\'s previous styles, and is recognized for the melodic and subdued emotions given by the Chili Peppers. Guitarist John Frusciante is credited with writing most of the album\'s melodies, backing vocal arrangements, bass lines and guitar progressions, therefore changing the direction of the recording dramatically: "his warm, understated guitar work and his doo-wop style vocal harmonies are king this time around." By the Way contained very little of the signature punk-funk fusion the band had become known for playing. Frusciante has stated that writing "By the Way [was] one of the happiest times in my life." The album went on to sell more than eight million copies worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/I_Do_Not_Want_What_I_Haven't_Got", 'album_name': "I Do Not Want What I Haven't Got", 'artist': "http://dbpedia.org/resource/Sinéad_O'Connor", 'artist_name': "Sinéad O'Connor", 'wiki': "http://en.wikipedia.org/wiki/I_Do_Not_Want_What_I_Haven't_Got", 'released': '20 March 1990', 'producers': ['*Nellee Hooper', "*Sinéad O'Connor"], 'writers': ['http://dbpedia.org/resource/Cole_Porter', 'http://dbpedia.org/resource/Gregory_Isaacs', 'http://dbpedia.org/resource/John_Lennon', 'http://dbpedia.org/resource/Marco_Pirroni', 'http://dbpedia.org/resource/Prince_(musician)', 'http://dbpedia.org/resource/Rob_Dean', "O'Connor", 'Reynolds', 'vocal melody: Philip King', 'Traditional', 'Steve Bogard', 'Spike Hollifield', 'Clowes', "arranged by Karl Wallinger and Sinéad O'Connor", "arranged by Chris Birkett, John Reynolds and Sinéad O'Connor", 'Sylvester Weise', 'Barbara Wyrick', 'Anonymous'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Rock', '*folk'], 'related_artists': ['http://dbpedia.org/resource/Ali_McMordie', 'http://dbpedia.org/resource/Anne_Preven', 'http://dbpedia.org/resource/Bomb_the_Bass', 'http://dbpedia.org/resource/Chris_Constantinou', 'http://dbpedia.org/resource/Cora_Venus_Lunny', 'http://dbpedia.org/resource/Damien_Dempsey', 'http://dbpedia.org/resource/Doug_Katsaros', 'http://dbpedia.org/resource/Friction_Groove', 'http://dbpedia.org/resource/G._E._Smith', 'http://dbpedia.org/resource/Hugh_Harris_(singer)', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jon_Klein_(musician)', 'http://dbpedia.org/resource/Kevin_Mooney', 'http://dbpedia.org/resource/Leslie_Winer', "http://dbpedia.org/resource/Liam_O'Flynn", 'http://dbpedia.org/resource/Mike_Joyce_(musician)', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Nigel_Grainge', 'http://dbpedia.org/resource/Republic_of_Loose', 'http://dbpedia.org/resource/Steve_Cooney', 'http://dbpedia.org/resource/The_Wolfmen', 'http://dbpedia.org/resource/Vinnie_Kilduff'], 'abstract': 'I Do Not Want What I Haven\'t Got is the second album by Irish singer Sinéad O\'Connor, released in March 1990 on Ensign/Chrysalis Records. It contains O\'Connor\'s version of the Prince song "Nothing Compares 2 U", which was released as a single and reached number one in multiple countries. The album was nominated for four Grammy Awards in 1991, including Record of the Year, Best Female Pop Vocal Performance, and Best Music Video, Short Form for "Nothing Compares 2 U", winning the award for Best Alternative Music Performance. However, O\'Connor refused to accept the nominations and award.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Metallica_(album)', 'album_name': 'Metallica (album)', 'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Metallica_(album)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'producers': ['James Hetfield', 'Bob Rock', 'Lars Ulrich'], 'writers': ['Chris Exall', 'Clive Blake', 'Djahanshah Aghssa', 'Nick Culmer'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Armored_Saint', 'http://dbpedia.org/resource/Bastardolomey', 'http://dbpedia.org/resource/Bob_Rock', 'http://dbpedia.org/resource/Cliff_Burton', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dave_Collins_(audio_engineer)', 'http://dbpedia.org/resource/Dave_Mustaine', 'http://dbpedia.org/resource/Echobrain', 'http://dbpedia.org/resource/Flotsam_and_Jetsam_(band)', 'http://dbpedia.org/resource/Greg_Fidelman', "http://dbpedia.org/resource/Guns_N'_Roses", 'http://dbpedia.org/resource/Infectious_Grooves', 'http://dbpedia.org/resource/James_Hetfield__James_Hetfield__1', 'http://dbpedia.org/resource/Jason_Newsted', 'http://dbpedia.org/resource/Jerry_Cantrell', 'http://dbpedia.org/resource/Jim_Martin_(musician)', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/John_Marshall_(guitarist)', 'http://dbpedia.org/resource/Kirk_Hammett', 'http://dbpedia.org/resource/Lars_Ulrich', 'http://dbpedia.org/resource/Leather_Charm', 'http://dbpedia.org/resource/Lou_Reed', 'http://dbpedia.org/resource/MD.45', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Mike_Clink', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Ozzy_Osbourne', 'http://dbpedia.org/resource/Papa_Wheelie', 'http://dbpedia.org/resource/Phantasm_(band)', 'http://dbpedia.org/resource/Robert_Trujillo', 'http://dbpedia.org/resource/Rock_Star_Supernova', 'http://dbpedia.org/resource/Ron_McGovney', 'http://dbpedia.org/resource/San_Francisco_Symphony', 'http://dbpedia.org/resource/Sean_Kinney', 'http://dbpedia.org/resource/Suicidal_Tendencies', 'http://dbpedia.org/resource/Trauma_(American_band)', 'http://dbpedia.org/resource/Voivod_(band)'], 'abstract': 'Metallica is the fifth studio album by American heavy metal band Metallica. Released on August 12, 1991, by Elektra Records, it is commonly referred to as The Black Album because of its packaging design. Its recording took place at One on One Studios in Los Angeles over an eight-month span that frequently found Metallica at odds with their new producer Bob Rock. The album marked a change in the band\'s music from the thrash metal style of their previous four albums to a slower, heavier, and more refined sound. Metallica promoted Metallica with a series of tours. They also released five singles to promote the album: "Enter Sandman", "The Unforgiven", "Nothing Else Matters", "Wherever I May Roam", and "Sad but True", all of which have been considered to be among the band\'s best-known songs. The song "Don\'t Tread on Me" was also issued to rock radio shortly after the album\'s release but did not receive a commercial single release. Metallica received widespread critical acclaim and became the band\'s best-selling album. It debuted at number one in ten countries and spent four consecutive weeks at the top of the Billboard 200, making it Metallica\'s first album to top the album charts. Metallica is one of the best-selling albums worldwide, and also one of the best-selling albums in the United States since Nielsen SoundScan tracking began. The album was certified 16× platinum by the Recording Industry Association of America (RIAA) in 2012, and has sold over sixteen million copies in the United States, being the first album in the SoundScan era to do so. Metallica played Metallica in its entirety during the 2012 European Black Album Tour. In 2020, the album was ranked number 235 on Rolling Stone\'s The 500 Greatest Albums of All Time list. In December 2019, Metallica became the fourth release in American history to enter the 550-week milestone on the Billboard 200. It also became the second longest-charting traditional title in history, and the second to spend 550 weeks on the album charts.'}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/The_Reason_(Hoobastank_album)', 'album_name': 'The Reason (Hoobastank album)', 'artist': 'http://dbpedia.org/resource/Hoobastank', 'artist_name': 'Hoobastank', 'wiki': 'http://en.wikipedia.org/wiki/The_Reason_(Hoobastank_album)', 'hometown': 'http://dbpedia.org/resource/Agoura_Hills,_California', 'released': '09 December 2003', 'producers': ['http://dbpedia.org/resource/Howard_Benson'], 'awards': ['Gold', 'Platinum'], 'genres': ['Post-grunge', 'alternative rock', 'alternative metal'], 'related_artists': ['http://dbpedia.org/resource/Linkin_Park', 'http://dbpedia.org/resource/Vanessa_Amorosi'], 'abstract': 'The Reason is the second studio album by American rock band Hoobastank, released on December 9, 2003 by Island Records. Produced by Howard Benson, it was the band\'s last album to feature bassist Markku Lappaleinen prior to his departure in 2005. Despite receiving mixed reviews from critics, The Reason peaked at number three on the US Billboard 200 and was eventually certified double platinum by the Recording Industry Association of America; currently, it has sold over 2.3 million copies in the United States alone. Four singles were released from the album: "Out of Control", the title track, "Same Direction", and "Disappear".'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/Billy_Idol_discography', 'album_name': 'Billy Idol discography', 'artist': 'http://dbpedia.org/resource/Billy_Idol', 'artist_name': 'Billy Idol', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Idol_discography', 'related_artists': ['http://dbpedia.org/resource/Billy_Morrison', 'http://dbpedia.org/resource/Bozzio_Levin_Stevens', 'http://dbpedia.org/resource/Brian_Tichy', 'http://dbpedia.org/resource/Deadland_Ritual', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Durga_McBroom', 'http://dbpedia.org/resource/Frankie_Banali', 'http://dbpedia.org/resource/Harry_Slash_&amp;_The_Slashtones', 'http://dbpedia.org/resource/Jack_Waldman', 'http://dbpedia.org/resource/Jennifer_Blakeman', 'http://dbpedia.org/resource/John_Philip_Shenale', 'http://dbpedia.org/resource/Ken_Caillat', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/Mark_Schulman', 'http://dbpedia.org/resource/Phil_Soussan', 'http://dbpedia.org/resource/Steve_Stevens', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/Terry_Chimes', 'http://dbpedia.org/resource/Thommy_Price'], 'abstract': 'The discography of Billy Idol, his solo recordings post-Generation X, consists of eight studio albums, one live album, five compilation albums, two extended plays, and 37 singles.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Illuminate_(Shawn_Mendes_album)', 'album_name': 'Illuminate', 'artist': 'http://dbpedia.org/resource/Shawn_Mendes', 'artist_name': 'Shawn Mendes', 'wiki': 'http://en.wikipedia.org/wiki/Illuminate_(Shawn_Mendes_album)', 'released': '23 September 2016', 'producers': ['*Jake Gosling', '*Teddy Geiger', '*Andrew Maury', '*Dan Romer', '*Daylight', '*Laleh Pourkarim', '*Scott Harris'], 'writers': ['http://dbpedia.org/resource/Danny_Parker_(songwriter)', 'http://dbpedia.org/resource/Geoff_Warburton', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/Kid_Harpoon', 'http://dbpedia.org/resource/Laleh_(singer)', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Shawn_Mendes', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/Tobias_Jesso_Jr.', 'Zubin Thakkar', 'Geiger', 'Zmishlany', 'Warburton', 'Gustaf Thörn', 'Parker', 'Mendes', 'Harris', 'Juber'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['*Pop', '*rock', '*blues'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Maury', 'http://dbpedia.org/resource/Brockhampton_(band)', 'http://dbpedia.org/resource/Dan_Kanter', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Ido_Zmishlany', 'http://dbpedia.org/resource/Jack_&amp;_Jack', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/James_TW', 'http://dbpedia.org/resource/Joe_LaPorta', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Scott_Harris_(songwriter)', 'http://dbpedia.org/resource/Teddy_Geiger', 'http://dbpedia.org/resource/The_Vamps_(British_band)', 'http://dbpedia.org/resource/William_Singe', 'http://dbpedia.org/resource/Zac_Brown_Band'], 'abstract': 'Illuminate is the second studio album by Canadian singer and songwriter Shawn Mendes. It was released on September 23, 2016, through Island Records and Universal Music Group. Musically, the album contains music genres pop, rock and blues. The album debuted atop the US Billboard 200 and the Canadian Albums Chart. It was preceded by the lead single "Treat You Better", which reached the top 10 on the Billboard Hot 100. This album was supported by the Illuminate World Tour, which began in March 2017.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Different_Class', 'album_name': 'Different Class', 'artist': 'http://dbpedia.org/resource/Pulp_(band)', 'artist_name': 'Pulp', 'wiki': 'http://en.wikipedia.org/wiki/Different_Class', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'released': '30 October 1995', 'producers': ['http://dbpedia.org/resource/Chris_Thomas_(record_producer)'], 'awards': ['Platinum'], 'genres': ['Britpop', 'art rock'], 'related_artists': ['http://dbpedia.org/resource/Artery_(band)', 'http://dbpedia.org/resource/Beyond_the_Pale_(Jarv_Is_album)', 'http://dbpedia.org/resource/Candida_Doyle', 'http://dbpedia.org/resource/Chris_Thomas_(record_producer)', 'http://dbpedia.org/resource/Ed_Buller', 'http://dbpedia.org/resource/James_Murphy_(electronic_musician)', 'http://dbpedia.org/resource/Jarvis_Cocker', 'http://dbpedia.org/resource/Johnny_Dean', 'http://dbpedia.org/resource/Leo_Abrahams', 'http://dbpedia.org/resource/Longpigs', 'http://dbpedia.org/resource/Relaxed_Muscle', 'http://dbpedia.org/resource/Richard_Hawley__Richard_Hawley__1', 'http://dbpedia.org/resource/Russell_Senior', 'http://dbpedia.org/resource/Scott_Walker_(singer)', 'http://dbpedia.org/resource/Siiiii', 'http://dbpedia.org/resource/Steve_Mackey', 'http://dbpedia.org/resource/Venini'], 'abstract': 'Different Class (released in Japan as Common People) is the fifth studio album by English rock band Pulp, released on 30 October 1995 by Island Records. The album was a critical and commercial success, entering the UK Albums Chart at number one and winning the 1996 Mercury Music Prize. It has been certified four times platinum, and had sold 1.33 million copies in the United Kingdom as of 2020. In 2013, NME ranked the album at number six in its list of the 500 greatest albums of all time.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/There_Is_Nothing_Left_to_Lose', 'album_name': 'There is Nothing Left to Lose', 'artist': 'http://dbpedia.org/resource/Foo_Fighters', 'artist_name': 'Foo Fighters', 'wiki': 'http://en.wikipedia.org/wiki/There_Is_Nothing_Left_to_Lose', 'hometown': 'http://dbpedia.org/resource/Seattle', 'released': '02 November 1999', 'producers': ['*Foo Fighters', '*Adam Kasper'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Alternative rock', '*progressive rock', '*post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Bob_Mould', 'http://dbpedia.org/resource/Brandon_Bell_(recording_engineer)', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Shiflett', 'http://dbpedia.org/resource/DYS_(band)', 'http://dbpedia.org/resource/Drew_Hester', 'http://dbpedia.org/resource/Face_to_Face_(punk_band)', 'http://dbpedia.org/resource/Franz_Stahl', 'http://dbpedia.org/resource/Fred_Schneider', 'http://dbpedia.org/resource/Germs_(band)', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Hovercraft_(band)', 'http://dbpedia.org/resource/Jackson_United', 'http://dbpedia.org/resource/Joe_Walsh', 'http://dbpedia.org/resource/Krist_Novoselic', 'http://dbpedia.org/resource/Me_First_and_the_Gimme_Gimmes', 'http://dbpedia.org/resource/Mike_Watt', 'http://dbpedia.org/resource/Nate_Mendel', 'http://dbpedia.org/resource/Nirvana_(band)', 'http://dbpedia.org/resource/No_Use_for_a_Name', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Pat_Smear', 'http://dbpedia.org/resource/Petra_Haden', 'http://dbpedia.org/resource/Rami_Jaffee', 'http://dbpedia.org/resource/Rich_Costey', 'http://dbpedia.org/resource/Rick_Nielsen', 'http://dbpedia.org/resource/Ryan_Hadlock', 'http://dbpedia.org/resource/Scott_Shiflett', 'http://dbpedia.org/resource/Scream_(band)', 'http://dbpedia.org/resource/Skeeter_Thompson', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Subwave_(band)', 'http://dbpedia.org/resource/Sunny_Day_Real_Estate', 'http://dbpedia.org/resource/Taylor_Hawkins', 'http://dbpedia.org/resource/Taylor_Hawkins_and_the_Coattail_Riders', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Birds_of_Satan', 'http://dbpedia.org/resource/The_Fire_Theft', 'http://dbpedia.org/resource/The_Jealous_Sound', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Tom_Rothrock', 'http://dbpedia.org/resource/William_Goldsmith'], 'abstract': 'There Is Nothing Left to Lose is the third studio album by American rock band Foo Fighters, released on November 2, 1999, through Roswell and RCA Records. It marked the first appearance of drummer Taylor Hawkins, and is often seen as a departure from the band\'s previous work, showcasing a softer, more experimental sound. Dave Grohl has stated that the album was "totally based on melody" and that it might be "[his] favorite album that [they\'ve] ever done." There Is Nothing Left to Lose won the Grammy Award for Best Rock Album in 2001, marking the band\'s first ever Grammy win. The band would go on to win the Grammy for Best Rock Album for three of their next four studio releases (One by One; Echoes, Silence, Patience &amp; Grace; and Wasting Light). There Is Nothing Left to Lose is Foo Fighters\'s first album to be entirely released and marketed by RCA Records since their departure from Capitol Records after release of The Colour and the Shape two years earlier. Their two previous studio albums, originally distributed by Capitol, were since then distributed by RCA.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Follow_the_Leader_(Korn_album)', 'album_name': 'Follow the Leader (álbum de Korn)', 'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Follow_the_Leader_(Korn_album)', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'released': '18 August 1998', 'producers': ['http://dbpedia.org/resource/Steve_Thompson_(musician)', 'http://dbpedia.org/resource/Toby_Wright'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Adema', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/Brian_Welch__Brian_Welch__1', 'http://dbpedia.org/resource/Brooks_Wackerman', 'http://dbpedia.org/resource/Clint_Lowery', 'http://dbpedia.org/resource/Datsik_(musician)', 'http://dbpedia.org/resource/Davey_Suicide', 'http://dbpedia.org/resource/David_Silveria', 'http://dbpedia.org/resource/Deadly_Apples', 'http://dbpedia.org/resource/Derrick_Green', 'http://dbpedia.org/resource/Destroid', 'http://dbpedia.org/resource/Dimmu_Borgir', 'http://dbpedia.org/resource/Fashion_Bomb', 'http://dbpedia.org/resource/James_Shaffer', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Jordison', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Jonathan_Davis_and_the_SFA', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Killbot_(band)', 'http://dbpedia.org/resource/L.A.P.D._(band)', 'http://dbpedia.org/resource/Lauren_Christy', 'http://dbpedia.org/resource/Mass_Hysteria_(band)', 'http://dbpedia.org/resource/Mass_Mental', 'http://dbpedia.org/resource/Michael_Jochum', 'http://dbpedia.org/resource/Mike_Bordin', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Orgy_(band)', 'http://dbpedia.org/resource/Ray_Luzier', 'http://dbpedia.org/resource/Reginald_Arvizu', 'http://dbpedia.org/resource/Rob_Patterson', 'http://dbpedia.org/resource/Ross_Robinson', 'http://dbpedia.org/resource/Ryan_Martinie', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shane_Gibson_(musician)', 'http://dbpedia.org/resource/Sunflower_Dead', 'http://dbpedia.org/resource/Terry_Bozzio', 'http://dbpedia.org/resource/The_Matrix_(team)', 'http://dbpedia.org/resource/Twelvestep', 'http://dbpedia.org/resource/Wesley_Geer', 'http://dbpedia.org/resource/Zac_Baird'], 'abstract': 'Follow the Leader (stylized as FOLLOW The LEADEЯ) is the third studio album by American nu metal band Korn. The album was released on August 18, 1998, through Immortal/Epic. This was their first album not produced by Ross Robinson. Instead, it was produced by Steve Thompson and Toby Wright. The album peaked at number one on four charts, including the Billboard 200 with 268,000 units sold in its first week of release, Follow the Leader is considered by members of Korn to be the band\'s most commercially–successful album, being certified five-times Platinum by the RIAA. Its singles "Got the Life", and "Freak on a Leash", both charted on more than three charts, and their music videos are considered to be the first music videos retired from MTV, most notably the MTV show Total Request Live. The album generally received positive reviews by critics and sold around 14 million copies worldwide. Korn was praised by AllMusic saying the album is "an effective follow-up to their first two alt-metal landmarks." The Family Values Tour promoted the album, along with its five singles. The song "Freak on a Leash" was nominated for nine MTV Video Music Awards, and won for the Best Rock Video award, as well as Best Editing. The music video for "Freak on a Leash" won Best Short Form Music Video at the 2000 Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Insomniac_(Green_Day_album)', 'album_name': 'Insomniac', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Insomniac_(Green_Day_album)', 'released': '10 October 1995', 'producers': ['Green Day', 'Rob Cavallo'], 'awards': ['Gold', 'Platinum'], 'genres': ['Punk rock', 'pop punk'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Cometbus', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bill_Schneider_(musician)', 'http://dbpedia.org/resource/Billie_Joe_Armstrong', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Campino_(singer)', 'http://dbpedia.org/resource/Catfish_and_the_Bottlemen', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Faber_Drive', 'http://dbpedia.org/resource/Foxboro_Hot_Tubs', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Isocracy_(band)', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jason_White_(musician)', 'http://dbpedia.org/resource/Jesse_Malin', 'http://dbpedia.org/resource/John_Kiffmeyer', 'http://dbpedia.org/resource/Mike_Dirnt', 'http://dbpedia.org/resource/Pinhead_Gunpowder', 'http://dbpedia.org/resource/Rancid_(band)', 'http://dbpedia.org/resource/Screeching_Weasel', 'http://dbpedia.org/resource/Seaweed_(band)', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Sprung_Monkey', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/The_Big_Cats', 'http://dbpedia.org/resource/The_Influents', 'http://dbpedia.org/resource/The_Interrupters_(band)', 'http://dbpedia.org/resource/The_Lookouts', 'http://dbpedia.org/resource/The_Network', 'http://dbpedia.org/resource/Tré_Cool'], 'abstract': 'Insomniac is the fourth studio album by American rock band Green Day, released on October 10, 1995, by Reprise Records. It was recorded at Hyde Street in San Francisco, and the band prioritized high-energy takes during the recording sessions. Released as the follow-up to the band\'s multi-platinum breakthrough Dookie, Insomniac featured a heavier and more “punk” sound, and bleaker lyrics than its predecessor. Lyrically, the album discusses themes such as alienation, anxiety, boredom, and drug use. Insomniac also served as a reaction to many early fans who had turned their backs on the band after it achieved mainstream success with Dookie. The album received generally positive reviews from critics, who praised frontman Billie Joe Armstrong\'s songwriting and sarcastic sense of humor. Four songs were released as singles, "Geek Stink Breath", "Stuck with Me", "Brain Stew / Jaded", and "Walking Contradiction". Though it peaked at number 2 on the Billboard 200 chart and was certified 2× Platinum by the Recording Industry Association of America in 1996, Insomniac did not have the sales endurance of its predecessor Dookie, largely due to its slightly darker lyrical tone and its heavier and more abrasive sound. Insomniac has sold over 2,100,000 copies in the United States as of 2012. The album was reissued on vinyl on May 12, 2009. In 2021, a deluxe version of the album was released for its 25th anniversary, including previously unreleased live tracks.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Wheatus_discography', 'album_name': 'Wheatus discography', 'artist': 'http://dbpedia.org/resource/Wheatus', 'artist_name': 'Wheatus', 'wiki': 'http://en.wikipedia.org/wiki/Wheatus_discography', 'hometown': 'http://dbpedia.org/resource/United_States', 'related_artists': ['http://dbpedia.org/resource/Math_the_Band', 'http://dbpedia.org/resource/Math_the_Band__Math_the_Band__1', 'http://dbpedia.org/resource/The_Hipstones'], 'abstract': 'The discography of Wheatus, an American rock band, consists of five studio albums, two EPs and eight singles.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/My_Head_Is_an_Animal', 'album_name': 'My Head Is an Animal', 'artist': 'http://dbpedia.org/resource/Of_Monsters_and_Men', 'artist_name': 'Of Monsters and Men', 'wiki': 'http://en.wikipedia.org/wiki/My_Head_Is_an_Animal', 'hometown': 'http://dbpedia.org/resource/Iceland', 'producers': ['Of Monsters and Men', 'Aron Arnarsson', 'Jacquire King'], 'writers': ['Nanna Bryndís Hilmarsdóttir', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson, Brynjar Leifsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Brynjar Leifsson', 'Nanna Bryndís Hilmarsdóttir, Ragnar Þórhallsson, Hilmarsson, Árni Guðjónsson, Brynjar Leifsson, Kristján Páll Kristjánsson', 'Ragnar Þórhallsson', 'Ragnar Þórhallsson, Arnar Rósenkranz Hilmarsson'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Indie_folk', 'http://dbpedia.org/resource/Indie_pop', 'http://dbpedia.org/resource/Indie_rock'], 'related_artists': ['http://dbpedia.org/resource/Brynjar_Leifsson', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Nanna_Bryndís_Hilmarsdóttir', 'http://dbpedia.org/resource/Ragnar_Þórhallsson', 'http://dbpedia.org/resource/Totemo'], 'abstract': 'My Head Is an Animal is the debut studio album by the Icelandic indie folk band Of Monsters and Men, released through Record Records in Iceland on 20 September 2011. After their success, topping the Icelandic charts with their debut single, "Little Talks", the band signed with Universal Music Group and the album was released internationally through Republic Records on 3 April 2012. The title of the album comes from the second line in "Dirty Paws".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/PCD_(album)', 'album_name': 'PCD (album)', 'artist': 'http://dbpedia.org/resource/The_Pussycat_Dolls', 'artist_name': 'The Pussycat Dolls', 'wiki': 'http://en.wikipedia.org/wiki/PCD_(album)', 'hometown': 'http://dbpedia.org/resource/California', 'released': '12 September 2005', 'producers': ['*Polow da Don', '*Kara DioGuardi', '*The Droyds', '*Siobhan Fahey', '*Ron Fair', '*Steven Gallifent', '*Sean Garrett', '*CeeLo Green', '*Kwamé "K1MiL"', '*Timbaland', '*will.i.am', '*Greg Wells'], 'writers': ['http://dbpedia.org/resource/Anthony_Newley', 'http://dbpedia.org/resource/Bob_Crewe', 'http://dbpedia.org/resource/Brian_Holland', 'http://dbpedia.org/resource/Busta_Rhymes', 'http://dbpedia.org/resource/Carl_Sigman', 'http://dbpedia.org/resource/CeeLo_Green', 'http://dbpedia.org/resource/Clare_Kenny', 'http://dbpedia.org/resource/Diane_Warren', 'http://dbpedia.org/resource/Ed_Cobb', 'http://dbpedia.org/resource/Eddie_Holland', 'http://dbpedia.org/resource/Franne_Golde', 'http://dbpedia.org/resource/Greg_Wells', 'http://dbpedia.org/resource/Harold_Faltermeyer', 'http://dbpedia.org/resource/Herbie_Mann', 'http://dbpedia.org/resource/Jason_Perry_(singer)', 'http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Kara_DioGuardi', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Keith_Forsey', 'http://dbpedia.org/resource/Kenny_Nolan', 'http://dbpedia.org/resource/Keri_Hilson', 'http://dbpedia.org/resource/Kwamé', 'http://dbpedia.org/resource/Lamont_Dozier', 'http://dbpedia.org/resource/Leslie_Bricusse', 'http://dbpedia.org/resource/Nicole_Scherzinger', 'http://dbpedia.org/resource/Norman_Gimbel', 'http://dbpedia.org/resource/Pablo_Beltrán_Ruiz', 'http://dbpedia.org/resource/Pete_Bellotte', 'http://dbpedia.org/resource/Polow_da_Don', 'http://dbpedia.org/resource/Rich_Harrison', 'http://dbpedia.org/resource/Sean_Garrett', 'http://dbpedia.org/resource/Siobhan_Fahey', 'http://dbpedia.org/resource/Sir_Mix-a-Lot', 'http://dbpedia.org/resource/Timbaland', 'http://dbpedia.org/resource/Will.i.am', 'Ruiz', 'Gimbel', 'Palmer', 'Vanessa Brown', 'Forsey', 'Fahey', 'Scherzinger', 'Jones', 'Garrett', 'Hilson', 'Sigidi', 'Steven Gallifent', 'Kenny', 'Blanchard', 'Avant', 'Robert Palmer', 'Will Blanchard', 'Craig Longmiles', 'Gallifent', 'Wells', 'Harold Clayton', 'Livingston', 'Ray', 'Perry', 'Smith', 'Golde', 'DioGuardi', 'Bellotte', 'Faltermeyer', 'Callaway'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Pop', '*dance-pop', '*R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Asia_Nitollano', 'http://dbpedia.org/resource/Bernard_Fowler', 'http://dbpedia.org/resource/Carmit_Bachar', 'http://dbpedia.org/resource/Darryl_Jones', 'http://dbpedia.org/resource/Dave_Audé', "http://dbpedia.org/resource/Eden's_Crush", 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Her_Majesty_&amp;_the_Wolves', 'http://dbpedia.org/resource/Jessica_Sutta', 'http://dbpedia.org/resource/Jonas_Jeberg', 'http://dbpedia.org/resource/Kasia_Livingston', 'http://dbpedia.org/resource/Kasia_Moś', 'http://dbpedia.org/resource/Kaya_Jones', 'http://dbpedia.org/resource/Kherington_Payne', 'http://dbpedia.org/resource/Lisa_Fischer', 'http://dbpedia.org/resource/Melody_Thornton__Melody_Thornton__1', 'http://dbpedia.org/resource/Melvin_LaThomas_Brimm', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Paradiso_Girls', 'http://dbpedia.org/resource/Peter_Mokran', 'http://dbpedia.org/resource/Ron_Fair', 'http://dbpedia.org/resource/Sasha_Allen', 'http://dbpedia.org/resource/Sisely_Treasure', 'http://dbpedia.org/resource/Sudha_Kheterpal', 'http://dbpedia.org/resource/Wayne_Hector'], 'abstract': 'PCD is the debut studio album by American girl group The Pussycat Dolls, released on September 12, 2005, by A&amp;M Records. In 1993, the Pussycat Dolls was created as a burlesque troupe by choreographer Robin Antin. After attracting media attention, Antin struck a joint venture with Interscope Records to develop the Pussycat Dolls into a brand, with Jimmy Iovine assigning the project to Ron Fair. As one of the executive producers Fair produced the majority of the album and collaborated with producers like Kwamé, Polow da Don and Rich Harrison. The music style of PCD was described as pop/R&amp;B and urban dance-pop. Lyrically the album incorporates sexual innuendo and explores the themes of feminism and romance. It features guest vocals from rappers Busta Rhymes, Timbaland and will.i.am. PCD received mixed reviews from contemporary music critics who were favorable towards the selection of dance-pop songs but criticized the album\'s ballads and covers, feeling it contradicted the group\'s sexual image. PCD exceeded industry expectations and became a commercial success, reaching the summit in New Zealand and peaking in the top-ten in Australia, Germany, the Netherlands and Switzerland. In the United States, it peaked at number five on the Billboard 200 selling nearly three million copies and currently stands as fourth best-selling album by a girl group in the United Kingdom (with sales of 1.3 million copies) where it reached number eight on the UK Albums Chart. The first four singles from PCD—"Don\'t Cha", "Stickwitu", "Beep" and "Buttons"—were commercially successful topping the charts in various countries including New Zealand where all four of them reached atop the singles chart. Subsequent singles, "I Don\'t Need a Man" and "Wait a Minute", were less successful. Promotion includes radio appearances, print interviews, and live performances of its songs in various television shows such as the 2005 MTV Europe Music Awards and the American Music Awards of 2006. In conjunction with these appearances, the Pussycat Dolls extensively toured the album in a combination of headlining and supporting shows until 2007.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Laundry_Service', 'album_name': 'Laundry Service: Washed and Dried', 'artist': 'http://dbpedia.org/resource/Shakira', 'artist_name': 'Shakira', 'wiki': 'http://en.wikipedia.org/wiki/Laundry_Service', 'released': '13 November 2001', 'producers': ['http://dbpedia.org/resource/Lester_Mendez', 'http://dbpedia.org/resource/Tim_Mitchell', 'Emilio Estefan', 'Shakira', 'George Noriega', 'Pablo Floresi', 'Javier Garza', 'Brendan Buckley', 'Luis F. Ochoa'], 'writers': ['http://dbpedia.org/resource/Shakira'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Alejandro_Sanz', 'http://dbpedia.org/resource/Anuel_AA', 'http://dbpedia.org/resource/Aranza', 'http://dbpedia.org/resource/Carlos_Vives', 'http://dbpedia.org/resource/Dan_Warner_(musician)', 'http://dbpedia.org/resource/Daniela_Andrade', 'http://dbpedia.org/resource/Di_Genius', 'http://dbpedia.org/resource/Domino_Saints', 'http://dbpedia.org/resource/Edgar_Barrera', 'http://dbpedia.org/resource/El_Cata', 'http://dbpedia.org/resource/Eshraque_%22iSHi%22_Mughal', 'http://dbpedia.org/resource/Freshlyground', 'http://dbpedia.org/resource/Garrett_Gardner', 'http://dbpedia.org/resource/George_Noriega', 'http://dbpedia.org/resource/John_Hill_(record_producer)__John_Hill__1', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Jon_Button', 'http://dbpedia.org/resource/Jonathan_Mover', 'http://dbpedia.org/resource/Jorge_Drexler', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Kristen_Merlin', 'http://dbpedia.org/resource/Luis_Conte', 'http://dbpedia.org/resource/Luis_Fernando_Ochoa', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Pablo_Flores', 'http://dbpedia.org/resource/Pablo_Manavello', 'http://dbpedia.org/resource/Salva_(music_producer)', 'http://dbpedia.org/resource/Sasha_Allen', 'http://dbpedia.org/resource/Sebastian_Krys', 'http://dbpedia.org/resource/Surianne'], 'abstract': 'Laundry Service (Spanish: Servicio de Lavandería) is the fifth studio album and first English language album by Colombian singer and songwriter Shakira, globally released on 13 November 2001 by Epic Records. It is her first album to be primarily recorded in English. After the release of her fourth studio album Dónde Están los Ladrones?, which became a success in Latin America, Spain and the Latin community in the United States, Shakira was encouraged by American singer Gloria Estefan to record songs in English as she believed the singer had the potential to crossover into the English-language pop market. Shakira was initially hesitant to undertake the project, but later decided to learn English well enough to be able to write songs in the language herself. The title of the album was chosen to reflect Shakira\'s views on love and music. It was also released as Servicio de Lavandería in Hispanic regions in January 2002. Musically, Laundry Service is primarily a pop rock record but it also experiments with a variety of other musical styles, including Andean music, dance-pop, Middle Eastern music, rock and roll and tango music. The lyrical theme of the album is mostly based around love and romance. Every song on the album was written and produced by Shakira under the guidance of Emilio Estefan. Six singles were released from the album. The lead single "Whenever, Wherever" became an international success and reached number one on record charts of countries like Australia, Austria, France, Germany, Italy and Spain. Follow-up single "Underneath Your Clothes" repeated its success, topping the charts of Australia, Austria, and Belgium. Both singles charted inside the top ten in the United Kingdom and United States. The third single "Objection (Tango)" became a top ten hit in most countries around the world. Spanish-language singles "Te Dejo Madrid" and "Que Me Quedes Tú" performed well in Hispanic regions, becoming hits in Spain and on the Latin record charts in the United States, respectively. "The One" was a moderate commercial success and became the last single to be released from Laundry Service. To promote the album, Shakira embarked on her Tour of the Mongoose between 2002 and 2003. It was her first major worldwide tour and visited numerous countries and cities. Upon its release, Laundry Service received favourable to mixed reviews from music critics. Many critics complimented Shakira\'s incorporation of different musical styles in the production and her originality, while some critics argued that the album sounded too generic. Shakira\'s vocal talent also attracted praise. Laundry Service topped the charts of countries including Australia, Austria, Belgium, Canada and Switzerland, while reaching the top five in other countries like Argentina, France, Germany, Spain and the United Kingdom. In the United States, Laundry Service peaked at number three on the Billboard 200 chart. The album received numerous record certifications in various countries, including sextuple platinum in Australia, quintuple in Canada, Spain and Switzerland. It was also certified multi-platinum in the United Kingdom and the United States, proving to be a successful crossover for Shakira. Globally, Laundry Service was the seventh best-selling album in 2002. The album sold around 13 million copies making it one of the best-selling albums of the 21st century. The album is listed at number 172 of the "Definitive 200" by the Rock and Roll Hall of Fame.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Some_Hearts', 'album_name': 'Some Hearts', 'artist': 'http://dbpedia.org/resource/Carrie_Underwood', 'artist_name': 'Carrie Underwood', 'wiki': 'http://en.wikipedia.org/wiki/Some_Hearts', 'released': '15 November 2005', 'producers': ['http://dbpedia.org/resource/Dann_Huff', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Mark_Bright_(record_producer)'], 'writers': ['http://dbpedia.org/resource/Andreas_Carlsson', 'http://dbpedia.org/resource/Angelo_Petraglia', 'http://dbpedia.org/resource/Ashley_Gorley', 'http://dbpedia.org/resource/Brett_James', 'http://dbpedia.org/resource/Carrie_Underwood', 'http://dbpedia.org/resource/Chris_Tompkins', 'http://dbpedia.org/resource/Diamond_Rio', 'http://dbpedia.org/resource/Diane_Warren', 'http://dbpedia.org/resource/Gordie_Sampson', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Josh_Kear', 'http://dbpedia.org/resource/Kelley_Lovelace', 'http://dbpedia.org/resource/Marv_Green', 'http://dbpedia.org/resource/Melissa_Peirce', 'http://dbpedia.org/resource/Morgane_Stapleton', 'http://dbpedia.org/resource/Neil_Thrasher', 'http://dbpedia.org/resource/Rivers_Rutherford', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Steve_McEwan', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Trey_Bruce', 'http://dbpedia.org/resource/Troy_Verges', 'http://dbpedia.org/resource/Wayne_Hector', 'http://dbpedia.org/resource/Wendell_Mobley', 'Lindsey', 'Greg Becker', 'Petraglia', 'Warren', 'Robson', 'Pelle Nyhlén'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Country_pop'], 'related_artists': ['http://dbpedia.org/resource/Aimee_Mayo', 'http://dbpedia.org/resource/Ashley_Gorley', 'http://dbpedia.org/resource/Chris_Tompkins', 'http://dbpedia.org/resource/Gordie_Sampson', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Josh_Kear', 'http://dbpedia.org/resource/Katrina_Elam', 'http://dbpedia.org/resource/Luke_Laird', 'http://dbpedia.org/resource/Mark_Bright_(record_producer)', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Miranda_Lambert', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Fuller', 'http://dbpedia.org/resource/Sons_of_Sylvia', 'http://dbpedia.org/resource/Steve_Robson', 'http://dbpedia.org/resource/Zach_Crowell'], 'abstract': 'Some Hearts is the debut studio album by American singer and songwriter Carrie Underwood, released in the United States on November 15, 2005, by Arista Nashville. The album contains the number one country singles "Jesus, Take the Wheel", "Don\'t Forget to Remember Me", "Wasted", and "Before He Cheats". The North American version contains the Billboard Hot 100 number one single, "Inside Your Heaven", as a bonus track. Bolstered by the success of its singles, Some Hearts became the best-selling album of 2006 in all genres in the United States. The album was also the best-selling country album in the United States of both 2006 and 2007, making Underwood the first female artist in Billboard history to earn back-to-back honors for Top Country Album. Additionally, it was the best-selling female country album of 2005, 2006 and 2007. Some Hearts has since been certified 9x platinum by the Recording Industry Association of America (RIAA), and is the fastest-selling debut country album in the history of the Nielsen SoundScan era, the best-selling solo female debut album in country music history, the best-selling country album of the last 10 years, and the best-selling album by an American Idol alumni in the U.S. It was listed as one of the 100 best-selling albums of all time by the RIAA in 2009. Some Hearts has since sold over 7.45 million copies in the U.S. and over nine million worldwide. In December 2009, Billboard announced that the album was the biggest-selling country album of the decade, as well as the fourteenth biggest-selling album of any genre. The album and its songs were praised by music critics. It led Underwood to win three Grammy Awards: Best New Artist in 2007 and twice Best Female Country Vocal Performance—for "Jesus, Take the Wheel", in 2007, and for "Before He Cheats", in 2008. Additionally, Some Hearts won Album of the Year at the 2007 Academy of Country Music Awards, while "Jesus, Take the Wheel" and "Before He Cheats" both won Single of the Year at the 2006 Academy of Country Music Awards and 2007 Country Music Association Awards, respectively.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Flowers_(Jennifer_Paige_album)', 'album_name': 'Flowers (The Hits Collection)', 'artist': 'http://dbpedia.org/resource/Jennifer_Paige', 'artist_name': 'Jennifer Paige', 'wiki': 'http://en.wikipedia.org/wiki/Flowers_(Jennifer_Paige_album)', 'genres': ['http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Torsten_Stenzel'], 'abstract': 'Flowers (The Hits Collection) is a greatest hits album of American pop singer Jennifer Paige released by her former record label Hollywood Records.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Lick_It_Up', 'album_name': 'Lick It Up', 'artist': 'http://dbpedia.org/resource/Kiss_(band)', 'artist_name': 'Kiss', 'wiki': 'http://en.wikipedia.org/wiki/Lick_It_Up', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'released': '23 September 1983', 'producers': ['http://dbpedia.org/resource/Gene_Simmons', 'http://dbpedia.org/resource/Paul_Stanley', 'Michael James Jackson'], 'writers': ['http://dbpedia.org/resource/Paul_Stanley', 'http://dbpedia.org/resource/Vinnie_Vincent', 'Stanley, Vincent', 'Simmons, Vincent', 'Eric Carr, Stanley, Simmons, Vincent', 'Gene Simmons, Vincent', 'Simmons'], 'awards': ['Gold', 'Platinum'], 'genres': ['*Heavy metal', '*hard rock', '*glam metal'], 'related_artists': ['http://dbpedia.org/resource/Ace_Frehley', 'http://dbpedia.org/resource/Adam_Bomb', 'http://dbpedia.org/resource/Adam_Mitchell_(songwriter)', 'http://dbpedia.org/resource/Allan_Schwartzberg', 'http://dbpedia.org/resource/Anton_Fig', 'http://dbpedia.org/resource/Balance_(band)', "http://dbpedia.org/resource/Black_'n_Blue", 'http://dbpedia.org/resource/Blackjack_(American_band)', 'http://dbpedia.org/resource/Bob_Ezrin', 'http://dbpedia.org/resource/Bob_Kulick', 'http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Bruce_Kulick', 'http://dbpedia.org/resource/Chelsea_(American_band)', 'http://dbpedia.org/resource/Derek_Sherinian', 'http://dbpedia.org/resource/Desmond_Child', 'http://dbpedia.org/resource/Dick_Wagner', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Eric_Carr', 'http://dbpedia.org/resource/Eric_Knight_(musician)', 'http://dbpedia.org/resource/Eric_Singer', 'http://dbpedia.org/resource/Eric_Singer_Project', 'http://dbpedia.org/resource/Flipp', "http://dbpedia.org/resource/Frehley's_Comet", 'http://dbpedia.org/resource/Gene_Simmons__Gene_Simmons__1', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/Kevin_Valentine', 'http://dbpedia.org/resource/Kim_Fowley', 'http://dbpedia.org/resource/Levi_and_the_Rockats', 'http://dbpedia.org/resource/Mark_St._John', 'http://dbpedia.org/resource/Michael_Ray_(guitarist)', 'http://dbpedia.org/resource/Momoiro_Clover_Z', 'http://dbpedia.org/resource/New_England_(band)', 'http://dbpedia.org/resource/Paul_Stanley', 'http://dbpedia.org/resource/Peter_Criss', 'http://dbpedia.org/resource/Robben_Ford', 'http://dbpedia.org/resource/Sean_Delaney_(musician)', 'http://dbpedia.org/resource/Spider_(American_band)', 'http://dbpedia.org/resource/Stephen_Coronel', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/Tommy_Thayer', 'http://dbpedia.org/resource/Union_(band)__Union__1', 'http://dbpedia.org/resource/Vinnie_Vincent', 'http://dbpedia.org/resource/Vinnie_Vincent_Invasion', 'http://dbpedia.org/resource/White_Tiger_(band)', 'http://dbpedia.org/resource/Wicked_Lester'], 'abstract': 'Lick It Up is the 11th studio album by American rock band Kiss. Before its 1983 release, the band members appeared on MTV without their trademark make-up. It was the first public appearance without make-up by the band, and their first for Mercury Records, where they had been signed following their departure from Casablanca Records.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Everything_Is_4', 'album_name': 'Everything Is 4', 'artist': 'http://dbpedia.org/resource/Jason_Derulo', 'artist_name': 'Jason Derulo', 'wiki': 'http://en.wikipedia.org/wiki/Everything_Is_4', 'released': '29 May 2015', 'producers': ['Ian Kirkpatrick', 'Charlie Puth', 'Ricky Reed', 'The Monsters and the Strangerz', 'Cook Classics', 'Mr. Collipark', 'Hitmaka', 'Foreign Teck', 'Dreamstate', 'Johan Carlsson', 'Matoma', 'Mag', 'Pop &amp; Oak', 'The Starr Island Group', 'Nathaniel "Danja" Hills', 'Heston Valley', 'Sonny Alves'], 'writers': ['Alexander “Xplicit” Izquierdo', 'Andrew "Pop" Wansel', 'Arin Ray', 'BJ Mekk', 'Charlie Puth', 'Christian Ward', 'Christopher Maurice Brown', 'David Brook', 'David Ritz', 'Desrouleaux', 'Douglas', 'Eric Frederic', 'Evigan', 'Floyd Bentley', 'Floyd Hills', 'Ian Kirkpatrick', 'James Roston', 'Jason Desrouleaux', 'Jason Evigan', 'Johan Carlsson', 'Jordan Hollywood', 'Julia Michaels', 'Kirkpatrick', 'Lindy Robbins', 'Lyrica Anderson', 'Marcella Araica', 'Marcus Lomax', 'Martin', 'Marvin Gaye', 'Meghan Trainor', 'Michael Crooms', 'Michael Hernandez', 'Mitch Allan', 'Odell Brown', 'Puth', 'Rico Evans', 'Robbins', 'Ross Golan', 'Samuel Martin', 'Sean Douglas', 'Shy Carter', 'Sonny Alves', 'Stefan Johnson', 'Taylor Parks', 'Warren "Oak" Felder', 'Will Lobban-Bean'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'R&amp;B', 'dance'], 'related_artists': ['http://dbpedia.org/resource/Alex_James_(songwriter)__Alex_James__1', 'http://dbpedia.org/resource/Auburn_(singer)', 'http://dbpedia.org/resource/Blackout_(musician)', 'http://dbpedia.org/resource/Britt_Lightning', 'http://dbpedia.org/resource/Carl_Falk', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/Danny_Ocean_(singer)', 'http://dbpedia.org/resource/Dinavon_Bythwood', 'http://dbpedia.org/resource/DripReport', 'http://dbpedia.org/resource/E._Kidd_Bogart', 'http://dbpedia.org/resource/Emanuel_Kiriakou', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/JT_Roach', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jawsh_685', 'http://dbpedia.org/resource/Joe_London', 'http://dbpedia.org/resource/Jonas_Jeberg', 'http://dbpedia.org/resource/Jordan_Kyle', 'http://dbpedia.org/resource/Joshua_%22J.D.%22_Walker', 'http://dbpedia.org/resource/Lindy_Robbins', 'http://dbpedia.org/resource/Matt_Prime', 'http://dbpedia.org/resource/Mims_(rapper)', 'http://dbpedia.org/resource/Molly_Sandén', 'http://dbpedia.org/resource/Nuka_(beat_maker)', 'http://dbpedia.org/resource/Phil_Greiss', 'http://dbpedia.org/resource/Quratulain_Balouch', 'http://dbpedia.org/resource/Ricky_Reed', 'http://dbpedia.org/resource/Sam_Martin_(singer)', 'http://dbpedia.org/resource/Sidney_Swift', 'http://dbpedia.org/resource/Sir_Nolan', 'http://dbpedia.org/resource/Smash_David', 'http://dbpedia.org/resource/Sofía_Reyes', 'http://dbpedia.org/resource/Stevie_Hoang', 'http://dbpedia.org/resource/Tesher', 'http://dbpedia.org/resource/The_Fliptones', 'http://dbpedia.org/resource/Thomas_Troelsen'], 'abstract': 'Everything Is 4 is the fourth studio album by American singer Jason Derulo. It was released on May 29, 2015, by Beluga Heights Records and Warner Bros. Records. The lead single "Want to Want Me" which reached number one in six countries, was released on March 9, 2015. The album is a follow-up to Derulo\'s previous studio album, Tattoos (2013) in the international market and Talk Dirty (2014) in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Bump_Ahead', 'album_name': 'Bump Ahead', 'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Bump_Ahead', 'hometown': 'http://dbpedia.org/resource/California', 'released': '19 July 1993', 'producers': ['Kevin Elson'], 'writers': ['http://dbpedia.org/resource/Andy_Fraser', 'http://dbpedia.org/resource/Paul_Kossoff', 'http://dbpedia.org/resource/Paul_Rodgers', 'http://dbpedia.org/resource/Simon_Kirke', 'Martin, André Pessis', 'Torpey, Gilbert, Sheehan', 'Martin, Gilbert, Fanucchi, Torpey', 'Cat Stevens', 'Fraser, Rodgers, Kossoff, Kirke', 'Gilbert', 'Martin, Pessis, Torpey, Sheehan, Gilbert', 'Martin, Spiro, Pessis', 'Sheehan, Gilbert, Torpey', 'Paul Gilbert, Billy Sheehan, Pat Torpey, Eric Martin, Tony Fanucchi', 'Gilbert, Sheehan', 'Martin, Mark Spiro, Pessis', 'Gilbert, Torpey, Pessis, Sheehan'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Hard_rock'], 'related_artists': ['http://dbpedia.org/resource/Billy_Sheehan', 'http://dbpedia.org/resource/David_Lee_Roth', 'http://dbpedia.org/resource/Eric_Martin_(musician)', 'http://dbpedia.org/resource/G3_(tour)', 'http://dbpedia.org/resource/Impellitteri', 'http://dbpedia.org/resource/Matt_Starr', 'http://dbpedia.org/resource/Pat_Torpey', 'http://dbpedia.org/resource/Paul_Gilbert', 'http://dbpedia.org/resource/Racer_X_(band)', 'http://dbpedia.org/resource/Richie_Kotzen', 'http://dbpedia.org/resource/Sons_of_Apollo', 'http://dbpedia.org/resource/Tak_Matsumoto_Group', 'http://dbpedia.org/resource/The_Winery_Dogs', 'http://dbpedia.org/resource/Willie_Basse'], 'abstract': 'Bump Ahead is the third studio album by the American hard rock band Mr. Big. It was released in 1993 by Atlantic.'}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Manic_(Halsey_album)', 'album_name': 'Manic', 'artist': 'http://dbpedia.org/resource/Halsey_(singer)', 'artist_name': 'Halsey', 'wiki': 'http://en.wikipedia.org/wiki/Manic_(Halsey_album)', 'released': '17 January 2020', 'producers': ['Alex Young', 'Andrew Jackson', 'Benny Blanco', 'Cashmere Cat', 'Duck Blackwell', 'Fred', 'Greg Kurstin', 'Halsey', 'Jasper Sheff', 'John Cunningham', 'Jon Bellion', 'Lido', 'Louis Bell', 'Ojivolta', 'Pdogg', 'Suga', 'The Monsters &amp; Strangerz'], 'writers': ['http://dbpedia.org/resource/Ammar_Malik', 'http://dbpedia.org/resource/Amy_Allen_(songwriter)', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Cashmere_Cat', 'http://dbpedia.org/resource/Ed_Sheeran', "http://dbpedia.org/resource/Finneas_O'Connell", 'http://dbpedia.org/resource/Fred_Again', 'http://dbpedia.org/resource/Greg_Kurstin', 'http://dbpedia.org/resource/Halsey_(singer)', 'http://dbpedia.org/resource/Jesse_Lacey', 'http://dbpedia.org/resource/Jon_Bellion', 'http://dbpedia.org/resource/Juice_Wrld', 'http://dbpedia.org/resource/Justin_Timberlake', 'http://dbpedia.org/resource/Lido_(musician)', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Marshmello', 'http://dbpedia.org/resource/Nate_Ruess', 'http://dbpedia.org/resource/Noonie_Bao', 'http://dbpedia.org/resource/Sarah_Aarons', 'http://dbpedia.org/resource/Scott_Storch', 'http://dbpedia.org/resource/Suga_(rapper)', 'http://dbpedia.org/resource/The_Monsters_&amp;_Strangerz', 'http://dbpedia.org/resource/The_xx', 'http://dbpedia.org/resource/Timbaland', 'S. Johnson', 'Vincent Accardi', 'Allen', 'Williams', 'Levin', 'Alex Young', 'Kurstin', 'Freddy Wexler', 'Perez', 'Storch', 'Jasper Sheff', 'Timberlake', 'Tierney', 'Losnegård', 'Andrew Jackson', 'Nathan Perez', 'Mike Farrell', 'Mosley', 'Brian Lane', 'Mark "Oji" Williams', 'Garrett Tierney', 'Johnathan Carter Cunningham', 'Høiberg', 'Sheff', 'Bell', 'Sherman', 'Gian Stone', 'Accardi', 'Derrick Sherman', 'Duck Blackwell', 'Lane', 'Fike', 'Brenton Duvall', 'Morissette', 'Farrell', 'Bellion', 'Dave Lubben', 'Lacey', 'Frangipane', 'Cunningham', 'Andrew Wells', 'Delacey', 'Kevin Snevely', 'K. Johnson', 'Brittany Amaradio'], 'awards': ['Gold', 'Platinum', 'Silver'], 'genres': ['Electropop', 'pop', 'hip hop', 'alternative rock'], 'related_artists': ['http://dbpedia.org/resource/Aron_Forbes', 'http://dbpedia.org/resource/Atticus_Ross', 'http://dbpedia.org/resource/G-Eazy', 'http://dbpedia.org/resource/Lost_Kings'], 'abstract': 'Manic is the third studio album by American singer-songwriter Halsey. It was released on January 17, 2020, through Capitol Records. It was preceded by the release of three singles: "Without Me", "Graveyard" and "You Should Be Sad", with featured guest appearances by Dominic Fike, Alanis Morissette, and Suga. The album debuted at number two on the Billboard 200 albums chart in the United States, becoming Halsey\'s third top-two album on the chart and her biggest album debut in the country to date, selling 239,000 units in its first week. Following its release, Manic was certified Platinum by the Recording Industry Association of America (RIAA) in the US, becoming the first album released in 2020 to achieve this. Music production was mainly handled by Halsey herself with the addition of frequent and new collaborators, such as Benny Blanco, Cashmere Cat, Finneas, Greg Kurstin, Jon Bellion, Lido, and Louis Bell, among others. Musically, Manic is primarily an electropop, hip hop, and alternative rock record with influences of several other genres, including country, K-pop, pop, and R&amp;B. Halsey described the album as changing its mind as much as she does. To promote the album, Halsey planned to embarked on her third concert tour, the Manic World Tour, following its release, but after 17 shows it was postponed, then cancelled due to the COVID-19 pandemic.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/OK_Computer', 'album_name': 'OK Computer', 'artist': 'http://dbpedia.org/resource/Radiohead', 'artist_name': 'Radiohead', 'wiki': 'http://en.wikipedia.org/wiki/OK_Computer', 'hometown': 'http://dbpedia.org/resource/Abingdon-on-Thames', 'released': '21 May 1997', 'producers': ['http://dbpedia.org/resource/Nigel_Godrich', 'Radiohead'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_rock', 'http://dbpedia.org/resource/Progressive_rock'], 'related_artists': ['http://dbpedia.org/resource/7_Worlds_Collide', 'http://dbpedia.org/resource/Atoms_for_Peace_(band)', 'http://dbpedia.org/resource/Blind_Mr._Jones', 'http://dbpedia.org/resource/Colin_Greenwood', "http://dbpedia.org/resource/Ed_O'Brien", 'http://dbpedia.org/resource/Go_Home_Productions', 'http://dbpedia.org/resource/Humphrey_Lyttelton', 'http://dbpedia.org/resource/James_Lavelle__James_Lavelle__1', 'http://dbpedia.org/resource/Jonathan_Morali', 'http://dbpedia.org/resource/Jonny_Greenwood', 'http://dbpedia.org/resource/Nigel_Godrich', 'http://dbpedia.org/resource/Philip_Selway', 'http://dbpedia.org/resource/Spirits_and_the_Melchizedek_Children', 'http://dbpedia.org/resource/The_Smile_(band)', 'http://dbpedia.org/resource/Thom_Yorke', 'http://dbpedia.org/resource/Unkle'], 'abstract': 'OK Computer is the third studio album by English rock band Radiohead, released on 21 May 1997 on EMI subsidiaries Parlophone and Capitol Records. Radiohead self-produced the album with Nigel Godrich, an arrangement they have used for their subsequent albums. Other than the song "Lucky", recorded in 1995, Radiohead recorded OK Computer in Oxfordshire and Bath in 1996 and early 1997, mostly in the historic mansion St Catherine\'s Court. The band distanced themselves from the guitar-centred, lyrically introspective style of their previous album, The Bends. OK Computer\'s abstract lyrics, densely layered sound and eclectic influences laid the groundwork for Radiohead\'s later, more experimental work. The album depicts a world fraught with rampant consumerism, social alienation, emotional isolation and political malaise; in this capacity, OK Computer has been said to have prescient insight into the mood of 21st-century life. The band used unconventional production techniques, including natural reverberation through recording on a staircase, and no audio separation. Strings were recorded at Abbey Road Studios in London. Guitarist Ed O\'Brien estimated that 80 per cent of the album was recorded live. Despite lowered sales estimates by EMI, who deemed the record uncommercial and difficult to market, OK Computer reached number one on the UK Albums Chart and debuted at number 21 on the Billboard 200, Radiohead\'s highest album entry on the US charts at the time, and was soon certified 5× platinum in the UK and double platinum in the US. The songs "Paranoid Android", "Karma Police", "Lucky" and "No Surprises" were released as singles. The album expanded Radiohead\'s international popularity and has sold at least 7.8 million units worldwide. A remastered version with additional tracks, OKNOTOK 1997 2017, was released in 2017, marking the album\'s twentieth anniversary. In 2019, in response to an internet leak, Radiohead released MiniDiscs [Hacked], comprising over 16 hours of demos, rehearsals, live performances and other material. OK Computer received critical acclaim and has been cited by listeners, critics and musicians as one of the greatest albums of all time. It was nominated for the Album of the Year and won Best Alternative Music Album at the 1998 Grammy Awards. It was also nominated for Best British Album at the 1998 Brit Awards. The album initiated a stylistic shift in British rock away from Britpop toward melancholic, atmospheric alternative rock that became more prevalent in the next decade. In 2014, it was included by the Library of Congress in the National Recording Registry as "culturally, historically, or aesthetically significant".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Still_Got_the_Blues', 'album_name': 'Still Got the Blues', 'artist': 'http://dbpedia.org/resource/Gary_Moore', 'artist_name': 'Gary Moore', 'wiki': 'http://en.wikipedia.org/wiki/Still_Got_the_Blues', 'released': '26 March 1990', 'producers': ['Gary Moore', 'Ian Taylor'], 'writers': ['http://dbpedia.org/resource/Don_Robey', 'http://dbpedia.org/resource/Elmore_James', 'http://dbpedia.org/resource/Freddie_King', 'http://dbpedia.org/resource/Joe_Medwick_(blues_musician)', 'http://dbpedia.org/resource/Sonny_Thompson', 'Moore'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Blues', 'http://dbpedia.org/resource/Blues_rock'], 'related_artists': ['http://dbpedia.org/resource/Andy_Pyle', 'http://dbpedia.org/resource/BBM_(band)', 'http://dbpedia.org/resource/Bob_Daisley', 'http://dbpedia.org/resource/Brian_Downey_(drummer)', 'http://dbpedia.org/resource/Charlie_Huhn', 'http://dbpedia.org/resource/Chris_Slade', 'http://dbpedia.org/resource/Colosseum_II', 'http://dbpedia.org/resource/Cozy_Powell', 'http://dbpedia.org/resource/Craig_Gruber', 'http://dbpedia.org/resource/Darrin_Mooney', 'http://dbpedia.org/resource/Don_Airey', 'http://dbpedia.org/resource/G-Force_(album)', 'http://dbpedia.org/resource/Gary_Barden', 'http://dbpedia.org/resource/Grand_Slam_(band)', 'http://dbpedia.org/resource/Greg_Lake', 'http://dbpedia.org/resource/Haydn_Bendall', 'http://dbpedia.org/resource/Ian_Paice', 'http://dbpedia.org/resource/Jimmy_Bain', 'http://dbpedia.org/resource/John_Sloman', 'http://dbpedia.org/resource/Jonathan_Noyce', 'http://dbpedia.org/resource/Lone_Star_(band)', 'http://dbpedia.org/resource/Mark_Nauseef', 'http://dbpedia.org/resource/Mick_Weaver', 'http://dbpedia.org/resource/Neil_Carter_(musician)', 'http://dbpedia.org/resource/Neil_Murray_(British_musician)', 'http://dbpedia.org/resource/Otis_Taylor_(musician)', 'http://dbpedia.org/resource/Phil_Lynott', 'http://dbpedia.org/resource/Pino_Palladino', 'http://dbpedia.org/resource/Scars_(Gary_Moore_album)', 'http://dbpedia.org/resource/Simon_Phillips_(drummer)', 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'http://dbpedia.org/resource/Ted_McKenna', 'http://dbpedia.org/resource/Thin_Lizzy', 'http://dbpedia.org/resource/Tommy_Aldridge', 'http://dbpedia.org/resource/Tony_Newton_(musician)'], 'abstract': "Still Got the Blues is the eighth solo studio album by Northern Irish guitarist Gary Moore, released in 1990. It marked a substantial change in style for Moore, who had been predominantly known for rock and hard rock music with Skid Row, Thin Lizzy, G-Force, Greg Lake and during his own extensive solo career, as well as his jazz-fusion work with Colosseum II. As indicated by its title, Still Got the Blues saw him delve into an electric blues style. The album features guest contributions from Albert King, Albert Collins and George Harrison. The title track was released as a single and reached No. 97 on the Billboard Hot 100 on 16 February 1991. It is the only single of Moore's to chart on the Billboard Hot 100. The album reached No. 83 on the Billboard 200 on 16 February 1991, then was certified gold by the RIAA on November 1995. This was Moore's most successful album both in terms of sales and chart position in the US."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Night_Visions', 'album_name': 'Night Visions', 'artist': 'http://dbpedia.org/resource/Imagine_Dragons', 'artist_name': 'Imagine Dragons', 'wiki': 'http://en.wikipedia.org/wiki/Night_Visions', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'released': '04 September 2012', 'producers': ['Alex da Kid ', 'Brandon Darner', 'Imagine Dragons'], 'writers': ['http://dbpedia.org/resource/Alex_da_Kid', 'http://dbpedia.org/resource/Ben_McKee', 'http://dbpedia.org/resource/Dan_Reynolds_(singer)', 'http://dbpedia.org/resource/Wayne_Sermon', 'Clint Holgate', 'Josh Mosser'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_rock', '*', 'hip hop', 'Rock', 'EDM'], 'related_artists': ['http://dbpedia.org/resource/Aja_Volkman', 'http://dbpedia.org/resource/Alex_da_Kid', 'http://dbpedia.org/resource/Andrew_Tolman', 'http://dbpedia.org/resource/Ben_McKee', 'http://dbpedia.org/resource/Cory_Henry', 'http://dbpedia.org/resource/DANiiVORY', 'http://dbpedia.org/resource/Daniel_Platzman', 'http://dbpedia.org/resource/Egyptian_(band)', 'http://dbpedia.org/resource/Gentlemen_Hall', 'http://dbpedia.org/resource/Hangi_Tavakoli', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Mark_Needham', 'http://dbpedia.org/resource/Parade_of_Lights', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Rob_Cohen_(record_producer)', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Sunset_Sons', 'http://dbpedia.org/resource/The_Funk_Hunters', 'http://dbpedia.org/resource/The_Moth_&amp;_The_Flame', 'http://dbpedia.org/resource/Wayne_Sermon', 'http://dbpedia.org/resource/X_Ambassadors'], 'abstract': "Night Visions is the debut studio album by American pop rock band Imagine Dragons. It was released on September 4, 2012, through KIDinaKORNER and Interscope Records. The extended version was released on February 12, 2013, adding three more songs and the UK release of the album was on March 26, 2013. Recorded between 2010 and 2012, the album was primarily produced by the band themselves, as well as English hip-hop producer Alex da Kid and Brandon Darner from the American indie rock group The Envy Corps. It was mastered by Joe LaPorta. According to frontman Dan Reynolds, the album took three years to finish, with six of the album's tracks being previously released on multiple EPs. Musically, Night Visions exhibits influences of folk, hip hop and pop. The album received generally mixed reviews from music critics upon release. However, it debuted at number two on the Billboard 200 in the United States, selling more than 83,000 copies within its first week where it has since been certified double Platinum. It also peaked at the summit of the Billboard Alternative Albums and Rock Albums charts, as well as in the top ten albums in Australia, Austria, Canada, Germany, Ireland, Mexico, Netherlands, New Zealand, Norway, Portugal, Sweden, Switzerland, and United Kingdom. Night Visions appeared in the Billboard 200 top 10 in 2012, 2013, and 2014. The album became the fourth best-selling album of 2013 in the US. It was nominated for the Juno Award for International Album of the Year (2014) and won the Billboard Music Award for Top Rock Album (2014)."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Born_Free_(Kid_Rock_album)', 'album_name': 'Born Free (álbum)', 'artist': 'http://dbpedia.org/resource/Kid_Rock', 'artist_name': 'Kid Rock', 'wiki': 'http://en.wikipedia.org/wiki/Born_Free_(Kid_Rock_album)', 'released': '16 November 2010', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'genres': ['http://dbpedia.org/resource/Country_music', 'http://dbpedia.org/resource/Heartland_rock', 'http://dbpedia.org/resource/Rock_and_roll'], 'related_artists': ['http://dbpedia.org/resource/Angaleena_Presley', 'http://dbpedia.org/resource/Bob_Seger', 'http://dbpedia.org/resource/Champtown', 'http://dbpedia.org/resource/D-Nice', 'http://dbpedia.org/resource/Dan_Dugmore', 'http://dbpedia.org/resource/Eric_Knight_(musician)', 'http://dbpedia.org/resource/Gretchen_Wilson', 'http://dbpedia.org/resource/Hank_Williams_Jr.', 'http://dbpedia.org/resource/James_Montgomery_(singer)', 'http://dbpedia.org/resource/Jerry_Lee_Lewis', 'http://dbpedia.org/resource/Jessy_Wilson', 'http://dbpedia.org/resource/Joe_C.', 'http://dbpedia.org/resource/Joseph_Simmons', 'http://dbpedia.org/resource/Matt_Sweeney', 'http://dbpedia.org/resource/Mike_E._Clark', 'http://dbpedia.org/resource/Misty_Love', 'http://dbpedia.org/resource/Paradime', 'http://dbpedia.org/resource/Sheryl_Crow', 'http://dbpedia.org/resource/Tantric_(band)', 'http://dbpedia.org/resource/Tim_Montana', 'http://dbpedia.org/resource/Tony_Dawsey', 'http://dbpedia.org/resource/Twisted_Brown_Trucker', 'http://dbpedia.org/resource/Uncle_Kracker', 'http://dbpedia.org/resource/Yelawolf'], 'abstract': 'Born Free is the eighth studio album by American musician Kid Rock. It was released on November 16, 2010 with the title track as its lead single. The country-oriented album was produced by Rick Rubin featuring several high-profile artists such as T.I., Sheryl Crow, and Bob Seger. This is Kid Rock\'s first, and to date, only album not to feature a Parental Advisory sticker and is his first all-country album. It is also the first album since 1993\'s The Polyfuze Method not to feature his backing band Twisted Brown Trucker. Marlon Young is the only member from Twisted Brown Trucker to perform on the album. Kid Rock describes it as "very organic blues-based rock and roll". Cable network TBS used the title track, "Born Free", for its coverage of the 2010 Major League Baseball postseason. As of June 16, 2011 Born Free is certified Platinum by the RIAA for shipments in excess of one million copies. This gave Kid Rock his sixth Platinum album certification in the US. A Michigan only promotion was released with the album. It was a 4-song EP called Racing Father Time.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Folie_à_Deux_(album)', 'album_name': 'Folie à deux (album)', 'artist': 'http://dbpedia.org/resource/Fall_Out_Boy', 'artist_name': 'Fall Out Boy', 'wiki': 'http://en.wikipedia.org/wiki/Folie_à_Deux_(album)', 'hometown': 'http://dbpedia.org/resource/Wilmette,_Illinois', 'released': '10 December 2008', 'producers': ['Neal Avron', 'Pharrell Williams'], 'writers': ['http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Norman_Greenbaum', 'http://dbpedia.org/resource/Pharrell_Williams', 'Trohman', 'Jackson', 'Stump', 'Greenbaum', 'Wentz', 'Hurley'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop rock', 'R&amp;B', 'alternative rock', 'pop', 'pop punk', 'power pop'], 'related_artists': ['http://dbpedia.org/resource/Arma_Angelus', 'http://dbpedia.org/resource/Racetraitor', 'http://dbpedia.org/resource/The_Damned_Things'], 'abstract': 'Folie à Deux ([fɔli a dø]; French for "A Madness Shared by Two") is the fourth studio album by American rock band Fall Out Boy, released on December 10, 2008, by Island Records. As with their previous two albums From Under the Cork Tree (2005) and Infinity on High (2007), its music was composed by lead vocalist and guitarist Patrick Stump, with lyrics penned by bassist Pete Wentz. Regarding the writing process, the band considered Folie à Deux to be their most collaborative record. Unlike their earlier releases, the album was recorded in relative secrecy with producer Neal Avron from July to September 2008. The recording sessions inspired lyricism relating to decaying relationships, moral dilemmas, and societal shortcomings, many with a political edge. The album\'s style moved away from early emo power chords and toward a wider variation in genres. Fall Out Boy recruited several guest artists for Folie à Deux, as well as employing instruments and recording techniques previously unfamiliar to the group. To promote the album, the band launched a viral campaign based around a Big Brother-type organization named "Citizens For Our Betterment" and embarked on an extensive tour schedule. Folie à Deux debuted at number eight on the US Billboard 200, selling over 149,000 copies in its first week of sales, although it was less commercially successful than Infinity on High. The album received favorable reviews from critics, with many focused on the creativity and various styles touched on while others expressed concern that it was overly indulgent. As of 2013, Folie à Deux has sold over 449,000 copies in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Boy_Who_Died_Wolf', 'album_name': 'The Boy Who Died Wolf', 'artist': 'http://dbpedia.org/resource/Highly_Suspect', 'artist_name': 'Highly Suspect', 'wiki': 'http://en.wikipedia.org/wiki/The_Boy_Who_Died_Wolf', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'released': '18 November 2016', 'producers': ['Joel Hamilton'], 'genres': ['Alternative rock', 'blues rock', 'grunge', 'punk blues'], 'related_artists': ['http://dbpedia.org/resource/Fairy_Bones'], 'abstract': 'The Boy Who Died Wolf is the second studio album by American rock band Highly Suspect. It was recorded in Bogotá, Colombia and Brooklyn, New York. The album\'s lead single "My Name Is Human" reached No. 1 on Billboard\'s Mainstream Rock chart, the band\'s first single to do so, and was nominated for Best Rock Song at the 59th Annual Grammy Awards. The album\'s second single, "Little One", had reached number 2 on the same chart as of October 2017.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Brothers_(The_Black_Keys_album)', 'album_name': 'Brothers (album de The Black Keys)', 'artist': 'http://dbpedia.org/resource/The_Black_Keys', 'artist_name': 'The Black Keys', 'wiki': 'http://en.wikipedia.org/wiki/Brothers_(The_Black_Keys_album)', 'hometown': 'http://dbpedia.org/resource/Akron,_Ohio', 'released': '18 May 2010', 'producers': ['Mark Neill', 'The Black Keys'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Blues_rock', 'http://dbpedia.org/resource/Garage_rock'], 'related_artists': ['http://dbpedia.org/resource/Blakroc', 'http://dbpedia.org/resource/Buffalo_Killers', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Danger_Mouse_(musician)', 'http://dbpedia.org/resource/Delicate_Steve', 'http://dbpedia.org/resource/Drummer_(band)', 'http://dbpedia.org/resource/JEFF_the_Brotherhood', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Learning_Music', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Ralph_Carney', 'http://dbpedia.org/resource/Richard_Swift_(singer-songwriter)', 'http://dbpedia.org/resource/The_Arcs', 'http://dbpedia.org/resource/The_Rentals', 'http://dbpedia.org/resource/The_Sore_Losers', 'http://dbpedia.org/resource/The_Stone_Foxes'], 'abstract': 'Brothers (printed as This is an album by The Black Keys. The name of this album is Brothers. on the front cover) is the sixth studio album by American rock duo The Black Keys. Co-produced by the group, Mark Neill, and Danger Mouse, it was released on May 18, 2010 on Nonesuch Records. Brothers was the band\'s commercial breakthrough, as it sold over 73,000 copies in the United States in its first week and peaked at number three on the Billboard 200, their best performance on the chart to that point. The album\'s lead single, "Tighten Up", the only track from the album produced by Danger Mouse, became their most successful single to that point, spending 10 weeks at number one on the Alternative Songs chart and becoming the group\'s first single on the Billboard Hot 100, peaking at number 87 and was later certified gold. The second single, "Howlin\' for You", went gold as well. In April 2012, the album was certified platinum in the US by the RIAA for shipping over one million copies. It also went double-platinum in Canada and gold in the UK. In 2011, it won three Grammy Awards, including honors for Best Alternative Music Album.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Breakfast_in_America', 'album_name': 'Breakfast in America', 'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Breakfast_in_America', 'hometown': 'http://dbpedia.org/resource/England', 'released': '29 March 1979', 'producers': ['Peter Henderson', 'Supertramp'], 'writers': ['Davies', 'Hodgson'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['*Pop ', '*art rock ', '*soft rock'], 'related_artists': ['http://dbpedia.org/resource/Bob_Siebenberg', 'http://dbpedia.org/resource/Carl_Verheyen', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cliff_Hugo', 'http://dbpedia.org/resource/Dougie_Thomson', 'http://dbpedia.org/resource/Frank_Farrell_(musician)', 'http://dbpedia.org/resource/Fred_Mandel', 'http://dbpedia.org/resource/John_Helliwell', 'http://dbpedia.org/resource/Mark_Hart', 'http://dbpedia.org/resource/Mike_Gormley', 'http://dbpedia.org/resource/Rick_Davies', 'http://dbpedia.org/resource/Roger_Hodgson', 'http://dbpedia.org/resource/Scott_Gorham', 'http://dbpedia.org/resource/Scott_Page', 'http://dbpedia.org/resource/Sonic_Elements', 'http://dbpedia.org/resource/The_Alan_Bown_Set'], 'abstract': 'Breakfast in America is the sixth studio album by the English rock band Supertramp, released by A&amp;M Records on 29 March 1979. It was recorded in 1978 at The Village Recorder in Los Angeles. It spawned four US Billboard hit singles: "The Logical Song" (No. 6), "Goodbye Stranger" (No. 15), "Take the Long Way Home" (No. 10) and "Breakfast in America" (No. 62). In the UK, "The Logical Song" and the title track were both top 10 hits, the only two the group had in their native country. At the 22nd Annual Grammy Awards in 1980, Breakfast in America won two awards for Best Album Package and Best Engineered Non-Classical Recording, as well as nominations for Album of the Year and Best Pop Performance by a Duo or Group with Vocals. It holds an RIAA certification of quadruple platinum and became Supertramp\'s biggest-selling album, with more than 4 million copies sold in the US and more than 3 million in France (the fourth ever best-selling album). It was No. 1 on Billboard Pop Albums Chart for six weeks, until 30 June 1979. The album also hit No. 1 in Norway, Austria, Spain, Canada, Australia and France.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Honey_(Ohio_Players_album)', 'album_name': 'Honey (Ohio Players album)', 'artist': 'http://dbpedia.org/resource/Ohio_Players', 'artist_name': 'Ohio Players', 'wiki': 'http://en.wikipedia.org/wiki/Honey_(Ohio_Players_album)', 'hometown': 'http://dbpedia.org/resource/Dayton,_Ohio', 'released': '16 August 1975', 'producers': ['http://dbpedia.org/resource/Ohio_Players'], 'genres': ['http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Rhythm_and_blues', 'http://dbpedia.org/resource/Soul_music'], 'related_artists': ['http://dbpedia.org/resource/Faze-O', 'http://dbpedia.org/resource/Leroy_%22Sugarfoot%22_Bonner', 'http://dbpedia.org/resource/Marshall_%22Rock%22_Jones', 'http://dbpedia.org/resource/Shadow_(group)', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison'], 'abstract': "Honey is the seventh studio album by American band the Ohio Players. Released on August 16, 1975 by Mercury Records. It is generally regarded as a classic, the band's best album, and the last great full-length release of their dominant era in the mid-1970s. Like previous albums by the band, Honey is known for a racy cover photo. In this case image is a nude woman holding a sticky jar of honey in one hand while lasciviously swallowing a spoonful of it with the other. The inside cover photo shows the nude woman lying on her back with honey poured all over her body, and the Players looking at her with sheer delight and amazement. The model was Playboy magazine's October 1974 Playmate of the Month, Ester Cordet. The album won a Grammy Award for Best Album Cover Art. The cover image also gained mild notoriety from urban legends involving one of the singles, Love Rollercoaster, one to the effect that the honey injured Cordet’s skin, ruining her career as a model, and another claiming that she was stabbed to death in the recording booth, with her scream captured on the song. These stories are false. The album was recorded and mixed at Paragon Recording Studios in Chicago, with Barry Mraz as the recording engineer. Marty Link, Steve Kusiciel, Rob Kingsland, and Paul Johnson are credited as tape operators. Gilbert Kong mastered the final mix at Masterdisk in New York City. The album peaked at #2 on the Billboard 200 during the week of September 27, 1975, kept out of the top spot by Jefferson Starship's Red Octopus. In addition, it was the third album from the band to top the Soul/Black Albums chart, where it spent three weeks."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Come_What(ever)_May', 'album_name': 'Come What(ever) May', 'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Come_What(ever)_May', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'released': '01 August 2006', 'producers': ['http://dbpedia.org/resource/Nick_Raskulinecz'], 'awards': ['Platinum'], 'genres': ['Alternative metal', 'hard rock', 'post-grunge'], 'related_artists': ['http://dbpedia.org/resource/Amebix', 'http://dbpedia.org/resource/Amen_(American_band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Black_President_(band)', 'http://dbpedia.org/resource/Cavalera_Conspiracy', 'http://dbpedia.org/resource/Christian_Martucci', 'http://dbpedia.org/resource/Fireball_Ministry', 'http://dbpedia.org/resource/Hellyeah', 'http://dbpedia.org/resource/Isaac_James', 'http://dbpedia.org/resource/Jim_Root', 'http://dbpedia.org/resource/Johny_Chow', 'http://dbpedia.org/resource/Josh_Rand', 'http://dbpedia.org/resource/Junk_Beer_Kidnap_Band', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Ministry_(band)', 'http://dbpedia.org/resource/Nausea_(band)', 'http://dbpedia.org/resource/Rachel_Bolan', 'http://dbpedia.org/resource/Roy_Mayorga', 'http://dbpedia.org/resource/Shannon_Larkin', 'http://dbpedia.org/resource/Slipknot_(band)', 'http://dbpedia.org/resource/Souls_of_We', 'http://dbpedia.org/resource/Sound_City_Players'], 'abstract': 'Come What(ever) May is the second studio album by American rock band Stone Sour. It was recorded and produced by the band and Nick Raskulinecz at Studio 606 in Los Angeles, California, and was released on August 1, 2006, by Roadrunner Records. Writing for the album began as early as 2003 when vocalist Corey Taylor and guitarist James Root were writing material for their other band, Slipknot. In January 2006, Stone Sour began recording their second album, during which time drummer Joel Ekman left the band because of family constraints. He was eventually replaced by ex-Soulfly drummer Roy Mayorga who played on all but two tracks on the album. Following the release of the album, Stone Sour promoted it for over a year, releasing five singles and touring in the United States, Canada, Japan and several countries in Europe. The album received generally positive reviews. It was praised for showing a progression in the band\'s song writing ability and musical style. It was also certified Platinum in the United States and the single "30/30-150" was nominated for Best Metal Performance at the 49th Grammy Awards. On June 26, 2007, Stone Sour released a special edition version of the album; it included six previously unreleased tracks and a bonus DVD with three music videos and a complete live performance by the band in Moscow. It remains their best-selling album to date, mostly due to the success of the single "Through Glass". As proof of this, the album became their first to be certified Platinum by the RIAA which occurred on July 21, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Velociraptor!', 'album_name': 'Velociraptor!', 'artist': 'http://dbpedia.org/resource/Kasabian', 'artist_name': 'Kasabian', 'wiki': 'http://en.wikipedia.org/wiki/Velociraptor!', 'hometown': 'http://dbpedia.org/resource/Leicester', 'released': '16 September 2011', 'producers': ['Dan the Automator', 'Sergio Pizzorno'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Neo-psychedelia', 'electronica', 'space rock', 'Electronic rock'], 'related_artists': ['http://dbpedia.org/resource/Beady_Eye', 'http://dbpedia.org/resource/Ian_Matthews_(drummer)', 'http://dbpedia.org/resource/Jay_Mehler', 'http://dbpedia.org/resource/Jim_Abbiss', 'http://dbpedia.org/resource/Loose_Tapestries', 'http://dbpedia.org/resource/Nika_Boon', 'http://dbpedia.org/resource/Noel_Fielding', 'http://dbpedia.org/resource/Oasis_(band)', 'http://dbpedia.org/resource/Serge_Pizzorno', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/The_S.L.P.', 'http://dbpedia.org/resource/Tom_Meighan'], 'abstract': 'Velociraptor! is the fourth studio album by English rock band Kasabian, released on 16 September 2011. The album has been described as expanding upon the neo-psychedelic feel of their previous album West Ryder Pauper Lunatic Asylum with a stronger emphasis on experimental song structures and instrumentation. It was released to critical acclaim and became their third UK number-one album, its lead single "Days Are Forgotten", first released in Belgium on 12 August, and in the United Kingdom on 9 September 2011 - debuted at number 28 on the UK Singles Chart. Their song was featured in EA Sports game, FIFA 12 with "Switchblade Smiles".'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Only_by_the_Night', 'album_name': 'Only by the Night', 'artist': 'http://dbpedia.org/resource/Kings_of_Leon', 'artist_name': 'Kings of Leon', 'wiki': 'http://en.wikipedia.org/wiki/Only_by_the_Night', 'hometown': 'http://dbpedia.org/resource/Tennessee', 'released': '19 September 2008', 'producers': ['http://dbpedia.org/resource/Angelo_Petraglia', 'http://dbpedia.org/resource/Jacquire_King'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Southern_rock'], 'related_artists': ['http://dbpedia.org/resource/A_Rocket_to_the_Moon', 'http://dbpedia.org/resource/Chris_James_(audio_engineer)', 'http://dbpedia.org/resource/Ethan_Luck', 'http://dbpedia.org/resource/Jacquire_King', 'http://dbpedia.org/resource/Johanna_Bennett', 'http://dbpedia.org/resource/Levi_Lowrey', "http://dbpedia.org/resource/Liam_O'Neil_(musician)", 'http://dbpedia.org/resource/Smoke_&amp;_Jackal', 'http://dbpedia.org/resource/The_Features', 'http://dbpedia.org/resource/The_Stills', 'http://dbpedia.org/resource/Timothy_Deaux'], 'abstract': 'Only by the Night (stylized as &gt;ONLY_BY_THE_NIGHT&gt;) is the fourth studio album by American alternative rock band Kings of Leon, released worldwide in September 2008. Writing for the band\'s fourth album commenced just days after the release of their third, Because of the Times. The album was recorded by producers Jacquire King and Angelo Petraglia in April 2008 at Nashville\'s Blackbird Studios. Only by the Night experienced commercial success, peaking inside the top 10 of over 10 different countries. The album was certified the best-selling album in Australia, certified nine times platinum. It also went on to be the highest selling album of 2008 in Australia, the third best selling album of 2008 in the UK, winning two Brit Awards, and the 18th best-selling album of the 2000s in the UK. Furthermore, two singles from the album have found high chartings, "Sex on Fire" coming in at number one in Ireland, the UK, Australia, and on the United States\' Hot Modern Rock Tracks, and at number two in New Zealand. The album\'s second single "Use Somebody" also charted at number two in the UK, and at number two in Australia, along with being the band\'s first top 10 hit in the U.S. The album was nominated for Best Rock Album at the 2009 Grammy Awards, with the song "Sex on Fire" receiving two nominations itself. Worldwide sales of the album exceed 6.2 million copies, according to a press release by the band. "Sex on Fire" came in at number one on the Triple J Hottest 100, 2008, with "Use Somebody" number three, "Closer" number 24 and "Crawl" number 70.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Get_Close', 'album_name': 'Get Close', 'artist': 'http://dbpedia.org/resource/The_Pretenders', 'artist_name': 'Pretenders', 'wiki': 'http://en.wikipedia.org/wiki/Get_Close', 'hometown': 'http://dbpedia.org/resource/Hereford', 'released': '20 October 1986', 'producers': ['http://dbpedia.org/resource/Bob_Clearmountain', 'http://dbpedia.org/resource/Jimmy_Iovine', 'http://dbpedia.org/resource/Steve_Lillywhite'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/New_wave_music', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/Bernie_Worrell', 'http://dbpedia.org/resource/Billy_Bremner_(musician)', 'http://dbpedia.org/resource/Carwyn_Ellis', 'http://dbpedia.org/resource/Chris_Thomas_(record_producer)', 'http://dbpedia.org/resource/Chris_Whitten', 'http://dbpedia.org/resource/Chrissie_Hynde', 'http://dbpedia.org/resource/Chucho_Merchán', 'http://dbpedia.org/resource/Colorama_(band)', 'http://dbpedia.org/resource/James_Honeyman-Scott', 'http://dbpedia.org/resource/James_Walbourne', 'http://dbpedia.org/resource/Jason_Narducy', 'http://dbpedia.org/resource/Jean_Beauvoir', 'http://dbpedia.org/resource/John_McKenzie_(musician)', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Johnny_Moped', 'http://dbpedia.org/resource/Martin_Chambers', 'http://dbpedia.org/resource/Pete_Farndon', 'http://dbpedia.org/resource/Robbie_McIntosh', 'http://dbpedia.org/resource/The_Smiths', 'http://dbpedia.org/resource/Tony_Butler_(musician)', 'http://dbpedia.org/resource/Tony_Secunda'], 'abstract': 'Get Close is the fourth album by rock group The Pretenders, released in 1986. The album contains the band\'s two biggest Mainstream Rock Tracks chart hits, "Don\'t Get Me Wrong" and "My Baby", both of which reached #1.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Alive_(Big_Bang_album)', 'album_name': 'Alive (Big Bang album)', 'artist': 'http://dbpedia.org/resource/Big_Bang_(band)', 'artist_name': 'BIGBANG', 'wiki': 'http://en.wikipedia.org/wiki/Alive_(Big_Bang_album)', 'hometown': 'http://dbpedia.org/resource/South_Korea', 'released': '28 March 2012', 'producers': ['http://dbpedia.org/resource/G-Dragon', 'http://dbpedia.org/resource/Teddy_Park', 'Max Matsuura', 'Yang Hyun-suk'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/2NE1', 'http://dbpedia.org/resource/Daishi_Dance', 'http://dbpedia.org/resource/GD_&amp;_TOP', 'http://dbpedia.org/resource/GD_X_Taeyang', 'http://dbpedia.org/resource/YG_Entertainment'], 'abstract': 'Alive is the fourth Japanese studio album (sixth overall) by South Korean boy band Big Bang. It was released on March 28, 2012 including 10 songs: 4 Japanese versions, 2 new songs and 4 songs already released in Korean from the EP of same name. The album is the first release of the group under the label YGEX, a partnership between the Korean agency YG Entertainment with the Japanese label Avex Trax. The album was re-released on June 20 under the name "Alive -Monster Edition-". It included 9 songs of the Alive original album, 1 Japanese version and 2 songs released in Korean.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Seeds_of_Love', 'album_name': 'The Seeds of Love', 'artist': 'http://dbpedia.org/resource/Tears_for_Fears', 'artist_name': 'Tears for Fears', 'wiki': 'http://en.wikipedia.org/wiki/The_Seeds_of_Love', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'released': '25 September 1989', 'producers': ['Dave Bascombe', 'Tears for Fears'], 'writers': ['http://dbpedia.org/resource/Curt_Smith', 'http://dbpedia.org/resource/Ian_Stanley', 'http://dbpedia.org/resource/Roland_Orzabal', 'Holland', 'Orzabal', 'Dave Bascombe', 'Nicky Holland'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Jazz_fusion', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Progressive_pop'], 'related_artists': ['http://dbpedia.org/resource/Graduate_(band)', 'http://dbpedia.org/resource/Neon_(British_band)', 'http://dbpedia.org/resource/Oleta_Adams'], 'abstract': 'The Seeds of Love is the third studio album by the British rock/pop band Tears for Fears, released on 25 September 1989. The album, which reportedly cost over £1 million (GBP) to produce (equivalent to £2.5 million in 2020), retained the band\'s epic sound while incorporating influences ranging from jazz and soul to Beatlesque pop, of which the latter is most evident on the hit single "Sowing the Seeds of Love". Further singles from the album include "Woman in Chains", a duet with Oleta Adams; and "Advice for the Young at Heart", both of which reached the top 40 in several countries. The Seeds of Love was an international success, entering the UK Albums Chart at number one and reaching the top ten in numerous other countries including the US. It has been certified Gold or Platinum in several territories including the United Kingdom, the United States, France, Germany, Canada, and the Netherlands. Despite its success, personal tensions during recording led to band members Curt Smith and Roland Orzabal splitting up at the conclusion of their 1990 world tour, with Orzabal remaining as the band\'s sole official member until the two reunited in the early 2000s.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Floored', 'album_name': 'Floored', 'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Floored', 'hometown': 'http://dbpedia.org/resource/United_States', 'released': '24 June 1997', 'producers': ['http://dbpedia.org/resource/David_Kahne'], 'genres': ['http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Skate_punk', 'Alternative metal', 'nu metal'], 'related_artists': ['http://dbpedia.org/resource/Band_of_Merrymakers', 'http://dbpedia.org/resource/DJ_Homicide', 'http://dbpedia.org/resource/Mark_McGrath', 'http://dbpedia.org/resource/Rodney_Sheppard', 'http://dbpedia.org/resource/Stan_Frazier_(musician)', 'http://dbpedia.org/resource/The_Interrupters_(band)', 'http://dbpedia.org/resource/The_Side_Deal', 'http://dbpedia.org/resource/The_Special_Goodness', 'http://dbpedia.org/resource/The_Wondergirls'], 'abstract': 'Floored is the second studio album by American rock band Sugar Ray, released on June 24, 1997. It includes the hit song "Fly", and another moderately successful single, "RPM". Two versions of "Fly" appear on the album, one of them featuring reggae artist Super Cat.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Lust_for_Life_(Iggy_Pop_album)', 'album_name': "Lust for Life (album d'Iggy Pop)", 'artist': 'http://dbpedia.org/resource/Iggy_Pop', 'artist_name': 'Iggy Pop', 'wiki': 'http://en.wikipedia.org/wiki/Lust_for_Life_(Iggy_Pop_album)', 'released': '09 September 1977', 'producers': ['http://dbpedia.org/resource/Colin_Thurston', 'http://dbpedia.org/resource/David_Bowie', 'Iggy Pop'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Proto-punk'], 'related_artists': ['http://dbpedia.org/resource/Andy_Anderson_(drummer)', 'http://dbpedia.org/resource/Andy_McCoy', 'http://dbpedia.org/resource/Barry_Andrews_(musician)', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Cat_Power', 'http://dbpedia.org/resource/Clem_Burke', 'http://dbpedia.org/resource/Danny_Kadar', 'http://dbpedia.org/resource/Danny_Sugerman', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Ed_Cherney', 'http://dbpedia.org/resource/Frank_Infante', 'http://dbpedia.org/resource/Gary_Lachman', 'http://dbpedia.org/resource/Ivan_Král', 'http://dbpedia.org/resource/James_Williamson_(musician)', 'http://dbpedia.org/resource/Jason_McCaslin', 'http://dbpedia.org/resource/Jenn_Vix', 'http://dbpedia.org/resource/Kate_Pierson', 'http://dbpedia.org/resource/Matt_Sweeney', 'http://dbpedia.org/resource/Michael_Erlewine', 'http://dbpedia.org/resource/Mooseman', 'http://dbpedia.org/resource/Nico', 'http://dbpedia.org/resource/Peaches_(musician)__Peaches__1', 'http://dbpedia.org/resource/Pete_Yorn', 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'http://dbpedia.org/resource/Richard_Sohl', 'http://dbpedia.org/resource/Ricky_Gardiner', 'http://dbpedia.org/resource/Rob_Duprey', 'http://dbpedia.org/resource/Rob_Zombie', 'http://dbpedia.org/resource/Scott_Asheton', 'http://dbpedia.org/resource/Scott_Hackwith', 'http://dbpedia.org/resource/Steve_Jones_(musician)', 'http://dbpedia.org/resource/Steve_New', 'http://dbpedia.org/resource/The_Furys_(new_wave_band)', 'http://dbpedia.org/resource/The_Nymphs', 'http://dbpedia.org/resource/The_Prime_Movers_(Michigan_band)', 'http://dbpedia.org/resource/The_Trolls', 'http://dbpedia.org/resource/Troy_Van_Leeuwen', 'http://dbpedia.org/resource/Underworld_(band)', 'http://dbpedia.org/resource/Whitey_Kirst'], 'abstract': 'Lust for Life is the second solo studio album by American musician Iggy Pop, released on September 9, 1977, by RCA Records. It was his second collaboration with English musician and friend David Bowie after The Idiot, released in March the same year. Shortly after Bowie released his own album Low in January, Pop went on a tour to support The Idiot with Bowie as his keyboardist. At the tour\'s conclusion, Pop and Bowie regrouped in Berlin to record the former\'s next solo album. Lust for Life was recorded at Hansa Studio by the Wall in West Berlin from May to June 1977, with production being handled by Bowie, Pop, and engineer Colin Thurston. The touring band of Pop, Bowie, guitarist Ricky Gardiner, and brothers Tony Fox and Hunt Sales on bass and drums, respectively, comprised the primary lineup for the album. After The Idiot was mostly composed by Bowie, Pop was adamant about having more control over Lust for Life, often composing his own arrangements, including for "Sixteen". This resulted in a hard rock and proto-punk sound more akin to his older style with the band the Stooges. Pop would use Bowie\'s arrangements for some songs, including the well-known title track. Upon release, Lust for Life received little promotion from RCA but nevertheless peaked at number 28 on the UK Albums Chart and would remain Pop\'s highest-charting album there until 2016\'s Post Pop Depression. It also peaked at number 8 in the Netherlands and number 120 on the US Billboard Top LPs &amp; Tape chart. Critically, Lust for Life was well-received, with many praising Pop\'s energetic performance throughout and his greater role compared to The Idiot; the former would later be regarded as one of his best works and has appeared on several best album lists. It also marked Pop and Bowie\'s final collaboration until the mid-1980s.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Eve_6_(album)', 'album_name': 'Eve 6 (album)', 'artist': 'http://dbpedia.org/resource/Eve_6', 'artist_name': 'Eve 6', 'wiki': 'http://en.wikipedia.org/wiki/Eve_6_(album)', 'hometown': 'http://dbpedia.org/resource/La_Crescenta-Montrose,_California', 'released': '28 April 1998', 'producers': ['Don Gilmore'], 'writers': ['Jones'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Power_pop'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Johnson_(musician)', 'http://dbpedia.org/resource/Fitness_(band)', 'http://dbpedia.org/resource/Fitness_(band)__Fitness__1', 'http://dbpedia.org/resource/Jon_Siebels', 'http://dbpedia.org/resource/Max_Collins_(musician)', 'http://dbpedia.org/resource/Tony_Fagenson'], 'abstract': 'Eve 6 is the debut studio album by American alternative rock band Eve 6. The record was released on April 28, 1998, by RCA Records.'}</t>
+  </si>
+  <si>
+    <t>{'album': "http://dbpedia.org/resource/It's_My_Life_–_The_Album", 'album_name': "It's My Life (album de Sash!)", 'artist': 'http://dbpedia.org/resource/Sash!', 'artist_name': 'Sash!', 'wiki': "http://en.wikipedia.org/wiki/It's_My_Life_–_The_Album", 'released': '25 August 1997', 'producers': ['Sash!', 'Tokapi'], 'writers': ['http://dbpedia.org/resource/Frankie_McCoy', 'Thomas Alisson', 'McCoy', 'Kappmeier', 'Piid', 'Lappessen', 'Sascha Lappessen', 'Volker Bertelmann', 'Alisson', 'El Topo', 'Ralf Kappmeier'], 'awards': ['Gold'], 'related_artists': ['http://dbpedia.org/resource/Dr._Alban', 'http://dbpedia.org/resource/Stunt_(group)', 'http://dbpedia.org/resource/Tony_T.'], 'abstract': 'It\'s My Life (also known as It\'s My Life – The Album) is the debut album by German DJ/production team Sash!, released on 25 August 1997 via Multiply and Polygram labels. Three singles were released from the album: "Encore Une Fois", "Ecuador" and "Stay". Two versions of the album exist, a one-disc version and a later version with a second disc featuring remixes. The album was certified platinum in the UK.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Wanted_(Yazz_album)', 'album_name': 'Wanted (Yazz album)', 'artist': 'http://dbpedia.org/resource/Yazz', 'artist_name': 'Yazz', 'wiki': 'http://en.wikipedia.org/wiki/Wanted_(Yazz_album)', 'released': '14 November 1988', 'producers': ['http://dbpedia.org/resource/Beatmasters', 'http://dbpedia.org/resource/Coldcut', 'http://dbpedia.org/resource/Mark_Brydon', 'http://dbpedia.org/resource/Youth_(musician)', 'Robert Gordon'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Pop_music'], 'related_artists': ['http://dbpedia.org/resource/Coldcut', 'http://dbpedia.org/resource/Ruby_Turner'], 'abstract': 'Wanted is the debut album by British pop singer Yazz, released in 1988. The album contains the single "The Only Way Is Up", which reached number one in six countries. Wanted was certified double platinum in the UK in September 1989, for sales exceeding 600,000 copies. A three-CD remastered deluxe edition, containing the original album plus B-sides, remixes and Yazz\'s 1990 non-album single "Treat Me Good", was released on Cherry Red Records on 25 November 2016.'}</t>
   </si>
   <si>
     <t>{'album': 'http://dbpedia.org/resource/Stadium_Arcadium', 'album_name': 'Stadium Arcadium', 'artist': 'http://dbpedia.org/resource/Red_Hot_Chili_Peppers', 'artist_name': 'Red Hot Chili Peppers', 'wiki': 'http://en.wikipedia.org/wiki/Stadium_Arcadium', 'hometown': 'http://dbpedia.org/resource/California', 'released': '09 May 2006', 'producers': ['http://dbpedia.org/resource/Rick_Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Funk_rock'], 'related_artists': ['http://dbpedia.org/resource/311_(band)', 'http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Arik_Marshall', 'http://dbpedia.org/resource/Ataxia_(band)', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Chad_Smith', "http://dbpedia.org/resource/Chad_Smith's_Bombastic_Meatbats", 'http://dbpedia.org/resource/Chickenfoot', 'http://dbpedia.org/resource/Cliff_Martinez', 'http://dbpedia.org/resource/D._H._Peligro', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dave_Navarro', 'http://dbpedia.org/resource/DeWayne_McKnight', 'http://dbpedia.org/resource/Deconstruction_(band)', 'http://dbpedia.org/resource/Dot_Hacker', 'http://dbpedia.org/resource/Eleven_(band)', 'http://dbpedia.org/resource/Fear_(band)', 'http://dbpedia.org/resource/Flea_(musician)', 'http://dbpedia.org/resource/Hillel_Slovak', 'http://dbpedia.org/resource/Jack_Irons', 'http://dbpedia.org/resource/Jack_Sherman', "http://dbpedia.org/resource/Jane's_Addiction", 'http://dbpedia.org/resource/Jesse_Tobias', 'http://dbpedia.org/resource/Jimmy_Boyle_(record_producer)', 'http://dbpedia.org/resource/John_Frusciante', 'http://dbpedia.org/resource/Josh_Klinghoffer', 'http://dbpedia.org/resource/Kiwi_Time', 'http://dbpedia.org/resource/Kristen_Vigard', 'http://dbpedia.org/resource/Lock_Up_(American_band)', 'http://dbpedia.org/resource/Marcel_Rodríguez-López', 'http://dbpedia.org/resource/Mauro_Refosco', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Omar_Rodríguez-López', 'http://dbpedia.org/resource/Ryan_Hewitt_(record_producer)', 'http://dbpedia.org/resource/The_Bicycle_Thief_(band)__The_Bicycle_Thief__1', 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/The_Panic_Channel', 'http://dbpedia.org/resource/The_Weirdos', 'http://dbpedia.org/resource/Thelonious_Monster', 'http://dbpedia.org/resource/Tree_(musician)', 'http://dbpedia.org/resource/Warpaint_(band)', 'http://dbpedia.org/resource/Weapon_of_Choice_(band)', 'http://dbpedia.org/resource/What_Is_This%3F', 'http://dbpedia.org/resource/Zavalaz'], 'abstract': 'Stadium Arcadium is the ninth studio album by American rock band Red Hot Chili Peppers. It was released on May 9, 2006, on Warner Bros. Records. It produced five singles: "Dani California", "Tell Me Baby", "Snow (Hey Oh)", "Desecration Smile" and "Hump de Bump", along with the first-ever fan-made music video for the song "Charlie". In the United States, Stadium Arcadium became the band\'s first number-one album. Stadium Arcadium was originally scheduled to be a trilogy of albums each released six months apart, but was eventually condensed into a double album. It was the group\'s last to feature guitarist John Frusciante before his departure in 2009 and return in 2019. The album was praised for integrating musical styles from several aspects of the band\'s career. The album gained the band seven Grammy Award nominations in 2007 including an award for Best Rock Album and one for Best Boxed or Special Limited Edition Package. Winning five out of seven Grammy Awards, it was the most nominations that the band had garnered in its 24-year career. Rolling Stone has included the album on its list of Best Albums of the 2000s. Kiedis attributed the album\'s success to less abrasive dynamics within the band, saying that the band\'s "chemistry, when it comes to writing, is better than ever. There was always a struggle to dominate lyrically. But we are now confident enough in who we are, so everybody feels more comfortable contributing more and more valuable, quality stuff."'}</t>
   </si>
   <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Best_of_1990–2000', 'album_name': 'The Best of 1990-2000', 'artist': 'http://dbpedia.org/resource/U2', 'artist_name': 'U2', 'wiki': 'http://en.wikipedia.org/wiki/The_Best_of_1990–2000', 'hometown': 'http://dbpedia.org/resource/Dublin', 'released': '02 December 2002', 'producers': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Bono', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Flood_(producer)', 'http://dbpedia.org/resource/Howie_B', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_Barrett', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/William_Orbit', "Ned O'Hanlon"], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Adam_Clayton', 'http://dbpedia.org/resource/Adrian_Bushby', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Ariel_Rechtshaid', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/Bagatelle_(band)', 'http://dbpedia.org/resource/Brian_Eno', 'http://dbpedia.org/resource/Cenzo_Townshend', 'http://dbpedia.org/resource/Daniel_Lanois', 'http://dbpedia.org/resource/Dik_Evans', 'http://dbpedia.org/resource/Florence_and_the_Machine', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/In_Tua_Nua', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Josh_Garza', 'http://dbpedia.org/resource/Kygo', 'http://dbpedia.org/resource/Larry_Mullen_Jr.', 'http://dbpedia.org/resource/Lost_Stories_(DJs)', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Mike_McKnight', 'http://dbpedia.org/resource/Nate_Walcott', 'http://dbpedia.org/resource/Nellee_Hooper', 'http://dbpedia.org/resource/Paul_McGuinness', 'http://dbpedia.org/resource/R.E.M.', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Sikter', 'http://dbpedia.org/resource/Simon_Gogerly', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Lillywhite', 'http://dbpedia.org/resource/The_Edge', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Mighty_Manatees', 'http://dbpedia.org/resource/Vinnie_Kilduff', 'http://dbpedia.org/resource/Virgin_Prunes'], 'abstract': 'The Best of 1990–2000 is the second greatest hits album by Irish rock band U2. It was released on 5 November 2002 through Island Records and Interscope Records. It was issued as both a single-disc CD compilation and as a multi-disc compilation called The Best of 1990–2000 &amp; B-Sides, which included a second disc of 14 B-sides released between 1990 and 2000 and a bonus DVD. A video album of the same name was later released in December 2002. The Best of 1990–2000 contained two newly recorded tracks, "Electrical Storm" and "The Hands That Built America"; the former was released as a single, while the latter was released on the soundtrack to Gangs of New York. The compilation also includes "new mixes" of several songs, as well the tracks "Hold Me, Thrill Me, Kiss Me, Kill Me" (a non-album single from 1995) and "Miss Sarajevo" (which was originally credited to Passengers and also released as a single in 1995). The album charted at number one in 13 countries and was the twelfth-best-selling album of 2002, according to the International Federation of the Phonographic Industry.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Break_the_Cycle', 'album_name': 'Break the Cycle', 'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Break_the_Cycle', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'released': '08 May 2001', 'producers': ['http://dbpedia.org/resource/Josh_Abraham'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'Post-grunge', 'nu metal'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Cold_(band)', 'http://dbpedia.org/resource/David_Bottrill', 'http://dbpedia.org/resource/Kilgore_(band)', 'http://dbpedia.org/resource/Mike_Mushok', 'http://dbpedia.org/resource/Newsted', 'http://dbpedia.org/resource/Saint_Asonia', 'http://dbpedia.org/resource/Soil_(American_band)', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': "Break the Cycle is the third studio album by American rock band Staind, released through Elektra Entertainment and Flip Records in 2001. It is Staind's most successful album to date, and was the album that broke them into the mainstream. It was a huge international success for the band, as it spent three weeks at number one position in the U.S. album charts and many weeks in the top 10 album charts of the Billboard 200, the UK and New Zealand. It sold at least 4 million copies in 2001. The album was certified 5x platinum by the RIAA."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Alive_(Big_Bang_album)', 'album_name': 'Alive (Big Bang album)', 'artist': 'http://dbpedia.org/resource/Big_Bang_(band)', 'artist_name': 'BIGBANG', 'wiki': 'http://en.wikipedia.org/wiki/Alive_(Big_Bang_album)', 'hometown': 'http://dbpedia.org/resource/South_Korea', 'released': '28 March 2012', 'producers': ['http://dbpedia.org/resource/G-Dragon', 'http://dbpedia.org/resource/Teddy_Park', 'Yang Hyun-suk', 'Max Matsuura'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Electropop', 'http://dbpedia.org/resource/Hip_hop_music'], 'related_artists': ['http://dbpedia.org/resource/2NE1', 'http://dbpedia.org/resource/Daishi_Dance', 'http://dbpedia.org/resource/GD_&amp;_TOP', 'http://dbpedia.org/resource/GD_X_Taeyang', 'http://dbpedia.org/resource/YG_Entertainment'], 'abstract': 'Alive is the fourth Japanese studio album (sixth overall) by South Korean boy band Big Bang. It was released on March 28, 2012 including 10 songs: 4 Japanese versions, 2 new songs and 4 songs already released in Korean from the EP of same name. The album is the first release of the group under the label YGEX, a partnership between the Korean agency YG Entertainment with the Japanese label Avex Trax. The album was re-released on June 20 under the name "Alive -Monster Edition-". It included 9 songs of the Alive original album, 1 Japanese version and 2 songs released in Korean.'}</t>
-  </si>
-  <si>
-    <t>{'album': "http://dbpedia.org/resource/Hangin'_Tough", 'album_name': "Hangin' Tough", 'artist': 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'artist_name': 'New Kids On The Block', 'wiki': "http://en.wikipedia.org/wiki/Hangin'_Tough", 'hometown': 'http://dbpedia.org/resource/Dorchester,_Boston', 'released': '12 August 1988', 'producers': ['http://dbpedia.org/resource/Maurice_Starr'], 'writers': ['http://dbpedia.org/resource/Donnie_Wahlberg', 'http://dbpedia.org/resource/Maurice_Starr', 'http://dbpedia.org/resource/Naughty_by_Nature', 'http://dbpedia.org/resource/Stevie_Wonder', 'D. Wahlberg', 'Abney', 'Michael Jones', 'Eric Andrew Hall', 'Marcella Brailsford', 'Terence Abney', 'Jensen', 'Starr', 'Brailsford', 'Hagen Dierks', 'Patrick Francois Arondel', 'Lars Halvor Jensen', 'Gist', 'Cito Crandle', 'Addaryll Wilson'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/98_Degrees', 'http://dbpedia.org/resource/Backstreet_Boys', 'http://dbpedia.org/resource/Boyz_II_Men', 'http://dbpedia.org/resource/Debbie_Gibson', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Marky_Mark_and_the_Funky_Bunch', 'http://dbpedia.org/resource/Maurice_Starr', 'http://dbpedia.org/resource/NKOTBSB', 'http://dbpedia.org/resource/Naughty_by_Nature', 'http://dbpedia.org/resource/Ne-Yo', 'http://dbpedia.org/resource/New_Edition', 'http://dbpedia.org/resource/Nick_&amp;_Knight', 'http://dbpedia.org/resource/Salt-N-Pepa', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_Pussycat_Dolls', 'http://dbpedia.org/resource/Tiffany_Darwish', 'http://dbpedia.org/resource/Upper_Street_(group)'], 'abstract': 'Hangin\' Tough is the second studio album by American boy band New Kids on the Block, released on August 12, 1988, by Columbia Records. It is widely regarded as the breakthrough album of the group\'s career, gaining positive reviews for their musical transition from bubblegum pop to urban contemporary, blended with popular rock music. Originally the group\'s label had already planned to end their contract when their first album in 1986 garnered little commercial and critical attention which nearly led to their breakup. However, Maurice Starr, the group\'s producer, diligently persuaded the label to let them record for a second album. Hangin\' Tough led the group to success due to the emergence of their music to radio airplay and creation of music videos for each released single, showcasing the group\'s visual appeal. Their popularity was eventually built as they made TV appearances and embarked on promotional tours. By the end of 1989, the album topped on the US Billboard 200 charts, while it peaked at number two on the Canadian Albums Chart that year and the UK Albums Chart the following year. The album has a home-media video release entitled New Kids on the Block: Hangin\' Tough which is a documented musical film about the group\'s biographical career, released in 1989. It also contains a series of music videos, live performances, and exclusive interviews from the group and their fans. The album and film received accolades: two American Music Awards and at least one Grammy Award nomination. With sales of more than 14 million copies worldwide to date, Hangin\' Tough became the group\'s best-selling album and it was certified diamond in Canada by the Canadian Recording Industry Association (CRIA) with sales of more than one million units, while 8× platinum in the U.S. by the Recording Industry Association of America (RIAA), making it the country\'s second best-selling album of 1989, behind Bobby Brown\'s Don\'t Be Cruel. The album spawned five commercial singles: "Please Don\'t Go Girl", "You Got It (The Right Stuff)", "I\'ll Be Loving You (Forever)", "Hangin\' Tough", and "Cover Girl". All were top-ten hits on the Billboard Hot 100 chart, making them the first teen act to gain such chart success. An album titled "More Hangin\' Tough", which included remixed and instrumental versions of the album songs was released in Japan. Following the release of the 30th Anniversary Edition of the album in 2019, which contains remixes of previous singles plus three newly recorded songs, the album re-entered the US Billboard 200 chart at number 18.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Native_(album)', 'album_name': 'Native (album)', 'artist': 'http://dbpedia.org/resource/OneRepublic', 'artist_name': 'OneRepublic', 'wiki': 'http://en.wikipedia.org/wiki/Native_(album)', 'hometown': 'http://dbpedia.org/resource/Colorado_Springs,_Colorado', 'released': '25 March 2013', 'producers': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brent_Kutzle', 'http://dbpedia.org/resource/Cassius_(band)', 'http://dbpedia.org/resource/Drew_Brown_(musician)', 'http://dbpedia.org/resource/Emile_Haynie', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Ryan_Tedder', 'Tyler Sam Johnson'], 'writers': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Brent_Kutzle', 'http://dbpedia.org/resource/Cassius_(band)', 'http://dbpedia.org/resource/Drew_Brown_(musician)', 'http://dbpedia.org/resource/Eddie_Fisher_(drummer)', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)', 'http://dbpedia.org/resource/Zach_Filkins', 'Tedder', 'Johnson', 'Zancanella', 'Boombass', 'Filkins', 'Bhasker', 'Fisher', 'Zdar', 'Brown', 'Blanco', 'Kutzle'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Pop_rock'], 'related_artists': ['http://dbpedia.org/resource/Alesso', 'http://dbpedia.org/resource/Greg_Wells', 'http://dbpedia.org/resource/Leona_Lewis', 'http://dbpedia.org/resource/Logic_(rapper)', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Peter_Gabriel', 'http://dbpedia.org/resource/Timbaland'], 'abstract': 'Native is the third studio album by American rock band OneRepublic. It was released on March 22, 2013 in Germany and Ireland, March 25 worldwide except North America, and March 26 in North America. The album was originally planned to be released at the end of 2012 with the lead single being "Feel Again", which was released on August 27, 2012. However, due to the album not being completed at the time, it was pushed back to early 2013. "Feel Again" was later branded as a promotional single, and on January 8, 2013, "If I Lose Myself" was released as the lead single for the album. The most successful single was the second single "Counting Stars", which peaked at number two on the Billboard Hot 100, becoming their highest-charting hit since "Apologize" also peaked there in 2007. It has also become their biggest hit in the United Kingdom—it topped the charts there for two non-consecutive weeks—and has charted within the top ten in nine countries, including top five placements in Australia, Germany, Ireland and New Zealand. The album\'s fourth single, "Something I Need", has since been certified 3× Platinum in Australia and Gold in New Zealand, peaking in the top 5 in both countries. Fifth single "Love Runs Out" charted in the top 5 in thirteen countries, including the United Kingdom, whilst the sixth and final single "I Lived" was a minor success. The album received positive reviews from critics. It charted in the top 20 in eleven countries worldwide. It has been certified Platinum in the United States, Australia and the United Kingdom.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Born_This_Way:_The_Remix', 'album_name': 'Born This Way: The Remix', 'artist': 'http://dbpedia.org/resource/Lady_Gaga', 'artist_name': 'Lady Gaga', 'wiki': 'http://en.wikipedia.org/wiki/Born_This_Way:_The_Remix', 'released': '18 November 2011', 'producers': ['http://dbpedia.org/resource/Cheche_Alara', 'http://dbpedia.org/resource/DJ_Aqeel', 'http://dbpedia.org/resource/DJ_White_Shadow', 'http://dbpedia.org/resource/Fernando_Garibay', 'http://dbpedia.org/resource/Foster_the_People', 'http://dbpedia.org/resource/Goldfrapp', 'http://dbpedia.org/resource/Hurts', 'http://dbpedia.org/resource/Illangelo', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Joseph_Mount', 'http://dbpedia.org/resource/Lady_Gaga', 'http://dbpedia.org/resource/Metronomy', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Röyksopp', 'http://dbpedia.org/resource/Sultan_&amp;_Shepard', 'http://dbpedia.org/resource/Svein_Berge', 'http://dbpedia.org/resource/The_Horrors', 'http://dbpedia.org/resource/The_Weeknd', 'http://dbpedia.org/resource/Torbjørn_Brundtland', 'http://dbpedia.org/resource/Twin_Shadow', 'http://dbpedia.org/resource/Two_Door_Cinema_Club', 'http://dbpedia.org/resource/Wild_Beasts', 'http://dbpedia.org/resource/Zedd', 'Mark Taylor', 'Guéna LG', 'Gregori Klosman'], 'awards': ['Gold'], 'genres': ['Electronic', 'dance'], 'related_artists': ['http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Arthur_Fogel', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Bree_Runway', 'http://dbpedia.org/resource/Cazwell', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Clinton_Sparks', "http://dbpedia.org/resource/Colby_O'Donis", 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/David_Jost', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Hyper_Crush', 'http://dbpedia.org/resource/Infected_Mushroom', 'http://dbpedia.org/resource/Jae_Deal', 'http://dbpedia.org/resource/Jake_Gosling', 'http://dbpedia.org/resource/Jeppe_Laursen', 'http://dbpedia.org/resource/Kalenna_Harper', 'http://dbpedia.org/resource/Kyle_Townsend', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Larry_Tee', 'http://dbpedia.org/resource/Madeon', 'http://dbpedia.org/resource/Martin_Kierszenbaum', 'http://dbpedia.org/resource/Melle_Mel', 'http://dbpedia.org/resource/Melvin_E._Brown', 'http://dbpedia.org/resource/Michael_Woods_(DJ)', 'http://dbpedia.org/resource/New_Kids_on_the_Block', 'http://dbpedia.org/resource/Nico_Constantine', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Orville_Peck', 'http://dbpedia.org/resource/Rafa_Sardina', 'http://dbpedia.org/resource/Rami_Yacoub', 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/RedOne', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Rudy_Nicoletti', 'http://dbpedia.org/resource/Ryan_Shore', 'http://dbpedia.org/resource/Salem_Al_Fakir', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Space_Cowboy_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Starsmith', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/Vincent_Herbert', 'http://dbpedia.org/resource/Water_(producer)'], 'abstract': "Born This Way: The Remix is the second remix album by American singer Lady Gaga, released on November 18, 2011 by Interscope. This album contains remixes of multiple songs from Gaga's second studio album, Born This Way. It was also released as part of the Born This Way: The Collection, a special edition release including the 17-track version of Gaga's second studio album and a DVD release of the HBO concert special Lady Gaga Presents the Monster Ball Tour: At Madison Square Garden. Most of the remixes had been available in the remix EPs released alongside each single from Born This Way. Musically, the album is an electronic and dance record; there are also influences of Europop, techno and dubstep within the composition. Critics gave mixed reviews for the album, with their general complaint being that the release was unnecessary. Most of them, however, complimented The Weeknd, Twin Shadow and Guéna LG's remixes. It earned an overall score of 57 out of 100, on review aggregator site Metacritic. Commercially, Born This Way: The Remix achieved minor success, entering the charts in ten countries. Its highest peak position was attained in Japan, where it reached number 14. It also peaked at number 105 on the Billboard 200 chart in the United States."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Uptown_Special', 'album_name': 'Uptown Special', 'artist': 'http://dbpedia.org/resource/Mark_Ronson', 'artist_name': 'Mark Ronson', 'wiki': 'http://en.wikipedia.org/wiki/Uptown_Special', 'released': '13 January 2015', 'producers': ['http://dbpedia.org/resource/Boys_Noize', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/DJ_Zinc', 'http://dbpedia.org/resource/Emile_Haynie', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Riton_(musician)', 'http://dbpedia.org/resource/Totally_Enormous_Extinct_Dinosaurs'], 'writers': ['http://dbpedia.org/resource/Andrew_Wyatt', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/Charlie_Wilson_(singer)', 'http://dbpedia.org/resource/Homer_Steinweiss', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/Kevin_Parker_(musician)', 'http://dbpedia.org/resource/Lonnie_Simmons', 'http://dbpedia.org/resource/Mark_Ronson', 'http://dbpedia.org/resource/Michael_Chabon', 'http://dbpedia.org/resource/Mystikal', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Rufus_Wainwright', 'http://dbpedia.org/resource/Thomas_Brenneck', 'http://dbpedia.org/resource/Trinidad_James', 'Chris Vatalaro', 'Haynie', 'Brody Brown', 'Rudolph Taylor', 'Bhasker', 'Mars', 'Ronnie Wilson', 'Chabon', 'Movshon', 'Ronson', 'Alex Greenwald', 'Devon Gallaspy', 'Parker', 'Lawrence', 'Robert Wilson'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Contemporary_R&amp;B', 'http://dbpedia.org/resource/Funk'], 'related_artists': ['http://dbpedia.org/resource/Alex_Greenwald', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Angel_Olsen', 'http://dbpedia.org/resource/Best_Kept_Secret_(production_team)', 'http://dbpedia.org/resource/Big_Kap', 'http://dbpedia.org/resource/Daniel_Merriweather', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Dave_McCabe', 'http://dbpedia.org/resource/Doc_Brown_(rapper)', 'http://dbpedia.org/resource/Domino_Kirke', 'http://dbpedia.org/resource/Duran_Duran', 'http://dbpedia.org/resource/Emile_Haynie__Emile_Haynie__1', 'http://dbpedia.org/resource/Homer_Steinweiss', 'http://dbpedia.org/resource/Jarami', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jordan_Galland', 'http://dbpedia.org/resource/Jr_Blender', 'http://dbpedia.org/resource/Julian_Perretta', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Nick_Hodgson', 'http://dbpedia.org/resource/Nick_Movshon', 'http://dbpedia.org/resource/Picard_Brothers', 'http://dbpedia.org/resource/Q-Tip_(musician)', 'http://dbpedia.org/resource/Raissa_(Malaysian-British_singer)', 'http://dbpedia.org/resource/Rhymefest', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Rose_Elinor_Dougall', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Sharon_Jones_&amp;_the_Dap-Kings', 'http://dbpedia.org/resource/SugaRush_Beat_Company', 'http://dbpedia.org/resource/The_Brand_New_Heavies', 'http://dbpedia.org/resource/The_Ghost_of_a_Saber_Tooth_Tiger', 'http://dbpedia.org/resource/Thomas_Brenneck', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Victor_Axelrod', 'http://dbpedia.org/resource/Wale_(rapper)', 'http://dbpedia.org/resource/Zowie'], 'abstract': "Uptown Special is the fourth studio album by English record producer Mark Ronson. The album was released on 13 January 2015 in the US and 19 January 2015 in the UK. It is his first album in nearly five years, following Record Collection (2010) and his first solo album since Version (2007). Ronson dedicated the album to the late Amy Winehouse. Uptown Special became Ronson's first number one on the UK Albums Chart (with his previous two albums charting at number two), and reached number two on the Australian ARIA Albums Chart and number five on the US Billboard 200."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Minutes_to_Midnight_(Linkin_Park_album)', 'album_name': 'Minutes to Midnight', 'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Minutes_to_Midnight_(Linkin_Park_album)', 'released': '14 May 2007', 'producers': ['http://dbpedia.org/resource/Mike_Shinoda', 'Rick Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['Alternative rock', 'alternative metal'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Lewis', 'http://dbpedia.org/resource/Adrian_Young__Adrian_Young__1', 'http://dbpedia.org/resource/Amir_Derakh', 'http://dbpedia.org/resource/Beta_State', 'http://dbpedia.org/resource/Brad_Delson', 'http://dbpedia.org/resource/Camp_Freddy', 'http://dbpedia.org/resource/Contemplate_(pop_duo)', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Dave_Farrell', 'http://dbpedia.org/resource/David_Brown_(British_musician)', 'http://dbpedia.org/resource/Dead_by_Sunrise', 'http://dbpedia.org/resource/Hoobastank', 'http://dbpedia.org/resource/Ilsey_Juber', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Joe_Hahn', 'http://dbpedia.org/resource/Jonathan_Davis', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julien-K', 'http://dbpedia.org/resource/Justin_Lassen', 'http://dbpedia.org/resource/Kings_of_Chaos_(band)', 'http://dbpedia.org/resource/KutMasta_Kurt', 'http://dbpedia.org/resource/Mickey_Petralia', 'http://dbpedia.org/resource/Money_Mark', 'http://dbpedia.org/resource/Neal_Avron', 'http://dbpedia.org/resource/RAC_(musician)', 'http://dbpedia.org/resource/Rob_Bourdon', 'http://dbpedia.org/resource/Ryan_Key', 'http://dbpedia.org/resource/Ryan_Shuck', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Steve_Aoki', 'http://dbpedia.org/resource/Steve_Jablonsky', 'http://dbpedia.org/resource/Steven_McKellar', 'http://dbpedia.org/resource/Stone_Temple_Pilots', 'http://dbpedia.org/resource/Styles_of_Beyond', 'http://dbpedia.org/resource/The_X-Ecutioners', 'http://dbpedia.org/resource/Tom_Dumont', 'http://dbpedia.org/resource/Tony_Kanal', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Xombie_(band)', 'http://dbpedia.org/resource/Z-Trip'], 'abstract': 'Minutes to Midnight is the third studio album by American rock band Linkin Park, released on May 14, 2007, through Warner Bros. Records. The album was produced by Mike Shinoda and Rick Rubin, and first album not produced by Don Gilmore, who had produced the band\'s two previous albums. Minutes to Midnight was the band\'s follow-up album to Meteora (2003) and features a shift in the group\'s musical direction. For the band, the album marks a beginning of deviation from their signature nu metal sound. Minutes to Midnight takes its title from the Doomsday Clock. It is also the band\'s first full-length album to carry a Parental Advisory label. Linkin Park started working on their third studio album in 2003, taking a break to tour in support of Meteora in 2004. In this time period, the band formed numerous side projects; Mike Shinoda formed his hip hop side project Fort Minor, while Chester Bennington formed Dead by Sunrise, both of which caused the album to be shelved temporarily. The band returned to work on the record afterward, taking on a different musical direction than the 2003 sessions while working with producer Rick Rubin. The album\'s completion was delayed several times for unknown reasons. Eventually, "What I\'ve Done" was chosen as the album\'s lead single in April 2007, with the album seeing release in North America on May 15, 2007. The album debuted at number one in the US Billboard 200 and in 15 other countries, including the United Kingdom and Canada. In the United States, the album had the biggest first week sales of 2007 at the time, with 623,000 albums sold, going on to be certified fourfold platinum in the United States. It was also certified double platinum in New Zealand, Italy, Ireland, and Australia and certified platinum in Canada, France, Switzerland and in the UK. It has sold more than four million copies in the US and 20 million copies worldwide. It was ranked number 154 on Billboard\'s Hot 200 Albums of the Decade. But despite its commercial success, Minutes to Midnight received mixed reviews from critics. Rolling Stone magazine, however, named it the twenty-fifth best album of 2007.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Lullabies_to_Paralyze', 'album_name': 'Lullabies to Paralyze', 'artist': 'http://dbpedia.org/resource/Queens_of_the_Stone_Age', 'artist_name': 'Queens of the Stone Age', 'wiki': 'http://en.wikipedia.org/wiki/Lullabies_to_Paralyze', 'hometown': 'http://dbpedia.org/resource/Palm_Desert,_California', 'released': '21 March 2005', 'producers': ['http://dbpedia.org/resource/Joe_Barresi', 'http://dbpedia.org/resource/Josh_Homme'], 'writers': ['Homme, Van Leeuwen, Castillo, Lanegan', 'Homme, Van Leeuwen, Josh Freese, Castillo, Alain Johannes', 'Joshua Homme, Troy Van Leeuwen, Joey Castillo, Mark Lanegan'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Stoner_rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_North', 'http://dbpedia.org/resource/Alain_Johannes', 'http://dbpedia.org/resource/Alfredo_Hernández', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Beaver_(band)', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Blast_(American_band)', 'http://dbpedia.org/resource/Brody_Dalle', 'http://dbpedia.org/resource/Cage_the_Elephant', 'http://dbpedia.org/resource/Chris_Goss', 'http://dbpedia.org/resource/Creature_with_the_Atom_Brain_(band)', 'http://dbpedia.org/resource/Dan_Druff_(musician)', 'http://dbpedia.org/resource/Dave_Catching', 'http://dbpedia.org/resource/Dean_Fertita', 'http://dbpedia.org/resource/Dwarves_(band)', 'http://dbpedia.org/resource/Eagles_of_Death_Metal', 'http://dbpedia.org/resource/Eleven_(band)', 'http://dbpedia.org/resource/Enemy_(American_band)', 'http://dbpedia.org/resource/Failure_(band)', 'http://dbpedia.org/resource/Fififf_Teeners', 'http://dbpedia.org/resource/Gone_Is_Gone', 'http://dbpedia.org/resource/Goon_Moon', 'http://dbpedia.org/resource/Iggy_Pop', 'http://dbpedia.org/resource/James_Lavelle__James_Lavelle__1', 'http://dbpedia.org/resource/Jesse_Hughes_(musician)', 'http://dbpedia.org/resource/Joey_Castillo', 'http://dbpedia.org/resource/John_McBain_(musician)', 'http://dbpedia.org/resource/Jon_Theodore', 'http://dbpedia.org/resource/Jubilee_(band)', 'http://dbpedia.org/resource/Kyuss', 'http://dbpedia.org/resource/Mark_Lanegan', 'http://dbpedia.org/resource/Masters_of_Reality', 'http://dbpedia.org/resource/Matt_Cameron', 'http://dbpedia.org/resource/Matt_Sweeney', 'http://dbpedia.org/resource/Michael_Shuman', 'http://dbpedia.org/resource/Mike_Johnson_(bassist)', 'http://dbpedia.org/resource/Mini_Mansions', 'http://dbpedia.org/resource/Molly_McGuire', 'http://dbpedia.org/resource/Mondo_Generator', 'http://dbpedia.org/resource/Natasha_Shneider', 'http://dbpedia.org/resource/Nick_Oliveri', 'http://dbpedia.org/resource/One_Day_as_a_Lion__One_Day_As_A_Lion__1', 'http://dbpedia.org/resource/Paz_Lenchantin', 'http://dbpedia.org/resource/Peter_Stahl', 'http://dbpedia.org/resource/Roxy_Saint', 'http://dbpedia.org/resource/Screaming_Trees', 'http://dbpedia.org/resource/Shirley_Manson', 'http://dbpedia.org/resource/Snake_River_Conspiracy', 'http://dbpedia.org/resource/Sound_City_Players', 'http://dbpedia.org/resource/Spinnerette', 'http://dbpedia.org/resource/Sugartooth', 'http://dbpedia.org/resource/Sweet_Apple', 'http://dbpedia.org/resource/Sweethead', 'http://dbpedia.org/resource/The_Dead_Weather', 'http://dbpedia.org/resource/The_Desert_Sessions', 'http://dbpedia.org/resource/The_Mars_Volta', 'http://dbpedia.org/resource/The_Waxwings', 'http://dbpedia.org/resource/The_Wondergirls', 'http://dbpedia.org/resource/Them_Crooked_Vultures', 'http://dbpedia.org/resource/Troy_Van_Leeuwen', 'http://dbpedia.org/resource/Unkle', 'http://dbpedia.org/resource/Vista_Chino', 'http://dbpedia.org/resource/Wasted_Youth_(American_band)', 'http://dbpedia.org/resource/We_Fell_to_Earth', 'http://dbpedia.org/resource/Wellwater_Conspiracy', 'http://dbpedia.org/resource/Wendy_Rae_Fowler', 'http://dbpedia.org/resource/Wires_on_Fire', 'http://dbpedia.org/resource/Zilch_(band)'], 'abstract': "Lullabies to Paralyze is the fourth studio album by American rock band Queens of the Stone Age, released on March 21, 2005. The album debuted at #5 on the Billboard 200, and sold 97,000 copies in America during its first week of release, eventually topping over 342,000 copies as of March, 2007 according to Nielsen Soundscan. The album has been certified gold in the UK, where it has sold over 100,000 units. It is also the band's first album to be released after bassist Nick Oliveri was fired from the band. Singer/guitarist Josh Homme and singer Mark Lanegan are the only members from the previous album, Songs for the Deaf, to play on this album and it is the first album to feature drummer Joey Castillo and guitarist Troy Van Leeuwen."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Life_for_Rent', 'album_name': 'Life for Rent', 'artist': 'http://dbpedia.org/resource/Dido_(singer)', 'artist_name': 'Dido', 'wiki': 'http://en.wikipedia.org/wiki/Life_for_Rent', 'released': '29 September 2003', 'producers': ['http://dbpedia.org/resource/Dido_(singer)', 'http://dbpedia.org/resource/Mike_Hedges', 'http://dbpedia.org/resource/Rollo_Armstrong'], 'writers': ['http://dbpedia.org/resource/Aubrey_Nunn', 'http://dbpedia.org/resource/Lester_Mendez', 'http://dbpedia.org/resource/Rick_Nowels', 'http://dbpedia.org/resource/Rollo_Armstrong', 'Mark Bates', 'R. Armstrong', 'D. Armstrong', 'Nowels', 'John "Pnut" Harrison', 'Dido Armstrong'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Folk-pop'], 'related_artists': ['http://dbpedia.org/resource/Citizen_Cope', 'http://dbpedia.org/resource/Davide_Rossi', 'http://dbpedia.org/resource/Dusted_(British_band)', 'http://dbpedia.org/resource/Eminem', 'http://dbpedia.org/resource/Faithless', 'http://dbpedia.org/resource/KK_(composer,_producer)', 'http://dbpedia.org/resource/Kendrick_Lamar', 'http://dbpedia.org/resource/Pascal_Gabriel', 'http://dbpedia.org/resource/Rollo_Armstrong', 'http://dbpedia.org/resource/Sister_Bliss', 'http://dbpedia.org/resource/Skinny_(band)'], 'abstract': 'Life for Rent is the second studio album by English singer Dido, released by Arista Records on 29 September 2003. The album was produced by Rollo Armstrong and American songwriter Rick Nowels. Work on the album began in mid-2002. It was certified 9× Platinum by the BPI, and sold over 12 million copies worldwide, making it the fourth best-selling album worldwide of 2003. The album became the seventh best-selling album of the 2000s in the UK, making Dido the only singer to have two albums in the Top 10 list. As of 2015 Life for Rent is the 34th best-selling album in UK chart history. In 2019 it was listed the 15th best-selling album of the 21st century in the UK.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Kylie_(album)', 'album_name': 'Kylie', 'artist': 'http://dbpedia.org/resource/Kylie_Minogue', 'artist_name': 'Kylie Minogue', 'wiki': 'http://en.wikipedia.org/wiki/Kylie_(album)', 'released': '04 July 1988', 'producers': ['http://dbpedia.org/resource/Stock_Aitken_Waterman'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Bubblegum_music', 'http://dbpedia.org/resource/Dance-pop'], 'related_artists': ['http://dbpedia.org/resource/Amy_Wadge', 'http://dbpedia.org/resource/Autumn_Rowe', 'http://dbpedia.org/resource/Ayak_Thiik', 'http://dbpedia.org/resource/Basto', 'http://dbpedia.org/resource/Christian_Karlsson_(DJ)__Christian_Karlsson__1', 'http://dbpedia.org/resource/Christophe_Willem', 'http://dbpedia.org/resource/Cliff_Masterson', 'http://dbpedia.org/resource/DNA_(duo)', "http://dbpedia.org/resource/Daddy's_Groove", 'http://dbpedia.org/resource/Emilíana_Torrini', 'http://dbpedia.org/resource/Flawless_(dance_troupe)', 'http://dbpedia.org/resource/Gary_Miller_(music_producer)', 'http://dbpedia.org/resource/Gary_Nuttall', 'http://dbpedia.org/resource/Giorgio_Moroder', 'http://dbpedia.org/resource/GoodWill_&amp;_MGI', 'http://dbpedia.org/resource/Graham_Stack_(record_producer)', "http://dbpedia.org/resource/Jamie_O'Neal", 'http://dbpedia.org/resource/Jonas_Quant', 'http://dbpedia.org/resource/Joshua_%22J.D.%22_Walker', 'http://dbpedia.org/resource/Keith_Washington', 'http://dbpedia.org/resource/Kim_Sozzi', 'http://dbpedia.org/resource/Leon_Jackson', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Magnus_Lidehäll', 'http://dbpedia.org/resource/Marco_Sabiu', 'http://dbpedia.org/resource/Mike_Spencer', 'http://dbpedia.org/resource/Mike_Stock_(musician)', 'http://dbpedia.org/resource/Mim_Grey', 'http://dbpedia.org/resource/Miranda_Cooper', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nervo_(DJs)', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Pascal_Gabriel', 'http://dbpedia.org/resource/Pauline_Bennett', 'http://dbpedia.org/resource/Phil_Spalding', 'http://dbpedia.org/resource/Rob_Davis_(musician)', 'http://dbpedia.org/resource/Samuel_Dixon', 'http://dbpedia.org/resource/Scissor_Sisters', 'http://dbpedia.org/resource/Steven_Malcolmson', 'http://dbpedia.org/resource/Stock_Aitken_Waterman', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Taio_Cruz', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Zoo_Brazil'], 'abstract': 'Kylie is the debut studio album by Australian recording artist Kylie Minogue, released on 4 July 1988 by Mushroom Records. Minogue had established herself as a child actress before signing to the record label in early 1987. The success of her debut single, "Locomotion", resulted in her working with Stock, Aitken and Waterman, who produced the album and wrote nine of its ten tracks. Their recording sessions, which started in September 1987 and took place in London and Melbourne, coincided with Minogue filming for the soap opera Neighbours. Musically, Kylie is a bubblegum pop and dance-pop album. It received mixed reviews from music critics who criticized its dated production. It was a commercial success, peaking at number one in the United Kingdom for six weeks and becoming the fifth highest-selling album of the decade. It peaked at number two in her native Australia, while reaching the top ten in Germany, Norway, and Switzerland. Kylie was re-issued in 1988 as The Kylie Collection, and in 2015 when it returned to the UK Albums Chart. The album has sold over five million copies worldwide. Six singles were released Kylie. "I Should Be So Lucky" reached number one in Australia and the United Kingdom, the first for any artist. The subsequent singles—"Got to Be Certain", the re-recorded "The Loco-Motion", and "Je ne sais pas pourquoi" all peaked in the top two on the UK Singles Chart. "It\'s No Secret" was her third top-forty single on the Billboard Hot 100, while "Turn It into Love" was released exclusively in Japan. The album\'s commercial success helped Minogue establish herself as an international teen idol and launch her recording career.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Good_Girl_Gone_Bad:_Reloaded', 'album_name': 'Good Girl Gone Bad: Reloaded', 'artist': 'http://dbpedia.org/resource/Rihanna', 'artist_name': 'Rihanna', 'wiki': 'http://en.wikipedia.org/wiki/Good_Girl_Gone_Bad:_Reloaded', 'released': '02 June 2008', 'producers': ['http://dbpedia.org/resource/Brian_Kennedy_(record_producer)', 'http://dbpedia.org/resource/J._R._Rotem', 'http://dbpedia.org/resource/Justin_Timberlake', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Makeba_Riddick', 'http://dbpedia.org/resource/Mark_Endert', 'http://dbpedia.org/resource/Maroon_5', 'http://dbpedia.org/resource/Mike_Elizondo', 'http://dbpedia.org/resource/Ne-Yo', 'http://dbpedia.org/resource/Neo_da_Matrix', 'http://dbpedia.org/resource/Shea_Taylor', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/The-Dream', 'http://dbpedia.org/resource/Timbaland', 'http://dbpedia.org/resource/Tricky_Stewart', 'Hannon Lane'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop', 'dance-pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Adam_Blackstone', 'http://dbpedia.org/resource/Adam_Ross_(musician)', 'http://dbpedia.org/resource/Alex_Feather_Akimov', 'http://dbpedia.org/resource/Allen_Ritter', 'http://dbpedia.org/resource/Bibi_Bourelly', 'http://dbpedia.org/resource/Blacka_Di_Danca', 'http://dbpedia.org/resource/Carl_Restivo', 'http://dbpedia.org/resource/Carl_Sturken_and_Evan_Rogers', 'http://dbpedia.org/resource/Charlie_Vox', 'http://dbpedia.org/resource/Chase_&amp;_Status', 'http://dbpedia.org/resource/Chew_Fu', 'http://dbpedia.org/resource/Chris_Gehringer', 'http://dbpedia.org/resource/Chuck_Harmony', 'http://dbpedia.org/resource/Cirkut', 'http://dbpedia.org/resource/Congorock', 'http://dbpedia.org/resource/Cover_Drive', 'http://dbpedia.org/resource/Craig_Bauer', 'http://dbpedia.org/resource/Dan_Balan', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Dwane_Husbands', 'http://dbpedia.org/resource/Eskeerdo', 'http://dbpedia.org/resource/Ester_Dean', 'http://dbpedia.org/resource/Fred_Ball_(producer)', 'http://dbpedia.org/resource/Gary_Go', 'http://dbpedia.org/resource/Hal_Linton', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jason_Iley', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/John_Hill_(record_producer)__John_Hill__1', 'http://dbpedia.org/resource/Josh_Stevens', 'http://dbpedia.org/resource/Justin_Parker', 'http://dbpedia.org/resource/KeyLiza', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lost_Kings', 'http://dbpedia.org/resource/Mikky_Ekko', 'http://dbpedia.org/resource/Ms._Triniti', 'http://dbpedia.org/resource/Nova_Wav', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Omar_Grant', 'http://dbpedia.org/resource/Paul_Oakenfold', 'http://dbpedia.org/resource/Rob._A!', 'http://dbpedia.org/resource/Rosabel', 'http://dbpedia.org/resource/Rupee_(musician)', 'http://dbpedia.org/resource/Salva_(music_producer)', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Sistanova', 'http://dbpedia.org/resource/Stargate_(record_producers)', 'http://dbpedia.org/resource/Starrah', 'http://dbpedia.org/resource/Stevie_Blacke'], 'abstract': 'Good Girl Gone Bad: Reloaded is the reissue of Barbadian singer Rihanna\'s third studio album Good Girl Gone Bad (2007). It was first released digitally in selected countries on June 2, 2008, by Def Jam Recordings and SRP Records. Launched to mark the first anniversary of the original album, Good Girl Gone Bad: Reloaded features three newly recorded songs and a DVD showing exclusive behind-the-scenes footage of Rihanna\'s worldwide tour, the Good Girl Gone Bad Tour (2007–2009). For the new material, she worked with past collaborators Ne-Yo, Stargate, and C. "Tricky" Stewart, as well as Brian Kennedy, Mark Endert, Mike Elizondo, Mark "Spike" Stent and Maroon 5. Good Girl Gone Bad: Reloaded received generally positive reviews from music critics, who praised the sound and production of the newly added material. However, other critics felt that the album was not worthy of re-release with only three new songs. Among other awards and achievements, the reissue\'s songs earned two Grammy nominations at the 2009 ceremony; "Disturbia" was nominated for Best Dance Recording, while "If I Never See Your Face Again" received a nomination for Best Pop Collaboration with Vocals. Following its release, the reissue helped Good Girl Gone Bad re-enter several national charts. Good Girl Gone Bad: Reloaded sold 63,000 copies in its first week and helped the original album peak at number seven on the US Billboard 200 chart. The reissue charted in New Zealand and peaked at number four; it was certified platinum by the Recording Industry Association of New Zealand (RIANZ), denoting shipments of over 15,000 copies. Good Girl Gone Bad: Reloaded was promoted with four singles, including the US number-one hits "Take a Bow" and "Disturbia", and "If I Never See Your Face Again", which featured Maroon 5. To further promote the album, Rihanna performed songs from the reissue on several television programs and award ceremonies including FNMTV and the 2008 MTV Video Music Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Awake_and_Remixed_EP', 'album_name': 'Awake and Remixed - EP', 'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Awake_and_Remixed_EP', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'released': '22 March 2011', 'writers': ['Cooper, Gavin Brown', 'Cooper, Howes', 'Cooper, Korey Cooper', 'John Cooper, Brian Howes'], 'genres': ['http://dbpedia.org/resource/Christian_rock', 'http://dbpedia.org/resource/Electronica'], 'related_artists': ['http://dbpedia.org/resource/Brian_Howes', 'http://dbpedia.org/resource/Jen_Ledger', 'http://dbpedia.org/resource/John_Cooper_(musician)', 'http://dbpedia.org/resource/Scarlet_White', 'http://dbpedia.org/resource/T._J._Harris'], 'abstract': 'Awake and Remixed EP is the EP album from the Christian rock band Skillet. All songs are remixed versions from their previous album, Awake. It was released on March 22, 2011 and debuted at No. 98 on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/1989_(Taylor_Swift_album)', 'album_name': '1989 (album)', 'artist': 'http://dbpedia.org/resource/Taylor_Swift', 'artist_name': 'Taylor Swift', 'wiki': 'http://en.wikipedia.org/wiki/1989_(Taylor_Swift_album)', 'released': '27 October 2014', 'producers': ['Max Martin', 'Taylor Swift', 'Shellback', 'Jack Antonoff', 'Ryan Tedder', 'Noel Zancanella', 'Ali Payami', 'Nathan Chapman', 'Imogen Heap', 'Mattman &amp; Robin'], 'writers': ['http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Imogen_Heap', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Max_Martin', 'http://dbpedia.org/resource/Ryan_Tedder', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Taylor_Swift', 'Martin', 'Swift', 'Antonoff', 'Tedder'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Dessner', 'http://dbpedia.org/resource/Ali_Payami', 'http://dbpedia.org/resource/Big_Red_Machine_(band)', 'http://dbpedia.org/resource/Bon_Iver', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Cautious_Clay', 'http://dbpedia.org/resource/Chad_Lefkowitz-Brown', 'http://dbpedia.org/resource/Dan_Wilson_(musician)', 'http://dbpedia.org/resource/Eric_Darken', 'http://dbpedia.org/resource/Gary_Lightbody', 'http://dbpedia.org/resource/Hillary_Lindsey', 'http://dbpedia.org/resource/Jack_Antonoff', 'http://dbpedia.org/resource/Jennifer_Nettles', 'http://dbpedia.org/resource/Jimmy_Napes', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/Jonathan_Yudkin', 'http://dbpedia.org/resource/Justin_Vernon', 'http://dbpedia.org/resource/Kristian_Bush', 'http://dbpedia.org/resource/Liz_Rose', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Mattias_Bylund', 'http://dbpedia.org/resource/Nathan_Chapman_(record_producer)', 'http://dbpedia.org/resource/Nick_Buda', 'http://dbpedia.org/resource/Noel_Zancanella', 'http://dbpedia.org/resource/Phoebe_Bridgers__Phoebe_Bridgers__1', "http://dbpedia.org/resource/Please_Don't_Destroy", 'http://dbpedia.org/resource/Randy_Merrill', 'http://dbpedia.org/resource/Reeve_Carney', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Robert_Ellis_Orrall', 'http://dbpedia.org/resource/Sam_Dew', 'http://dbpedia.org/resource/Shea_Fisher', 'http://dbpedia.org/resource/Shellback_(record_producer)', 'http://dbpedia.org/resource/Sugarland', 'http://dbpedia.org/resource/The_National_(band)', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)', 'http://dbpedia.org/resource/Tyler_Johnson_(musician)'], 'abstract': '1989 is the fifth studio album by American singer-songwriter Taylor Swift. It was released on October 27, 2014, by Big Machine Records. Following the release of her genre-spanning fourth studio album Red (2012), noted for its pop hooks and electronic accents, the media questioned the validity of Swift\'s status as a country artist. Inspired by 1980s synth-pop to create a record that shifted her sound and image from country to mainstream pop, Swift enlisted Max Martin as co-executive producer, and titled her fifth album after her birth year as a symbolic rebirth of her artistry. The album\'s synth-pop sound is characterized by heavy synthesizers, programmed drums, and processed backing vocals. Swift wrote the songs inspired by her personal relationships, which had been a trademark of her songwriting. The songs on 1989 express lighthearted perspectives, departing from her previous hostile attitude towards failed romance. Swift and Big Machine promoted the album extensively through product endorsements, television, radio appearances and social media. They pulled 1989 from free streaming services such as Spotify, prompting an industry discourse on the impact of streaming on music sales. After the album\'s release, Swift embarked on the 1989 World Tour, which was the highest-grossing tour of 2015. The album was supported by seven singles, including three US Billboard Hot 100 number ones: "Shake It Off", "Blank Space", and "Bad Blood". Critics praised Swift\'s songwriting in 1989 for offering emotional engagement that they found uncommon in the mainstream pop scene. Meanwhile, the synth-pop production raised questions regarding Swift\'s authenticity as a lyricist. The album appeared on several publications\' lists of the best albums of the 2010s and featured in Rolling Stone\'s 2020 revision of their 500 Greatest Albums of All Time. At the 58th Grammy Awards in 2016, 1989 won Album of the Year and Best Pop Vocal Album, making Swift the first female solo artist to win Album of the Year twice. 1989 was a commercial success. In the US, Swift became the first artist to have three albums each sell over one million copies within their first week of release. The album spent 11 weeks atop the Billboard 200 and received a ninefold platinum certification from the Recording Industry Association of America (RIAA). It also earned multi-platinum certifications in Australia, Canada, and the UK, and has sold over 10 million pure copies worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Highly_Evolved', 'album_name': 'Highly Evolved', 'artist': 'http://dbpedia.org/resource/The_Vines_(band)', 'artist_name': 'The Vines', 'wiki': 'http://en.wikipedia.org/wiki/Highly_Evolved', 'hometown': 'http://dbpedia.org/resource/Sydney', 'released': '14 July 2002', 'producers': ['http://dbpedia.org/resource/Rob_Schnapf'], 'writers': ['Dave Olliffe', 'Nicholls'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Garage_punk_(fusion_genre)', 'http://dbpedia.org/resource/Neo-psychedelia', 'http://dbpedia.org/resource/Post-grunge', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/Andy_Kent', 'http://dbpedia.org/resource/Brad_Heald', 'http://dbpedia.org/resource/Craig_Nicholls', 'http://dbpedia.org/resource/David_Olliffe', 'http://dbpedia.org/resource/Dune_Rats', 'http://dbpedia.org/resource/Hamish_Rosser', 'http://dbpedia.org/resource/Justin_Stanley', 'http://dbpedia.org/resource/Red_Riders', 'http://dbpedia.org/resource/Ryan_Griffiths_(guitarist)', 'http://dbpedia.org/resource/The_Red_Sun_Band', 'http://dbpedia.org/resource/Wolfmother'], 'abstract': 'Highly Evolved is the debut studio album by Australian alternative rock band The Vines. It was released on 14 July 2002 on Capitol Records. Produced by Rob Schnapf, known for his collaboration with Tom Rothrock on Elliott Smith\'s albums Either/Or, XO, and Figure 8, Highly Evolved was an immensely popular debut, part of a trend towards garage rock revival bands known as much for the relentless hype from the UK music press as for their music; The Vines were frequently compared to Nirvana. The debut single, "Highly Evolved", was chosen as Single of the Week by influential British music magazine NME. The magazine also voted it the 2nd best album of the year in 2002. The album was also included in the book 1001 Albums You Must Hear Before You Die. In October 2010, it was listed in the book 100 Best Australian Albums.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Girls,_Girls,_Girls_(Mötley_Crüe_album)', 'album_name': 'Girls, Girls, Girls', 'artist': 'http://dbpedia.org/resource/Mötley_Crüe', 'artist_name': 'Mötley Crüe', 'wiki': 'http://en.wikipedia.org/wiki/Girls,_Girls,_Girls_(Mötley_Crüe_album)', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'released': '15 May 1987', 'producers': ['http://dbpedia.org/resource/Tom_Werman'], 'genres': ['Glam metal', 'arena rock', 'heavy metal'], 'related_artists': ['http://dbpedia.org/resource/58_(band)', 'http://dbpedia.org/resource/Angora_(band)', 'http://dbpedia.org/resource/Brides_of_Destruction', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Dave_Amato', 'http://dbpedia.org/resource/Eric_Singer_Project', 'http://dbpedia.org/resource/Hanoi_Rocks', 'http://dbpedia.org/resource/John_Corabi', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/L.A._Guns', 'http://dbpedia.org/resource/London_(heavy_metal_band)', 'http://dbpedia.org/resource/Methods_of_Mayhem', 'http://dbpedia.org/resource/Mick_Mars', 'http://dbpedia.org/resource/Mike_Clink', 'http://dbpedia.org/resource/Morgan_Rose', 'http://dbpedia.org/resource/Nikki_Sixx', 'http://dbpedia.org/resource/Randy_Castillo', 'http://dbpedia.org/resource/Rock_Star_Supernova', 'http://dbpedia.org/resource/Samantha_Maloney', 'http://dbpedia.org/resource/Sister_(band)', 'http://dbpedia.org/resource/Sixx:A.M.', 'http://dbpedia.org/resource/Stas_Namin', 'http://dbpedia.org/resource/Stephen_Shareaux', 'http://dbpedia.org/resource/The_Dead_Daisies', 'http://dbpedia.org/resource/The_Jada_Kings', 'http://dbpedia.org/resource/The_Scream_(band)', 'http://dbpedia.org/resource/Union_(band)__Union__1', 'http://dbpedia.org/resource/Vicky_Hamilton', 'http://dbpedia.org/resource/Vince_Neil', 'http://dbpedia.org/resource/Will_Hunt'], 'abstract': 'Girls, Girls, Girls is the fourth studio album by American heavy metal band Mötley Crüe, released on May 15, 1987. The album contains the hit singles "Girls, Girls, Girls", "You\'re All I Need", and the MTV favorite "Wild Side". It was the band\'s final collaboration with producer Tom Werman, who had produced the band\'s two previous albums, Shout at the Devil and Theatre of Pain. Like those albums, Girls, Girls, Girls would achieve quadruple platinum status, selling over 4 million copies and reaching number two on the Billboard 200. The album marked a change to a blues-rock influenced sound, which was met with positive reception.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/PopArt:_The_Hits', 'album_name': 'PopArt: The Hits', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/PopArt:_The_Hits', 'hometown': 'http://dbpedia.org/resource/London', 'released': '24 November 2003', 'producers': ['Pet Shop Boys'], 'related_artists': ['http://dbpedia.org/resource/Adam_F', 'http://dbpedia.org/resource/Andy_Richards', 'http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Arthur_Baker_(musician)', 'http://dbpedia.org/resource/Blue_Weaver', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/Bobby_Orlando', 'http://dbpedia.org/resource/Chris_Lowe', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Cicero', 'http://dbpedia.org/resource/Dusty_Springfield', 'http://dbpedia.org/resource/Electronic_(band)', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Ennio_Morricone', 'http://dbpedia.org/resource/Example_(musician)', 'http://dbpedia.org/resource/Haydn_Bendall', 'http://dbpedia.org/resource/Johnny_Marr', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Mac_and_Katie_Kissoon', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Morten_Harket', 'http://dbpedia.org/resource/Neil_Tennant', 'http://dbpedia.org/resource/Pete_Burns', 'http://dbpedia.org/resource/Philip_Oakey', 'http://dbpedia.org/resource/Prayers_(duo)', 'http://dbpedia.org/resource/Robbie_Williams', 'http://dbpedia.org/resource/Sam_Taylor-Johnson', 'http://dbpedia.org/resource/Simon_Hill_(musician)', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/Stuart_Price', 'http://dbpedia.org/resource/Stuart_Price__Stuart_Price__1', 'http://dbpedia.org/resource/Sylvia_Mason-James', 'http://dbpedia.org/resource/Take_That', 'http://dbpedia.org/resource/The_Imogen_Styles', 'http://dbpedia.org/resource/The_Killers', 'http://dbpedia.org/resource/Tiger_Love_(musical_group)', 'http://dbpedia.org/resource/Virgil_Howe', 'http://dbpedia.org/resource/Years_&amp;_Years', 'http://dbpedia.org/resource/Yoad_Nevo'], 'abstract': 'PopArt: The Hits is a greatest hits album by English synth-pop duo Pet Shop Boys. It was released on 24 November 2003 by Parlophone. The album consists of Pet Shop Boys\' top 20 UK singles along with two new tracks, "Miracles" and "Flamboyant", which were also released as singles.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Cornerstone_(Styx_album)', 'album_name': 'Cornerstone (Styx)', 'artist': 'http://dbpedia.org/resource/Styx_(band)', 'artist_name': 'Styx', 'wiki': 'http://en.wikipedia.org/wiki/Cornerstone_(Styx_album)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'released': '19 October 1979', 'producers': ['http://dbpedia.org/resource/Styx_(band)'], 'writers': ['DeYoung', 'DeYoung, Shaw', 'Shaw', 'Shaw, DeYoung', 'Young'], 'genres': ['http://dbpedia.org/resource/Pop_rock', 'http://dbpedia.org/resource/Soft_rock'], 'related_artists': ['http://dbpedia.org/resource/7th_Heaven_(band)', 'http://dbpedia.org/resource/Bad_English', 'http://dbpedia.org/resource/Chuck_Panozzo', 'http://dbpedia.org/resource/Damn_Yankees_(band)', 'http://dbpedia.org/resource/Dennis_DeYoung', 'http://dbpedia.org/resource/Don_Felder', 'http://dbpedia.org/resource/Glen_Burtnik', 'http://dbpedia.org/resource/James_Young_(American_musician)', 'http://dbpedia.org/resource/John_Curulewski', 'http://dbpedia.org/resource/John_Panozzo', 'http://dbpedia.org/resource/Lawrence_Gowan', 'http://dbpedia.org/resource/REO_Speedwagon', 'http://dbpedia.org/resource/Ricky_Phillips', 'http://dbpedia.org/resource/Schon_&amp;_Hammer', 'http://dbpedia.org/resource/Shaw_Blades', 'http://dbpedia.org/resource/Target_(American_band)', 'http://dbpedia.org/resource/Tenacious_D', 'http://dbpedia.org/resource/The_Babys', 'http://dbpedia.org/resource/The_Orchestra_(band)', 'http://dbpedia.org/resource/Todd_Sucherman', 'http://dbpedia.org/resource/Tommy_Shaw', 'http://dbpedia.org/resource/Zon_(band)'], 'abstract': 'Cornerstone is the ninth studio album by the American rock band Styx, released in 1979. Styx\'s third straight multi-platinum selling album, Cornerstone was Styx\'s first album to earn a Grammy nomination, which was for Best Rock Performance by a Duo or Group. Like the four previous Styx albums, the band produced the album themselves. Styx recorded the album at Pumpkin Studios in Oak Lawn, Illinois. Cornerstone is best known for including the group\'s only #1 Billboard Hot 100 Single, the power ballad "Babe". The album also includes the folk rock song "Boat on the River", which was a hit in Europe, though it failed to chart in the United States. Cornerstone became Styx\'s first US Top 5 album, peaking at #2 on the Billboard album chart.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Save_Me,_San_Francisco', 'album_name': 'Save Me, San Francisco', 'artist': 'http://dbpedia.org/resource/Train_(band)', 'artist_name': 'Train', 'wiki': 'http://en.wikipedia.org/wiki/Save_Me,_San_Francisco', 'hometown': 'http://dbpedia.org/resource/United_States', 'released': '26 October 2009', 'producers': ['http://dbpedia.org/resource/Bill_Szymczyk', 'http://dbpedia.org/resource/Espionage_(production_team)', 'http://dbpedia.org/resource/Gregg_Wattenberg', 'http://dbpedia.org/resource/Martin_Terefe', 'http://dbpedia.org/resource/S*A*M_and_Sluggo'], 'writers': ['http://dbpedia.org/resource/Dave_Katz_(songwriter)', 'http://dbpedia.org/resource/Jay-Z', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Pat_Monahan', 'http://dbpedia.org/resource/Sam_Hollander', 'http://dbpedia.org/resource/The-Dream', 'http://dbpedia.org/resource/Tricky_Stewart', 'Monahan, Espen Lind, Amund Bjørklund', 'Monahan, Butch Walker', 'Monahan, Ryan Tedder', 'Monahan, Sacha Skarbek', 'Monahan', 'Monahan, Lind, Bjørklund', 'Monahan, Underwood, Stafford, Charlie Colin, Rob Hotchkiss', 'Monahan, Jerry Becker, Luis Maldonado', 'Monahan, Underwood', 'Monahan, Kevin Griffin, Patrick Simmons', 'Monahan, Wattenberg', 'Monahan, Bjørklund, Lind, Geir Hvidsten', 'Monahan, Wattenberg, Jimmy Stafford, Scott Underwood'], 'awards': ['Platinum'], 'genres': ['Rock', 'pop rock', 'roots rock'], 'related_artists': ['http://dbpedia.org/resource/Brand_New_Immortals', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Charlie_Colin', 'http://dbpedia.org/resource/Charlie_Gillingham', 'http://dbpedia.org/resource/Days_of_the_New', 'http://dbpedia.org/resource/Foreigner_(band)', 'http://dbpedia.org/resource/Johnny_Colt', 'http://dbpedia.org/resource/Kevin_Sucher', 'http://dbpedia.org/resource/Mark_Evitts', 'http://dbpedia.org/resource/Pat_Monahan', 'http://dbpedia.org/resource/Sacha_Skarbek', 'http://dbpedia.org/resource/The_Family_Crest', 'http://dbpedia.org/resource/The_Side_Deal', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Wayland_(band)', 'http://dbpedia.org/resource/William_Wiik_Larsen'], 'abstract': 'Save Me, San Francisco is California rock band Train\'s fifth studio album and the first of two albums recorded as a three-piece. It was released on October 26, 2009, through Columbia Records. The album was certified Platinum by the Recording Industry Association of America on April 7, 2021. The album\'s first single, "Hey, Soul Sister", which marked a return to the group\'s folk-rock roots, was released to digital retailers on August 11, 2009. The single has since become Train\'s fourth career Top 40 hit on the Billboard Hot 100 and second career top 10 hit, reaching number three 26 weeks after it was released. It is also the band\'s highest-peaking single to date in their native United States, as well as Canada, Australia, the Netherlands and New Zealand. The follow-up single, "If It\'s Love", became Train\'s fourth-career chart-topping single on the Adult Top 40 and peaking at #34 on the Billboard Hot 100. "Marry Me" was released on October 25 as the third single from the record — it debuted on the Billboard Hot 100 at #95 and has reached #34. "Save Me, San Francisco" was released on April 25, 2011 as the fifth single from the record, and peaked at #75 on the Hot 100.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Scream_(Michael_Jackson_album)', 'album_name': 'Scream (마이클 잭슨의 음반)', 'artist': 'http://dbpedia.org/resource/Michael_Jackson', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Scream_(Michael_Jackson_album)', 'released': '29 September 2017', 'producers': ['http://dbpedia.org/resource/Jackie_Jackson', 'http://dbpedia.org/resource/Janet_Jackson', 'http://dbpedia.org/resource/Jimmy_Jam_and_Terry_Lewis', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Quincy_Jones', 'http://dbpedia.org/resource/Rockwell_(musician)', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_Jackson_5', 'Curtis Anthony Nolen'], 'writers': ['http://dbpedia.org/resource/Jackie_Jackson', 'http://dbpedia.org/resource/Kathleen_Wakefield', 'http://dbpedia.org/resource/Michael_Jackson', 'http://dbpedia.org/resource/Rod_Temperton', '1.0', 'Kennedy Gordy'], 'related_artists': ['http://dbpedia.org/resource/3T', 'http://dbpedia.org/resource/Anastacia', 'http://dbpedia.org/resource/Anthony_Marinelli', 'http://dbpedia.org/resource/Bozzio_Levin_Stevens', 'http://dbpedia.org/resource/Brad_Buxer', 'http://dbpedia.org/resource/Brownstone_(group)', 'http://dbpedia.org/resource/Bruce_Sudano', 'http://dbpedia.org/resource/Bruce_Swedien', 'http://dbpedia.org/resource/Bryan_Loren', 'http://dbpedia.org/resource/Carolyn_Dennis', 'http://dbpedia.org/resource/Chris_Mosdell', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Cory_Rooney', 'http://dbpedia.org/resource/Dan_Warner_(musician)', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/David_Williams_(guitarist)', 'http://dbpedia.org/resource/Deadland_Ritual', 'http://dbpedia.org/resource/Dorian_Holley', 'http://dbpedia.org/resource/Eritza_Laues', 'http://dbpedia.org/resource/Fatman_Scoop', 'http://dbpedia.org/resource/Fire_Island_(duo)', 'http://dbpedia.org/resource/Freddie_Washington_(bassist)', 'http://dbpedia.org/resource/Gary_Grant_(musician)', 'http://dbpedia.org/resource/Geary_Lanier_Faggett', 'http://dbpedia.org/resource/Greg_Howe', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Holland–Dozier–Holland', 'http://dbpedia.org/resource/J-Roc', 'http://dbpedia.org/resource/Jason_Bonham', 'http://dbpedia.org/resource/Jean_Johnson_(singer)', 'http://dbpedia.org/resource/Jeff_Porcaro', 'http://dbpedia.org/resource/Jennifer_Batten', 'http://dbpedia.org/resource/Jerry_Hey', 'http://dbpedia.org/resource/Jethro_Sheeran', 'http://dbpedia.org/resource/John_Bettis', 'http://dbpedia.org/resource/John_Robinson_(drummer)', 'http://dbpedia.org/resource/Judith_Hill', 'http://dbpedia.org/resource/KC_Porter', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Love_to_Infinity', 'http://dbpedia.org/resource/Maurice_Joshua', 'http://dbpedia.org/resource/Men_of_Vizion', 'http://dbpedia.org/resource/Morris_Pleasure', 'http://dbpedia.org/resource/Nicci_Gilbert', 'http://dbpedia.org/resource/Nile_Rodgers', 'http://dbpedia.org/resource/Nocera_(singer)', 'http://dbpedia.org/resource/Omar_Hakim', 'http://dbpedia.org/resource/Omer_Bhatti', 'http://dbpedia.org/resource/Orianthi', 'http://dbpedia.org/resource/Pattie_Howard', 'http://dbpedia.org/resource/Paul_Jackson_Jr.', 'http://dbpedia.org/resource/Peter_Mokran', 'http://dbpedia.org/resource/René_Moore', 'http://dbpedia.org/resource/Ricky_Lawson', 'http://dbpedia.org/resource/Rod_Temperton', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Roy_%22Royalty%22_Hamilton', 'http://dbpedia.org/resource/Seawind_(band)', 'http://dbpedia.org/resource/Siedah_Garrett', 'http://dbpedia.org/resource/Simon_Franglen', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/Susaye_Greene', 'http://dbpedia.org/resource/Teddy_Riley', 'http://dbpedia.org/resource/The_McCrarys', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Tommy_Organ', 'http://dbpedia.org/resource/Toto_(band)', 'http://dbpedia.org/resource/Wah_Wah_Watson', 'http://dbpedia.org/resource/Wessel_Oltheten'], 'abstract': "Scream is a compilation album by American singer-songwriter Michael Jackson, released on September 29, 2017. The album compiles songs around a Halloween theme. It is the eleventh release by Sony and/or Motown since Jackson's death on June 25, 2009."}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Under_the_Iron_Sea', 'album_name': 'Under the Iron Sea', 'artist': 'http://dbpedia.org/resource/Keane_(band)', 'artist_name': 'Keane', 'wiki': 'http://en.wikipedia.org/wiki/Under_the_Iron_Sea', 'released': '12 June 2006', 'producers': ['*Andy Green', '*Keane'], 'awards': ['Gold', 'Platinum'], 'related_artists': ['http://dbpedia.org/resource/Barry_Grint', 'http://dbpedia.org/resource/Dominic_Scott', 'http://dbpedia.org/resource/Ian_Shepherd', 'http://dbpedia.org/resource/Jesse_Quin', 'http://dbpedia.org/resource/Jesse_Quin_&amp;_The_Mets', 'http://dbpedia.org/resource/Mike_Crossey', 'http://dbpedia.org/resource/Mt._Desolation__Mt._Desolation__1', 'http://dbpedia.org/resource/Richard_Hughes_(musician)', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Tim_Rice-Oxley', 'http://dbpedia.org/resource/Tom_Chaplin', 'http://dbpedia.org/resource/Zulu_Winter'], 'abstract': 'Under the Iron Sea is the second studio album by the English rock band Keane, released on 12 June 2006. During its first week on sale in the UK, the album opened at number one, selling 222,297 copies according to figures from the Official Chart Company. In the United States, the album debuted at number four on the Billboard 200, selling 75,000 copies in its first week there. Since its release, the album has sold over three million copies worldwide. The band describes Under the Iron Sea as a progression from Hopes and Fears with electronic influences, and as a "sinister fairytale-world-gone-wrong".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Very_Best_of_1990–1997', 'album_name': 'The Very Best of 1990–1997', 'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/The_Very_Best_of_1990–1997', 'hometown': 'http://dbpedia.org/resource/Sweden', 'released': '30 June 1997', 'related_artists': ['http://dbpedia.org/resource/Charly_Boy', 'http://dbpedia.org/resource/David_Longoria', 'http://dbpedia.org/resource/Dekumzy', 'http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Haddaway', 'http://dbpedia.org/resource/Jose_Chameleone', 'http://dbpedia.org/resource/Kikki_Danielsson', 'http://dbpedia.org/resource/Leila_K', 'http://dbpedia.org/resource/Melissa_(singer)', 'http://dbpedia.org/resource/Sash!', 'http://dbpedia.org/resource/Swingfly'], 'abstract': 'The Very Best Of 1990–1997 is a compilation album by Sweden-based Nigerian artist Dr. Alban released on 30 June 1997'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Doo-Wops_&amp;_Hooligans', 'album_name': 'Doo-Wops &amp; Hooligans', 'artist': 'http://dbpedia.org/resource/Bruno_Mars', 'artist_name': 'Bruno Mars', 'wiki': 'http://en.wikipedia.org/wiki/Doo-Wops_&amp;_Hooligans', 'released': '04 October 2010', 'producers': ['The Smeezingtons', 'Needlz', 'Supa Dups'], 'writers': ['http://dbpedia.org/resource/Andrew_Wyatt', 'http://dbpedia.org/resource/B.o.B', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/Bruno_Mars', 'http://dbpedia.org/resource/Claude_Kelly', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Jeff_Bhasker', 'http://dbpedia.org/resource/John_Wicks_(drummer)', "http://dbpedia.org/resource/K'naan", 'http://dbpedia.org/resource/Kaveh_Rastegar', 'http://dbpedia.org/resource/Mike_Caren', 'http://dbpedia.org/resource/Needlz', 'http://dbpedia.org/resource/Patrick_Stump', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/Supa_Dups', 'Albert Winkler', 'Chin-quee', 'Mars, Lawrence, Levine, Brown, Caren, Stump, Rastegar, Wicks, Ruzumna, Lopez, Simmons, Jr.', 'Mars, Lawrence, Levine', 'Chin', 'Damian Marley', 'Ari Levine', 'Mars, Lawrence, Levine, Brown, Kelly, Wyatt', 'Joshua Lopez', 'Jeremy Ruzumna', 'Mars, Lawrence, Levine, Winkler, Bhasker', 'Mars, Lawrence, Levine, Walton, Cain', 'Mars', 'Mitchum Chin', 'Brown', 'Levine', 'Lawrence'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['Pop', 'reggae pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Alex_Hepburn', 'http://dbpedia.org/resource/Andrew_Wyatt__Andrew_Wyatt__1', 'http://dbpedia.org/resource/Brody_Brown', 'http://dbpedia.org/resource/CLMD', 'http://dbpedia.org/resource/Dave_Audé', 'http://dbpedia.org/resource/Elijah_Connor', 'http://dbpedia.org/resource/Graham_Marsh_(producer)', 'http://dbpedia.org/resource/Greg_Phillinganes', 'http://dbpedia.org/resource/Jamareo_Artis', 'http://dbpedia.org/resource/Laze_&amp;_Royal', 'http://dbpedia.org/resource/Philip_Lawrence_(songwriter)', 'http://dbpedia.org/resource/Saint_Cassius_(musician)', 'http://dbpedia.org/resource/The_Green_(band)', 'http://dbpedia.org/resource/The_Stereotypes', 'http://dbpedia.org/resource/Tom_Coyne_(music_engineer)'], 'abstract': 'Doo-Wops &amp; Hooligans is the debut studio album by American singer-songwriter Bruno Mars. It was released on October 4, 2010, by Atlantic and Elektra Records. After the release of the EP It\'s Better If You Don\'t Understand (2010), Mars\'s writing and production team, the Smeezingtons, began working on the album with Needlz, Supa Dups and Jeff Bhasker as producers. Doo-Wops &amp; Hooligans draws on a variety of influences. Lyrically, the album visualizes carefree optimism along with failed relationships, pain and loneliness. It was promoted primarily through the Doo-Wops &amp; Hooligans Tour (2010–2012) and a co-headline tour with Janelle Monáe, called Hooligans in Wondaland Tour (2011), along with a number of television appearances. The album title was chosen to reflect simplicity and appeal to males and females. On September 24, 2010, the album was made available before its official release. Nevertheless, it became a commercial success, topping the charts in Canada, Germany, Ireland, the Netherlands, Switzerland and the United Kingdom. It peaked at number three on the Billboard 200 albums chart in the United States and was 2011\'s second-bestselling album in New Zealand, the third-bestselling record in the United Kingdom and Australia (with UK sales of 1.2 million copies), and the fourth-bestselling album in Germany and Switzerland. The album has sold over 2.62 million copies in the United States as of 2017 and by 2020 had already sold 15.51 million copies worldwide. The first two singles from Doo-Wops &amp; Hooligans—"Just the Way You Are" and "Grenade"—were successful internationally, topping the charts in the United States, Australia, Canada, New Zealand and the United Kingdom. Subsequent singles "The Lazy Song" and "Marry You" were commercial successes as well, reaching the top 10 in over 10 countries; "The Lazy Song" topped the charts in the United Kingdom and Denmark. "Talking to the Moon" and "Count On Me" had a limited release, and "Liquor Store Blues" (featuring Damian Marley) and "Somewhere in Brooklyn" were promotional singles. The album received generally favorable reviews from music critics, who praised the album\'s similarity to the work of American artists Michael Jackson and Jason Mraz, although others felt that the album tried too hard to appeal to all groups. Doo-Wops &amp; Hooligans received five nominations for the 54th Grammy Awards, including Album of the Year, Best Pop Vocal Album and Record of the Year and Song of the Year for the single "Grenade". The album was also nominated for Best Album/Pop Rock International at the 2012 Swiss Music Awards. In 2010, About.com\'s Bill Lamb and Rolling Stone\'s Jody Rosen called Doo-Wops &amp; Hooligans one of the year\'s best debut albums.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/The_Young_and_the_Hopeless', 'album_name': 'The Young and the Hopeless', 'artist': 'http://dbpedia.org/resource/Good_Charlotte', 'artist_name': 'Good Charlotte', 'wiki': 'http://en.wikipedia.org/wiki/The_Young_and_the_Hopeless', 'hometown': 'http://dbpedia.org/resource/Waldorf,_Maryland', 'released': '01 October 2002', 'producers': ['http://dbpedia.org/resource/Eric_Valentine'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Pop-punk'], 'related_artists': ['http://dbpedia.org/resource/Billy_Martin_(guitarist)', 'http://dbpedia.org/resource/Josh_Freese', 'http://dbpedia.org/resource/Lola_Ray__Lola_Ray__1', 'http://dbpedia.org/resource/Mest', 'http://dbpedia.org/resource/One_Buck_Short', 'http://dbpedia.org/resource/Paul_Thomas_(bassist)', 'http://dbpedia.org/resource/Rockie_Fresh', 'http://dbpedia.org/resource/The_Madden_Brothers', 'http://dbpedia.org/resource/This_Century', 'http://dbpedia.org/resource/Wakefield_(band)'], 'abstract': 'The Young and the Hopeless is the second studio album by American rock band Good Charlotte. Following the release of their self-titled debut album (2000), the band met producer Eric Valentine and engaged him for their next album. Sessions lasted from February to May 2002; Josh Freese of the Vandals served as a session drummer. Almost all of the songs on the album were written by Benji and Joel Madden but two tracks were co-written with Valentine and Goldfinger frontman John Feldmann. Drummer Chris Wilson joined the band, prior to the release of "Lifestyles of the Rich &amp; Famous" in September. On October 1, 2002, The Young and the Hopeless was released by Epic and Daylight Records. It was promoted with a support slot for No Doubt before the group embarked on their own headlining US tour, with subsequent shows of Japan, Europe, Australia and New Zealand in the following months. "The Anthem" was released as a single in February 2003 prior to the band co-headlining the Honda Civic Tour with New Found Glory between April and June. "Girls &amp; Boys" was released as a single in July. From September to November, the band embarked on a headlining US arena tour, during which they made music videos for "Hold On" and "The Young &amp; the Hopeless", the former was first released to alternative rock radio, and later as a joint single, with "The Young &amp; the Hopeless", in January 2004. The Young and the Hopeless received generally mixed reviews from music critics, who made comments about the songs\' clichéd lyrics. The album was a major commercial success, being certified three times platinum by the Recording Industry Association of America (RIAA). Three of the album\'s singles—"Lifestyles of the Rich &amp; Famous", "The Anthem", and "Girls &amp; Boys"—crossed over from modern rock radio to pop radio. Outside the US, the album charted within the top 20 in New Zealand, Sweden, Australia, the UK, and Austria, and reached lower positions in Japan, Germany, Switzerland, France, and the Netherlands. It was certified platinum by the Australian Recording Industry Association (ARIA) and by the British Phonographic Industry (BPI), as well as two times platinum by Music Canada (MC). The album and "Lifestyles of the Rich &amp; Famous" were nominated for several awards, with the latter winning the Kerrang! Award for Best Single. The album appeared on best-of lists by Rock Sound and Rolling Stone, and earned the Classic Album Award at the Alternative Press Music Awards.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/12_Inches_of_Snow', 'album_name': '12 Inches of Snow', 'artist': 'http://dbpedia.org/resource/Snow_(musician)', 'artist_name': 'Snow', 'wiki': 'http://en.wikipedia.org/wiki/12_Inches_of_Snow', 'released': '19 January 1993', 'producers': ['http://dbpedia.org/resource/MC_Shan', 'Edmond Leary', 'John Ficarrotta'], 'writers': ["Darrin O'Brien, Marvin Prince", "Ficarrotta, O'Brien"], 'genres': ['http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/Reggae'], 'related_artists': ['http://dbpedia.org/resource/Hurby_Azor', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/MC_Shan'], 'abstract': '12 Inches of Snow is the debut album by Canadian reggae musician Snow, released in 1993. Edmond Leary and MC Shan produced the entire album, apart from one track which was produced by John Ficarrotta. The album was produced shortly before Snow was imprisoned for a year on an assault charge. Upon his release from prison, his first single "Informer" became a chart topping hit. It later went on to become one of the largest-selling reggae records of all time.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Lovehatetragedy', 'album_name': 'Lovehatetragedy', 'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Lovehatetragedy', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'released': '18 June 2002', 'producers': ["http://dbpedia.org/resource/Brendan_O'Brien_(record_producer)"], 'writers': ['http://dbpedia.org/resource/Black_Francis', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Mike_Patton', 'Buckner', 'Horton', 'Dave Buckner', 'Shaddix', 'Jerry Horton', 'Esperance', 'Tobin Esperance'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Alternative_metal', 'http://dbpedia.org/resource/Nu_metal'], 'related_artists': ['http://dbpedia.org/resource/Bleeker_(band)', 'http://dbpedia.org/resource/Coldrain', 'http://dbpedia.org/resource/Colin_Brittain', 'http://dbpedia.org/resource/Dear_Superstar', 'http://dbpedia.org/resource/Fight_the_Sky', 'http://dbpedia.org/resource/Ice_Nine_Kills', 'http://dbpedia.org/resource/Jacoby_Shaddix', 'http://dbpedia.org/resource/Jason_Evigan', 'http://dbpedia.org/resource/Jay_Baumgardner', 'http://dbpedia.org/resource/Jerry_Horton', 'http://dbpedia.org/resource/Nicholas_Furlong_(musician)', 'http://dbpedia.org/resource/Skindred', 'http://dbpedia.org/resource/The_Halo_Method', 'http://dbpedia.org/resource/Tony_Palermo'], 'abstract': 'Lovehatetragedy is the third and second major label studio album by the American rock band Papa Roach. It was released on June 18, 2002.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Happy_Nation', 'album_name': 'Happy Nation', 'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Happy_Nation', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'released': '02 November 1992', 'producers': ['http://dbpedia.org/resource/Denniz_Pop', 'http://dbpedia.org/resource/Jonas_Berggren', 'http://dbpedia.org/resource/Ulf_Ekberg', 'Johnny Lindén', 'T.O.E.C.'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'related_artists': ['http://dbpedia.org/resource/Clara_Mae', 'http://dbpedia.org/resource/Jenny_Berggren', 'http://dbpedia.org/resource/Jonas_Berggren', 'http://dbpedia.org/resource/Linn_Berggren', 'http://dbpedia.org/resource/Mia_Rose', 'http://dbpedia.org/resource/Ulf_Ekberg'], 'abstract': 'Happy Nation is the debut studio album by Swedish pop group Ace of Base. It was initially released in Denmark on 2 November 1992 by Mega Records. During development of the record, the group was heavily influenced by a Jamaican reggae band residing in a nearby studio. For a release in North America, Japan and some Latin American countries, the album was retitled The Sign with a heavily revised track listing and three new tracks. To coincide with this, Happy Nation was reissued with the new tracks in other territories as Happy Nation (U.S. Version). In 1995, Guinness Book of World Records named the LP the best-selling debut studio effort in music history, at more than 19 million copies sold worldwide. By 1998, Happy Nation/The Sign had sold approximately 21 million units including 9 million in the US alone. Happy Nation/The Sign is one of the best-selling albums of all time.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Only_One_Flo_(Part_1)', 'album_name': 'Only One Flo (Part 1)', 'artist': 'http://dbpedia.org/resource/Flo_Rida', 'artist_name': 'Flo Rida', 'wiki': 'http://en.wikipedia.org/wiki/Only_One_Flo_(Part_1)', 'released': '30 November 2010', 'producers': ['http://dbpedia.org/resource/Axwell', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Boi-1da', 'http://dbpedia.org/resource/Carlos_McKinney', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/Dada_Life', 'http://dbpedia.org/resource/David_Guetta', 'http://dbpedia.org/resource/Dr._Luke', 'http://dbpedia.org/resource/Ester_Dean', 'http://dbpedia.org/resource/Knobody', 'http://dbpedia.org/resource/Mike_Caren', 'Antario "Tario" Holmes', 'Slade', 'Frédéric Riesterer', 'Wayne-O', 'Infinity'], 'writers': ['Dillard,  Lukasz Gottwald, Claude Kelly, Benjamin Levin, Bruno Mars, Philip Lawrence', 'Dillard, Carlos McKinney, Tony Scales', 'Dillard, David Guetta, Frédéric Riesterer, Caren, Key, Kasia Livingston, Giorgio Tuinfort', 'Dillard, Jerome Foster, Marcus Slade, Sydne George, Wayne Thomas, Radric Davis, Chris Bridges', 'Dillard, Jordan Suecof, John "D.O.E." Maultsby, Carmen Key, Antario Dion Holmes, Rufus Lee Copper, Katari T. Cox, Yafeu A. Fula, Joseph Paquette, Tupac Shakur, Bruce Washington, Tyron J. Wrice', 'Dillard, Justin Franks, Priscilla Polete, Josh Thomas, Xplicit, Olle Cornéer, Stefan Engblom, George Kranz, Boris Blank, Dieter Meier, The Monsters &amp; The Strangerz', 'Dillard, Matthew Samuels, Julian Bunetta, Ester Dean, Tyler Williams, Jordan Lewis', 'Dillard, Mike Caren, David Siegel', 'Tramar Dillard, Axwell, Mike Caren, Kevin Rudolf, Jacob Kasher'], 'genres': ['http://dbpedia.org/resource/Dance_music', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Hip_house'], 'related_artists': ['http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Breyan_Isaac', 'http://dbpedia.org/resource/Brianna_Perry', 'http://dbpedia.org/resource/Brisco_(rapper)', 'http://dbpedia.org/resource/Carolina_Márquez', 'http://dbpedia.org/resource/Casely', 'http://dbpedia.org/resource/DJ_Frank_E', 'http://dbpedia.org/resource/DJ_Laz', 'http://dbpedia.org/resource/DJ_Montay', 'http://dbpedia.org/resource/Exile_(Japanese_band)', 'http://dbpedia.org/resource/Far_East_Movement', 'http://dbpedia.org/resource/Fresh_Kid_Ice', 'http://dbpedia.org/resource/Georgi_Kay', 'http://dbpedia.org/resource/Git_Fresh', 'http://dbpedia.org/resource/GoonRock', 'http://dbpedia.org/resource/Honorable_C.N.O.T.E.', 'http://dbpedia.org/resource/J_Rand', 'http://dbpedia.org/resource/JayFrance', 'http://dbpedia.org/resource/Jean-Roch', 'http://dbpedia.org/resource/Jean_Marie_(DJ)', 'http://dbpedia.org/resource/Kesha', 'http://dbpedia.org/resource/Lookas', 'http://dbpedia.org/resource/Maddi_Madd', 'http://dbpedia.org/resource/Marc_Mysterio', 'http://dbpedia.org/resource/Natalie_La_Rose', 'http://dbpedia.org/resource/Pitbull_(rapper)', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Sage_the_Gemini', 'http://dbpedia.org/resource/Sean_Kingston', 'http://dbpedia.org/resource/Sebastian_Kole', 'http://dbpedia.org/resource/Senhit_(singer)', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/T-Pain', 'http://dbpedia.org/resource/T_Lopez', 'http://dbpedia.org/resource/Tal_(singer)', 'http://dbpedia.org/resource/Thomas_Troelsen', 'http://dbpedia.org/resource/Tyler_Medeiros'], 'abstract': 'Only One Flo (Part 1) is the third studio album by American rapper Flo Rida, which was released on November 30, 2010, through Atlantic Records, and his own label Poe Boy Entertainment. The album was preceded by the singles "Club Can\'t Handle Me", and "Turn Around (5, 4, 3, 2, 1)" which were released in June and November 2010, respectively. The album received mixed reviews from critics, and peaked at number 107 on the Billboard 200, selling 11,000 copies in its first week in the US. It is currently his least successful release. It is also considerably short for a studio album, with 8 tracks which total up to less than 30 minutes.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Into_the_Great_Wide_Open', 'album_name': 'Into the Great Wide Open', 'artist': 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers', 'artist_name': 'Tom Petty and the Heartbreakers', 'wiki': 'http://en.wikipedia.org/wiki/Into_the_Great_Wide_Open', 'released': '02 July 1991', 'producers': ['http://dbpedia.org/resource/Jeff_Lynne', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Tom_Petty'], 'writers': ['Petty', 'Petty, Campbell, Lynne', 'Petty, Mike Campbell, Lynne'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Heartland_rock'], 'related_artists': ['http://dbpedia.org/resource/Benmont_Tench', 'http://dbpedia.org/resource/Bobbye_Hall', 'http://dbpedia.org/resource/Curt_Bisquera', 'http://dbpedia.org/resource/Dave_Stewart_(musician_and_producer)', 'http://dbpedia.org/resource/Denny_Cordell', 'http://dbpedia.org/resource/Howie_Epstein', 'http://dbpedia.org/resource/Mike_Campbell_(musician)', 'http://dbpedia.org/resource/Mudcrutch', 'http://dbpedia.org/resource/Phil_Jones_(musician)', 'http://dbpedia.org/resource/Phil_Seymour', 'http://dbpedia.org/resource/Ron_Blair', 'http://dbpedia.org/resource/Scott_Thurston', 'http://dbpedia.org/resource/Steve_Ferrone', 'http://dbpedia.org/resource/The_Motels', 'http://dbpedia.org/resource/The_New_Order_(band)', 'http://dbpedia.org/resource/The_Rangehoods', 'http://dbpedia.org/resource/Works_Progress_Administration_(band)'], 'abstract': 'Into the Great Wide Open is the eighth studio album by American rock band Tom Petty and the Heartbreakers, released in July 1991. The album was the band\'s last with MCA Records. The album was the second Petty produced with Jeff Lynne after the success of Full Moon Fever. The first single, "Learning to Fly", became the band\'s joint longest-running No. 1 single (along with "The Waiting" from 1981\'s Hard Promises) on Billboard\'s Mainstream Rock Tracks chart, spending six weeks at the top spot. The second single, "Out in the Cold", also made No. 1 on the Mainstream Rock chart, albeit for two weeks. The music video for the title song stars Johnny Depp as "Eddie", who moves to Los Angeles as a teenager to seek rock stardom, along with Gabrielle Anwar, Faye Dunaway, Matt LeBlanc, Terence Trent D\'Arby and Chynna Phillips.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Think_Tank_(Blur_album)', 'album_name': 'Think Tank (album)', 'artist': 'http://dbpedia.org/resource/Blur_(band)', 'artist_name': 'Blur', 'wiki': 'http://en.wikipedia.org/wiki/Think_Tank_(Blur_album)', 'released': '05 May 2003', 'producers': ['Ben Hillier', 'Norman Cook', 'William Orbit', 'Blur'], 'writers': ['Albarn, Coxon, James, Rowntree', 'Albarn, James Dring, James, Rowntree', 'Albarn, James, Rowntree, Mike Smith', 'Lyrics: Albarn, Coxon. Music: Albarn, Coxon, James, Rowntree'], 'awards': ['Gold'], 'genres': ['Art rock', 'electronic', 'world'], 'related_artists': ['http://dbpedia.org/resource/Alex_James_(musician)', 'http://dbpedia.org/resource/Bad_Lieutenant_(band)', 'http://dbpedia.org/resource/Cara_Tivey', 'http://dbpedia.org/resource/DRC_Music', 'http://dbpedia.org/resource/DRC_Music__DRC_Music__1', 'http://dbpedia.org/resource/Dave_Rowntree', 'http://dbpedia.org/resource/Demon_Strings', 'http://dbpedia.org/resource/Fat_Les', 'http://dbpedia.org/resource/George_Shilling', 'http://dbpedia.org/resource/Gorillaz', 'http://dbpedia.org/resource/Graham_Coxon', 'http://dbpedia.org/resource/Me_Me_Me_(band)', 'http://dbpedia.org/resource/Pet_Shop_Boys', 'http://dbpedia.org/resource/Rocket_Juice_&amp;_the_Moon', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Simon_Tong', 'http://dbpedia.org/resource/TJ_Davis', 'http://dbpedia.org/resource/The_Ailerons', 'http://dbpedia.org/resource/The_Good,_the_Bad_&amp;_the_Queen', 'http://dbpedia.org/resource/WigWam_(duo)'], 'abstract': 'Think Tank is the seventh studio album by the English rock band Blur, released on 5 May 2003. Continuing the jam-based studio constructions of the group\'s previous album, 13 (1999), the album expanded on the use of sampled rhythm loops and brooding, heavy electronic sounds. There are also heavy influences from dance music, hip hop, dub, jazz, and African music, an indication of songwriter Damon Albarn\'s expanding musical interests. Recording sessions started in November 2001, taking place in London, Morocco and Devon, and finished a year later. The album\'s primary producer was Ben Hillier with additional production by Norman Cook (Fatboy Slim), and William Orbit. At the start of the sessions, guitarist Graham Coxon had been in rehab for alcoholism. After he re-joined, relationships between him and the other members became strained. After initial recording sessions, Coxon left, leaving little of his presence on the finished album. This is the only Blur album to not feature Coxon as a full-time member; he returned to the band for their next album The Magic Whip (2015). Think Tank is a loose concept album, which Albarn has stated is about "love and politics". Albarn, a pacifist, had spoken out against the invasion of Afghanistan and, after Western nations threatened to invade Iraq, took part in the widespread protests against the war. Anti-war themes are recurrent in the album as well as in associated artwork and promotional videos. After leaking onto the internet in March, Think Tank was released on 5 May 2003 and entered the UK Albums Chart at number one, making it Blur\'s fifth consecutive studio album to reach the top spot. The album was later certified Gold. Think Tank also reached the top 20 in many other countries, including Austria, Switzerland, Germany, Norway and Japan. It was their highest charting album in the United States, reaching number 56 on the Billboard 200. The album produced three singles, which charted at number 5, number 18 and number 22 respectively on the UK Singles Chart. After the album was released, Blur announced a world tour with Simon Tong filling in for Coxon.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Chronicles_(Steve_Winwood_album)', 'album_name': 'Chronicles (Steve Winwood)', 'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Chronicles_(Steve_Winwood_album)', 'released': '09 October 1987', 'producers': ['Steve Winwood', 'Tom Lord-Alge'], 'genres': ['Rock', 'blue-eyed soul', 'Pop'], 'related_artists': ['http://dbpedia.org/resource/Billy_Joel', 'http://dbpedia.org/resource/Blind_Faith', 'http://dbpedia.org/resource/Carmine_Rojas', 'http://dbpedia.org/resource/Chaka_Khan', 'http://dbpedia.org/resource/Chuck_Kaye', 'http://dbpedia.org/resource/Craig_Van_Tilbury', 'http://dbpedia.org/resource/Eric_Clapton', 'http://dbpedia.org/resource/George_Shilling', 'http://dbpedia.org/resource/Gigi_Gonaway', "http://dbpedia.org/resource/Ginger_Baker's_Air_Force", 'http://dbpedia.org/resource/Hollie_Farris', 'http://dbpedia.org/resource/James_Hooker_(musician)', 'http://dbpedia.org/resource/Jim_Capaldi', 'http://dbpedia.org/resource/Jimi_Hendrix', 'http://dbpedia.org/resource/José_Neto_(musician)', 'http://dbpedia.org/resource/Junior_Marvin__Junior_Marvin__1', 'http://dbpedia.org/resource/Michael_Shrieve', 'http://dbpedia.org/resource/Muff_Winwood', 'http://dbpedia.org/resource/Phil_Collins', 'http://dbpedia.org/resource/Ruby_Turner', 'http://dbpedia.org/resource/The_Memphis_Horns', 'http://dbpedia.org/resource/The_Spencer_Davis_Group', 'http://dbpedia.org/resource/Traffic_(band)', 'http://dbpedia.org/resource/Will_Jennings'], 'abstract': 'Chronicles is the first compilation album by Steve Winwood as a solo artist. The album contains some of his major hits up to this point and new remixes produced by Tom Lord-Alge, who had helped commercialize Winwood\'s sound on his previous album Back in the High Life. One track, "Valerie", was originally released as a single for Winwood\'s 1982 album, Talking Back to the Night. Despite the original single being a commercial flop, the remix of the song included in this album peaked at No. 9 on the US charts and No. 19 in the UK. The album peaked at No. 26 on the Billboard 200 album chart and No. 12 in the UK. It was his last release with Island Records, before his departure to Virgin Records.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Fush_Yu_Mang', 'album_name': 'Fush Yu Mang', 'artist': 'http://dbpedia.org/resource/Smash_Mouth', 'artist_name': 'Smash Mouth', 'wiki': 'http://en.wikipedia.org/wiki/Fush_Yu_Mang', 'hometown': 'http://dbpedia.org/resource/San_Jose,_California', 'released': '08 July 1997', 'producers': ['http://dbpedia.org/resource/Eric_Valentine'], 'writers': ['http://dbpedia.org/resource/Charles_Miller_(musician)', 'http://dbpedia.org/resource/Harold_Ray_Brown', 'http://dbpedia.org/resource/Howard_E._Scott', 'http://dbpedia.org/resource/Lee_Oskar', 'http://dbpedia.org/resource/Lonnie_Jordan', 'http://dbpedia.org/resource/Mitch_Easter', 'Papa Dee Allen', 'B. B. Dickerson'], 'genres': ['http://dbpedia.org/resource/Pop-punk', 'http://dbpedia.org/resource/Punk_rock', 'http://dbpedia.org/resource/Ska_punk'], 'related_artists': ['http://dbpedia.org/resource/Greg_Camp', 'http://dbpedia.org/resource/Paul_De_Lisle', 'http://dbpedia.org/resource/Robert_Eibach', 'http://dbpedia.org/resource/Romeo_Johnson', 'http://dbpedia.org/resource/Sean_Hurwitz', 'http://dbpedia.org/resource/Steve_Harwell', 'http://dbpedia.org/resource/Tripping_Daisy'], 'abstract': 'Fush Yu Mang is the debut studio album by the American rock band Smash Mouth, released on July 8, 1997 by Interscope Records. It includes their first major hit, "Walkin\' on the Sun", which was the last song to be added onto the album. The title of the album was taken from a line ("fuck you, man!") slurred by Al Pacino in Scarface. (One song, "Padrino", contains the line "I\'ll take any flick with Al Pacino".) On the cover of the album is the band in guitarist Greg Camp\'s 1962 Ford Falcon Squire wagon flying through space with an outstretched arm giving the finger. The title is written in a stylized, pseudo-Asian font. The album also features a cover of War\'s "Why Can\'t We Be Friends?". The initial release was given a Parental Advisory label, while later releases were not. An acoustic re-recording of Fush Yu Mang was planned in 2017 through PledgeMusic for the album\'s 20th anniversary, and was released on June 29, 2018.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Kollected_–_The_Best_Of', 'album_name': 'Kollected: The Best of Kula Shaker', 'artist': 'http://dbpedia.org/resource/Kula_Shaker', 'artist_name': 'Kula Shaker', 'wiki': 'http://en.wikipedia.org/wiki/Kollected_–_The_Best_Of', 'released': '16 December 2002', 'genres': ['http://dbpedia.org/resource/Rock_music'], 'related_artists': ['http://dbpedia.org/resource/Alonza_Bevan', 'http://dbpedia.org/resource/Crispian_Mills', 'http://dbpedia.org/resource/Jay_Darlington', 'http://dbpedia.org/resource/Paul_Winterhart', 'http://dbpedia.org/resource/The_Jeevas'], 'abstract': 'Kollected – The Best Of is a 2002 compilation album by Kula Shaker; There are sixteen songs on the album: seven from their debut "K", four from "Peasants, Pigs &amp; Astronauts" and five non-album tracks.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Document_(album)', 'album_name': 'Document (album)', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Document_(album)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'released': '31 August 1987', 'producers': ['http://dbpedia.org/resource/Scott_Litt', 'R.E.M.'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/10,000_Maniacs', 'http://dbpedia.org/resource/Amanda_Brown_(musician)', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Big_High', 'http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Bill_Rieflin', 'http://dbpedia.org/resource/Buren_Fowler', 'http://dbpedia.org/resource/Don_Dixon_(musician)', 'http://dbpedia.org/resource/Dumptruck_(band)', 'http://dbpedia.org/resource/Dušan_Vranić', 'http://dbpedia.org/resource/Filthy_Friends', 'http://dbpedia.org/resource/Grant-Lee_Phillips', 'http://dbpedia.org/resource/Hindu_Love_Gods_(band)', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/John_Paul_Jones_(musician)', 'http://dbpedia.org/resource/Kate_Pierson', 'http://dbpedia.org/resource/Ken_Stringfellow', 'http://dbpedia.org/resource/Lenny_Kaye', 'http://dbpedia.org/resource/Magnapop', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Montanablue', 'http://dbpedia.org/resource/Nikki_Sudden', 'http://dbpedia.org/resource/One_(U2_song)', 'http://dbpedia.org/resource/Pete_Yorn', 'http://dbpedia.org/resource/Peter_Buck', 'http://dbpedia.org/resource/Robyn_Hitchcock', 'http://dbpedia.org/resource/Scott_McCaughey', 'http://dbpedia.org/resource/Tanzplagen', "http://dbpedia.org/resource/The_B-52's", 'http://dbpedia.org/resource/The_Baseball_Project', 'http://dbpedia.org/resource/The_Humans_(UK_band)', 'http://dbpedia.org/resource/The_Minus_5', 'http://dbpedia.org/resource/The_Orange_Humble_Band', 'http://dbpedia.org/resource/The_Troggs', "http://dbpedia.org/resource/The_dB's", 'http://dbpedia.org/resource/Tired_Pony', 'http://dbpedia.org/resource/Tuatara_(band)', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Warren_Zevon', 'http://dbpedia.org/resource/William_Lee_Self', 'http://dbpedia.org/resource/Đani_Pervan'], 'abstract': 'Document is the fifth studio album by American rock band R.E.M., released on August 31, 1987, by I.R.S. Records. It was the first album by the band to be produced by Scott Litt.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Hypnotize_(album)', 'album_name': 'Hypnotize', 'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/Hypnotize_(album)', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'released': '22 November 2005', 'producers': ['http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Rick_Rubin'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Hard_rock', 'http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/Achozen', 'http://dbpedia.org/resource/Arto_Tunçboyacıyan', 'http://dbpedia.org/resource/Axis_of_Justice', 'http://dbpedia.org/resource/Bad_Acid_Trip', 'http://dbpedia.org/resource/Ben_Weinman', 'http://dbpedia.org/resource/Dana_Nielsen', 'http://dbpedia.org/resource/Daron_Malakian', 'http://dbpedia.org/resource/Daron_Malakian_and_Scars_on_Broadway', 'http://dbpedia.org/resource/Flying_Cunts_of_Chaos', 'http://dbpedia.org/resource/Greg_Fidelman', 'http://dbpedia.org/resource/John_Dolmayan', 'http://dbpedia.org/resource/Kultur_Shock', 'http://dbpedia.org/resource/Mower_(band)', 'http://dbpedia.org/resource/Mt._Helium', 'http://dbpedia.org/resource/Onesidezero', 'http://dbpedia.org/resource/Ontronik_Khachaturian', 'http://dbpedia.org/resource/Serj_Tankian', 'http://dbpedia.org/resource/Shavo_Odadjian', 'http://dbpedia.org/resource/Viza'], 'abstract': 'Hypnotize is the fifth and most recent studio album by Armenian-American heavy metal band System of a Down. It was released on November 22, 2005, six months after the release of its companion album Mezmerize. Mezmerize and Hypnotize both debuted at number #1 on the Billboard 200 albums chart, making the band one of the few to achieve this with two albums in the same year. Hypnotize was the last album System of a Down released before going on a four-year hiatus in 2006, and the band did not release new music for more than a decade, until late 2020 when they unexpectedly released two new songs.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Stay_Hungry_(album)', 'album_name': 'Stay Hungry', 'artist': 'http://dbpedia.org/resource/Twisted_Sister', 'artist_name': 'Twisted Sister', 'wiki': 'http://en.wikipedia.org/wiki/Stay_Hungry_(album)', 'hometown': 'http://dbpedia.org/resource/Ho-Ho-Kus,_New_Jersey', 'released': '10 May 1984', 'producers': ['http://dbpedia.org/resource/Tom_Werman'], 'genres': ['http://dbpedia.org/resource/Glam_metal', 'http://dbpedia.org/resource/Heavy_metal_music'], 'related_artists': ['http://dbpedia.org/resource/A._J._Pero', 'http://dbpedia.org/resource/Baptized_By_Fire_(band)', 'http://dbpedia.org/resource/Dee_Snider', 'http://dbpedia.org/resource/Desperado_(band)', 'http://dbpedia.org/resource/Eddie_Ojeda', 'http://dbpedia.org/resource/Extreme_(band)', 'http://dbpedia.org/resource/Jay_Jay_French', 'http://dbpedia.org/resource/Joey_Franco', 'http://dbpedia.org/resource/Lizzy_Borden_(band)', 'http://dbpedia.org/resource/Magellan_(band)', 'http://dbpedia.org/resource/Mark_Mendoza__Mark_Mendoza__1', 'http://dbpedia.org/resource/Mike_Portnoy', 'http://dbpedia.org/resource/Scarecrow_(band)', 'http://dbpedia.org/resource/Stuart_Epps', 'http://dbpedia.org/resource/T.T._Quick', 'http://dbpedia.org/resource/Timothy_B._Schmit', 'http://dbpedia.org/resource/Toxik', "http://dbpedia.org/resource/Van_Helsing's_Curse", 'http://dbpedia.org/resource/Walt_Woodward_III', 'http://dbpedia.org/resource/Widowmaker_(American_band)'], 'abstract': 'Stay Hungry is the third studio album by American heavy metal band Twisted Sister. Released on May 10, 1984, the album includes the band\'s two most well-known songs, "We\'re Not Gonna Take It" and "I Wanna Rock". According to RIAA certification, Stay Hungry gained multi-platinum status with U.S. sales of more than 3,000,000 copies. Twisted Sister performed the song "Burn in Hell" during a cameo appearance in the 1985 film Pee-wee\'s Big Adventure. The song "Burn in Hell" was covered by black metal band Dimmu Borgir on Puritanical Euphoric Misanthropia. "We\'re Not Gonna Take It" was also covered by Bif Naked on the Ready to Rumble soundtrack. The two songs that comprise the Horror-Teria segment became the basis of Twisted Sister lead singer Dee Snider\'s 1998 film Strangeland, in which Captain Howdy was played by Snider himself. The "Captain Howdy" segment of the "Horror-Teria" suite would later be covered by the death metal group Broken Hope on their album Repulsive Conception and in 1999 by the Swedish heavy metal band Morgana Lefay on their Symphony of the Damned, Re-symphonised album. In 2004, the band re-recorded the tracks from this album and re-released them under the title Still Hungry. In 2009, the band played Stay Hungry in its entirety for the first time including songs never played live before, such as "Don\'t Let Me Down" and "Horror-Teria: Street Justice".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Actually', 'album_name': 'Actually', 'artist': 'http://dbpedia.org/resource/Pet_Shop_Boys', 'artist_name': 'Pet Shop Boys', 'wiki': 'http://en.wikipedia.org/wiki/Actually', 'hometown': 'http://dbpedia.org/resource/London', 'released': '07 September 1987', 'producers': ['http://dbpedia.org/resource/Andy_Richards', 'http://dbpedia.org/resource/Julian_Mendelsohn', 'http://dbpedia.org/resource/Shep_Pettibone', 'http://dbpedia.org/resource/Stephen_Hague', 'Pet Shop Boys', 'David Jacob'], 'writers': ['http://dbpedia.org/resource/Johnny_Christopher', 'http://dbpedia.org/resource/Mark_James_(songwriter)', 'http://dbpedia.org/resource/Wayne_Carson', 'Tennant, Ennio Morricone, Lowe', 'Tennant, Lowe, Helena Springs', 'Carson, Christopher, James', 'Tennant, Lowe, Bobby Orlando', 'Lowe, Tennant, Allee Willis', 'Lowe, Tennant, Willis'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Dance-pop', 'http://dbpedia.org/resource/Disco', 'http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Blur_(band)', 'http://dbpedia.org/resource/David_Bowie', 'http://dbpedia.org/resource/David_Cicero', 'http://dbpedia.org/resource/Dusty_Springfield', 'http://dbpedia.org/resource/Electronic_(band)', 'http://dbpedia.org/resource/Elton_John', 'http://dbpedia.org/resource/Example_(musician)', 'http://dbpedia.org/resource/Liza_Minnelli', 'http://dbpedia.org/resource/Madonna', 'http://dbpedia.org/resource/Morten_Harket', 'http://dbpedia.org/resource/Pete_Burns', 'http://dbpedia.org/resource/Philip_Oakey', 'http://dbpedia.org/resource/Robbie_Williams', 'http://dbpedia.org/resource/Sam_Taylor-Johnson', 'http://dbpedia.org/resource/Stuart_Price', 'http://dbpedia.org/resource/Sylvia_Mason-James', 'http://dbpedia.org/resource/Take_That', 'http://dbpedia.org/resource/The_Killers', 'http://dbpedia.org/resource/Years_&amp;_Years'], 'abstract': 'Actually (stylised as Pet Shop Boys, actually.) is the second studio album by English synth-pop duo Pet Shop Boys. It was released on 7 September 1987 by Parlophone in the United Kingdom and by EMI Manhattan in the United States and Canada. According to Neil Tennant and music historian Wayne Studer, Actually loosely critiques Thatcherism, the political zeitgeist of the 1980s, and was recorded in anticipation of Margaret Thatcher\'s re-election. Actually is featured in the 2005 musical reference book 1001 Albums You Must Hear Before You Die, and in 2006 Q magazine placed the album at number 22 in its list of the "40 Best Albums of the \'80s". In 2012, Slant Magazine listed the album at number 88 on its list of "Best Albums of the 1980s". In 2020, Rolling Stone placed it at No. 435 in its list of the 500 Greatest Albums of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Energique', 'album_name': 'Energique', 'artist': 'http://dbpedia.org/resource/Bizarre_Inc', 'artist_name': 'Bizarre Inc', 'wiki': 'http://en.wikipedia.org/wiki/Energique', 'hometown': 'http://dbpedia.org/resource/Stafford', 'producers': ['Alan Scott', 'Bizarre Inc', 'Eon'], 'genres': ['Techno', 'breakbeat hardcore', 'diva house', 'house', 'disco'], 'related_artists': ['http://dbpedia.org/resource/Angie_Brown', 'http://dbpedia.org/resource/Stevo_Pearce'], 'abstract': 'Energique is the second studio album by the English electronic music group Bizarre Inc, released on 1992. It features singles such as "Playing with Knives", "Plutonic", "I\'m Gonna Get You", "Took My Love" and "Love in Motion".'}</t>
-  </si>
-  <si>
-    <t>{'album': 'http://dbpedia.org/resource/Warning_(Green_Day_album)', 'album_name': 'Warning (álbum de Green Day)', 'artist': 'http://dbpedia.org/resource/Green_Day', 'artist_name': 'Green Day', 'wiki': 'http://en.wikipedia.org/wiki/Warning_(Green_Day_album)', 'released': '03 October 2000', 'producers': ['Green Day', 'Rob Cavallo'], 'awards': ['Gold', 'Platinum'], 'genres': ['Pop punk', 'alternative rock', 'folk punk', 'punk rock'], 'related_artists': ['http://dbpedia.org/resource/Aaron_Cometbus', 'http://dbpedia.org/resource/Andrew_Scheps', 'http://dbpedia.org/resource/Bill_Schneider_(musician)', 'http://dbpedia.org/resource/Billie_Joe_Armstrong', 'http://dbpedia.org/resource/Butch_Vig', 'http://dbpedia.org/resource/Butch_Walker', 'http://dbpedia.org/resource/Campino_(singer)', 'http://dbpedia.org/resource/Catfish_and_the_Bottlemen', 'http://dbpedia.org/resource/F.O.D._(band)', 'http://dbpedia.org/resource/Faber_Drive', 'http://dbpedia.org/resource/Foxboro_Hot_Tubs', 'http://dbpedia.org/resource/Gabrial_McNair', 'http://dbpedia.org/resource/Isocracy_(band)', 'http://dbpedia.org/resource/Jason_Freese', 'http://dbpedia.org/resource/Jason_White_(musician)', 'http://dbpedia.org/resource/Jesse_Malin', 'http://dbpedia.org/resource/John_Kiffmeyer', 'http://dbpedia.org/resource/Mike_Dirnt', 'http://dbpedia.org/resource/Pinhead_Gunpowder', 'http://dbpedia.org/resource/Rancid_(band)', 'http://dbpedia.org/resource/Screeching_Weasel', 'http://dbpedia.org/resource/Seaweed_(band)', 'http://dbpedia.org/resource/Skids_(band)', 'http://dbpedia.org/resource/Sprung_Monkey', 'http://dbpedia.org/resource/Ted_Jensen', 'http://dbpedia.org/resource/The_Big_Cats', 'http://dbpedia.org/resource/The_Influents', 'http://dbpedia.org/resource/The_Interrupters_(band)', 'http://dbpedia.org/resource/The_Lookouts', 'http://dbpedia.org/resource/The_Network', 'http://dbpedia.org/resource/Tré_Cool'], 'abstract': "Warning (stylized as WARNING:) is the sixth studio album by American rock band Green Day, released on October 3, 2000, by Reprise Records. Building upon its predecessor Nimrod (1997), it eschewed the band's trademark sound and incorporated acoustic elements and pop and folk styles. Lyrically, the album contains more optimistic and inspirational themes in comparison to the band's earlier releases. Warning was also Green Day's first album since Kerplunk (1991) that was not produced by Rob Cavallo, although he did have a hand in its production and was credited as executive producer. Despite mixed criticism towards the band's stylistic change, the album received mostly positive reviews from critics, who praised vocalist/guitarist Billie Joe Armstrong's songwriting. Although it peaked at number four on the US Billboard 200, Warning represented the lowest commercial slump in Green Day's career, being their first album since signing to a major label not to achieve multi-platinum status. However, the album being leaked onto Napster three weeks before its release may have been a contributing factor to its low sales. The album has nonetheless been certified gold by the Recording Industry Association of America, and has sold over 1.2 million copies as of 2012. Worldwide it has sold 3.5 million copies."}</t>
+    <t>{'album': 'http://dbpedia.org/resource/Evolve_(Imagine_Dragons_album)', 'album_name': 'Evolve (음반)', 'artist': 'http://dbpedia.org/resource/Imagine_Dragons', 'artist_name': 'Imagine Dragons', 'wiki': 'http://en.wikipedia.org/wiki/Evolve_(Imagine_Dragons_album)', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'released': '23 June 2017', 'producers': ['Alex da Kid', 'Jayson DeZuzio', 'Joel Little', 'John Hill', 'Mattman &amp; Robin', 'Tim Randolph'], 'writers': ['http://dbpedia.org/resource/Alex_da_Kid', 'http://dbpedia.org/resource/Ben_McKee', 'http://dbpedia.org/resource/Dan_Reynolds_(singer)', 'http://dbpedia.org/resource/Daniel_Platzman', 'http://dbpedia.org/resource/Joel_Little', 'http://dbpedia.org/resource/John_Hill_(record_producer)', 'http://dbpedia.org/resource/Justin_Tranter', 'http://dbpedia.org/resource/Mattman_&amp;_Robin', 'http://dbpedia.org/resource/Mike_Daly', 'http://dbpedia.org/resource/Wayne_Sermon', 'Sermon', 'DeZuzio', 'Reynolds', 'Grant', 'Platzman', 'Tim Randolph', 'McKee', 'Jayson DeZuzio', 'Tranter', 'Little', 'Larsson', 'Fredriksson', 'Hill', 'Randolph'], 'awards': ['Gold', 'Platinum'], 'genres': ['EDM', 'Pop rock', 'electronic', 'pop'], 'related_artists': ['http://dbpedia.org/resource/Egyptian_(band)', 'http://dbpedia.org/resource/The_Moth_&amp;_The_Flame', 'http://dbpedia.org/resource/X_Ambassadors'], 'abstract': 'Evolve (stylized as ƎVOLVE) is the third studio album by American pop rock band Imagine Dragons, released on June 23, 2017, by Kidinakorner and Interscope Records. After the release of their previous album Smoke + Mirrors (2015) and its respective world tour, a self-imposed hiatus for 2016 and cryptic messages from the band through their social media gained anticipation for their third album; it was finally announced on May 9, 2017, along with the initiation of its pre-order. In comparison to Smoke + Mirrors and their 2012 debut Night Visions, frontman Dan Reynolds called the album an "evolution" for the band. Evolve peaked at number 2 on the US Billboard 200, and received mixed reviews from critics; some acknowledged the band\'s claim of evolution, while others described it as lifeless and commercially oriented. It was promoted with the singles "Believer", "Thunder", "Whatever It Takes", and "Next to Me", as well as a world tour produced by Live Nation and supported with Grouplove and K.Flay that started in September 2017. The album was also nominated for the Grammy Award for Best Pop Vocal Album at the 60th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Plastic_Beach', 'album_name': 'Plastic Beach', 'artist': 'http://dbpedia.org/resource/Gorillaz', 'artist_name': 'Gorillaz', 'wiki': 'http://en.wikipedia.org/wiki/Plastic_Beach', 'hometown': 'http://dbpedia.org/resource/London', 'released': '03 March 2010', 'producers': ['Gorillaz'], 'writers': ['http://dbpedia.org/resource/Gorillaz', 'Snoop Dogg', 'Smith', 'Gruff Rhys', 'Reed', 'Bashy', 'Kano', 'Mos Def', 'De La Soul', 'Nagano'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Electronic_music', 'http://dbpedia.org/resource/Funk', 'http://dbpedia.org/resource/Hip_hop_music', 'http://dbpedia.org/resource/Pop_music', 'http://dbpedia.org/resource/World_music'], 'related_artists': ['http://dbpedia.org/resource/Cass_Browne', 'http://dbpedia.org/resource/De_La_Soul', 'http://dbpedia.org/resource/Del_the_Funky_Homosapien', 'http://dbpedia.org/resource/Deltron_3030', 'http://dbpedia.org/resource/Snoop_Dogg', 'http://dbpedia.org/resource/Spacemonkeyz'], 'abstract': "Plastic Beach is the third studio album by British virtual band Gorillaz. It was released on 3 March 2010 by Parlophone internationally and by Virgin Records in the United States. Conceived from an unfinished project called Carousel, the album was recorded from June 2008 to November 2009, and was produced primarily by group co-creator Damon Albarn. It features guest appearances by such artists as Snoop Dogg, Gruff Rhys, De La Soul, Bobby Womack, Mos Def, Lou Reed, Mark E. Smith, Bashy, Kano and Little Dragon. Plastic Beach received mostly positive reviews, and was later named one of the decade's best albums by several critics. The album debuted at number two on the UK Albums Chart, selling approximately 74,432 copies in its first week. It debuted at number two on the US Billboard 200 with 112,000 copies sold in its first week; it also reached number one in several other countries."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Out_of_Time_(album)', 'album_name': 'Out of Time (album)', 'artist': 'http://dbpedia.org/resource/R.E.M.', 'artist_name': 'R.E.M.', 'wiki': 'http://en.wikipedia.org/wiki/Out_of_Time_(album)', 'hometown': 'http://dbpedia.org/resource/Athens,_Georgia', 'released': '12 March 1991', 'producers': ['http://dbpedia.org/resource/Scott_Litt', 'R.E.M.'], 'awards': ['Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_rock'], 'related_artists': ['http://dbpedia.org/resource/10,000_Maniacs', 'http://dbpedia.org/resource/Amanda_Brown_(musician)', 'http://dbpedia.org/resource/Barrett_Martin', 'http://dbpedia.org/resource/Big_High', 'http://dbpedia.org/resource/Bill_Berry', 'http://dbpedia.org/resource/Bill_Rieflin', 'http://dbpedia.org/resource/Buren_Fowler', 'http://dbpedia.org/resource/Don_Dixon_(musician)', 'http://dbpedia.org/resource/Dumptruck_(band)', 'http://dbpedia.org/resource/Dušan_Vranić', 'http://dbpedia.org/resource/Filthy_Friends', 'http://dbpedia.org/resource/Grant-Lee_Phillips', 'http://dbpedia.org/resource/Hindu_Love_Gods_(band)', 'http://dbpedia.org/resource/Indigo_Girls', 'http://dbpedia.org/resource/Joey_Waronker', 'http://dbpedia.org/resource/John_Paul_Jones_(musician)', 'http://dbpedia.org/resource/Kate_Pierson', 'http://dbpedia.org/resource/Ken_Stringfellow', 'http://dbpedia.org/resource/Lenny_Kaye', 'http://dbpedia.org/resource/Magnapop', 'http://dbpedia.org/resource/Mark_Howard_(producer)', 'http://dbpedia.org/resource/Michael_Stipe', 'http://dbpedia.org/resource/Mike_Mills', 'http://dbpedia.org/resource/Montanablue', 'http://dbpedia.org/resource/Nikki_Sudden', 'http://dbpedia.org/resource/One_(U2_song)', 'http://dbpedia.org/resource/Pete_Yorn', 'http://dbpedia.org/resource/Peter_Buck', 'http://dbpedia.org/resource/Robyn_Hitchcock', 'http://dbpedia.org/resource/Scott_McCaughey', 'http://dbpedia.org/resource/Tanzplagen', "http://dbpedia.org/resource/The_B-52's", 'http://dbpedia.org/resource/The_Baseball_Project', 'http://dbpedia.org/resource/The_Humans_(UK_band)', 'http://dbpedia.org/resource/The_Minus_5', 'http://dbpedia.org/resource/The_Orange_Humble_Band', 'http://dbpedia.org/resource/The_Troggs', "http://dbpedia.org/resource/The_dB's", 'http://dbpedia.org/resource/Tired_Pony', 'http://dbpedia.org/resource/Tuatara_(band)', 'http://dbpedia.org/resource/U2', 'http://dbpedia.org/resource/Warren_Zevon', 'http://dbpedia.org/resource/William_Lee_Self', 'http://dbpedia.org/resource/Đani_Pervan'], 'abstract': 'Out of Time is the seventh studio album by American alternative rock band R.E.M., released on March 12, 1991, by Warner Bros. Records. With Out of Time, R.E.M.\'s status grew from that of a cult band to a massive international act. The record topped the album sales charts in both the United States and the United Kingdom, spending 109 weeks on U.S. album charts and enjoying two separate spells at the summit, and spending 183 weeks on the British charts and a single week at the top. The album has sold more than four and a half million copies in the United States and more than 18 million copies worldwide. The album won three Grammy Awards in 1992: one as Best Alternative Music Album, and two for the first single, "Losing My Religion."'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/The_Score_(Fugees_album)', 'album_name': 'The Score (Album)', 'artist': 'http://dbpedia.org/resource/Fugees', 'artist_name': 'Fugees', 'wiki': 'http://en.wikipedia.org/wiki/The_Score_(Fugees_album)', 'hometown': 'http://dbpedia.org/resource/South_Orange,_New_Jersey', 'released': '13 February 1996', 'producers': ['http://dbpedia.org/resource/Diamond_D', 'http://dbpedia.org/resource/Jerry_Duplessis', 'http://dbpedia.org/resource/John_Forté', 'http://dbpedia.org/resource/Lauryn_Hill', 'http://dbpedia.org/resource/Pras', 'http://dbpedia.org/resource/Salaam_Remi', 'http://dbpedia.org/resource/Wyclef_Jean', 'Shawn King', 'Warren Riker'], 'writers': ['http://dbpedia.org/resource/Charles_Fox_(composer)', 'http://dbpedia.org/resource/Diamond_D', 'http://dbpedia.org/resource/Enya', 'http://dbpedia.org/resource/John_Forté', 'http://dbpedia.org/resource/Lauryn_Hill', 'http://dbpedia.org/resource/Norman_Gimbel', 'http://dbpedia.org/resource/Pacewon', 'http://dbpedia.org/resource/Pras', 'http://dbpedia.org/resource/Rah_Digga', 'http://dbpedia.org/resource/Salaam_Remi', 'http://dbpedia.org/resource/Teena_Marie', 'http://dbpedia.org/resource/The_Delfonics', 'http://dbpedia.org/resource/Thom_Bell', 'http://dbpedia.org/resource/Vincent_Ford', 'http://dbpedia.org/resource/Wyclef_Jean', 'http://dbpedia.org/resource/Young_Zee', 'Roma Ryan', 'Jean', 'Forté', 'Marie', 'Allen McGrier', 'Michel', 'Nicholas Ryan', 'McGrier', 'Omega', 'Hill'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Progressive_rap'], 'related_artists': ['http://dbpedia.org/resource/Refugee_Camp_All-Stars'], 'abstract': 'The Score is the second and final studio album by the hip hop trio Fugees. The Score was released worldwide on February 13, 1996, on Columbia Records. The album features a wide range of samples and instrumentation, with many aspects of alternative hip-hop that would come to dominate the hip-hop music scene in the mid-late 1990s. Primarily, The Score\'s production was handled by the Fugees themselves, Jerry Duplessis and Warren Riker, with additional production from Salaam Remi, John Forté, Diamond D, and Shawn King. The album\'s guest verses are from Outsidaz members Rah Digga, Young Zee, and Pacewon, as well as Omega, John Forté, and Diamond D. Most versions of the album feature four bonus tracks, including three remixes of "Fu-Gee-La", and a short acoustic Wyclef Jean solo track entitled "Mista Mista". Upon its release, The Score was a commercial success, peaking at the number-one spot on the Billboard 200, and becoming the third best selling album of 1996. It also topped the Top R&amp;B/Hip-hop Albums chart for eight weeks, becoming the longest running number-one for a hip-hop group, and topped the 1996 year-end chart. The singles "Killing Me Softly", "Fu-Gee-La", and "Ready or Not" also achieved notable chart success, and helped the group achieve worldwide recognition. As of February 2021, The Score has been certified seven times platinum in sales by the Recording Industry Association of America (RIAA). It is the best-selling album by an American hip-hop act in France, where the album has been certified Diamond. With an estimated 22 million copies sold worldwide, the album has become one of the best-selling albums of all time, at the time of its release it became the best-selling hip-hop album of all time, and remains the best-selling album by a hip-hop group. As of June 2021, the album is the fifth most streamed rap album released in the 1990s on Spotify. In addition to receiving mostly favorable reviews upon its release, The Score has garnered a considerable amount of acclaim over the years, with many music critics and publications noting it as one of the greatest albums of the 1990s, as well as one of the greatest hip-hop albums of all time. In 1998, The Score was included in The Source\'s 100 best rap albums list, and in 2020, the album was ranked number 134 on Rolling Stone magazine\'s list of the 500 greatest albums of all time. The Score was nominated for the Grammy Award for Album of the Year, becoming the second rap album to receive a nomination and the first for a hip-hop group, while winning the Grammy Award for Best Rap Album, along with Best R&amp;B Performance by a Duo or Group with Vocal for "Killing Me Softly" at the 39th Annual Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Silver_Side_Up', 'album_name': 'Silver Side Up', 'artist': 'http://dbpedia.org/resource/Nickelback', 'artist_name': 'Nickelback', 'wiki': 'http://en.wikipedia.org/wiki/Silver_Side_Up', 'hometown': 'http://dbpedia.org/resource/Hanna,_Alberta', 'released': '11 September 2001', 'producers': ['Nickelback', 'Rick Parashar'], 'awards': ['Gold', 'Platinum'], 'genres': ['Post-grunge', 'alternative metal', 'hard rock'], 'related_artists': ['http://dbpedia.org/resource/3_Doors_Down', 'http://dbpedia.org/resource/Billy_Gibbons', 'http://dbpedia.org/resource/Chad_Kroeger', 'http://dbpedia.org/resource/Daniel_Adair', 'http://dbpedia.org/resource/Joey_Moi', 'http://dbpedia.org/resource/Jon_Redwine', 'http://dbpedia.org/resource/Josey_Scott', 'http://dbpedia.org/resource/Josh_Ramsay', 'http://dbpedia.org/resource/Mike_Shipley', 'http://dbpedia.org/resource/Nuno_Bettencourt', 'http://dbpedia.org/resource/Rick_Parashar', 'http://dbpedia.org/resource/Robert_John_%22Mutt%22_Lange', 'http://dbpedia.org/resource/Ryan_Peake', 'http://dbpedia.org/resource/Theory_of_a_Deadman'], 'abstract': 'Silver Side Up is the third studio album by Canadian rock band Nickelback, released on September 11, 2001. According to AllMusic, Silver Side Up continued Nickelback\'s tradition of "dark high-octane rock" from the band\'s first two albums. It reached number one in Canada, Austria, Ireland, New Zealand, and the United Kingdom. The album was certified 8× Platinum in Canada, 6× Platinum in the US, and 3× Platinum in the UK. Nickelback toured the world in support of the album, which included their first UK arena tour. After returning from the tour, the band began work on The Long Road.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Amplified_Heart', 'album_name': 'Amplified Heart', 'artist': 'http://dbpedia.org/resource/Everything_but_the_Girl', 'artist_name': 'Everything but the Girl', 'wiki': 'http://en.wikipedia.org/wiki/Amplified_Heart', 'hometown': 'http://dbpedia.org/resource/Kingston_upon_Hull', 'released': '13 June 1994', 'producers': ['http://dbpedia.org/resource/Ben_Watt', 'http://dbpedia.org/resource/Spring_Heel_Jack', 'http://dbpedia.org/resource/Tracey_Thorn'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Folk-pop'], 'related_artists': ['http://dbpedia.org/resource/Ben_Watt', 'http://dbpedia.org/resource/Cara_Tivey', 'http://dbpedia.org/resource/June_Miles-Kingston', 'http://dbpedia.org/resource/Marine_Girls', 'http://dbpedia.org/resource/Robin_Millar'], 'abstract': 'Amplified Heart is the eighth studio album by British musical duo Everything but the Girl. It was released on 13 June 1994 by Atlantic Records in the United States and Canada, and elsewhere by Blanco y Negro Records. The album was recorded and mixed in London from winter 1993 to 1994. Primarily an acoustic-driven set, Amplified Heart brought Everything but the Girl to mainstream audiences via the dance remix of the song "Missing". Ultimately peaking at number 2 on the US Billboard Hot 100 singles chart in early 1996, "Missing" spent more than a year gaining airplay and exposing Everything but the Girl to US and worldwide audiences, leading Amplified Heart to sell upwards of 232,000 copies in the United States, according to Nielsen SoundScan. It went on to sell over 1,000,000 copies worldwide. Amplified Heart was reissued in 2012 by Edsel Records as a two-disc deluxe set. On 16 May 2019 the band\'s Twitter account announced a special 25th anniversary pressing of the album on vinyl. Set to be released on 5 July 2019, it marks the album\'s debut in the vinyl format. The Todd Terry club mix of "Missing" is not on the vinyl as it was added on to later pressings of the CD as a bonus track.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Speak_&amp;_Spell_(album)', 'album_name': 'Speak and Spell', 'artist': 'http://dbpedia.org/resource/Depeche_Mode', 'artist_name': 'Depeche Mode', 'wiki': 'http://en.wikipedia.org/wiki/Speak_&amp;_Spell_(album)', 'hometown': 'http://dbpedia.org/resource/Basildon', 'released': '05 October 1981', 'producers': ['Depeche Mode', 'Daniel Miller'], 'writers': ['http://dbpedia.org/resource/Martin_Gore', 'Gore'], 'awards': ['Gold'], 'genres': ['http://dbpedia.org/resource/Synth-pop'], 'related_artists': ['http://dbpedia.org/resource/Alan_Wilder', 'http://dbpedia.org/resource/Andy_Fletcher_(musician)', 'http://dbpedia.org/resource/Anne_Clark_(poet)', 'http://dbpedia.org/resource/Big_Deal_(band)', 'http://dbpedia.org/resource/Bomb_the_Bass', 'http://dbpedia.org/resource/Bon_Harris', 'http://dbpedia.org/resource/DJ_Lynnwood', 'http://dbpedia.org/resource/Daniel_Miller_(music_producer)', 'http://dbpedia.org/resource/Das_Shadow', 'http://dbpedia.org/resource/Dave_Gahan', 'http://dbpedia.org/resource/Doug_Wimbish', 'http://dbpedia.org/resource/Douglas_McCarthy', 'http://dbpedia.org/resource/Eric_Radcliffe', 'http://dbpedia.org/resource/Gareth_Jones_(music_producer)', 'http://dbpedia.org/resource/Jaki_Liebezeit', 'http://dbpedia.org/resource/James_Ford_(musician)', 'http://dbpedia.org/resource/Mark_Bell_(British_musician)', 'http://dbpedia.org/resource/Martin_Gore', 'http://dbpedia.org/resource/Maya_Lavelle', 'http://dbpedia.org/resource/Nitzer_Ebb', 'http://dbpedia.org/resource/Peter_Gordeno_(musician)', 'http://dbpedia.org/resource/Sander_van_Doorn', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Stuart_Crichton', 'http://dbpedia.org/resource/VCMG', 'http://dbpedia.org/resource/Vince_Clarke', 'http://dbpedia.org/resource/Yazoo_(band)'], 'abstract': "Speak &amp; Spell is the debut studio album by English electronic music band Depeche Mode. It was released on 5 October 1981, or possibly 29 October 1981, by Mute Records. It was the band's only album to feature Vince Clarke, and is much lighter in tone than their subsequent releases. The album peaked at number 10 on the UK Albums Chart, and was ranked number 991 in the 2000 book All Time Top 1000 Albums."}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Hand_On_the_Torch', 'album_name': 'Hand On the Torch', 'artist': 'http://dbpedia.org/resource/Us3', 'artist_name': 'Us3', 'wiki': 'http://en.wikipedia.org/wiki/Hand_On_the_Torch', 'released': '16 November 1993', 'producers': ['http://dbpedia.org/resource/Geoff_Wilkinson', 'http://dbpedia.org/resource/Mel_Simpson'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Alternative_hip_hop', 'http://dbpedia.org/resource/Jazz_rap'], 'related_artists': ['http://dbpedia.org/resource/Mpho', 'http://dbpedia.org/resource/Shabaam_Sahdeeq'], 'abstract': 'Hand on the Torch is the debut album by British jazz-rap group Us3. It received much attention because of its mix of jazz and rap, using live jazz musicians. All samples used on the album are from old Blue Note classics: the most famous being Herbie Hancock\'s "Cantaloupe Island", used on the track "Cantaloop (Flip Fantasia)", which was recorded with two different music videos. In 2003, The Ultimate Hand on the Torch was released, including many of the songs used as sampling material on Hand on the Torch.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Monkey_Business_(Black_Eyed_Peas_album)', 'album_name': 'Monkey Business (album)', 'artist': 'http://dbpedia.org/resource/Black_Eyed_Peas', 'artist_name': 'Black Eyed Peas', 'wiki': 'http://en.wikipedia.org/wiki/Monkey_Business_(Black_Eyed_Peas_album)', 'released': '25 May 2005', 'producers': ['Nate "Danja" Hills', 'Noize Trip', 'Printz Board', 'Ron Fair', 'Timothy "Timbaland" Mosley', 'apl.de.ap', 'will.i.am'], 'awards': ['Gold', 'Platinum', 'Platinum+Gold'], 'genres': ['*Hip hop', '*pop'], 'related_artists': ['http://dbpedia.org/resource/A_Million_Pieces', 'http://dbpedia.org/resource/Anders_Grahn', 'http://dbpedia.org/resource/Atban_Klann', 'http://dbpedia.org/resource/Bedtime_for_Toys', 'http://dbpedia.org/resource/Bucky_Jonson', 'http://dbpedia.org/resource/DJ_Rectangle', 'http://dbpedia.org/resource/Darryl_Swann', 'http://dbpedia.org/resource/George_Pajon', 'http://dbpedia.org/resource/Jean-Baptiste_(songwriter)', 'http://dbpedia.org/resource/Jean_Luc_Ponpon', 'http://dbpedia.org/resource/Joey_Boy', 'http://dbpedia.org/resource/Johnny_Goldstein', 'http://dbpedia.org/resource/Julie_Frost', 'http://dbpedia.org/resource/Kim_Hill_(soul_musician)', 'http://dbpedia.org/resource/Kryoman', 'http://dbpedia.org/resource/Macy_Gray', 'http://dbpedia.org/resource/Noelle_Scaggs', 'http://dbpedia.org/resource/Printz_Board', 'http://dbpedia.org/resource/Rhett_Lawrence', 'http://dbpedia.org/resource/Taboo_(rapper)', 'http://dbpedia.org/resource/The_Click_Five', 'http://dbpedia.org/resource/Urban_Punk__Harrell_Harris_Jr.__1', 'http://dbpedia.org/resource/Wild_Orchid_(group)', 'http://dbpedia.org/resource/Will.i.am'], 'abstract': 'Monkey Business is the fourth studio album by American group Black Eyed Peas. It was released on May 25, 2005, by the will.i.am Music Group and A&amp;M Records. It was recorded in "two and three-month spurts" throughout 2004 while the group was on tour. The album was certified three times Platinum by the RIAA in the U.S. and has sold over 9 million copies worldwide. The Canadian Recording Industry Association has certified Monkey Business 6× Platinum, with sales of over 600,000 copies. The Australian Recording Industry Association (or ARIA) has also certified Monkey Business 6× Platinum, denoting sales of over 420,000 copies. The album\'s tracks earned the group four 2006 Grammy Award nominations and they also won the Grammy for Best Rap Performance by a Duo or Group for "Don\'t Phunk with My Heart". According to IFPI, over 2 million copies have been sold in Europe. The band promoted the album embarking on two concert tours: the Monkey Business Tour and the Black Blue &amp; You Tour.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Prolonging_the_Magic', 'album_name': 'Prolonging the Magic', 'artist': 'http://dbpedia.org/resource/Cake_(band)', 'artist_name': 'Cake', 'wiki': 'http://en.wikipedia.org/wiki/Prolonging_the_Magic', 'released': '06 October 1998', 'producers': ['John McCrea'], 'writers': ['Jim Campilongo, McCrea', 'McCrea, Gabriel Nelson, Tyler Pope', 'McCrea, Nelson, Joe Snook', 'Vincent DiFiore, McCrea'], 'genres': ['http://dbpedia.org/resource/Alternative_country', 'http://dbpedia.org/resource/Alternative_rock', 'http://dbpedia.org/resource/Experimental_rock'], 'related_artists': ['http://dbpedia.org/resource/Deadweight_(band)', 'http://dbpedia.org/resource/Frank_French', 'http://dbpedia.org/resource/Gabe_Nelson', 'http://dbpedia.org/resource/John_McCrea_(musician)', 'http://dbpedia.org/resource/Mommyheads', 'http://dbpedia.org/resource/Paulo_Baldi', 'http://dbpedia.org/resource/Tyler_Pope', 'http://dbpedia.org/resource/Vince_DiFiore'], 'abstract': 'Prolonging the Magic is the third studio album by American alternative rock band Cake. It was released on October 6, 1998, on Capricorn Records. The sole successful single was "Never There". The album was recorded after the departure of guitarist Greg Brown and features a rotating lineup of musicians to replace him. One of them, Xan McCurdy, became his full-time replacement.On its opening week, Prolonging the Magic sold about 44,000 copies, debuting at No. 33 on the Billboard 200 chart. On 28 September 1999 the album was certified platinum by the RIAA for shipments of one million copies. The album was given a parental advisory sticker not because of profanity but for Satanic-themed lyrics. Some copies do not feature a sticker, with the only difference being that the song "Satan Is My Motor" has been retitled "Motor". The song "Hem of Your Garment" was featured in the film Me, Myself &amp; Irene.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Spice_(album)', 'album_name': 'Spice (album)', 'artist': 'http://dbpedia.org/resource/Spice_Girls', 'artist_name': 'Spice Girls', 'wiki': 'http://en.wikipedia.org/wiki/Spice_(album)', 'hometown': 'http://dbpedia.org/resource/London', 'released': '04 February 1997', 'producers': ['Absolute', 'Matt Rowe', 'Richard Stannard'], 'writers': ['http://dbpedia.org/resource/Absolute_(production_team)', 'http://dbpedia.org/resource/Biffco', 'http://dbpedia.org/resource/Bootsy_Collins', 'http://dbpedia.org/resource/Eliot_Kennedy', 'http://dbpedia.org/resource/George_Clinton_(funk_musician)', 'http://dbpedia.org/resource/Shock_G', 'http://dbpedia.org/resource/Spice_Girls', 'http://dbpedia.org/resource/Walter_%22Junie%22_Morrison', 'Thomas', 'James Castor', 'Jacobs', 'Collins', 'Wilson', 'Watkins', 'Morrison', 'Stannard', 'Cary Bayliss', 'Castor', 'Rowe', 'Gerald Thomas', 'Matt Rowe', 'Pruitt', 'Bayliss', 'Kennedy', 'Nacho Mañó', 'Johnny Pruitt', 'Clinton'], 'awards': ['Diamond', 'Gold', 'Platinum'], 'genres': ['Pop', 'dance-pop', 'teen pop', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Ellis,_Beggs_&amp;_Howard', 'http://dbpedia.org/resource/Gary_Wallis__Gary_Wallis__1', 'http://dbpedia.org/resource/LaShawn_Daniels', 'http://dbpedia.org/resource/Michelle_Stephenson', 'http://dbpedia.org/resource/Roddy_Lorimer', 'http://dbpedia.org/resource/Simon_Ellis_(record_producer)', 'http://dbpedia.org/resource/Simon_Fuller', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/Sudha_Kheterpal'], 'abstract': 'Spice is the debut studio album by English girl group the Spice Girls, released on 4 November 1996 by Virgin Records. The album was recorded between 1995 and 1996 at Olympic Studios in Barnes, London, and Strongroom Studios in Shoreditch, London, by producers Matt Rowe and Richard Stannard, and the production duo Absolute. Spice is a pop album that incorporates styles such as dance, R&amp;B and hip hop. It is considered to be the record that brought teen pop back, opening the doors for a wave of teen pop artists. Conceptually, the album centered on the idea of Girl Power, and the hype surrounding the group was compared to Beatlemania. A worldwide commercial success, Spice topped the charts in more than 17 countries across the world, and was certified Multi-Platinum in 27 countries, Platinum in 14 countries and Gold in three countries, including 10-times Platinum in the United Kingdom and Canada, eight-times Platinum in Europe, and seven-times Platinum in the United States. It became the world\'s top-selling album of 1997, selling 19 million copies in over a year. The album has sold a total of 23 million copies worldwide, becoming the best-selling album in music history by a girl group and one of the best-selling albums of all time. Four singles were released from the album. The lead single, "Wannabe", reached number one in 35 countries, becoming one of the best-selling singles of all time and selling over six million copies worldwide. The next two singles, "Say You\'ll Be There" and "2 Become 1", reached number one in 53 countries. "Who Do You Think You Are" was released as the official Comic Relief single in the UK as a double A-side with "Mama" and both songs reached the top 20 in charts across Europe, Australia and New Zealand. In the band\'s native UK, all four singles went to number one on the UK Singles Chart and, on the Billboard Hot 100, the album spawned three top-five singles.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Purpose_(Justin_Bieber_album)', 'album_name': 'Purpose (Justin Bieber)', 'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Purpose_(Justin_Bieber_album)', 'released': '13 November 2015', 'producers': ['http://dbpedia.org/resource/Andrew_Watt_(record_producer)', 'http://dbpedia.org/resource/Axident', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Dre_&amp;_Vidal', 'http://dbpedia.org/resource/Ian_Kirkpatrick_(record_producer)', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Maejor', 'http://dbpedia.org/resource/Mike_Dean_(record_producer)', 'http://dbpedia.org/resource/Poo_Bear', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Soundz', 'http://dbpedia.org/resource/Steve_James_(DJ)', 'http://dbpedia.org/resource/The_Audibles', 'Louis Bell', 'Jeremy Snyder', 'MdL', 'Tom Strahle', 'Big Taste', 'Usher', 'Karl Rubin Brutus', 'Justin Bieber', 'The Mogul', 'Oligee', 'DJ Tay James', 'Gladius', 'Nico Hartikainen', 'A.C.', 'Jordan Ware', 'D.K. The Punisher', 'Josh Gudwin', 'Scooter Braun'], 'writers': ['http://dbpedia.org/resource/Ali_Tamposi', 'http://dbpedia.org/resource/Andrew_Watt_(record_producer)', 'http://dbpedia.org/resource/Axident', 'http://dbpedia.org/resource/BadBadNotGood', 'http://dbpedia.org/resource/Benny_Blanco', 'http://dbpedia.org/resource/Big_Sean', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Brian_Lee_(songwriter)', 'http://dbpedia.org/resource/DJ_Snake', 'http://dbpedia.org/resource/Diplo', 'http://dbpedia.org/resource/Dre_&amp;_Vidal', 'http://dbpedia.org/resource/Ed_Sheeran', 'http://dbpedia.org/resource/Frank_Dukes', 'http://dbpedia.org/resource/Fredrik_Halland', 'http://dbpedia.org/resource/Halsey_(singer)', 'http://dbpedia.org/resource/Ian_Kirkpatrick_(record_producer)', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Josh_Abraham', 'http://dbpedia.org/resource/Julia_Michaels', 'http://dbpedia.org/resource/Justin_Bieber', 'http://dbpedia.org/resource/Justin_Tranter', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Maejor', 'http://dbpedia.org/resource/Mike_Dean_(record_producer)', 'http://dbpedia.org/resource/Nas', 'http://dbpedia.org/resource/Poo_Bear', 'http://dbpedia.org/resource/Post_Malone', 'http://dbpedia.org/resource/Rodney_Jerkins', 'http://dbpedia.org/resource/Sarah_Hudson_(singer)', 'http://dbpedia.org/resource/Scooter_Braun', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/Soundz', 'http://dbpedia.org/resource/Steve_James_(DJ)', 'http://dbpedia.org/resource/The_Audibles', 'http://dbpedia.org/resource/Theron_Feemster', 'http://dbpedia.org/resource/Thomas_Troelsen', 'http://dbpedia.org/resource/Travis_Scott', 'http://dbpedia.org/resource/Vinylz', 'Tucker', 'Gudwin', 'Boyd', 'Clarence Coffee, Jr.', 'Simpson', 'Abraham', 'Kaan Gunesberk', 'Wallace Joseph', 'Mark Jackson', 'Ely Weisfield', 'Jordan Ware', 'Oliver Goldstein', 'Wotman', 'Leroy Clampitt', 'Jeremy Snyder', 'Michaels', 'Tom Strahle', 'Moore', 'Bell', 'Vasquez', 'Brutus', 'Saul Vasquez', 'Bieber', 'Karl Rubin Brutus', 'Jackson', 'Levy', 'James Wong', 'Sam Hook', 'Green', 'Eben Wares', 'Abrahart', 'Joshua Gudwin', 'Ware', 'Nico Hartikainen', 'Mason Levy', 'Donovan Knight', 'Julian Swirsky', 'Hartikainen', 'Grande'], 'awards': ['Diamond+Platinum', 'Gold', 'Platinum'], 'genres': ['EDM', 'pop', 'soul', 'dance-pop ', 'R&amp;B'], 'related_artists': ['http://dbpedia.org/resource/Andre_Lindal', 'http://dbpedia.org/resource/BloodPop', 'http://dbpedia.org/resource/Brayton_Bowman', 'http://dbpedia.org/resource/Brian_Puspos', 'http://dbpedia.org/resource/Carlos_Nóbrega', 'http://dbpedia.org/resource/Christopher_Martin_(singer)', 'http://dbpedia.org/resource/Dan_Kanter', 'http://dbpedia.org/resource/Frédéric_Yonnet', 'http://dbpedia.org/resource/Gian_Stone', 'http://dbpedia.org/resource/Hyuk_Shin', 'http://dbpedia.org/resource/James_Abrahart', 'http://dbpedia.org/resource/Jason_Pierce_(drummer)', 'http://dbpedia.org/resource/Khalil_(singer)', 'http://dbpedia.org/resource/King_Henry_(producer)', 'http://dbpedia.org/resource/Kuk_Harrell', 'http://dbpedia.org/resource/Lee_Major', 'http://dbpedia.org/resource/Legaci_(band)', 'http://dbpedia.org/resource/Lil_Twist', 'http://dbpedia.org/resource/Louis_Bell', 'http://dbpedia.org/resource/Maejor', 'http://dbpedia.org/resource/Poo_Bear__Poo_Bear__1', 'http://dbpedia.org/resource/Ross_Golan', 'http://dbpedia.org/resource/Sasha_Sirota', 'http://dbpedia.org/resource/Savan_Kotecha', 'http://dbpedia.org/resource/Simon_Cohen_(audio_engineer)', 'http://dbpedia.org/resource/Skrillex', 'http://dbpedia.org/resource/SoFly_and_Nius', 'http://dbpedia.org/resource/Spike_Stent', 'http://dbpedia.org/resource/The_Audibles', 'http://dbpedia.org/resource/The_Jackie_Boyz', 'http://dbpedia.org/resource/The_Movement_(production_team)', 'http://dbpedia.org/resource/The_Stereotypes'], 'abstract': 'Purpose is the fourth studio album by Canadian singer Justin Bieber. It was released through Def Jam Recordings and School Boy Records on November 13, 2015. The album features guest appearances from Big Sean, Travis Scott, Halsey, Jack Ü, and Ariana Grande. The deluxe version was released simultaneously on the same day. It features an extra guest appearance from Nas. The album serves as the follow-up to Bieber\'s third studio album, Believe (2012), and it was developed after the release of his compilation album Journals (2013), which saw him move musically in a more R&amp;B direction. Bieber and Grande released the official remix of lead single "What Do You Mean?" on October 16, 2015. Production was contributed from Bieber himself, Skrillex and Diplo from Jack Ü, and BloodPop, among others. While working with Jack Ü on their debut studio album, Skrillex and Diplo Present Jack Ü (2015), Bieber collaborated with Jack Ün on the US top 10 single, "Where Are Ü Now" in early 2015. Bieber then found what would be the record\'s sonic direction and worked alongside Skrillex on a handful of the album\'s songs. Purpose was described as a mix of dance-pop and EDM, with influences of tropical house in some tracks and live instruments such as acoustic guitars in some others, with the help of his personal friend and frequent musical collaborator Poo Bear. Purpose debuted at number one on the US Billboard 200, earning 649,000 album-equivalent units in its first week of release, giving Bieber the largest first-week sales of his career and his sixth number-one album in the United States. Elsewhere, it reached the top of the charts in another eleven countries. Four singles were released from the album: "What Do You Mean?", "Sorry", "Love Yourself", and "Company". The former three singles all reached number one on both the US Billboard Hot 100 and the UK Singles Chart. The album was among the best-selling albums of both 2015 and 2016. Purpose was nominated for Album of the Year and Best Pop Vocal Album at the 2017 Grammy Awards. "Love Yourself" was nominated for Song of the Year and Best Pop Solo Performance. The album won the American Music Award for Favorite Pop/Rock Album. To promote the album, Bieber gave several televised interviews and performances, as well as releasing "dance videos" for all of the album\'s tracks in a project called Purpose: The Movement (2015). Furthermore, Bieber embarked on his Purpose World Tour in 2016, which was his first concert tour to perform in major stadiums worldwide. The album has since been certified 5× platinum by the Recording Industry Association of America (RIAA).'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Razorlight_(album)', 'album_name': 'Razorlight (album)', 'artist': 'http://dbpedia.org/resource/Razorlight', 'artist_name': 'Razorlight', 'wiki': 'http://en.wikipedia.org/wiki/Razorlight_(album)', 'released': '17 July 2006', 'producers': ['Razorlight', 'Chris Thomas'], 'writers': ['Borrell, Andy Burrows', 'Borrell, Björn Ågren', 'Borrell, Burrows'], 'awards': ['Platinum'], 'genres': ['http://dbpedia.org/resource/Indie_rock', 'http://dbpedia.org/resource/Post-punk_revival'], 'related_artists': ['http://dbpedia.org/resource/Andy_Burrows', 'http://dbpedia.org/resource/I_Am_Arrows', 'http://dbpedia.org/resource/Johnny_Borrell', 'http://dbpedia.org/resource/The_Chavs', 'http://dbpedia.org/resource/The_Libertines'], 'abstract': 'Razorlight is the self-titled second studio album by English indie rock band Razorlight. The album was released on 17 July 2006 in the United Kingdom and debuted at number 1 on the UK Albums Chart. The band achieved their first and only number one hit from this album, with "America" peaking at the top of the UK Singles Chart in October 2006. The song also peaked at number 6 in Ireland, number 9 in the Netherlands, number 10 in New Zealand, number 17 in Austria, number 21 in Belgium, number 22 in France, number 29 in Switzerland and number 38 in Germany. "Before I Fall to Pieces" was a UK top 20 hit too, as was "In the Morning". "Hold On" was a minor hit. The album has a more mature sound than their debut, and received a mixed reception. Although it scored 8/10 in NME, it was nominated for \'Worst Album\' at the 2007 NME Awards – award winner Rudebox by Robbie Williams also scored 8/10.'}</t>
+  </si>
+  <si>
+    <t>{'album': 'http://dbpedia.org/resource/Megalithic_Symphony', 'album_name': 'Megalithic Symphony', 'artist': 'http://dbpedia.org/resource/Awolnation', 'artist_name': 'Awolnation', 'wiki': 'http://en.wikipedia.org/wiki/Megalithic_Symphony', 'hometown': 'http://dbpedia.org/resource/California', 'released': '15 March 2011', 'producers': ['Aaron Bruno', 'Brian West', 'Jimmy Messer'], 'awards': ['Gold', 'Platinum'], 'genres': ['Electronic rock', 'alternative rock', 'electropop', 'indie rock', 'pop rock'], 'related_artists': ['http://dbpedia.org/resource/Alex_Ebert', 'http://dbpedia.org/resource/Brian_West_(musician)', 'http://dbpedia.org/resource/Eric_Stenman', 'http://dbpedia.org/resource/Fitness_(band)__Fitness__1', 'http://dbpedia.org/resource/Home_Town_Hero', 'http://dbpedia.org/resource/Isaac_Carpenter_(drummer)', 'http://dbpedia.org/resource/Jim_Kaufman', 'http://dbpedia.org/resource/Kill_the_Noise', 'http://dbpedia.org/resource/Parade_of_Lights', 'http://dbpedia.org/resource/Samantha_Ronson', 'http://dbpedia.org/resource/Tony_Royster_Jr.', 'http://dbpedia.org/resource/Under_the_Influence_of_Giants', 'http://dbpedia.org/resource/White_Wives'], 'abstract': "Megalithic Symphony is the debut studio album by American alternative rock band Awolnation, released on March 15, 2011 through Red Bull Records. The album is the band's first full-length release, following the release of the extended play Back From Earth (2010). Megalithic Symphony has since peaked at number 84 on the United States Billboard 200 and at number 57 on the Austrian Albums Chart. As of March 2015, the album sold 581,000 copies in the United States. On February 29, 2016, the RIAA certified Megalithic Symphony platinum. The album turned 10 years old on March 15, 2021, and on this day a special 10th anniversary edition of it was released. It includes some unreleased songs and live performances of some older songs, and contains a total of 27 bonus tracks."}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seoul', 'country_code': 'KR', 'wiki': 'http://en.wikipedia.org/wiki/Seoul', 'place': 'http://sws.geonames.org/1835848/', 'geo_link': 'http://www.geonames.org/1835847/seoul.html', 'lat': '37.56666666666667', 'long': '127', 'population': '10349312'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Toronto', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Toronto', 'place': 'http://sws.geonames.org/8133394/', 'geo_link': 'http://www.geonames.org/6167865/toronto.html', 'lat': '43.7', 'long': '-79.4', 'population': '2600000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Middletown, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Middletown%2C_Connecticut', 'place': 'http://sws.geonames.org/4838633/', 'postal_code': '06457', 'geo_link': 'http://www.geonames.org/4838633/middletown.html', 'lat': '41.562222222222225', 'long': '-72.65083333333334', 'population': '47648'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
   </si>
   <si>
     <t>{'place_name': 'San Diego', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Diego', 'place': 'http://sws.geonames.org/5391811/', 'postal_code': '92140', 'geo_link': 'http://www.geonames.org/5391811/san-diego.html', 'lat': '32.715', 'long': '-117.1625', 'population': '1307402'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Limerick', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Limerick', 'place': 'http://sws.geonames.org/7778675/', 'geo_link': 'http://www.geonames.org/2962943/luimneach.html', 'lat': '52.6653', 'long': '-8.6238', 'population': '57106'}</t>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Basildon', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Basildon', 'place': 'http://sws.geonames.org/2656194/', 'geo_link': 'http://www.geonames.org/2656194/basildon.html', 'lat': '51.5761', 'long': '0.4886', 'population': '101362'}</t>
   </si>
   <si>
     <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Bergen', 'country_code': 'NO', 'wiki': 'http://en.wikipedia.org/wiki/Bergen', 'place': 'http://sws.geonames.org/3161733/', 'geo_link': 'http://www.geonames.org/3161733/bergen.html', 'lat': '60.38944444444444', 'long': '5.33', 'population': '252051'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Marietta, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Marietta%2C_Georgia', 'place': 'http://sws.geonames.org/4207783/', 'postal_code': '30063', 'geo_link': 'http://www.geonames.org/4207783/marietta.html', 'lat': '33.95333333333333', 'long': '-84.54055555555556', 'population': '56579'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ajax, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ajax%2C_Ontario', 'place': 'http://sws.geonames.org/5882873/', 'geo_link': 'http://www.geonames.org/5882873/ajax.html', 'lat': '43.858333333333334', 'long': '-79.0363888888889', 'population': '90167'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
   </si>
   <si>
     <t>{'place_name': 'Agoura Hills, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Agoura_Hills%2C_California', 'place': 'http://sws.geonames.org/5322553/', 'postal_code': '91301', 'geo_link': 'http://www.geonames.org/5322553/agoura-hills.html', 'lat': '34.153333333333336', 'long': '-118.76166666666667', 'population': '20330'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
+    <t>{'place_name': 'Abingdon-on-Thames', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Abingdon-on-Thames', 'place': 'http://sws.geonames.org/7292133/', 'geo_link': 'http://www.geonames.org/2657780/abingdon.html', 'lat': '51.667', 'long': '-1.283', 'population': '37192'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Wilmette, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilmette%2C_Illinois', 'place': 'http://sws.geonames.org/4916732/', 'postal_code': '60091', 'geo_link': 'http://www.geonames.org/4916732/wilmette.html', 'lat': '42.077222222222225', 'long': '-87.72361111111111', 'population': '27087'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Akron, Ohio', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%90%D0%BA%D1%80%D0%BE%D0%BD_%28%D0%9E%D0%B3%D0%B0%D0%B9%D0%BE%29', 'place': 'http://sws.geonames.org/5145476/', 'postal_code': '44302', 'geo_link': 'http://www.geonames.org/5145476/akron.html', 'lat': '41.073055555555555', 'long': '-81.51777777777778', 'population': '199110'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dayton, Ohio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dayton%2C_Ohio', 'place': 'http://sws.geonames.org/4509884/', 'postal_code': '45420', 'geo_link': 'http://www.geonames.org/4509884/dayton.html', 'lat': '39.75944444444445', 'long': '-84.19166666666666', 'population': '141527'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Leicester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Leicester', 'place': 'http://sws.geonames.org/3333165/', 'geo_link': 'http://www.geonames.org/2644668/leicester.html', 'lat': '52.63333333333333', 'long': '-1.1333333333333333', 'population': '339239'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Tennessee', 'place': 'http://sws.geonames.org/4662168/', 'geo_link': 'http://www.geonames.org/4662168/tennessee.html', 'lat': '35.75035', 'long': '-86.25027', 'population': '5935099'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hereford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Hereford', 'place': 'http://sws.geonames.org/2647074/', 'postal_code': 'HR2', 'geo_link': 'http://www.geonames.org/2647074/hereford.html', 'lat': '52.0565', 'long': '-2.716', 'population': '58281'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'South Korea', 'country_code': 'KR', 'wiki': 'http://ko.wikipedia.org/wiki/%EB%8C%80%ED%95%9C%EB%AF%BC%EA%B5%AD', 'place': 'http://sws.geonames.org/1835841/', 'geo_link': 'http://www.geonames.org/1835841/republic-of-korea.html', 'lat': '36.0', 'long': '128.0', 'population': '48422644'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
   </si>
   <si>
     <t>{'place_name': 'United States', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/United_States', 'place': 'http://sws.geonames.org/6252001/', 'geo_link': 'http://www.geonames.org/6252001/united-states.html', 'lat': '40.0', 'long': '-100.0', 'population': '310232863'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Iceland', 'country_code': 'IS', 'wiki': 'http://en.wikipedia.org/wiki/Iceland', 'place': 'http://sws.geonames.org/2629691/', 'geo_link': 'http://www.geonames.org/2629691/republic-of-iceland.html', 'lat': '65', 'long': '-18', 'population': '308910'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'South Korea', 'country_code': 'KR', 'wiki': 'http://ko.wikipedia.org/wiki/%EB%8C%80%ED%95%9C%EB%AF%BC%EA%B5%AD', 'place': 'http://sws.geonames.org/1835841/', 'geo_link': 'http://www.geonames.org/1835841/republic-of-korea.html', 'lat': '36.0', 'long': '128.0', 'population': '48422644'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dorchester, Boston', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dorchester%2C_Boston', 'place': 'http://sws.geonames.org/4934964/', 'geo_link': 'http://www.geonames.org/4934964/dorchester.html', 'lat': '42.31666666666667', 'long': '-71.05'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Colorado Springs, Colorado', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Colorado_Springs%2C_Colorado', 'place': 'http://sws.geonames.org/5417598/', 'postal_code': '80995', 'geo_link': 'http://www.geonames.org/5417598/colorado-springs.html', 'lat': '38.833333333333336', 'long': '-104.81666666666666', 'population': '416427'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Palm Desert, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Palm_Desert%2C_California', 'place': 'http://sws.geonames.org/5380626/', 'postal_code': '92260', 'geo_link': 'http://www.geonames.org/5380626/palm-desert.html', 'lat': '33.72222222222222', 'long': '-116.37444444444445', 'population': '48445'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Waldorf, Maryland', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waldorf%2C_Maryland', 'place': 'http://sws.geonames.org/4372599/', 'postal_code': '20603', 'geo_link': 'http://www.geonames.org/4372599/waldorf.html', 'lat': '38.64611111111111', 'long': '-76.89833333333333', 'population': '67752'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Jose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/George_Miner_Elementary_School', 'place': 'http://sws.geonames.org/5392171/', 'postal_code': '95159', 'geo_link': 'http://www.geonames.org/5351939/george-miner-elementary-school.html', 'lat': '37.333333333333336', 'long': '-121.9', 'population': '945942'}</t>
+    <t>{'place_name': 'La Crescenta-Montrose, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/La_Crescenta-Montrose%2C_California', 'place': 'http://sws.geonames.org/7261553/', 'geo_link': 'http://www.geonames.org/7261553/la-crescenta-montrose.html', 'lat': '34.225', 'long': '-118.23694444444445', 'population': '19653'}</t>
   </si>
   <si>
     <t>{'place_name': 'Athens, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Athens%2C_Georgia', 'place': 'http://sws.geonames.org/4180386/', 'postal_code': '30601', 'geo_link': 'http://www.geonames.org/4180386/athens.html', 'lat': '33.95', 'long': '-83.38333333333334', 'population': '116714'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ho-Ho-Kus, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ho-Ho-Kus%2C_New_Jersey', 'place': 'http://sws.geonames.org/5099129/', 'geo_link': 'http://www.geonames.org/5099129/ho-ho-kus.html', 'lat': '40.999485', 'long': '-74.096574', 'population': '4078'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Stafford', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Stafford', 'place': 'http://sws.geonames.org/2637142/', 'geo_link': 'http://www.geonames.org/2637142/stafford.html', 'lat': '52.8066', 'long': '-2.1171', 'population': '65290'}</t>
-  </si>
-  <si>
-    <t>{"url": "https://genius.com/albums/Pet-shop-boys/Popart-the-hits", "annotations": {"description": "", "producers": [{"name": "Adam F", "url": "https://genius.com/artists/Adam-f"}, {"name": "Andy Richards", "url": "https://genius.com/artists/Andy-richards"}, {"name": "Brothers in Rhythm", "url": "https://genius.com/artists/Brothers-in-rhythm"}, {"name": "Chris Lowe", "url": "https://genius.com/artists/Chris-lowe"}, {"name": "Chris Porter", "url": "https://genius.com/artists/Chris-porter"}, {"name": "Craig Armstrong", "url": "https://genius.com/artists/Craig-armstrong"}, {"name": "Dan Fresh", "url": "https://genius.com/artists/Dan-fresh"}, {"name": "Danny Tenaglia", "url": "https://genius.com/artists/Danny-tenaglia"}, {"name": "David Morales", "url": "https://genius.com/artists/David-morales"}, {"name": "Felix Gauder", "url": "https://genius.com/artists/Felix-gauder"}, {"name": "Harold Faltermeyer", "url": "https://genius.com/artists/Harold-faltermeyer"}, {"name": "Julian Mendelsohn", "url": "https://genius.com/artists/Julian-mendelsohn"}, {"name": "Lewis Martine\u00e9", "url": "https://genius.com/artists/Lewis-martinee"}, {"name": "Neil Tennant", "url": "https://genius.com/artists/Neil-tennant"}, {"name": "Pet Shop Boys", "url": "https://genius.com/artists/Pet-shop-boys"}, {"name": "Stephen Hague", "url": "https://genius.com/artists/Stephen-hague"}, {"name": "Stephen Lipson", "url": "https://genius.com/artists/Stephen-lipson"}, {"name": "Stuart Crichton", "url": "https://genius.com/artists/Stuart-crichton"}, {"name": "Tomcraft", "url": "https://genius.com/artists/Tomcraft"}, {"name": "Trevor Horn", "url": "https://genius.com/artists/Trevor-horn"}], "writers": [{"name": "Adam Clayton", "url": "https://genius.com/artists/Adam-clayton"}, {"name": "Adam F", "url": "https://genius.com/artists/Adam-f"}, {"name": "Adem\u00e1rio", "url": "https://genius.com/artists/Ademario"}, {"name": "Allee Willis", "url": "https://genius.com/artists/Allee-willis"}, {"name": "Bob Crewe", "url": "https://genius.com/artists/Bob-crewe"}, {"name": "Bob Gaudio", "url": "https://genius.com/artists/Bob-gaudio"}, {"name": "Bono", "url": "https://genius.com/artists/Bono"}, {"name": "Chris Lowe", "url": "https://genius.com/artists/Chris-lowe"}, {"name": "Dan Fresh", "url": "https://genius.com/artists/Dan-fresh"}, {"name": "The Edge (Guitarist)", "url": "https://genius.com/artists/The-edge-guitarist"}, {"name": "Henri Belolo", "url": "https://genius.com/artists/Henri-belolo"}, {"name": "Jacques Morali", "url": "https://genius.com/artists/Jacques-morali"}, {"name": "Johnny Christopher", "url": "https://genius.com/artists/Johnny-christopher"}, {"name": "Larry Mullen Jr.", "url": "https://genius.com/artists/Larry-mullen-jr"}, {"name": "Leonard Bernstein", "url": "https://genius.com/artists/Leonard-bernstein"}, {"name": "Mark James", "url": "https://genius.com/artists/Mark-james"}, {"name": "Marshall Jefferson", "url": "https://genius.com/artists/Marshall-jefferson"}, {"name": "Nego do Barbalho", "url": "https://genius.com/artists/Nego-do-barbalho"}, {"name": "Neil Tennant", "url": "https://genius.com/artists/Neil-tennant"}, {"name": "Paris Brightledge", "url": "https://genius.com/artists/Paris-brightledge"}, {"name": "Stephen Hague", "url": "https://genius.com/artists/Stephen-hague"}, {"name": "Stephen Sondheim", "url": "https://genius.com/artists/Stephen-sondheim"}, {"name": "Sterling Void", "url": "https://genius.com/artists/Sterling-void"}, {"name": "Victor Willis", "url": "https://genius.com/artists/Victor-willis"}, {"name": "Wayne Carson", "url": "https://genius.com/artists/Wayne-carson"}, {"name": "Wellington Epiderme Negra", "url": "https://genius.com/artists/Wellington-epiderme-negra"}], "labels": [{"name": "EMI (Label)", "url": "https://genius.com/artists/Emi-label"}, {"name": "Parlophone (Label)", "url": "https://genius.com/artists/Parlophone-label"}, {"name": "Parlophone Records", "url": "https://genius.com/artists/Parlophone-records"}, {"name": "Picture Music International", "url": "https://genius.com/artists/Picture-music-international"}]}}</t>
+    <t>{'place_name': 'South Orange, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/South_Orange%2C_New_Jersey', 'place': 'http://sws.geonames.org/7259012/', 'geo_link': 'http://www.geonames.org/7259012/south-orange.html', 'lat': '40.748811', 'long': '-74.261513'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hanna, Alberta', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Hanna%2C_Alberta', 'place': 'http://sws.geonames.org/5970234/', 'geo_link': 'http://www.geonames.org/5970234/hanna.html', 'lat': '51.638333333333335', 'long': '-111.94194444444445', 'population': '3140'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Kingston upon Hull', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Kingston_upon_Hull', 'place': 'http://sws.geonames.org/3333159/', 'geo_link': 'http://www.geonames.org/2645425/hull.html', 'lat': '53.74433333333333', 'long': '-0.33249999999999996', 'population': '302296'}</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="C75" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,20 +2217,14 @@
       <c r="F2" t="s">
         <v>399</v>
       </c>
-      <c r="G2" t="s">
-        <v>477</v>
-      </c>
-      <c r="H2" t="s">
-        <v>547</v>
-      </c>
       <c r="I2">
-        <v>1.3746767044067381</v>
+        <v>1.202843904495239</v>
       </c>
       <c r="J2">
-        <v>51.53565788269043</v>
+        <v>23.82620191574097</v>
       </c>
       <c r="K2">
-        <v>0.1093480587005615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2262,19 +2247,19 @@
         <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I3">
-        <v>1.202841520309448</v>
+        <v>1.702722549438477</v>
       </c>
       <c r="J3">
-        <v>30.54066014289856</v>
+        <v>31.416791677474979</v>
       </c>
       <c r="K3">
-        <v>0.12496232986450199</v>
+        <v>0.10935878753662109</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2296,20 +2281,14 @@
       <c r="F4" t="s">
         <v>401</v>
       </c>
-      <c r="G4" t="s">
-        <v>479</v>
-      </c>
-      <c r="H4" t="s">
-        <v>549</v>
-      </c>
       <c r="I4">
-        <v>0.98624253273010254</v>
+        <v>1.9839038848876951</v>
       </c>
       <c r="J4">
-        <v>0.14034247398376459</v>
+        <v>47.284176111221313</v>
       </c>
       <c r="K4">
-        <v>6.2501430511474609E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2328,14 +2307,20 @@
       <c r="E5" t="s">
         <v>309</v>
       </c>
+      <c r="G5" t="s">
+        <v>478</v>
+      </c>
+      <c r="H5" t="s">
+        <v>544</v>
+      </c>
       <c r="I5">
-        <v>0.53136229515075684</v>
+        <v>0.42204165458679199</v>
       </c>
       <c r="J5">
-        <v>28.887036085128781</v>
+        <v>25.526038408279419</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.12467360496521</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2354,17 +2339,11 @@
       <c r="E6" t="s">
         <v>310</v>
       </c>
-      <c r="F6" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" t="s">
-        <v>480</v>
-      </c>
       <c r="I6">
-        <v>0.90588545799255371</v>
+        <v>0.42180752754211431</v>
       </c>
       <c r="J6">
-        <v>31.105834484100338</v>
+        <v>31.82281494140625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2386,23 +2365,14 @@
       <c r="E7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H7" t="s">
-        <v>550</v>
-      </c>
       <c r="I7">
-        <v>1.2340807914733889</v>
+        <v>0.40615177154541021</v>
       </c>
       <c r="J7">
-        <v>31.604509353637699</v>
+        <v>29.77589225769043</v>
       </c>
       <c r="K7">
-        <v>9.3731880187988281E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2422,22 +2392,16 @@
         <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>404</v>
-      </c>
-      <c r="G8" t="s">
-        <v>482</v>
-      </c>
-      <c r="H8" t="s">
-        <v>551</v>
+        <v>402</v>
       </c>
       <c r="I8">
-        <v>1.188885450363159</v>
+        <v>1.015377283096313</v>
       </c>
       <c r="J8">
-        <v>47.426447629928589</v>
+        <v>25.08765530586243</v>
       </c>
       <c r="K8">
-        <v>0.1093919277191162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2457,19 +2421,22 @@
         <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>483</v>
+        <v>479</v>
+      </c>
+      <c r="H9" t="s">
+        <v>545</v>
       </c>
       <c r="I9">
-        <v>1.296567440032959</v>
+        <v>1.249741315841675</v>
       </c>
       <c r="J9">
-        <v>49.67695164680481</v>
+        <v>46.758049011230469</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1249675750732422</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2489,19 +2456,22 @@
         <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>480</v>
+      </c>
+      <c r="H10" t="s">
+        <v>546</v>
       </c>
       <c r="I10">
-        <v>1.0642721652984619</v>
+        <v>1.1716184616088869</v>
       </c>
       <c r="J10">
-        <v>47.146130084991462</v>
+        <v>25.080355405807499</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1561932563781738</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2521,22 +2491,16 @@
         <v>315</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
-      </c>
-      <c r="G11" t="s">
-        <v>485</v>
-      </c>
-      <c r="H11" t="s">
-        <v>552</v>
+        <v>405</v>
       </c>
       <c r="I11">
-        <v>1.1247322559356689</v>
+        <v>1.031233549118042</v>
       </c>
       <c r="J11">
-        <v>50.723499774932861</v>
+        <v>27.762381792068481</v>
       </c>
       <c r="K11">
-        <v>0.10934543609619141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2556,16 +2520,16 @@
         <v>316</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="I12">
-        <v>1.874562740325928</v>
+        <v>1.7495894432067871</v>
       </c>
       <c r="J12">
-        <v>30.792558908462521</v>
+        <v>32.053667306900017</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2587,14 +2551,23 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G13" t="s">
+        <v>482</v>
+      </c>
+      <c r="H13" t="s">
+        <v>547</v>
+      </c>
       <c r="I13">
-        <v>0.46838831901550287</v>
+        <v>1.124954462051392</v>
       </c>
       <c r="J13">
-        <v>24.479600429534909</v>
+        <v>23.652899742126461</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.10925412178039549</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2613,23 +2586,14 @@
       <c r="E14" t="s">
         <v>318</v>
       </c>
-      <c r="F14" t="s">
-        <v>409</v>
-      </c>
-      <c r="G14" t="s">
-        <v>487</v>
-      </c>
-      <c r="H14" t="s">
-        <v>553</v>
-      </c>
       <c r="I14">
-        <v>1.4224879741668699</v>
+        <v>0.43739652633666992</v>
       </c>
       <c r="J14">
-        <v>52.352291107177727</v>
+        <v>26.99596476554871</v>
       </c>
       <c r="K14">
-        <v>0.1249675750732422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2649,22 +2613,19 @@
         <v>319</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G15" t="s">
-        <v>488</v>
-      </c>
-      <c r="H15" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="I15">
-        <v>1.0779955387115481</v>
+        <v>1.0466411113739009</v>
       </c>
       <c r="J15">
-        <v>28.790381908416752</v>
+        <v>22.91888689994812</v>
       </c>
       <c r="K15">
-        <v>0.1094815731048584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2684,13 +2645,16 @@
         <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="G16" t="s">
+        <v>484</v>
       </c>
       <c r="I16">
-        <v>1.4993612766265869</v>
+        <v>2.093025684356689</v>
       </c>
       <c r="J16">
-        <v>24.466491222381588</v>
+        <v>25.907234191894531</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2712,23 +2676,14 @@
       <c r="E17" t="s">
         <v>321</v>
       </c>
-      <c r="F17" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" t="s">
-        <v>489</v>
-      </c>
-      <c r="H17" t="s">
-        <v>553</v>
-      </c>
       <c r="I17">
-        <v>1.484025239944458</v>
+        <v>0.46862292289733892</v>
       </c>
       <c r="J17">
-        <v>32.027065753936768</v>
+        <v>32.056084871292107</v>
       </c>
       <c r="K17">
-        <v>0.1093511581420898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2748,22 +2703,19 @@
         <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>490</v>
-      </c>
-      <c r="H18" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="I18">
-        <v>1.4528124332427981</v>
+        <v>3.078303337097168</v>
       </c>
       <c r="J18">
-        <v>51.835408210754387</v>
+        <v>31.541836261749271</v>
       </c>
       <c r="K18">
-        <v>9.3708992004394531E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2782,23 +2734,14 @@
       <c r="E19" t="s">
         <v>323</v>
       </c>
-      <c r="F19" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" t="s">
-        <v>491</v>
-      </c>
-      <c r="H19" t="s">
-        <v>555</v>
-      </c>
       <c r="I19">
-        <v>1.6256241798400879</v>
+        <v>0.43762493133544922</v>
       </c>
       <c r="J19">
-        <v>28.166614770889279</v>
+        <v>46.306085824966431</v>
       </c>
       <c r="K19">
-        <v>9.3943595886230469E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2815,13 +2758,16 @@
         <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>324</v>
+      </c>
+      <c r="G20" t="s">
+        <v>486</v>
       </c>
       <c r="I20">
-        <v>0.98438215255737305</v>
+        <v>0.40643310546875</v>
       </c>
       <c r="J20">
-        <v>22.24622273445129</v>
+        <v>24.306488037109379</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2841,22 +2787,25 @@
         <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G21" t="s">
-        <v>492</v>
+        <v>487</v>
+      </c>
+      <c r="H21" t="s">
+        <v>548</v>
       </c>
       <c r="I21">
-        <v>1.3275518417358401</v>
+        <v>1.171736478805542</v>
       </c>
       <c r="J21">
-        <v>31.934036254882809</v>
+        <v>32.255908250808723</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.3593120574951172E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -2873,16 +2822,16 @@
         <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I22">
-        <v>0.92157626152038574</v>
+        <v>1.2653570175170901</v>
       </c>
       <c r="J22">
-        <v>44.599832773208618</v>
+        <v>28.74985504150391</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2902,19 +2851,16 @@
         <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F23" t="s">
-        <v>417</v>
-      </c>
-      <c r="G23" t="s">
-        <v>493</v>
+        <v>413</v>
       </c>
       <c r="I23">
-        <v>1.5618810653686519</v>
+        <v>1.6714720726013179</v>
       </c>
       <c r="J23">
-        <v>31.745623350143429</v>
+        <v>23.15592360496521</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2931,28 +2877,22 @@
         <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
-      </c>
-      <c r="G24" t="s">
-        <v>494</v>
-      </c>
-      <c r="H24" t="s">
-        <v>556</v>
+        <v>414</v>
       </c>
       <c r="I24">
-        <v>1.202807664871216</v>
+        <v>1.1247363090515139</v>
       </c>
       <c r="J24">
-        <v>25.841701984405521</v>
+        <v>46.629654407501221</v>
       </c>
       <c r="K24">
-        <v>0.10934138298034669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2966,28 +2906,25 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G25" t="s">
-        <v>495</v>
-      </c>
-      <c r="H25" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="I25">
-        <v>1.2038159370422361</v>
+        <v>2.016910076141357</v>
       </c>
       <c r="J25">
-        <v>31.86838269233704</v>
+        <v>31.308170318603519</v>
       </c>
       <c r="K25">
-        <v>0.10935258865356449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3001,28 +2938,25 @@
         <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" t="s">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="G26" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H26" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="I26">
-        <v>0.95290088653564453</v>
+        <v>0.46863818168640142</v>
       </c>
       <c r="J26">
-        <v>31.262624025344849</v>
+        <v>42.96692681312561</v>
       </c>
       <c r="K26">
-        <v>0.1247339248657227</v>
+        <v>0.12689500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3036,22 +2970,28 @@
         <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F27" t="s">
-        <v>421</v>
+        <v>416</v>
+      </c>
+      <c r="G27" t="s">
+        <v>490</v>
+      </c>
+      <c r="H27" t="s">
+        <v>550</v>
       </c>
       <c r="I27">
-        <v>1.2808904647827151</v>
+        <v>1.515279293060303</v>
       </c>
       <c r="J27">
-        <v>29.009717702865601</v>
+        <v>52.53809642791748</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.10934329032897951</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3065,22 +3005,16 @@
         <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
-      </c>
-      <c r="F28" t="s">
-        <v>422</v>
-      </c>
-      <c r="G28" t="s">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="I28">
-        <v>7.3266232013702393</v>
+        <v>0.42180752754211431</v>
       </c>
       <c r="J28">
-        <v>30.32492113113403</v>
+        <v>23.793586492538449</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3097,28 +3031,28 @@
         <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G29" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H29" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I29">
-        <v>1.1715965270996089</v>
+        <v>1.265572786331177</v>
       </c>
       <c r="J29">
-        <v>26.02593374252319</v>
+        <v>31.027363777160641</v>
       </c>
       <c r="K29">
-        <v>9.3906402587890625E-2</v>
+        <v>0.15624880790710449</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3132,28 +3066,22 @@
         <v>138</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F30" t="s">
-        <v>424</v>
-      </c>
-      <c r="G30" t="s">
-        <v>499</v>
-      </c>
-      <c r="H30" t="s">
-        <v>560</v>
+        <v>418</v>
       </c>
       <c r="I30">
-        <v>7.310776948928833</v>
+        <v>1.202843904495239</v>
       </c>
       <c r="J30">
-        <v>31.12173962593079</v>
+        <v>30.682747364044189</v>
       </c>
       <c r="K30">
-        <v>0.109356164932251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3167,28 +3095,25 @@
         <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F31" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>500</v>
-      </c>
-      <c r="H31" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="I31">
-        <v>1.6244320869445801</v>
+        <v>1.640241146087646</v>
       </c>
       <c r="J31">
-        <v>32.073625802993767</v>
+        <v>30.076870918273929</v>
       </c>
       <c r="K31">
-        <v>0.10938024520874021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3202,19 +3127,28 @@
         <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>332</v>
+        <v>336</v>
+      </c>
+      <c r="F32" t="s">
+        <v>420</v>
+      </c>
+      <c r="G32" t="s">
+        <v>493</v>
+      </c>
+      <c r="H32" t="s">
+        <v>550</v>
       </c>
       <c r="I32">
-        <v>0.42153191566467291</v>
+        <v>1.983908891677856</v>
       </c>
       <c r="J32">
-        <v>23.620606899261471</v>
+        <v>53.038608551025391</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.1093423366546631</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3228,19 +3162,16 @@
         <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="I33">
-        <v>1.671495914459229</v>
+        <v>0.56237387657165527</v>
       </c>
       <c r="J33">
-        <v>47.084603071212769</v>
+        <v>56.176837682723999</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3257,25 +3188,28 @@
         <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F34" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G34" t="s">
-        <v>501</v>
+        <v>494</v>
+      </c>
+      <c r="H34" t="s">
+        <v>552</v>
       </c>
       <c r="I34">
-        <v>1.6245772838592529</v>
+        <v>1.3119568824768071</v>
       </c>
       <c r="J34">
-        <v>30.83749532699585</v>
+        <v>31.977828025817871</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>0.10933685302734381</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3289,22 +3223,22 @@
         <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F35" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G35" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="I35">
-        <v>1.593587398529053</v>
+        <v>1.3903119564056401</v>
       </c>
       <c r="J35">
-        <v>31.85456109046936</v>
+        <v>31.681731939315799</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3321,22 +3255,22 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F36" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G36" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="I36">
-        <v>1.4396846294403081</v>
+        <v>1.843315124511719</v>
       </c>
       <c r="J36">
-        <v>26.025252819061279</v>
+        <v>31.85284423828125</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3353,28 +3287,19 @@
         <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>337</v>
-      </c>
-      <c r="F37" t="s">
-        <v>430</v>
-      </c>
-      <c r="G37" t="s">
-        <v>504</v>
-      </c>
-      <c r="H37" t="s">
-        <v>561</v>
+        <v>341</v>
       </c>
       <c r="I37">
-        <v>1.0622456073760991</v>
+        <v>0.40604257583618159</v>
       </c>
       <c r="J37">
-        <v>30.541241645812988</v>
+        <v>23.495879411697391</v>
       </c>
       <c r="K37">
-        <v>0.1249737739562988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -3388,22 +3313,19 @@
         <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F38" t="s">
-        <v>431</v>
-      </c>
-      <c r="G38" t="s">
-        <v>505</v>
+        <v>424</v>
       </c>
       <c r="I38">
-        <v>1.671478271484375</v>
+        <v>1.124503612518311</v>
       </c>
       <c r="J38">
-        <v>52.600523710250847</v>
+        <v>24.339270830154419</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3420,28 +3342,19 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>339</v>
-      </c>
-      <c r="F39" t="s">
-        <v>432</v>
-      </c>
-      <c r="G39" t="s">
-        <v>506</v>
-      </c>
-      <c r="H39" t="s">
-        <v>549</v>
+        <v>343</v>
       </c>
       <c r="I39">
-        <v>1.109087228775024</v>
+        <v>0.46888828277587891</v>
       </c>
       <c r="J39">
-        <v>0.1405906677246094</v>
+        <v>28.624221801757809</v>
       </c>
       <c r="K39">
-        <v>9.3754291534423828E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -3455,22 +3368,28 @@
         <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F40" t="s">
-        <v>433</v>
+        <v>425</v>
+      </c>
+      <c r="G40" t="s">
+        <v>497</v>
+      </c>
+      <c r="H40" t="s">
+        <v>553</v>
       </c>
       <c r="I40">
-        <v>1.1247315406799321</v>
+        <v>1.8433113098144529</v>
       </c>
       <c r="J40">
-        <v>30.074964046478271</v>
+        <v>50.795032978057861</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.1249845027923584</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3484,28 +3403,25 @@
         <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F41" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G41" t="s">
-        <v>507</v>
-      </c>
-      <c r="H41" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="I41">
-        <v>1.4996464252471919</v>
+        <v>1.577519416809082</v>
       </c>
       <c r="J41">
-        <v>31.601642847061161</v>
+        <v>31.744810819625851</v>
       </c>
       <c r="K41">
-        <v>0.1096079349517822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -3519,28 +3435,19 @@
         <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42" t="s">
-        <v>435</v>
-      </c>
-      <c r="G42" t="s">
-        <v>508</v>
-      </c>
-      <c r="H42" t="s">
-        <v>554</v>
+        <v>346</v>
       </c>
       <c r="I42">
-        <v>1.624470472335815</v>
+        <v>0.4217681884765625</v>
       </c>
       <c r="J42">
-        <v>31.229580879211429</v>
+        <v>23.294386625289921</v>
       </c>
       <c r="K42">
-        <v>0.1093471050262451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -3554,28 +3461,25 @@
         <v>151</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F43" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G43" t="s">
-        <v>509</v>
-      </c>
-      <c r="H43" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="I43">
-        <v>1.374667167663574</v>
+        <v>1.405919075012207</v>
       </c>
       <c r="J43">
-        <v>27.384946823120121</v>
+        <v>31.84105467796326</v>
       </c>
       <c r="K43">
-        <v>0.1249675750732422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -3589,28 +3493,22 @@
         <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E44" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F44" t="s">
-        <v>437</v>
-      </c>
-      <c r="G44" t="s">
-        <v>510</v>
-      </c>
-      <c r="H44" t="s">
-        <v>563</v>
+        <v>428</v>
       </c>
       <c r="I44">
-        <v>1.249704122543335</v>
+        <v>1.687116861343384</v>
       </c>
       <c r="J44">
-        <v>50.05288290977478</v>
+        <v>45.757901430129998</v>
       </c>
       <c r="K44">
-        <v>0.1249737739562988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -3624,28 +3522,25 @@
         <v>153</v>
       </c>
       <c r="D45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>511</v>
-      </c>
-      <c r="H45" t="s">
-        <v>564</v>
+        <v>500</v>
       </c>
       <c r="I45">
-        <v>1.2340846061706541</v>
+        <v>1.1715958118438721</v>
       </c>
       <c r="J45">
-        <v>31.322890758514401</v>
+        <v>30.650090456008911</v>
       </c>
       <c r="K45">
-        <v>0.1093490123748779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -3659,19 +3554,28 @@
         <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>350</v>
+      </c>
+      <c r="F46" t="s">
+        <v>430</v>
+      </c>
+      <c r="G46" t="s">
+        <v>501</v>
+      </c>
+      <c r="H46" t="s">
+        <v>554</v>
       </c>
       <c r="I46">
-        <v>0.48426222801208502</v>
+        <v>1.077827930450439</v>
       </c>
       <c r="J46">
-        <v>27.947834730148319</v>
+        <v>30.55979752540588</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>9.3982934951782227E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -3685,28 +3589,25 @@
         <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
-        <v>346</v>
-      </c>
-      <c r="F47" t="s">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H47" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="I47">
-        <v>0.89017939567565918</v>
+        <v>0.48426008224487299</v>
       </c>
       <c r="J47">
-        <v>30.911026477813721</v>
+        <v>25.729320287704471</v>
       </c>
       <c r="K47">
-        <v>0.10958337783813479</v>
+        <v>0.1093480587005615</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -3720,25 +3621,28 @@
         <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E48" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G48" t="s">
-        <v>513</v>
+        <v>503</v>
+      </c>
+      <c r="H48" t="s">
+        <v>556</v>
       </c>
       <c r="I48">
-        <v>1.858715772628784</v>
+        <v>0.92150092124938965</v>
       </c>
       <c r="J48">
-        <v>0.1720588207244873</v>
+        <v>31.760744333267208</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.1096186637878418</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -3752,16 +3656,22 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>353</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>504</v>
       </c>
       <c r="I49">
-        <v>0.43739414215087891</v>
+        <v>1.2028477191925051</v>
       </c>
       <c r="J49">
-        <v>26.98090648651123</v>
+        <v>31.036474704742432</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3778,19 +3688,28 @@
         <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>158</v>
+      </c>
+      <c r="F50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G50" t="s">
+        <v>505</v>
+      </c>
+      <c r="H50" t="s">
+        <v>557</v>
       </c>
       <c r="I50">
-        <v>0.45301127433776861</v>
+        <v>1.562129020690918</v>
       </c>
       <c r="J50">
-        <v>49.08287787437439</v>
+        <v>31.221992492675781</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>9.3729496002197266E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -3804,25 +3723,28 @@
         <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>514</v>
+        <v>506</v>
+      </c>
+      <c r="H51" t="s">
+        <v>558</v>
       </c>
       <c r="I51">
-        <v>0.92165589332580566</v>
+        <v>1.2340531349182129</v>
       </c>
       <c r="J51">
-        <v>31.242971420288089</v>
+        <v>24.18279504776001</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.17186927795410159</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -3836,22 +3758,16 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
-      </c>
-      <c r="F52" t="s">
-        <v>442</v>
-      </c>
-      <c r="G52" t="s">
-        <v>515</v>
+        <v>355</v>
       </c>
       <c r="I52">
-        <v>1.6087486743927</v>
+        <v>0.39079833030700678</v>
       </c>
       <c r="J52">
-        <v>53.50781774520874</v>
+        <v>23.043429374694821</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3868,16 +3784,19 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>356</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
       </c>
       <c r="I53">
-        <v>0.40591239929199219</v>
+        <v>1.2187120914459231</v>
       </c>
       <c r="J53">
-        <v>24.83874869346619</v>
+        <v>59.568805456161499</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3894,28 +3813,25 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
-        <v>516</v>
-      </c>
-      <c r="H54" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="I54">
-        <v>1.4996933937072749</v>
+        <v>2.4059932231903081</v>
       </c>
       <c r="J54">
-        <v>31.617752075195309</v>
+        <v>31.10493540763855</v>
       </c>
       <c r="K54">
-        <v>0.1249215602874756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3929,19 +3845,19 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F55" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="I55">
-        <v>13.293742418289179</v>
+        <v>1.4369292259216311</v>
       </c>
       <c r="J55">
-        <v>40.97654128074646</v>
+        <v>24.637896537780762</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3958,25 +3874,28 @@
         <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G56" t="s">
-        <v>517</v>
+        <v>508</v>
+      </c>
+      <c r="H56" t="s">
+        <v>559</v>
       </c>
       <c r="I56">
-        <v>1.2968382835388179</v>
+        <v>1.530917644500732</v>
       </c>
       <c r="J56">
-        <v>31.07115912437439</v>
+        <v>32.054720163345337</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>0.17184185981750491</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3990,22 +3909,22 @@
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E57" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F57" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="I57">
-        <v>2.0776653289794922</v>
+        <v>1.0778706073760991</v>
       </c>
       <c r="J57">
-        <v>62.189377784728997</v>
+        <v>31.566337108612061</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -4022,19 +3941,28 @@
         <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E58" t="s">
-        <v>357</v>
+        <v>361</v>
+      </c>
+      <c r="F58" t="s">
+        <v>440</v>
+      </c>
+      <c r="G58" t="s">
+        <v>510</v>
+      </c>
+      <c r="H58" t="s">
+        <v>560</v>
       </c>
       <c r="I58">
-        <v>0.39080381393432623</v>
+        <v>1.8120725154876709</v>
       </c>
       <c r="J58">
-        <v>27.744021892547611</v>
+        <v>52.467138290405273</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.12496447563171389</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4048,19 +3976,22 @@
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="G59" t="s">
+        <v>511</v>
       </c>
       <c r="I59">
-        <v>1.530853271484375</v>
+        <v>1.73491358757019</v>
       </c>
       <c r="J59">
-        <v>28.10440897941589</v>
+        <v>23.85749340057373</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -4077,22 +4008,16 @@
         <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E60" t="s">
-        <v>359</v>
-      </c>
-      <c r="F60" t="s">
-        <v>448</v>
-      </c>
-      <c r="G60" t="s">
-        <v>519</v>
+        <v>357</v>
       </c>
       <c r="I60">
-        <v>1.81207275390625</v>
+        <v>0.42185306549072271</v>
       </c>
       <c r="J60">
-        <v>31.96261382102966</v>
+        <v>22.185172319412231</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -4109,28 +4034,22 @@
         <v>169</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
-      </c>
-      <c r="G61" t="s">
-        <v>520</v>
-      </c>
-      <c r="H61" t="s">
-        <v>567</v>
+        <v>442</v>
       </c>
       <c r="I61">
-        <v>2.9055607318878169</v>
+        <v>1.6558570861816411</v>
       </c>
       <c r="J61">
-        <v>31.462316989898682</v>
+        <v>21.40278959274292</v>
       </c>
       <c r="K61">
-        <v>0.1093387603759766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4144,25 +4063,28 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F62" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="G62" t="s">
-        <v>521</v>
+        <v>512</v>
+      </c>
+      <c r="H62" t="s">
+        <v>561</v>
       </c>
       <c r="I62">
-        <v>1.56236720085144</v>
+        <v>1.515032052993774</v>
       </c>
       <c r="J62">
-        <v>31.776175022125241</v>
+        <v>31.761087417602539</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.1249701976776123</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4176,28 +4098,28 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F63" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G63" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="H63" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="I63">
-        <v>1.171821594238281</v>
+        <v>1.0934896469116211</v>
       </c>
       <c r="J63">
-        <v>30.278090000152591</v>
+        <v>29.608621120452881</v>
       </c>
       <c r="K63">
-        <v>0.1093928813934326</v>
+        <v>0.1251835823059082</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4211,28 +4133,28 @@
         <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I64">
-        <v>1.2496933937072749</v>
+        <v>1.280962467193604</v>
       </c>
       <c r="J64">
-        <v>30.742892026901249</v>
+        <v>31.144167184829708</v>
       </c>
       <c r="K64">
-        <v>0.15620708465576169</v>
+        <v>0.10961127281188961</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4246,28 +4168,28 @@
         <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F65" t="s">
-        <v>580</v>
+        <v>446</v>
       </c>
       <c r="G65" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="I65">
-        <v>1.2596927840000001</v>
+        <v>1.3902850151062009</v>
       </c>
       <c r="J65">
-        <v>27.326952457427979</v>
+        <v>31.229973793029789</v>
       </c>
       <c r="K65">
-        <v>9.3549251556396484E-2</v>
+        <v>9.395146369934082E-2</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4281,28 +4203,28 @@
         <v>174</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F66" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G66" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="H66" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I66">
-        <v>1.109125137329102</v>
+        <v>1.2184658050537109</v>
       </c>
       <c r="J66">
-        <v>30.39957070350647</v>
+        <v>42.501519441604607</v>
       </c>
       <c r="K66">
-        <v>9.4005107879638672E-2</v>
+        <v>0.1249756813049316</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -4316,28 +4238,28 @@
         <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G67" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="H67" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="I67">
-        <v>1.577753067016602</v>
+        <v>1.2340846061706541</v>
       </c>
       <c r="J67">
-        <v>31.276524543762211</v>
+        <v>25.160522699356079</v>
       </c>
       <c r="K67">
-        <v>9.4000339508056641E-2</v>
+        <v>0.1249711513519287</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4351,25 +4273,28 @@
         <v>176</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F68" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G68" t="s">
-        <v>527</v>
+        <v>518</v>
+      </c>
+      <c r="H68" t="s">
+        <v>567</v>
       </c>
       <c r="I68">
-        <v>2.343194961547852</v>
+        <v>1.405920028686523</v>
       </c>
       <c r="J68">
-        <v>30.995919227600101</v>
+        <v>52.336731672286987</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>0.12497067451477049</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -4383,22 +4308,16 @@
         <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>368</v>
-      </c>
-      <c r="F69" t="s">
-        <v>456</v>
-      </c>
-      <c r="G69" t="s">
-        <v>528</v>
+        <v>371</v>
       </c>
       <c r="I69">
-        <v>1.218464851379395</v>
+        <v>0.40619349479675287</v>
       </c>
       <c r="J69">
-        <v>44.506902933120728</v>
+        <v>24.993929862976071</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -4415,25 +4334,28 @@
         <v>178</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>369</v>
+        <v>372</v>
+      </c>
+      <c r="F70" t="s">
+        <v>450</v>
       </c>
       <c r="G70" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I70">
-        <v>0.42191815376281738</v>
+        <v>1.2184939384460449</v>
       </c>
       <c r="J70">
-        <v>24.65178108215332</v>
+        <v>31.4883439540863</v>
       </c>
       <c r="K70">
-        <v>0.1248257160186768</v>
+        <v>0.14058899879455569</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -4447,19 +4369,28 @@
         <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" t="s">
+        <v>520</v>
+      </c>
+      <c r="H71" t="s">
+        <v>569</v>
       </c>
       <c r="I71">
-        <v>0.43764305114746088</v>
+        <v>1.1716234683990481</v>
       </c>
       <c r="J71">
-        <v>30.399816036224369</v>
+        <v>24.151518821716309</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>0.1249675750732422</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -4473,22 +4404,28 @@
         <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>371</v>
+        <v>374</v>
+      </c>
+      <c r="F72" t="s">
+        <v>452</v>
       </c>
       <c r="G72" t="s">
-        <v>530</v>
+        <v>521</v>
+      </c>
+      <c r="H72" t="s">
+        <v>570</v>
       </c>
       <c r="I72">
-        <v>0.48422813415527338</v>
+        <v>1.109379768371582</v>
       </c>
       <c r="J72">
-        <v>30.682965517044071</v>
+        <v>30.775558948516849</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>0.10908174514770511</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -4502,16 +4439,19 @@
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="F73" t="s">
+        <v>453</v>
       </c>
       <c r="I73">
-        <v>0.39051985740661621</v>
+        <v>1.7183794975280759</v>
       </c>
       <c r="J73">
-        <v>24.791951179504391</v>
+        <v>22.9101881980896</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -4528,19 +4468,28 @@
         <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="F74" t="s">
+        <v>454</v>
+      </c>
+      <c r="G74" t="s">
+        <v>522</v>
+      </c>
+      <c r="H74" t="s">
+        <v>571</v>
       </c>
       <c r="I74">
-        <v>0.43739914894103998</v>
+        <v>1.234901428222656</v>
       </c>
       <c r="J74">
-        <v>23.703039884567261</v>
+        <v>32.136364698410027</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>0.1248948574066162</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -4554,28 +4503,28 @@
         <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G75" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H75" t="s">
         <v>572</v>
       </c>
       <c r="I75">
-        <v>1.343236923217773</v>
+        <v>1.312263488769531</v>
       </c>
       <c r="J75">
-        <v>22.72952938079834</v>
+        <v>27.261161088943481</v>
       </c>
       <c r="K75">
-        <v>9.3691349029541016E-2</v>
+        <v>0.1249086856842041</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -4589,19 +4538,22 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E76" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F76" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="G76" t="s">
+        <v>524</v>
       </c>
       <c r="I76">
-        <v>1.031004905700684</v>
+        <v>1.0310060977935791</v>
       </c>
       <c r="J76">
-        <v>24.715205192565922</v>
+        <v>51.760160446166992</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -4618,22 +4570,28 @@
         <v>185</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="F77" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="G77" t="s">
+        <v>525</v>
+      </c>
+      <c r="H77" t="s">
+        <v>573</v>
       </c>
       <c r="I77">
-        <v>1.936890125274658</v>
+        <v>1.390297651290894</v>
       </c>
       <c r="J77">
-        <v>23.682415246963501</v>
+        <v>43.694606304168701</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>0.156458854675293</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -4647,22 +4605,22 @@
         <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E78" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F78" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G78" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="I78">
-        <v>7.1545581817626953</v>
+        <v>1.2184522151947019</v>
       </c>
       <c r="J78">
-        <v>21.777078866958622</v>
+        <v>27.214130163192749</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4679,19 +4637,19 @@
         <v>187</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E79" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F79" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I79">
-        <v>1.2182984352111821</v>
+        <v>1.6871135234832759</v>
       </c>
       <c r="J79">
-        <v>21.54391694068909</v>
+        <v>23.061432123184201</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -4708,28 +4666,25 @@
         <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E80" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G80" t="s">
-        <v>533</v>
-      </c>
-      <c r="H80" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="I80">
-        <v>1.2497067451477051</v>
+        <v>1.2028284072875981</v>
       </c>
       <c r="J80">
-        <v>51.30297327041626</v>
+        <v>26.28158783912659</v>
       </c>
       <c r="K80">
-        <v>0.1093485355377197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -4743,28 +4698,19 @@
         <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E81" t="s">
-        <v>380</v>
-      </c>
-      <c r="F81" t="s">
-        <v>463</v>
-      </c>
-      <c r="G81" t="s">
-        <v>534</v>
-      </c>
-      <c r="H81" t="s">
-        <v>574</v>
+        <v>382</v>
       </c>
       <c r="I81">
-        <v>7.4984748363494873</v>
+        <v>0.4530034065246582</v>
       </c>
       <c r="J81">
-        <v>25.57279372215271</v>
+        <v>45.352120876312263</v>
       </c>
       <c r="K81">
-        <v>9.3728303909301758E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -4778,22 +4724,16 @@
         <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E82" t="s">
-        <v>381</v>
-      </c>
-      <c r="F82" t="s">
-        <v>464</v>
-      </c>
-      <c r="G82" t="s">
-        <v>535</v>
+        <v>383</v>
       </c>
       <c r="I82">
-        <v>1.4684314727783201</v>
+        <v>0.46860122680664063</v>
       </c>
       <c r="J82">
-        <v>30.262785673141479</v>
+        <v>43.792182683944702</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4810,22 +4750,19 @@
         <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E83" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F83" t="s">
-        <v>465</v>
-      </c>
-      <c r="G83" t="s">
-        <v>536</v>
+        <v>461</v>
       </c>
       <c r="I83">
-        <v>1.0623693466186519</v>
+        <v>1.374881267547607</v>
       </c>
       <c r="J83">
-        <v>27.652792930603031</v>
+        <v>26.565184116363529</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4842,25 +4779,28 @@
         <v>192</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G84" t="s">
-        <v>537</v>
+        <v>528</v>
+      </c>
+      <c r="H84" t="s">
+        <v>556</v>
       </c>
       <c r="I84">
-        <v>1.2653284072875981</v>
+        <v>1.6089954376220701</v>
       </c>
       <c r="J84">
-        <v>32.133603811264038</v>
+        <v>30.232446908950809</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>0.2967987060546875</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4874,25 +4814,28 @@
         <v>193</v>
       </c>
       <c r="D85" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="F85" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G85" t="s">
-        <v>538</v>
+        <v>529</v>
+      </c>
+      <c r="H85" t="s">
+        <v>560</v>
       </c>
       <c r="I85">
-        <v>1.218463182449341</v>
+        <v>1.999643802642822</v>
       </c>
       <c r="J85">
-        <v>27.97876667976379</v>
+        <v>31.75886344909668</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>0.1248536109924316</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4906,28 +4849,28 @@
         <v>194</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
         <v>385</v>
       </c>
       <c r="F86" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G86" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="H86" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="I86">
-        <v>0.99976491928100586</v>
+        <v>1.796732902526855</v>
       </c>
       <c r="J86">
-        <v>31.435308218002319</v>
+        <v>52.334430456161499</v>
       </c>
       <c r="K86">
-        <v>9.3730449676513672E-2</v>
+        <v>0.1090700626373291</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4941,16 +4884,19 @@
         <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
         <v>386</v>
       </c>
+      <c r="F87" t="s">
+        <v>465</v>
+      </c>
       <c r="I87">
-        <v>0.42176342010498052</v>
+        <v>1.4059164524078369</v>
       </c>
       <c r="J87">
-        <v>24.871458053588871</v>
+        <v>28.589003086090091</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4967,22 +4913,28 @@
         <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E88" t="s">
         <v>387</v>
       </c>
+      <c r="F88" t="s">
+        <v>466</v>
+      </c>
       <c r="G88" t="s">
-        <v>540</v>
+        <v>531</v>
+      </c>
+      <c r="H88" t="s">
+        <v>574</v>
       </c>
       <c r="I88">
-        <v>0.42176461219787598</v>
+        <v>1.374679803848267</v>
       </c>
       <c r="J88">
-        <v>43.835090160369873</v>
+        <v>30.774613857269291</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>9.3810081481933594E-2</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -4996,19 +4948,28 @@
         <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E89" t="s">
         <v>388</v>
       </c>
+      <c r="F89" t="s">
+        <v>467</v>
+      </c>
+      <c r="G89" t="s">
+        <v>532</v>
+      </c>
+      <c r="H89" t="s">
+        <v>575</v>
+      </c>
       <c r="I89">
-        <v>6.4204587936401367</v>
+        <v>1.6714775562286379</v>
       </c>
       <c r="J89">
-        <v>25.152929067611691</v>
+        <v>30.282842397689819</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.1249687671661377</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5022,28 +4983,28 @@
         <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
         <v>389</v>
       </c>
       <c r="F90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G90" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="H90" t="s">
         <v>576</v>
       </c>
       <c r="I90">
-        <v>1.250307559967041</v>
+        <v>2.0620133876800542</v>
       </c>
       <c r="J90">
-        <v>30.261774063110352</v>
+        <v>30.66564583778381</v>
       </c>
       <c r="K90">
-        <v>9.3909978866577148E-2</v>
+        <v>0.14058804512023931</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5057,28 +5018,28 @@
         <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
         <v>390</v>
       </c>
       <c r="F91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G91" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H91" t="s">
         <v>577</v>
       </c>
       <c r="I91">
-        <v>0.90629315376281738</v>
+        <v>1.1559751033782959</v>
       </c>
       <c r="J91">
-        <v>31.510603904724121</v>
+        <v>22.795555353164669</v>
       </c>
       <c r="K91">
-        <v>0.109203577041626</v>
+        <v>0.1093664169311523</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5092,28 +5053,25 @@
         <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
         <v>391</v>
       </c>
-      <c r="F92" t="s">
-        <v>471</v>
-      </c>
       <c r="G92" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H92" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="I92">
-        <v>1.1715648174285891</v>
+        <v>0.45301389694213873</v>
       </c>
       <c r="J92">
-        <v>28.556486368179321</v>
+        <v>26.684223413467411</v>
       </c>
       <c r="K92">
-        <v>0.1096122264862061</v>
+        <v>0.1094627380371094</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5127,19 +5085,22 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
         <v>392</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>470</v>
+      </c>
+      <c r="G93" t="s">
+        <v>536</v>
       </c>
       <c r="I93">
-        <v>3.2021970748901372</v>
+        <v>1.2353875637054439</v>
       </c>
       <c r="J93">
-        <v>21.79518556594849</v>
+        <v>20.29236364364624</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -5156,16 +5117,22 @@
         <v>202</v>
       </c>
       <c r="D94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
         <v>393</v>
       </c>
+      <c r="F94" t="s">
+        <v>471</v>
+      </c>
+      <c r="G94" t="s">
+        <v>537</v>
+      </c>
       <c r="I94">
-        <v>0.46846318244934082</v>
+        <v>2.233878374099731</v>
       </c>
       <c r="J94">
-        <v>44.931560516357422</v>
+        <v>31.38973951339722</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -5182,19 +5149,22 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
         <v>394</v>
       </c>
       <c r="F95" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="G95" t="s">
+        <v>538</v>
       </c>
       <c r="I95">
-        <v>1.188946008682251</v>
+        <v>1.218434810638428</v>
       </c>
       <c r="J95">
-        <v>22.40213322639465</v>
+        <v>27.4345588684082</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -5211,28 +5181,28 @@
         <v>204</v>
       </c>
       <c r="D96" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="F96" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G96" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H96" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I96">
-        <v>1.203100919723511</v>
+        <v>1.9995489120483401</v>
       </c>
       <c r="J96">
-        <v>30.66538047790527</v>
+        <v>31.33720064163208</v>
       </c>
       <c r="K96">
-        <v>0.1093490123748779</v>
+        <v>0.12509846687316889</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -5249,13 +5219,19 @@
         <v>302</v>
       </c>
       <c r="E97" t="s">
-        <v>395</v>
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
+        <v>474</v>
+      </c>
+      <c r="G97" t="s">
+        <v>540</v>
       </c>
       <c r="I97">
-        <v>0.46863436698913569</v>
+        <v>2.1401162147521968</v>
       </c>
       <c r="J97">
-        <v>28.935508251190189</v>
+        <v>31.190200328826901</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5275,25 +5251,22 @@
         <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>396</v>
+        <v>206</v>
       </c>
       <c r="F98" t="s">
         <v>475</v>
       </c>
       <c r="G98" t="s">
-        <v>545</v>
-      </c>
-      <c r="H98" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="I98">
-        <v>1.1246991157531741</v>
+        <v>1.1872222423553469</v>
       </c>
       <c r="J98">
-        <v>23.947236061096191</v>
+        <v>53.199769735336297</v>
       </c>
       <c r="K98">
-        <v>9.3989133834838867E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -5313,10 +5286,10 @@
         <v>397</v>
       </c>
       <c r="I99">
-        <v>0.4373779296875</v>
+        <v>0.40615153312683111</v>
       </c>
       <c r="J99">
-        <v>26.323610305786129</v>
+        <v>25.776205539703369</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -5333,25 +5306,28 @@
         <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>329</v>
+        <v>398</v>
       </c>
       <c r="F100" t="s">
         <v>476</v>
       </c>
       <c r="G100" t="s">
-        <v>546</v>
+        <v>542</v>
+      </c>
+      <c r="H100" t="s">
+        <v>556</v>
       </c>
       <c r="I100">
-        <v>1.483763694763184</v>
+        <v>1.1247515678405759</v>
       </c>
       <c r="J100">
-        <v>53.099527597427368</v>
+        <v>31.191252946853641</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>0.1249687671661377</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -5365,16 +5341,16 @@
         <v>209</v>
       </c>
       <c r="D101" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>158</v>
       </c>
       <c r="I101">
-        <v>0.40592408180236822</v>
+        <v>0.51573300361633301</v>
       </c>
       <c r="J101">
-        <v>25.85521388053894</v>
+        <v>47.80173921585083</v>
       </c>
       <c r="K101">
         <v>0</v>
